--- a/Excel reports/Performance_report.xlsx
+++ b/Excel reports/Performance_report.xlsx
@@ -485,7 +485,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>APISentiment</t>
+          <t>CombinedVaderSentiment</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -556,7 +556,7 @@
         <v>44466</v>
       </c>
       <c r="M2" t="n">
-        <v>6.530086030583334</v>
+        <v>7.164481893169068</v>
       </c>
       <c r="N2" t="n">
         <v>1</v>
@@ -614,7 +614,7 @@
         <v>44473</v>
       </c>
       <c r="M3" t="n">
-        <v>6.530086030583334</v>
+        <v>7.164481893169068</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
@@ -672,7 +672,7 @@
         <v>44480</v>
       </c>
       <c r="M4" t="n">
-        <v>6.530086030583334</v>
+        <v>7.164481893169068</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
@@ -730,7 +730,7 @@
         <v>44487</v>
       </c>
       <c r="M5" t="n">
-        <v>6.530086030583334</v>
+        <v>7.164481893169068</v>
       </c>
       <c r="N5" t="n">
         <v>1</v>
@@ -788,7 +788,7 @@
         <v>44494</v>
       </c>
       <c r="M6" t="n">
-        <v>6.530086030583334</v>
+        <v>7.164481893169068</v>
       </c>
       <c r="N6" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>44501</v>
       </c>
       <c r="M7" t="n">
-        <v>6.530086030583334</v>
+        <v>7.164481893169068</v>
       </c>
       <c r="N7" t="n">
         <v>1</v>
@@ -904,7 +904,7 @@
         <v>44508</v>
       </c>
       <c r="M8" t="n">
-        <v>6.530086030583334</v>
+        <v>7.164481893169068</v>
       </c>
       <c r="N8" t="n">
         <v>1</v>
@@ -962,7 +962,7 @@
         <v>44515</v>
       </c>
       <c r="M9" t="n">
-        <v>6.530086030583334</v>
+        <v>7.164481893169068</v>
       </c>
       <c r="N9" t="n">
         <v>1</v>
@@ -1020,7 +1020,7 @@
         <v>44522</v>
       </c>
       <c r="M10" t="n">
-        <v>6.530086030583334</v>
+        <v>7.164481893169068</v>
       </c>
       <c r="N10" t="n">
         <v>1</v>
@@ -1078,7 +1078,7 @@
         <v>44529</v>
       </c>
       <c r="M11" t="n">
-        <v>6.530086030583334</v>
+        <v>7.164481893169068</v>
       </c>
       <c r="N11" t="n">
         <v>1</v>
@@ -1136,7 +1136,7 @@
         <v>44536</v>
       </c>
       <c r="M12" t="n">
-        <v>6.530086030583334</v>
+        <v>7.164481893169068</v>
       </c>
       <c r="N12" t="n">
         <v>1</v>
@@ -1188,13 +1188,13 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>0.963</v>
+        <v>0.959</v>
       </c>
       <c r="L13" s="2" t="n">
         <v>44543</v>
       </c>
       <c r="M13" t="n">
-        <v>6.530086030583334</v>
+        <v>7.164481893169068</v>
       </c>
       <c r="N13" t="n">
         <v>1</v>
@@ -1246,13 +1246,13 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>0.548</v>
+        <v>0.56335</v>
       </c>
       <c r="L14" s="2" t="n">
         <v>44550</v>
       </c>
       <c r="M14" t="n">
-        <v>6.530086030583334</v>
+        <v>7.164481893169068</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
@@ -1304,13 +1304,13 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>0.891</v>
+        <v>0.5781000000000001</v>
       </c>
       <c r="L15" s="2" t="n">
         <v>44557</v>
       </c>
       <c r="M15" t="n">
-        <v>6.530086030583334</v>
+        <v>7.164481893169068</v>
       </c>
       <c r="N15" t="n">
         <v>1</v>
@@ -1362,13 +1362,13 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.852</v>
       </c>
       <c r="L16" s="2" t="n">
         <v>44564</v>
       </c>
       <c r="M16" t="n">
-        <v>6.530086030583334</v>
+        <v>7.164481893169068</v>
       </c>
       <c r="N16" t="n">
         <v>1</v>
@@ -1420,13 +1420,13 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="L17" s="2" t="n">
         <v>44571</v>
       </c>
       <c r="M17" t="n">
-        <v>6.530086030583334</v>
+        <v>7.164481893169068</v>
       </c>
       <c r="N17" t="n">
         <v>1</v>
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>0.993</v>
+        <v>0.9924999999999999</v>
       </c>
       <c r="L18" s="2" t="n">
         <v>44578</v>
       </c>
       <c r="M18" t="n">
-        <v>6.530086030583334</v>
+        <v>7.164481893169068</v>
       </c>
       <c r="N18" t="n">
         <v>1</v>
@@ -1536,13 +1536,13 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
       <c r="L19" s="2" t="n">
         <v>44585</v>
       </c>
       <c r="M19" t="n">
-        <v>6.530086030583334</v>
+        <v>7.164481893169068</v>
       </c>
       <c r="N19" t="n">
         <v>1</v>
@@ -1594,13 +1594,13 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
       <c r="L20" s="2" t="n">
         <v>44592</v>
       </c>
       <c r="M20" t="n">
-        <v>6.530086030583334</v>
+        <v>7.164481893169068</v>
       </c>
       <c r="N20" t="n">
         <v>1</v>
@@ -1652,13 +1652,13 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
       <c r="L21" s="2" t="n">
         <v>44599</v>
       </c>
       <c r="M21" t="n">
-        <v>6.530086030583334</v>
+        <v>7.164481893169068</v>
       </c>
       <c r="N21" t="n">
         <v>1</v>
@@ -1710,13 +1710,13 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
       <c r="L22" s="2" t="n">
         <v>44606</v>
       </c>
       <c r="M22" t="n">
-        <v>6.530086030583334</v>
+        <v>7.164481893169068</v>
       </c>
       <c r="N22" t="n">
         <v>1</v>
@@ -1768,13 +1768,13 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="L23" s="2" t="n">
         <v>44613</v>
       </c>
       <c r="M23" t="n">
-        <v>6.530086030583334</v>
+        <v>7.164481893169068</v>
       </c>
       <c r="N23" t="n">
         <v>1</v>
@@ -1826,13 +1826,13 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
       <c r="L24" s="2" t="n">
         <v>44620</v>
       </c>
       <c r="M24" t="n">
-        <v>6.530086030583334</v>
+        <v>7.164481893169068</v>
       </c>
       <c r="N24" t="n">
         <v>1</v>
@@ -1884,13 +1884,13 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
       <c r="L25" s="2" t="n">
         <v>44627</v>
       </c>
       <c r="M25" t="n">
-        <v>6.530086030583334</v>
+        <v>7.164481893169068</v>
       </c>
       <c r="N25" t="n">
         <v>1</v>
@@ -1935,7 +1935,7 @@
         <v>87.83999633789062</v>
       </c>
       <c r="J26" t="n">
-        <v>84.43008755646224</v>
+        <v>85.06448341904797</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>44628</v>
       </c>
       <c r="M26" t="n">
-        <v>6.530086030583334</v>
+        <v>7.164481893169068</v>
       </c>
       <c r="N26" t="n">
         <v>1</v>
@@ -1953,7 +1953,7 @@
         <v>77.90000152587891</v>
       </c>
       <c r="P26" t="n">
-        <v>836</v>
+        <v>917</v>
       </c>
     </row>
     <row r="27">
@@ -1998,7 +1998,7 @@
         <v>44473</v>
       </c>
       <c r="M27" t="n">
-        <v>5.446969241935221</v>
+        <v>7.325941934256207</v>
       </c>
       <c r="N27" t="n">
         <v>2</v>
@@ -2056,7 +2056,7 @@
         <v>44480</v>
       </c>
       <c r="M28" t="n">
-        <v>5.446969241935221</v>
+        <v>7.325941934256207</v>
       </c>
       <c r="N28" t="n">
         <v>2</v>
@@ -2114,7 +2114,7 @@
         <v>44487</v>
       </c>
       <c r="M29" t="n">
-        <v>5.446969241935221</v>
+        <v>7.325941934256207</v>
       </c>
       <c r="N29" t="n">
         <v>2</v>
@@ -2172,7 +2172,7 @@
         <v>44494</v>
       </c>
       <c r="M30" t="n">
-        <v>5.446969241935221</v>
+        <v>7.325941934256207</v>
       </c>
       <c r="N30" t="n">
         <v>2</v>
@@ -2230,7 +2230,7 @@
         <v>44501</v>
       </c>
       <c r="M31" t="n">
-        <v>5.446969241935221</v>
+        <v>7.325941934256207</v>
       </c>
       <c r="N31" t="n">
         <v>2</v>
@@ -2288,7 +2288,7 @@
         <v>44508</v>
       </c>
       <c r="M32" t="n">
-        <v>5.446969241935221</v>
+        <v>7.325941934256207</v>
       </c>
       <c r="N32" t="n">
         <v>2</v>
@@ -2346,7 +2346,7 @@
         <v>44515</v>
       </c>
       <c r="M33" t="n">
-        <v>5.446969241935221</v>
+        <v>7.325941934256207</v>
       </c>
       <c r="N33" t="n">
         <v>2</v>
@@ -2404,7 +2404,7 @@
         <v>44522</v>
       </c>
       <c r="M34" t="n">
-        <v>5.446969241935221</v>
+        <v>7.325941934256207</v>
       </c>
       <c r="N34" t="n">
         <v>2</v>
@@ -2462,7 +2462,7 @@
         <v>44529</v>
       </c>
       <c r="M35" t="n">
-        <v>5.446969241935221</v>
+        <v>7.325941934256207</v>
       </c>
       <c r="N35" t="n">
         <v>2</v>
@@ -2520,7 +2520,7 @@
         <v>44536</v>
       </c>
       <c r="M36" t="n">
-        <v>5.446969241935221</v>
+        <v>7.325941934256207</v>
       </c>
       <c r="N36" t="n">
         <v>2</v>
@@ -2572,13 +2572,13 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>0.963</v>
+        <v>0.959</v>
       </c>
       <c r="L37" s="2" t="n">
         <v>44543</v>
       </c>
       <c r="M37" t="n">
-        <v>5.446969241935221</v>
+        <v>7.325941934256207</v>
       </c>
       <c r="N37" t="n">
         <v>2</v>
@@ -2630,13 +2630,13 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>0.548</v>
+        <v>0.56335</v>
       </c>
       <c r="L38" s="2" t="n">
         <v>44550</v>
       </c>
       <c r="M38" t="n">
-        <v>5.446969241935221</v>
+        <v>7.325941934256207</v>
       </c>
       <c r="N38" t="n">
         <v>2</v>
@@ -2688,13 +2688,13 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>0.891</v>
+        <v>0.5781000000000001</v>
       </c>
       <c r="L39" s="2" t="n">
         <v>44557</v>
       </c>
       <c r="M39" t="n">
-        <v>5.446969241935221</v>
+        <v>7.325941934256207</v>
       </c>
       <c r="N39" t="n">
         <v>2</v>
@@ -2746,13 +2746,13 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.852</v>
       </c>
       <c r="L40" s="2" t="n">
         <v>44564</v>
       </c>
       <c r="M40" t="n">
-        <v>5.446969241935221</v>
+        <v>7.325941934256207</v>
       </c>
       <c r="N40" t="n">
         <v>2</v>
@@ -2804,13 +2804,13 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="L41" s="2" t="n">
         <v>44571</v>
       </c>
       <c r="M41" t="n">
-        <v>5.446969241935221</v>
+        <v>7.325941934256207</v>
       </c>
       <c r="N41" t="n">
         <v>2</v>
@@ -2862,13 +2862,13 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>0.993</v>
+        <v>0.9924999999999999</v>
       </c>
       <c r="L42" s="2" t="n">
         <v>44578</v>
       </c>
       <c r="M42" t="n">
-        <v>5.446969241935221</v>
+        <v>7.325941934256207</v>
       </c>
       <c r="N42" t="n">
         <v>2</v>
@@ -2920,13 +2920,13 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
       <c r="L43" s="2" t="n">
         <v>44585</v>
       </c>
       <c r="M43" t="n">
-        <v>5.446969241935221</v>
+        <v>7.325941934256207</v>
       </c>
       <c r="N43" t="n">
         <v>2</v>
@@ -2978,13 +2978,13 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
       <c r="L44" s="2" t="n">
         <v>44592</v>
       </c>
       <c r="M44" t="n">
-        <v>5.446969241935221</v>
+        <v>7.325941934256207</v>
       </c>
       <c r="N44" t="n">
         <v>2</v>
@@ -3036,13 +3036,13 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
       <c r="L45" s="2" t="n">
         <v>44599</v>
       </c>
       <c r="M45" t="n">
-        <v>5.446969241935221</v>
+        <v>7.325941934256207</v>
       </c>
       <c r="N45" t="n">
         <v>2</v>
@@ -3094,13 +3094,13 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
       <c r="L46" s="2" t="n">
         <v>44606</v>
       </c>
       <c r="M46" t="n">
-        <v>5.446969241935221</v>
+        <v>7.325941934256207</v>
       </c>
       <c r="N46" t="n">
         <v>2</v>
@@ -3152,13 +3152,13 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="L47" s="2" t="n">
         <v>44613</v>
       </c>
       <c r="M47" t="n">
-        <v>5.446969241935221</v>
+        <v>7.325941934256207</v>
       </c>
       <c r="N47" t="n">
         <v>2</v>
@@ -3210,13 +3210,13 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
       <c r="L48" s="2" t="n">
         <v>44620</v>
       </c>
       <c r="M48" t="n">
-        <v>5.446969241935221</v>
+        <v>7.325941934256207</v>
       </c>
       <c r="N48" t="n">
         <v>2</v>
@@ -3268,13 +3268,13 @@
         </is>
       </c>
       <c r="K49" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
       <c r="L49" s="2" t="n">
         <v>44627</v>
       </c>
       <c r="M49" t="n">
-        <v>5.446969241935221</v>
+        <v>7.325941934256207</v>
       </c>
       <c r="N49" t="n">
         <v>2</v>
@@ -3326,13 +3326,13 @@
         </is>
       </c>
       <c r="K50" t="n">
-        <v>0.75</v>
+        <v>0.19515</v>
       </c>
       <c r="L50" s="2" t="n">
         <v>44634</v>
       </c>
       <c r="M50" t="n">
-        <v>5.446969241935221</v>
+        <v>7.325941934256207</v>
       </c>
       <c r="N50" t="n">
         <v>2</v>
@@ -3377,7 +3377,7 @@
         <v>89.48000335693359</v>
       </c>
       <c r="J51" t="n">
-        <v>85.11696741088053</v>
+        <v>86.99594010320152</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -3386,7 +3386,7 @@
         <v>44635</v>
       </c>
       <c r="M51" t="n">
-        <v>5.446969241935221</v>
+        <v>7.325941934256207</v>
       </c>
       <c r="N51" t="n">
         <v>2</v>
@@ -3395,7 +3395,7 @@
         <v>79.66999816894531</v>
       </c>
       <c r="P51" t="n">
-        <v>686</v>
+        <v>923</v>
       </c>
     </row>
     <row r="52">
@@ -3440,7 +3440,7 @@
         <v>44480</v>
       </c>
       <c r="M52" t="n">
-        <v>4.263587056511824</v>
+        <v>6.249003281355272</v>
       </c>
       <c r="N52" t="n">
         <v>3</v>
@@ -3498,7 +3498,7 @@
         <v>44487</v>
       </c>
       <c r="M53" t="n">
-        <v>4.263587056511824</v>
+        <v>6.249003281355272</v>
       </c>
       <c r="N53" t="n">
         <v>3</v>
@@ -3556,7 +3556,7 @@
         <v>44494</v>
       </c>
       <c r="M54" t="n">
-        <v>4.263587056511824</v>
+        <v>6.249003281355272</v>
       </c>
       <c r="N54" t="n">
         <v>3</v>
@@ -3614,7 +3614,7 @@
         <v>44501</v>
       </c>
       <c r="M55" t="n">
-        <v>4.263587056511824</v>
+        <v>6.249003281355272</v>
       </c>
       <c r="N55" t="n">
         <v>3</v>
@@ -3672,7 +3672,7 @@
         <v>44508</v>
       </c>
       <c r="M56" t="n">
-        <v>4.263587056511824</v>
+        <v>6.249003281355272</v>
       </c>
       <c r="N56" t="n">
         <v>3</v>
@@ -3730,7 +3730,7 @@
         <v>44515</v>
       </c>
       <c r="M57" t="n">
-        <v>4.263587056511824</v>
+        <v>6.249003281355272</v>
       </c>
       <c r="N57" t="n">
         <v>3</v>
@@ -3788,7 +3788,7 @@
         <v>44522</v>
       </c>
       <c r="M58" t="n">
-        <v>4.263587056511824</v>
+        <v>6.249003281355272</v>
       </c>
       <c r="N58" t="n">
         <v>3</v>
@@ -3846,7 +3846,7 @@
         <v>44529</v>
       </c>
       <c r="M59" t="n">
-        <v>4.263587056511824</v>
+        <v>6.249003281355272</v>
       </c>
       <c r="N59" t="n">
         <v>3</v>
@@ -3904,7 +3904,7 @@
         <v>44536</v>
       </c>
       <c r="M60" t="n">
-        <v>4.263587056511824</v>
+        <v>6.249003281355272</v>
       </c>
       <c r="N60" t="n">
         <v>3</v>
@@ -3956,13 +3956,13 @@
         </is>
       </c>
       <c r="K61" t="n">
-        <v>0.963</v>
+        <v>0.959</v>
       </c>
       <c r="L61" s="2" t="n">
         <v>44543</v>
       </c>
       <c r="M61" t="n">
-        <v>4.263587056511824</v>
+        <v>6.249003281355272</v>
       </c>
       <c r="N61" t="n">
         <v>3</v>
@@ -4014,13 +4014,13 @@
         </is>
       </c>
       <c r="K62" t="n">
-        <v>0.548</v>
+        <v>0.56335</v>
       </c>
       <c r="L62" s="2" t="n">
         <v>44550</v>
       </c>
       <c r="M62" t="n">
-        <v>4.263587056511824</v>
+        <v>6.249003281355272</v>
       </c>
       <c r="N62" t="n">
         <v>3</v>
@@ -4072,13 +4072,13 @@
         </is>
       </c>
       <c r="K63" t="n">
-        <v>0.891</v>
+        <v>0.5781000000000001</v>
       </c>
       <c r="L63" s="2" t="n">
         <v>44557</v>
       </c>
       <c r="M63" t="n">
-        <v>4.263587056511824</v>
+        <v>6.249003281355272</v>
       </c>
       <c r="N63" t="n">
         <v>3</v>
@@ -4130,13 +4130,13 @@
         </is>
       </c>
       <c r="K64" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.852</v>
       </c>
       <c r="L64" s="2" t="n">
         <v>44564</v>
       </c>
       <c r="M64" t="n">
-        <v>4.263587056511824</v>
+        <v>6.249003281355272</v>
       </c>
       <c r="N64" t="n">
         <v>3</v>
@@ -4188,13 +4188,13 @@
         </is>
       </c>
       <c r="K65" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="L65" s="2" t="n">
         <v>44571</v>
       </c>
       <c r="M65" t="n">
-        <v>4.263587056511824</v>
+        <v>6.249003281355272</v>
       </c>
       <c r="N65" t="n">
         <v>3</v>
@@ -4246,13 +4246,13 @@
         </is>
       </c>
       <c r="K66" t="n">
-        <v>0.993</v>
+        <v>0.9924999999999999</v>
       </c>
       <c r="L66" s="2" t="n">
         <v>44578</v>
       </c>
       <c r="M66" t="n">
-        <v>4.263587056511824</v>
+        <v>6.249003281355272</v>
       </c>
       <c r="N66" t="n">
         <v>3</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="K67" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
       <c r="L67" s="2" t="n">
         <v>44585</v>
       </c>
       <c r="M67" t="n">
-        <v>4.263587056511824</v>
+        <v>6.249003281355272</v>
       </c>
       <c r="N67" t="n">
         <v>3</v>
@@ -4362,13 +4362,13 @@
         </is>
       </c>
       <c r="K68" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
       <c r="L68" s="2" t="n">
         <v>44592</v>
       </c>
       <c r="M68" t="n">
-        <v>4.263587056511824</v>
+        <v>6.249003281355272</v>
       </c>
       <c r="N68" t="n">
         <v>3</v>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="K69" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
       <c r="L69" s="2" t="n">
         <v>44599</v>
       </c>
       <c r="M69" t="n">
-        <v>4.263587056511824</v>
+        <v>6.249003281355272</v>
       </c>
       <c r="N69" t="n">
         <v>3</v>
@@ -4478,13 +4478,13 @@
         </is>
       </c>
       <c r="K70" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
       <c r="L70" s="2" t="n">
         <v>44606</v>
       </c>
       <c r="M70" t="n">
-        <v>4.263587056511824</v>
+        <v>6.249003281355272</v>
       </c>
       <c r="N70" t="n">
         <v>3</v>
@@ -4536,13 +4536,13 @@
         </is>
       </c>
       <c r="K71" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="L71" s="2" t="n">
         <v>44613</v>
       </c>
       <c r="M71" t="n">
-        <v>4.263587056511824</v>
+        <v>6.249003281355272</v>
       </c>
       <c r="N71" t="n">
         <v>3</v>
@@ -4594,13 +4594,13 @@
         </is>
       </c>
       <c r="K72" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
       <c r="L72" s="2" t="n">
         <v>44620</v>
       </c>
       <c r="M72" t="n">
-        <v>4.263587056511824</v>
+        <v>6.249003281355272</v>
       </c>
       <c r="N72" t="n">
         <v>3</v>
@@ -4652,13 +4652,13 @@
         </is>
       </c>
       <c r="K73" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
       <c r="L73" s="2" t="n">
         <v>44627</v>
       </c>
       <c r="M73" t="n">
-        <v>4.263587056511824</v>
+        <v>6.249003281355272</v>
       </c>
       <c r="N73" t="n">
         <v>3</v>
@@ -4710,13 +4710,13 @@
         </is>
       </c>
       <c r="K74" t="n">
-        <v>0.75</v>
+        <v>0.19515</v>
       </c>
       <c r="L74" s="2" t="n">
         <v>44634</v>
       </c>
       <c r="M74" t="n">
-        <v>4.263587056511824</v>
+        <v>6.249003281355272</v>
       </c>
       <c r="N74" t="n">
         <v>3</v>
@@ -4768,13 +4768,13 @@
         </is>
       </c>
       <c r="K75" t="n">
-        <v>0.9655</v>
+        <v>0.86225</v>
       </c>
       <c r="L75" s="2" t="n">
         <v>44641</v>
       </c>
       <c r="M75" t="n">
-        <v>4.263587056511824</v>
+        <v>6.249003281355272</v>
       </c>
       <c r="N75" t="n">
         <v>3</v>
@@ -4819,7 +4819,7 @@
         <v>89.48000335693359</v>
       </c>
       <c r="J76" t="n">
-        <v>85.63358980309386</v>
+        <v>87.6190060279373</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -4828,7 +4828,7 @@
         <v>44642</v>
       </c>
       <c r="M76" t="n">
-        <v>4.263587056511824</v>
+        <v>6.249003281355272</v>
       </c>
       <c r="N76" t="n">
         <v>3</v>
@@ -4837,7 +4837,7 @@
         <v>81.37000274658203</v>
       </c>
       <c r="P76" t="n">
-        <v>524</v>
+        <v>769</v>
       </c>
     </row>
     <row r="77">
@@ -4882,7 +4882,7 @@
         <v>44487</v>
       </c>
       <c r="M77" t="n">
-        <v>3.738862415968015</v>
+        <v>4.81177147192966</v>
       </c>
       <c r="N77" t="n">
         <v>4</v>
@@ -4940,7 +4940,7 @@
         <v>44494</v>
       </c>
       <c r="M78" t="n">
-        <v>3.738862415968015</v>
+        <v>4.81177147192966</v>
       </c>
       <c r="N78" t="n">
         <v>4</v>
@@ -4998,7 +4998,7 @@
         <v>44501</v>
       </c>
       <c r="M79" t="n">
-        <v>3.738862415968015</v>
+        <v>4.81177147192966</v>
       </c>
       <c r="N79" t="n">
         <v>4</v>
@@ -5056,7 +5056,7 @@
         <v>44508</v>
       </c>
       <c r="M80" t="n">
-        <v>3.738862415968015</v>
+        <v>4.81177147192966</v>
       </c>
       <c r="N80" t="n">
         <v>4</v>
@@ -5114,7 +5114,7 @@
         <v>44515</v>
       </c>
       <c r="M81" t="n">
-        <v>3.738862415968015</v>
+        <v>4.81177147192966</v>
       </c>
       <c r="N81" t="n">
         <v>4</v>
@@ -5172,7 +5172,7 @@
         <v>44522</v>
       </c>
       <c r="M82" t="n">
-        <v>3.738862415968015</v>
+        <v>4.81177147192966</v>
       </c>
       <c r="N82" t="n">
         <v>4</v>
@@ -5230,7 +5230,7 @@
         <v>44529</v>
       </c>
       <c r="M83" t="n">
-        <v>3.738862415968015</v>
+        <v>4.81177147192966</v>
       </c>
       <c r="N83" t="n">
         <v>4</v>
@@ -5288,7 +5288,7 @@
         <v>44536</v>
       </c>
       <c r="M84" t="n">
-        <v>3.738862415968015</v>
+        <v>4.81177147192966</v>
       </c>
       <c r="N84" t="n">
         <v>4</v>
@@ -5340,13 +5340,13 @@
         </is>
       </c>
       <c r="K85" t="n">
-        <v>0.963</v>
+        <v>0.959</v>
       </c>
       <c r="L85" s="2" t="n">
         <v>44543</v>
       </c>
       <c r="M85" t="n">
-        <v>3.738862415968015</v>
+        <v>4.81177147192966</v>
       </c>
       <c r="N85" t="n">
         <v>4</v>
@@ -5398,13 +5398,13 @@
         </is>
       </c>
       <c r="K86" t="n">
-        <v>0.548</v>
+        <v>0.56335</v>
       </c>
       <c r="L86" s="2" t="n">
         <v>44550</v>
       </c>
       <c r="M86" t="n">
-        <v>3.738862415968015</v>
+        <v>4.81177147192966</v>
       </c>
       <c r="N86" t="n">
         <v>4</v>
@@ -5456,13 +5456,13 @@
         </is>
       </c>
       <c r="K87" t="n">
-        <v>0.891</v>
+        <v>0.5781000000000001</v>
       </c>
       <c r="L87" s="2" t="n">
         <v>44557</v>
       </c>
       <c r="M87" t="n">
-        <v>3.738862415968015</v>
+        <v>4.81177147192966</v>
       </c>
       <c r="N87" t="n">
         <v>4</v>
@@ -5514,13 +5514,13 @@
         </is>
       </c>
       <c r="K88" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.852</v>
       </c>
       <c r="L88" s="2" t="n">
         <v>44564</v>
       </c>
       <c r="M88" t="n">
-        <v>3.738862415968015</v>
+        <v>4.81177147192966</v>
       </c>
       <c r="N88" t="n">
         <v>4</v>
@@ -5572,13 +5572,13 @@
         </is>
       </c>
       <c r="K89" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="L89" s="2" t="n">
         <v>44571</v>
       </c>
       <c r="M89" t="n">
-        <v>3.738862415968015</v>
+        <v>4.81177147192966</v>
       </c>
       <c r="N89" t="n">
         <v>4</v>
@@ -5630,13 +5630,13 @@
         </is>
       </c>
       <c r="K90" t="n">
-        <v>0.993</v>
+        <v>0.9924999999999999</v>
       </c>
       <c r="L90" s="2" t="n">
         <v>44578</v>
       </c>
       <c r="M90" t="n">
-        <v>3.738862415968015</v>
+        <v>4.81177147192966</v>
       </c>
       <c r="N90" t="n">
         <v>4</v>
@@ -5688,13 +5688,13 @@
         </is>
       </c>
       <c r="K91" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
       <c r="L91" s="2" t="n">
         <v>44585</v>
       </c>
       <c r="M91" t="n">
-        <v>3.738862415968015</v>
+        <v>4.81177147192966</v>
       </c>
       <c r="N91" t="n">
         <v>4</v>
@@ -5746,13 +5746,13 @@
         </is>
       </c>
       <c r="K92" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
       <c r="L92" s="2" t="n">
         <v>44592</v>
       </c>
       <c r="M92" t="n">
-        <v>3.738862415968015</v>
+        <v>4.81177147192966</v>
       </c>
       <c r="N92" t="n">
         <v>4</v>
@@ -5804,13 +5804,13 @@
         </is>
       </c>
       <c r="K93" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
       <c r="L93" s="2" t="n">
         <v>44599</v>
       </c>
       <c r="M93" t="n">
-        <v>3.738862415968015</v>
+        <v>4.81177147192966</v>
       </c>
       <c r="N93" t="n">
         <v>4</v>
@@ -5862,13 +5862,13 @@
         </is>
       </c>
       <c r="K94" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
       <c r="L94" s="2" t="n">
         <v>44606</v>
       </c>
       <c r="M94" t="n">
-        <v>3.738862415968015</v>
+        <v>4.81177147192966</v>
       </c>
       <c r="N94" t="n">
         <v>4</v>
@@ -5920,13 +5920,13 @@
         </is>
       </c>
       <c r="K95" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="L95" s="2" t="n">
         <v>44613</v>
       </c>
       <c r="M95" t="n">
-        <v>3.738862415968015</v>
+        <v>4.81177147192966</v>
       </c>
       <c r="N95" t="n">
         <v>4</v>
@@ -5978,13 +5978,13 @@
         </is>
       </c>
       <c r="K96" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
       <c r="L96" s="2" t="n">
         <v>44620</v>
       </c>
       <c r="M96" t="n">
-        <v>3.738862415968015</v>
+        <v>4.81177147192966</v>
       </c>
       <c r="N96" t="n">
         <v>4</v>
@@ -6036,13 +6036,13 @@
         </is>
       </c>
       <c r="K97" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
       <c r="L97" s="2" t="n">
         <v>44627</v>
       </c>
       <c r="M97" t="n">
-        <v>3.738862415968015</v>
+        <v>4.81177147192966</v>
       </c>
       <c r="N97" t="n">
         <v>4</v>
@@ -6094,13 +6094,13 @@
         </is>
       </c>
       <c r="K98" t="n">
-        <v>0.75</v>
+        <v>0.19515</v>
       </c>
       <c r="L98" s="2" t="n">
         <v>44634</v>
       </c>
       <c r="M98" t="n">
-        <v>3.738862415968015</v>
+        <v>4.81177147192966</v>
       </c>
       <c r="N98" t="n">
         <v>4</v>
@@ -6152,13 +6152,13 @@
         </is>
       </c>
       <c r="K99" t="n">
-        <v>0.9655</v>
+        <v>0.86225</v>
       </c>
       <c r="L99" s="2" t="n">
         <v>44641</v>
       </c>
       <c r="M99" t="n">
-        <v>3.738862415968015</v>
+        <v>4.81177147192966</v>
       </c>
       <c r="N99" t="n">
         <v>4</v>
@@ -6210,13 +6210,13 @@
         </is>
       </c>
       <c r="K100" t="n">
-        <v>0.96</v>
+        <v>0.957</v>
       </c>
       <c r="L100" s="2" t="n">
         <v>44648</v>
       </c>
       <c r="M100" t="n">
-        <v>3.738862415968015</v>
+        <v>4.81177147192966</v>
       </c>
       <c r="N100" t="n">
         <v>4</v>
@@ -6261,7 +6261,7 @@
         <v>90.01000213623047</v>
       </c>
       <c r="J101" t="n">
-        <v>87.23886241596801</v>
+        <v>88.31177147192966</v>
       </c>
       <c r="K101" t="n">
         <v>0</v>
@@ -6270,7 +6270,7 @@
         <v>44649</v>
       </c>
       <c r="M101" t="n">
-        <v>3.738862415968015</v>
+        <v>4.81177147192966</v>
       </c>
       <c r="N101" t="n">
         <v>4</v>
@@ -6279,7 +6279,7 @@
         <v>83.5</v>
       </c>
       <c r="P101" t="n">
-        <v>449</v>
+        <v>577</v>
       </c>
     </row>
     <row r="102">
@@ -6324,7 +6324,7 @@
         <v>44494</v>
       </c>
       <c r="M102" t="n">
-        <v>0.8480681257706237</v>
+        <v>1.223009360498509</v>
       </c>
       <c r="N102" t="n">
         <v>5</v>
@@ -6382,7 +6382,7 @@
         <v>44501</v>
       </c>
       <c r="M103" t="n">
-        <v>0.8480681257706237</v>
+        <v>1.223009360498509</v>
       </c>
       <c r="N103" t="n">
         <v>5</v>
@@ -6440,7 +6440,7 @@
         <v>44508</v>
       </c>
       <c r="M104" t="n">
-        <v>0.8480681257706237</v>
+        <v>1.223009360498509</v>
       </c>
       <c r="N104" t="n">
         <v>5</v>
@@ -6498,7 +6498,7 @@
         <v>44515</v>
       </c>
       <c r="M105" t="n">
-        <v>0.8480681257706237</v>
+        <v>1.223009360498509</v>
       </c>
       <c r="N105" t="n">
         <v>5</v>
@@ -6556,7 +6556,7 @@
         <v>44522</v>
       </c>
       <c r="M106" t="n">
-        <v>0.8480681257706237</v>
+        <v>1.223009360498509</v>
       </c>
       <c r="N106" t="n">
         <v>5</v>
@@ -6614,7 +6614,7 @@
         <v>44529</v>
       </c>
       <c r="M107" t="n">
-        <v>0.8480681257706237</v>
+        <v>1.223009360498509</v>
       </c>
       <c r="N107" t="n">
         <v>5</v>
@@ -6672,7 +6672,7 @@
         <v>44536</v>
       </c>
       <c r="M108" t="n">
-        <v>0.8480681257706237</v>
+        <v>1.223009360498509</v>
       </c>
       <c r="N108" t="n">
         <v>5</v>
@@ -6724,13 +6724,13 @@
         </is>
       </c>
       <c r="K109" t="n">
-        <v>0.963</v>
+        <v>0.959</v>
       </c>
       <c r="L109" s="2" t="n">
         <v>44543</v>
       </c>
       <c r="M109" t="n">
-        <v>0.8480681257706237</v>
+        <v>1.223009360498509</v>
       </c>
       <c r="N109" t="n">
         <v>5</v>
@@ -6782,13 +6782,13 @@
         </is>
       </c>
       <c r="K110" t="n">
-        <v>0.548</v>
+        <v>0.56335</v>
       </c>
       <c r="L110" s="2" t="n">
         <v>44550</v>
       </c>
       <c r="M110" t="n">
-        <v>0.8480681257706237</v>
+        <v>1.223009360498509</v>
       </c>
       <c r="N110" t="n">
         <v>5</v>
@@ -6840,13 +6840,13 @@
         </is>
       </c>
       <c r="K111" t="n">
-        <v>0.891</v>
+        <v>0.5781000000000001</v>
       </c>
       <c r="L111" s="2" t="n">
         <v>44557</v>
       </c>
       <c r="M111" t="n">
-        <v>0.8480681257706237</v>
+        <v>1.223009360498509</v>
       </c>
       <c r="N111" t="n">
         <v>5</v>
@@ -6898,13 +6898,13 @@
         </is>
       </c>
       <c r="K112" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.852</v>
       </c>
       <c r="L112" s="2" t="n">
         <v>44564</v>
       </c>
       <c r="M112" t="n">
-        <v>0.8480681257706237</v>
+        <v>1.223009360498509</v>
       </c>
       <c r="N112" t="n">
         <v>5</v>
@@ -6956,13 +6956,13 @@
         </is>
       </c>
       <c r="K113" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="L113" s="2" t="n">
         <v>44571</v>
       </c>
       <c r="M113" t="n">
-        <v>0.8480681257706237</v>
+        <v>1.223009360498509</v>
       </c>
       <c r="N113" t="n">
         <v>5</v>
@@ -7014,13 +7014,13 @@
         </is>
       </c>
       <c r="K114" t="n">
-        <v>0.993</v>
+        <v>0.9924999999999999</v>
       </c>
       <c r="L114" s="2" t="n">
         <v>44578</v>
       </c>
       <c r="M114" t="n">
-        <v>0.8480681257706237</v>
+        <v>1.223009360498509</v>
       </c>
       <c r="N114" t="n">
         <v>5</v>
@@ -7072,13 +7072,13 @@
         </is>
       </c>
       <c r="K115" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
       <c r="L115" s="2" t="n">
         <v>44585</v>
       </c>
       <c r="M115" t="n">
-        <v>0.8480681257706237</v>
+        <v>1.223009360498509</v>
       </c>
       <c r="N115" t="n">
         <v>5</v>
@@ -7130,13 +7130,13 @@
         </is>
       </c>
       <c r="K116" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
       <c r="L116" s="2" t="n">
         <v>44592</v>
       </c>
       <c r="M116" t="n">
-        <v>0.8480681257706237</v>
+        <v>1.223009360498509</v>
       </c>
       <c r="N116" t="n">
         <v>5</v>
@@ -7188,13 +7188,13 @@
         </is>
       </c>
       <c r="K117" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
       <c r="L117" s="2" t="n">
         <v>44599</v>
       </c>
       <c r="M117" t="n">
-        <v>0.8480681257706237</v>
+        <v>1.223009360498509</v>
       </c>
       <c r="N117" t="n">
         <v>5</v>
@@ -7246,13 +7246,13 @@
         </is>
       </c>
       <c r="K118" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
       <c r="L118" s="2" t="n">
         <v>44606</v>
       </c>
       <c r="M118" t="n">
-        <v>0.8480681257706237</v>
+        <v>1.223009360498509</v>
       </c>
       <c r="N118" t="n">
         <v>5</v>
@@ -7304,13 +7304,13 @@
         </is>
       </c>
       <c r="K119" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="L119" s="2" t="n">
         <v>44613</v>
       </c>
       <c r="M119" t="n">
-        <v>0.8480681257706237</v>
+        <v>1.223009360498509</v>
       </c>
       <c r="N119" t="n">
         <v>5</v>
@@ -7362,13 +7362,13 @@
         </is>
       </c>
       <c r="K120" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
       <c r="L120" s="2" t="n">
         <v>44620</v>
       </c>
       <c r="M120" t="n">
-        <v>0.8480681257706237</v>
+        <v>1.223009360498509</v>
       </c>
       <c r="N120" t="n">
         <v>5</v>
@@ -7420,13 +7420,13 @@
         </is>
       </c>
       <c r="K121" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
       <c r="L121" s="2" t="n">
         <v>44627</v>
       </c>
       <c r="M121" t="n">
-        <v>0.8480681257706237</v>
+        <v>1.223009360498509</v>
       </c>
       <c r="N121" t="n">
         <v>5</v>
@@ -7478,13 +7478,13 @@
         </is>
       </c>
       <c r="K122" t="n">
-        <v>0.75</v>
+        <v>0.19515</v>
       </c>
       <c r="L122" s="2" t="n">
         <v>44634</v>
       </c>
       <c r="M122" t="n">
-        <v>0.8480681257706237</v>
+        <v>1.223009360498509</v>
       </c>
       <c r="N122" t="n">
         <v>5</v>
@@ -7536,13 +7536,13 @@
         </is>
       </c>
       <c r="K123" t="n">
-        <v>0.9655</v>
+        <v>0.86225</v>
       </c>
       <c r="L123" s="2" t="n">
         <v>44641</v>
       </c>
       <c r="M123" t="n">
-        <v>0.8480681257706237</v>
+        <v>1.223009360498509</v>
       </c>
       <c r="N123" t="n">
         <v>5</v>
@@ -7594,13 +7594,13 @@
         </is>
       </c>
       <c r="K124" t="n">
-        <v>0.96</v>
+        <v>0.957</v>
       </c>
       <c r="L124" s="2" t="n">
         <v>44648</v>
       </c>
       <c r="M124" t="n">
-        <v>0.8480681257706237</v>
+        <v>1.223009360498509</v>
       </c>
       <c r="N124" t="n">
         <v>5</v>
@@ -7652,13 +7652,13 @@
         </is>
       </c>
       <c r="K125" t="n">
-        <v>0.993</v>
+        <v>0.998</v>
       </c>
       <c r="L125" s="2" t="n">
         <v>44655</v>
       </c>
       <c r="M125" t="n">
-        <v>0.8480681257706237</v>
+        <v>1.223009360498509</v>
       </c>
       <c r="N125" t="n">
         <v>5</v>
@@ -7703,7 +7703,7 @@
         <v>90.01000213623047</v>
       </c>
       <c r="J126" t="n">
-        <v>89.16806782059484</v>
+        <v>89.54300905532273</v>
       </c>
       <c r="K126" t="n">
         <v>0</v>
@@ -7712,7 +7712,7 @@
         <v>44656</v>
       </c>
       <c r="M126" t="n">
-        <v>0.8480681257706237</v>
+        <v>1.223009360498509</v>
       </c>
       <c r="N126" t="n">
         <v>5</v>
@@ -7721,7 +7721,7 @@
         <v>88.31999969482422</v>
       </c>
       <c r="P126" t="n">
-        <v>96</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127">
@@ -7766,7 +7766,7 @@
         <v>44501</v>
       </c>
       <c r="M127" t="n">
-        <v>4.508700716120075</v>
+        <v>3.990005493164062</v>
       </c>
       <c r="N127" t="n">
         <v>6</v>
@@ -7824,7 +7824,7 @@
         <v>44508</v>
       </c>
       <c r="M128" t="n">
-        <v>4.508700716120075</v>
+        <v>3.990005493164062</v>
       </c>
       <c r="N128" t="n">
         <v>6</v>
@@ -7882,7 +7882,7 @@
         <v>44515</v>
       </c>
       <c r="M129" t="n">
-        <v>4.508700716120075</v>
+        <v>3.990005493164062</v>
       </c>
       <c r="N129" t="n">
         <v>6</v>
@@ -7940,7 +7940,7 @@
         <v>44522</v>
       </c>
       <c r="M130" t="n">
-        <v>4.508700716120075</v>
+        <v>3.990005493164062</v>
       </c>
       <c r="N130" t="n">
         <v>6</v>
@@ -7998,7 +7998,7 @@
         <v>44529</v>
       </c>
       <c r="M131" t="n">
-        <v>4.508700716120075</v>
+        <v>3.990005493164062</v>
       </c>
       <c r="N131" t="n">
         <v>6</v>
@@ -8056,7 +8056,7 @@
         <v>44536</v>
       </c>
       <c r="M132" t="n">
-        <v>4.508700716120075</v>
+        <v>3.990005493164062</v>
       </c>
       <c r="N132" t="n">
         <v>6</v>
@@ -8108,13 +8108,13 @@
         </is>
       </c>
       <c r="K133" t="n">
-        <v>0.963</v>
+        <v>0.959</v>
       </c>
       <c r="L133" s="2" t="n">
         <v>44543</v>
       </c>
       <c r="M133" t="n">
-        <v>4.508700716120075</v>
+        <v>3.990005493164062</v>
       </c>
       <c r="N133" t="n">
         <v>6</v>
@@ -8166,13 +8166,13 @@
         </is>
       </c>
       <c r="K134" t="n">
-        <v>0.548</v>
+        <v>0.56335</v>
       </c>
       <c r="L134" s="2" t="n">
         <v>44550</v>
       </c>
       <c r="M134" t="n">
-        <v>4.508700716120075</v>
+        <v>3.990005493164062</v>
       </c>
       <c r="N134" t="n">
         <v>6</v>
@@ -8224,13 +8224,13 @@
         </is>
       </c>
       <c r="K135" t="n">
-        <v>0.891</v>
+        <v>0.5781000000000001</v>
       </c>
       <c r="L135" s="2" t="n">
         <v>44557</v>
       </c>
       <c r="M135" t="n">
-        <v>4.508700716120075</v>
+        <v>3.990005493164062</v>
       </c>
       <c r="N135" t="n">
         <v>6</v>
@@ -8282,13 +8282,13 @@
         </is>
       </c>
       <c r="K136" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.852</v>
       </c>
       <c r="L136" s="2" t="n">
         <v>44564</v>
       </c>
       <c r="M136" t="n">
-        <v>4.508700716120075</v>
+        <v>3.990005493164062</v>
       </c>
       <c r="N136" t="n">
         <v>6</v>
@@ -8340,13 +8340,13 @@
         </is>
       </c>
       <c r="K137" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="L137" s="2" t="n">
         <v>44571</v>
       </c>
       <c r="M137" t="n">
-        <v>4.508700716120075</v>
+        <v>3.990005493164062</v>
       </c>
       <c r="N137" t="n">
         <v>6</v>
@@ -8398,13 +8398,13 @@
         </is>
       </c>
       <c r="K138" t="n">
-        <v>0.993</v>
+        <v>0.9924999999999999</v>
       </c>
       <c r="L138" s="2" t="n">
         <v>44578</v>
       </c>
       <c r="M138" t="n">
-        <v>4.508700716120075</v>
+        <v>3.990005493164062</v>
       </c>
       <c r="N138" t="n">
         <v>6</v>
@@ -8456,13 +8456,13 @@
         </is>
       </c>
       <c r="K139" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
       <c r="L139" s="2" t="n">
         <v>44585</v>
       </c>
       <c r="M139" t="n">
-        <v>4.508700716120075</v>
+        <v>3.990005493164062</v>
       </c>
       <c r="N139" t="n">
         <v>6</v>
@@ -8514,13 +8514,13 @@
         </is>
       </c>
       <c r="K140" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
       <c r="L140" s="2" t="n">
         <v>44592</v>
       </c>
       <c r="M140" t="n">
-        <v>4.508700716120075</v>
+        <v>3.990005493164062</v>
       </c>
       <c r="N140" t="n">
         <v>6</v>
@@ -8572,13 +8572,13 @@
         </is>
       </c>
       <c r="K141" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
       <c r="L141" s="2" t="n">
         <v>44599</v>
       </c>
       <c r="M141" t="n">
-        <v>4.508700716120075</v>
+        <v>3.990005493164062</v>
       </c>
       <c r="N141" t="n">
         <v>6</v>
@@ -8630,13 +8630,13 @@
         </is>
       </c>
       <c r="K142" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
       <c r="L142" s="2" t="n">
         <v>44606</v>
       </c>
       <c r="M142" t="n">
-        <v>4.508700716120075</v>
+        <v>3.990005493164062</v>
       </c>
       <c r="N142" t="n">
         <v>6</v>
@@ -8688,13 +8688,13 @@
         </is>
       </c>
       <c r="K143" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="L143" s="2" t="n">
         <v>44613</v>
       </c>
       <c r="M143" t="n">
-        <v>4.508700716120075</v>
+        <v>3.990005493164062</v>
       </c>
       <c r="N143" t="n">
         <v>6</v>
@@ -8746,13 +8746,13 @@
         </is>
       </c>
       <c r="K144" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
       <c r="L144" s="2" t="n">
         <v>44620</v>
       </c>
       <c r="M144" t="n">
-        <v>4.508700716120075</v>
+        <v>3.990005493164062</v>
       </c>
       <c r="N144" t="n">
         <v>6</v>
@@ -8804,13 +8804,13 @@
         </is>
       </c>
       <c r="K145" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
       <c r="L145" s="2" t="n">
         <v>44627</v>
       </c>
       <c r="M145" t="n">
-        <v>4.508700716120075</v>
+        <v>3.990005493164062</v>
       </c>
       <c r="N145" t="n">
         <v>6</v>
@@ -8862,13 +8862,13 @@
         </is>
       </c>
       <c r="K146" t="n">
-        <v>0.75</v>
+        <v>0.19515</v>
       </c>
       <c r="L146" s="2" t="n">
         <v>44634</v>
       </c>
       <c r="M146" t="n">
-        <v>4.508700716120075</v>
+        <v>3.990005493164062</v>
       </c>
       <c r="N146" t="n">
         <v>6</v>
@@ -8920,13 +8920,13 @@
         </is>
       </c>
       <c r="K147" t="n">
-        <v>0.9655</v>
+        <v>0.86225</v>
       </c>
       <c r="L147" s="2" t="n">
         <v>44641</v>
       </c>
       <c r="M147" t="n">
-        <v>4.508700716120075</v>
+        <v>3.990005493164062</v>
       </c>
       <c r="N147" t="n">
         <v>6</v>
@@ -8978,13 +8978,13 @@
         </is>
       </c>
       <c r="K148" t="n">
-        <v>0.96</v>
+        <v>0.957</v>
       </c>
       <c r="L148" s="2" t="n">
         <v>44648</v>
       </c>
       <c r="M148" t="n">
-        <v>4.508700716120075</v>
+        <v>3.990005493164062</v>
       </c>
       <c r="N148" t="n">
         <v>6</v>
@@ -9036,13 +9036,13 @@
         </is>
       </c>
       <c r="K149" t="n">
-        <v>0.993</v>
+        <v>0.998</v>
       </c>
       <c r="L149" s="2" t="n">
         <v>44655</v>
       </c>
       <c r="M149" t="n">
-        <v>4.508700716120075</v>
+        <v>3.990005493164062</v>
       </c>
       <c r="N149" t="n">
         <v>6</v>
@@ -9100,7 +9100,7 @@
         <v>44662</v>
       </c>
       <c r="M150" t="n">
-        <v>4.508700716120075</v>
+        <v>3.990005493164062</v>
       </c>
       <c r="N150" t="n">
         <v>6</v>
@@ -9145,7 +9145,7 @@
         <v>91.05000305175781</v>
       </c>
       <c r="J151" t="n">
-        <v>90.92869888506539</v>
+        <v>91.40944551301891</v>
       </c>
       <c r="K151" t="n">
         <v>0</v>
@@ -9154,7 +9154,7 @@
         <v>44663</v>
       </c>
       <c r="M151" t="n">
-        <v>4.508700716120075</v>
+        <v>3.990005493164062</v>
       </c>
       <c r="N151" t="n">
         <v>6</v>
@@ -9163,7 +9163,7 @@
         <v>86.41999816894531</v>
       </c>
       <c r="P151" t="n">
-        <v>523</v>
+        <v>463</v>
       </c>
     </row>
     <row r="152">
@@ -9208,7 +9208,7 @@
         <v>44508</v>
       </c>
       <c r="M152" t="n">
-        <v>9.90231343270716</v>
+        <v>8.960006713867188</v>
       </c>
       <c r="N152" t="n">
         <v>7</v>
@@ -9266,7 +9266,7 @@
         <v>44515</v>
       </c>
       <c r="M153" t="n">
-        <v>9.90231343270716</v>
+        <v>8.960006713867188</v>
       </c>
       <c r="N153" t="n">
         <v>7</v>
@@ -9324,7 +9324,7 @@
         <v>44522</v>
       </c>
       <c r="M154" t="n">
-        <v>9.90231343270716</v>
+        <v>8.960006713867188</v>
       </c>
       <c r="N154" t="n">
         <v>7</v>
@@ -9382,7 +9382,7 @@
         <v>44529</v>
       </c>
       <c r="M155" t="n">
-        <v>9.90231343270716</v>
+        <v>8.960006713867188</v>
       </c>
       <c r="N155" t="n">
         <v>7</v>
@@ -9440,7 +9440,7 @@
         <v>44536</v>
       </c>
       <c r="M156" t="n">
-        <v>9.90231343270716</v>
+        <v>8.960006713867188</v>
       </c>
       <c r="N156" t="n">
         <v>7</v>
@@ -9492,13 +9492,13 @@
         </is>
       </c>
       <c r="K157" t="n">
-        <v>0.963</v>
+        <v>0.959</v>
       </c>
       <c r="L157" s="2" t="n">
         <v>44543</v>
       </c>
       <c r="M157" t="n">
-        <v>9.90231343270716</v>
+        <v>8.960006713867188</v>
       </c>
       <c r="N157" t="n">
         <v>7</v>
@@ -9550,13 +9550,13 @@
         </is>
       </c>
       <c r="K158" t="n">
-        <v>0.548</v>
+        <v>0.56335</v>
       </c>
       <c r="L158" s="2" t="n">
         <v>44550</v>
       </c>
       <c r="M158" t="n">
-        <v>9.90231343270716</v>
+        <v>8.960006713867188</v>
       </c>
       <c r="N158" t="n">
         <v>7</v>
@@ -9608,13 +9608,13 @@
         </is>
       </c>
       <c r="K159" t="n">
-        <v>0.891</v>
+        <v>0.5781000000000001</v>
       </c>
       <c r="L159" s="2" t="n">
         <v>44557</v>
       </c>
       <c r="M159" t="n">
-        <v>9.90231343270716</v>
+        <v>8.960006713867188</v>
       </c>
       <c r="N159" t="n">
         <v>7</v>
@@ -9666,13 +9666,13 @@
         </is>
       </c>
       <c r="K160" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.852</v>
       </c>
       <c r="L160" s="2" t="n">
         <v>44564</v>
       </c>
       <c r="M160" t="n">
-        <v>9.90231343270716</v>
+        <v>8.960006713867188</v>
       </c>
       <c r="N160" t="n">
         <v>7</v>
@@ -9724,13 +9724,13 @@
         </is>
       </c>
       <c r="K161" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="L161" s="2" t="n">
         <v>44571</v>
       </c>
       <c r="M161" t="n">
-        <v>9.90231343270716</v>
+        <v>8.960006713867188</v>
       </c>
       <c r="N161" t="n">
         <v>7</v>
@@ -9782,13 +9782,13 @@
         </is>
       </c>
       <c r="K162" t="n">
-        <v>0.993</v>
+        <v>0.9924999999999999</v>
       </c>
       <c r="L162" s="2" t="n">
         <v>44578</v>
       </c>
       <c r="M162" t="n">
-        <v>9.90231343270716</v>
+        <v>8.960006713867188</v>
       </c>
       <c r="N162" t="n">
         <v>7</v>
@@ -9840,13 +9840,13 @@
         </is>
       </c>
       <c r="K163" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
       <c r="L163" s="2" t="n">
         <v>44585</v>
       </c>
       <c r="M163" t="n">
-        <v>9.90231343270716</v>
+        <v>8.960006713867188</v>
       </c>
       <c r="N163" t="n">
         <v>7</v>
@@ -9898,13 +9898,13 @@
         </is>
       </c>
       <c r="K164" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
       <c r="L164" s="2" t="n">
         <v>44592</v>
       </c>
       <c r="M164" t="n">
-        <v>9.90231343270716</v>
+        <v>8.960006713867188</v>
       </c>
       <c r="N164" t="n">
         <v>7</v>
@@ -9956,13 +9956,13 @@
         </is>
       </c>
       <c r="K165" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
       <c r="L165" s="2" t="n">
         <v>44599</v>
       </c>
       <c r="M165" t="n">
-        <v>9.90231343270716</v>
+        <v>8.960006713867188</v>
       </c>
       <c r="N165" t="n">
         <v>7</v>
@@ -10014,13 +10014,13 @@
         </is>
       </c>
       <c r="K166" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
       <c r="L166" s="2" t="n">
         <v>44606</v>
       </c>
       <c r="M166" t="n">
-        <v>9.90231343270716</v>
+        <v>8.960006713867188</v>
       </c>
       <c r="N166" t="n">
         <v>7</v>
@@ -10072,13 +10072,13 @@
         </is>
       </c>
       <c r="K167" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="L167" s="2" t="n">
         <v>44613</v>
       </c>
       <c r="M167" t="n">
-        <v>9.90231343270716</v>
+        <v>8.960006713867188</v>
       </c>
       <c r="N167" t="n">
         <v>7</v>
@@ -10130,13 +10130,13 @@
         </is>
       </c>
       <c r="K168" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
       <c r="L168" s="2" t="n">
         <v>44620</v>
       </c>
       <c r="M168" t="n">
-        <v>9.90231343270716</v>
+        <v>8.960006713867188</v>
       </c>
       <c r="N168" t="n">
         <v>7</v>
@@ -10188,13 +10188,13 @@
         </is>
       </c>
       <c r="K169" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
       <c r="L169" s="2" t="n">
         <v>44627</v>
       </c>
       <c r="M169" t="n">
-        <v>9.90231343270716</v>
+        <v>8.960006713867188</v>
       </c>
       <c r="N169" t="n">
         <v>7</v>
@@ -10246,13 +10246,13 @@
         </is>
       </c>
       <c r="K170" t="n">
-        <v>0.75</v>
+        <v>0.19515</v>
       </c>
       <c r="L170" s="2" t="n">
         <v>44634</v>
       </c>
       <c r="M170" t="n">
-        <v>9.90231343270716</v>
+        <v>8.960006713867188</v>
       </c>
       <c r="N170" t="n">
         <v>7</v>
@@ -10304,13 +10304,13 @@
         </is>
       </c>
       <c r="K171" t="n">
-        <v>0.9655</v>
+        <v>0.86225</v>
       </c>
       <c r="L171" s="2" t="n">
         <v>44641</v>
       </c>
       <c r="M171" t="n">
-        <v>9.90231343270716</v>
+        <v>8.960006713867188</v>
       </c>
       <c r="N171" t="n">
         <v>7</v>
@@ -10362,13 +10362,13 @@
         </is>
       </c>
       <c r="K172" t="n">
-        <v>0.96</v>
+        <v>0.957</v>
       </c>
       <c r="L172" s="2" t="n">
         <v>44648</v>
       </c>
       <c r="M172" t="n">
-        <v>9.90231343270716</v>
+        <v>8.960006713867188</v>
       </c>
       <c r="N172" t="n">
         <v>7</v>
@@ -10420,13 +10420,13 @@
         </is>
       </c>
       <c r="K173" t="n">
-        <v>0.993</v>
+        <v>0.998</v>
       </c>
       <c r="L173" s="2" t="n">
         <v>44655</v>
       </c>
       <c r="M173" t="n">
-        <v>9.90231343270716</v>
+        <v>8.960006713867188</v>
       </c>
       <c r="N173" t="n">
         <v>7</v>
@@ -10484,7 +10484,7 @@
         <v>44662</v>
       </c>
       <c r="M174" t="n">
-        <v>9.90231343270716</v>
+        <v>8.960006713867188</v>
       </c>
       <c r="N174" t="n">
         <v>7</v>
@@ -10536,13 +10536,13 @@
         </is>
       </c>
       <c r="K175" t="n">
-        <v>0.977</v>
+        <v>0.9804999999999999</v>
       </c>
       <c r="L175" s="2" t="n">
         <v>44669</v>
       </c>
       <c r="M175" t="n">
-        <v>9.90231343270716</v>
+        <v>8.960006713867188</v>
       </c>
       <c r="N175" t="n">
         <v>7</v>
@@ -10587,7 +10587,7 @@
         <v>94.55999755859375</v>
       </c>
       <c r="J176" t="n">
-        <v>94.49230977059779</v>
+        <v>95.37958250666998</v>
       </c>
       <c r="K176" t="n">
         <v>0</v>
@@ -10596,7 +10596,7 @@
         <v>44670</v>
       </c>
       <c r="M176" t="n">
-        <v>9.90231343270716</v>
+        <v>8.960006713867188</v>
       </c>
       <c r="N176" t="n">
         <v>7</v>
@@ -10605,7 +10605,7 @@
         <v>84.58999633789062</v>
       </c>
       <c r="P176" t="n">
-        <v>1168</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="177">
@@ -10876,7 +10876,7 @@
         </is>
       </c>
       <c r="K181" t="n">
-        <v>0.963</v>
+        <v>0.959</v>
       </c>
       <c r="L181" s="2" t="n">
         <v>44543</v>
@@ -10934,7 +10934,7 @@
         </is>
       </c>
       <c r="K182" t="n">
-        <v>0.548</v>
+        <v>0.56335</v>
       </c>
       <c r="L182" s="2" t="n">
         <v>44550</v>
@@ -10992,7 +10992,7 @@
         </is>
       </c>
       <c r="K183" t="n">
-        <v>0.891</v>
+        <v>0.5781000000000001</v>
       </c>
       <c r="L183" s="2" t="n">
         <v>44557</v>
@@ -11050,7 +11050,7 @@
         </is>
       </c>
       <c r="K184" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.852</v>
       </c>
       <c r="L184" s="2" t="n">
         <v>44564</v>
@@ -11108,7 +11108,7 @@
         </is>
       </c>
       <c r="K185" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="L185" s="2" t="n">
         <v>44571</v>
@@ -11166,7 +11166,7 @@
         </is>
       </c>
       <c r="K186" t="n">
-        <v>0.993</v>
+        <v>0.9924999999999999</v>
       </c>
       <c r="L186" s="2" t="n">
         <v>44578</v>
@@ -11224,7 +11224,7 @@
         </is>
       </c>
       <c r="K187" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
       <c r="L187" s="2" t="n">
         <v>44585</v>
@@ -11282,7 +11282,7 @@
         </is>
       </c>
       <c r="K188" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
       <c r="L188" s="2" t="n">
         <v>44592</v>
@@ -11340,7 +11340,7 @@
         </is>
       </c>
       <c r="K189" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
       <c r="L189" s="2" t="n">
         <v>44599</v>
@@ -11398,7 +11398,7 @@
         </is>
       </c>
       <c r="K190" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
       <c r="L190" s="2" t="n">
         <v>44606</v>
@@ -11456,7 +11456,7 @@
         </is>
       </c>
       <c r="K191" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="L191" s="2" t="n">
         <v>44613</v>
@@ -11514,7 +11514,7 @@
         </is>
       </c>
       <c r="K192" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
       <c r="L192" s="2" t="n">
         <v>44620</v>
@@ -11572,7 +11572,7 @@
         </is>
       </c>
       <c r="K193" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
       <c r="L193" s="2" t="n">
         <v>44627</v>
@@ -11630,7 +11630,7 @@
         </is>
       </c>
       <c r="K194" t="n">
-        <v>0.75</v>
+        <v>0.19515</v>
       </c>
       <c r="L194" s="2" t="n">
         <v>44634</v>
@@ -11688,7 +11688,7 @@
         </is>
       </c>
       <c r="K195" t="n">
-        <v>0.9655</v>
+        <v>0.86225</v>
       </c>
       <c r="L195" s="2" t="n">
         <v>44641</v>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="K196" t="n">
-        <v>0.96</v>
+        <v>0.957</v>
       </c>
       <c r="L196" s="2" t="n">
         <v>44648</v>
@@ -11804,7 +11804,7 @@
         </is>
       </c>
       <c r="K197" t="n">
-        <v>0.993</v>
+        <v>0.998</v>
       </c>
       <c r="L197" s="2" t="n">
         <v>44655</v>
@@ -11920,7 +11920,7 @@
         </is>
       </c>
       <c r="K199" t="n">
-        <v>0.977</v>
+        <v>0.9804999999999999</v>
       </c>
       <c r="L199" s="2" t="n">
         <v>44669</v>
@@ -11978,7 +11978,7 @@
         </is>
       </c>
       <c r="K200" t="n">
-        <v>0.9675</v>
+        <v>0.9895</v>
       </c>
       <c r="L200" s="2" t="n">
         <v>44676</v>
@@ -12029,7 +12029,7 @@
         <v>94.91999816894531</v>
       </c>
       <c r="J201" t="n">
-        <v>95.04406379206557</v>
+        <v>95.8079141518665</v>
       </c>
       <c r="K201" t="n">
         <v>0</v>
@@ -12092,7 +12092,7 @@
         <v>44522</v>
       </c>
       <c r="M202" t="n">
-        <v>7.079334203413055</v>
+        <v>2.410003662109375</v>
       </c>
       <c r="N202" t="n">
         <v>9</v>
@@ -12150,7 +12150,7 @@
         <v>44529</v>
       </c>
       <c r="M203" t="n">
-        <v>7.079334203413055</v>
+        <v>2.410003662109375</v>
       </c>
       <c r="N203" t="n">
         <v>9</v>
@@ -12208,7 +12208,7 @@
         <v>44536</v>
       </c>
       <c r="M204" t="n">
-        <v>7.079334203413055</v>
+        <v>2.410003662109375</v>
       </c>
       <c r="N204" t="n">
         <v>9</v>
@@ -12260,13 +12260,13 @@
         </is>
       </c>
       <c r="K205" t="n">
-        <v>0.963</v>
+        <v>0.959</v>
       </c>
       <c r="L205" s="2" t="n">
         <v>44543</v>
       </c>
       <c r="M205" t="n">
-        <v>7.079334203413055</v>
+        <v>2.410003662109375</v>
       </c>
       <c r="N205" t="n">
         <v>9</v>
@@ -12318,13 +12318,13 @@
         </is>
       </c>
       <c r="K206" t="n">
-        <v>0.548</v>
+        <v>0.56335</v>
       </c>
       <c r="L206" s="2" t="n">
         <v>44550</v>
       </c>
       <c r="M206" t="n">
-        <v>7.079334203413055</v>
+        <v>2.410003662109375</v>
       </c>
       <c r="N206" t="n">
         <v>9</v>
@@ -12376,13 +12376,13 @@
         </is>
       </c>
       <c r="K207" t="n">
-        <v>0.891</v>
+        <v>0.5781000000000001</v>
       </c>
       <c r="L207" s="2" t="n">
         <v>44557</v>
       </c>
       <c r="M207" t="n">
-        <v>7.079334203413055</v>
+        <v>2.410003662109375</v>
       </c>
       <c r="N207" t="n">
         <v>9</v>
@@ -12434,13 +12434,13 @@
         </is>
       </c>
       <c r="K208" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.852</v>
       </c>
       <c r="L208" s="2" t="n">
         <v>44564</v>
       </c>
       <c r="M208" t="n">
-        <v>7.079334203413055</v>
+        <v>2.410003662109375</v>
       </c>
       <c r="N208" t="n">
         <v>9</v>
@@ -12492,13 +12492,13 @@
         </is>
       </c>
       <c r="K209" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="L209" s="2" t="n">
         <v>44571</v>
       </c>
       <c r="M209" t="n">
-        <v>7.079334203413055</v>
+        <v>2.410003662109375</v>
       </c>
       <c r="N209" t="n">
         <v>9</v>
@@ -12550,13 +12550,13 @@
         </is>
       </c>
       <c r="K210" t="n">
-        <v>0.993</v>
+        <v>0.9924999999999999</v>
       </c>
       <c r="L210" s="2" t="n">
         <v>44578</v>
       </c>
       <c r="M210" t="n">
-        <v>7.079334203413055</v>
+        <v>2.410003662109375</v>
       </c>
       <c r="N210" t="n">
         <v>9</v>
@@ -12608,13 +12608,13 @@
         </is>
       </c>
       <c r="K211" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
       <c r="L211" s="2" t="n">
         <v>44585</v>
       </c>
       <c r="M211" t="n">
-        <v>7.079334203413055</v>
+        <v>2.410003662109375</v>
       </c>
       <c r="N211" t="n">
         <v>9</v>
@@ -12666,13 +12666,13 @@
         </is>
       </c>
       <c r="K212" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
       <c r="L212" s="2" t="n">
         <v>44592</v>
       </c>
       <c r="M212" t="n">
-        <v>7.079334203413055</v>
+        <v>2.410003662109375</v>
       </c>
       <c r="N212" t="n">
         <v>9</v>
@@ -12724,13 +12724,13 @@
         </is>
       </c>
       <c r="K213" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
       <c r="L213" s="2" t="n">
         <v>44599</v>
       </c>
       <c r="M213" t="n">
-        <v>7.079334203413055</v>
+        <v>2.410003662109375</v>
       </c>
       <c r="N213" t="n">
         <v>9</v>
@@ -12782,13 +12782,13 @@
         </is>
       </c>
       <c r="K214" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
       <c r="L214" s="2" t="n">
         <v>44606</v>
       </c>
       <c r="M214" t="n">
-        <v>7.079334203413055</v>
+        <v>2.410003662109375</v>
       </c>
       <c r="N214" t="n">
         <v>9</v>
@@ -12840,13 +12840,13 @@
         </is>
       </c>
       <c r="K215" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="L215" s="2" t="n">
         <v>44613</v>
       </c>
       <c r="M215" t="n">
-        <v>7.079334203413055</v>
+        <v>2.410003662109375</v>
       </c>
       <c r="N215" t="n">
         <v>9</v>
@@ -12898,13 +12898,13 @@
         </is>
       </c>
       <c r="K216" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
       <c r="L216" s="2" t="n">
         <v>44620</v>
       </c>
       <c r="M216" t="n">
-        <v>7.079334203413055</v>
+        <v>2.410003662109375</v>
       </c>
       <c r="N216" t="n">
         <v>9</v>
@@ -12956,13 +12956,13 @@
         </is>
       </c>
       <c r="K217" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
       <c r="L217" s="2" t="n">
         <v>44627</v>
       </c>
       <c r="M217" t="n">
-        <v>7.079334203413055</v>
+        <v>2.410003662109375</v>
       </c>
       <c r="N217" t="n">
         <v>9</v>
@@ -13014,13 +13014,13 @@
         </is>
       </c>
       <c r="K218" t="n">
-        <v>0.75</v>
+        <v>0.19515</v>
       </c>
       <c r="L218" s="2" t="n">
         <v>44634</v>
       </c>
       <c r="M218" t="n">
-        <v>7.079334203413055</v>
+        <v>2.410003662109375</v>
       </c>
       <c r="N218" t="n">
         <v>9</v>
@@ -13072,13 +13072,13 @@
         </is>
       </c>
       <c r="K219" t="n">
-        <v>0.9655</v>
+        <v>0.86225</v>
       </c>
       <c r="L219" s="2" t="n">
         <v>44641</v>
       </c>
       <c r="M219" t="n">
-        <v>7.079334203413055</v>
+        <v>2.410003662109375</v>
       </c>
       <c r="N219" t="n">
         <v>9</v>
@@ -13130,13 +13130,13 @@
         </is>
       </c>
       <c r="K220" t="n">
-        <v>0.96</v>
+        <v>0.957</v>
       </c>
       <c r="L220" s="2" t="n">
         <v>44648</v>
       </c>
       <c r="M220" t="n">
-        <v>7.079334203413055</v>
+        <v>2.410003662109375</v>
       </c>
       <c r="N220" t="n">
         <v>9</v>
@@ -13188,13 +13188,13 @@
         </is>
       </c>
       <c r="K221" t="n">
-        <v>0.993</v>
+        <v>0.998</v>
       </c>
       <c r="L221" s="2" t="n">
         <v>44655</v>
       </c>
       <c r="M221" t="n">
-        <v>7.079334203413055</v>
+        <v>2.410003662109375</v>
       </c>
       <c r="N221" t="n">
         <v>9</v>
@@ -13252,7 +13252,7 @@
         <v>44662</v>
       </c>
       <c r="M222" t="n">
-        <v>7.079334203413055</v>
+        <v>2.410003662109375</v>
       </c>
       <c r="N222" t="n">
         <v>9</v>
@@ -13304,13 +13304,13 @@
         </is>
       </c>
       <c r="K223" t="n">
-        <v>0.977</v>
+        <v>0.9804999999999999</v>
       </c>
       <c r="L223" s="2" t="n">
         <v>44669</v>
       </c>
       <c r="M223" t="n">
-        <v>7.079334203413055</v>
+        <v>2.410003662109375</v>
       </c>
       <c r="N223" t="n">
         <v>9</v>
@@ -13362,13 +13362,13 @@
         </is>
       </c>
       <c r="K224" t="n">
-        <v>0.9675</v>
+        <v>0.9895</v>
       </c>
       <c r="L224" s="2" t="n">
         <v>44676</v>
       </c>
       <c r="M224" t="n">
-        <v>7.079334203413055</v>
+        <v>2.410003662109375</v>
       </c>
       <c r="N224" t="n">
         <v>9</v>
@@ -13420,13 +13420,13 @@
         </is>
       </c>
       <c r="K225" t="n">
-        <v>0.998</v>
+        <v>1.0248</v>
       </c>
       <c r="L225" s="2" t="n">
         <v>44683</v>
       </c>
       <c r="M225" t="n">
-        <v>7.079334203413055</v>
+        <v>2.410003662109375</v>
       </c>
       <c r="N225" t="n">
         <v>9</v>
@@ -13471,7 +13471,7 @@
         <v>94.91999816894531</v>
       </c>
       <c r="J226" t="n">
-        <v>94.57933420341305</v>
+        <v>95.20742514508856</v>
       </c>
       <c r="K226" t="n">
         <v>0</v>
@@ -13480,7 +13480,7 @@
         <v>44684</v>
       </c>
       <c r="M226" t="n">
-        <v>7.079334203413055</v>
+        <v>2.410003662109375</v>
       </c>
       <c r="N226" t="n">
         <v>9</v>
@@ -13489,7 +13489,7 @@
         <v>87.5</v>
       </c>
       <c r="P226" t="n">
-        <v>807</v>
+        <v>275</v>
       </c>
     </row>
     <row r="227">
@@ -13534,7 +13534,7 @@
         <v>44529</v>
       </c>
       <c r="M227" t="n">
-        <v>2.79273634398487</v>
+        <v>3.25812900445635</v>
       </c>
       <c r="N227" t="n">
         <v>10</v>
@@ -13592,7 +13592,7 @@
         <v>44536</v>
       </c>
       <c r="M228" t="n">
-        <v>2.79273634398487</v>
+        <v>3.25812900445635</v>
       </c>
       <c r="N228" t="n">
         <v>10</v>
@@ -13644,13 +13644,13 @@
         </is>
       </c>
       <c r="K229" t="n">
-        <v>0.963</v>
+        <v>0.959</v>
       </c>
       <c r="L229" s="2" t="n">
         <v>44543</v>
       </c>
       <c r="M229" t="n">
-        <v>2.79273634398487</v>
+        <v>3.25812900445635</v>
       </c>
       <c r="N229" t="n">
         <v>10</v>
@@ -13702,13 +13702,13 @@
         </is>
       </c>
       <c r="K230" t="n">
-        <v>0.548</v>
+        <v>0.56335</v>
       </c>
       <c r="L230" s="2" t="n">
         <v>44550</v>
       </c>
       <c r="M230" t="n">
-        <v>2.79273634398487</v>
+        <v>3.25812900445635</v>
       </c>
       <c r="N230" t="n">
         <v>10</v>
@@ -13760,13 +13760,13 @@
         </is>
       </c>
       <c r="K231" t="n">
-        <v>0.891</v>
+        <v>0.5781000000000001</v>
       </c>
       <c r="L231" s="2" t="n">
         <v>44557</v>
       </c>
       <c r="M231" t="n">
-        <v>2.79273634398487</v>
+        <v>3.25812900445635</v>
       </c>
       <c r="N231" t="n">
         <v>10</v>
@@ -13818,13 +13818,13 @@
         </is>
       </c>
       <c r="K232" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.852</v>
       </c>
       <c r="L232" s="2" t="n">
         <v>44564</v>
       </c>
       <c r="M232" t="n">
-        <v>2.79273634398487</v>
+        <v>3.25812900445635</v>
       </c>
       <c r="N232" t="n">
         <v>10</v>
@@ -13876,13 +13876,13 @@
         </is>
       </c>
       <c r="K233" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="L233" s="2" t="n">
         <v>44571</v>
       </c>
       <c r="M233" t="n">
-        <v>2.79273634398487</v>
+        <v>3.25812900445635</v>
       </c>
       <c r="N233" t="n">
         <v>10</v>
@@ -13934,13 +13934,13 @@
         </is>
       </c>
       <c r="K234" t="n">
-        <v>0.993</v>
+        <v>0.9924999999999999</v>
       </c>
       <c r="L234" s="2" t="n">
         <v>44578</v>
       </c>
       <c r="M234" t="n">
-        <v>2.79273634398487</v>
+        <v>3.25812900445635</v>
       </c>
       <c r="N234" t="n">
         <v>10</v>
@@ -13992,13 +13992,13 @@
         </is>
       </c>
       <c r="K235" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
       <c r="L235" s="2" t="n">
         <v>44585</v>
       </c>
       <c r="M235" t="n">
-        <v>2.79273634398487</v>
+        <v>3.25812900445635</v>
       </c>
       <c r="N235" t="n">
         <v>10</v>
@@ -14050,13 +14050,13 @@
         </is>
       </c>
       <c r="K236" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
       <c r="L236" s="2" t="n">
         <v>44592</v>
       </c>
       <c r="M236" t="n">
-        <v>2.79273634398487</v>
+        <v>3.25812900445635</v>
       </c>
       <c r="N236" t="n">
         <v>10</v>
@@ -14108,13 +14108,13 @@
         </is>
       </c>
       <c r="K237" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
       <c r="L237" s="2" t="n">
         <v>44599</v>
       </c>
       <c r="M237" t="n">
-        <v>2.79273634398487</v>
+        <v>3.25812900445635</v>
       </c>
       <c r="N237" t="n">
         <v>10</v>
@@ -14166,13 +14166,13 @@
         </is>
       </c>
       <c r="K238" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
       <c r="L238" s="2" t="n">
         <v>44606</v>
       </c>
       <c r="M238" t="n">
-        <v>2.79273634398487</v>
+        <v>3.25812900445635</v>
       </c>
       <c r="N238" t="n">
         <v>10</v>
@@ -14224,13 +14224,13 @@
         </is>
       </c>
       <c r="K239" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="L239" s="2" t="n">
         <v>44613</v>
       </c>
       <c r="M239" t="n">
-        <v>2.79273634398487</v>
+        <v>3.25812900445635</v>
       </c>
       <c r="N239" t="n">
         <v>10</v>
@@ -14282,13 +14282,13 @@
         </is>
       </c>
       <c r="K240" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
       <c r="L240" s="2" t="n">
         <v>44620</v>
       </c>
       <c r="M240" t="n">
-        <v>2.79273634398487</v>
+        <v>3.25812900445635</v>
       </c>
       <c r="N240" t="n">
         <v>10</v>
@@ -14340,13 +14340,13 @@
         </is>
       </c>
       <c r="K241" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
       <c r="L241" s="2" t="n">
         <v>44627</v>
       </c>
       <c r="M241" t="n">
-        <v>2.79273634398487</v>
+        <v>3.25812900445635</v>
       </c>
       <c r="N241" t="n">
         <v>10</v>
@@ -14398,13 +14398,13 @@
         </is>
       </c>
       <c r="K242" t="n">
-        <v>0.75</v>
+        <v>0.19515</v>
       </c>
       <c r="L242" s="2" t="n">
         <v>44634</v>
       </c>
       <c r="M242" t="n">
-        <v>2.79273634398487</v>
+        <v>3.25812900445635</v>
       </c>
       <c r="N242" t="n">
         <v>10</v>
@@ -14456,13 +14456,13 @@
         </is>
       </c>
       <c r="K243" t="n">
-        <v>0.9655</v>
+        <v>0.86225</v>
       </c>
       <c r="L243" s="2" t="n">
         <v>44641</v>
       </c>
       <c r="M243" t="n">
-        <v>2.79273634398487</v>
+        <v>3.25812900445635</v>
       </c>
       <c r="N243" t="n">
         <v>10</v>
@@ -14514,13 +14514,13 @@
         </is>
       </c>
       <c r="K244" t="n">
-        <v>0.96</v>
+        <v>0.957</v>
       </c>
       <c r="L244" s="2" t="n">
         <v>44648</v>
       </c>
       <c r="M244" t="n">
-        <v>2.79273634398487</v>
+        <v>3.25812900445635</v>
       </c>
       <c r="N244" t="n">
         <v>10</v>
@@ -14572,13 +14572,13 @@
         </is>
       </c>
       <c r="K245" t="n">
-        <v>0.993</v>
+        <v>0.998</v>
       </c>
       <c r="L245" s="2" t="n">
         <v>44655</v>
       </c>
       <c r="M245" t="n">
-        <v>2.79273634398487</v>
+        <v>3.25812900445635</v>
       </c>
       <c r="N245" t="n">
         <v>10</v>
@@ -14636,7 +14636,7 @@
         <v>44662</v>
       </c>
       <c r="M246" t="n">
-        <v>2.79273634398487</v>
+        <v>3.25812900445635</v>
       </c>
       <c r="N246" t="n">
         <v>10</v>
@@ -14688,13 +14688,13 @@
         </is>
       </c>
       <c r="K247" t="n">
-        <v>0.977</v>
+        <v>0.9804999999999999</v>
       </c>
       <c r="L247" s="2" t="n">
         <v>44669</v>
       </c>
       <c r="M247" t="n">
-        <v>2.79273634398487</v>
+        <v>3.25812900445635</v>
       </c>
       <c r="N247" t="n">
         <v>10</v>
@@ -14746,13 +14746,13 @@
         </is>
       </c>
       <c r="K248" t="n">
-        <v>0.9675</v>
+        <v>0.9895</v>
       </c>
       <c r="L248" s="2" t="n">
         <v>44676</v>
       </c>
       <c r="M248" t="n">
-        <v>2.79273634398487</v>
+        <v>3.25812900445635</v>
       </c>
       <c r="N248" t="n">
         <v>10</v>
@@ -14804,13 +14804,13 @@
         </is>
       </c>
       <c r="K249" t="n">
-        <v>0.998</v>
+        <v>1.0248</v>
       </c>
       <c r="L249" s="2" t="n">
         <v>44683</v>
       </c>
       <c r="M249" t="n">
-        <v>2.79273634398487</v>
+        <v>3.25812900445635</v>
       </c>
       <c r="N249" t="n">
         <v>10</v>
@@ -14868,7 +14868,7 @@
         <v>44690</v>
       </c>
       <c r="M250" t="n">
-        <v>2.79273634398487</v>
+        <v>3.25812900445635</v>
       </c>
       <c r="N250" t="n">
         <v>10</v>
@@ -14913,7 +14913,7 @@
         <v>94.91999816894531</v>
       </c>
       <c r="J251" t="n">
-        <v>93.58273725951221</v>
+        <v>94.04812991998369</v>
       </c>
       <c r="K251" t="n">
         <v>0</v>
@@ -14922,7 +14922,7 @@
         <v>44691</v>
       </c>
       <c r="M251" t="n">
-        <v>2.79273634398487</v>
+        <v>3.25812900445635</v>
       </c>
       <c r="N251" t="n">
         <v>10</v>
@@ -14931,7 +14931,7 @@
         <v>90.79000091552734</v>
       </c>
       <c r="P251" t="n">
-        <v>307</v>
+        <v>358</v>
       </c>
     </row>
     <row r="252">
@@ -14970,13 +14970,13 @@
         </is>
       </c>
       <c r="K252" t="n">
-        <v>0.548</v>
+        <v>0.56335</v>
       </c>
       <c r="L252" s="2" t="n">
         <v>44550</v>
       </c>
       <c r="M252" t="n">
-        <v>1.773985161541987</v>
+        <v>2.61724788984111</v>
       </c>
       <c r="N252" t="n">
         <v>11</v>
@@ -15028,13 +15028,13 @@
         </is>
       </c>
       <c r="K253" t="n">
-        <v>0.891</v>
+        <v>0.5781000000000001</v>
       </c>
       <c r="L253" s="2" t="n">
         <v>44557</v>
       </c>
       <c r="M253" t="n">
-        <v>1.773985161541987</v>
+        <v>2.61724788984111</v>
       </c>
       <c r="N253" t="n">
         <v>11</v>
@@ -15086,13 +15086,13 @@
         </is>
       </c>
       <c r="K254" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.852</v>
       </c>
       <c r="L254" s="2" t="n">
         <v>44564</v>
       </c>
       <c r="M254" t="n">
-        <v>1.773985161541987</v>
+        <v>2.61724788984111</v>
       </c>
       <c r="N254" t="n">
         <v>11</v>
@@ -15144,13 +15144,13 @@
         </is>
       </c>
       <c r="K255" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="L255" s="2" t="n">
         <v>44571</v>
       </c>
       <c r="M255" t="n">
-        <v>1.773985161541987</v>
+        <v>2.61724788984111</v>
       </c>
       <c r="N255" t="n">
         <v>11</v>
@@ -15202,13 +15202,13 @@
         </is>
       </c>
       <c r="K256" t="n">
-        <v>0.993</v>
+        <v>0.9924999999999999</v>
       </c>
       <c r="L256" s="2" t="n">
         <v>44578</v>
       </c>
       <c r="M256" t="n">
-        <v>1.773985161541987</v>
+        <v>2.61724788984111</v>
       </c>
       <c r="N256" t="n">
         <v>11</v>
@@ -15260,13 +15260,13 @@
         </is>
       </c>
       <c r="K257" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
       <c r="L257" s="2" t="n">
         <v>44585</v>
       </c>
       <c r="M257" t="n">
-        <v>1.773985161541987</v>
+        <v>2.61724788984111</v>
       </c>
       <c r="N257" t="n">
         <v>11</v>
@@ -15318,13 +15318,13 @@
         </is>
       </c>
       <c r="K258" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
       <c r="L258" s="2" t="n">
         <v>44592</v>
       </c>
       <c r="M258" t="n">
-        <v>1.773985161541987</v>
+        <v>2.61724788984111</v>
       </c>
       <c r="N258" t="n">
         <v>11</v>
@@ -15376,13 +15376,13 @@
         </is>
       </c>
       <c r="K259" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
       <c r="L259" s="2" t="n">
         <v>44599</v>
       </c>
       <c r="M259" t="n">
-        <v>1.773985161541987</v>
+        <v>2.61724788984111</v>
       </c>
       <c r="N259" t="n">
         <v>11</v>
@@ -15434,13 +15434,13 @@
         </is>
       </c>
       <c r="K260" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
       <c r="L260" s="2" t="n">
         <v>44606</v>
       </c>
       <c r="M260" t="n">
-        <v>1.773985161541987</v>
+        <v>2.61724788984111</v>
       </c>
       <c r="N260" t="n">
         <v>11</v>
@@ -15492,13 +15492,13 @@
         </is>
       </c>
       <c r="K261" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="L261" s="2" t="n">
         <v>44613</v>
       </c>
       <c r="M261" t="n">
-        <v>1.773985161541987</v>
+        <v>2.61724788984111</v>
       </c>
       <c r="N261" t="n">
         <v>11</v>
@@ -15550,13 +15550,13 @@
         </is>
       </c>
       <c r="K262" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
       <c r="L262" s="2" t="n">
         <v>44620</v>
       </c>
       <c r="M262" t="n">
-        <v>1.773985161541987</v>
+        <v>2.61724788984111</v>
       </c>
       <c r="N262" t="n">
         <v>11</v>
@@ -15608,13 +15608,13 @@
         </is>
       </c>
       <c r="K263" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
       <c r="L263" s="2" t="n">
         <v>44627</v>
       </c>
       <c r="M263" t="n">
-        <v>1.773985161541987</v>
+        <v>2.61724788984111</v>
       </c>
       <c r="N263" t="n">
         <v>11</v>
@@ -15666,13 +15666,13 @@
         </is>
       </c>
       <c r="K264" t="n">
-        <v>0.75</v>
+        <v>0.19515</v>
       </c>
       <c r="L264" s="2" t="n">
         <v>44634</v>
       </c>
       <c r="M264" t="n">
-        <v>1.773985161541987</v>
+        <v>2.61724788984111</v>
       </c>
       <c r="N264" t="n">
         <v>11</v>
@@ -15724,13 +15724,13 @@
         </is>
       </c>
       <c r="K265" t="n">
-        <v>0.9655</v>
+        <v>0.86225</v>
       </c>
       <c r="L265" s="2" t="n">
         <v>44641</v>
       </c>
       <c r="M265" t="n">
-        <v>1.773985161541987</v>
+        <v>2.61724788984111</v>
       </c>
       <c r="N265" t="n">
         <v>11</v>
@@ -15782,13 +15782,13 @@
         </is>
       </c>
       <c r="K266" t="n">
-        <v>0.96</v>
+        <v>0.957</v>
       </c>
       <c r="L266" s="2" t="n">
         <v>44648</v>
       </c>
       <c r="M266" t="n">
-        <v>1.773985161541987</v>
+        <v>2.61724788984111</v>
       </c>
       <c r="N266" t="n">
         <v>11</v>
@@ -15840,13 +15840,13 @@
         </is>
       </c>
       <c r="K267" t="n">
-        <v>0.993</v>
+        <v>0.998</v>
       </c>
       <c r="L267" s="2" t="n">
         <v>44655</v>
       </c>
       <c r="M267" t="n">
-        <v>1.773985161541987</v>
+        <v>2.61724788984111</v>
       </c>
       <c r="N267" t="n">
         <v>11</v>
@@ -15904,7 +15904,7 @@
         <v>44662</v>
       </c>
       <c r="M268" t="n">
-        <v>1.773985161541987</v>
+        <v>2.61724788984111</v>
       </c>
       <c r="N268" t="n">
         <v>11</v>
@@ -15956,13 +15956,13 @@
         </is>
       </c>
       <c r="K269" t="n">
-        <v>0.977</v>
+        <v>0.9804999999999999</v>
       </c>
       <c r="L269" s="2" t="n">
         <v>44669</v>
       </c>
       <c r="M269" t="n">
-        <v>1.773985161541987</v>
+        <v>2.61724788984111</v>
       </c>
       <c r="N269" t="n">
         <v>11</v>
@@ -16014,13 +16014,13 @@
         </is>
       </c>
       <c r="K270" t="n">
-        <v>0.9675</v>
+        <v>0.9895</v>
       </c>
       <c r="L270" s="2" t="n">
         <v>44676</v>
       </c>
       <c r="M270" t="n">
-        <v>1.773985161541987</v>
+        <v>2.61724788984111</v>
       </c>
       <c r="N270" t="n">
         <v>11</v>
@@ -16072,13 +16072,13 @@
         </is>
       </c>
       <c r="K271" t="n">
-        <v>0.998</v>
+        <v>1.0248</v>
       </c>
       <c r="L271" s="2" t="n">
         <v>44683</v>
       </c>
       <c r="M271" t="n">
-        <v>1.773985161541987</v>
+        <v>2.61724788984111</v>
       </c>
       <c r="N271" t="n">
         <v>11</v>
@@ -16136,7 +16136,7 @@
         <v>44690</v>
       </c>
       <c r="M272" t="n">
-        <v>1.773985161541987</v>
+        <v>2.61724788984111</v>
       </c>
       <c r="N272" t="n">
         <v>11</v>
@@ -16194,7 +16194,7 @@
         <v>44697</v>
       </c>
       <c r="M273" t="n">
-        <v>1.773985161541987</v>
+        <v>2.61724788984111</v>
       </c>
       <c r="N273" t="n">
         <v>11</v>
@@ -16246,13 +16246,13 @@
         </is>
       </c>
       <c r="K274" t="n">
-        <v>0.991</v>
+        <v>0.86465</v>
       </c>
       <c r="L274" s="2" t="n">
         <v>44704</v>
       </c>
       <c r="M274" t="n">
-        <v>1.773985161541987</v>
+        <v>2.61724788984111</v>
       </c>
       <c r="N274" t="n">
         <v>11</v>
@@ -16304,13 +16304,13 @@
         </is>
       </c>
       <c r="K275" t="n">
-        <v>0.9955000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="L275" s="2" t="n">
         <v>44711</v>
       </c>
       <c r="M275" t="n">
-        <v>1.773985161541987</v>
+        <v>2.61724788984111</v>
       </c>
       <c r="N275" t="n">
         <v>11</v>
@@ -16355,7 +16355,7 @@
         <v>95.72000122070312</v>
       </c>
       <c r="J276" t="n">
-        <v>91.9439833304873</v>
+        <v>92.78724605878642</v>
       </c>
       <c r="K276" t="n">
         <v>0</v>
@@ -16364,7 +16364,7 @@
         <v>44712</v>
       </c>
       <c r="M276" t="n">
-        <v>1.773985161541987</v>
+        <v>2.61724788984111</v>
       </c>
       <c r="N276" t="n">
         <v>11</v>
@@ -16373,7 +16373,7 @@
         <v>90.16999816894531</v>
       </c>
       <c r="P276" t="n">
-        <v>197</v>
+        <v>291</v>
       </c>
     </row>
     <row r="277">
@@ -16412,13 +16412,13 @@
         </is>
       </c>
       <c r="K277" t="n">
-        <v>0.891</v>
+        <v>0.5781000000000001</v>
       </c>
       <c r="L277" s="2" t="n">
         <v>44557</v>
       </c>
       <c r="M277" t="n">
-        <v>6.098041889656997</v>
+        <v>7.01695188270196</v>
       </c>
       <c r="N277" t="n">
         <v>12</v>
@@ -16470,13 +16470,13 @@
         </is>
       </c>
       <c r="K278" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.852</v>
       </c>
       <c r="L278" s="2" t="n">
         <v>44564</v>
       </c>
       <c r="M278" t="n">
-        <v>6.098041889656997</v>
+        <v>7.01695188270196</v>
       </c>
       <c r="N278" t="n">
         <v>12</v>
@@ -16528,13 +16528,13 @@
         </is>
       </c>
       <c r="K279" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="L279" s="2" t="n">
         <v>44571</v>
       </c>
       <c r="M279" t="n">
-        <v>6.098041889656997</v>
+        <v>7.01695188270196</v>
       </c>
       <c r="N279" t="n">
         <v>12</v>
@@ -16586,13 +16586,13 @@
         </is>
       </c>
       <c r="K280" t="n">
-        <v>0.993</v>
+        <v>0.9924999999999999</v>
       </c>
       <c r="L280" s="2" t="n">
         <v>44578</v>
       </c>
       <c r="M280" t="n">
-        <v>6.098041889656997</v>
+        <v>7.01695188270196</v>
       </c>
       <c r="N280" t="n">
         <v>12</v>
@@ -16644,13 +16644,13 @@
         </is>
       </c>
       <c r="K281" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
       <c r="L281" s="2" t="n">
         <v>44585</v>
       </c>
       <c r="M281" t="n">
-        <v>6.098041889656997</v>
+        <v>7.01695188270196</v>
       </c>
       <c r="N281" t="n">
         <v>12</v>
@@ -16702,13 +16702,13 @@
         </is>
       </c>
       <c r="K282" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
       <c r="L282" s="2" t="n">
         <v>44592</v>
       </c>
       <c r="M282" t="n">
-        <v>6.098041889656997</v>
+        <v>7.01695188270196</v>
       </c>
       <c r="N282" t="n">
         <v>12</v>
@@ -16760,13 +16760,13 @@
         </is>
       </c>
       <c r="K283" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
       <c r="L283" s="2" t="n">
         <v>44599</v>
       </c>
       <c r="M283" t="n">
-        <v>6.098041889656997</v>
+        <v>7.01695188270196</v>
       </c>
       <c r="N283" t="n">
         <v>12</v>
@@ -16818,13 +16818,13 @@
         </is>
       </c>
       <c r="K284" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
       <c r="L284" s="2" t="n">
         <v>44606</v>
       </c>
       <c r="M284" t="n">
-        <v>6.098041889656997</v>
+        <v>7.01695188270196</v>
       </c>
       <c r="N284" t="n">
         <v>12</v>
@@ -16876,13 +16876,13 @@
         </is>
       </c>
       <c r="K285" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="L285" s="2" t="n">
         <v>44613</v>
       </c>
       <c r="M285" t="n">
-        <v>6.098041889656997</v>
+        <v>7.01695188270196</v>
       </c>
       <c r="N285" t="n">
         <v>12</v>
@@ -16934,13 +16934,13 @@
         </is>
       </c>
       <c r="K286" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
       <c r="L286" s="2" t="n">
         <v>44620</v>
       </c>
       <c r="M286" t="n">
-        <v>6.098041889656997</v>
+        <v>7.01695188270196</v>
       </c>
       <c r="N286" t="n">
         <v>12</v>
@@ -16992,13 +16992,13 @@
         </is>
       </c>
       <c r="K287" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
       <c r="L287" s="2" t="n">
         <v>44627</v>
       </c>
       <c r="M287" t="n">
-        <v>6.098041889656997</v>
+        <v>7.01695188270196</v>
       </c>
       <c r="N287" t="n">
         <v>12</v>
@@ -17050,13 +17050,13 @@
         </is>
       </c>
       <c r="K288" t="n">
-        <v>0.75</v>
+        <v>0.19515</v>
       </c>
       <c r="L288" s="2" t="n">
         <v>44634</v>
       </c>
       <c r="M288" t="n">
-        <v>6.098041889656997</v>
+        <v>7.01695188270196</v>
       </c>
       <c r="N288" t="n">
         <v>12</v>
@@ -17108,13 +17108,13 @@
         </is>
       </c>
       <c r="K289" t="n">
-        <v>0.9655</v>
+        <v>0.86225</v>
       </c>
       <c r="L289" s="2" t="n">
         <v>44641</v>
       </c>
       <c r="M289" t="n">
-        <v>6.098041889656997</v>
+        <v>7.01695188270196</v>
       </c>
       <c r="N289" t="n">
         <v>12</v>
@@ -17166,13 +17166,13 @@
         </is>
       </c>
       <c r="K290" t="n">
-        <v>0.96</v>
+        <v>0.957</v>
       </c>
       <c r="L290" s="2" t="n">
         <v>44648</v>
       </c>
       <c r="M290" t="n">
-        <v>6.098041889656997</v>
+        <v>7.01695188270196</v>
       </c>
       <c r="N290" t="n">
         <v>12</v>
@@ -17224,13 +17224,13 @@
         </is>
       </c>
       <c r="K291" t="n">
-        <v>0.993</v>
+        <v>0.998</v>
       </c>
       <c r="L291" s="2" t="n">
         <v>44655</v>
       </c>
       <c r="M291" t="n">
-        <v>6.098041889656997</v>
+        <v>7.01695188270196</v>
       </c>
       <c r="N291" t="n">
         <v>12</v>
@@ -17288,7 +17288,7 @@
         <v>44662</v>
       </c>
       <c r="M292" t="n">
-        <v>6.098041889656997</v>
+        <v>7.01695188270196</v>
       </c>
       <c r="N292" t="n">
         <v>12</v>
@@ -17340,13 +17340,13 @@
         </is>
       </c>
       <c r="K293" t="n">
-        <v>0.977</v>
+        <v>0.9804999999999999</v>
       </c>
       <c r="L293" s="2" t="n">
         <v>44669</v>
       </c>
       <c r="M293" t="n">
-        <v>6.098041889656997</v>
+        <v>7.01695188270196</v>
       </c>
       <c r="N293" t="n">
         <v>12</v>
@@ -17398,13 +17398,13 @@
         </is>
       </c>
       <c r="K294" t="n">
-        <v>0.9675</v>
+        <v>0.9895</v>
       </c>
       <c r="L294" s="2" t="n">
         <v>44676</v>
       </c>
       <c r="M294" t="n">
-        <v>6.098041889656997</v>
+        <v>7.01695188270196</v>
       </c>
       <c r="N294" t="n">
         <v>12</v>
@@ -17456,13 +17456,13 @@
         </is>
       </c>
       <c r="K295" t="n">
-        <v>0.998</v>
+        <v>1.0248</v>
       </c>
       <c r="L295" s="2" t="n">
         <v>44683</v>
       </c>
       <c r="M295" t="n">
-        <v>6.098041889656997</v>
+        <v>7.01695188270196</v>
       </c>
       <c r="N295" t="n">
         <v>12</v>
@@ -17520,7 +17520,7 @@
         <v>44690</v>
       </c>
       <c r="M296" t="n">
-        <v>6.098041889656997</v>
+        <v>7.01695188270196</v>
       </c>
       <c r="N296" t="n">
         <v>12</v>
@@ -17578,7 +17578,7 @@
         <v>44697</v>
       </c>
       <c r="M297" t="n">
-        <v>6.098041889656997</v>
+        <v>7.01695188270196</v>
       </c>
       <c r="N297" t="n">
         <v>12</v>
@@ -17630,13 +17630,13 @@
         </is>
       </c>
       <c r="K298" t="n">
-        <v>0.991</v>
+        <v>0.86465</v>
       </c>
       <c r="L298" s="2" t="n">
         <v>44704</v>
       </c>
       <c r="M298" t="n">
-        <v>6.098041889656997</v>
+        <v>7.01695188270196</v>
       </c>
       <c r="N298" t="n">
         <v>12</v>
@@ -17688,13 +17688,13 @@
         </is>
       </c>
       <c r="K299" t="n">
-        <v>0.9955000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="L299" s="2" t="n">
         <v>44711</v>
       </c>
       <c r="M299" t="n">
-        <v>6.098041889656997</v>
+        <v>7.01695188270196</v>
       </c>
       <c r="N299" t="n">
         <v>12</v>
@@ -17752,7 +17752,7 @@
         <v>44718</v>
       </c>
       <c r="M300" t="n">
-        <v>6.098041889656997</v>
+        <v>7.01695188270196</v>
       </c>
       <c r="N300" t="n">
         <v>12</v>
@@ -17797,7 +17797,7 @@
         <v>95.72000122070312</v>
       </c>
       <c r="J301" t="n">
-        <v>91.80804097412965</v>
+        <v>92.72695096717462</v>
       </c>
       <c r="K301" t="n">
         <v>0</v>
@@ -17806,7 +17806,7 @@
         <v>44719</v>
       </c>
       <c r="M301" t="n">
-        <v>6.098041889656997</v>
+        <v>7.01695188270196</v>
       </c>
       <c r="N301" t="n">
         <v>12</v>
@@ -17815,7 +17815,7 @@
         <v>85.70999908447266</v>
       </c>
       <c r="P301" t="n">
-        <v>713</v>
+        <v>821</v>
       </c>
     </row>
     <row r="302">
@@ -17854,13 +17854,13 @@
         </is>
       </c>
       <c r="K302" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.852</v>
       </c>
       <c r="L302" s="2" t="n">
         <v>44564</v>
       </c>
       <c r="M302" t="n">
-        <v>5.402055919314989</v>
+        <v>5.889720550988386</v>
       </c>
       <c r="N302" t="n">
         <v>13</v>
@@ -17912,13 +17912,13 @@
         </is>
       </c>
       <c r="K303" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="L303" s="2" t="n">
         <v>44571</v>
       </c>
       <c r="M303" t="n">
-        <v>5.402055919314989</v>
+        <v>5.889720550988386</v>
       </c>
       <c r="N303" t="n">
         <v>13</v>
@@ -17970,13 +17970,13 @@
         </is>
       </c>
       <c r="K304" t="n">
-        <v>0.993</v>
+        <v>0.9924999999999999</v>
       </c>
       <c r="L304" s="2" t="n">
         <v>44578</v>
       </c>
       <c r="M304" t="n">
-        <v>5.402055919314989</v>
+        <v>5.889720550988386</v>
       </c>
       <c r="N304" t="n">
         <v>13</v>
@@ -18028,13 +18028,13 @@
         </is>
       </c>
       <c r="K305" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
       <c r="L305" s="2" t="n">
         <v>44585</v>
       </c>
       <c r="M305" t="n">
-        <v>5.402055919314989</v>
+        <v>5.889720550988386</v>
       </c>
       <c r="N305" t="n">
         <v>13</v>
@@ -18086,13 +18086,13 @@
         </is>
       </c>
       <c r="K306" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
       <c r="L306" s="2" t="n">
         <v>44592</v>
       </c>
       <c r="M306" t="n">
-        <v>5.402055919314989</v>
+        <v>5.889720550988386</v>
       </c>
       <c r="N306" t="n">
         <v>13</v>
@@ -18144,13 +18144,13 @@
         </is>
       </c>
       <c r="K307" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
       <c r="L307" s="2" t="n">
         <v>44599</v>
       </c>
       <c r="M307" t="n">
-        <v>5.402055919314989</v>
+        <v>5.889720550988386</v>
       </c>
       <c r="N307" t="n">
         <v>13</v>
@@ -18202,13 +18202,13 @@
         </is>
       </c>
       <c r="K308" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
       <c r="L308" s="2" t="n">
         <v>44606</v>
       </c>
       <c r="M308" t="n">
-        <v>5.402055919314989</v>
+        <v>5.889720550988386</v>
       </c>
       <c r="N308" t="n">
         <v>13</v>
@@ -18260,13 +18260,13 @@
         </is>
       </c>
       <c r="K309" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="L309" s="2" t="n">
         <v>44613</v>
       </c>
       <c r="M309" t="n">
-        <v>5.402055919314989</v>
+        <v>5.889720550988386</v>
       </c>
       <c r="N309" t="n">
         <v>13</v>
@@ -18318,13 +18318,13 @@
         </is>
       </c>
       <c r="K310" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
       <c r="L310" s="2" t="n">
         <v>44620</v>
       </c>
       <c r="M310" t="n">
-        <v>5.402055919314989</v>
+        <v>5.889720550988386</v>
       </c>
       <c r="N310" t="n">
         <v>13</v>
@@ -18376,13 +18376,13 @@
         </is>
       </c>
       <c r="K311" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
       <c r="L311" s="2" t="n">
         <v>44627</v>
       </c>
       <c r="M311" t="n">
-        <v>5.402055919314989</v>
+        <v>5.889720550988386</v>
       </c>
       <c r="N311" t="n">
         <v>13</v>
@@ -18434,13 +18434,13 @@
         </is>
       </c>
       <c r="K312" t="n">
-        <v>0.75</v>
+        <v>0.19515</v>
       </c>
       <c r="L312" s="2" t="n">
         <v>44634</v>
       </c>
       <c r="M312" t="n">
-        <v>5.402055919314989</v>
+        <v>5.889720550988386</v>
       </c>
       <c r="N312" t="n">
         <v>13</v>
@@ -18492,13 +18492,13 @@
         </is>
       </c>
       <c r="K313" t="n">
-        <v>0.9655</v>
+        <v>0.86225</v>
       </c>
       <c r="L313" s="2" t="n">
         <v>44641</v>
       </c>
       <c r="M313" t="n">
-        <v>5.402055919314989</v>
+        <v>5.889720550988386</v>
       </c>
       <c r="N313" t="n">
         <v>13</v>
@@ -18550,13 +18550,13 @@
         </is>
       </c>
       <c r="K314" t="n">
-        <v>0.96</v>
+        <v>0.957</v>
       </c>
       <c r="L314" s="2" t="n">
         <v>44648</v>
       </c>
       <c r="M314" t="n">
-        <v>5.402055919314989</v>
+        <v>5.889720550988386</v>
       </c>
       <c r="N314" t="n">
         <v>13</v>
@@ -18608,13 +18608,13 @@
         </is>
       </c>
       <c r="K315" t="n">
-        <v>0.993</v>
+        <v>0.998</v>
       </c>
       <c r="L315" s="2" t="n">
         <v>44655</v>
       </c>
       <c r="M315" t="n">
-        <v>5.402055919314989</v>
+        <v>5.889720550988386</v>
       </c>
       <c r="N315" t="n">
         <v>13</v>
@@ -18672,7 +18672,7 @@
         <v>44662</v>
       </c>
       <c r="M316" t="n">
-        <v>5.402055919314989</v>
+        <v>5.889720550988386</v>
       </c>
       <c r="N316" t="n">
         <v>13</v>
@@ -18724,13 +18724,13 @@
         </is>
       </c>
       <c r="K317" t="n">
-        <v>0.977</v>
+        <v>0.9804999999999999</v>
       </c>
       <c r="L317" s="2" t="n">
         <v>44669</v>
       </c>
       <c r="M317" t="n">
-        <v>5.402055919314989</v>
+        <v>5.889720550988386</v>
       </c>
       <c r="N317" t="n">
         <v>13</v>
@@ -18782,13 +18782,13 @@
         </is>
       </c>
       <c r="K318" t="n">
-        <v>0.9675</v>
+        <v>0.9895</v>
       </c>
       <c r="L318" s="2" t="n">
         <v>44676</v>
       </c>
       <c r="M318" t="n">
-        <v>5.402055919314989</v>
+        <v>5.889720550988386</v>
       </c>
       <c r="N318" t="n">
         <v>13</v>
@@ -18840,13 +18840,13 @@
         </is>
       </c>
       <c r="K319" t="n">
-        <v>0.998</v>
+        <v>1.0248</v>
       </c>
       <c r="L319" s="2" t="n">
         <v>44683</v>
       </c>
       <c r="M319" t="n">
-        <v>5.402055919314989</v>
+        <v>5.889720550988386</v>
       </c>
       <c r="N319" t="n">
         <v>13</v>
@@ -18904,7 +18904,7 @@
         <v>44690</v>
       </c>
       <c r="M320" t="n">
-        <v>5.402055919314989</v>
+        <v>5.889720550988386</v>
       </c>
       <c r="N320" t="n">
         <v>13</v>
@@ -18962,7 +18962,7 @@
         <v>44697</v>
       </c>
       <c r="M321" t="n">
-        <v>5.402055919314989</v>
+        <v>5.889720550988386</v>
       </c>
       <c r="N321" t="n">
         <v>13</v>
@@ -19014,13 +19014,13 @@
         </is>
       </c>
       <c r="K322" t="n">
-        <v>0.991</v>
+        <v>0.86465</v>
       </c>
       <c r="L322" s="2" t="n">
         <v>44704</v>
       </c>
       <c r="M322" t="n">
-        <v>5.402055919314989</v>
+        <v>5.889720550988386</v>
       </c>
       <c r="N322" t="n">
         <v>13</v>
@@ -19072,13 +19072,13 @@
         </is>
       </c>
       <c r="K323" t="n">
-        <v>0.9955000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="L323" s="2" t="n">
         <v>44711</v>
       </c>
       <c r="M323" t="n">
-        <v>5.402055919314989</v>
+        <v>5.889720550988386</v>
       </c>
       <c r="N323" t="n">
         <v>13</v>
@@ -19136,7 +19136,7 @@
         <v>44718</v>
       </c>
       <c r="M324" t="n">
-        <v>5.402055919314989</v>
+        <v>5.889720550988386</v>
       </c>
       <c r="N324" t="n">
         <v>13</v>
@@ -19188,13 +19188,13 @@
         </is>
       </c>
       <c r="K325" t="n">
-        <v>0.98</v>
+        <v>0.957</v>
       </c>
       <c r="L325" s="2" t="n">
         <v>44725</v>
       </c>
       <c r="M325" t="n">
-        <v>5.402055919314989</v>
+        <v>5.889720550988386</v>
       </c>
       <c r="N325" t="n">
         <v>13</v>
@@ -19239,7 +19239,7 @@
         <v>95.72000122070312</v>
       </c>
       <c r="J326" t="n">
-        <v>91.4520589710728</v>
+        <v>91.9397236027462</v>
       </c>
       <c r="K326" t="n">
         <v>0</v>
@@ -19248,7 +19248,7 @@
         <v>44726</v>
       </c>
       <c r="M326" t="n">
-        <v>5.402055919314989</v>
+        <v>5.889720550988386</v>
       </c>
       <c r="N326" t="n">
         <v>13</v>
@@ -19257,7 +19257,7 @@
         <v>86.05000305175781</v>
       </c>
       <c r="P326" t="n">
-        <v>627</v>
+        <v>683</v>
       </c>
     </row>
     <row r="327">
@@ -19296,13 +19296,13 @@
         </is>
       </c>
       <c r="K327" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
       <c r="L327" s="2" t="n">
         <v>44599</v>
       </c>
       <c r="M327" t="n">
-        <v>1.801712568057155</v>
+        <v>2.475219223912518</v>
       </c>
       <c r="N327" t="n">
         <v>14</v>
@@ -19354,13 +19354,13 @@
         </is>
       </c>
       <c r="K328" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
       <c r="L328" s="2" t="n">
         <v>44606</v>
       </c>
       <c r="M328" t="n">
-        <v>1.801712568057155</v>
+        <v>2.475219223912518</v>
       </c>
       <c r="N328" t="n">
         <v>14</v>
@@ -19412,13 +19412,13 @@
         </is>
       </c>
       <c r="K329" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="L329" s="2" t="n">
         <v>44613</v>
       </c>
       <c r="M329" t="n">
-        <v>1.801712568057155</v>
+        <v>2.475219223912518</v>
       </c>
       <c r="N329" t="n">
         <v>14</v>
@@ -19470,13 +19470,13 @@
         </is>
       </c>
       <c r="K330" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
       <c r="L330" s="2" t="n">
         <v>44620</v>
       </c>
       <c r="M330" t="n">
-        <v>1.801712568057155</v>
+        <v>2.475219223912518</v>
       </c>
       <c r="N330" t="n">
         <v>14</v>
@@ -19528,13 +19528,13 @@
         </is>
       </c>
       <c r="K331" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
       <c r="L331" s="2" t="n">
         <v>44627</v>
       </c>
       <c r="M331" t="n">
-        <v>1.801712568057155</v>
+        <v>2.475219223912518</v>
       </c>
       <c r="N331" t="n">
         <v>14</v>
@@ -19586,13 +19586,13 @@
         </is>
       </c>
       <c r="K332" t="n">
-        <v>0.75</v>
+        <v>0.19515</v>
       </c>
       <c r="L332" s="2" t="n">
         <v>44634</v>
       </c>
       <c r="M332" t="n">
-        <v>1.801712568057155</v>
+        <v>2.475219223912518</v>
       </c>
       <c r="N332" t="n">
         <v>14</v>
@@ -19644,13 +19644,13 @@
         </is>
       </c>
       <c r="K333" t="n">
-        <v>0.9655</v>
+        <v>0.86225</v>
       </c>
       <c r="L333" s="2" t="n">
         <v>44641</v>
       </c>
       <c r="M333" t="n">
-        <v>1.801712568057155</v>
+        <v>2.475219223912518</v>
       </c>
       <c r="N333" t="n">
         <v>14</v>
@@ -19702,13 +19702,13 @@
         </is>
       </c>
       <c r="K334" t="n">
-        <v>0.96</v>
+        <v>0.957</v>
       </c>
       <c r="L334" s="2" t="n">
         <v>44648</v>
       </c>
       <c r="M334" t="n">
-        <v>1.801712568057155</v>
+        <v>2.475219223912518</v>
       </c>
       <c r="N334" t="n">
         <v>14</v>
@@ -19760,13 +19760,13 @@
         </is>
       </c>
       <c r="K335" t="n">
-        <v>0.993</v>
+        <v>0.998</v>
       </c>
       <c r="L335" s="2" t="n">
         <v>44655</v>
       </c>
       <c r="M335" t="n">
-        <v>1.801712568057155</v>
+        <v>2.475219223912518</v>
       </c>
       <c r="N335" t="n">
         <v>14</v>
@@ -19824,7 +19824,7 @@
         <v>44662</v>
       </c>
       <c r="M336" t="n">
-        <v>1.801712568057155</v>
+        <v>2.475219223912518</v>
       </c>
       <c r="N336" t="n">
         <v>14</v>
@@ -19876,13 +19876,13 @@
         </is>
       </c>
       <c r="K337" t="n">
-        <v>0.977</v>
+        <v>0.9804999999999999</v>
       </c>
       <c r="L337" s="2" t="n">
         <v>44669</v>
       </c>
       <c r="M337" t="n">
-        <v>1.801712568057155</v>
+        <v>2.475219223912518</v>
       </c>
       <c r="N337" t="n">
         <v>14</v>
@@ -19934,13 +19934,13 @@
         </is>
       </c>
       <c r="K338" t="n">
-        <v>0.9675</v>
+        <v>0.9895</v>
       </c>
       <c r="L338" s="2" t="n">
         <v>44676</v>
       </c>
       <c r="M338" t="n">
-        <v>1.801712568057155</v>
+        <v>2.475219223912518</v>
       </c>
       <c r="N338" t="n">
         <v>14</v>
@@ -19992,13 +19992,13 @@
         </is>
       </c>
       <c r="K339" t="n">
-        <v>0.998</v>
+        <v>1.0248</v>
       </c>
       <c r="L339" s="2" t="n">
         <v>44683</v>
       </c>
       <c r="M339" t="n">
-        <v>1.801712568057155</v>
+        <v>2.475219223912518</v>
       </c>
       <c r="N339" t="n">
         <v>14</v>
@@ -20056,7 +20056,7 @@
         <v>44690</v>
       </c>
       <c r="M340" t="n">
-        <v>1.801712568057155</v>
+        <v>2.475219223912518</v>
       </c>
       <c r="N340" t="n">
         <v>14</v>
@@ -20114,7 +20114,7 @@
         <v>44697</v>
       </c>
       <c r="M341" t="n">
-        <v>1.801712568057155</v>
+        <v>2.475219223912518</v>
       </c>
       <c r="N341" t="n">
         <v>14</v>
@@ -20166,13 +20166,13 @@
         </is>
       </c>
       <c r="K342" t="n">
-        <v>0.991</v>
+        <v>0.86465</v>
       </c>
       <c r="L342" s="2" t="n">
         <v>44704</v>
       </c>
       <c r="M342" t="n">
-        <v>1.801712568057155</v>
+        <v>2.475219223912518</v>
       </c>
       <c r="N342" t="n">
         <v>14</v>
@@ -20224,13 +20224,13 @@
         </is>
       </c>
       <c r="K343" t="n">
-        <v>0.9955000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="L343" s="2" t="n">
         <v>44711</v>
       </c>
       <c r="M343" t="n">
-        <v>1.801712568057155</v>
+        <v>2.475219223912518</v>
       </c>
       <c r="N343" t="n">
         <v>14</v>
@@ -20288,7 +20288,7 @@
         <v>44718</v>
       </c>
       <c r="M344" t="n">
-        <v>1.801712568057155</v>
+        <v>2.475219223912518</v>
       </c>
       <c r="N344" t="n">
         <v>14</v>
@@ -20340,13 +20340,13 @@
         </is>
       </c>
       <c r="K345" t="n">
-        <v>0.98</v>
+        <v>0.957</v>
       </c>
       <c r="L345" s="2" t="n">
         <v>44725</v>
       </c>
       <c r="M345" t="n">
-        <v>1.801712568057155</v>
+        <v>2.475219223912518</v>
       </c>
       <c r="N345" t="n">
         <v>14</v>
@@ -20398,13 +20398,13 @@
         </is>
       </c>
       <c r="K346" t="n">
-        <v>0.95</v>
+        <v>0.988</v>
       </c>
       <c r="L346" s="2" t="n">
         <v>44732</v>
       </c>
       <c r="M346" t="n">
-        <v>1.801712568057155</v>
+        <v>2.475219223912518</v>
       </c>
       <c r="N346" t="n">
         <v>14</v>
@@ -20456,13 +20456,13 @@
         </is>
       </c>
       <c r="K347" t="n">
-        <v>0.988</v>
+        <v>0.993</v>
       </c>
       <c r="L347" s="2" t="n">
         <v>44739</v>
       </c>
       <c r="M347" t="n">
-        <v>1.801712568057155</v>
+        <v>2.475219223912518</v>
       </c>
       <c r="N347" t="n">
         <v>14</v>
@@ -20514,13 +20514,13 @@
         </is>
       </c>
       <c r="K348" t="n">
-        <v>0.9935</v>
+        <v>0.98</v>
       </c>
       <c r="L348" s="2" t="n">
         <v>44746</v>
       </c>
       <c r="M348" t="n">
-        <v>1.801712568057155</v>
+        <v>2.475219223912518</v>
       </c>
       <c r="N348" t="n">
         <v>14</v>
@@ -20572,13 +20572,13 @@
         </is>
       </c>
       <c r="K349" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
       <c r="L349" s="2" t="n">
         <v>44753</v>
       </c>
       <c r="M349" t="n">
-        <v>1.801712568057155</v>
+        <v>2.475219223912518</v>
       </c>
       <c r="N349" t="n">
         <v>14</v>
@@ -20636,7 +20636,7 @@
         <v>44760</v>
       </c>
       <c r="M350" t="n">
-        <v>1.801712568057155</v>
+        <v>2.475219223912518</v>
       </c>
       <c r="N350" t="n">
         <v>14</v>
@@ -20681,7 +20681,7 @@
         <v>93.01999664306641</v>
       </c>
       <c r="J351" t="n">
-        <v>92.00170951629934</v>
+        <v>92.67521617215471</v>
       </c>
       <c r="K351" t="n">
         <v>0</v>
@@ -20690,7 +20690,7 @@
         <v>44761</v>
       </c>
       <c r="M351" t="n">
-        <v>1.801712568057155</v>
+        <v>2.475219223912518</v>
       </c>
       <c r="N351" t="n">
         <v>14</v>
@@ -20699,7 +20699,7 @@
         <v>90.19999694824219</v>
       </c>
       <c r="P351" t="n">
-        <v>200</v>
+        <v>275</v>
       </c>
     </row>
     <row r="352">
@@ -20738,13 +20738,13 @@
         </is>
       </c>
       <c r="K352" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
       <c r="L352" s="2" t="n">
         <v>44606</v>
       </c>
       <c r="M352" t="n">
-        <v>2.405167025124229</v>
+        <v>2.422932907841187</v>
       </c>
       <c r="N352" t="n">
         <v>15</v>
@@ -20796,13 +20796,13 @@
         </is>
       </c>
       <c r="K353" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="L353" s="2" t="n">
         <v>44613</v>
       </c>
       <c r="M353" t="n">
-        <v>2.405167025124229</v>
+        <v>2.422932907841187</v>
       </c>
       <c r="N353" t="n">
         <v>15</v>
@@ -20854,13 +20854,13 @@
         </is>
       </c>
       <c r="K354" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
       <c r="L354" s="2" t="n">
         <v>44620</v>
       </c>
       <c r="M354" t="n">
-        <v>2.405167025124229</v>
+        <v>2.422932907841187</v>
       </c>
       <c r="N354" t="n">
         <v>15</v>
@@ -20912,13 +20912,13 @@
         </is>
       </c>
       <c r="K355" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
       <c r="L355" s="2" t="n">
         <v>44627</v>
       </c>
       <c r="M355" t="n">
-        <v>2.405167025124229</v>
+        <v>2.422932907841187</v>
       </c>
       <c r="N355" t="n">
         <v>15</v>
@@ -20970,13 +20970,13 @@
         </is>
       </c>
       <c r="K356" t="n">
-        <v>0.75</v>
+        <v>0.19515</v>
       </c>
       <c r="L356" s="2" t="n">
         <v>44634</v>
       </c>
       <c r="M356" t="n">
-        <v>2.405167025124229</v>
+        <v>2.422932907841187</v>
       </c>
       <c r="N356" t="n">
         <v>15</v>
@@ -21028,13 +21028,13 @@
         </is>
       </c>
       <c r="K357" t="n">
-        <v>0.9655</v>
+        <v>0.86225</v>
       </c>
       <c r="L357" s="2" t="n">
         <v>44641</v>
       </c>
       <c r="M357" t="n">
-        <v>2.405167025124229</v>
+        <v>2.422932907841187</v>
       </c>
       <c r="N357" t="n">
         <v>15</v>
@@ -21086,13 +21086,13 @@
         </is>
       </c>
       <c r="K358" t="n">
-        <v>0.96</v>
+        <v>0.957</v>
       </c>
       <c r="L358" s="2" t="n">
         <v>44648</v>
       </c>
       <c r="M358" t="n">
-        <v>2.405167025124229</v>
+        <v>2.422932907841187</v>
       </c>
       <c r="N358" t="n">
         <v>15</v>
@@ -21144,13 +21144,13 @@
         </is>
       </c>
       <c r="K359" t="n">
-        <v>0.993</v>
+        <v>0.998</v>
       </c>
       <c r="L359" s="2" t="n">
         <v>44655</v>
       </c>
       <c r="M359" t="n">
-        <v>2.405167025124229</v>
+        <v>2.422932907841187</v>
       </c>
       <c r="N359" t="n">
         <v>15</v>
@@ -21208,7 +21208,7 @@
         <v>44662</v>
       </c>
       <c r="M360" t="n">
-        <v>2.405167025124229</v>
+        <v>2.422932907841187</v>
       </c>
       <c r="N360" t="n">
         <v>15</v>
@@ -21260,13 +21260,13 @@
         </is>
       </c>
       <c r="K361" t="n">
-        <v>0.977</v>
+        <v>0.9804999999999999</v>
       </c>
       <c r="L361" s="2" t="n">
         <v>44669</v>
       </c>
       <c r="M361" t="n">
-        <v>2.405167025124229</v>
+        <v>2.422932907841187</v>
       </c>
       <c r="N361" t="n">
         <v>15</v>
@@ -21318,13 +21318,13 @@
         </is>
       </c>
       <c r="K362" t="n">
-        <v>0.9675</v>
+        <v>0.9895</v>
       </c>
       <c r="L362" s="2" t="n">
         <v>44676</v>
       </c>
       <c r="M362" t="n">
-        <v>2.405167025124229</v>
+        <v>2.422932907841187</v>
       </c>
       <c r="N362" t="n">
         <v>15</v>
@@ -21376,13 +21376,13 @@
         </is>
       </c>
       <c r="K363" t="n">
-        <v>0.998</v>
+        <v>1.0248</v>
       </c>
       <c r="L363" s="2" t="n">
         <v>44683</v>
       </c>
       <c r="M363" t="n">
-        <v>2.405167025124229</v>
+        <v>2.422932907841187</v>
       </c>
       <c r="N363" t="n">
         <v>15</v>
@@ -21440,7 +21440,7 @@
         <v>44690</v>
       </c>
       <c r="M364" t="n">
-        <v>2.405167025124229</v>
+        <v>2.422932907841187</v>
       </c>
       <c r="N364" t="n">
         <v>15</v>
@@ -21498,7 +21498,7 @@
         <v>44697</v>
       </c>
       <c r="M365" t="n">
-        <v>2.405167025124229</v>
+        <v>2.422932907841187</v>
       </c>
       <c r="N365" t="n">
         <v>15</v>
@@ -21550,13 +21550,13 @@
         </is>
       </c>
       <c r="K366" t="n">
-        <v>0.991</v>
+        <v>0.86465</v>
       </c>
       <c r="L366" s="2" t="n">
         <v>44704</v>
       </c>
       <c r="M366" t="n">
-        <v>2.405167025124229</v>
+        <v>2.422932907841187</v>
       </c>
       <c r="N366" t="n">
         <v>15</v>
@@ -21608,13 +21608,13 @@
         </is>
       </c>
       <c r="K367" t="n">
-        <v>0.9955000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="L367" s="2" t="n">
         <v>44711</v>
       </c>
       <c r="M367" t="n">
-        <v>2.405167025124229</v>
+        <v>2.422932907841187</v>
       </c>
       <c r="N367" t="n">
         <v>15</v>
@@ -21672,7 +21672,7 @@
         <v>44718</v>
       </c>
       <c r="M368" t="n">
-        <v>2.405167025124229</v>
+        <v>2.422932907841187</v>
       </c>
       <c r="N368" t="n">
         <v>15</v>
@@ -21724,13 +21724,13 @@
         </is>
       </c>
       <c r="K369" t="n">
-        <v>0.98</v>
+        <v>0.957</v>
       </c>
       <c r="L369" s="2" t="n">
         <v>44725</v>
       </c>
       <c r="M369" t="n">
-        <v>2.405167025124229</v>
+        <v>2.422932907841187</v>
       </c>
       <c r="N369" t="n">
         <v>15</v>
@@ -21782,13 +21782,13 @@
         </is>
       </c>
       <c r="K370" t="n">
-        <v>0.95</v>
+        <v>0.988</v>
       </c>
       <c r="L370" s="2" t="n">
         <v>44732</v>
       </c>
       <c r="M370" t="n">
-        <v>2.405167025124229</v>
+        <v>2.422932907841187</v>
       </c>
       <c r="N370" t="n">
         <v>15</v>
@@ -21840,13 +21840,13 @@
         </is>
       </c>
       <c r="K371" t="n">
-        <v>0.988</v>
+        <v>0.993</v>
       </c>
       <c r="L371" s="2" t="n">
         <v>44739</v>
       </c>
       <c r="M371" t="n">
-        <v>2.405167025124229</v>
+        <v>2.422932907841187</v>
       </c>
       <c r="N371" t="n">
         <v>15</v>
@@ -21898,13 +21898,13 @@
         </is>
       </c>
       <c r="K372" t="n">
-        <v>0.9935</v>
+        <v>0.98</v>
       </c>
       <c r="L372" s="2" t="n">
         <v>44746</v>
       </c>
       <c r="M372" t="n">
-        <v>2.405167025124229</v>
+        <v>2.422932907841187</v>
       </c>
       <c r="N372" t="n">
         <v>15</v>
@@ -21956,13 +21956,13 @@
         </is>
       </c>
       <c r="K373" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
       <c r="L373" s="2" t="n">
         <v>44753</v>
       </c>
       <c r="M373" t="n">
-        <v>2.405167025124229</v>
+        <v>2.422932907841187</v>
       </c>
       <c r="N373" t="n">
         <v>15</v>
@@ -22020,7 +22020,7 @@
         <v>44760</v>
       </c>
       <c r="M374" t="n">
-        <v>2.405167025124229</v>
+        <v>2.422932907841187</v>
       </c>
       <c r="N374" t="n">
         <v>15</v>
@@ -22072,13 +22072,13 @@
         </is>
       </c>
       <c r="K375" t="n">
-        <v>0.959</v>
+        <v>0.995</v>
       </c>
       <c r="L375" s="2" t="n">
         <v>44767</v>
       </c>
       <c r="M375" t="n">
-        <v>2.405167025124229</v>
+        <v>2.422932907841187</v>
       </c>
       <c r="N375" t="n">
         <v>15</v>
@@ -22123,7 +22123,7 @@
         <v>93.01999664306641</v>
       </c>
       <c r="J376" t="n">
-        <v>91.74516336301485</v>
+        <v>91.76292924573181</v>
       </c>
       <c r="K376" t="n">
         <v>0</v>
@@ -22132,7 +22132,7 @@
         <v>44768</v>
       </c>
       <c r="M376" t="n">
-        <v>2.405167025124229</v>
+        <v>2.422932907841187</v>
       </c>
       <c r="N376" t="n">
         <v>15</v>
@@ -22141,7 +22141,7 @@
         <v>89.33999633789062</v>
       </c>
       <c r="P376" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="377">
@@ -22180,13 +22180,13 @@
         </is>
       </c>
       <c r="K377" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="L377" s="2" t="n">
         <v>44613</v>
       </c>
       <c r="M377" t="n">
-        <v>4.078974837628266</v>
+        <v>3.788915831099075</v>
       </c>
       <c r="N377" t="n">
         <v>16</v>
@@ -22238,13 +22238,13 @@
         </is>
       </c>
       <c r="K378" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
       <c r="L378" s="2" t="n">
         <v>44620</v>
       </c>
       <c r="M378" t="n">
-        <v>4.078974837628266</v>
+        <v>3.788915831099075</v>
       </c>
       <c r="N378" t="n">
         <v>16</v>
@@ -22296,13 +22296,13 @@
         </is>
       </c>
       <c r="K379" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
       <c r="L379" s="2" t="n">
         <v>44627</v>
       </c>
       <c r="M379" t="n">
-        <v>4.078974837628266</v>
+        <v>3.788915831099075</v>
       </c>
       <c r="N379" t="n">
         <v>16</v>
@@ -22354,13 +22354,13 @@
         </is>
       </c>
       <c r="K380" t="n">
-        <v>0.75</v>
+        <v>0.19515</v>
       </c>
       <c r="L380" s="2" t="n">
         <v>44634</v>
       </c>
       <c r="M380" t="n">
-        <v>4.078974837628266</v>
+        <v>3.788915831099075</v>
       </c>
       <c r="N380" t="n">
         <v>16</v>
@@ -22412,13 +22412,13 @@
         </is>
       </c>
       <c r="K381" t="n">
-        <v>0.9655</v>
+        <v>0.86225</v>
       </c>
       <c r="L381" s="2" t="n">
         <v>44641</v>
       </c>
       <c r="M381" t="n">
-        <v>4.078974837628266</v>
+        <v>3.788915831099075</v>
       </c>
       <c r="N381" t="n">
         <v>16</v>
@@ -22470,13 +22470,13 @@
         </is>
       </c>
       <c r="K382" t="n">
-        <v>0.96</v>
+        <v>0.957</v>
       </c>
       <c r="L382" s="2" t="n">
         <v>44648</v>
       </c>
       <c r="M382" t="n">
-        <v>4.078974837628266</v>
+        <v>3.788915831099075</v>
       </c>
       <c r="N382" t="n">
         <v>16</v>
@@ -22528,13 +22528,13 @@
         </is>
       </c>
       <c r="K383" t="n">
-        <v>0.993</v>
+        <v>0.998</v>
       </c>
       <c r="L383" s="2" t="n">
         <v>44655</v>
       </c>
       <c r="M383" t="n">
-        <v>4.078974837628266</v>
+        <v>3.788915831099075</v>
       </c>
       <c r="N383" t="n">
         <v>16</v>
@@ -22592,7 +22592,7 @@
         <v>44662</v>
       </c>
       <c r="M384" t="n">
-        <v>4.078974837628266</v>
+        <v>3.788915831099075</v>
       </c>
       <c r="N384" t="n">
         <v>16</v>
@@ -22644,13 +22644,13 @@
         </is>
       </c>
       <c r="K385" t="n">
-        <v>0.977</v>
+        <v>0.9804999999999999</v>
       </c>
       <c r="L385" s="2" t="n">
         <v>44669</v>
       </c>
       <c r="M385" t="n">
-        <v>4.078974837628266</v>
+        <v>3.788915831099075</v>
       </c>
       <c r="N385" t="n">
         <v>16</v>
@@ -22702,13 +22702,13 @@
         </is>
       </c>
       <c r="K386" t="n">
-        <v>0.9675</v>
+        <v>0.9895</v>
       </c>
       <c r="L386" s="2" t="n">
         <v>44676</v>
       </c>
       <c r="M386" t="n">
-        <v>4.078974837628266</v>
+        <v>3.788915831099075</v>
       </c>
       <c r="N386" t="n">
         <v>16</v>
@@ -22760,13 +22760,13 @@
         </is>
       </c>
       <c r="K387" t="n">
-        <v>0.998</v>
+        <v>1.0248</v>
       </c>
       <c r="L387" s="2" t="n">
         <v>44683</v>
       </c>
       <c r="M387" t="n">
-        <v>4.078974837628266</v>
+        <v>3.788915831099075</v>
       </c>
       <c r="N387" t="n">
         <v>16</v>
@@ -22824,7 +22824,7 @@
         <v>44690</v>
       </c>
       <c r="M388" t="n">
-        <v>4.078974837628266</v>
+        <v>3.788915831099075</v>
       </c>
       <c r="N388" t="n">
         <v>16</v>
@@ -22882,7 +22882,7 @@
         <v>44697</v>
       </c>
       <c r="M389" t="n">
-        <v>4.078974837628266</v>
+        <v>3.788915831099075</v>
       </c>
       <c r="N389" t="n">
         <v>16</v>
@@ -22934,13 +22934,13 @@
         </is>
       </c>
       <c r="K390" t="n">
-        <v>0.991</v>
+        <v>0.86465</v>
       </c>
       <c r="L390" s="2" t="n">
         <v>44704</v>
       </c>
       <c r="M390" t="n">
-        <v>4.078974837628266</v>
+        <v>3.788915831099075</v>
       </c>
       <c r="N390" t="n">
         <v>16</v>
@@ -22992,13 +22992,13 @@
         </is>
       </c>
       <c r="K391" t="n">
-        <v>0.9955000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="L391" s="2" t="n">
         <v>44711</v>
       </c>
       <c r="M391" t="n">
-        <v>4.078974837628266</v>
+        <v>3.788915831099075</v>
       </c>
       <c r="N391" t="n">
         <v>16</v>
@@ -23056,7 +23056,7 @@
         <v>44718</v>
       </c>
       <c r="M392" t="n">
-        <v>4.078974837628266</v>
+        <v>3.788915831099075</v>
       </c>
       <c r="N392" t="n">
         <v>16</v>
@@ -23108,13 +23108,13 @@
         </is>
       </c>
       <c r="K393" t="n">
-        <v>0.98</v>
+        <v>0.957</v>
       </c>
       <c r="L393" s="2" t="n">
         <v>44725</v>
       </c>
       <c r="M393" t="n">
-        <v>4.078974837628266</v>
+        <v>3.788915831099075</v>
       </c>
       <c r="N393" t="n">
         <v>16</v>
@@ -23166,13 +23166,13 @@
         </is>
       </c>
       <c r="K394" t="n">
-        <v>0.95</v>
+        <v>0.988</v>
       </c>
       <c r="L394" s="2" t="n">
         <v>44732</v>
       </c>
       <c r="M394" t="n">
-        <v>4.078974837628266</v>
+        <v>3.788915831099075</v>
       </c>
       <c r="N394" t="n">
         <v>16</v>
@@ -23224,13 +23224,13 @@
         </is>
       </c>
       <c r="K395" t="n">
-        <v>0.988</v>
+        <v>0.993</v>
       </c>
       <c r="L395" s="2" t="n">
         <v>44739</v>
       </c>
       <c r="M395" t="n">
-        <v>4.078974837628266</v>
+        <v>3.788915831099075</v>
       </c>
       <c r="N395" t="n">
         <v>16</v>
@@ -23282,13 +23282,13 @@
         </is>
       </c>
       <c r="K396" t="n">
-        <v>0.9935</v>
+        <v>0.98</v>
       </c>
       <c r="L396" s="2" t="n">
         <v>44746</v>
       </c>
       <c r="M396" t="n">
-        <v>4.078974837628266</v>
+        <v>3.788915831099075</v>
       </c>
       <c r="N396" t="n">
         <v>16</v>
@@ -23340,13 +23340,13 @@
         </is>
       </c>
       <c r="K397" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
       <c r="L397" s="2" t="n">
         <v>44753</v>
       </c>
       <c r="M397" t="n">
-        <v>4.078974837628266</v>
+        <v>3.788915831099075</v>
       </c>
       <c r="N397" t="n">
         <v>16</v>
@@ -23404,7 +23404,7 @@
         <v>44760</v>
       </c>
       <c r="M398" t="n">
-        <v>4.078974837628266</v>
+        <v>3.788915831099075</v>
       </c>
       <c r="N398" t="n">
         <v>16</v>
@@ -23456,13 +23456,13 @@
         </is>
       </c>
       <c r="K399" t="n">
-        <v>0.959</v>
+        <v>0.995</v>
       </c>
       <c r="L399" s="2" t="n">
         <v>44767</v>
       </c>
       <c r="M399" t="n">
-        <v>4.078974837628266</v>
+        <v>3.788915831099075</v>
       </c>
       <c r="N399" t="n">
         <v>16</v>
@@ -23514,13 +23514,13 @@
         </is>
       </c>
       <c r="K400" t="n">
-        <v>0.992</v>
+        <v>0.90655</v>
       </c>
       <c r="L400" s="2" t="n">
         <v>44774</v>
       </c>
       <c r="M400" t="n">
-        <v>4.078974837628266</v>
+        <v>3.788915831099075</v>
       </c>
       <c r="N400" t="n">
         <v>16</v>
@@ -23565,7 +23565,7 @@
         <v>93.01999664306641</v>
       </c>
       <c r="J401" t="n">
-        <v>91.37897788938608</v>
+        <v>91.08891888285689</v>
       </c>
       <c r="K401" t="n">
         <v>0</v>
@@ -23574,7 +23574,7 @@
         <v>44775</v>
       </c>
       <c r="M401" t="n">
-        <v>4.078974837628266</v>
+        <v>3.788915831099075</v>
       </c>
       <c r="N401" t="n">
         <v>16</v>
@@ -23583,7 +23583,7 @@
         <v>87.30000305175781</v>
       </c>
       <c r="P401" t="n">
-        <v>469</v>
+        <v>436</v>
       </c>
     </row>
     <row r="402">
@@ -23622,13 +23622,13 @@
         </is>
       </c>
       <c r="K402" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
       <c r="L402" s="2" t="n">
         <v>44620</v>
       </c>
       <c r="M402" t="n">
-        <v>0.5939817319340364</v>
+        <v>0.6144708929532499</v>
       </c>
       <c r="N402" t="n">
         <v>17</v>
@@ -23680,13 +23680,13 @@
         </is>
       </c>
       <c r="K403" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
       <c r="L403" s="2" t="n">
         <v>44627</v>
       </c>
       <c r="M403" t="n">
-        <v>0.5939817319340364</v>
+        <v>0.6144708929532499</v>
       </c>
       <c r="N403" t="n">
         <v>17</v>
@@ -23738,13 +23738,13 @@
         </is>
       </c>
       <c r="K404" t="n">
-        <v>0.75</v>
+        <v>0.19515</v>
       </c>
       <c r="L404" s="2" t="n">
         <v>44634</v>
       </c>
       <c r="M404" t="n">
-        <v>0.5939817319340364</v>
+        <v>0.6144708929532499</v>
       </c>
       <c r="N404" t="n">
         <v>17</v>
@@ -23796,13 +23796,13 @@
         </is>
       </c>
       <c r="K405" t="n">
-        <v>0.9655</v>
+        <v>0.86225</v>
       </c>
       <c r="L405" s="2" t="n">
         <v>44641</v>
       </c>
       <c r="M405" t="n">
-        <v>0.5939817319340364</v>
+        <v>0.6144708929532499</v>
       </c>
       <c r="N405" t="n">
         <v>17</v>
@@ -23854,13 +23854,13 @@
         </is>
       </c>
       <c r="K406" t="n">
-        <v>0.96</v>
+        <v>0.957</v>
       </c>
       <c r="L406" s="2" t="n">
         <v>44648</v>
       </c>
       <c r="M406" t="n">
-        <v>0.5939817319340364</v>
+        <v>0.6144708929532499</v>
       </c>
       <c r="N406" t="n">
         <v>17</v>
@@ -23912,13 +23912,13 @@
         </is>
       </c>
       <c r="K407" t="n">
-        <v>0.993</v>
+        <v>0.998</v>
       </c>
       <c r="L407" s="2" t="n">
         <v>44655</v>
       </c>
       <c r="M407" t="n">
-        <v>0.5939817319340364</v>
+        <v>0.6144708929532499</v>
       </c>
       <c r="N407" t="n">
         <v>17</v>
@@ -23976,7 +23976,7 @@
         <v>44662</v>
       </c>
       <c r="M408" t="n">
-        <v>0.5939817319340364</v>
+        <v>0.6144708929532499</v>
       </c>
       <c r="N408" t="n">
         <v>17</v>
@@ -24028,13 +24028,13 @@
         </is>
       </c>
       <c r="K409" t="n">
-        <v>0.977</v>
+        <v>0.9804999999999999</v>
       </c>
       <c r="L409" s="2" t="n">
         <v>44669</v>
       </c>
       <c r="M409" t="n">
-        <v>0.5939817319340364</v>
+        <v>0.6144708929532499</v>
       </c>
       <c r="N409" t="n">
         <v>17</v>
@@ -24086,13 +24086,13 @@
         </is>
       </c>
       <c r="K410" t="n">
-        <v>0.9675</v>
+        <v>0.9895</v>
       </c>
       <c r="L410" s="2" t="n">
         <v>44676</v>
       </c>
       <c r="M410" t="n">
-        <v>0.5939817319340364</v>
+        <v>0.6144708929532499</v>
       </c>
       <c r="N410" t="n">
         <v>17</v>
@@ -24144,13 +24144,13 @@
         </is>
       </c>
       <c r="K411" t="n">
-        <v>0.998</v>
+        <v>1.0248</v>
       </c>
       <c r="L411" s="2" t="n">
         <v>44683</v>
       </c>
       <c r="M411" t="n">
-        <v>0.5939817319340364</v>
+        <v>0.6144708929532499</v>
       </c>
       <c r="N411" t="n">
         <v>17</v>
@@ -24208,7 +24208,7 @@
         <v>44690</v>
       </c>
       <c r="M412" t="n">
-        <v>0.5939817319340364</v>
+        <v>0.6144708929532499</v>
       </c>
       <c r="N412" t="n">
         <v>17</v>
@@ -24266,7 +24266,7 @@
         <v>44697</v>
       </c>
       <c r="M413" t="n">
-        <v>0.5939817319340364</v>
+        <v>0.6144708929532499</v>
       </c>
       <c r="N413" t="n">
         <v>17</v>
@@ -24318,13 +24318,13 @@
         </is>
       </c>
       <c r="K414" t="n">
-        <v>0.991</v>
+        <v>0.86465</v>
       </c>
       <c r="L414" s="2" t="n">
         <v>44704</v>
       </c>
       <c r="M414" t="n">
-        <v>0.5939817319340364</v>
+        <v>0.6144708929532499</v>
       </c>
       <c r="N414" t="n">
         <v>17</v>
@@ -24376,13 +24376,13 @@
         </is>
       </c>
       <c r="K415" t="n">
-        <v>0.9955000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="L415" s="2" t="n">
         <v>44711</v>
       </c>
       <c r="M415" t="n">
-        <v>0.5939817319340364</v>
+        <v>0.6144708929532499</v>
       </c>
       <c r="N415" t="n">
         <v>17</v>
@@ -24440,7 +24440,7 @@
         <v>44718</v>
       </c>
       <c r="M416" t="n">
-        <v>0.5939817319340364</v>
+        <v>0.6144708929532499</v>
       </c>
       <c r="N416" t="n">
         <v>17</v>
@@ -24492,13 +24492,13 @@
         </is>
       </c>
       <c r="K417" t="n">
-        <v>0.98</v>
+        <v>0.957</v>
       </c>
       <c r="L417" s="2" t="n">
         <v>44725</v>
       </c>
       <c r="M417" t="n">
-        <v>0.5939817319340364</v>
+        <v>0.6144708929532499</v>
       </c>
       <c r="N417" t="n">
         <v>17</v>
@@ -24550,13 +24550,13 @@
         </is>
       </c>
       <c r="K418" t="n">
-        <v>0.95</v>
+        <v>0.988</v>
       </c>
       <c r="L418" s="2" t="n">
         <v>44732</v>
       </c>
       <c r="M418" t="n">
-        <v>0.5939817319340364</v>
+        <v>0.6144708929532499</v>
       </c>
       <c r="N418" t="n">
         <v>17</v>
@@ -24608,13 +24608,13 @@
         </is>
       </c>
       <c r="K419" t="n">
-        <v>0.988</v>
+        <v>0.993</v>
       </c>
       <c r="L419" s="2" t="n">
         <v>44739</v>
       </c>
       <c r="M419" t="n">
-        <v>0.5939817319340364</v>
+        <v>0.6144708929532499</v>
       </c>
       <c r="N419" t="n">
         <v>17</v>
@@ -24666,13 +24666,13 @@
         </is>
       </c>
       <c r="K420" t="n">
-        <v>0.9935</v>
+        <v>0.98</v>
       </c>
       <c r="L420" s="2" t="n">
         <v>44746</v>
       </c>
       <c r="M420" t="n">
-        <v>0.5939817319340364</v>
+        <v>0.6144708929532499</v>
       </c>
       <c r="N420" t="n">
         <v>17</v>
@@ -24724,13 +24724,13 @@
         </is>
       </c>
       <c r="K421" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
       <c r="L421" s="2" t="n">
         <v>44753</v>
       </c>
       <c r="M421" t="n">
-        <v>0.5939817319340364</v>
+        <v>0.6144708929532499</v>
       </c>
       <c r="N421" t="n">
         <v>17</v>
@@ -24788,7 +24788,7 @@
         <v>44760</v>
       </c>
       <c r="M422" t="n">
-        <v>0.5939817319340364</v>
+        <v>0.6144708929532499</v>
       </c>
       <c r="N422" t="n">
         <v>17</v>
@@ -24840,13 +24840,13 @@
         </is>
       </c>
       <c r="K423" t="n">
-        <v>0.959</v>
+        <v>0.995</v>
       </c>
       <c r="L423" s="2" t="n">
         <v>44767</v>
       </c>
       <c r="M423" t="n">
-        <v>0.5939817319340364</v>
+        <v>0.6144708929532499</v>
       </c>
       <c r="N423" t="n">
         <v>17</v>
@@ -24898,13 +24898,13 @@
         </is>
       </c>
       <c r="K424" t="n">
-        <v>0.992</v>
+        <v>0.90655</v>
       </c>
       <c r="L424" s="2" t="n">
         <v>44774</v>
       </c>
       <c r="M424" t="n">
-        <v>0.5939817319340364</v>
+        <v>0.6144708929532499</v>
       </c>
       <c r="N424" t="n">
         <v>17</v>
@@ -24956,13 +24956,13 @@
         </is>
       </c>
       <c r="K425" t="n">
-        <v>0.985</v>
+        <v>0.7800499999999999</v>
       </c>
       <c r="L425" s="2" t="n">
         <v>44781</v>
       </c>
       <c r="M425" t="n">
-        <v>0.5939817319340364</v>
+        <v>0.6144708929532499</v>
       </c>
       <c r="N425" t="n">
         <v>17</v>
@@ -25007,7 +25007,7 @@
         <v>93.01999664306641</v>
       </c>
       <c r="J426" t="n">
-        <v>91.42398356298872</v>
+        <v>91.44447272400794</v>
       </c>
       <c r="K426" t="n">
         <v>0</v>
@@ -25016,7 +25016,7 @@
         <v>44782</v>
       </c>
       <c r="M426" t="n">
-        <v>0.5939817319340364</v>
+        <v>0.6144708929532499</v>
       </c>
       <c r="N426" t="n">
         <v>17</v>
@@ -25025,7 +25025,7 @@
         <v>90.83000183105469</v>
       </c>
       <c r="P426" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Excel reports/Performance_report.xlsx
+++ b/Excel reports/Performance_report.xlsx
@@ -556,7 +556,7 @@
         <v>44606</v>
       </c>
       <c r="M2" t="n">
-        <v>1.421719145514544</v>
+        <v>1.273225780366374</v>
       </c>
       <c r="N2" t="n">
         <v>1</v>
@@ -614,7 +614,7 @@
         <v>44613</v>
       </c>
       <c r="M3" t="n">
-        <v>1.421719145514544</v>
+        <v>1.273225780366374</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
@@ -672,7 +672,7 @@
         <v>44620</v>
       </c>
       <c r="M4" t="n">
-        <v>1.421719145514544</v>
+        <v>1.273225780366374</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
@@ -730,7 +730,7 @@
         <v>44627</v>
       </c>
       <c r="M5" t="n">
-        <v>1.421719145514544</v>
+        <v>1.273225780366374</v>
       </c>
       <c r="N5" t="n">
         <v>1</v>
@@ -775,7 +775,7 @@
         <v>79.73999786376953</v>
       </c>
       <c r="J6" t="n">
-        <v>79.32172067139345</v>
+        <v>79.17322730624528</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>44628</v>
       </c>
       <c r="M6" t="n">
-        <v>1.421719145514544</v>
+        <v>1.273225780366374</v>
       </c>
       <c r="N6" t="n">
         <v>1</v>
@@ -793,7 +793,7 @@
         <v>77.90000152587891</v>
       </c>
       <c r="P6" t="n">
-        <v>182</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7">
@@ -838,7 +838,7 @@
         <v>44613</v>
       </c>
       <c r="M7" t="n">
-        <v>1.63203638792038</v>
+        <v>1.568618804216385</v>
       </c>
       <c r="N7" t="n">
         <v>2</v>
@@ -896,7 +896,7 @@
         <v>44620</v>
       </c>
       <c r="M8" t="n">
-        <v>1.63203638792038</v>
+        <v>1.568618804216385</v>
       </c>
       <c r="N8" t="n">
         <v>2</v>
@@ -954,7 +954,7 @@
         <v>44627</v>
       </c>
       <c r="M9" t="n">
-        <v>1.63203638792038</v>
+        <v>1.568618804216385</v>
       </c>
       <c r="N9" t="n">
         <v>2</v>
@@ -1012,7 +1012,7 @@
         <v>44634</v>
       </c>
       <c r="M10" t="n">
-        <v>1.63203638792038</v>
+        <v>1.568618804216385</v>
       </c>
       <c r="N10" t="n">
         <v>2</v>
@@ -1057,7 +1057,7 @@
         <v>81.37999725341797</v>
       </c>
       <c r="J11" t="n">
-        <v>81.30203455686569</v>
+        <v>81.2386169731617</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>44635</v>
       </c>
       <c r="M11" t="n">
-        <v>1.63203638792038</v>
+        <v>1.568618804216385</v>
       </c>
       <c r="N11" t="n">
         <v>2</v>
@@ -1075,7 +1075,7 @@
         <v>79.66999816894531</v>
       </c>
       <c r="P11" t="n">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12">
@@ -1120,7 +1120,7 @@
         <v>44620</v>
       </c>
       <c r="M12" t="n">
-        <v>1.753892883437402</v>
+        <v>1.592785192068732</v>
       </c>
       <c r="N12" t="n">
         <v>3</v>
@@ -1178,7 +1178,7 @@
         <v>44627</v>
       </c>
       <c r="M13" t="n">
-        <v>1.753892883437402</v>
+        <v>1.592785192068732</v>
       </c>
       <c r="N13" t="n">
         <v>3</v>
@@ -1236,7 +1236,7 @@
         <v>44634</v>
       </c>
       <c r="M14" t="n">
-        <v>1.753892883437402</v>
+        <v>1.592785192068732</v>
       </c>
       <c r="N14" t="n">
         <v>3</v>
@@ -1294,7 +1294,7 @@
         <v>44641</v>
       </c>
       <c r="M15" t="n">
-        <v>1.753892883437402</v>
+        <v>1.592785192068732</v>
       </c>
       <c r="N15" t="n">
         <v>3</v>
@@ -1339,7 +1339,7 @@
         <v>83.58000183105469</v>
       </c>
       <c r="J16" t="n">
-        <v>83.12389563001943</v>
+        <v>82.96278793865076</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>44642</v>
       </c>
       <c r="M16" t="n">
-        <v>1.753892883437402</v>
+        <v>1.592785192068732</v>
       </c>
       <c r="N16" t="n">
         <v>3</v>
@@ -1357,7 +1357,7 @@
         <v>81.37000274658203</v>
       </c>
       <c r="P16" t="n">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17">
@@ -1402,7 +1402,7 @@
         <v>44627</v>
       </c>
       <c r="M17" t="n">
-        <v>2.399396520136179</v>
+        <v>1.96396759869549</v>
       </c>
       <c r="N17" t="n">
         <v>4</v>
@@ -1460,7 +1460,7 @@
         <v>44634</v>
       </c>
       <c r="M18" t="n">
-        <v>2.399396520136179</v>
+        <v>1.96396759869549</v>
       </c>
       <c r="N18" t="n">
         <v>4</v>
@@ -1518,7 +1518,7 @@
         <v>44641</v>
       </c>
       <c r="M19" t="n">
-        <v>2.399396520136179</v>
+        <v>1.96396759869549</v>
       </c>
       <c r="N19" t="n">
         <v>4</v>
@@ -1576,7 +1576,7 @@
         <v>44648</v>
       </c>
       <c r="M20" t="n">
-        <v>2.399396520136179</v>
+        <v>1.96396759869549</v>
       </c>
       <c r="N20" t="n">
         <v>4</v>
@@ -1621,7 +1621,7 @@
         <v>87.83999633789062</v>
       </c>
       <c r="J21" t="n">
-        <v>85.89939652013618</v>
+        <v>85.46396759869549</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>44649</v>
       </c>
       <c r="M21" t="n">
-        <v>2.399396520136179</v>
+        <v>1.96396759869549</v>
       </c>
       <c r="N21" t="n">
         <v>4</v>
@@ -1639,7 +1639,7 @@
         <v>83.5</v>
       </c>
       <c r="P21" t="n">
-        <v>288</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22">
@@ -1903,7 +1903,7 @@
         <v>87.44999694824219</v>
       </c>
       <c r="J26" t="n">
-        <v>88.65914616880556</v>
+        <v>88.24994998510235</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1966,7 +1966,7 @@
         <v>44648</v>
       </c>
       <c r="M27" t="n">
-        <v>3.799129770726694</v>
+        <v>2.972063944436115</v>
       </c>
       <c r="N27" t="n">
         <v>6</v>
@@ -2024,7 +2024,7 @@
         <v>44655</v>
       </c>
       <c r="M28" t="n">
-        <v>3.799129770726694</v>
+        <v>2.972063944436115</v>
       </c>
       <c r="N28" t="n">
         <v>6</v>
@@ -2082,7 +2082,7 @@
         <v>44662</v>
       </c>
       <c r="M29" t="n">
-        <v>3.799129770726694</v>
+        <v>2.972063944436115</v>
       </c>
       <c r="N29" t="n">
         <v>6</v>
@@ -2140,7 +2140,7 @@
         <v>44669</v>
       </c>
       <c r="M30" t="n">
-        <v>3.799129770726694</v>
+        <v>2.972063944436115</v>
       </c>
       <c r="N30" t="n">
         <v>6</v>
@@ -2185,7 +2185,7 @@
         <v>90.01000213623047</v>
       </c>
       <c r="J31" t="n">
-        <v>88.38912610861732</v>
+        <v>87.56206028232674</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
         <v>44670</v>
       </c>
       <c r="M31" t="n">
-        <v>3.799129770726694</v>
+        <v>2.972063944436115</v>
       </c>
       <c r="N31" t="n">
         <v>6</v>
@@ -2203,7 +2203,7 @@
         <v>84.58999633789062</v>
       </c>
       <c r="P31" t="n">
-        <v>448</v>
+        <v>351</v>
       </c>
     </row>
     <row r="32">
@@ -2248,7 +2248,7 @@
         <v>44662</v>
       </c>
       <c r="M32" t="n">
-        <v>1.508434294963394</v>
+        <v>0.7893853265298247</v>
       </c>
       <c r="N32" t="n">
         <v>7</v>
@@ -2306,7 +2306,7 @@
         <v>44669</v>
       </c>
       <c r="M33" t="n">
-        <v>1.508434294963394</v>
+        <v>0.7893853265298247</v>
       </c>
       <c r="N33" t="n">
         <v>7</v>
@@ -2364,7 +2364,7 @@
         <v>44676</v>
       </c>
       <c r="M34" t="n">
-        <v>1.508434294963394</v>
+        <v>0.7893853265298247</v>
       </c>
       <c r="N34" t="n">
         <v>7</v>
@@ -2422,7 +2422,7 @@
         <v>44683</v>
       </c>
       <c r="M35" t="n">
-        <v>1.508434294963394</v>
+        <v>0.7893853265298247</v>
       </c>
       <c r="N35" t="n">
         <v>7</v>
@@ -2467,7 +2467,7 @@
         <v>91.05000305175781</v>
       </c>
       <c r="J36" t="n">
-        <v>89.00843429496339</v>
+        <v>88.28938532652982</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>44684</v>
       </c>
       <c r="M36" t="n">
-        <v>1.508434294963394</v>
+        <v>0.7893853265298247</v>
       </c>
       <c r="N36" t="n">
         <v>7</v>
@@ -2485,7 +2485,7 @@
         <v>87.5</v>
       </c>
       <c r="P36" t="n">
-        <v>172</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37">
@@ -2530,7 +2530,7 @@
         <v>44669</v>
       </c>
       <c r="M37" t="n">
-        <v>1.850935814591281</v>
+        <v>1.168535379046943</v>
       </c>
       <c r="N37" t="n">
         <v>8</v>
@@ -2588,7 +2588,7 @@
         <v>44676</v>
       </c>
       <c r="M38" t="n">
-        <v>1.850935814591281</v>
+        <v>1.168535379046943</v>
       </c>
       <c r="N38" t="n">
         <v>8</v>
@@ -2646,7 +2646,7 @@
         <v>44683</v>
       </c>
       <c r="M39" t="n">
-        <v>1.850935814591281</v>
+        <v>1.168535379046943</v>
       </c>
       <c r="N39" t="n">
         <v>8</v>
@@ -2704,7 +2704,7 @@
         <v>44690</v>
       </c>
       <c r="M40" t="n">
-        <v>1.850935814591281</v>
+        <v>1.168535379046943</v>
       </c>
       <c r="N40" t="n">
         <v>8</v>
@@ -2749,7 +2749,7 @@
         <v>94.55999755859375</v>
       </c>
       <c r="J41" t="n">
-        <v>92.64093673011863</v>
+        <v>91.95853629457429</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>44691</v>
       </c>
       <c r="M41" t="n">
-        <v>1.850935814591281</v>
+        <v>1.168535379046943</v>
       </c>
       <c r="N41" t="n">
         <v>8</v>
@@ -2767,7 +2767,7 @@
         <v>90.79000091552734</v>
       </c>
       <c r="P41" t="n">
-        <v>204</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42">
@@ -2812,7 +2812,7 @@
         <v>44683</v>
       </c>
       <c r="M42" t="n">
-        <v>-2</v>
+        <v>0.1800867324169815</v>
       </c>
       <c r="N42" t="n">
         <v>9</v>
@@ -2870,7 +2870,7 @@
         <v>44690</v>
       </c>
       <c r="M43" t="n">
-        <v>-2</v>
+        <v>0.1800867324169815</v>
       </c>
       <c r="N43" t="n">
         <v>9</v>
@@ -2928,7 +2928,7 @@
         <v>44697</v>
       </c>
       <c r="M44" t="n">
-        <v>-2</v>
+        <v>0.1800867324169815</v>
       </c>
       <c r="N44" t="n">
         <v>9</v>
@@ -2986,7 +2986,7 @@
         <v>44704</v>
       </c>
       <c r="M45" t="n">
-        <v>-2</v>
+        <v>0.1800867324169815</v>
       </c>
       <c r="N45" t="n">
         <v>9</v>
@@ -3031,7 +3031,7 @@
         <v>92.62000274658203</v>
       </c>
       <c r="J46" t="n">
-        <v>92.91095795010595</v>
+        <v>92.09009039452636</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>44705</v>
       </c>
       <c r="M46" t="n">
-        <v>-2</v>
+        <v>0.1800867324169815</v>
       </c>
       <c r="N46" t="n">
         <v>9</v>
@@ -3049,7 +3049,7 @@
         <v>91.91000366210938</v>
       </c>
       <c r="P46" t="n">
-        <v>-218</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
@@ -3094,7 +3094,7 @@
         <v>44690</v>
       </c>
       <c r="M47" t="n">
-        <v>-2.989997863769531</v>
+        <v>0.1163132669427966</v>
       </c>
       <c r="N47" t="n">
         <v>10</v>
@@ -3152,7 +3152,7 @@
         <v>44697</v>
       </c>
       <c r="M48" t="n">
-        <v>-2.989997863769531</v>
+        <v>0.1163132669427966</v>
       </c>
       <c r="N48" t="n">
         <v>10</v>
@@ -3210,7 +3210,7 @@
         <v>44704</v>
       </c>
       <c r="M49" t="n">
-        <v>-2.989997863769531</v>
+        <v>0.1163132669427966</v>
       </c>
       <c r="N49" t="n">
         <v>10</v>
@@ -3268,7 +3268,7 @@
         <v>44711</v>
       </c>
       <c r="M50" t="n">
-        <v>-2.989997863769531</v>
+        <v>0.1163132669427966</v>
       </c>
       <c r="N50" t="n">
         <v>10</v>
@@ -3313,7 +3313,7 @@
         <v>90.81999969482422</v>
       </c>
       <c r="J51" t="n">
-        <v>91.50588423741385</v>
+        <v>90.28631143588811</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>44712</v>
       </c>
       <c r="M51" t="n">
-        <v>-2.989997863769531</v>
+        <v>0.1163132669427966</v>
       </c>
       <c r="N51" t="n">
         <v>10</v>
@@ -3331,7 +3331,7 @@
         <v>90.16999816894531</v>
       </c>
       <c r="P51" t="n">
-        <v>-332</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52">
@@ -3595,7 +3595,7 @@
         <v>86.51000213623047</v>
       </c>
       <c r="J56" t="n">
-        <v>90.08038180651056</v>
+        <v>88.42588519178025</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         <v>44704</v>
       </c>
       <c r="M57" t="n">
-        <v>2.035713557681447</v>
+        <v>0.3334181344289391</v>
       </c>
       <c r="N57" t="n">
         <v>12</v>
@@ -3716,7 +3716,7 @@
         <v>44711</v>
       </c>
       <c r="M58" t="n">
-        <v>2.035713557681447</v>
+        <v>0.3334181344289391</v>
       </c>
       <c r="N58" t="n">
         <v>12</v>
@@ -3774,7 +3774,7 @@
         <v>44718</v>
       </c>
       <c r="M59" t="n">
-        <v>2.035713557681447</v>
+        <v>0.3334181344289391</v>
       </c>
       <c r="N59" t="n">
         <v>12</v>
@@ -3832,7 +3832,7 @@
         <v>44725</v>
       </c>
       <c r="M60" t="n">
-        <v>2.035713557681447</v>
+        <v>0.3334181344289391</v>
       </c>
       <c r="N60" t="n">
         <v>12</v>
@@ -3877,7 +3877,7 @@
         <v>93.79000091552734</v>
       </c>
       <c r="J61" t="n">
-        <v>88.08571660943926</v>
+        <v>86.38342118618675</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>44726</v>
       </c>
       <c r="M61" t="n">
-        <v>2.035713557681447</v>
+        <v>0.3334181344289391</v>
       </c>
       <c r="N61" t="n">
         <v>12</v>
@@ -3895,7 +3895,7 @@
         <v>86.05000305175781</v>
       </c>
       <c r="P61" t="n">
-        <v>236</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62">
@@ -3940,7 +3940,7 @@
         <v>44718</v>
       </c>
       <c r="M62" t="n">
-        <v>1.722224548877421</v>
+        <v>1.11343282002872</v>
       </c>
       <c r="N62" t="n">
         <v>13</v>
@@ -3998,7 +3998,7 @@
         <v>44725</v>
       </c>
       <c r="M63" t="n">
-        <v>1.722224548877421</v>
+        <v>1.11343282002872</v>
       </c>
       <c r="N63" t="n">
         <v>13</v>
@@ -4056,7 +4056,7 @@
         <v>44732</v>
       </c>
       <c r="M64" t="n">
-        <v>1.722224548877421</v>
+        <v>1.11343282002872</v>
       </c>
       <c r="N64" t="n">
         <v>13</v>
@@ -4114,7 +4114,7 @@
         <v>44739</v>
       </c>
       <c r="M65" t="n">
-        <v>1.722224548877421</v>
+        <v>1.11343282002872</v>
       </c>
       <c r="N65" t="n">
         <v>13</v>
@@ -4159,7 +4159,7 @@
         <v>94.51000213623047</v>
       </c>
       <c r="J66" t="n">
-        <v>94.16222699028367</v>
+        <v>93.55343526143497</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>44740</v>
       </c>
       <c r="M66" t="n">
-        <v>1.722224548877421</v>
+        <v>1.11343282002872</v>
       </c>
       <c r="N66" t="n">
         <v>13</v>
@@ -4177,7 +4177,7 @@
         <v>92.44000244140625</v>
       </c>
       <c r="P66" t="n">
-        <v>186</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67">
@@ -4222,7 +4222,7 @@
         <v>44725</v>
       </c>
       <c r="M67" t="n">
-        <v>1.693908375433239</v>
+        <v>1.136752058252569</v>
       </c>
       <c r="N67" t="n">
         <v>14</v>
@@ -4280,7 +4280,7 @@
         <v>44732</v>
       </c>
       <c r="M68" t="n">
-        <v>1.693908375433239</v>
+        <v>1.136752058252569</v>
       </c>
       <c r="N68" t="n">
         <v>14</v>
@@ -4338,7 +4338,7 @@
         <v>44739</v>
       </c>
       <c r="M69" t="n">
-        <v>1.693908375433239</v>
+        <v>1.136752058252569</v>
       </c>
       <c r="N69" t="n">
         <v>14</v>
@@ -4396,7 +4396,7 @@
         <v>44746</v>
       </c>
       <c r="M70" t="n">
-        <v>1.693908375433239</v>
+        <v>1.136752058252569</v>
       </c>
       <c r="N70" t="n">
         <v>14</v>
@@ -4441,7 +4441,7 @@
         <v>95.34999847412109</v>
       </c>
       <c r="J71" t="n">
-        <v>94.57390562885121</v>
+        <v>94.01674931167054</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
@@ -4450,7 +4450,7 @@
         <v>44747</v>
       </c>
       <c r="M71" t="n">
-        <v>1.693908375433239</v>
+        <v>1.136752058252569</v>
       </c>
       <c r="N71" t="n">
         <v>14</v>
@@ -4459,7 +4459,7 @@
         <v>92.87999725341797</v>
       </c>
       <c r="P71" t="n">
-        <v>183</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72">
@@ -4723,7 +4723,7 @@
         <v>91.94999694824219</v>
       </c>
       <c r="J76" t="n">
-        <v>93.08878572820551</v>
+        <v>91.9927376795204</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -5005,7 +5005,7 @@
         <v>90.01999664306641</v>
       </c>
       <c r="J81" t="n">
-        <v>91.6104009256951</v>
+        <v>90.297978749913</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
@@ -5068,7 +5068,7 @@
         <v>44753</v>
       </c>
       <c r="M82" t="n">
-        <v>3.722981803587572</v>
+        <v>2.435042156111194</v>
       </c>
       <c r="N82" t="n">
         <v>17</v>
@@ -5126,7 +5126,7 @@
         <v>44760</v>
       </c>
       <c r="M83" t="n">
-        <v>3.722981803587572</v>
+        <v>2.435042156111194</v>
       </c>
       <c r="N83" t="n">
         <v>17</v>
@@ -5184,7 +5184,7 @@
         <v>44767</v>
       </c>
       <c r="M84" t="n">
-        <v>3.722981803587572</v>
+        <v>2.435042156111194</v>
       </c>
       <c r="N84" t="n">
         <v>17</v>
@@ -5242,7 +5242,7 @@
         <v>44774</v>
       </c>
       <c r="M85" t="n">
-        <v>3.722981803587572</v>
+        <v>2.435042156111194</v>
       </c>
       <c r="N85" t="n">
         <v>17</v>
@@ -5287,7 +5287,7 @@
         <v>91.02999877929688</v>
       </c>
       <c r="J86" t="n">
-        <v>91.02298485534538</v>
+        <v>89.73504520786901</v>
       </c>
       <c r="K86" t="n">
         <v>0</v>
@@ -5296,7 +5296,7 @@
         <v>44775</v>
       </c>
       <c r="M86" t="n">
-        <v>3.722981803587572</v>
+        <v>2.435042156111194</v>
       </c>
       <c r="N86" t="n">
         <v>17</v>
@@ -5305,7 +5305,7 @@
         <v>87.30000305175781</v>
       </c>
       <c r="P86" t="n">
-        <v>428</v>
+        <v>280</v>
       </c>
     </row>
     <row r="87">
@@ -5350,7 +5350,7 @@
         <v>44760</v>
       </c>
       <c r="M87" t="n">
-        <v>1.658500614442346</v>
+        <v>1.13043254006152</v>
       </c>
       <c r="N87" t="n">
         <v>18</v>
@@ -5408,7 +5408,7 @@
         <v>44767</v>
       </c>
       <c r="M88" t="n">
-        <v>1.658500614442346</v>
+        <v>1.13043254006152</v>
       </c>
       <c r="N88" t="n">
         <v>18</v>
@@ -5466,7 +5466,7 @@
         <v>44774</v>
       </c>
       <c r="M89" t="n">
-        <v>1.658500614442346</v>
+        <v>1.13043254006152</v>
       </c>
       <c r="N89" t="n">
         <v>18</v>
@@ -5524,7 +5524,7 @@
         <v>44781</v>
       </c>
       <c r="M90" t="n">
-        <v>1.658500614442346</v>
+        <v>1.13043254006152</v>
       </c>
       <c r="N90" t="n">
         <v>18</v>
@@ -5569,7 +5569,7 @@
         <v>93.01999664306641</v>
       </c>
       <c r="J91" t="n">
-        <v>92.48850244549703</v>
+        <v>91.96043437111621</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
@@ -5578,7 +5578,7 @@
         <v>44782</v>
       </c>
       <c r="M91" t="n">
-        <v>1.658500614442346</v>
+        <v>1.13043254006152</v>
       </c>
       <c r="N91" t="n">
         <v>18</v>
@@ -5587,7 +5587,7 @@
         <v>90.83000183105469</v>
       </c>
       <c r="P91" t="n">
-        <v>182</v>
+        <v>124</v>
       </c>
     </row>
     <row r="92">
@@ -5632,7 +5632,7 @@
         <v>44767</v>
       </c>
       <c r="M92" t="n">
-        <v>0.3682354092597961</v>
+        <v>0.1157246232032776</v>
       </c>
       <c r="N92" t="n">
         <v>19</v>
@@ -5690,7 +5690,7 @@
         <v>44774</v>
       </c>
       <c r="M93" t="n">
-        <v>0.3682354092597961</v>
+        <v>0.1157246232032776</v>
       </c>
       <c r="N93" t="n">
         <v>19</v>
@@ -5748,7 +5748,7 @@
         <v>44781</v>
       </c>
       <c r="M94" t="n">
-        <v>0.3682354092597961</v>
+        <v>0.1157246232032776</v>
       </c>
       <c r="N94" t="n">
         <v>19</v>
@@ -5806,7 +5806,7 @@
         <v>44788</v>
       </c>
       <c r="M95" t="n">
-        <v>0.3682354092597961</v>
+        <v>0.1157246232032776</v>
       </c>
       <c r="N95" t="n">
         <v>19</v>
@@ -5851,7 +5851,7 @@
         <v>92.22000122070312</v>
       </c>
       <c r="J96" t="n">
-        <v>92.17823296785355</v>
+        <v>91.92572218179703</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
@@ -5860,7 +5860,7 @@
         <v>44789</v>
       </c>
       <c r="M96" t="n">
-        <v>0.3682354092597961</v>
+        <v>0.1157246232032776</v>
       </c>
       <c r="N96" t="n">
         <v>19</v>
@@ -5869,7 +5869,7 @@
         <v>91.80999755859375</v>
       </c>
       <c r="P96" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97">
@@ -6133,7 +6133,7 @@
         <v>89</v>
       </c>
       <c r="J101" t="n">
-        <v>91.68120272744181</v>
+        <v>91.17254868500459</v>
       </c>
       <c r="K101" t="n">
         <v>0</v>
@@ -6415,7 +6415,7 @@
         <v>88.16999816894531</v>
       </c>
       <c r="J106" t="n">
-        <v>90.25153884467909</v>
+        <v>89.34748983394365</v>
       </c>
       <c r="K106" t="n">
         <v>0</v>
@@ -6478,7 +6478,7 @@
         <v>44788</v>
       </c>
       <c r="M107" t="n">
-        <v>-0.4099960327148438</v>
+        <v>0.3083531637171291</v>
       </c>
       <c r="N107" t="n">
         <v>22</v>
@@ -6536,7 +6536,7 @@
         <v>44795</v>
       </c>
       <c r="M108" t="n">
-        <v>-0.4099960327148438</v>
+        <v>0.3083531637171291</v>
       </c>
       <c r="N108" t="n">
         <v>22</v>
@@ -6594,7 +6594,7 @@
         <v>44802</v>
       </c>
       <c r="M109" t="n">
-        <v>-0.4099960327148438</v>
+        <v>0.3083531637171291</v>
       </c>
       <c r="N109" t="n">
         <v>22</v>
@@ -6652,7 +6652,7 @@
         <v>44809</v>
       </c>
       <c r="M110" t="n">
-        <v>-0.4099960327148438</v>
+        <v>0.3083531637171291</v>
       </c>
       <c r="N110" t="n">
         <v>22</v>
@@ -6697,7 +6697,7 @@
         <v>89.16999816894531</v>
       </c>
       <c r="J111" t="n">
-        <v>89.43405493166301</v>
+        <v>88.4383504171351</v>
       </c>
       <c r="K111" t="n">
         <v>0</v>
@@ -6706,7 +6706,7 @@
         <v>44810</v>
       </c>
       <c r="M111" t="n">
-        <v>-0.4099960327148438</v>
+        <v>0.3083531637171291</v>
       </c>
       <c r="N111" t="n">
         <v>22</v>
@@ -6715,7 +6715,7 @@
         <v>88.12999725341797</v>
       </c>
       <c r="P111" t="n">
-        <v>-46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112">
@@ -6979,7 +6979,7 @@
         <v>88.15000152587891</v>
       </c>
       <c r="J116" t="n">
-        <v>89.91219586026091</v>
+        <v>89.50814243864215</v>
       </c>
       <c r="K116" t="n">
         <v>0</v>

--- a/Excel reports/Performance_report.xlsx
+++ b/Excel reports/Performance_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P57"/>
+  <dimension ref="A1:P145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>TwitterSentiment</t>
+          <t>CombinedVaderSentiment</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -519,25 +519,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>51.20000076293945</v>
+        <v>205.2133331298828</v>
       </c>
       <c r="C2" t="n">
-        <v>54.59000015258789</v>
+        <v>230.8066711425781</v>
       </c>
       <c r="D2" t="n">
-        <v>47.93000030517578</v>
+        <v>197.0033264160156</v>
       </c>
       <c r="E2" t="n">
-        <v>49.54999923706055</v>
+        <v>220.5833282470703</v>
       </c>
       <c r="F2" t="n">
-        <v>49.15133867477597</v>
+        <v>221.0188413799251</v>
       </c>
       <c r="G2" t="n">
-        <v>48.03534595975292</v>
+        <v>226.3053432268686</v>
       </c>
       <c r="H2" t="n">
-        <v>42.81533585660011</v>
+        <v>217.4354828994674</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -550,13 +550,13 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>-0.06755</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>44718</v>
+        <v>44284</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.390003204345703</v>
+        <v>3.26666259765625</v>
       </c>
       <c r="N2" t="n">
         <v>1</v>
@@ -577,25 +577,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>47.56000137329102</v>
+        <v>235.9033355712891</v>
       </c>
       <c r="C3" t="n">
-        <v>48.02000045776367</v>
+        <v>236.0533294677734</v>
       </c>
       <c r="D3" t="n">
-        <v>38.04000091552734</v>
+        <v>222.6133270263672</v>
       </c>
       <c r="E3" t="n">
-        <v>38.86000061035156</v>
+        <v>225.67333984375</v>
       </c>
       <c r="F3" t="n">
-        <v>45.72089265330117</v>
+        <v>222.5703408678668</v>
       </c>
       <c r="G3" t="n">
-        <v>45.99638032655262</v>
+        <v>226.1648980306201</v>
       </c>
       <c r="H3" t="n">
-        <v>42.45575992512298</v>
+        <v>218.1843789853112</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -608,13 +608,13 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0.1012</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>44725</v>
+        <v>44291</v>
       </c>
       <c r="M3" t="n">
-        <v>-1.390003204345703</v>
+        <v>3.26666259765625</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
@@ -635,25 +635,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39.72000122070312</v>
+        <v>228.5666656494141</v>
       </c>
       <c r="C4" t="n">
-        <v>44.54000091552734</v>
+        <v>260.2633361816406</v>
       </c>
       <c r="D4" t="n">
-        <v>37.34000015258789</v>
+        <v>227.3633270263672</v>
       </c>
       <c r="E4" t="n">
-        <v>43.93999862670898</v>
+        <v>246.5933380126953</v>
       </c>
       <c r="F4" t="n">
-        <v>45.12726131110377</v>
+        <v>230.5780065828096</v>
       </c>
       <c r="G4" t="n">
-        <v>45.53940661547625</v>
+        <v>230.7045513599701</v>
       </c>
       <c r="H4" t="n">
-        <v>42.59069071617625</v>
+        <v>220.7670116241644</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -666,13 +666,13 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>0.0459</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>44732</v>
+        <v>44298</v>
       </c>
       <c r="M4" t="n">
-        <v>-1.390003204345703</v>
+        <v>3.26666259765625</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
@@ -693,49 +693,49 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>44.90000152587891</v>
+        <v>239.8666687011719</v>
       </c>
       <c r="C5" t="n">
-        <v>45.79999923706055</v>
+        <v>251.2566680908203</v>
       </c>
       <c r="D5" t="n">
-        <v>41.40999984741211</v>
+        <v>230.6000061035156</v>
       </c>
       <c r="E5" t="n">
-        <v>43.5099983215332</v>
+        <v>243.1333312988281</v>
       </c>
       <c r="F5" t="n">
-        <v>45.72089265330117</v>
+        <v>222.5703408678668</v>
       </c>
       <c r="G5" t="n">
-        <v>45.99638032655262</v>
+        <v>226.1648980306201</v>
       </c>
       <c r="H5" t="n">
-        <v>42.45575992512298</v>
+        <v>218.1843789853112</v>
       </c>
       <c r="I5" t="n">
-        <v>45.79999923706055</v>
+        <v>251.2566680908203</v>
       </c>
       <c r="J5" t="n">
-        <v>47.6774946898222</v>
+        <v>252.2178388930915</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>44733</v>
+        <v>44299</v>
       </c>
       <c r="M5" t="n">
-        <v>-1.390003204345703</v>
+        <v>3.26666259765625</v>
       </c>
       <c r="N5" t="n">
         <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>44.90000152587891</v>
+        <v>239.8666687011719</v>
       </c>
       <c r="P5" t="n">
-        <v>-310</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6">
@@ -743,25 +743,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44.90000152587891</v>
+        <v>304.9933471679688</v>
       </c>
       <c r="C6" t="n">
-        <v>45.79999923706055</v>
+        <v>346.8999938964844</v>
       </c>
       <c r="D6" t="n">
-        <v>41.40999984741211</v>
+        <v>302.3633422851562</v>
       </c>
       <c r="E6" t="n">
-        <v>43.5099983215332</v>
+        <v>336.8800048828125</v>
       </c>
       <c r="F6" t="n">
-        <v>44.58817364791359</v>
+        <v>303.3411929237959</v>
       </c>
       <c r="G6" t="n">
-        <v>45.08842699460002</v>
+        <v>301.2881060592825</v>
       </c>
       <c r="H6" t="n">
-        <v>42.67426413484506</v>
+        <v>303.004067617421</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -774,13 +774,13 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>0.0126</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>44739</v>
+        <v>44641</v>
       </c>
       <c r="M6" t="n">
-        <v>2.077651605550955</v>
+        <v>1.533355712890625</v>
       </c>
       <c r="N6" t="n">
         <v>2</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>42.15000152587891</v>
+        <v>355.0333251953125</v>
       </c>
       <c r="C7" t="n">
-        <v>43.47000122070312</v>
+        <v>371.5899963378906</v>
       </c>
       <c r="D7" t="n">
-        <v>38.02999877929688</v>
+        <v>351.2000122070312</v>
       </c>
       <c r="E7" t="n">
-        <v>42.97999954223633</v>
+        <v>361.5299987792969</v>
       </c>
       <c r="F7" t="n">
-        <v>44.05211561268784</v>
+        <v>322.7374615422963</v>
       </c>
       <c r="G7" t="n">
-        <v>44.61988756074143</v>
+        <v>314.6751933303968</v>
       </c>
       <c r="H7" t="n">
-        <v>42.70205826278972</v>
+        <v>308.3246068139552</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -832,13 +832,13 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>-0.01545</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>44746</v>
+        <v>44648</v>
       </c>
       <c r="M7" t="n">
-        <v>2.077651605550955</v>
+        <v>1.533355712890625</v>
       </c>
       <c r="N7" t="n">
         <v>2</v>
@@ -859,25 +859,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>42</v>
+        <v>363.1266784667969</v>
       </c>
       <c r="C8" t="n">
-        <v>42.77999877929688</v>
+        <v>384.2900085449219</v>
       </c>
       <c r="D8" t="n">
-        <v>37.09999847412109</v>
+        <v>340.5133361816406</v>
       </c>
       <c r="E8" t="n">
-        <v>38.86999893188477</v>
+        <v>341.8299865722656</v>
       </c>
       <c r="F8" t="n">
-        <v>42.32474338575348</v>
+        <v>329.1016365522861</v>
       </c>
       <c r="G8" t="n">
-        <v>43.34213453210661</v>
+        <v>320.7095918285899</v>
       </c>
       <c r="H8" t="n">
-        <v>42.35368923270745</v>
+        <v>311.3705504283471</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -890,13 +890,13 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0.02055</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>44753</v>
+        <v>44655</v>
       </c>
       <c r="M8" t="n">
-        <v>2.077651605550955</v>
+        <v>1.533355712890625</v>
       </c>
       <c r="N8" t="n">
         <v>2</v>
@@ -917,49 +917,49 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>326.7999877929688</v>
       </c>
       <c r="C9" t="n">
-        <v>42.95000076293945</v>
+        <v>342.0799865722656</v>
       </c>
       <c r="D9" t="n">
-        <v>38.56999969482422</v>
+        <v>324.3666687011719</v>
       </c>
       <c r="E9" t="n">
-        <v>39.40000152587891</v>
+        <v>328.3333435058594</v>
       </c>
       <c r="F9" t="n">
-        <v>44.05211561268784</v>
+        <v>322.7374615422963</v>
       </c>
       <c r="G9" t="n">
-        <v>44.61988756074143</v>
+        <v>314.6751933303968</v>
       </c>
       <c r="H9" t="n">
-        <v>42.70205826278972</v>
+        <v>308.3246068139552</v>
       </c>
       <c r="I9" t="n">
-        <v>42.95000076293945</v>
+        <v>342.0799865722656</v>
       </c>
       <c r="J9" t="n">
-        <v>42.07765160555095</v>
+        <v>377.4935379275497</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>44754</v>
+        <v>44656</v>
       </c>
       <c r="M9" t="n">
-        <v>2.077651605550955</v>
+        <v>1.533355712890625</v>
       </c>
       <c r="N9" t="n">
         <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>40</v>
+        <v>326.7999877929688</v>
       </c>
       <c r="P9" t="n">
-        <v>519</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
@@ -967,25 +967,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>42.15000152587891</v>
+        <v>14.88266658782959</v>
       </c>
       <c r="C10" t="n">
-        <v>43.47000122070312</v>
+        <v>15.14866733551025</v>
       </c>
       <c r="D10" t="n">
-        <v>38.02999877929688</v>
+        <v>14.48999977111816</v>
       </c>
       <c r="E10" t="n">
-        <v>42.97999954223633</v>
+        <v>14.8973331451416</v>
       </c>
       <c r="F10" t="n">
-        <v>44.05211561268784</v>
+        <v>14.48994338528389</v>
       </c>
       <c r="G10" t="n">
-        <v>44.61988756074143</v>
+        <v>14.70454761628988</v>
       </c>
       <c r="H10" t="n">
-        <v>42.70205826278972</v>
+        <v>16.42851182362512</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -998,13 +998,13 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>-0.01545</v>
+        <v>0</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>44746</v>
+        <v>43640</v>
       </c>
       <c r="M10" t="n">
-        <v>2.81212445492929</v>
+        <v>0.5258003642771598</v>
       </c>
       <c r="N10" t="n">
         <v>3</v>
@@ -1025,25 +1025,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>42</v>
+        <v>15.34733295440674</v>
       </c>
       <c r="C11" t="n">
-        <v>42.77999877929688</v>
+        <v>16.10466766357422</v>
       </c>
       <c r="D11" t="n">
-        <v>37.09999847412109</v>
+        <v>14.81466674804688</v>
       </c>
       <c r="E11" t="n">
-        <v>38.86999893188477</v>
+        <v>15.53999996185303</v>
       </c>
       <c r="F11" t="n">
-        <v>42.32474338575348</v>
+        <v>14.83996224414027</v>
       </c>
       <c r="G11" t="n">
-        <v>43.34213453210661</v>
+        <v>14.89020369308169</v>
       </c>
       <c r="H11" t="n">
-        <v>42.35368923270745</v>
+        <v>16.34773801800947</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>0.02055</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>44753</v>
+        <v>43647</v>
       </c>
       <c r="M11" t="n">
-        <v>2.81212445492929</v>
+        <v>0.5258003642771598</v>
       </c>
       <c r="N11" t="n">
         <v>3</v>
@@ -1083,25 +1083,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>15.41600036621094</v>
       </c>
       <c r="C12" t="n">
-        <v>42.95000076293945</v>
+        <v>16.35866737365723</v>
       </c>
       <c r="D12" t="n">
-        <v>38.56999969482422</v>
+        <v>15.15200042724609</v>
       </c>
       <c r="E12" t="n">
-        <v>39.40000152587891</v>
+        <v>16.33866691589355</v>
       </c>
       <c r="F12" t="n">
-        <v>41.34982943246195</v>
+        <v>15.33953046805803</v>
       </c>
       <c r="G12" t="n">
-        <v>42.46610497516712</v>
+        <v>15.21208440926211</v>
       </c>
       <c r="H12" t="n">
-        <v>42.08517216845031</v>
+        <v>16.34691337236257</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1114,13 +1114,13 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>-0.0723</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>44760</v>
+        <v>43654</v>
       </c>
       <c r="M12" t="n">
-        <v>2.81212445492929</v>
+        <v>0.5258003642771598</v>
       </c>
       <c r="N12" t="n">
         <v>3</v>
@@ -1141,49 +1141,49 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>40.11999893188477</v>
+        <v>16.53333282470703</v>
       </c>
       <c r="C13" t="n">
-        <v>47.36000061035156</v>
+        <v>17.33066749572754</v>
       </c>
       <c r="D13" t="n">
-        <v>39.68999862670898</v>
+        <v>16.32399940490723</v>
       </c>
       <c r="E13" t="n">
-        <v>46.29999923706055</v>
+        <v>17.21199989318848</v>
       </c>
       <c r="F13" t="n">
-        <v>42.32474338575348</v>
+        <v>14.83996224414027</v>
       </c>
       <c r="G13" t="n">
-        <v>43.34213453210661</v>
+        <v>14.89020369308169</v>
       </c>
       <c r="H13" t="n">
-        <v>42.35368923270745</v>
+        <v>16.34773801800947</v>
       </c>
       <c r="I13" t="n">
-        <v>47.36000061035156</v>
+        <v>17.33066749572754</v>
       </c>
       <c r="J13" t="n">
-        <v>42.93212338681406</v>
+        <v>17.05913318898419</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>44761</v>
+        <v>43655</v>
       </c>
       <c r="M13" t="n">
-        <v>2.81212445492929</v>
+        <v>0.5258003642771598</v>
       </c>
       <c r="N13" t="n">
         <v>3</v>
       </c>
       <c r="O13" t="n">
-        <v>40.11999893188477</v>
+        <v>16.53333282470703</v>
       </c>
       <c r="P13" t="n">
-        <v>700</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14">
@@ -1191,25 +1191,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>40</v>
+        <v>249.3666687011719</v>
       </c>
       <c r="C14" t="n">
-        <v>42.95000076293945</v>
+        <v>252.0700073242188</v>
       </c>
       <c r="D14" t="n">
-        <v>38.56999969482422</v>
+        <v>218.8633270263672</v>
       </c>
       <c r="E14" t="n">
-        <v>39.40000152587891</v>
+        <v>227.2633361816406</v>
       </c>
       <c r="F14" t="n">
-        <v>41.34982943246195</v>
+        <v>235.4498686340021</v>
       </c>
       <c r="G14" t="n">
-        <v>42.46610497516712</v>
+        <v>243.8324394622591</v>
       </c>
       <c r="H14" t="n">
-        <v>42.08517216845031</v>
+        <v>270.1359005176653</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>-0.0723</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>44760</v>
+        <v>44739</v>
       </c>
       <c r="M14" t="n">
-        <v>2.76382622611618</v>
+        <v>20.30330258599861</v>
       </c>
       <c r="N14" t="n">
         <v>4</v>
@@ -1249,25 +1249,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>40.11999893188477</v>
+        <v>223</v>
       </c>
       <c r="C15" t="n">
-        <v>47.36000061035156</v>
+        <v>254.9799957275391</v>
       </c>
       <c r="D15" t="n">
-        <v>39.68999862670898</v>
+        <v>216.1666717529297</v>
       </c>
       <c r="E15" t="n">
-        <v>46.29999923706055</v>
+        <v>250.7633361816406</v>
       </c>
       <c r="F15" t="n">
-        <v>42.99988603399482</v>
+        <v>240.5543578165483</v>
       </c>
       <c r="G15" t="n">
-        <v>43.3180814778101</v>
+        <v>245.3726387332328</v>
       </c>
       <c r="H15" t="n">
-        <v>42.4683382655967</v>
+        <v>268.3747583052994</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1280,13 +1280,13 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>0.0397</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>44767</v>
+        <v>44746</v>
       </c>
       <c r="M15" t="n">
-        <v>2.76382622611618</v>
+        <v>20.30330258599861</v>
       </c>
       <c r="N15" t="n">
         <v>4</v>
@@ -1307,25 +1307,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>44.95999908447266</v>
+        <v>252.1033325195312</v>
       </c>
       <c r="C16" t="n">
-        <v>46.38999938964844</v>
+        <v>253.0633392333984</v>
       </c>
       <c r="D16" t="n">
-        <v>38.40000152587891</v>
+        <v>225.0333404541016</v>
       </c>
       <c r="E16" t="n">
-        <v>40.34999847412109</v>
+        <v>240.0666656494141</v>
       </c>
       <c r="F16" t="n">
-        <v>42.11659018070358</v>
+        <v>240.3917937608369</v>
       </c>
       <c r="G16" t="n">
-        <v>42.65850747699032</v>
+        <v>244.1935336034953</v>
       </c>
       <c r="H16" t="n">
-        <v>42.2757619209171</v>
+        <v>265.8012953365825</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>44774</v>
+        <v>44753</v>
       </c>
       <c r="M16" t="n">
-        <v>2.76382622611618</v>
+        <v>20.30330258599861</v>
       </c>
       <c r="N16" t="n">
         <v>4</v>
@@ -1365,49 +1365,49 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>40.27999877929688</v>
+        <v>244.9366607666016</v>
       </c>
       <c r="C17" t="n">
-        <v>44.33000183105469</v>
+        <v>280.7866821289062</v>
       </c>
       <c r="D17" t="n">
-        <v>39.91999816894531</v>
+        <v>236.9766693115234</v>
       </c>
       <c r="E17" t="n">
-        <v>44.27999877929688</v>
+        <v>272.2433471679688</v>
       </c>
       <c r="F17" t="n">
-        <v>42.99988603399482</v>
+        <v>240.5543578165483</v>
       </c>
       <c r="G17" t="n">
-        <v>43.3180814778101</v>
+        <v>245.3726387332328</v>
       </c>
       <c r="H17" t="n">
-        <v>42.4683382655967</v>
+        <v>268.3747583052994</v>
       </c>
       <c r="I17" t="n">
-        <v>44.33000183105469</v>
+        <v>280.7866821289062</v>
       </c>
       <c r="J17" t="n">
-        <v>43.04382500541305</v>
+        <v>265.2399633526002</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>44775</v>
+        <v>44754</v>
       </c>
       <c r="M17" t="n">
-        <v>2.76382622611618</v>
+        <v>20.30330258599861</v>
       </c>
       <c r="N17" t="n">
         <v>4</v>
       </c>
       <c r="O17" t="n">
-        <v>40.27999877929688</v>
+        <v>244.9366607666016</v>
       </c>
       <c r="P17" t="n">
-        <v>685</v>
+        <v>832</v>
       </c>
     </row>
     <row r="18">
@@ -1415,25 +1415,25 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>40.11999893188477</v>
+        <v>17.22200012207031</v>
       </c>
       <c r="C18" t="n">
-        <v>47.36000061035156</v>
+        <v>22</v>
       </c>
       <c r="D18" t="n">
-        <v>39.68999862670898</v>
+        <v>16.67866706848145</v>
       </c>
       <c r="E18" t="n">
-        <v>46.29999923706055</v>
+        <v>21.87533378601074</v>
       </c>
       <c r="F18" t="n">
-        <v>42.99988603399482</v>
+        <v>18.19555816832721</v>
       </c>
       <c r="G18" t="n">
-        <v>43.3180814778101</v>
+        <v>17.38865169978206</v>
       </c>
       <c r="H18" t="n">
-        <v>42.4683382655967</v>
+        <v>16.5263829225695</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1446,13 +1446,13 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>0.0397</v>
+        <v>0</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>44767</v>
+        <v>43759</v>
       </c>
       <c r="M18" t="n">
-        <v>1.307968043807705</v>
+        <v>0.04596258740205172</v>
       </c>
       <c r="N18" t="n">
         <v>5</v>
@@ -1473,25 +1473,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>44.95999908447266</v>
+        <v>21.83600044250488</v>
       </c>
       <c r="C19" t="n">
-        <v>46.38999938964844</v>
+        <v>22.7226676940918</v>
       </c>
       <c r="D19" t="n">
-        <v>38.40000152587891</v>
+        <v>20.65333366394043</v>
       </c>
       <c r="E19" t="n">
-        <v>40.34999847412109</v>
+        <v>20.88733291625977</v>
       </c>
       <c r="F19" t="n">
-        <v>42.11659018070358</v>
+        <v>19.09281641763806</v>
       </c>
       <c r="G19" t="n">
-        <v>42.65850747699032</v>
+        <v>18.16613641455488</v>
       </c>
       <c r="H19" t="n">
-        <v>42.2757619209171</v>
+        <v>16.92283292199589</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>44774</v>
+        <v>43766</v>
       </c>
       <c r="M19" t="n">
-        <v>1.307968043807705</v>
+        <v>0.04596258740205172</v>
       </c>
       <c r="N19" t="n">
         <v>5</v>
@@ -1531,25 +1531,25 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>40.27999877929688</v>
+        <v>20.98666763305664</v>
       </c>
       <c r="C20" t="n">
-        <v>44.33000183105469</v>
+        <v>22.76666641235352</v>
       </c>
       <c r="D20" t="n">
-        <v>39.91999816894531</v>
+        <v>20.61733245849609</v>
       </c>
       <c r="E20" t="n">
-        <v>44.27999877929688</v>
+        <v>22.47599983215332</v>
       </c>
       <c r="F20" t="n">
-        <v>42.83772638023468</v>
+        <v>20.22054422247648</v>
       </c>
       <c r="G20" t="n">
-        <v>43.01883887750289</v>
+        <v>19.12388384068787</v>
       </c>
       <c r="H20" t="n">
-        <v>42.45796527167889</v>
+        <v>17.42766627746474</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1562,13 +1562,13 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>0.1618</v>
+        <v>0</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>44781</v>
+        <v>43773</v>
       </c>
       <c r="M20" t="n">
-        <v>1.307968043807705</v>
+        <v>0.04596258740205172</v>
       </c>
       <c r="N20" t="n">
         <v>5</v>
@@ -1589,49 +1589,49 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>42.0099983215332</v>
+        <v>22.93000030517578</v>
       </c>
       <c r="C21" t="n">
-        <v>44.20000076293945</v>
+        <v>23.75533294677734</v>
       </c>
       <c r="D21" t="n">
-        <v>39.68000030517578</v>
+        <v>22.79999923706055</v>
       </c>
       <c r="E21" t="n">
-        <v>43.22999954223633</v>
+        <v>23.47800064086914</v>
       </c>
       <c r="F21" t="n">
-        <v>42.11659018070358</v>
+        <v>19.09281641763806</v>
       </c>
       <c r="G21" t="n">
-        <v>42.65850747699032</v>
+        <v>18.16613641455488</v>
       </c>
       <c r="H21" t="n">
-        <v>42.2757619209171</v>
+        <v>16.92283292199589</v>
       </c>
       <c r="I21" t="n">
-        <v>44.20000076293945</v>
+        <v>23.75533294677734</v>
       </c>
       <c r="J21" t="n">
-        <v>43.31796636534091</v>
+        <v>22.97596289257783</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>44782</v>
+        <v>43774</v>
       </c>
       <c r="M21" t="n">
-        <v>1.307968043807705</v>
+        <v>0.04596258740205172</v>
       </c>
       <c r="N21" t="n">
         <v>5</v>
       </c>
       <c r="O21" t="n">
-        <v>42.0099983215332</v>
+        <v>22.93000030517578</v>
       </c>
       <c r="P21" t="n">
-        <v>311</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -1639,25 +1639,25 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>44.95999908447266</v>
+        <v>167.8333282470703</v>
       </c>
       <c r="C22" t="n">
-        <v>46.38999938964844</v>
+        <v>199.5933380126953</v>
       </c>
       <c r="D22" t="n">
-        <v>38.40000152587891</v>
+        <v>167.2633361816406</v>
       </c>
       <c r="E22" t="n">
-        <v>40.34999847412109</v>
+        <v>195.2533264160156</v>
       </c>
       <c r="F22" t="n">
-        <v>42.11659018070358</v>
+        <v>162.7619696882857</v>
       </c>
       <c r="G22" t="n">
-        <v>42.65850747699032</v>
+        <v>154.4779368459763</v>
       </c>
       <c r="H22" t="n">
-        <v>42.2757619209171</v>
+        <v>130.4499398196971</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1673,10 +1673,10 @@
         <v>0</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>44774</v>
+        <v>44158</v>
       </c>
       <c r="M22" t="n">
-        <v>1.070527823287193</v>
+        <v>11.80348855238339</v>
       </c>
       <c r="N22" t="n">
         <v>6</v>
@@ -1697,25 +1697,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>40.27999877929688</v>
+        <v>200.7366638183594</v>
       </c>
       <c r="C23" t="n">
-        <v>44.33000183105469</v>
+        <v>202.6000061035156</v>
       </c>
       <c r="D23" t="n">
-        <v>39.91999816894531</v>
+        <v>180.4033355712891</v>
       </c>
       <c r="E23" t="n">
-        <v>44.27999877929688</v>
+        <v>199.6799926757812</v>
       </c>
       <c r="F23" t="n">
-        <v>42.83772638023468</v>
+        <v>175.0679773507842</v>
       </c>
       <c r="G23" t="n">
-        <v>43.01883887750289</v>
+        <v>164.5228381414885</v>
       </c>
       <c r="H23" t="n">
-        <v>42.45796527167889</v>
+        <v>136.743580988432</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1728,13 +1728,13 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>0.1618</v>
+        <v>0</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>44781</v>
+        <v>44165</v>
       </c>
       <c r="M23" t="n">
-        <v>1.070527823287193</v>
+        <v>11.80348855238339</v>
       </c>
       <c r="N23" t="n">
         <v>6</v>
@@ -1755,25 +1755,25 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>42.0099983215332</v>
+        <v>201.6399993896484</v>
       </c>
       <c r="C24" t="n">
-        <v>44.20000076293945</v>
+        <v>218.1066741943359</v>
       </c>
       <c r="D24" t="n">
-        <v>39.68000030517578</v>
+        <v>188.7799987792969</v>
       </c>
       <c r="E24" t="n">
-        <v>43.22999954223633</v>
+        <v>203.3300018310547</v>
       </c>
       <c r="F24" t="n">
-        <v>42.9684841009019</v>
+        <v>184.4886521775411</v>
       </c>
       <c r="G24" t="n">
-        <v>43.06576346966587</v>
+        <v>173.1466522947254</v>
       </c>
       <c r="H24" t="n">
-        <v>42.52815020536593</v>
+        <v>142.7968919741249</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1789,10 +1789,10 @@
         <v>0</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>44788</v>
+        <v>44172</v>
       </c>
       <c r="M24" t="n">
-        <v>1.070527823287193</v>
+        <v>11.80348855238339</v>
       </c>
       <c r="N24" t="n">
         <v>6</v>
@@ -1813,49 +1813,49 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>42.59000015258789</v>
+        <v>206.3333282470703</v>
       </c>
       <c r="C25" t="n">
-        <v>47.43999862670898</v>
+        <v>231.6666717529297</v>
       </c>
       <c r="D25" t="n">
-        <v>42.08000183105469</v>
+        <v>201.6666717529297</v>
       </c>
       <c r="E25" t="n">
-        <v>45.29000091552734</v>
+        <v>231.6666717529297</v>
       </c>
       <c r="F25" t="n">
-        <v>42.83772638023468</v>
+        <v>175.0679773507842</v>
       </c>
       <c r="G25" t="n">
-        <v>43.01883887750289</v>
+        <v>164.5228381414885</v>
       </c>
       <c r="H25" t="n">
-        <v>42.45796527167889</v>
+        <v>136.743580988432</v>
       </c>
       <c r="I25" t="n">
-        <v>47.43999862670898</v>
+        <v>231.6666717529297</v>
       </c>
       <c r="J25" t="n">
-        <v>43.66052797587508</v>
+        <v>218.1368167994537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>44789</v>
+        <v>44173</v>
       </c>
       <c r="M25" t="n">
-        <v>1.070527823287193</v>
+        <v>11.80348855238339</v>
       </c>
       <c r="N25" t="n">
         <v>6</v>
       </c>
       <c r="O25" t="n">
-        <v>42.59000015258789</v>
+        <v>206.3333282470703</v>
       </c>
       <c r="P25" t="n">
-        <v>252</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26">
@@ -1863,25 +1863,25 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>44.68000030517578</v>
+        <v>255.7200012207031</v>
       </c>
       <c r="C26" t="n">
-        <v>46.2599983215332</v>
+        <v>256.586669921875</v>
       </c>
       <c r="D26" t="n">
-        <v>40.72999954223633</v>
+        <v>211</v>
       </c>
       <c r="E26" t="n">
-        <v>44.45000076293945</v>
+        <v>221.3000030517578</v>
       </c>
       <c r="F26" t="n">
-        <v>43.97821561372007</v>
+        <v>267.5519482354435</v>
       </c>
       <c r="G26" t="n">
-        <v>43.75780785881383</v>
+        <v>281.6638323607152</v>
       </c>
       <c r="H26" t="n">
-        <v>42.9311160172248</v>
+        <v>297.9189073641962</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1894,13 +1894,13 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>0.1517</v>
+        <v>0</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>44802</v>
+        <v>44697</v>
       </c>
       <c r="M26" t="n">
-        <v>2.022305502414383</v>
+        <v>-12.12333679199219</v>
       </c>
       <c r="N26" t="n">
         <v>7</v>
@@ -1921,25 +1921,25 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>44.97999954223633</v>
+        <v>218.3399963378906</v>
       </c>
       <c r="C27" t="n">
-        <v>45.36000061035156</v>
+        <v>253.2666625976562</v>
       </c>
       <c r="D27" t="n">
-        <v>40.63000106811523</v>
+        <v>206.8566741943359</v>
       </c>
       <c r="E27" t="n">
-        <v>44.95000076293945</v>
+        <v>253.2100067138672</v>
       </c>
       <c r="F27" t="n">
-        <v>44.3021439967932</v>
+        <v>262.7713010615848</v>
       </c>
       <c r="G27" t="n">
-        <v>44.02273961528619</v>
+        <v>275.340759994749</v>
       </c>
       <c r="H27" t="n">
-        <v>43.11465099410795</v>
+        <v>293.8544618505299</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1955,10 +1955,10 @@
         <v>0</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>44809</v>
+        <v>44704</v>
       </c>
       <c r="M27" t="n">
-        <v>2.022305502414383</v>
+        <v>-12.12333679199219</v>
       </c>
       <c r="N27" t="n">
         <v>7</v>
@@ -1979,25 +1979,25 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>45.72999954223633</v>
+        <v>257.9466552734375</v>
       </c>
       <c r="C28" t="n">
-        <v>47.63000106811523</v>
+        <v>264.2099914550781</v>
       </c>
       <c r="D28" t="n">
-        <v>41.7599983215332</v>
+        <v>233.4166717529297</v>
       </c>
       <c r="E28" t="n">
-        <v>42.72000122070312</v>
+        <v>234.5166625976562</v>
       </c>
       <c r="F28" t="n">
-        <v>43.77476307142984</v>
+        <v>253.3530882402753</v>
       </c>
       <c r="G28" t="n">
-        <v>43.73324219426773</v>
+        <v>266.2687383509506</v>
       </c>
       <c r="H28" t="n">
-        <v>43.07877374198024</v>
+        <v>288.460116463905</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -2010,13 +2010,13 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>0.1012</v>
+        <v>0</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>44816</v>
+        <v>44711</v>
       </c>
       <c r="M28" t="n">
-        <v>2.022305502414383</v>
+        <v>-12.12333679199219</v>
       </c>
       <c r="N28" t="n">
         <v>7</v>
@@ -2037,49 +2037,49 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>41.13999938964844</v>
+        <v>244.3533325195312</v>
       </c>
       <c r="C29" t="n">
-        <v>43.18999862670898</v>
+        <v>255.5466613769531</v>
       </c>
       <c r="D29" t="n">
-        <v>34.7400016784668</v>
+        <v>227.913330078125</v>
       </c>
       <c r="E29" t="n">
-        <v>35.47999954223633</v>
+        <v>232.2299957275391</v>
       </c>
       <c r="F29" t="n">
-        <v>44.3021439967932</v>
+        <v>262.7713010615848</v>
       </c>
       <c r="G29" t="n">
-        <v>44.02273961528619</v>
+        <v>275.340759994749</v>
       </c>
       <c r="H29" t="n">
-        <v>43.11465099410795</v>
+        <v>293.8544618505299</v>
       </c>
       <c r="I29" t="n">
-        <v>43.18999862670898</v>
+        <v>255.5466613769531</v>
       </c>
       <c r="J29" t="n">
-        <v>43.16230489206282</v>
+        <v>267.2638148578078</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>44817</v>
+        <v>44712</v>
       </c>
       <c r="M29" t="n">
-        <v>2.022305502414383</v>
+        <v>-12.12333679199219</v>
       </c>
       <c r="N29" t="n">
         <v>7</v>
       </c>
       <c r="O29" t="n">
-        <v>41.13999938964844</v>
+        <v>244.3533325195312</v>
       </c>
       <c r="P29" t="n">
-        <v>491</v>
+        <v>-497</v>
       </c>
     </row>
     <row r="30">
@@ -2087,25 +2087,25 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>44.97999954223633</v>
+        <v>111.8000030517578</v>
       </c>
       <c r="C30" t="n">
-        <v>45.36000061035156</v>
+        <v>139.6993255615234</v>
       </c>
       <c r="D30" t="n">
-        <v>40.63000106811523</v>
+        <v>111.5220031738281</v>
       </c>
       <c r="E30" t="n">
-        <v>44.95000076293945</v>
+        <v>136.6653289794922</v>
       </c>
       <c r="F30" t="n">
-        <v>44.3021439967932</v>
+        <v>111.381280718357</v>
       </c>
       <c r="G30" t="n">
-        <v>44.02273961528619</v>
+        <v>102.4127596517337</v>
       </c>
       <c r="H30" t="n">
-        <v>43.11465099410795</v>
+        <v>79.08377147461113</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -2121,10 +2121,10 @@
         <v>0</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>44809</v>
+        <v>44060</v>
       </c>
       <c r="M30" t="n">
-        <v>1.090000152587891</v>
+        <v>5.573333740234375</v>
       </c>
       <c r="N30" t="n">
         <v>8</v>
@@ -2145,25 +2145,25 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>45.72999954223633</v>
+        <v>141.7519989013672</v>
       </c>
       <c r="C31" t="n">
-        <v>47.63000106811523</v>
+        <v>154.5659942626953</v>
       </c>
       <c r="D31" t="n">
-        <v>41.7599983215332</v>
+        <v>128.5013275146484</v>
       </c>
       <c r="E31" t="n">
-        <v>42.72000122070312</v>
+        <v>147.5599975585938</v>
       </c>
       <c r="F31" t="n">
-        <v>43.77476307142984</v>
+        <v>123.4408529984359</v>
       </c>
       <c r="G31" t="n">
-        <v>43.73324219426773</v>
+        <v>112.4454791865915</v>
       </c>
       <c r="H31" t="n">
-        <v>43.07877374198024</v>
+        <v>85.30888293679136</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -2176,13 +2176,13 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>0.1012</v>
+        <v>0</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>44816</v>
+        <v>44067</v>
       </c>
       <c r="M31" t="n">
-        <v>1.090000152587891</v>
+        <v>5.573333740234375</v>
       </c>
       <c r="N31" t="n">
         <v>8</v>
@@ -2203,25 +2203,25 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>41.13999938964844</v>
+        <v>148.2033386230469</v>
       </c>
       <c r="C32" t="n">
-        <v>43.18999862670898</v>
+        <v>167.4966735839844</v>
       </c>
       <c r="D32" t="n">
-        <v>34.7400016784668</v>
+        <v>124.0066680908203</v>
       </c>
       <c r="E32" t="n">
-        <v>35.47999954223633</v>
+        <v>139.4400024414062</v>
       </c>
       <c r="F32" t="n">
-        <v>41.009841895032</v>
+        <v>128.7739028127594</v>
       </c>
       <c r="G32" t="n">
-        <v>41.89918827159408</v>
+        <v>118.4442621321059</v>
       </c>
       <c r="H32" t="n">
-        <v>42.38797608745806</v>
+        <v>90.22989380084725</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -2234,13 +2234,13 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>0.0757</v>
+        <v>0</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>44823</v>
+        <v>44074</v>
       </c>
       <c r="M32" t="n">
-        <v>1.090000152587891</v>
+        <v>5.573333740234375</v>
       </c>
       <c r="N32" t="n">
         <v>8</v>
@@ -2261,49 +2261,49 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>35.88000106811523</v>
+        <v>118.6666641235352</v>
       </c>
       <c r="C33" t="n">
-        <v>38.81999969482422</v>
+        <v>132.9966735839844</v>
       </c>
       <c r="D33" t="n">
-        <v>35.09000015258789</v>
+        <v>109.9599990844727</v>
       </c>
       <c r="E33" t="n">
-        <v>36.97000122070312</v>
+        <v>124.2399978637695</v>
       </c>
       <c r="F33" t="n">
-        <v>43.77476307142984</v>
+        <v>123.4408529984359</v>
       </c>
       <c r="G33" t="n">
-        <v>43.73324219426773</v>
+        <v>112.4454791865915</v>
       </c>
       <c r="H33" t="n">
-        <v>43.07877374198024</v>
+        <v>85.30888293679136</v>
       </c>
       <c r="I33" t="n">
-        <v>38.81999969482422</v>
+        <v>132.9966735839844</v>
       </c>
       <c r="J33" t="n">
-        <v>42.81574147148785</v>
+        <v>153.4597027336157</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>44824</v>
+        <v>44075</v>
       </c>
       <c r="M33" t="n">
-        <v>1.090000152587891</v>
+        <v>5.573333740234375</v>
       </c>
       <c r="N33" t="n">
         <v>8</v>
       </c>
       <c r="O33" t="n">
-        <v>35.88000106811523</v>
+        <v>118.6666641235352</v>
       </c>
       <c r="P33" t="n">
-        <v>304</v>
+        <v>468</v>
       </c>
     </row>
     <row r="34">
@@ -2311,25 +2311,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>45.72999954223633</v>
+        <v>55.63333129882812</v>
       </c>
       <c r="C34" t="n">
-        <v>47.63000106811523</v>
+        <v>55.66666793823242</v>
       </c>
       <c r="D34" t="n">
-        <v>41.7599983215332</v>
+        <v>52.33333206176758</v>
       </c>
       <c r="E34" t="n">
-        <v>42.72000122070312</v>
+        <v>55.66666793823242</v>
       </c>
       <c r="F34" t="n">
-        <v>43.77476307142984</v>
+        <v>52.74932642069132</v>
       </c>
       <c r="G34" t="n">
-        <v>43.73324219426773</v>
+        <v>50.44149920251552</v>
       </c>
       <c r="H34" t="n">
-        <v>43.07877374198024</v>
+        <v>43.51121779436837</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -2342,13 +2342,13 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>0.1012</v>
+        <v>0</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>44816</v>
+        <v>43976</v>
       </c>
       <c r="M34" t="n">
-        <v>3.872485643519212</v>
+        <v>4.227073519670313</v>
       </c>
       <c r="N34" t="n">
         <v>9</v>
@@ -2369,25 +2369,25 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>41.13999938964844</v>
+        <v>57.20000076293945</v>
       </c>
       <c r="C35" t="n">
-        <v>43.18999862670898</v>
+        <v>60.57733154296875</v>
       </c>
       <c r="D35" t="n">
-        <v>34.7400016784668</v>
+        <v>56.93999862670898</v>
       </c>
       <c r="E35" t="n">
-        <v>35.47999954223633</v>
+        <v>59.04399871826172</v>
       </c>
       <c r="F35" t="n">
-        <v>41.009841895032</v>
+        <v>54.84755051988145</v>
       </c>
       <c r="G35" t="n">
-        <v>41.89918827159408</v>
+        <v>52.35316576157022</v>
       </c>
       <c r="H35" t="n">
-        <v>42.38797608745806</v>
+        <v>44.92328878744959</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2400,13 +2400,13 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>0.0757</v>
+        <v>0</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>44823</v>
+        <v>43983</v>
       </c>
       <c r="M35" t="n">
-        <v>3.872485643519212</v>
+        <v>4.227073519670313</v>
       </c>
       <c r="N35" t="n">
         <v>9</v>
@@ -2427,25 +2427,25 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>35.88000106811523</v>
+        <v>61.26666641235352</v>
       </c>
       <c r="C36" t="n">
-        <v>38.81999969482422</v>
+        <v>68.49866485595703</v>
       </c>
       <c r="D36" t="n">
-        <v>35.09000015258789</v>
+        <v>60.61066818237305</v>
       </c>
       <c r="E36" t="n">
-        <v>36.97000122070312</v>
+        <v>62.35200119018555</v>
       </c>
       <c r="F36" t="n">
-        <v>39.66322833692238</v>
+        <v>57.34903407664949</v>
       </c>
       <c r="G36" t="n">
-        <v>40.8038133713961</v>
+        <v>54.5751291901514</v>
       </c>
       <c r="H36" t="n">
-        <v>41.89543291775307</v>
+        <v>46.5077171876983</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -2458,13 +2458,13 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>0.156</v>
+        <v>0</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>44830</v>
+        <v>43990</v>
       </c>
       <c r="M36" t="n">
-        <v>3.872485643519212</v>
+        <v>4.227073519670313</v>
       </c>
       <c r="N36" t="n">
         <v>9</v>
@@ -2485,49 +2485,49 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>38.63999938964844</v>
+        <v>61.18600082397461</v>
       </c>
       <c r="C37" t="n">
-        <v>44.06000137329102</v>
+        <v>67.94667053222656</v>
       </c>
       <c r="D37" t="n">
-        <v>38.22999954223633</v>
+        <v>60.56666564941406</v>
       </c>
       <c r="E37" t="n">
-        <v>43.29999923706055</v>
+        <v>66.72666931152344</v>
       </c>
       <c r="F37" t="n">
-        <v>41.009841895032</v>
+        <v>54.84755051988145</v>
       </c>
       <c r="G37" t="n">
-        <v>41.89918827159408</v>
+        <v>52.35316576157022</v>
       </c>
       <c r="H37" t="n">
-        <v>42.38797608745806</v>
+        <v>44.92328878744959</v>
       </c>
       <c r="I37" t="n">
-        <v>44.06000137329102</v>
+        <v>67.94667053222656</v>
       </c>
       <c r="J37" t="n">
-        <v>42.51248503316765</v>
+        <v>65.41307434364492</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>44831</v>
+        <v>43991</v>
       </c>
       <c r="M37" t="n">
-        <v>3.872485643519212</v>
+        <v>4.227073519670313</v>
       </c>
       <c r="N37" t="n">
         <v>9</v>
       </c>
       <c r="O37" t="n">
-        <v>38.63999938964844</v>
+        <v>61.18600082397461</v>
       </c>
       <c r="P37" t="n">
-        <v>1003</v>
+        <v>689</v>
       </c>
     </row>
     <row r="38">
@@ -2535,25 +2535,25 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>38.63999938964844</v>
+        <v>154</v>
       </c>
       <c r="C38" t="n">
-        <v>44.06000137329102</v>
+        <v>155.25</v>
       </c>
       <c r="D38" t="n">
-        <v>38.22999954223633</v>
+        <v>121.0199966430664</v>
       </c>
       <c r="E38" t="n">
-        <v>43.29999923706055</v>
+        <v>123.1500015258789</v>
       </c>
       <c r="F38" t="n">
-        <v>40.8754853036351</v>
+        <v>158.9704992584767</v>
       </c>
       <c r="G38" t="n">
-        <v>41.35852134154375</v>
+        <v>173.955691562604</v>
       </c>
       <c r="H38" t="n">
-        <v>42.02312076496284</v>
+        <v>212.7091092725364</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2566,13 +2566,13 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>0.2023</v>
+        <v>0</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>44837</v>
+        <v>44914</v>
       </c>
       <c r="M38" t="n">
-        <v>2.591525736828089</v>
+        <v>3.44000244140625</v>
       </c>
       <c r="N38" t="n">
         <v>10</v>
@@ -2593,25 +2593,25 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>43</v>
+        <v>117.5</v>
       </c>
       <c r="C39" t="n">
-        <v>43.86000061035156</v>
+        <v>124.4800033569336</v>
       </c>
       <c r="D39" t="n">
-        <v>39.84000015258789</v>
+        <v>108.2399978637695</v>
       </c>
       <c r="E39" t="n">
-        <v>40.43999862670898</v>
+        <v>123.1800003051758</v>
       </c>
       <c r="F39" t="n">
-        <v>40.73032307799306</v>
+        <v>147.0403329407097</v>
       </c>
       <c r="G39" t="n">
-        <v>41.15440518269158</v>
+        <v>162.6722046165088</v>
       </c>
       <c r="H39" t="n">
-        <v>41.87920057057612</v>
+        <v>204.5700993664127</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2624,13 +2624,13 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>-0.064</v>
+        <v>0</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>44844</v>
+        <v>44921</v>
       </c>
       <c r="M39" t="n">
-        <v>2.591525736828089</v>
+        <v>3.44000244140625</v>
       </c>
       <c r="N39" t="n">
         <v>10</v>
@@ -2651,25 +2651,25 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>41.65000152587891</v>
+        <v>118.4700012207031</v>
       </c>
       <c r="C40" t="n">
-        <v>45.63999938964844</v>
+        <v>118.8000030517578</v>
       </c>
       <c r="D40" t="n">
-        <v>41.18000030517578</v>
+        <v>101.8099975585938</v>
       </c>
       <c r="E40" t="n">
-        <v>44.90999984741211</v>
+        <v>113.0599975585938</v>
       </c>
       <c r="F40" t="n">
-        <v>42.12354866779941</v>
+        <v>135.7135544800044</v>
       </c>
       <c r="G40" t="n">
-        <v>41.98898177485169</v>
+        <v>151.6472697147499</v>
       </c>
       <c r="H40" t="n">
-        <v>42.15472777756121</v>
+        <v>196.2509992020655</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2682,13 +2682,13 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>0.202</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>44851</v>
+        <v>44928</v>
       </c>
       <c r="M40" t="n">
-        <v>2.591525736828089</v>
+        <v>3.44000244140625</v>
       </c>
       <c r="N40" t="n">
         <v>10</v>
@@ -2709,49 +2709,49 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>44.63999938964844</v>
+        <v>118.9599990844727</v>
       </c>
       <c r="C41" t="n">
-        <v>52.31999969482422</v>
+        <v>125.9499969482422</v>
       </c>
       <c r="D41" t="n">
-        <v>43.68000030517578</v>
+        <v>114.9199981689453</v>
       </c>
       <c r="E41" t="n">
-        <v>49.27999877929688</v>
+        <v>122.4000015258789</v>
       </c>
       <c r="F41" t="n">
-        <v>40.73032307799306</v>
+        <v>147.0403329407097</v>
       </c>
       <c r="G41" t="n">
-        <v>41.15440518269158</v>
+        <v>162.6722046165088</v>
       </c>
       <c r="H41" t="n">
-        <v>41.87920057057612</v>
+        <v>204.5700993664127</v>
       </c>
       <c r="I41" t="n">
-        <v>52.31999969482422</v>
+        <v>125.9499969482422</v>
       </c>
       <c r="J41" t="n">
-        <v>47.23152512647653</v>
+        <v>184.3811396916793</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>44852</v>
+        <v>44929</v>
       </c>
       <c r="M41" t="n">
-        <v>2.591525736828089</v>
+        <v>3.44000244140625</v>
       </c>
       <c r="N41" t="n">
         <v>10</v>
       </c>
       <c r="O41" t="n">
-        <v>44.63999938964844</v>
+        <v>118.9599990844727</v>
       </c>
       <c r="P41" t="n">
-        <v>581</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42">
@@ -2759,25 +2759,25 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>51</v>
+        <v>193.8666687011719</v>
       </c>
       <c r="C42" t="n">
-        <v>53.22000122070312</v>
+        <v>211.8633270263672</v>
       </c>
       <c r="D42" t="n">
-        <v>48.02999877929688</v>
+        <v>191.2166595458984</v>
       </c>
       <c r="E42" t="n">
-        <v>52.20999908447266</v>
+        <v>208.4066619873047</v>
       </c>
       <c r="F42" t="n">
-        <v>48.43401369670908</v>
+        <v>210.2416427533249</v>
       </c>
       <c r="G42" t="n">
-        <v>46.73223641460532</v>
+        <v>215.3212404185296</v>
       </c>
       <c r="H42" t="n">
-        <v>44.30378469362842</v>
+        <v>218.05054827896</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2793,10 +2793,10 @@
         <v>0</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>44872</v>
+        <v>44340</v>
       </c>
       <c r="M42" t="n">
-        <v>2.134184623879925</v>
+        <v>3.908285040830464</v>
       </c>
       <c r="N42" t="n">
         <v>11</v>
@@ -2817,25 +2817,25 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>51.52999877929688</v>
+        <v>209.2666625976562</v>
       </c>
       <c r="C43" t="n">
-        <v>53.81000137329102</v>
+        <v>211.2666625976562</v>
       </c>
       <c r="D43" t="n">
-        <v>49.5099983215332</v>
+        <v>190.4066619873047</v>
       </c>
       <c r="E43" t="n">
-        <v>53.70000076293945</v>
+        <v>199.6833343505859</v>
       </c>
       <c r="F43" t="n">
-        <v>50.18934271878587</v>
+        <v>206.7222066190786</v>
       </c>
       <c r="G43" t="n">
-        <v>48.2806284920129</v>
+        <v>211.8461501812088</v>
       </c>
       <c r="H43" t="n">
-        <v>45.15798615447488</v>
+        <v>216.3808015581988</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2851,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>44879</v>
+        <v>44347</v>
       </c>
       <c r="M43" t="n">
-        <v>2.134184623879925</v>
+        <v>3.908285040830464</v>
       </c>
       <c r="N43" t="n">
         <v>11</v>
@@ -2875,25 +2875,25 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>51.90999984741211</v>
+        <v>197.2766723632812</v>
       </c>
       <c r="C44" t="n">
-        <v>54.45000076293945</v>
+        <v>207.6966705322266</v>
       </c>
       <c r="D44" t="n">
-        <v>47.52000045776367</v>
+        <v>194.2933349609375</v>
       </c>
       <c r="E44" t="n">
-        <v>50.45999908447266</v>
+        <v>203.2966613769531</v>
       </c>
       <c r="F44" t="n">
-        <v>50.27956150734813</v>
+        <v>205.5803582050368</v>
       </c>
       <c r="G44" t="n">
-        <v>48.76493306811507</v>
+        <v>209.9462637802631</v>
       </c>
       <c r="H44" t="n">
-        <v>45.63998732992922</v>
+        <v>215.1913342689946</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2909,10 +2909,10 @@
         <v>0</v>
       </c>
       <c r="L44" s="2" t="n">
-        <v>44886</v>
+        <v>44354</v>
       </c>
       <c r="M44" t="n">
-        <v>2.134184623879925</v>
+        <v>3.908285040830464</v>
       </c>
       <c r="N44" t="n">
         <v>11</v>
@@ -2933,49 +2933,49 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>48.52999877929688</v>
+        <v>204.07666015625</v>
       </c>
       <c r="C45" t="n">
-        <v>52.65000152587891</v>
+        <v>209.4499969482422</v>
       </c>
       <c r="D45" t="n">
-        <v>48.2599983215332</v>
+        <v>197.8333282470703</v>
       </c>
       <c r="E45" t="n">
-        <v>50.72000122070312</v>
+        <v>207.7700042724609</v>
       </c>
       <c r="F45" t="n">
-        <v>50.18934271878587</v>
+        <v>206.7222066190786</v>
       </c>
       <c r="G45" t="n">
-        <v>48.2806284920129</v>
+        <v>211.8461501812088</v>
       </c>
       <c r="H45" t="n">
-        <v>45.15798615447488</v>
+        <v>216.3808015581988</v>
       </c>
       <c r="I45" t="n">
-        <v>52.65000152587891</v>
+        <v>209.4499969482422</v>
       </c>
       <c r="J45" t="n">
-        <v>50.6641834031768</v>
+        <v>207.9849451970805</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" s="2" t="n">
-        <v>44887</v>
+        <v>44355</v>
       </c>
       <c r="M45" t="n">
-        <v>2.134184623879925</v>
+        <v>3.908285040830464</v>
       </c>
       <c r="N45" t="n">
         <v>11</v>
       </c>
       <c r="O45" t="n">
-        <v>48.52999877929688</v>
+        <v>204.07666015625</v>
       </c>
       <c r="P45" t="n">
-        <v>440</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46">
@@ -2983,25 +2983,25 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>51.90999984741211</v>
+        <v>278.8166809082031</v>
       </c>
       <c r="C46" t="n">
-        <v>54.45000076293945</v>
+        <v>281.8766784667969</v>
       </c>
       <c r="D46" t="n">
-        <v>47.52000045776367</v>
+        <v>226.6666717529297</v>
       </c>
       <c r="E46" t="n">
-        <v>50.45999908447266</v>
+        <v>256.5299987792969</v>
       </c>
       <c r="F46" t="n">
-        <v>50.27956150734813</v>
+        <v>290.6779208272864</v>
       </c>
       <c r="G46" t="n">
-        <v>48.76493306811507</v>
+        <v>298.9106407347031</v>
       </c>
       <c r="H46" t="n">
-        <v>45.63998732992922</v>
+        <v>305.58079779544</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -3017,10 +3017,10 @@
         <v>0</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>44886</v>
+        <v>44690</v>
       </c>
       <c r="M46" t="n">
-        <v>1.5</v>
+        <v>5.658464882545331</v>
       </c>
       <c r="N46" t="n">
         <v>12</v>
@@ -3041,25 +3041,25 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>48.52999877929688</v>
+        <v>255.7200012207031</v>
       </c>
       <c r="C47" t="n">
-        <v>52.65000152587891</v>
+        <v>256.586669921875</v>
       </c>
       <c r="D47" t="n">
-        <v>48.2599983215332</v>
+        <v>211</v>
       </c>
       <c r="E47" t="n">
-        <v>50.72000122070312</v>
+        <v>221.3000030517578</v>
       </c>
       <c r="F47" t="n">
-        <v>50.42637474513313</v>
+        <v>267.5519482354435</v>
       </c>
       <c r="G47" t="n">
-        <v>49.19939265757908</v>
+        <v>281.6638323607152</v>
       </c>
       <c r="H47" t="n">
-        <v>46.10180677454503</v>
+        <v>297.9189073641962</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -3072,13 +3072,13 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>0.2023</v>
+        <v>0</v>
       </c>
       <c r="L47" s="2" t="n">
-        <v>44893</v>
+        <v>44697</v>
       </c>
       <c r="M47" t="n">
-        <v>1.5</v>
+        <v>5.658464882545331</v>
       </c>
       <c r="N47" t="n">
         <v>12</v>
@@ -3099,25 +3099,25 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>51.52999877929688</v>
+        <v>218.3399963378906</v>
       </c>
       <c r="C48" t="n">
-        <v>51.52999877929688</v>
+        <v>253.2666625976562</v>
       </c>
       <c r="D48" t="n">
-        <v>44.56000137329102</v>
+        <v>206.8566741943359</v>
       </c>
       <c r="E48" t="n">
-        <v>44.65000152587891</v>
+        <v>253.2100067138672</v>
       </c>
       <c r="F48" t="n">
-        <v>48.50091700538172</v>
+        <v>262.7713010615848</v>
       </c>
       <c r="G48" t="n">
-        <v>48.1884168505346</v>
+        <v>275.340759994749</v>
       </c>
       <c r="H48" t="n">
-        <v>45.96982447921174</v>
+        <v>293.8544618505299</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -3130,13 +3130,13 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>0.13045</v>
+        <v>0</v>
       </c>
       <c r="L48" s="2" t="n">
-        <v>44900</v>
+        <v>44704</v>
       </c>
       <c r="M48" t="n">
-        <v>1.5</v>
+        <v>5.658464882545331</v>
       </c>
       <c r="N48" t="n">
         <v>12</v>
@@ -3157,49 +3157,49 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>45.33000183105469</v>
+        <v>257.9466552734375</v>
       </c>
       <c r="C49" t="n">
-        <v>49.38999938964844</v>
+        <v>264.2099914550781</v>
       </c>
       <c r="D49" t="n">
-        <v>44.88000106811523</v>
+        <v>233.4166717529297</v>
       </c>
       <c r="E49" t="n">
-        <v>46.83000183105469</v>
+        <v>234.5166625976562</v>
       </c>
       <c r="F49" t="n">
-        <v>50.42637474513313</v>
+        <v>267.5519482354435</v>
       </c>
       <c r="G49" t="n">
-        <v>49.19939265757908</v>
+        <v>281.6638323607152</v>
       </c>
       <c r="H49" t="n">
-        <v>46.10180677454503</v>
+        <v>297.9189073641962</v>
       </c>
       <c r="I49" t="n">
-        <v>49.38999938964844</v>
+        <v>264.2099914550781</v>
       </c>
       <c r="J49" t="n">
-        <v>50.25192901187802</v>
+        <v>263.6051201559828</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
       </c>
       <c r="L49" s="2" t="n">
-        <v>44901</v>
+        <v>44705</v>
       </c>
       <c r="M49" t="n">
-        <v>1.5</v>
+        <v>5.658464882545331</v>
       </c>
       <c r="N49" t="n">
         <v>12</v>
       </c>
       <c r="O49" t="n">
-        <v>45.33000183105469</v>
+        <v>257.9466552734375</v>
       </c>
       <c r="P49" t="n">
-        <v>332</v>
+        <v>221</v>
       </c>
     </row>
     <row r="50">
@@ -3207,25 +3207,25 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>48.52999877929688</v>
+        <v>19.7266674041748</v>
       </c>
       <c r="C50" t="n">
-        <v>52.65000152587891</v>
+        <v>23.66666793823242</v>
       </c>
       <c r="D50" t="n">
-        <v>48.2599983215332</v>
+        <v>19.07533264160156</v>
       </c>
       <c r="E50" t="n">
-        <v>50.72000122070312</v>
+        <v>23.21133232116699</v>
       </c>
       <c r="F50" t="n">
-        <v>50.42637474513313</v>
+        <v>21.58819386014187</v>
       </c>
       <c r="G50" t="n">
-        <v>49.19939265757908</v>
+        <v>21.39738841427341</v>
       </c>
       <c r="H50" t="n">
-        <v>46.10180677454503</v>
+        <v>21.05808924682492</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -3238,13 +3238,13 @@
         </is>
       </c>
       <c r="K50" t="n">
-        <v>0.2023</v>
+        <v>0</v>
       </c>
       <c r="L50" s="2" t="n">
-        <v>44893</v>
+        <v>43311</v>
       </c>
       <c r="M50" t="n">
-        <v>1.415703894946091</v>
+        <v>2.074666976928711</v>
       </c>
       <c r="N50" t="n">
         <v>13</v>
@@ -3265,25 +3265,25 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>51.52999877929688</v>
+        <v>23.03066635131836</v>
       </c>
       <c r="C51" t="n">
-        <v>51.52999877929688</v>
+        <v>25.83066749572754</v>
       </c>
       <c r="D51" t="n">
-        <v>44.56000137329102</v>
+        <v>22.61000061035156</v>
       </c>
       <c r="E51" t="n">
-        <v>44.65000152587891</v>
+        <v>23.69933319091797</v>
       </c>
       <c r="F51" t="n">
-        <v>48.50091700538172</v>
+        <v>22.29190697040057</v>
       </c>
       <c r="G51" t="n">
-        <v>48.1884168505346</v>
+        <v>21.9089316979722</v>
       </c>
       <c r="H51" t="n">
-        <v>45.96982447921174</v>
+        <v>21.29820233265156</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -3296,13 +3296,13 @@
         </is>
       </c>
       <c r="K51" t="n">
-        <v>0.13045</v>
+        <v>0</v>
       </c>
       <c r="L51" s="2" t="n">
-        <v>44900</v>
+        <v>43318</v>
       </c>
       <c r="M51" t="n">
-        <v>1.415703894946091</v>
+        <v>2.074666976928711</v>
       </c>
       <c r="N51" t="n">
         <v>13</v>
@@ -3323,25 +3323,25 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>45.33000183105469</v>
+        <v>24.07533264160156</v>
       </c>
       <c r="C52" t="n">
-        <v>49.38999938964844</v>
+        <v>24.21266746520996</v>
       </c>
       <c r="D52" t="n">
-        <v>44.88000106811523</v>
+        <v>20.23533248901367</v>
       </c>
       <c r="E52" t="n">
-        <v>46.83000183105469</v>
+        <v>20.36666679382324</v>
       </c>
       <c r="F52" t="n">
-        <v>47.94394528060604</v>
+        <v>21.65016024487479</v>
       </c>
       <c r="G52" t="n">
-        <v>47.88654684620573</v>
+        <v>21.56620616371687</v>
       </c>
       <c r="H52" t="n">
-        <v>46.04802242028838</v>
+        <v>21.21351728366716</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -3354,13 +3354,13 @@
         </is>
       </c>
       <c r="K52" t="n">
-        <v>0.2023</v>
+        <v>0</v>
       </c>
       <c r="L52" s="2" t="n">
-        <v>44907</v>
+        <v>43325</v>
       </c>
       <c r="M52" t="n">
-        <v>1.415703894946091</v>
+        <v>2.074666976928711</v>
       </c>
       <c r="N52" t="n">
         <v>13</v>
@@ -3381,49 +3381,49 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>47.43999862670898</v>
+        <v>19.4466667175293</v>
       </c>
       <c r="C53" t="n">
-        <v>50.0099983215332</v>
+        <v>21.82133293151855</v>
       </c>
       <c r="D53" t="n">
-        <v>45.7400016784668</v>
+        <v>19.21333312988281</v>
       </c>
       <c r="E53" t="n">
-        <v>48.93999862670898</v>
+        <v>21.52133369445801</v>
       </c>
       <c r="F53" t="n">
-        <v>48.50091700538172</v>
+        <v>22.29190697040057</v>
       </c>
       <c r="G53" t="n">
-        <v>48.1884168505346</v>
+        <v>21.9089316979722</v>
       </c>
       <c r="H53" t="n">
-        <v>45.96982447921174</v>
+        <v>21.29820233265156</v>
       </c>
       <c r="I53" t="n">
-        <v>50.0099983215332</v>
+        <v>21.82133293151855</v>
       </c>
       <c r="J53" t="n">
-        <v>48.85570252165508</v>
+        <v>24.49469431837849</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
       </c>
       <c r="L53" s="2" t="n">
-        <v>44908</v>
+        <v>43326</v>
       </c>
       <c r="M53" t="n">
-        <v>1.415703894946091</v>
+        <v>2.074666976928711</v>
       </c>
       <c r="N53" t="n">
         <v>13</v>
       </c>
       <c r="O53" t="n">
-        <v>47.43999862670898</v>
+        <v>19.4466667175293</v>
       </c>
       <c r="P53" t="n">
-        <v>299</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="54">
@@ -3431,25 +3431,25 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>48.90000152587891</v>
+        <v>260.2033386230469</v>
       </c>
       <c r="C54" t="n">
-        <v>49.38999938964844</v>
+        <v>302.6166687011719</v>
       </c>
       <c r="D54" t="n">
-        <v>44.77999877929688</v>
+        <v>252.0133361816406</v>
       </c>
       <c r="E54" t="n">
-        <v>45.79999923706055</v>
+        <v>301.7966613769531</v>
       </c>
       <c r="F54" t="n">
-        <v>47.73820548348795</v>
+        <v>286.5717869442876</v>
       </c>
       <c r="G54" t="n">
-        <v>47.85545304748656</v>
+        <v>291.1189921097025</v>
       </c>
       <c r="H54" t="n">
-        <v>46.53382581297841</v>
+        <v>299.6164738908818</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -3462,13 +3462,13 @@
         </is>
       </c>
       <c r="K54" t="n">
-        <v>0.1931</v>
+        <v>0</v>
       </c>
       <c r="L54" s="2" t="n">
-        <v>44928</v>
+        <v>44634</v>
       </c>
       <c r="M54" t="n">
-        <v>1.314467021451492</v>
+        <v>6.633984739313746</v>
       </c>
       <c r="N54" t="n">
         <v>14</v>
@@ -3489,25 +3489,25 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>47.88999938964844</v>
+        <v>304.9933471679688</v>
       </c>
       <c r="C55" t="n">
-        <v>51.13999938964844</v>
+        <v>346.8999938964844</v>
       </c>
       <c r="D55" t="n">
-        <v>46.34999847412109</v>
+        <v>302.3633422851562</v>
       </c>
       <c r="E55" t="n">
-        <v>50.63999938964844</v>
+        <v>336.8800048828125</v>
       </c>
       <c r="F55" t="n">
-        <v>48.70547011887478</v>
+        <v>303.3411929237959</v>
       </c>
       <c r="G55" t="n">
-        <v>48.47424112352253</v>
+        <v>301.2881060592825</v>
       </c>
       <c r="H55" t="n">
-        <v>46.90711431994841</v>
+        <v>303.004067617421</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -3520,13 +3520,13 @@
         </is>
       </c>
       <c r="K55" t="n">
-        <v>0.17725</v>
+        <v>0</v>
       </c>
       <c r="L55" s="2" t="n">
-        <v>44935</v>
+        <v>44641</v>
       </c>
       <c r="M55" t="n">
-        <v>1.314467021451492</v>
+        <v>6.633984739313746</v>
       </c>
       <c r="N55" t="n">
         <v>14</v>
@@ -3547,25 +3547,25 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>51.02000045776367</v>
+        <v>355.0333251953125</v>
       </c>
       <c r="C56" t="n">
-        <v>51.25</v>
+        <v>371.5899963378906</v>
       </c>
       <c r="D56" t="n">
-        <v>46.13000106811523</v>
+        <v>351.2000122070312</v>
       </c>
       <c r="E56" t="n">
-        <v>46.91999816894531</v>
+        <v>361.5299987792969</v>
       </c>
       <c r="F56" t="n">
-        <v>48.11031280223163</v>
+        <v>322.7374615422963</v>
       </c>
       <c r="G56" t="n">
-        <v>48.12885380028315</v>
+        <v>314.6751933303968</v>
       </c>
       <c r="H56" t="n">
-        <v>46.90828557894813</v>
+        <v>308.3246068139552</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -3578,13 +3578,13 @@
         </is>
       </c>
       <c r="K56" t="n">
-        <v>0.14635</v>
+        <v>0</v>
       </c>
       <c r="L56" s="2" t="n">
-        <v>44942</v>
+        <v>44648</v>
       </c>
       <c r="M56" t="n">
-        <v>1.314467021451492</v>
+        <v>6.633984739313746</v>
       </c>
       <c r="N56" t="n">
         <v>14</v>
@@ -3605,49 +3605,4977 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>47.13999938964844</v>
+        <v>363.1266784667969</v>
       </c>
       <c r="C57" t="n">
-        <v>50.34999847412109</v>
+        <v>384.2900085449219</v>
       </c>
       <c r="D57" t="n">
-        <v>46.09000015258789</v>
+        <v>340.5133361816406</v>
       </c>
       <c r="E57" t="n">
-        <v>49.18999862670898</v>
+        <v>341.8299865722656</v>
       </c>
       <c r="F57" t="n">
-        <v>48.11031280223163</v>
+        <v>303.3411929237959</v>
       </c>
       <c r="G57" t="n">
-        <v>48.12885380028315</v>
+        <v>301.2881060592825</v>
       </c>
       <c r="H57" t="n">
-        <v>46.90828557894813</v>
+        <v>303.004067617421</v>
       </c>
       <c r="I57" t="n">
-        <v>50.34999847412109</v>
+        <v>384.2900085449219</v>
       </c>
       <c r="J57" t="n">
-        <v>48.45446641109993</v>
+        <v>369.7606632061106</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
       </c>
       <c r="L57" s="2" t="n">
-        <v>44943</v>
+        <v>44649</v>
       </c>
       <c r="M57" t="n">
-        <v>1.314467021451492</v>
+        <v>6.633984739313746</v>
       </c>
       <c r="N57" t="n">
         <v>14</v>
       </c>
       <c r="O57" t="n">
-        <v>47.13999938964844</v>
+        <v>363.1266784667969</v>
       </c>
       <c r="P57" t="n">
-        <v>279</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>206.3333282470703</v>
+      </c>
+      <c r="C58" t="n">
+        <v>231.6666717529297</v>
+      </c>
+      <c r="D58" t="n">
+        <v>201.6666717529297</v>
+      </c>
+      <c r="E58" t="n">
+        <v>231.6666717529297</v>
+      </c>
+      <c r="F58" t="n">
+        <v>200.2146587026706</v>
+      </c>
+      <c r="G58" t="n">
+        <v>186.1511010632153</v>
+      </c>
+      <c r="H58" t="n">
+        <v>150.8759628631072</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="M58" t="n">
+        <v>40.65352813614982</v>
+      </c>
+      <c r="N58" t="n">
+        <v>15</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>222.0800018310547</v>
+      </c>
+      <c r="C59" t="n">
+        <v>222.8333282470703</v>
+      </c>
+      <c r="D59" t="n">
+        <v>204.7433319091797</v>
+      </c>
+      <c r="E59" t="n">
+        <v>220.5899963378906</v>
+      </c>
+      <c r="F59" t="n">
+        <v>207.0064379144106</v>
+      </c>
+      <c r="G59" t="n">
+        <v>193.804188902032</v>
+      </c>
+      <c r="H59" t="n">
+        <v>157.2136022699057</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2" t="n">
+        <v>44186</v>
+      </c>
+      <c r="M59" t="n">
+        <v>40.65352813614982</v>
+      </c>
+      <c r="N59" t="n">
+        <v>15</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>224.836669921875</v>
+      </c>
+      <c r="C60" t="n">
+        <v>239.5733337402344</v>
+      </c>
+      <c r="D60" t="n">
+        <v>218.3333282470703</v>
+      </c>
+      <c r="E60" t="n">
+        <v>235.2233276367188</v>
+      </c>
+      <c r="F60" t="n">
+        <v>216.4120678218467</v>
+      </c>
+      <c r="G60" t="n">
+        <v>203.0084419541846</v>
+      </c>
+      <c r="H60" t="n">
+        <v>164.3053954850705</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2" t="n">
+        <v>44193</v>
+      </c>
+      <c r="M60" t="n">
+        <v>40.65352813614982</v>
+      </c>
+      <c r="N60" t="n">
+        <v>15</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>239.8200073242188</v>
+      </c>
+      <c r="C61" t="n">
+        <v>294.8299865722656</v>
+      </c>
+      <c r="D61" t="n">
+        <v>239.0633392333984</v>
+      </c>
+      <c r="E61" t="n">
+        <v>293.3399963378906</v>
+      </c>
+      <c r="F61" t="n">
+        <v>207.0064379144106</v>
+      </c>
+      <c r="G61" t="n">
+        <v>193.804188902032</v>
+      </c>
+      <c r="H61" t="n">
+        <v>157.2136022699057</v>
+      </c>
+      <c r="I61" t="n">
+        <v>294.8299865722656</v>
+      </c>
+      <c r="J61" t="n">
+        <v>280.4735354603686</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="M61" t="n">
+        <v>40.65352813614982</v>
+      </c>
+      <c r="N61" t="n">
+        <v>15</v>
+      </c>
+      <c r="O61" t="n">
+        <v>239.8200073242188</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>15.13933277130127</v>
+      </c>
+      <c r="C62" t="n">
+        <v>16.44533348083496</v>
+      </c>
+      <c r="D62" t="n">
+        <v>15.0686674118042</v>
+      </c>
+      <c r="E62" t="n">
+        <v>15.62266731262207</v>
+      </c>
+      <c r="F62" t="n">
+        <v>15.68089824254761</v>
+      </c>
+      <c r="G62" t="n">
+        <v>15.57054748742317</v>
+      </c>
+      <c r="H62" t="n">
+        <v>16.25150225582628</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" s="2" t="n">
+        <v>43675</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.3169273523667471</v>
+      </c>
+      <c r="N62" t="n">
+        <v>16</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>15.30666732788086</v>
+      </c>
+      <c r="C63" t="n">
+        <v>15.98666667938232</v>
+      </c>
+      <c r="D63" t="n">
+        <v>15.05000019073486</v>
+      </c>
+      <c r="E63" t="n">
+        <v>15.66733264923096</v>
+      </c>
+      <c r="F63" t="n">
+        <v>15.67637637810873</v>
+      </c>
+      <c r="G63" t="n">
+        <v>15.59205530115824</v>
+      </c>
+      <c r="H63" t="n">
+        <v>16.19839592795398</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2" t="n">
+        <v>43682</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.3169273523667471</v>
+      </c>
+      <c r="N63" t="n">
+        <v>16</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>15.53266716003418</v>
+      </c>
+      <c r="C64" t="n">
+        <v>15.73333263397217</v>
+      </c>
+      <c r="D64" t="n">
+        <v>14.10333347320557</v>
+      </c>
+      <c r="E64" t="n">
+        <v>14.6626672744751</v>
+      </c>
+      <c r="F64" t="n">
+        <v>15.33847334356419</v>
+      </c>
+      <c r="G64" t="n">
+        <v>15.38552462856198</v>
+      </c>
+      <c r="H64" t="n">
+        <v>16.05878423218317</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2" t="n">
+        <v>43689</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.3169273523667471</v>
+      </c>
+      <c r="N64" t="n">
+        <v>16</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>14.94733333587646</v>
+      </c>
+      <c r="C65" t="n">
+        <v>15.27266693115234</v>
+      </c>
+      <c r="D65" t="n">
+        <v>14.06666660308838</v>
+      </c>
+      <c r="E65" t="n">
+        <v>14.09333324432373</v>
+      </c>
+      <c r="F65" t="n">
+        <v>15.67637637810873</v>
+      </c>
+      <c r="G65" t="n">
+        <v>15.59205530115824</v>
+      </c>
+      <c r="H65" t="n">
+        <v>16.19839592795398</v>
+      </c>
+      <c r="I65" t="n">
+        <v>15.27266693115234</v>
+      </c>
+      <c r="J65" t="n">
+        <v>15.26426068824321</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" s="2" t="n">
+        <v>43690</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.3169273523667471</v>
+      </c>
+      <c r="N65" t="n">
+        <v>16</v>
+      </c>
+      <c r="O65" t="n">
+        <v>14.94733333587646</v>
+      </c>
+      <c r="P65" t="n">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>22.95466613769531</v>
+      </c>
+      <c r="C66" t="n">
+        <v>22.97133255004883</v>
+      </c>
+      <c r="D66" t="n">
+        <v>21.80666732788086</v>
+      </c>
+      <c r="E66" t="n">
+        <v>21.99600028991699</v>
+      </c>
+      <c r="F66" t="n">
+        <v>21.73542082853741</v>
+      </c>
+      <c r="G66" t="n">
+        <v>20.87959442922498</v>
+      </c>
+      <c r="H66" t="n">
+        <v>18.69216812368723</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" s="2" t="n">
+        <v>43794</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2.570928598367118</v>
+      </c>
+      <c r="N66" t="n">
+        <v>17</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>21.95999908447266</v>
+      </c>
+      <c r="C67" t="n">
+        <v>22.59066772460938</v>
+      </c>
+      <c r="D67" t="n">
+        <v>21.8166675567627</v>
+      </c>
+      <c r="E67" t="n">
+        <v>22.39266777038574</v>
+      </c>
+      <c r="F67" t="n">
+        <v>21.95450314248686</v>
+      </c>
+      <c r="G67" t="n">
+        <v>21.21583294948293</v>
+      </c>
+      <c r="H67" t="n">
+        <v>19.028577182478</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" s="2" t="n">
+        <v>43801</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2.570928598367118</v>
+      </c>
+      <c r="N67" t="n">
+        <v>17</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>22.43933296203613</v>
+      </c>
+      <c r="C68" t="n">
+        <v>24.34733390808105</v>
+      </c>
+      <c r="D68" t="n">
+        <v>22.33866691589355</v>
+      </c>
+      <c r="E68" t="n">
+        <v>23.89266777038574</v>
+      </c>
+      <c r="F68" t="n">
+        <v>22.60055801845315</v>
+      </c>
+      <c r="G68" t="n">
+        <v>21.81068513190577</v>
+      </c>
+      <c r="H68" t="n">
+        <v>19.47076723592416</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" s="2" t="n">
+        <v>43808</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2.570928598367118</v>
+      </c>
+      <c r="N68" t="n">
+        <v>17</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>24.17000007629395</v>
+      </c>
+      <c r="C69" t="n">
+        <v>27.53333282470703</v>
+      </c>
+      <c r="D69" t="n">
+        <v>24.16666793823242</v>
+      </c>
+      <c r="E69" t="n">
+        <v>27.03933334350586</v>
+      </c>
+      <c r="F69" t="n">
+        <v>21.95450314248686</v>
+      </c>
+      <c r="G69" t="n">
+        <v>21.21583294948293</v>
+      </c>
+      <c r="H69" t="n">
+        <v>19.028577182478</v>
+      </c>
+      <c r="I69" t="n">
+        <v>27.53333282470703</v>
+      </c>
+      <c r="J69" t="n">
+        <v>26.74092867466106</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" s="2" t="n">
+        <v>43809</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2.570928598367118</v>
+      </c>
+      <c r="N69" t="n">
+        <v>17</v>
+      </c>
+      <c r="O69" t="n">
+        <v>24.17000007629395</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>31.29999923706055</v>
+      </c>
+      <c r="C70" t="n">
+        <v>32.9913330078125</v>
+      </c>
+      <c r="D70" t="n">
+        <v>23.36733245849609</v>
+      </c>
+      <c r="E70" t="n">
+        <v>28.50200080871582</v>
+      </c>
+      <c r="F70" t="n">
+        <v>38.82710546684458</v>
+      </c>
+      <c r="G70" t="n">
+        <v>40.04819344799914</v>
+      </c>
+      <c r="H70" t="n">
+        <v>35.12853583197474</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" s="2" t="n">
+        <v>43906</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.3082645130122046</v>
+      </c>
+      <c r="N70" t="n">
+        <v>18</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>28.90666770935059</v>
+      </c>
+      <c r="C71" t="n">
+        <v>37.33333206176758</v>
+      </c>
+      <c r="D71" t="n">
+        <v>27.36666679382324</v>
+      </c>
+      <c r="E71" t="n">
+        <v>34.29066848754883</v>
+      </c>
+      <c r="F71" t="n">
+        <v>37.31495980707933</v>
+      </c>
+      <c r="G71" t="n">
+        <v>38.76874345678796</v>
+      </c>
+      <c r="H71" t="n">
+        <v>35.05236607339057</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" s="2" t="n">
+        <v>43913</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.3082645130122046</v>
+      </c>
+      <c r="N71" t="n">
+        <v>18</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>34.017333984375</v>
+      </c>
+      <c r="C72" t="n">
+        <v>36.19733428955078</v>
+      </c>
+      <c r="D72" t="n">
+        <v>29.76000022888184</v>
+      </c>
+      <c r="E72" t="n">
+        <v>32.00066757202148</v>
+      </c>
+      <c r="F72" t="n">
+        <v>35.54352906206005</v>
+      </c>
+      <c r="G72" t="n">
+        <v>37.26472659350652</v>
+      </c>
+      <c r="H72" t="n">
+        <v>34.77493893690247</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" s="2" t="n">
+        <v>43920</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.3082645130122046</v>
+      </c>
+      <c r="N72" t="n">
+        <v>18</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>34.08000183105469</v>
+      </c>
+      <c r="C73" t="n">
+        <v>38.34533309936523</v>
+      </c>
+      <c r="D73" t="n">
+        <v>33.19733428955078</v>
+      </c>
+      <c r="E73" t="n">
+        <v>38.20000076293945</v>
+      </c>
+      <c r="F73" t="n">
+        <v>37.31495980707933</v>
+      </c>
+      <c r="G73" t="n">
+        <v>38.76874345678796</v>
+      </c>
+      <c r="H73" t="n">
+        <v>35.05236607339057</v>
+      </c>
+      <c r="I73" t="n">
+        <v>38.34533309936523</v>
+      </c>
+      <c r="J73" t="n">
+        <v>34.38826634406689</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" s="2" t="n">
+        <v>43921</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.3082645130122046</v>
+      </c>
+      <c r="N73" t="n">
+        <v>18</v>
+      </c>
+      <c r="O73" t="n">
+        <v>34.08000183105469</v>
+      </c>
+      <c r="P73" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>20.22133255004883</v>
+      </c>
+      <c r="C74" t="n">
+        <v>20.32933235168457</v>
+      </c>
+      <c r="D74" t="n">
+        <v>18.26666641235352</v>
+      </c>
+      <c r="E74" t="n">
+        <v>18.45466613769531</v>
+      </c>
+      <c r="F74" t="n">
+        <v>19.36874966517681</v>
+      </c>
+      <c r="G74" t="n">
+        <v>19.65002085516431</v>
+      </c>
+      <c r="H74" t="n">
+        <v>20.43889112463892</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" s="2" t="n">
+        <v>43234</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1.834112417962388</v>
+      </c>
+      <c r="N74" t="n">
+        <v>19</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>18.75533294677734</v>
+      </c>
+      <c r="C75" t="n">
+        <v>19.43266677856445</v>
+      </c>
+      <c r="D75" t="n">
+        <v>18.22800064086914</v>
+      </c>
+      <c r="E75" t="n">
+        <v>18.59000015258789</v>
+      </c>
+      <c r="F75" t="n">
+        <v>19.10916649431384</v>
+      </c>
+      <c r="G75" t="n">
+        <v>19.41446069903622</v>
+      </c>
+      <c r="H75" t="n">
+        <v>20.27081012717974</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" s="2" t="n">
+        <v>43241</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1.834112417962388</v>
+      </c>
+      <c r="N75" t="n">
+        <v>19</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>18.56733322143555</v>
+      </c>
+      <c r="C76" t="n">
+        <v>19.66733360290527</v>
+      </c>
+      <c r="D76" t="n">
+        <v>18.40999984741211</v>
+      </c>
+      <c r="E76" t="n">
+        <v>19.45466613769531</v>
+      </c>
+      <c r="F76" t="n">
+        <v>19.22433304210766</v>
+      </c>
+      <c r="G76" t="n">
+        <v>19.42339524096046</v>
+      </c>
+      <c r="H76" t="n">
+        <v>20.19661521904479</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" s="2" t="n">
+        <v>43248</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1.834112417962388</v>
+      </c>
+      <c r="N76" t="n">
+        <v>19</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>19.62266731262207</v>
+      </c>
+      <c r="C77" t="n">
+        <v>22</v>
+      </c>
+      <c r="D77" t="n">
+        <v>19.11599922180176</v>
+      </c>
+      <c r="E77" t="n">
+        <v>21.17733383178711</v>
+      </c>
+      <c r="F77" t="n">
+        <v>19.10916649431384</v>
+      </c>
+      <c r="G77" t="n">
+        <v>19.41446069903622</v>
+      </c>
+      <c r="H77" t="n">
+        <v>20.27081012717974</v>
+      </c>
+      <c r="I77" t="n">
+        <v>22</v>
+      </c>
+      <c r="J77" t="n">
+        <v>21.45677973058446</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" s="2" t="n">
+        <v>43249</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1.834112417962388</v>
+      </c>
+      <c r="N77" t="n">
+        <v>19</v>
+      </c>
+      <c r="O77" t="n">
+        <v>19.62266731262207</v>
+      </c>
+      <c r="P77" t="n">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>28.58600044250488</v>
+      </c>
+      <c r="C78" t="n">
+        <v>30.26666641235352</v>
+      </c>
+      <c r="D78" t="n">
+        <v>26.80533218383789</v>
+      </c>
+      <c r="E78" t="n">
+        <v>29.53400039672852</v>
+      </c>
+      <c r="F78" t="n">
+        <v>26.92295547054645</v>
+      </c>
+      <c r="G78" t="n">
+        <v>25.4192313594524</v>
+      </c>
+      <c r="H78" t="n">
+        <v>21.71632949374577</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2" t="n">
+        <v>43829</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2.584995500050852</v>
+      </c>
+      <c r="N78" t="n">
+        <v>20</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>29.36466789245605</v>
+      </c>
+      <c r="C79" t="n">
+        <v>33.25333404541016</v>
+      </c>
+      <c r="D79" t="n">
+        <v>29.33333206176758</v>
+      </c>
+      <c r="E79" t="n">
+        <v>31.87666702270508</v>
+      </c>
+      <c r="F79" t="n">
+        <v>28.57419265459933</v>
+      </c>
+      <c r="G79" t="n">
+        <v>26.85421706239744</v>
+      </c>
+      <c r="H79" t="n">
+        <v>22.63999654183299</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2" t="n">
+        <v>43836</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2.584995500050852</v>
+      </c>
+      <c r="N79" t="n">
+        <v>20</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>32.90000152587891</v>
+      </c>
+      <c r="C80" t="n">
+        <v>36.49399948120117</v>
+      </c>
+      <c r="D80" t="n">
+        <v>32.79999923706055</v>
+      </c>
+      <c r="E80" t="n">
+        <v>34.03333282470703</v>
+      </c>
+      <c r="F80" t="n">
+        <v>30.39390604463523</v>
+      </c>
+      <c r="G80" t="n">
+        <v>28.44957612068846</v>
+      </c>
+      <c r="H80" t="n">
+        <v>23.67575438573063</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="n">
+        <v>43843</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2.584995500050852</v>
+      </c>
+      <c r="N80" t="n">
+        <v>20</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>35.34999847412109</v>
+      </c>
+      <c r="C81" t="n">
+        <v>39.63333129882812</v>
+      </c>
+      <c r="D81" t="n">
+        <v>35.22733306884766</v>
+      </c>
+      <c r="E81" t="n">
+        <v>37.65466690063477</v>
+      </c>
+      <c r="F81" t="n">
+        <v>28.57419265459933</v>
+      </c>
+      <c r="G81" t="n">
+        <v>26.85421706239744</v>
+      </c>
+      <c r="H81" t="n">
+        <v>22.63999654183299</v>
+      </c>
+      <c r="I81" t="n">
+        <v>39.63333129882812</v>
+      </c>
+      <c r="J81" t="n">
+        <v>37.93499397417195</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" s="2" t="n">
+        <v>43844</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2.584995500050852</v>
+      </c>
+      <c r="N81" t="n">
+        <v>20</v>
+      </c>
+      <c r="O81" t="n">
+        <v>35.34999847412109</v>
+      </c>
+      <c r="P81" t="n">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>209.9633331298828</v>
+      </c>
+      <c r="C82" t="n">
+        <v>221.6199951171875</v>
+      </c>
+      <c r="D82" t="n">
+        <v>207.0966644287109</v>
+      </c>
+      <c r="E82" t="n">
+        <v>214.4600067138672</v>
+      </c>
+      <c r="F82" t="n">
+        <v>215.913808181424</v>
+      </c>
+      <c r="G82" t="n">
+        <v>215.7043358688782</v>
+      </c>
+      <c r="H82" t="n">
+        <v>216.2565292268126</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" s="2" t="n">
+        <v>44396</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3.369491918967469</v>
+      </c>
+      <c r="N82" t="n">
+        <v>21</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>216.9900054931641</v>
+      </c>
+      <c r="C83" t="n">
+        <v>232.5099945068359</v>
+      </c>
+      <c r="D83" t="n">
+        <v>209.0800018310547</v>
+      </c>
+      <c r="E83" t="n">
+        <v>229.0666656494141</v>
+      </c>
+      <c r="F83" t="n">
+        <v>220.2980940040874</v>
+      </c>
+      <c r="G83" t="n">
+        <v>218.673742486775</v>
+      </c>
+      <c r="H83" t="n">
+        <v>217.4210870834127</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" s="2" t="n">
+        <v>44403</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3.369491918967469</v>
+      </c>
+      <c r="N83" t="n">
+        <v>21</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>233.3333282470703</v>
+      </c>
+      <c r="C84" t="n">
+        <v>242.3133392333984</v>
+      </c>
+      <c r="D84" t="n">
+        <v>232.5433349609375</v>
+      </c>
+      <c r="E84" t="n">
+        <v>233.0333404541016</v>
+      </c>
+      <c r="F84" t="n">
+        <v>224.5431761540921</v>
+      </c>
+      <c r="G84" t="n">
+        <v>221.8647642572921</v>
+      </c>
+      <c r="H84" t="n">
+        <v>218.8403828443844</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" s="2" t="n">
+        <v>44410</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3.369491918967469</v>
+      </c>
+      <c r="N84" t="n">
+        <v>21</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>236.7233276367188</v>
+      </c>
+      <c r="C85" t="n">
+        <v>243.3000030517578</v>
+      </c>
+      <c r="D85" t="n">
+        <v>233.1333312988281</v>
+      </c>
+      <c r="E85" t="n">
+        <v>239.0566711425781</v>
+      </c>
+      <c r="F85" t="n">
+        <v>220.2980940040874</v>
+      </c>
+      <c r="G85" t="n">
+        <v>218.673742486775</v>
+      </c>
+      <c r="H85" t="n">
+        <v>217.4210870834127</v>
+      </c>
+      <c r="I85" t="n">
+        <v>243.3000030517578</v>
+      </c>
+      <c r="J85" t="n">
+        <v>240.0928195556862</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" s="2" t="n">
+        <v>44411</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3.369491918967469</v>
+      </c>
+      <c r="N85" t="n">
+        <v>21</v>
+      </c>
+      <c r="O85" t="n">
+        <v>236.7233276367188</v>
+      </c>
+      <c r="P85" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>12.74666690826416</v>
+      </c>
+      <c r="C86" t="n">
+        <v>13</v>
+      </c>
+      <c r="D86" t="n">
+        <v>12.2733325958252</v>
+      </c>
+      <c r="E86" t="n">
+        <v>12.3439998626709</v>
+      </c>
+      <c r="F86" t="n">
+        <v>14.01392214826121</v>
+      </c>
+      <c r="G86" t="n">
+        <v>14.99118977214289</v>
+      </c>
+      <c r="H86" t="n">
+        <v>17.34106513497618</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" s="2" t="n">
+        <v>43612</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.4253339767456055</v>
+      </c>
+      <c r="N86" t="n">
+        <v>22</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>12.36733341217041</v>
+      </c>
+      <c r="C87" t="n">
+        <v>14.06666660308838</v>
+      </c>
+      <c r="D87" t="n">
+        <v>11.79933261871338</v>
+      </c>
+      <c r="E87" t="n">
+        <v>13.63333320617676</v>
+      </c>
+      <c r="F87" t="n">
+        <v>13.88705916756639</v>
+      </c>
+      <c r="G87" t="n">
+        <v>14.68944386859486</v>
+      </c>
+      <c r="H87" t="n">
+        <v>17.00399859599442</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" s="2" t="n">
+        <v>43619</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.4253339767456055</v>
+      </c>
+      <c r="N87" t="n">
+        <v>22</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>14.01666736602783</v>
+      </c>
+      <c r="C88" t="n">
+        <v>14.89200019836426</v>
+      </c>
+      <c r="D88" t="n">
+        <v>13.83399963378906</v>
+      </c>
+      <c r="E88" t="n">
+        <v>14.32800006866455</v>
+      </c>
+      <c r="F88" t="n">
+        <v>14.03403946793245</v>
+      </c>
+      <c r="G88" t="n">
+        <v>14.6091230241659</v>
+      </c>
+      <c r="H88" t="n">
+        <v>16.76072600260079</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" s="2" t="n">
+        <v>43626</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.4253339767456055</v>
+      </c>
+      <c r="N88" t="n">
+        <v>22</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>14.36533260345459</v>
+      </c>
+      <c r="C89" t="n">
+        <v>15.64933300018311</v>
+      </c>
+      <c r="D89" t="n">
+        <v>14.28466701507568</v>
+      </c>
+      <c r="E89" t="n">
+        <v>14.7906665802002</v>
+      </c>
+      <c r="F89" t="n">
+        <v>13.88705916756639</v>
+      </c>
+      <c r="G89" t="n">
+        <v>14.68944386859486</v>
+      </c>
+      <c r="H89" t="n">
+        <v>17.00399859599442</v>
+      </c>
+      <c r="I89" t="n">
+        <v>15.64933300018311</v>
+      </c>
+      <c r="J89" t="n">
+        <v>16.32495662061986</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" s="2" t="n">
+        <v>43627</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.4253339767456055</v>
+      </c>
+      <c r="N89" t="n">
+        <v>22</v>
+      </c>
+      <c r="O89" t="n">
+        <v>14.36533260345459</v>
+      </c>
+      <c r="P89" t="n">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>29.36466789245605</v>
+      </c>
+      <c r="C90" t="n">
+        <v>33.25333404541016</v>
+      </c>
+      <c r="D90" t="n">
+        <v>29.33333206176758</v>
+      </c>
+      <c r="E90" t="n">
+        <v>31.87666702270508</v>
+      </c>
+      <c r="F90" t="n">
+        <v>28.57419265459933</v>
+      </c>
+      <c r="G90" t="n">
+        <v>26.85421706239744</v>
+      </c>
+      <c r="H90" t="n">
+        <v>22.63999654183299</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" s="2" t="n">
+        <v>43836</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5.364020242072115</v>
+      </c>
+      <c r="N90" t="n">
+        <v>23</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>32.90000152587891</v>
+      </c>
+      <c r="C91" t="n">
+        <v>36.49399948120117</v>
+      </c>
+      <c r="D91" t="n">
+        <v>32.79999923706055</v>
+      </c>
+      <c r="E91" t="n">
+        <v>34.03333282470703</v>
+      </c>
+      <c r="F91" t="n">
+        <v>30.39390604463523</v>
+      </c>
+      <c r="G91" t="n">
+        <v>28.44957612068846</v>
+      </c>
+      <c r="H91" t="n">
+        <v>23.67575438573063</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" s="2" t="n">
+        <v>43843</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5.364020242072115</v>
+      </c>
+      <c r="N91" t="n">
+        <v>23</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>35.34999847412109</v>
+      </c>
+      <c r="C92" t="n">
+        <v>39.63333129882812</v>
+      </c>
+      <c r="D92" t="n">
+        <v>35.22733306884766</v>
+      </c>
+      <c r="E92" t="n">
+        <v>37.65466690063477</v>
+      </c>
+      <c r="F92" t="n">
+        <v>32.81415966330175</v>
+      </c>
+      <c r="G92" t="n">
+        <v>30.49515184956541</v>
+      </c>
+      <c r="H92" t="n">
+        <v>24.94656461435828</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" s="2" t="n">
+        <v>43850</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5.364020242072115</v>
+      </c>
+      <c r="N92" t="n">
+        <v>23</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>36.13266754150391</v>
+      </c>
+      <c r="C93" t="n">
+        <v>43.53333282470703</v>
+      </c>
+      <c r="D93" t="n">
+        <v>35.95199966430664</v>
+      </c>
+      <c r="E93" t="n">
+        <v>43.37133407592773</v>
+      </c>
+      <c r="F93" t="n">
+        <v>30.39390604463523</v>
+      </c>
+      <c r="G93" t="n">
+        <v>28.44957612068846</v>
+      </c>
+      <c r="H93" t="n">
+        <v>23.67575438573063</v>
+      </c>
+      <c r="I93" t="n">
+        <v>43.53333282470703</v>
+      </c>
+      <c r="J93" t="n">
+        <v>41.49668778357602</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" s="2" t="n">
+        <v>43851</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5.364020242072115</v>
+      </c>
+      <c r="N93" t="n">
+        <v>23</v>
+      </c>
+      <c r="O93" t="n">
+        <v>36.13266754150391</v>
+      </c>
+      <c r="P93" t="n">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>24.17000007629395</v>
+      </c>
+      <c r="C94" t="n">
+        <v>27.53333282470703</v>
+      </c>
+      <c r="D94" t="n">
+        <v>24.16666793823242</v>
+      </c>
+      <c r="E94" t="n">
+        <v>27.03933334350586</v>
+      </c>
+      <c r="F94" t="n">
+        <v>24.08014979347072</v>
+      </c>
+      <c r="G94" t="n">
+        <v>22.97260695670579</v>
+      </c>
+      <c r="H94" t="n">
+        <v>20.15881870024977</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2" t="n">
+        <v>43815</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2.482440082664791</v>
+      </c>
+      <c r="N94" t="n">
+        <v>24</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>27.45199966430664</v>
+      </c>
+      <c r="C95" t="n">
+        <v>29.02066612243652</v>
+      </c>
+      <c r="D95" t="n">
+        <v>27.33333206176758</v>
+      </c>
+      <c r="E95" t="n">
+        <v>28.6919994354248</v>
+      </c>
+      <c r="F95" t="n">
+        <v>25.61743300745542</v>
+      </c>
+      <c r="G95" t="n">
+        <v>24.24358306308779</v>
+      </c>
+      <c r="H95" t="n">
+        <v>20.9345624034475</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" s="2" t="n">
+        <v>43822</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2.482440082664791</v>
+      </c>
+      <c r="N95" t="n">
+        <v>24</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>28.58600044250488</v>
+      </c>
+      <c r="C96" t="n">
+        <v>30.26666641235352</v>
+      </c>
+      <c r="D96" t="n">
+        <v>26.80533218383789</v>
+      </c>
+      <c r="E96" t="n">
+        <v>29.53400039672852</v>
+      </c>
+      <c r="F96" t="n">
+        <v>26.92295547054645</v>
+      </c>
+      <c r="G96" t="n">
+        <v>25.4192313594524</v>
+      </c>
+      <c r="H96" t="n">
+        <v>21.71632949374577</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" s="2" t="n">
+        <v>43829</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2.482440082664791</v>
+      </c>
+      <c r="N96" t="n">
+        <v>24</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>29.36466789245605</v>
+      </c>
+      <c r="C97" t="n">
+        <v>33.25333404541016</v>
+      </c>
+      <c r="D97" t="n">
+        <v>29.33333206176758</v>
+      </c>
+      <c r="E97" t="n">
+        <v>31.87666702270508</v>
+      </c>
+      <c r="F97" t="n">
+        <v>25.61743300745542</v>
+      </c>
+      <c r="G97" t="n">
+        <v>24.24358306308779</v>
+      </c>
+      <c r="H97" t="n">
+        <v>20.9345624034475</v>
+      </c>
+      <c r="I97" t="n">
+        <v>33.25333404541016</v>
+      </c>
+      <c r="J97" t="n">
+        <v>31.84710797512085</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" s="2" t="n">
+        <v>43830</v>
+      </c>
+      <c r="M97" t="n">
+        <v>2.482440082664791</v>
+      </c>
+      <c r="N97" t="n">
+        <v>24</v>
+      </c>
+      <c r="O97" t="n">
+        <v>29.36466789245605</v>
+      </c>
+      <c r="P97" t="n">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>22.49799919128418</v>
+      </c>
+      <c r="C98" t="n">
+        <v>23.28000068664551</v>
+      </c>
+      <c r="D98" t="n">
+        <v>21.48399925231934</v>
+      </c>
+      <c r="E98" t="n">
+        <v>23.0939998626709</v>
+      </c>
+      <c r="F98" t="n">
+        <v>20.54148056253694</v>
+      </c>
+      <c r="G98" t="n">
+        <v>20.08346675294133</v>
+      </c>
+      <c r="H98" t="n">
+        <v>20.1343742247916</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" s="2" t="n">
+        <v>43402</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.1041829722007606</v>
+      </c>
+      <c r="N98" t="n">
+        <v>25</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="C99" t="n">
+        <v>23.83866691589355</v>
+      </c>
+      <c r="D99" t="n">
+        <v>22.00933265686035</v>
+      </c>
+      <c r="E99" t="n">
+        <v>23.36733245849609</v>
+      </c>
+      <c r="F99" t="n">
+        <v>21.48343119452333</v>
+      </c>
+      <c r="G99" t="n">
+        <v>20.81321468750906</v>
+      </c>
+      <c r="H99" t="n">
+        <v>20.42827951876473</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" s="2" t="n">
+        <v>43409</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.1041829722007606</v>
+      </c>
+      <c r="N99" t="n">
+        <v>25</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>23.22466659545898</v>
+      </c>
+      <c r="C100" t="n">
+        <v>23.71333312988281</v>
+      </c>
+      <c r="D100" t="n">
+        <v>22.02266693115234</v>
+      </c>
+      <c r="E100" t="n">
+        <v>23.62066650390625</v>
+      </c>
+      <c r="F100" t="n">
+        <v>22.19584296431763</v>
+      </c>
+      <c r="G100" t="n">
+        <v>21.43709286893066</v>
+      </c>
+      <c r="H100" t="n">
+        <v>20.71849651741396</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" s="2" t="n">
+        <v>43416</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.1041829722007606</v>
+      </c>
+      <c r="N100" t="n">
+        <v>25</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>23.75600051879883</v>
+      </c>
+      <c r="C101" t="n">
+        <v>24.45000076293945</v>
+      </c>
+      <c r="D101" t="n">
+        <v>21.70333290100098</v>
+      </c>
+      <c r="E101" t="n">
+        <v>21.72200012207031</v>
+      </c>
+      <c r="F101" t="n">
+        <v>21.48343119452333</v>
+      </c>
+      <c r="G101" t="n">
+        <v>20.81321468750906</v>
+      </c>
+      <c r="H101" t="n">
+        <v>20.42827951876473</v>
+      </c>
+      <c r="I101" t="n">
+        <v>24.45000076293945</v>
+      </c>
+      <c r="J101" t="n">
+        <v>23.86018349099959</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" s="2" t="n">
+        <v>43417</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.1041829722007606</v>
+      </c>
+      <c r="N101" t="n">
+        <v>25</v>
+      </c>
+      <c r="O101" t="n">
+        <v>23.75600051879883</v>
+      </c>
+      <c r="P101" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>17.27066612243652</v>
+      </c>
+      <c r="C102" t="n">
+        <v>18.84666633605957</v>
+      </c>
+      <c r="D102" t="n">
+        <v>16.89999961853027</v>
+      </c>
+      <c r="E102" t="n">
+        <v>17.33333206176758</v>
+      </c>
+      <c r="F102" t="n">
+        <v>17.86783163573375</v>
+      </c>
+      <c r="G102" t="n">
+        <v>18.41283299871384</v>
+      </c>
+      <c r="H102" t="n">
+        <v>19.6162528805098</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" s="2" t="n">
+        <v>43388</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.4965730018129761</v>
+      </c>
+      <c r="N102" t="n">
+        <v>26</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>17.3786678314209</v>
+      </c>
+      <c r="C103" t="n">
+        <v>22.65999984741211</v>
+      </c>
+      <c r="D103" t="n">
+        <v>16.83933258056641</v>
+      </c>
+      <c r="E103" t="n">
+        <v>22.05999946594238</v>
+      </c>
+      <c r="F103" t="n">
+        <v>19.26522091246996</v>
+      </c>
+      <c r="G103" t="n">
+        <v>19.22331443587574</v>
+      </c>
+      <c r="H103" t="n">
+        <v>19.83841166100367</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" s="2" t="n">
+        <v>43395</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.4965730018129761</v>
+      </c>
+      <c r="N103" t="n">
+        <v>26</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>22.49799919128418</v>
+      </c>
+      <c r="C104" t="n">
+        <v>23.28000068664551</v>
+      </c>
+      <c r="D104" t="n">
+        <v>21.48399925231934</v>
+      </c>
+      <c r="E104" t="n">
+        <v>23.0939998626709</v>
+      </c>
+      <c r="F104" t="n">
+        <v>20.54148056253694</v>
+      </c>
+      <c r="G104" t="n">
+        <v>20.08346675294133</v>
+      </c>
+      <c r="H104" t="n">
+        <v>20.1343742247916</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" s="2" t="n">
+        <v>43402</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.4965730018129761</v>
+      </c>
+      <c r="N104" t="n">
+        <v>26</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="C105" t="n">
+        <v>23.83866691589355</v>
+      </c>
+      <c r="D105" t="n">
+        <v>22.00933265686035</v>
+      </c>
+      <c r="E105" t="n">
+        <v>23.36733245849609</v>
+      </c>
+      <c r="F105" t="n">
+        <v>19.26522091246996</v>
+      </c>
+      <c r="G105" t="n">
+        <v>19.22331443587574</v>
+      </c>
+      <c r="H105" t="n">
+        <v>19.83841166100367</v>
+      </c>
+      <c r="I105" t="n">
+        <v>23.83866691589355</v>
+      </c>
+      <c r="J105" t="n">
+        <v>23.19657376475243</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" s="2" t="n">
+        <v>43403</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.4965730018129761</v>
+      </c>
+      <c r="N105" t="n">
+        <v>26</v>
+      </c>
+      <c r="O105" t="n">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="P105" t="n">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>21.90733337402344</v>
+      </c>
+      <c r="C106" t="n">
+        <v>23.1473331451416</v>
+      </c>
+      <c r="D106" t="n">
+        <v>21.27133369445801</v>
+      </c>
+      <c r="E106" t="n">
+        <v>21.42333221435547</v>
+      </c>
+      <c r="F106" t="n">
+        <v>21.97738213230567</v>
+      </c>
+      <c r="G106" t="n">
+        <v>22.04073981542106</v>
+      </c>
+      <c r="H106" t="n">
+        <v>21.82173529091457</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" s="2" t="n">
+        <v>43171</v>
+      </c>
+      <c r="M106" t="n">
+        <v>2.254950850177011</v>
+      </c>
+      <c r="N106" t="n">
+        <v>27</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>21.10000038146973</v>
+      </c>
+      <c r="C107" t="n">
+        <v>21.49600028991699</v>
+      </c>
+      <c r="D107" t="n">
+        <v>20.03000068664551</v>
+      </c>
+      <c r="E107" t="n">
+        <v>20.1026668548584</v>
+      </c>
+      <c r="F107" t="n">
+        <v>21.35247703982325</v>
+      </c>
+      <c r="G107" t="n">
+        <v>21.61005693529603</v>
+      </c>
+      <c r="H107" t="n">
+        <v>21.66545634218219</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" s="2" t="n">
+        <v>43178</v>
+      </c>
+      <c r="M107" t="n">
+        <v>2.254950850177011</v>
+      </c>
+      <c r="N107" t="n">
+        <v>27</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>20.48933219909668</v>
+      </c>
+      <c r="C108" t="n">
+        <v>20.50600051879883</v>
+      </c>
+      <c r="D108" t="n">
+        <v>16.54733276367188</v>
+      </c>
+      <c r="E108" t="n">
+        <v>17.74200057983398</v>
+      </c>
+      <c r="F108" t="n">
+        <v>20.14898488649349</v>
+      </c>
+      <c r="G108" t="n">
+        <v>20.75048885630446</v>
+      </c>
+      <c r="H108" t="n">
+        <v>21.30877854560508</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" s="2" t="n">
+        <v>43185</v>
+      </c>
+      <c r="M108" t="n">
+        <v>2.254950850177011</v>
+      </c>
+      <c r="N108" t="n">
+        <v>27</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>17.08399963378906</v>
+      </c>
+      <c r="C109" t="n">
+        <v>20.61866760253906</v>
+      </c>
+      <c r="D109" t="n">
+        <v>16.30599975585938</v>
+      </c>
+      <c r="E109" t="n">
+        <v>19.95333290100098</v>
+      </c>
+      <c r="F109" t="n">
+        <v>21.35247703982325</v>
+      </c>
+      <c r="G109" t="n">
+        <v>21.61005693529603</v>
+      </c>
+      <c r="H109" t="n">
+        <v>21.66545634218219</v>
+      </c>
+      <c r="I109" t="n">
+        <v>20.61866760253906</v>
+      </c>
+      <c r="J109" t="n">
+        <v>19.33895048396607</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" s="2" t="n">
+        <v>43186</v>
+      </c>
+      <c r="M109" t="n">
+        <v>2.254950850177011</v>
+      </c>
+      <c r="N109" t="n">
+        <v>27</v>
+      </c>
+      <c r="O109" t="n">
+        <v>17.08399963378906</v>
+      </c>
+      <c r="P109" t="n">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>235.0233306884766</v>
+      </c>
+      <c r="C110" t="n">
+        <v>236.5</v>
+      </c>
+      <c r="D110" t="n">
+        <v>216.2799987792969</v>
+      </c>
+      <c r="E110" t="n">
+        <v>226.7533264160156</v>
+      </c>
+      <c r="F110" t="n">
+        <v>228.5051140166191</v>
+      </c>
+      <c r="G110" t="n">
+        <v>225.9225520998974</v>
+      </c>
+      <c r="H110" t="n">
+        <v>221.2305089788462</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" s="2" t="n">
+        <v>44424</v>
+      </c>
+      <c r="M110" t="n">
+        <v>4.37503636771271</v>
+      </c>
+      <c r="N110" t="n">
+        <v>28</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>228.4799957275391</v>
+      </c>
+      <c r="C111" t="n">
+        <v>238.9900054931641</v>
+      </c>
+      <c r="D111" t="n">
+        <v>226.9166717529297</v>
+      </c>
+      <c r="E111" t="n">
+        <v>237.3066711425781</v>
+      </c>
+      <c r="F111" t="n">
+        <v>231.4389663919388</v>
+      </c>
+      <c r="G111" t="n">
+        <v>228.4523563316042</v>
+      </c>
+      <c r="H111" t="n">
+        <v>222.6919782664582</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" s="2" t="n">
+        <v>44431</v>
+      </c>
+      <c r="M111" t="n">
+        <v>4.37503636771271</v>
+      </c>
+      <c r="N111" t="n">
+        <v>28</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>238.2400054931641</v>
+      </c>
+      <c r="C112" t="n">
+        <v>247.3300018310547</v>
+      </c>
+      <c r="D112" t="n">
+        <v>237.57666015625</v>
+      </c>
+      <c r="E112" t="n">
+        <v>244.5233306884766</v>
+      </c>
+      <c r="F112" t="n">
+        <v>235.8004211574514</v>
+      </c>
+      <c r="G112" t="n">
+        <v>232.0236839664647</v>
+      </c>
+      <c r="H112" t="n">
+        <v>224.6766466684599</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" s="2" t="n">
+        <v>44438</v>
+      </c>
+      <c r="M112" t="n">
+        <v>4.37503636771271</v>
+      </c>
+      <c r="N112" t="n">
+        <v>28</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>246.6666717529297</v>
+      </c>
+      <c r="C113" t="n">
+        <v>254.8166656494141</v>
+      </c>
+      <c r="D113" t="n">
+        <v>244.8399963378906</v>
+      </c>
+      <c r="E113" t="n">
+        <v>245.42333984375</v>
+      </c>
+      <c r="F113" t="n">
+        <v>231.4389663919388</v>
+      </c>
+      <c r="G113" t="n">
+        <v>228.4523563316042</v>
+      </c>
+      <c r="H113" t="n">
+        <v>222.6919782664582</v>
+      </c>
+      <c r="I113" t="n">
+        <v>254.8166656494141</v>
+      </c>
+      <c r="J113" t="n">
+        <v>251.0417081206424</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="M113" t="n">
+        <v>4.37503636771271</v>
+      </c>
+      <c r="N113" t="n">
+        <v>28</v>
+      </c>
+      <c r="O113" t="n">
+        <v>246.6666717529297</v>
+      </c>
+      <c r="P113" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>19.4466667175293</v>
+      </c>
+      <c r="C114" t="n">
+        <v>21.82133293151855</v>
+      </c>
+      <c r="D114" t="n">
+        <v>19.21333312988281</v>
+      </c>
+      <c r="E114" t="n">
+        <v>21.52133369445801</v>
+      </c>
+      <c r="F114" t="n">
+        <v>21.60721806140253</v>
+      </c>
+      <c r="G114" t="n">
+        <v>21.55623450388157</v>
+      </c>
+      <c r="H114" t="n">
+        <v>21.24150059373905</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" s="2" t="n">
+        <v>43332</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0.5663437928018311</v>
+      </c>
+      <c r="N114" t="n">
+        <v>29</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>21.20000076293945</v>
+      </c>
+      <c r="C115" t="n">
+        <v>21.49600028991699</v>
+      </c>
+      <c r="D115" t="n">
+        <v>19.84799957275391</v>
+      </c>
+      <c r="E115" t="n">
+        <v>20.11066627502441</v>
+      </c>
+      <c r="F115" t="n">
+        <v>21.10836746594316</v>
+      </c>
+      <c r="G115" t="n">
+        <v>21.23499711969109</v>
+      </c>
+      <c r="H115" t="n">
+        <v>21.1386974738559</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" s="2" t="n">
+        <v>43339</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0.5663437928018311</v>
+      </c>
+      <c r="N115" t="n">
+        <v>29</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>19.79599952697754</v>
+      </c>
+      <c r="C116" t="n">
+        <v>19.87933349609375</v>
+      </c>
+      <c r="D116" t="n">
+        <v>16.8166675567627</v>
+      </c>
+      <c r="E116" t="n">
+        <v>17.5493335723877</v>
+      </c>
+      <c r="F116" t="n">
+        <v>19.92202283475801</v>
+      </c>
+      <c r="G116" t="n">
+        <v>20.41596077584589</v>
+      </c>
+      <c r="H116" t="n">
+        <v>20.81239166463152</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" s="2" t="n">
+        <v>43346</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0.5663437928018311</v>
+      </c>
+      <c r="N116" t="n">
+        <v>29</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>18.21733283996582</v>
+      </c>
+      <c r="C117" t="n">
+        <v>19.82200050354004</v>
+      </c>
+      <c r="D117" t="n">
+        <v>18.0666675567627</v>
+      </c>
+      <c r="E117" t="n">
+        <v>19.68000030517578</v>
+      </c>
+      <c r="F117" t="n">
+        <v>21.10836746594316</v>
+      </c>
+      <c r="G117" t="n">
+        <v>21.23499711969109</v>
+      </c>
+      <c r="H117" t="n">
+        <v>21.1386974738559</v>
+      </c>
+      <c r="I117" t="n">
+        <v>19.82200050354004</v>
+      </c>
+      <c r="J117" t="n">
+        <v>18.78367663276765</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" s="2" t="n">
+        <v>43347</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0.5663437928018311</v>
+      </c>
+      <c r="N117" t="n">
+        <v>29</v>
+      </c>
+      <c r="O117" t="n">
+        <v>18.21733283996582</v>
+      </c>
+      <c r="P117" t="n">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>18.90133285522461</v>
+      </c>
+      <c r="C118" t="n">
+        <v>19.69266700744629</v>
+      </c>
+      <c r="D118" t="n">
+        <v>18.29333305358887</v>
+      </c>
+      <c r="E118" t="n">
+        <v>18.36199951171875</v>
+      </c>
+      <c r="F118" t="n">
+        <v>19.27004582155918</v>
+      </c>
+      <c r="G118" t="n">
+        <v>19.72069168379017</v>
+      </c>
+      <c r="H118" t="n">
+        <v>20.53718926504891</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" s="2" t="n">
+        <v>43535</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0.3877564339249844</v>
+      </c>
+      <c r="N118" t="n">
+        <v>30</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>18.39999961853027</v>
+      </c>
+      <c r="C119" t="n">
+        <v>18.53666687011719</v>
+      </c>
+      <c r="D119" t="n">
+        <v>17.56399917602539</v>
+      </c>
+      <c r="E119" t="n">
+        <v>17.63533210754395</v>
+      </c>
+      <c r="F119" t="n">
+        <v>18.72514125022077</v>
+      </c>
+      <c r="G119" t="n">
+        <v>19.25727844462434</v>
+      </c>
+      <c r="H119" t="n">
+        <v>20.2733840689121</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" s="2" t="n">
+        <v>43542</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0.3877564339249844</v>
+      </c>
+      <c r="N119" t="n">
+        <v>30</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>17.31399917602539</v>
+      </c>
+      <c r="C120" t="n">
+        <v>18.68866729736328</v>
+      </c>
+      <c r="D120" t="n">
+        <v>16.9640007019043</v>
+      </c>
+      <c r="E120" t="n">
+        <v>18.65733337402344</v>
+      </c>
+      <c r="F120" t="n">
+        <v>18.70253862482166</v>
+      </c>
+      <c r="G120" t="n">
+        <v>19.12395731782414</v>
+      </c>
+      <c r="H120" t="n">
+        <v>20.12647036937677</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" s="2" t="n">
+        <v>43549</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0.3877564339249844</v>
+      </c>
+      <c r="N120" t="n">
+        <v>30</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>18.84133338928223</v>
+      </c>
+      <c r="C121" t="n">
+        <v>19.74466705322266</v>
+      </c>
+      <c r="D121" t="n">
+        <v>17.37266731262207</v>
+      </c>
+      <c r="E121" t="n">
+        <v>18.33066749572754</v>
+      </c>
+      <c r="F121" t="n">
+        <v>18.72514125022077</v>
+      </c>
+      <c r="G121" t="n">
+        <v>19.25727844462434</v>
+      </c>
+      <c r="H121" t="n">
+        <v>20.2733840689121</v>
+      </c>
+      <c r="I121" t="n">
+        <v>19.74466705322266</v>
+      </c>
+      <c r="J121" t="n">
+        <v>19.22908982320721</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" s="2" t="n">
+        <v>43550</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0.3877564339249844</v>
+      </c>
+      <c r="N121" t="n">
+        <v>30</v>
+      </c>
+      <c r="O121" t="n">
+        <v>18.84133338928223</v>
+      </c>
+      <c r="P121" t="n">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>366.9966735839844</v>
+      </c>
+      <c r="C122" t="n">
+        <v>390.9466552734375</v>
+      </c>
+      <c r="D122" t="n">
+        <v>333.4033203125</v>
+      </c>
+      <c r="E122" t="n">
+        <v>338.3233337402344</v>
+      </c>
+      <c r="F122" t="n">
+        <v>350.5237619817116</v>
+      </c>
+      <c r="G122" t="n">
+        <v>340.2513203196186</v>
+      </c>
+      <c r="H122" t="n">
+        <v>297.8610230614735</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" s="2" t="n">
+        <v>44529</v>
+      </c>
+      <c r="M122" t="n">
+        <v>52.0999755859375</v>
+      </c>
+      <c r="N122" t="n">
+        <v>31</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>333.836669921875</v>
+      </c>
+      <c r="C123" t="n">
+        <v>357.4599914550781</v>
+      </c>
+      <c r="D123" t="n">
+        <v>316.8333435058594</v>
+      </c>
+      <c r="E123" t="n">
+        <v>339.010009765625</v>
+      </c>
+      <c r="F123" t="n">
+        <v>346.6858445763494</v>
+      </c>
+      <c r="G123" t="n">
+        <v>339.9754735298422</v>
+      </c>
+      <c r="H123" t="n">
+        <v>301.6018400345782</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" s="2" t="n">
+        <v>44536</v>
+      </c>
+      <c r="M123" t="n">
+        <v>52.0999755859375</v>
+      </c>
+      <c r="N123" t="n">
+        <v>31</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>333.6966552734375</v>
+      </c>
+      <c r="C124" t="n">
+        <v>335</v>
+      </c>
+      <c r="D124" t="n">
+        <v>303.0133361816406</v>
+      </c>
+      <c r="E124" t="n">
+        <v>310.8566589355469</v>
+      </c>
+      <c r="F124" t="n">
+        <v>334.7427826960819</v>
+      </c>
+      <c r="G124" t="n">
+        <v>333.504625842221</v>
+      </c>
+      <c r="H124" t="n">
+        <v>302.4431872073935</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" s="2" t="n">
+        <v>44543</v>
+      </c>
+      <c r="M124" t="n">
+        <v>52.0999755859375</v>
+      </c>
+      <c r="N124" t="n">
+        <v>31</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>303.5666809082031</v>
+      </c>
+      <c r="C125" t="n">
+        <v>357.6600036621094</v>
+      </c>
+      <c r="D125" t="n">
+        <v>295.3733215332031</v>
+      </c>
+      <c r="E125" t="n">
+        <v>355.6666564941406</v>
+      </c>
+      <c r="F125" t="n">
+        <v>346.6858445763494</v>
+      </c>
+      <c r="G125" t="n">
+        <v>339.9754735298422</v>
+      </c>
+      <c r="H125" t="n">
+        <v>301.6018400345782</v>
+      </c>
+      <c r="I125" t="n">
+        <v>357.6600036621094</v>
+      </c>
+      <c r="J125" t="n">
+        <v>370.7122232211441</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="M125" t="n">
+        <v>52.0999755859375</v>
+      </c>
+      <c r="N125" t="n">
+        <v>31</v>
+      </c>
+      <c r="O125" t="n">
+        <v>303.5666809082031</v>
+      </c>
+      <c r="P125" t="n">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>13.52000045776367</v>
+      </c>
+      <c r="C126" t="n">
+        <v>13.82666683197021</v>
+      </c>
+      <c r="D126" t="n">
+        <v>12.4146671295166</v>
+      </c>
+      <c r="E126" t="n">
+        <v>12.70866680145264</v>
+      </c>
+      <c r="F126" t="n">
+        <v>14.84888329105636</v>
+      </c>
+      <c r="G126" t="n">
+        <v>15.74752974627774</v>
+      </c>
+      <c r="H126" t="n">
+        <v>17.84077166220671</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" s="2" t="n">
+        <v>43605</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0.3113327026367188</v>
+      </c>
+      <c r="N126" t="n">
+        <v>32</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>12.74666690826416</v>
+      </c>
+      <c r="C127" t="n">
+        <v>13</v>
+      </c>
+      <c r="D127" t="n">
+        <v>12.2733325958252</v>
+      </c>
+      <c r="E127" t="n">
+        <v>12.3439998626709</v>
+      </c>
+      <c r="F127" t="n">
+        <v>14.01392214826121</v>
+      </c>
+      <c r="G127" t="n">
+        <v>14.99118977214289</v>
+      </c>
+      <c r="H127" t="n">
+        <v>17.34106513497618</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" s="2" t="n">
+        <v>43612</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0.3113327026367188</v>
+      </c>
+      <c r="N127" t="n">
+        <v>32</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>12.36733341217041</v>
+      </c>
+      <c r="C128" t="n">
+        <v>14.06666660308838</v>
+      </c>
+      <c r="D128" t="n">
+        <v>11.79933261871338</v>
+      </c>
+      <c r="E128" t="n">
+        <v>13.63333320617676</v>
+      </c>
+      <c r="F128" t="n">
+        <v>13.88705916756639</v>
+      </c>
+      <c r="G128" t="n">
+        <v>14.68944386859486</v>
+      </c>
+      <c r="H128" t="n">
+        <v>17.00399859599442</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" s="2" t="n">
+        <v>43619</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0.3113327026367188</v>
+      </c>
+      <c r="N128" t="n">
+        <v>32</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>14.01666736602783</v>
+      </c>
+      <c r="C129" t="n">
+        <v>14.89200019836426</v>
+      </c>
+      <c r="D129" t="n">
+        <v>13.83399963378906</v>
+      </c>
+      <c r="E129" t="n">
+        <v>14.32800006866455</v>
+      </c>
+      <c r="F129" t="n">
+        <v>14.01392214826121</v>
+      </c>
+      <c r="G129" t="n">
+        <v>14.99118977214289</v>
+      </c>
+      <c r="H129" t="n">
+        <v>17.34106513497618</v>
+      </c>
+      <c r="I129" t="n">
+        <v>14.89200019836426</v>
+      </c>
+      <c r="J129" t="n">
+        <v>16.52823236340653</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" s="2" t="n">
+        <v>43620</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0.3113327026367188</v>
+      </c>
+      <c r="N129" t="n">
+        <v>32</v>
+      </c>
+      <c r="O129" t="n">
+        <v>14.01666736602783</v>
+      </c>
+      <c r="P129" t="n">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>28.90666770935059</v>
+      </c>
+      <c r="C130" t="n">
+        <v>37.33333206176758</v>
+      </c>
+      <c r="D130" t="n">
+        <v>27.36666679382324</v>
+      </c>
+      <c r="E130" t="n">
+        <v>34.29066848754883</v>
+      </c>
+      <c r="F130" t="n">
+        <v>37.31495980707933</v>
+      </c>
+      <c r="G130" t="n">
+        <v>38.76874345678796</v>
+      </c>
+      <c r="H130" t="n">
+        <v>35.05236607339057</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" s="2" t="n">
+        <v>43913</v>
+      </c>
+      <c r="M130" t="n">
+        <v>10.27573748031784</v>
+      </c>
+      <c r="N130" t="n">
+        <v>33</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>34.017333984375</v>
+      </c>
+      <c r="C131" t="n">
+        <v>36.19733428955078</v>
+      </c>
+      <c r="D131" t="n">
+        <v>29.76000022888184</v>
+      </c>
+      <c r="E131" t="n">
+        <v>32.00066757202148</v>
+      </c>
+      <c r="F131" t="n">
+        <v>35.54352906206005</v>
+      </c>
+      <c r="G131" t="n">
+        <v>37.26472659350652</v>
+      </c>
+      <c r="H131" t="n">
+        <v>34.77493893690247</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" s="2" t="n">
+        <v>43920</v>
+      </c>
+      <c r="M131" t="n">
+        <v>10.27573748031784</v>
+      </c>
+      <c r="N131" t="n">
+        <v>33</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>34.08000183105469</v>
+      </c>
+      <c r="C132" t="n">
+        <v>38.34533309936523</v>
+      </c>
+      <c r="D132" t="n">
+        <v>33.19733428955078</v>
+      </c>
+      <c r="E132" t="n">
+        <v>38.20000076293945</v>
+      </c>
+      <c r="F132" t="n">
+        <v>36.42901962901986</v>
+      </c>
+      <c r="G132" t="n">
+        <v>37.47256529782495</v>
+      </c>
+      <c r="H132" t="n">
+        <v>35.08630819381492</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" s="2" t="n">
+        <v>43927</v>
+      </c>
+      <c r="M132" t="n">
+        <v>10.27573748031784</v>
+      </c>
+      <c r="N132" t="n">
+        <v>33</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>39.34400177001953</v>
+      </c>
+      <c r="C133" t="n">
+        <v>51.66333389282227</v>
+      </c>
+      <c r="D133" t="n">
+        <v>38.70199966430664</v>
+      </c>
+      <c r="E133" t="n">
+        <v>50.25933456420898</v>
+      </c>
+      <c r="F133" t="n">
+        <v>35.54352906206005</v>
+      </c>
+      <c r="G133" t="n">
+        <v>37.26472659350652</v>
+      </c>
+      <c r="H133" t="n">
+        <v>34.77493893690247</v>
+      </c>
+      <c r="I133" t="n">
+        <v>51.66333389282227</v>
+      </c>
+      <c r="J133" t="n">
+        <v>49.61973925033737</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" s="2" t="n">
+        <v>43928</v>
+      </c>
+      <c r="M133" t="n">
+        <v>10.27573748031784</v>
+      </c>
+      <c r="N133" t="n">
+        <v>33</v>
+      </c>
+      <c r="O133" t="n">
+        <v>39.34400177001953</v>
+      </c>
+      <c r="P133" t="n">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>23.75600051879883</v>
+      </c>
+      <c r="C134" t="n">
+        <v>24.45000076293945</v>
+      </c>
+      <c r="D134" t="n">
+        <v>21.70333290100098</v>
+      </c>
+      <c r="E134" t="n">
+        <v>21.72200012207031</v>
+      </c>
+      <c r="F134" t="n">
+        <v>22.0378953502352</v>
+      </c>
+      <c r="G134" t="n">
+        <v>21.50040559185058</v>
+      </c>
+      <c r="H134" t="n">
+        <v>20.80972411783727</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" s="2" t="n">
+        <v>43423</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0.7521325022580854</v>
+      </c>
+      <c r="N134" t="n">
+        <v>34</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>21.66666793823242</v>
+      </c>
+      <c r="C135" t="n">
+        <v>23.44000053405762</v>
+      </c>
+      <c r="D135" t="n">
+        <v>21.66666793823242</v>
+      </c>
+      <c r="E135" t="n">
+        <v>23.36533355712891</v>
+      </c>
+      <c r="F135" t="n">
+        <v>22.4803747525331</v>
+      </c>
+      <c r="G135" t="n">
+        <v>21.9148340285791</v>
+      </c>
+      <c r="H135" t="n">
+        <v>21.04205224868196</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" s="2" t="n">
+        <v>43430</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0.7521325022580854</v>
+      </c>
+      <c r="N135" t="n">
+        <v>34</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>24</v>
+      </c>
+      <c r="C136" t="n">
+        <v>25.2993335723877</v>
+      </c>
+      <c r="D136" t="n">
+        <v>23.38400077819824</v>
+      </c>
+      <c r="E136" t="n">
+        <v>23.86466789245605</v>
+      </c>
+      <c r="F136" t="n">
+        <v>22.94180579917409</v>
+      </c>
+      <c r="G136" t="n">
+        <v>22.34813044277398</v>
+      </c>
+      <c r="H136" t="n">
+        <v>21.29865367084324</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" s="2" t="n">
+        <v>43437</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0.7521325022580854</v>
+      </c>
+      <c r="N136" t="n">
+        <v>34</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>24</v>
+      </c>
+      <c r="C137" t="n">
+        <v>25.19133377075195</v>
+      </c>
+      <c r="D137" t="n">
+        <v>23.54133224487305</v>
+      </c>
+      <c r="E137" t="n">
+        <v>24.38066673278809</v>
+      </c>
+      <c r="F137" t="n">
+        <v>22.4803747525331</v>
+      </c>
+      <c r="G137" t="n">
+        <v>21.9148340285791</v>
+      </c>
+      <c r="H137" t="n">
+        <v>21.04205224868196</v>
+      </c>
+      <c r="I137" t="n">
+        <v>25.19133377075195</v>
+      </c>
+      <c r="J137" t="n">
+        <v>24.75213250225809</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" s="2" t="n">
+        <v>43438</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0.7521325022580854</v>
+      </c>
+      <c r="N137" t="n">
+        <v>34</v>
+      </c>
+      <c r="O137" t="n">
+        <v>24</v>
+      </c>
+      <c r="P137" t="n">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>22.43933296203613</v>
+      </c>
+      <c r="C138" t="n">
+        <v>24.34733390808105</v>
+      </c>
+      <c r="D138" t="n">
+        <v>22.33866691589355</v>
+      </c>
+      <c r="E138" t="n">
+        <v>23.89266777038574</v>
+      </c>
+      <c r="F138" t="n">
+        <v>22.60055801845315</v>
+      </c>
+      <c r="G138" t="n">
+        <v>21.81068513190577</v>
+      </c>
+      <c r="H138" t="n">
+        <v>19.47076723592416</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" s="2" t="n">
+        <v>43808</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0.654580346741934</v>
+      </c>
+      <c r="N138" t="n">
+        <v>35</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>24.17000007629395</v>
+      </c>
+      <c r="C139" t="n">
+        <v>27.53333282470703</v>
+      </c>
+      <c r="D139" t="n">
+        <v>24.16666793823242</v>
+      </c>
+      <c r="E139" t="n">
+        <v>27.03933334350586</v>
+      </c>
+      <c r="F139" t="n">
+        <v>24.08014979347072</v>
+      </c>
+      <c r="G139" t="n">
+        <v>22.97260695670579</v>
+      </c>
+      <c r="H139" t="n">
+        <v>20.15881870024977</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" s="2" t="n">
+        <v>43815</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0.654580346741934</v>
+      </c>
+      <c r="N139" t="n">
+        <v>35</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>27.45199966430664</v>
+      </c>
+      <c r="C140" t="n">
+        <v>29.02066612243652</v>
+      </c>
+      <c r="D140" t="n">
+        <v>27.33333206176758</v>
+      </c>
+      <c r="E140" t="n">
+        <v>28.6919994354248</v>
+      </c>
+      <c r="F140" t="n">
+        <v>25.61743300745542</v>
+      </c>
+      <c r="G140" t="n">
+        <v>24.24358306308779</v>
+      </c>
+      <c r="H140" t="n">
+        <v>20.9345624034475</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" s="2" t="n">
+        <v>43822</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0.654580346741934</v>
+      </c>
+      <c r="N140" t="n">
+        <v>35</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>28.58600044250488</v>
+      </c>
+      <c r="C141" t="n">
+        <v>30.26666641235352</v>
+      </c>
+      <c r="D141" t="n">
+        <v>26.80533218383789</v>
+      </c>
+      <c r="E141" t="n">
+        <v>29.53400039672852</v>
+      </c>
+      <c r="F141" t="n">
+        <v>24.08014979347072</v>
+      </c>
+      <c r="G141" t="n">
+        <v>22.97260695670579</v>
+      </c>
+      <c r="H141" t="n">
+        <v>20.15881870024977</v>
+      </c>
+      <c r="I141" t="n">
+        <v>30.26666641235352</v>
+      </c>
+      <c r="J141" t="n">
+        <v>29.24058078924682</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" s="2" t="n">
+        <v>43823</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0.654580346741934</v>
+      </c>
+      <c r="N141" t="n">
+        <v>35</v>
+      </c>
+      <c r="O141" t="n">
+        <v>28.58600044250488</v>
+      </c>
+      <c r="P141" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>189.4400024414062</v>
+      </c>
+      <c r="C142" t="n">
+        <v>191.2700042724609</v>
+      </c>
+      <c r="D142" t="n">
+        <v>169.0599975585938</v>
+      </c>
+      <c r="E142" t="n">
+        <v>179.0500030517578</v>
+      </c>
+      <c r="F142" t="n">
+        <v>190.2061243233939</v>
+      </c>
+      <c r="G142" t="n">
+        <v>199.3977765085624</v>
+      </c>
+      <c r="H142" t="n">
+        <v>228.8085224791685</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" s="2" t="n">
+        <v>44900</v>
+      </c>
+      <c r="M142" t="n">
+        <v>5.680000305175781</v>
+      </c>
+      <c r="N142" t="n">
+        <v>36</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>176.1000061035156</v>
+      </c>
+      <c r="C143" t="n">
+        <v>177.3699951171875</v>
+      </c>
+      <c r="D143" t="n">
+        <v>150.0399932861328</v>
+      </c>
+      <c r="E143" t="n">
+        <v>150.2299957275391</v>
+      </c>
+      <c r="F143" t="n">
+        <v>176.8807481247756</v>
+      </c>
+      <c r="G143" t="n">
+        <v>188.4716030016683</v>
+      </c>
+      <c r="H143" t="n">
+        <v>221.6650200472022</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" s="2" t="n">
+        <v>44907</v>
+      </c>
+      <c r="M143" t="n">
+        <v>5.680000305175781</v>
+      </c>
+      <c r="N143" t="n">
+        <v>36</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>154</v>
+      </c>
+      <c r="C144" t="n">
+        <v>155.25</v>
+      </c>
+      <c r="D144" t="n">
+        <v>121.0199966430664</v>
+      </c>
+      <c r="E144" t="n">
+        <v>123.1500015258789</v>
+      </c>
+      <c r="F144" t="n">
+        <v>158.9704992584767</v>
+      </c>
+      <c r="G144" t="n">
+        <v>173.955691562604</v>
+      </c>
+      <c r="H144" t="n">
+        <v>212.7091092725364</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" s="2" t="n">
+        <v>44914</v>
+      </c>
+      <c r="M144" t="n">
+        <v>5.680000305175781</v>
+      </c>
+      <c r="N144" t="n">
+        <v>36</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="C145" t="n">
+        <v>124.4800033569336</v>
+      </c>
+      <c r="D145" t="n">
+        <v>108.2399978637695</v>
+      </c>
+      <c r="E145" t="n">
+        <v>123.1800003051758</v>
+      </c>
+      <c r="F145" t="n">
+        <v>176.8807481247756</v>
+      </c>
+      <c r="G145" t="n">
+        <v>188.4716030016683</v>
+      </c>
+      <c r="H145" t="n">
+        <v>221.6650200472022</v>
+      </c>
+      <c r="I145" t="n">
+        <v>124.4800033569336</v>
+      </c>
+      <c r="J145" t="n">
+        <v>174.9360846312381</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" s="2" t="n">
+        <v>44915</v>
+      </c>
+      <c r="M145" t="n">
+        <v>5.680000305175781</v>
+      </c>
+      <c r="N145" t="n">
+        <v>36</v>
+      </c>
+      <c r="O145" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="P145" t="n">
+        <v>483</v>
       </c>
     </row>
   </sheetData>

--- a/Excel reports/Performance_report.xlsx
+++ b/Excel reports/Performance_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P61"/>
+  <dimension ref="A1:P76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,25 +519,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>29.32999992370605</v>
+        <v>125.6999969482422</v>
       </c>
       <c r="C2" t="n">
-        <v>30.48999977111816</v>
+        <v>136.6799926757812</v>
       </c>
       <c r="D2" t="n">
-        <v>26.78000068664551</v>
+        <v>124.3099975585938</v>
       </c>
       <c r="E2" t="n">
-        <v>28.15999984741211</v>
+        <v>133.4199981689453</v>
       </c>
       <c r="F2" t="n">
-        <v>28.54441552141674</v>
+        <v>131.9904683865124</v>
       </c>
       <c r="G2" t="n">
-        <v>28.47492813606966</v>
+        <v>142.5416815361243</v>
       </c>
       <c r="H2" t="n">
-        <v>29.74124275865368</v>
+        <v>184.4357017787974</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -550,13 +550,13 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.1381</v>
+        <v>0.1241</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>44949</v>
+        <v>44942</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.2600002288818359</v>
+        <v>9.500978264084551</v>
       </c>
       <c r="N2" t="n">
         <v>1</v>
@@ -577,25 +577,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27.71999931335449</v>
+        <v>135.8699951171875</v>
       </c>
       <c r="C3" t="n">
-        <v>31.17000007629395</v>
+        <v>180.6799926757812</v>
       </c>
       <c r="D3" t="n">
-        <v>27.53000068664551</v>
+        <v>134.2700042724609</v>
       </c>
       <c r="E3" t="n">
-        <v>30.31999969482422</v>
+        <v>177.8999938964844</v>
       </c>
       <c r="F3" t="n">
-        <v>29.13627691255257</v>
+        <v>147.2936435565031</v>
       </c>
       <c r="G3" t="n">
-        <v>28.88494403801512</v>
+        <v>150.399084282871</v>
       </c>
       <c r="H3" t="n">
-        <v>29.79385702557827</v>
+        <v>183.8415465167689</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -608,13 +608,13 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0.14</v>
+        <v>0.1436</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>44956</v>
+        <v>44949</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.2600002288818359</v>
+        <v>9.500978264084551</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
@@ -635,25 +635,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29.54999923706055</v>
+        <v>178.0500030517578</v>
       </c>
       <c r="C4" t="n">
-        <v>29.64999961853027</v>
+        <v>199</v>
       </c>
       <c r="D4" t="n">
-        <v>27.34000015258789</v>
+        <v>162.7799987792969</v>
       </c>
       <c r="E4" t="n">
-        <v>27.79999923706055</v>
+        <v>189.9799957275391</v>
       </c>
       <c r="F4" t="n">
-        <v>28.6908510207219</v>
+        <v>161.5224276135151</v>
       </c>
       <c r="G4" t="n">
-        <v>28.64384519335854</v>
+        <v>159.1948423816861</v>
       </c>
       <c r="H4" t="n">
-        <v>29.61259722662211</v>
+        <v>184.3995873541116</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -666,13 +666,13 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>0.1399</v>
+        <v>0.1497</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>44963</v>
+        <v>44956</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.2600002288818359</v>
+        <v>9.500978264084551</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
@@ -693,49 +693,57 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27.8700008392334</v>
+        <v>193.0099945068359</v>
       </c>
       <c r="C5" t="n">
-        <v>28.8799991607666</v>
+        <v>214</v>
       </c>
       <c r="D5" t="n">
-        <v>27.3799991607666</v>
+        <v>189.5500030517578</v>
       </c>
       <c r="E5" t="n">
-        <v>27.61000061035156</v>
+        <v>196.8899993896484</v>
       </c>
       <c r="F5" t="n">
-        <v>29.13627691255257</v>
+        <v>173.3116182055595</v>
       </c>
       <c r="G5" t="n">
-        <v>28.88494403801512</v>
+        <v>167.5715439390111</v>
       </c>
       <c r="H5" t="n">
-        <v>29.79385702557827</v>
-      </c>
-      <c r="I5" t="n">
-        <v>28.8799991607666</v>
-      </c>
-      <c r="J5" t="n">
-        <v>29.56709895328277</v>
+        <v>185.5350793573423</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.135</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>44964</v>
+        <v>44963</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.2600002288818359</v>
+        <v>9.500978264084551</v>
       </c>
       <c r="N5" t="n">
         <v>1</v>
       </c>
-      <c r="O5" t="n">
-        <v>27.8700008392334</v>
-      </c>
-      <c r="P5" t="n">
-        <v>-93</v>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -743,57 +751,49 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41.68999862670898</v>
+        <v>194.4199981689453</v>
       </c>
       <c r="C6" t="n">
-        <v>44.54999923706055</v>
+        <v>217.6499938964844</v>
       </c>
       <c r="D6" t="n">
-        <v>41.09999847412109</v>
+        <v>187.6100006103516</v>
       </c>
       <c r="E6" t="n">
-        <v>44.54999923706055</v>
+        <v>208.3099975585938</v>
       </c>
       <c r="F6" t="n">
-        <v>44.0020674584467</v>
+        <v>147.2936435565031</v>
       </c>
       <c r="G6" t="n">
-        <v>44.62853019147729</v>
+        <v>150.399084282871</v>
       </c>
       <c r="H6" t="n">
-        <v>46.80976210715899</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
+        <v>183.8415465167689</v>
+      </c>
+      <c r="I6" t="n">
+        <v>217.6499938964844</v>
+      </c>
+      <c r="J6" t="n">
+        <v>203.9209764330299</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0936</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>44704</v>
+        <v>44964</v>
       </c>
       <c r="M6" t="n">
-        <v>-1.579998016357422</v>
+        <v>9.500978264084551</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>194.4199981689453</v>
+      </c>
+      <c r="P6" t="n">
+        <v>485</v>
       </c>
     </row>
     <row r="7">
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>44.25</v>
+        <v>218.3399963378906</v>
       </c>
       <c r="C7" t="n">
-        <v>44.93000030517578</v>
+        <v>253.2666625976562</v>
       </c>
       <c r="D7" t="n">
-        <v>43.34000015258789</v>
+        <v>206.8566741943359</v>
       </c>
       <c r="E7" t="n">
-        <v>43.38999938964844</v>
+        <v>253.2100067138672</v>
       </c>
       <c r="F7" t="n">
-        <v>43.79804476884728</v>
+        <v>262.7713010615848</v>
       </c>
       <c r="G7" t="n">
-        <v>44.35330112440421</v>
+        <v>275.340759994749</v>
       </c>
       <c r="H7" t="n">
-        <v>46.4988745873853</v>
+        <v>293.8544618316826</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -832,13 +832,13 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0.1352</v>
+        <v>0.1228</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>44711</v>
+        <v>44704</v>
       </c>
       <c r="M7" t="n">
-        <v>-1.579998016357422</v>
+        <v>21.10333251953125</v>
       </c>
       <c r="N7" t="n">
         <v>2</v>
@@ -859,25 +859,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>43.81000137329102</v>
+        <v>257.9466552734375</v>
       </c>
       <c r="C8" t="n">
-        <v>44.04000091552734</v>
+        <v>264.2099914550781</v>
       </c>
       <c r="D8" t="n">
-        <v>39.18000030517578</v>
+        <v>233.4166717529297</v>
       </c>
       <c r="E8" t="n">
-        <v>39.18000030517578</v>
+        <v>234.5166625976562</v>
       </c>
       <c r="F8" t="n">
-        <v>42.25869661429012</v>
+        <v>253.3530882402753</v>
       </c>
       <c r="G8" t="n">
-        <v>43.20367872013123</v>
+        <v>266.2687383509506</v>
       </c>
       <c r="H8" t="n">
-        <v>45.83352237991171</v>
+        <v>288.4601164467711</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -890,13 +890,13 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>-0.0115</v>
+        <v>0.1012</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>44718</v>
+        <v>44711</v>
       </c>
       <c r="M8" t="n">
-        <v>-1.579998016357422</v>
+        <v>21.10333251953125</v>
       </c>
       <c r="N8" t="n">
         <v>2</v>
@@ -917,49 +917,57 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>38.54999923706055</v>
+        <v>244.3533325195312</v>
       </c>
       <c r="C9" t="n">
-        <v>39.16999816894531</v>
+        <v>255.5466613769531</v>
       </c>
       <c r="D9" t="n">
-        <v>36.59999847412109</v>
+        <v>227.913330078125</v>
       </c>
       <c r="E9" t="n">
-        <v>36.97000122070312</v>
+        <v>232.2299957275391</v>
       </c>
       <c r="F9" t="n">
-        <v>43.79804476884728</v>
+        <v>246.3120574026966</v>
       </c>
       <c r="G9" t="n">
-        <v>44.35330112440421</v>
+        <v>258.7045733235258</v>
       </c>
       <c r="H9" t="n">
-        <v>46.4988745873853</v>
-      </c>
-      <c r="I9" t="n">
-        <v>39.16999816894531</v>
-      </c>
-      <c r="J9" t="n">
-        <v>39.75712164580199</v>
+        <v>283.3482872904772</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.1387</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>44719</v>
+        <v>44718</v>
       </c>
       <c r="M9" t="n">
-        <v>-1.579998016357422</v>
+        <v>21.10333251953125</v>
       </c>
       <c r="N9" t="n">
         <v>2</v>
       </c>
-      <c r="O9" t="n">
-        <v>38.54999923706055</v>
-      </c>
-      <c r="P9" t="n">
-        <v>-409</v>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -967,25 +975,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>49.47999954223633</v>
+        <v>223.1666717529297</v>
       </c>
       <c r="C10" t="n">
-        <v>55</v>
+        <v>235.663330078125</v>
       </c>
       <c r="D10" t="n">
-        <v>49.18000030517578</v>
+        <v>208.6933288574219</v>
       </c>
       <c r="E10" t="n">
-        <v>50.59000015258789</v>
+        <v>216.7599945068359</v>
       </c>
       <c r="F10" t="n">
-        <v>49.9820940591903</v>
+        <v>236.461369770743</v>
       </c>
       <c r="G10" t="n">
-        <v>50.34478673581074</v>
+        <v>249.3835558087058</v>
       </c>
       <c r="H10" t="n">
-        <v>52.11418182662216</v>
+        <v>277.294806128328</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -998,16 +1006,16 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.1126</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>44536</v>
+        <v>44725</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1500015258789062</v>
+        <v>21.10333251953125</v>
       </c>
       <c r="N10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1025,57 +1033,49 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>50.84999847412109</v>
+        <v>224.6033325195312</v>
       </c>
       <c r="C11" t="n">
-        <v>51.40000152587891</v>
+        <v>246.8333282470703</v>
       </c>
       <c r="D11" t="n">
-        <v>49.31999969482422</v>
+        <v>224.3333282470703</v>
       </c>
       <c r="E11" t="n">
-        <v>50.61999893188477</v>
+        <v>245.7066650390625</v>
       </c>
       <c r="F11" t="n">
-        <v>50.19472901675513</v>
+        <v>253.3530882402753</v>
       </c>
       <c r="G11" t="n">
-        <v>50.40594500160497</v>
+        <v>266.2687383509506</v>
       </c>
       <c r="H11" t="n">
-        <v>51.97834701800967</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
+        <v>288.4601164467711</v>
+      </c>
+      <c r="I11" t="n">
+        <v>246.8333282470703</v>
+      </c>
+      <c r="J11" t="n">
+        <v>261.0280931377528</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>44543</v>
+        <v>44726</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1500015258789062</v>
+        <v>21.10333251953125</v>
       </c>
       <c r="N11" t="n">
-        <v>3</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>224.6033325195312</v>
+      </c>
+      <c r="P11" t="n">
+        <v>950</v>
       </c>
     </row>
     <row r="12">
@@ -1083,25 +1083,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>49.90999984741211</v>
+        <v>333.836669921875</v>
       </c>
       <c r="C12" t="n">
-        <v>51.72999954223633</v>
+        <v>357.4599914550781</v>
       </c>
       <c r="D12" t="n">
-        <v>48.95999908447266</v>
+        <v>316.8333435058594</v>
       </c>
       <c r="E12" t="n">
-        <v>51.31000137329102</v>
+        <v>339.010009765625</v>
       </c>
       <c r="F12" t="n">
-        <v>50.56648646893376</v>
+        <v>346.6858445763494</v>
       </c>
       <c r="G12" t="n">
-        <v>50.6068464175352</v>
+        <v>339.9754735298422</v>
       </c>
       <c r="H12" t="n">
-        <v>51.91758832303525</v>
+        <v>301.6018398489379</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1114,13 +1114,13 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>0.163</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>44550</v>
+        <v>44536</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1500015258789062</v>
+        <v>12.68214514118154</v>
       </c>
       <c r="N12" t="n">
         <v>3</v>
@@ -1141,49 +1141,57 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>51.34999847412109</v>
+        <v>333.6966552734375</v>
       </c>
       <c r="C13" t="n">
-        <v>52.15999984741211</v>
+        <v>335</v>
       </c>
       <c r="D13" t="n">
-        <v>51.29999923706055</v>
+        <v>303.0133361816406</v>
       </c>
       <c r="E13" t="n">
-        <v>51.5</v>
+        <v>310.8566589355469</v>
       </c>
       <c r="F13" t="n">
-        <v>50.19472901675513</v>
+        <v>334.7427826960819</v>
       </c>
       <c r="G13" t="n">
-        <v>50.40594500160497</v>
+        <v>333.504625842221</v>
       </c>
       <c r="H13" t="n">
-        <v>51.97834701800967</v>
-      </c>
-      <c r="I13" t="n">
-        <v>52.15999984741211</v>
-      </c>
-      <c r="J13" t="n">
-        <v>53.70153166350474</v>
+        <v>302.4431870386296</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>44551</v>
+        <v>44543</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1500015258789062</v>
+        <v>12.68214514118154</v>
       </c>
       <c r="N13" t="n">
         <v>3</v>
       </c>
-      <c r="O13" t="n">
-        <v>51.34999847412109</v>
-      </c>
-      <c r="P13" t="n">
-        <v>29</v>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1191,25 +1199,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>50.84999847412109</v>
+        <v>303.5666809082031</v>
       </c>
       <c r="C14" t="n">
-        <v>51.40000152587891</v>
+        <v>357.6600036621094</v>
       </c>
       <c r="D14" t="n">
-        <v>49.31999969482422</v>
+        <v>295.3733215332031</v>
       </c>
       <c r="E14" t="n">
-        <v>50.61999893188477</v>
+        <v>355.6666564941406</v>
       </c>
       <c r="F14" t="n">
-        <v>50.19472901675513</v>
+        <v>341.7174072954348</v>
       </c>
       <c r="G14" t="n">
-        <v>50.40594500160497</v>
+        <v>338.4295215426476</v>
       </c>
       <c r="H14" t="n">
-        <v>51.97834701800967</v>
+        <v>307.2816842618579</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1222,16 +1230,16 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.14745</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>44543</v>
+        <v>44550</v>
       </c>
       <c r="M14" t="n">
-        <v>2.608368164139847</v>
+        <v>12.68214514118154</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1249,25 +1257,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>49.90999984741211</v>
+        <v>357.8900146484375</v>
       </c>
       <c r="C15" t="n">
-        <v>51.72999954223633</v>
+        <v>373</v>
       </c>
       <c r="D15" t="n">
-        <v>48.95999908447266</v>
+        <v>351.0499877929688</v>
       </c>
       <c r="E15" t="n">
-        <v>51.31000137329102</v>
+        <v>352.260009765625</v>
       </c>
       <c r="F15" t="n">
-        <v>50.56648646893376</v>
+        <v>345.2316081188316</v>
       </c>
       <c r="G15" t="n">
-        <v>50.6068464175352</v>
+        <v>341.5029633699759</v>
       </c>
       <c r="H15" t="n">
-        <v>51.91758832303525</v>
+        <v>311.3706229440185</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1280,16 +1288,16 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>0.163</v>
+        <v>0.1186</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>44550</v>
+        <v>44557</v>
       </c>
       <c r="M15" t="n">
-        <v>2.608368164139847</v>
+        <v>12.68214514118154</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1307,57 +1315,49 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>51.34999847412109</v>
+        <v>382.5833435058594</v>
       </c>
       <c r="C16" t="n">
-        <v>52.15999984741211</v>
+        <v>402.6666564941406</v>
       </c>
       <c r="D16" t="n">
-        <v>51.29999923706055</v>
+        <v>336.6666564941406</v>
       </c>
       <c r="E16" t="n">
-        <v>51.5</v>
+        <v>342.3200073242188</v>
       </c>
       <c r="F16" t="n">
-        <v>50.87765764595584</v>
+        <v>334.7427826960819</v>
       </c>
       <c r="G16" t="n">
-        <v>50.80532499141627</v>
+        <v>333.504625842221</v>
       </c>
       <c r="H16" t="n">
-        <v>51.87962574821385</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
+        <v>302.4431870386296</v>
+      </c>
+      <c r="I16" t="n">
+        <v>402.6666564941406</v>
+      </c>
+      <c r="J16" t="n">
+        <v>395.2654886470409</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1973</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>44557</v>
+        <v>44558</v>
       </c>
       <c r="M16" t="n">
-        <v>2.608368164139847</v>
+        <v>12.68214514118154</v>
       </c>
       <c r="N16" t="n">
-        <v>4</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="O16" t="n">
+        <v>382.5833435058594</v>
+      </c>
+      <c r="P16" t="n">
+        <v>330</v>
       </c>
     </row>
     <row r="17">
@@ -1365,49 +1365,57 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>51.65000152587891</v>
+        <v>357.8900146484375</v>
       </c>
       <c r="C17" t="n">
-        <v>56.16999816894531</v>
+        <v>373</v>
       </c>
       <c r="D17" t="n">
-        <v>51.59999847412109</v>
+        <v>351.0499877929688</v>
       </c>
       <c r="E17" t="n">
-        <v>53.43999862670898</v>
+        <v>352.260009765625</v>
       </c>
       <c r="F17" t="n">
-        <v>50.56648646893376</v>
+        <v>345.2316081188316</v>
       </c>
       <c r="G17" t="n">
-        <v>50.6068464175352</v>
+        <v>341.5029633699759</v>
       </c>
       <c r="H17" t="n">
-        <v>51.91758832303525</v>
-      </c>
-      <c r="I17" t="n">
-        <v>56.16999816894531</v>
-      </c>
-      <c r="J17" t="n">
-        <v>54.25836969001875</v>
+        <v>311.3706229440185</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>0.1186</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>44558</v>
+        <v>44557</v>
       </c>
       <c r="M17" t="n">
-        <v>2.608368164139847</v>
+        <v>-19.47000122070312</v>
       </c>
       <c r="N17" t="n">
         <v>4</v>
       </c>
-      <c r="O17" t="n">
-        <v>51.65000152587891</v>
-      </c>
-      <c r="P17" t="n">
-        <v>506</v>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1415,25 +1423,25 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>51.02999877929688</v>
+        <v>382.5833435058594</v>
       </c>
       <c r="C18" t="n">
-        <v>51.13999938964844</v>
+        <v>402.6666564941406</v>
       </c>
       <c r="D18" t="n">
-        <v>46.97000122070312</v>
+        <v>336.6666564941406</v>
       </c>
       <c r="E18" t="n">
-        <v>47.72999954223633</v>
+        <v>342.3200073242188</v>
       </c>
       <c r="F18" t="n">
-        <v>53.65588786646375</v>
+        <v>344.2610745206273</v>
       </c>
       <c r="G18" t="n">
-        <v>55.43026538293844</v>
+        <v>341.684528693141</v>
       </c>
       <c r="H18" t="n">
-        <v>57.36414331341503</v>
+        <v>314.1842033422186</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1446,16 +1454,16 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.1091</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>44039</v>
+        <v>44564</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1699981689453125</v>
+        <v>-19.47000122070312</v>
       </c>
       <c r="N18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1473,25 +1481,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>48.27000045776367</v>
+        <v>333.3333435058594</v>
       </c>
       <c r="C19" t="n">
-        <v>49.72000122070312</v>
+        <v>371.8666687011719</v>
       </c>
       <c r="D19" t="n">
-        <v>47.70000076293945</v>
+        <v>326.6666564941406</v>
       </c>
       <c r="E19" t="n">
-        <v>48.02999877929688</v>
+        <v>349.8699951171875</v>
       </c>
       <c r="F19" t="n">
-        <v>51.78059150407479</v>
+        <v>346.1307147194807</v>
       </c>
       <c r="G19" t="n">
-        <v>53.78576169324031</v>
+        <v>343.503521231818</v>
       </c>
       <c r="H19" t="n">
-        <v>56.51558471940429</v>
+        <v>317.4283662308521</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1504,16 +1512,16 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.1062</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>44046</v>
+        <v>44571</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1699981689453125</v>
+        <v>-19.47000122070312</v>
       </c>
       <c r="N19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1531,25 +1539,25 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>48.20000076293945</v>
+        <v>342.2033386230469</v>
       </c>
       <c r="C20" t="n">
-        <v>49.72999954223633</v>
+        <v>356.9299926757812</v>
       </c>
       <c r="D20" t="n">
-        <v>48.06000137329102</v>
+        <v>313.5</v>
       </c>
       <c r="E20" t="n">
-        <v>48.88999938964844</v>
+        <v>314.6333312988281</v>
       </c>
       <c r="F20" t="n">
-        <v>50.81706079926602</v>
+        <v>335.6315869125965</v>
       </c>
       <c r="G20" t="n">
-        <v>52.69781451466434</v>
+        <v>337.0879234689314</v>
       </c>
       <c r="H20" t="n">
-        <v>55.82234968942649</v>
+        <v>317.1742721461227</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1562,16 +1570,16 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.1076</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>44053</v>
+        <v>44578</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1699981689453125</v>
+        <v>-19.47000122070312</v>
       </c>
       <c r="N20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1589,49 +1597,49 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>49.11000061035156</v>
+        <v>301.586669921875</v>
       </c>
       <c r="C21" t="n">
-        <v>50.20000076293945</v>
+        <v>329.2300109863281</v>
       </c>
       <c r="D21" t="n">
-        <v>48.25</v>
+        <v>264.0033264160156</v>
       </c>
       <c r="E21" t="n">
-        <v>49.27999877929688</v>
+        <v>282.1166687011719</v>
       </c>
       <c r="F21" t="n">
-        <v>51.78059150407479</v>
+        <v>344.2610745206273</v>
       </c>
       <c r="G21" t="n">
-        <v>53.78576169324031</v>
+        <v>341.684528693141</v>
       </c>
       <c r="H21" t="n">
-        <v>56.51558471940429</v>
+        <v>314.1842033422186</v>
       </c>
       <c r="I21" t="n">
-        <v>50.20000076293945</v>
+        <v>329.2300109863281</v>
       </c>
       <c r="J21" t="n">
-        <v>50.41815011518747</v>
+        <v>346.8498990229855</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>44054</v>
+        <v>44579</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1699981689453125</v>
+        <v>-19.47000122070312</v>
       </c>
       <c r="N21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O21" t="n">
-        <v>49.11000061035156</v>
+        <v>301.586669921875</v>
       </c>
       <c r="P21" t="n">
-        <v>35</v>
+        <v>-643</v>
       </c>
     </row>
     <row r="22">
@@ -1639,25 +1647,25 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>45.47999954223633</v>
+        <v>333.6966552734375</v>
       </c>
       <c r="C22" t="n">
-        <v>48.09999847412109</v>
+        <v>335</v>
       </c>
       <c r="D22" t="n">
-        <v>45.45000076293945</v>
+        <v>303.0133361816406</v>
       </c>
       <c r="E22" t="n">
-        <v>47.45000076293945</v>
+        <v>310.8566589355469</v>
       </c>
       <c r="F22" t="n">
-        <v>46.7299610737273</v>
+        <v>334.7427826960819</v>
       </c>
       <c r="G22" t="n">
-        <v>47.35634056936247</v>
+        <v>333.504625842221</v>
       </c>
       <c r="H22" t="n">
-        <v>50.02343251906073</v>
+        <v>302.4431870386296</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1673,13 +1681,13 @@
         <v>0</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>44158</v>
+        <v>44543</v>
       </c>
       <c r="M22" t="n">
-        <v>1.555709804503977</v>
+        <v>16.53665161132812</v>
       </c>
       <c r="N22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -1697,25 +1705,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>47.41999816894531</v>
+        <v>303.5666809082031</v>
       </c>
       <c r="C23" t="n">
-        <v>52.65000152587891</v>
+        <v>357.6600036621094</v>
       </c>
       <c r="D23" t="n">
-        <v>47.27000045776367</v>
+        <v>295.3733215332031</v>
       </c>
       <c r="E23" t="n">
-        <v>51.9900016784668</v>
+        <v>355.6666564941406</v>
       </c>
       <c r="F23" t="n">
-        <v>48.48330794197381</v>
+        <v>341.7174072954348</v>
       </c>
       <c r="G23" t="n">
-        <v>48.38604303805232</v>
+        <v>338.4295215426476</v>
       </c>
       <c r="H23" t="n">
-        <v>50.20221153355219</v>
+        <v>307.2816842618579</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1728,16 +1736,16 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>0.14745</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>44165</v>
+        <v>44550</v>
       </c>
       <c r="M23" t="n">
-        <v>1.555709804503977</v>
+        <v>16.53665161132812</v>
       </c>
       <c r="N23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -1755,25 +1763,25 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>51</v>
+        <v>357.8900146484375</v>
       </c>
       <c r="C24" t="n">
-        <v>51.29000091552734</v>
+        <v>373</v>
       </c>
       <c r="D24" t="n">
-        <v>49.11999893188477</v>
+        <v>351.0499877929688</v>
       </c>
       <c r="E24" t="n">
-        <v>49.72999954223633</v>
+        <v>352.260009765625</v>
       </c>
       <c r="F24" t="n">
-        <v>48.89887180872798</v>
+        <v>345.2316081188316</v>
       </c>
       <c r="G24" t="n">
-        <v>48.6847000389821</v>
+        <v>341.5029633699759</v>
       </c>
       <c r="H24" t="n">
-        <v>50.15928317070529</v>
+        <v>311.3706229440185</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1786,16 +1794,16 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.1186</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>44172</v>
+        <v>44557</v>
       </c>
       <c r="M24" t="n">
-        <v>1.555709804503977</v>
+        <v>16.53665161132812</v>
       </c>
       <c r="N24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -1813,49 +1821,57 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>49.81999969482422</v>
+        <v>382.5833435058594</v>
       </c>
       <c r="C25" t="n">
-        <v>51.45999908447266</v>
+        <v>402.6666564941406</v>
       </c>
       <c r="D25" t="n">
-        <v>47.11000061035156</v>
+        <v>336.6666564941406</v>
       </c>
       <c r="E25" t="n">
-        <v>47.45999908447266</v>
+        <v>342.3200073242188</v>
       </c>
       <c r="F25" t="n">
-        <v>48.48330794197381</v>
+        <v>344.2610745206273</v>
       </c>
       <c r="G25" t="n">
-        <v>48.38604303805232</v>
+        <v>341.684528693141</v>
       </c>
       <c r="H25" t="n">
-        <v>50.20221153355219</v>
-      </c>
-      <c r="I25" t="n">
-        <v>51.45999908447266</v>
-      </c>
-      <c r="J25" t="n">
-        <v>51.3757094993282</v>
+        <v>314.1842033422186</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>0.1091</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>44173</v>
+        <v>44564</v>
       </c>
       <c r="M25" t="n">
-        <v>1.555709804503977</v>
+        <v>16.53665161132812</v>
       </c>
       <c r="N25" t="n">
-        <v>6</v>
-      </c>
-      <c r="O25" t="n">
-        <v>49.81999969482422</v>
-      </c>
-      <c r="P25" t="n">
-        <v>313</v>
+        <v>5</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1863,57 +1879,49 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>63.61000061035156</v>
+        <v>333.3333435058594</v>
       </c>
       <c r="C26" t="n">
-        <v>66.29000091552734</v>
+        <v>371.8666687011719</v>
       </c>
       <c r="D26" t="n">
-        <v>62.47999954223633</v>
+        <v>326.6666564941406</v>
       </c>
       <c r="E26" t="n">
-        <v>63.7599983215332</v>
+        <v>349.8699951171875</v>
       </c>
       <c r="F26" t="n">
-        <v>61.97658364329705</v>
+        <v>341.7174072954348</v>
       </c>
       <c r="G26" t="n">
-        <v>60.58497395799651</v>
+        <v>338.4295215426476</v>
       </c>
       <c r="H26" t="n">
-        <v>56.52847005737458</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
+        <v>307.2816842618579</v>
+      </c>
+      <c r="I26" t="n">
+        <v>371.8666687011719</v>
+      </c>
+      <c r="J26" t="n">
+        <v>393.6343209609477</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>44270</v>
+        <v>44565</v>
       </c>
       <c r="M26" t="n">
-        <v>1.521303937223337</v>
+        <v>16.53665161132812</v>
       </c>
       <c r="N26" t="n">
-        <v>7</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="O26" t="n">
+        <v>333.3333435058594</v>
+      </c>
+      <c r="P26" t="n">
+        <v>496</v>
       </c>
     </row>
     <row r="27">
@@ -1921,25 +1929,25 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>64.81999969482422</v>
+        <v>95.66666412353516</v>
       </c>
       <c r="C27" t="n">
-        <v>67.44000244140625</v>
+        <v>104.3133316040039</v>
       </c>
       <c r="D27" t="n">
-        <v>60.97999954223633</v>
+        <v>94.19999694824219</v>
       </c>
       <c r="E27" t="n">
-        <v>64.87000274658203</v>
+        <v>95.38400268554688</v>
       </c>
       <c r="F27" t="n">
-        <v>62.94105667772538</v>
+        <v>91.20415984205748</v>
       </c>
       <c r="G27" t="n">
-        <v>61.53720257768219</v>
+        <v>85.02074534381603</v>
       </c>
       <c r="H27" t="n">
-        <v>57.28679121093889</v>
+        <v>66.93389357083917</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1955,13 +1963,13 @@
         <v>0</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>44277</v>
+        <v>44039</v>
       </c>
       <c r="M27" t="n">
-        <v>1.521303937223337</v>
+        <v>6.641366776813555</v>
       </c>
       <c r="N27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -1979,25 +1987,25 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>64.01000213623047</v>
+        <v>96.61333465576172</v>
       </c>
       <c r="C28" t="n">
-        <v>65.12999725341797</v>
+        <v>101.8273315429688</v>
       </c>
       <c r="D28" t="n">
-        <v>63.15000152587891</v>
+        <v>94.33399963378906</v>
       </c>
       <c r="E28" t="n">
-        <v>64.55000305175781</v>
+        <v>96.84733581542969</v>
       </c>
       <c r="F28" t="n">
-        <v>63.4773721357362</v>
+        <v>93.08521849984822</v>
       </c>
       <c r="G28" t="n">
-        <v>62.20671379414344</v>
+        <v>87.64887655973018</v>
       </c>
       <c r="H28" t="n">
-        <v>57.94708319646787</v>
+        <v>69.65329741125649</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -2013,13 +2021,13 @@
         <v>0</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>44284</v>
+        <v>44046</v>
       </c>
       <c r="M28" t="n">
-        <v>1.521303937223337</v>
+        <v>6.641366776813555</v>
       </c>
       <c r="N28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2037,49 +2045,57 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>64.94999694824219</v>
+        <v>96.53333282470703</v>
       </c>
       <c r="C29" t="n">
-        <v>68.40000152587891</v>
+        <v>111.2533340454102</v>
       </c>
       <c r="D29" t="n">
-        <v>64.69999694824219</v>
+        <v>91</v>
       </c>
       <c r="E29" t="n">
-        <v>68.26000213623047</v>
+        <v>110.0473327636719</v>
       </c>
       <c r="F29" t="n">
-        <v>62.94105667772538</v>
+        <v>98.73925658778944</v>
       </c>
       <c r="G29" t="n">
-        <v>61.53720257768219</v>
+        <v>92.62631127171723</v>
       </c>
       <c r="H29" t="n">
-        <v>57.28679121093889</v>
-      </c>
-      <c r="I29" t="n">
-        <v>68.40000152587891</v>
-      </c>
-      <c r="J29" t="n">
-        <v>66.47130088546552</v>
+        <v>73.32548244329425</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>44285</v>
+        <v>44053</v>
       </c>
       <c r="M29" t="n">
-        <v>1.521303937223337</v>
+        <v>6.641366776813555</v>
       </c>
       <c r="N29" t="n">
-        <v>7</v>
-      </c>
-      <c r="O29" t="n">
-        <v>64.94999694824219</v>
-      </c>
-      <c r="P29" t="n">
-        <v>234</v>
+        <v>6</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -2087,25 +2103,25 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>47.18999862670898</v>
+        <v>111.8000030517578</v>
       </c>
       <c r="C30" t="n">
-        <v>50.66999816894531</v>
+        <v>139.6993255615234</v>
       </c>
       <c r="D30" t="n">
-        <v>46.4900016784668</v>
+        <v>111.5220031738281</v>
       </c>
       <c r="E30" t="n">
-        <v>49.81999969482422</v>
+        <v>136.6653289794922</v>
       </c>
       <c r="F30" t="n">
-        <v>48.58633208259548</v>
+        <v>111.381280718357</v>
       </c>
       <c r="G30" t="n">
-        <v>48.49326740158924</v>
+        <v>102.4127596512228</v>
       </c>
       <c r="H30" t="n">
-        <v>49.67032532581288</v>
+        <v>79.08365031022133</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -2121,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>44193</v>
+        <v>44060</v>
       </c>
       <c r="M30" t="n">
-        <v>4.632528017278673</v>
+        <v>6.641366776813555</v>
       </c>
       <c r="N30" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2145,57 +2161,49 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>49.88999938964844</v>
+        <v>141.7519989013672</v>
       </c>
       <c r="C31" t="n">
-        <v>52.68999862670898</v>
+        <v>154.5659942626953</v>
       </c>
       <c r="D31" t="n">
-        <v>49.33000183105469</v>
+        <v>128.5013275146484</v>
       </c>
       <c r="E31" t="n">
-        <v>51.65000152587891</v>
+        <v>147.5599975585938</v>
       </c>
       <c r="F31" t="n">
-        <v>49.60755523035662</v>
+        <v>93.08521849984822</v>
       </c>
       <c r="G31" t="n">
-        <v>49.19476387365361</v>
+        <v>87.64887655973018</v>
       </c>
       <c r="H31" t="n">
-        <v>49.85029588945525</v>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
+        <v>69.65329741125649</v>
+      </c>
+      <c r="I31" t="n">
+        <v>154.5659942626953</v>
+      </c>
+      <c r="J31" t="n">
+        <v>148.3933656781807</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>44200</v>
+        <v>44061</v>
       </c>
       <c r="M31" t="n">
-        <v>4.632528017278673</v>
+        <v>6.641366776813555</v>
       </c>
       <c r="N31" t="n">
-        <v>8</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="O31" t="n">
+        <v>141.7519989013672</v>
+      </c>
+      <c r="P31" t="n">
+        <v>472</v>
       </c>
     </row>
     <row r="32">
@@ -2203,25 +2211,25 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>51.29000091552734</v>
+        <v>231.3633270263672</v>
       </c>
       <c r="C32" t="n">
-        <v>60.25</v>
+        <v>237.7266693115234</v>
       </c>
       <c r="D32" t="n">
-        <v>51.25</v>
+        <v>208.2066650390625</v>
       </c>
       <c r="E32" t="n">
-        <v>57.58000183105469</v>
+        <v>218.2899932861328</v>
       </c>
       <c r="F32" t="n">
-        <v>52.26503743058932</v>
+        <v>228.736565010349</v>
       </c>
       <c r="G32" t="n">
-        <v>51.05815008640941</v>
+        <v>234.1412163157561</v>
       </c>
       <c r="H32" t="n">
-        <v>50.55299642960065</v>
+        <v>218.209094875586</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -2237,13 +2245,13 @@
         <v>0</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>44207</v>
+        <v>44270</v>
       </c>
       <c r="M32" t="n">
-        <v>4.632528017278673</v>
+        <v>22.01654980087187</v>
       </c>
       <c r="N32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2261,49 +2269,57 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>57.93999862670898</v>
+        <v>228.1966705322266</v>
       </c>
       <c r="C33" t="n">
-        <v>63.95000076293945</v>
+        <v>233.2066650390625</v>
       </c>
       <c r="D33" t="n">
-        <v>56.65000152587891</v>
+        <v>199.9633331298828</v>
       </c>
       <c r="E33" t="n">
-        <v>56.65999984741211</v>
+        <v>206.2366638183594</v>
       </c>
       <c r="F33" t="n">
-        <v>49.60755523035662</v>
+        <v>221.2365979463524</v>
       </c>
       <c r="G33" t="n">
-        <v>49.19476387365361</v>
+        <v>227.9402046496679</v>
       </c>
       <c r="H33" t="n">
-        <v>49.85029588945525</v>
-      </c>
-      <c r="I33" t="n">
-        <v>63.95000076293945</v>
-      </c>
-      <c r="J33" t="n">
-        <v>62.57252664398766</v>
+        <v>217.1206920522017</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>44208</v>
+        <v>44277</v>
       </c>
       <c r="M33" t="n">
-        <v>4.632528017278673</v>
+        <v>22.01654980087187</v>
       </c>
       <c r="N33" t="n">
-        <v>8</v>
-      </c>
-      <c r="O33" t="n">
-        <v>57.93999862670898</v>
-      </c>
-      <c r="P33" t="n">
-        <v>801</v>
+        <v>7</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -2311,25 +2327,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>39.09999847412109</v>
+        <v>205.2133331298828</v>
       </c>
       <c r="C34" t="n">
-        <v>40.72999954223633</v>
+        <v>230.8066711425781</v>
       </c>
       <c r="D34" t="n">
-        <v>38.52999877929688</v>
+        <v>197.0033264160156</v>
       </c>
       <c r="E34" t="n">
-        <v>39.20000076293945</v>
+        <v>220.5833282470703</v>
       </c>
       <c r="F34" t="n">
-        <v>38.74117538586324</v>
+        <v>221.0188413799251</v>
       </c>
       <c r="G34" t="n">
-        <v>39.33535321049429</v>
+        <v>226.3053432268685</v>
       </c>
       <c r="H34" t="n">
-        <v>42.44775380440028</v>
+        <v>217.4354771608261</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -2342,16 +2358,16 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>0.2207</v>
+        <v>0</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>44760</v>
+        <v>44284</v>
       </c>
       <c r="M34" t="n">
-        <v>0.75</v>
+        <v>22.01654980087187</v>
       </c>
       <c r="N34" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2369,25 +2385,25 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>39.27999877929688</v>
+        <v>235.9033355712891</v>
       </c>
       <c r="C35" t="n">
-        <v>40.41999816894531</v>
+        <v>236.0533294677734</v>
       </c>
       <c r="D35" t="n">
-        <v>35.2400016784668</v>
+        <v>222.6133270263672</v>
       </c>
       <c r="E35" t="n">
-        <v>36.31000137329102</v>
+        <v>225.67333984375</v>
       </c>
       <c r="F35" t="n">
-        <v>37.93078404833917</v>
+        <v>222.5703408678668</v>
       </c>
       <c r="G35" t="n">
-        <v>38.6630528022269</v>
+        <v>226.1648980306199</v>
       </c>
       <c r="H35" t="n">
-        <v>41.88977631066307</v>
+        <v>218.1843737683647</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2400,16 +2416,16 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>0.1245</v>
+        <v>0</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>44767</v>
+        <v>44291</v>
       </c>
       <c r="M35" t="n">
-        <v>0.75</v>
+        <v>22.01654980087187</v>
       </c>
       <c r="N35" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2427,57 +2443,49 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>36.04999923706055</v>
+        <v>228.5666656494141</v>
       </c>
       <c r="C36" t="n">
-        <v>37.68999862670898</v>
+        <v>260.2633361816406</v>
       </c>
       <c r="D36" t="n">
-        <v>35.18000030517578</v>
+        <v>227.3633270263672</v>
       </c>
       <c r="E36" t="n">
-        <v>35.38999938964844</v>
+        <v>246.5933380126953</v>
       </c>
       <c r="F36" t="n">
-        <v>37.0838558287756</v>
+        <v>221.2365979463524</v>
       </c>
       <c r="G36" t="n">
-        <v>37.93570759943169</v>
+        <v>227.9402046496679</v>
       </c>
       <c r="H36" t="n">
-        <v>41.29888749966173</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
+        <v>217.1206920522017</v>
+      </c>
+      <c r="I36" t="n">
+        <v>260.2633361816406</v>
+      </c>
+      <c r="J36" t="n">
+        <v>250.5832154502859</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>44774</v>
+        <v>44292</v>
       </c>
       <c r="M36" t="n">
-        <v>0.75</v>
+        <v>22.01654980087187</v>
       </c>
       <c r="N36" t="n">
-        <v>9</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="O36" t="n">
+        <v>228.5666656494141</v>
+      </c>
+      <c r="P36" t="n">
+        <v>969</v>
       </c>
     </row>
     <row r="37">
@@ -2485,49 +2493,57 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>35.36000061035156</v>
+        <v>15.46733283996582</v>
       </c>
       <c r="C37" t="n">
-        <v>36.29000091552734</v>
+        <v>15.63333320617676</v>
       </c>
       <c r="D37" t="n">
-        <v>34.40000152587891</v>
+        <v>13.92800045013428</v>
       </c>
       <c r="E37" t="n">
-        <v>36.11000061035156</v>
+        <v>14.0686674118042</v>
       </c>
       <c r="F37" t="n">
-        <v>37.93078404833917</v>
+        <v>15.91857446832184</v>
       </c>
       <c r="G37" t="n">
-        <v>38.6630528022269</v>
+        <v>16.60761205901573</v>
       </c>
       <c r="H37" t="n">
-        <v>41.88977631066307</v>
-      </c>
-      <c r="I37" t="n">
-        <v>36.29000091552734</v>
-      </c>
-      <c r="J37" t="n">
-        <v>37.38485237412746</v>
+        <v>18.28862513160525</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>44775</v>
+        <v>43598</v>
       </c>
       <c r="M37" t="n">
-        <v>0.75</v>
+        <v>0.3113327026367188</v>
       </c>
       <c r="N37" t="n">
-        <v>9</v>
-      </c>
-      <c r="O37" t="n">
-        <v>35.36000061035156</v>
-      </c>
-      <c r="P37" t="n">
-        <v>212</v>
+        <v>8</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -2535,25 +2551,25 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>63.68000030517578</v>
+        <v>13.52000045776367</v>
       </c>
       <c r="C38" t="n">
-        <v>64.13999938964844</v>
+        <v>13.82666683197021</v>
       </c>
       <c r="D38" t="n">
-        <v>61.06999969482422</v>
+        <v>12.4146671295166</v>
       </c>
       <c r="E38" t="n">
-        <v>62.93000030517578</v>
+        <v>12.70866680145264</v>
       </c>
       <c r="F38" t="n">
-        <v>60.6991700194389</v>
+        <v>14.8486052460321</v>
       </c>
       <c r="G38" t="n">
-        <v>59.77479841996286</v>
+        <v>15.74117977955726</v>
       </c>
       <c r="H38" t="n">
-        <v>58.47021514567029</v>
+        <v>17.78135619250046</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2569,13 +2585,13 @@
         <v>0</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>43976</v>
+        <v>43605</v>
       </c>
       <c r="M38" t="n">
-        <v>0.2899971008300781</v>
+        <v>0.3113327026367188</v>
       </c>
       <c r="N38" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -2593,25 +2609,25 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>62.4900016784668</v>
+        <v>12.74666690826416</v>
       </c>
       <c r="C39" t="n">
-        <v>65.11000061035156</v>
+        <v>13</v>
       </c>
       <c r="D39" t="n">
-        <v>60.83000183105469</v>
+        <v>12.2733325958252</v>
       </c>
       <c r="E39" t="n">
-        <v>64.33999633789062</v>
+        <v>12.3439998626709</v>
       </c>
       <c r="F39" t="n">
-        <v>61.91277879225614</v>
+        <v>14.0137367849117</v>
       </c>
       <c r="G39" t="n">
-        <v>60.78928684616903</v>
+        <v>14.98625090913807</v>
       </c>
       <c r="H39" t="n">
-        <v>59.00383161769032</v>
+        <v>17.28705107160687</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2627,13 +2643,13 @@
         <v>0</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>43983</v>
+        <v>43612</v>
       </c>
       <c r="M39" t="n">
-        <v>0.2899971008300781</v>
+        <v>0.3113327026367188</v>
       </c>
       <c r="N39" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -2651,25 +2667,25 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>63.97000122070312</v>
+        <v>12.36733341217041</v>
       </c>
       <c r="C40" t="n">
-        <v>64.29000091552734</v>
+        <v>14.06666660308838</v>
       </c>
       <c r="D40" t="n">
-        <v>58.11999893188477</v>
+        <v>11.79933261871338</v>
       </c>
       <c r="E40" t="n">
-        <v>59.33000183105469</v>
+        <v>13.63333320617676</v>
       </c>
       <c r="F40" t="n">
-        <v>61.05185313852233</v>
+        <v>13.88693559200006</v>
       </c>
       <c r="G40" t="n">
-        <v>60.46500128725474</v>
+        <v>14.68560253070222</v>
       </c>
       <c r="H40" t="n">
-        <v>59.0334834552689</v>
+        <v>16.95489490202231</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2685,13 +2701,13 @@
         <v>0</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>43990</v>
+        <v>43619</v>
       </c>
       <c r="M40" t="n">
-        <v>0.2899971008300781</v>
+        <v>0.3113327026367188</v>
       </c>
       <c r="N40" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -2709,49 +2725,49 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>59.33000183105469</v>
+        <v>14.01666736602783</v>
       </c>
       <c r="C41" t="n">
-        <v>61.65000152587891</v>
+        <v>14.89200019836426</v>
       </c>
       <c r="D41" t="n">
-        <v>58.58000183105469</v>
+        <v>13.83399963378906</v>
       </c>
       <c r="E41" t="n">
-        <v>59.61999893188477</v>
+        <v>14.32800006866455</v>
       </c>
       <c r="F41" t="n">
-        <v>61.91277879225614</v>
+        <v>14.8486052460321</v>
       </c>
       <c r="G41" t="n">
-        <v>60.78928684616903</v>
+        <v>15.74117977955726</v>
       </c>
       <c r="H41" t="n">
-        <v>59.00383161769032</v>
+        <v>17.78135619250046</v>
       </c>
       <c r="I41" t="n">
-        <v>61.65000152587891</v>
+        <v>14.89200019836426</v>
       </c>
       <c r="J41" t="n">
-        <v>63.62806946600563</v>
+        <v>15.78194604416678</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>43991</v>
+        <v>43620</v>
       </c>
       <c r="M41" t="n">
-        <v>0.2899971008300781</v>
+        <v>0.3113327026367188</v>
       </c>
       <c r="N41" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O41" t="n">
-        <v>59.33000183105469</v>
+        <v>14.01666736602783</v>
       </c>
       <c r="P41" t="n">
-        <v>49</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42">
@@ -2759,25 +2775,25 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>49.88999938964844</v>
+        <v>40.35933303833008</v>
       </c>
       <c r="C42" t="n">
-        <v>52.68999862670898</v>
+        <v>44.53333282470703</v>
       </c>
       <c r="D42" t="n">
-        <v>49.33000183105469</v>
+        <v>33.46666717529297</v>
       </c>
       <c r="E42" t="n">
-        <v>51.65000152587891</v>
+        <v>36.44133377075195</v>
       </c>
       <c r="F42" t="n">
-        <v>49.60755523035662</v>
+        <v>43.98965779589778</v>
       </c>
       <c r="G42" t="n">
-        <v>49.19476387365361</v>
+        <v>43.34710546518744</v>
       </c>
       <c r="H42" t="n">
-        <v>49.85029588945525</v>
+        <v>35.7901043917103</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2793,13 +2809,13 @@
         <v>0</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>44200</v>
+        <v>43899</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.8700027465820312</v>
+        <v>1.666622414026278</v>
       </c>
       <c r="N42" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -2817,25 +2833,25 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>51.29000091552734</v>
+        <v>31.29999923706055</v>
       </c>
       <c r="C43" t="n">
-        <v>60.25</v>
+        <v>32.9913330078125</v>
       </c>
       <c r="D43" t="n">
-        <v>51.25</v>
+        <v>23.36733245849609</v>
       </c>
       <c r="E43" t="n">
-        <v>57.58000183105469</v>
+        <v>28.50200080871582</v>
       </c>
       <c r="F43" t="n">
-        <v>52.26503743058932</v>
+        <v>38.82710546683713</v>
       </c>
       <c r="G43" t="n">
-        <v>51.05815008640941</v>
+        <v>40.04819331930486</v>
       </c>
       <c r="H43" t="n">
-        <v>50.55299642960065</v>
+        <v>35.12754952052899</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2851,13 +2867,13 @@
         <v>0</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>44207</v>
+        <v>43906</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.8700027465820312</v>
+        <v>1.666622414026278</v>
       </c>
       <c r="N43" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -2875,25 +2891,25 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>57.93999862670898</v>
+        <v>28.90666770935059</v>
       </c>
       <c r="C44" t="n">
-        <v>63.95000076293945</v>
+        <v>37.33333206176758</v>
       </c>
       <c r="D44" t="n">
-        <v>56.65000152587891</v>
+        <v>27.36666679382324</v>
       </c>
       <c r="E44" t="n">
-        <v>56.65999984741211</v>
+        <v>34.29066848754883</v>
       </c>
       <c r="F44" t="n">
-        <v>53.73002490286359</v>
+        <v>37.31495980707437</v>
       </c>
       <c r="G44" t="n">
-        <v>52.30300558885445</v>
+        <v>38.76874335669241</v>
       </c>
       <c r="H44" t="n">
-        <v>51.1081785584926</v>
+        <v>35.0514694266217</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2909,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="L44" s="2" t="n">
-        <v>44214</v>
+        <v>43913</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.8700027465820312</v>
+        <v>1.666622414026278</v>
       </c>
       <c r="N44" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -2933,49 +2949,57 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>56.38000106811523</v>
+        <v>34.017333984375</v>
       </c>
       <c r="C45" t="n">
-        <v>57.40000152587891</v>
+        <v>36.19733428955078</v>
       </c>
       <c r="D45" t="n">
-        <v>53.29999923706055</v>
+        <v>29.76000022888184</v>
       </c>
       <c r="E45" t="n">
-        <v>55.5099983215332</v>
+        <v>32.00066757202148</v>
       </c>
       <c r="F45" t="n">
-        <v>52.26503743058932</v>
+        <v>35.54352906205674</v>
       </c>
       <c r="G45" t="n">
-        <v>51.05815008640941</v>
+        <v>37.26472651565443</v>
       </c>
       <c r="H45" t="n">
-        <v>50.55299642960065</v>
-      </c>
-      <c r="I45" t="n">
-        <v>57.40000152587891</v>
-      </c>
-      <c r="J45" t="n">
-        <v>63.16839985253927</v>
+        <v>34.77412380347622</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" s="2" t="n">
-        <v>44215</v>
+        <v>43920</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.8700027465820312</v>
+        <v>1.666622414026278</v>
       </c>
       <c r="N45" t="n">
-        <v>11</v>
-      </c>
-      <c r="O45" t="n">
-        <v>56.38000106811523</v>
-      </c>
-      <c r="P45" t="n">
-        <v>-154</v>
+        <v>9</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -2983,57 +3007,49 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>47.45999908447266</v>
+        <v>34.08000183105469</v>
       </c>
       <c r="C46" t="n">
-        <v>47.59999847412109</v>
+        <v>38.34533309936523</v>
       </c>
       <c r="D46" t="n">
-        <v>44.79999923706055</v>
+        <v>33.19733428955078</v>
       </c>
       <c r="E46" t="n">
-        <v>44.95999908447266</v>
+        <v>38.20000076293945</v>
       </c>
       <c r="F46" t="n">
-        <v>46.77842933679708</v>
+        <v>38.82710546683713</v>
       </c>
       <c r="G46" t="n">
-        <v>47.32273839505422</v>
+        <v>40.04819331930486</v>
       </c>
       <c r="H46" t="n">
-        <v>48.3487143734046</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
+        <v>35.12754952052899</v>
+      </c>
+      <c r="I46" t="n">
+        <v>38.34533309936523</v>
+      </c>
+      <c r="J46" t="n">
+        <v>35.74662424508097</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>43696</v>
+        <v>43921</v>
       </c>
       <c r="M46" t="n">
-        <v>1.042430143829733</v>
+        <v>1.666622414026278</v>
       </c>
       <c r="N46" t="n">
-        <v>12</v>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="O46" t="n">
+        <v>34.08000183105469</v>
+      </c>
+      <c r="P46" t="n">
+        <v>488</v>
       </c>
     </row>
     <row r="47">
@@ -3041,25 +3057,25 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>45.81999969482422</v>
+        <v>61.18600082397461</v>
       </c>
       <c r="C47" t="n">
-        <v>47.79000091552734</v>
+        <v>67.94667053222656</v>
       </c>
       <c r="D47" t="n">
-        <v>45.25</v>
+        <v>60.56666564941406</v>
       </c>
       <c r="E47" t="n">
-        <v>47.40999984741211</v>
+        <v>66.72666931152344</v>
       </c>
       <c r="F47" t="n">
-        <v>46.98895284033543</v>
+        <v>60.4749124882741</v>
       </c>
       <c r="G47" t="n">
-        <v>47.34212982891152</v>
+        <v>57.27547143443972</v>
       </c>
       <c r="H47" t="n">
-        <v>48.26337668922347</v>
+        <v>48.34551804511651</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -3075,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="L47" s="2" t="n">
-        <v>43703</v>
+        <v>43997</v>
       </c>
       <c r="M47" t="n">
-        <v>1.042430143829733</v>
+        <v>5.700738298169682</v>
       </c>
       <c r="N47" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -3099,25 +3115,25 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>47.11999893188477</v>
+        <v>66.663330078125</v>
       </c>
       <c r="C48" t="n">
-        <v>51.16999816894531</v>
+        <v>67.46666717529297</v>
       </c>
       <c r="D48" t="n">
-        <v>46.5</v>
+        <v>62.47666549682617</v>
       </c>
       <c r="E48" t="n">
-        <v>50.91999816894531</v>
+        <v>63.982666015625</v>
       </c>
       <c r="F48" t="n">
-        <v>48.29930128320539</v>
+        <v>61.64416366405774</v>
       </c>
       <c r="G48" t="n">
-        <v>48.13721168225236</v>
+        <v>58.76595911914755</v>
       </c>
       <c r="H48" t="n">
-        <v>48.50488773283455</v>
+        <v>49.76707695152637</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -3133,13 +3149,13 @@
         <v>0</v>
       </c>
       <c r="L48" s="2" t="n">
-        <v>43710</v>
+        <v>44004</v>
       </c>
       <c r="M48" t="n">
-        <v>1.042430143829733</v>
+        <v>5.700738298169682</v>
       </c>
       <c r="N48" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -3157,49 +3173,57 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>51.06000137329102</v>
+        <v>64.60066986083984</v>
       </c>
       <c r="C49" t="n">
-        <v>53.33000183105469</v>
+        <v>81.86666870117188</v>
       </c>
       <c r="D49" t="n">
-        <v>50.83000183105469</v>
+        <v>63.23466873168945</v>
       </c>
       <c r="E49" t="n">
-        <v>52.54000091552734</v>
+        <v>80.57733154296875</v>
       </c>
       <c r="F49" t="n">
-        <v>46.98895284033543</v>
+        <v>67.95521962369475</v>
       </c>
       <c r="G49" t="n">
-        <v>47.34212982891152</v>
+        <v>63.61293076888559</v>
       </c>
       <c r="H49" t="n">
-        <v>48.26337668922347</v>
-      </c>
-      <c r="I49" t="n">
-        <v>53.33000183105469</v>
-      </c>
-      <c r="J49" t="n">
-        <v>52.10243151712075</v>
+        <v>52.56800918711204</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
       </c>
       <c r="K49" t="n">
         <v>0</v>
       </c>
       <c r="L49" s="2" t="n">
-        <v>43711</v>
+        <v>44011</v>
       </c>
       <c r="M49" t="n">
-        <v>1.042430143829733</v>
+        <v>5.700738298169682</v>
       </c>
       <c r="N49" t="n">
-        <v>12</v>
-      </c>
-      <c r="O49" t="n">
-        <v>51.06000137329102</v>
-      </c>
-      <c r="P49" t="n">
-        <v>204</v>
+        <v>10</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -3207,25 +3231,25 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>56.45999908447266</v>
+        <v>85.11266326904297</v>
       </c>
       <c r="C50" t="n">
-        <v>59.59000015258789</v>
+        <v>103.2613296508789</v>
       </c>
       <c r="D50" t="n">
-        <v>55.91999816894531</v>
+        <v>84.40266418457031</v>
       </c>
       <c r="E50" t="n">
-        <v>58.4900016784668</v>
+        <v>102.9766693115234</v>
       </c>
       <c r="F50" t="n">
-        <v>56.0120188753996</v>
+        <v>79.62903618630432</v>
       </c>
       <c r="G50" t="n">
-        <v>54.88683633798132</v>
+        <v>72.36042822280511</v>
       </c>
       <c r="H50" t="n">
-        <v>51.99417815006458</v>
+        <v>57.15061465296762</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -3241,13 +3265,13 @@
         <v>0</v>
       </c>
       <c r="L50" s="2" t="n">
-        <v>43570</v>
+        <v>44018</v>
       </c>
       <c r="M50" t="n">
-        <v>-4.049999237060547</v>
+        <v>5.700738298169682</v>
       </c>
       <c r="N50" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -3265,57 +3289,49 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>58.15000152587891</v>
+        <v>110.5999984741211</v>
       </c>
       <c r="C51" t="n">
-        <v>59.29000091552734</v>
+        <v>119.6660003662109</v>
       </c>
       <c r="D51" t="n">
-        <v>51.52000045776367</v>
+        <v>95.40000152587891</v>
       </c>
       <c r="E51" t="n">
-        <v>52.43000030517578</v>
+        <v>100.0559997558594</v>
       </c>
       <c r="F51" t="n">
-        <v>54.818012685325</v>
+        <v>61.64416366405774</v>
       </c>
       <c r="G51" t="n">
-        <v>54.34087277513564</v>
+        <v>58.76595911914755</v>
       </c>
       <c r="H51" t="n">
-        <v>52.03379834598378</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
+        <v>49.76707695152637</v>
+      </c>
+      <c r="I51" t="n">
+        <v>119.6660003662109</v>
+      </c>
+      <c r="J51" t="n">
+        <v>116.3007367722908</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
       <c r="L51" s="2" t="n">
-        <v>43577</v>
+        <v>44019</v>
       </c>
       <c r="M51" t="n">
-        <v>-4.049999237060547</v>
+        <v>5.700738298169682</v>
       </c>
       <c r="N51" t="n">
-        <v>13</v>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="O51" t="n">
+        <v>110.5999984741211</v>
+      </c>
+      <c r="P51" t="n">
+        <v>513</v>
       </c>
     </row>
     <row r="52">
@@ -3323,25 +3339,25 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>52.16999816894531</v>
+        <v>257.7066650390625</v>
       </c>
       <c r="C52" t="n">
-        <v>52.43000030517578</v>
+        <v>266.3333435058594</v>
       </c>
       <c r="D52" t="n">
-        <v>50.11999893188477</v>
+        <v>254.5299987792969</v>
       </c>
       <c r="E52" t="n">
-        <v>51.75</v>
+        <v>258.4066772460938</v>
       </c>
       <c r="F52" t="n">
-        <v>53.79534179021667</v>
+        <v>251.8206640955788</v>
       </c>
       <c r="G52" t="n">
-        <v>53.76512326954995</v>
+        <v>246.6416239029286</v>
       </c>
       <c r="H52" t="n">
-        <v>52.00799849634889</v>
+        <v>234.065026698132</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -3357,13 +3373,13 @@
         <v>0</v>
       </c>
       <c r="L52" s="2" t="n">
-        <v>43584</v>
+        <v>44466</v>
       </c>
       <c r="M52" t="n">
-        <v>-4.049999237060547</v>
+        <v>50.7536114461451</v>
       </c>
       <c r="N52" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -3381,49 +3397,57 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>50.25</v>
+        <v>265.5</v>
       </c>
       <c r="C53" t="n">
-        <v>51.27999877929688</v>
+        <v>268.989990234375</v>
       </c>
       <c r="D53" t="n">
-        <v>45.09999847412109</v>
+        <v>257.739990234375</v>
       </c>
       <c r="E53" t="n">
-        <v>46.20000076293945</v>
+        <v>261.8299865722656</v>
       </c>
       <c r="F53" t="n">
-        <v>54.818012685325</v>
+        <v>255.1571049211411</v>
       </c>
       <c r="G53" t="n">
-        <v>54.34087277513564</v>
+        <v>250.0168156072257</v>
       </c>
       <c r="H53" t="n">
-        <v>52.03379834598378</v>
-      </c>
-      <c r="I53" t="n">
-        <v>51.27999877929688</v>
-      </c>
-      <c r="J53" t="n">
-        <v>53.14267077814975</v>
+        <v>236.5891139594169</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
       </c>
       <c r="K53" t="n">
         <v>0</v>
       </c>
       <c r="L53" s="2" t="n">
-        <v>43585</v>
+        <v>44473</v>
       </c>
       <c r="M53" t="n">
-        <v>-4.049999237060547</v>
+        <v>50.7536114461451</v>
       </c>
       <c r="N53" t="n">
-        <v>13</v>
-      </c>
-      <c r="O53" t="n">
-        <v>50.25</v>
-      </c>
-      <c r="P53" t="n">
-        <v>-806</v>
+        <v>11</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -3431,25 +3455,25 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>43.72000122070312</v>
+        <v>262.5499877929688</v>
       </c>
       <c r="C54" t="n">
-        <v>46.63999938964844</v>
+        <v>281.0700073242188</v>
       </c>
       <c r="D54" t="n">
-        <v>43.5099983215332</v>
+        <v>261.8333435058594</v>
       </c>
       <c r="E54" t="n">
-        <v>44.29999923706055</v>
+        <v>281.010009765625</v>
       </c>
       <c r="F54" t="n">
-        <v>45.35072814909478</v>
+        <v>263.7747398693024</v>
       </c>
       <c r="G54" t="n">
-        <v>46.05364020541843</v>
+        <v>256.90419208687</v>
       </c>
       <c r="H54" t="n">
-        <v>47.97174344168551</v>
+        <v>240.6273772145267</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -3462,16 +3486,16 @@
         </is>
       </c>
       <c r="K54" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="L54" s="2" t="n">
-        <v>44683</v>
+        <v>44480</v>
       </c>
       <c r="M54" t="n">
-        <v>1.851294108316893</v>
+        <v>50.7536114461451</v>
       </c>
       <c r="N54" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -3489,25 +3513,25 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>43.81000137329102</v>
+        <v>283.9299926757812</v>
       </c>
       <c r="C55" t="n">
-        <v>44.7400016784668</v>
+        <v>303.3333435058594</v>
       </c>
       <c r="D55" t="n">
-        <v>42.0099983215332</v>
+        <v>283.8233337402344</v>
       </c>
       <c r="E55" t="n">
-        <v>43.59999847412109</v>
+        <v>303.2266540527344</v>
       </c>
       <c r="F55" t="n">
-        <v>44.76715159077022</v>
+        <v>276.9253779304464</v>
       </c>
       <c r="G55" t="n">
-        <v>45.50838648735236</v>
+        <v>267.1980725237288</v>
       </c>
       <c r="H55" t="n">
-        <v>47.57431208099784</v>
+        <v>246.3182205634547</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -3523,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="L55" s="2" t="n">
-        <v>44690</v>
+        <v>44487</v>
       </c>
       <c r="M55" t="n">
-        <v>1.851294108316893</v>
+        <v>50.7536114461451</v>
       </c>
       <c r="N55" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -3547,57 +3571,49 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>43.41999816894531</v>
+        <v>316.8433227539062</v>
       </c>
       <c r="C56" t="n">
-        <v>44.41999816894531</v>
+        <v>371.7366638183594</v>
       </c>
       <c r="D56" t="n">
-        <v>40.31000137329102</v>
+        <v>314.7333374023438</v>
       </c>
       <c r="E56" t="n">
-        <v>41.65000152587891</v>
+        <v>371.3333435058594</v>
       </c>
       <c r="F56" t="n">
-        <v>43.72810156913978</v>
+        <v>255.1571049211411</v>
       </c>
       <c r="G56" t="n">
-        <v>44.65096760702492</v>
+        <v>250.0168156072257</v>
       </c>
       <c r="H56" t="n">
-        <v>47.03573839416884</v>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
+        <v>236.5891139594169</v>
+      </c>
+      <c r="I56" t="n">
+        <v>371.7366638183594</v>
+      </c>
+      <c r="J56" t="n">
+        <v>367.5969342000514</v>
       </c>
       <c r="K56" t="n">
-        <v>0.0231</v>
+        <v>0</v>
       </c>
       <c r="L56" s="2" t="n">
-        <v>44697</v>
+        <v>44488</v>
       </c>
       <c r="M56" t="n">
-        <v>1.851294108316893</v>
+        <v>50.7536114461451</v>
       </c>
       <c r="N56" t="n">
-        <v>14</v>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
+        <v>11</v>
+      </c>
+      <c r="O56" t="n">
+        <v>316.8433227539062</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1624</v>
       </c>
     </row>
     <row r="57">
@@ -3605,49 +3621,57 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>41.68999862670898</v>
+        <v>55.18533325195312</v>
       </c>
       <c r="C57" t="n">
-        <v>44.54999923706055</v>
+        <v>55.64799880981445</v>
       </c>
       <c r="D57" t="n">
-        <v>41.09999847412109</v>
+        <v>53.06666564941406</v>
       </c>
       <c r="E57" t="n">
-        <v>44.54999923706055</v>
+        <v>54.45866775512695</v>
       </c>
       <c r="F57" t="n">
-        <v>44.76715159077022</v>
+        <v>51.29065566192057</v>
       </c>
       <c r="G57" t="n">
-        <v>45.50838648735236</v>
+        <v>48.94859383604879</v>
       </c>
       <c r="H57" t="n">
-        <v>47.57431208099784</v>
-      </c>
-      <c r="I57" t="n">
-        <v>44.54999923706055</v>
-      </c>
-      <c r="J57" t="n">
-        <v>43.54129273502588</v>
+        <v>42.29525448764684</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
       </c>
       <c r="K57" t="n">
         <v>0</v>
       </c>
       <c r="L57" s="2" t="n">
-        <v>44698</v>
+        <v>43969</v>
       </c>
       <c r="M57" t="n">
-        <v>1.851294108316893</v>
+        <v>3.339002125363947</v>
       </c>
       <c r="N57" t="n">
-        <v>14</v>
-      </c>
-      <c r="O57" t="n">
-        <v>41.68999862670898</v>
-      </c>
-      <c r="P57" t="n">
-        <v>444</v>
+        <v>12</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -3655,25 +3679,25 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>47.09999847412109</v>
+        <v>55.63333129882812</v>
       </c>
       <c r="C58" t="n">
-        <v>49.29000091552734</v>
+        <v>55.66666793823242</v>
       </c>
       <c r="D58" t="n">
-        <v>46.75</v>
+        <v>52.33333206176758</v>
       </c>
       <c r="E58" t="n">
-        <v>48.93000030517578</v>
+        <v>55.66666793823242</v>
       </c>
       <c r="F58" t="n">
-        <v>47.79000091552734</v>
+        <v>52.74932642069119</v>
       </c>
       <c r="G58" t="n">
-        <v>47.60000101725261</v>
+        <v>50.44149919208959</v>
       </c>
       <c r="H58" t="n">
-        <v>47.37545568292791</v>
+        <v>43.51083752860917</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -3689,13 +3713,13 @@
         <v>0</v>
       </c>
       <c r="L58" s="2" t="n">
-        <v>43472</v>
+        <v>43976</v>
       </c>
       <c r="M58" t="n">
-        <v>2.632121745042241</v>
+        <v>3.339002125363947</v>
       </c>
       <c r="N58" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -3713,25 +3737,25 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>48.45999908447266</v>
+        <v>57.20000076293945</v>
       </c>
       <c r="C59" t="n">
-        <v>49.38000106811523</v>
+        <v>60.57733154296875</v>
       </c>
       <c r="D59" t="n">
-        <v>47.90999984741211</v>
+        <v>56.93999862670898</v>
       </c>
       <c r="E59" t="n">
-        <v>49.18999862670898</v>
+        <v>59.04399871826172</v>
       </c>
       <c r="F59" t="n">
-        <v>48.25666681925456</v>
+        <v>54.84755051988137</v>
       </c>
       <c r="G59" t="n">
-        <v>47.95333381935403</v>
+        <v>52.35316575346118</v>
       </c>
       <c r="H59" t="n">
-        <v>47.54041413236255</v>
+        <v>44.92294309130485</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -3747,13 +3771,13 @@
         <v>0</v>
       </c>
       <c r="L59" s="2" t="n">
-        <v>43479</v>
+        <v>43983</v>
       </c>
       <c r="M59" t="n">
-        <v>2.632121745042241</v>
+        <v>3.339002125363947</v>
       </c>
       <c r="N59" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -3771,25 +3795,25 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>48.95999908447266</v>
+        <v>61.26666641235352</v>
       </c>
       <c r="C60" t="n">
-        <v>50.04000091552734</v>
+        <v>68.49866485595703</v>
       </c>
       <c r="D60" t="n">
-        <v>45.75</v>
+        <v>60.61066818237305</v>
       </c>
       <c r="E60" t="n">
-        <v>47.04000091552734</v>
+        <v>62.35200119018555</v>
       </c>
       <c r="F60" t="n">
-        <v>47.85111151801216</v>
+        <v>57.34903407664943</v>
       </c>
       <c r="G60" t="n">
-        <v>47.75037095183698</v>
+        <v>54.57512918384437</v>
       </c>
       <c r="H60" t="n">
-        <v>47.49492202174116</v>
+        <v>46.50740291847582</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -3805,13 +3829,13 @@
         <v>0</v>
       </c>
       <c r="L60" s="2" t="n">
-        <v>43486</v>
+        <v>43990</v>
       </c>
       <c r="M60" t="n">
-        <v>2.632121745042241</v>
+        <v>3.339002125363947</v>
       </c>
       <c r="N60" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -3829,49 +3853,895 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>46.13000106811523</v>
+        <v>61.18600082397461</v>
       </c>
       <c r="C61" t="n">
-        <v>49.04999923706055</v>
+        <v>67.94667053222656</v>
       </c>
       <c r="D61" t="n">
-        <v>46.04999923706055</v>
+        <v>60.56666564941406</v>
       </c>
       <c r="E61" t="n">
-        <v>48.72999954223633</v>
+        <v>66.72666931152344</v>
       </c>
       <c r="F61" t="n">
-        <v>48.25666681925456</v>
+        <v>52.74932642069119</v>
       </c>
       <c r="G61" t="n">
-        <v>47.95333381935403</v>
+        <v>50.44149919208959</v>
       </c>
       <c r="H61" t="n">
-        <v>47.54041413236255</v>
+        <v>43.51083752860917</v>
       </c>
       <c r="I61" t="n">
-        <v>49.04999923706055</v>
+        <v>67.94667053222656</v>
       </c>
       <c r="J61" t="n">
-        <v>48.76212281315748</v>
+        <v>64.52500294933856</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
       </c>
       <c r="L61" s="2" t="n">
-        <v>43487</v>
+        <v>43991</v>
       </c>
       <c r="M61" t="n">
-        <v>2.632121745042241</v>
+        <v>3.339002125363947</v>
       </c>
       <c r="N61" t="n">
+        <v>12</v>
+      </c>
+      <c r="O61" t="n">
+        <v>61.18600082397461</v>
+      </c>
+      <c r="P61" t="n">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>228.1966705322266</v>
+      </c>
+      <c r="C62" t="n">
+        <v>233.2066650390625</v>
+      </c>
+      <c r="D62" t="n">
+        <v>199.9633331298828</v>
+      </c>
+      <c r="E62" t="n">
+        <v>206.2366638183594</v>
+      </c>
+      <c r="F62" t="n">
+        <v>221.2365979463524</v>
+      </c>
+      <c r="G62" t="n">
+        <v>227.9402046496679</v>
+      </c>
+      <c r="H62" t="n">
+        <v>217.1206920522017</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3.26666259765625</v>
+      </c>
+      <c r="N62" t="n">
+        <v>13</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>205.2133331298828</v>
+      </c>
+      <c r="C63" t="n">
+        <v>230.8066711425781</v>
+      </c>
+      <c r="D63" t="n">
+        <v>197.0033264160156</v>
+      </c>
+      <c r="E63" t="n">
+        <v>220.5833282470703</v>
+      </c>
+      <c r="F63" t="n">
+        <v>221.0188413799251</v>
+      </c>
+      <c r="G63" t="n">
+        <v>226.3053432268685</v>
+      </c>
+      <c r="H63" t="n">
+        <v>217.4354771608261</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2" t="n">
+        <v>44284</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3.26666259765625</v>
+      </c>
+      <c r="N63" t="n">
+        <v>13</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>235.9033355712891</v>
+      </c>
+      <c r="C64" t="n">
+        <v>236.0533294677734</v>
+      </c>
+      <c r="D64" t="n">
+        <v>222.6133270263672</v>
+      </c>
+      <c r="E64" t="n">
+        <v>225.67333984375</v>
+      </c>
+      <c r="F64" t="n">
+        <v>222.5703408678668</v>
+      </c>
+      <c r="G64" t="n">
+        <v>226.1648980306199</v>
+      </c>
+      <c r="H64" t="n">
+        <v>218.1843737683647</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2" t="n">
+        <v>44291</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3.26666259765625</v>
+      </c>
+      <c r="N64" t="n">
+        <v>13</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>228.5666656494141</v>
+      </c>
+      <c r="C65" t="n">
+        <v>260.2633361816406</v>
+      </c>
+      <c r="D65" t="n">
+        <v>227.3633270263672</v>
+      </c>
+      <c r="E65" t="n">
+        <v>246.5933380126953</v>
+      </c>
+      <c r="F65" t="n">
+        <v>230.5780065828096</v>
+      </c>
+      <c r="G65" t="n">
+        <v>230.70455135997</v>
+      </c>
+      <c r="H65" t="n">
+        <v>220.7670068814856</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" s="2" t="n">
+        <v>44298</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3.26666259765625</v>
+      </c>
+      <c r="N65" t="n">
+        <v>13</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>239.8666687011719</v>
+      </c>
+      <c r="C66" t="n">
+        <v>251.2566680908203</v>
+      </c>
+      <c r="D66" t="n">
+        <v>230.6000061035156</v>
+      </c>
+      <c r="E66" t="n">
+        <v>243.1333312988281</v>
+      </c>
+      <c r="F66" t="n">
+        <v>221.0188413799251</v>
+      </c>
+      <c r="G66" t="n">
+        <v>226.3053432268685</v>
+      </c>
+      <c r="H66" t="n">
+        <v>217.4354771608261</v>
+      </c>
+      <c r="I66" t="n">
+        <v>251.2566680908203</v>
+      </c>
+      <c r="J66" t="n">
+        <v>251.9898266617674</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" s="2" t="n">
+        <v>44299</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3.26666259765625</v>
+      </c>
+      <c r="N66" t="n">
+        <v>13</v>
+      </c>
+      <c r="O66" t="n">
+        <v>239.8666687011719</v>
+      </c>
+      <c r="P66" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>23.52799987792969</v>
+      </c>
+      <c r="C67" t="n">
+        <v>24.07999992370605</v>
+      </c>
+      <c r="D67" t="n">
+        <v>22</v>
+      </c>
+      <c r="E67" t="n">
+        <v>22.20266723632812</v>
+      </c>
+      <c r="F67" t="n">
+        <v>21.60513109050684</v>
+      </c>
+      <c r="G67" t="n">
+        <v>20.56061210013201</v>
+      </c>
+      <c r="H67" t="n">
+        <v>18.35679962516998</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" s="2" t="n">
+        <v>43787</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1.922457306020661</v>
+      </c>
+      <c r="N67" t="n">
+        <v>14</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>22.95466613769531</v>
+      </c>
+      <c r="C68" t="n">
+        <v>22.97133255004883</v>
+      </c>
+      <c r="D68" t="n">
+        <v>21.80666732788086</v>
+      </c>
+      <c r="E68" t="n">
+        <v>21.99600028991699</v>
+      </c>
+      <c r="F68" t="n">
+        <v>21.73542082364356</v>
+      </c>
+      <c r="G68" t="n">
+        <v>20.87958725341756</v>
+      </c>
+      <c r="H68" t="n">
+        <v>18.68763604923789</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" s="2" t="n">
+        <v>43794</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1.922457306020661</v>
+      </c>
+      <c r="N68" t="n">
+        <v>14</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>21.95999908447266</v>
+      </c>
+      <c r="C69" t="n">
+        <v>22.59066772460938</v>
+      </c>
+      <c r="D69" t="n">
+        <v>21.8166675567627</v>
+      </c>
+      <c r="E69" t="n">
+        <v>22.39266777038574</v>
+      </c>
+      <c r="F69" t="n">
+        <v>21.95450313922429</v>
+      </c>
+      <c r="G69" t="n">
+        <v>21.21582736829938</v>
+      </c>
+      <c r="H69" t="n">
+        <v>19.02445711479679</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" s="2" t="n">
+        <v>43801</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1.922457306020661</v>
+      </c>
+      <c r="N69" t="n">
+        <v>14</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>22.43933296203613</v>
+      </c>
+      <c r="C70" t="n">
+        <v>24.34733390808105</v>
+      </c>
+      <c r="D70" t="n">
+        <v>22.33866691589355</v>
+      </c>
+      <c r="E70" t="n">
+        <v>23.89266777038574</v>
+      </c>
+      <c r="F70" t="n">
+        <v>22.60055801627811</v>
+      </c>
+      <c r="G70" t="n">
+        <v>21.81068079098524</v>
+      </c>
+      <c r="H70" t="n">
+        <v>19.46702171985033</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" s="2" t="n">
+        <v>43808</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1.922457306020661</v>
+      </c>
+      <c r="N70" t="n">
+        <v>14</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>24.17000007629395</v>
+      </c>
+      <c r="C71" t="n">
+        <v>27.53333282470703</v>
+      </c>
+      <c r="D71" t="n">
+        <v>24.16666793823242</v>
+      </c>
+      <c r="E71" t="n">
+        <v>27.03933334350586</v>
+      </c>
+      <c r="F71" t="n">
+        <v>21.73542082364356</v>
+      </c>
+      <c r="G71" t="n">
+        <v>20.87958725341756</v>
+      </c>
+      <c r="H71" t="n">
+        <v>18.68763604923789</v>
+      </c>
+      <c r="I71" t="n">
+        <v>27.53333282470703</v>
+      </c>
+      <c r="J71" t="n">
+        <v>26.09245738231461</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" s="2" t="n">
+        <v>43809</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1.922457306020661</v>
+      </c>
+      <c r="N71" t="n">
+        <v>14</v>
+      </c>
+      <c r="O71" t="n">
+        <v>24.17000007629395</v>
+      </c>
+      <c r="P71" t="n">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>201.6399993896484</v>
+      </c>
+      <c r="C72" t="n">
+        <v>218.1066741943359</v>
+      </c>
+      <c r="D72" t="n">
+        <v>188.7799987792969</v>
+      </c>
+      <c r="E72" t="n">
+        <v>203.3300018310547</v>
+      </c>
+      <c r="F72" t="n">
+        <v>184.4886521775411</v>
+      </c>
+      <c r="G72" t="n">
+        <v>173.1466522947163</v>
+      </c>
+      <c r="H72" t="n">
+        <v>142.7968656052235</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" s="2" t="n">
+        <v>44172</v>
+      </c>
+      <c r="M72" t="n">
+        <v>40.89457678866313</v>
+      </c>
+      <c r="N72" t="n">
         <v>15</v>
       </c>
-      <c r="O61" t="n">
-        <v>46.13000106811523</v>
-      </c>
-      <c r="P61" t="n">
-        <v>571</v>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>206.3333282470703</v>
+      </c>
+      <c r="C73" t="n">
+        <v>231.6666717529297</v>
+      </c>
+      <c r="D73" t="n">
+        <v>201.6666717529297</v>
+      </c>
+      <c r="E73" t="n">
+        <v>231.6666717529297</v>
+      </c>
+      <c r="F73" t="n">
+        <v>200.2146587026706</v>
+      </c>
+      <c r="G73" t="n">
+        <v>186.1511010632082</v>
+      </c>
+      <c r="H73" t="n">
+        <v>150.8759388913786</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="M73" t="n">
+        <v>40.89457678866313</v>
+      </c>
+      <c r="N73" t="n">
+        <v>15</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>222.0800018310547</v>
+      </c>
+      <c r="C74" t="n">
+        <v>222.8333282470703</v>
+      </c>
+      <c r="D74" t="n">
+        <v>204.7433319091797</v>
+      </c>
+      <c r="E74" t="n">
+        <v>220.5899963378906</v>
+      </c>
+      <c r="F74" t="n">
+        <v>207.0064379144106</v>
+      </c>
+      <c r="G74" t="n">
+        <v>193.8041889020265</v>
+      </c>
+      <c r="H74" t="n">
+        <v>157.2135804774252</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" s="2" t="n">
+        <v>44186</v>
+      </c>
+      <c r="M74" t="n">
+        <v>40.89457678866313</v>
+      </c>
+      <c r="N74" t="n">
+        <v>15</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>224.836669921875</v>
+      </c>
+      <c r="C75" t="n">
+        <v>239.5733337402344</v>
+      </c>
+      <c r="D75" t="n">
+        <v>218.3333282470703</v>
+      </c>
+      <c r="E75" t="n">
+        <v>235.2233276367188</v>
+      </c>
+      <c r="F75" t="n">
+        <v>216.4120678218467</v>
+      </c>
+      <c r="G75" t="n">
+        <v>203.0084419541803</v>
+      </c>
+      <c r="H75" t="n">
+        <v>164.3053756737246</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" s="2" t="n">
+        <v>44193</v>
+      </c>
+      <c r="M75" t="n">
+        <v>40.89457678866313</v>
+      </c>
+      <c r="N75" t="n">
+        <v>15</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>239.8200073242188</v>
+      </c>
+      <c r="C76" t="n">
+        <v>294.8299865722656</v>
+      </c>
+      <c r="D76" t="n">
+        <v>239.0633392333984</v>
+      </c>
+      <c r="E76" t="n">
+        <v>293.3399963378906</v>
+      </c>
+      <c r="F76" t="n">
+        <v>200.2146587026706</v>
+      </c>
+      <c r="G76" t="n">
+        <v>186.1511010632082</v>
+      </c>
+      <c r="H76" t="n">
+        <v>150.8759388913786</v>
+      </c>
+      <c r="I76" t="n">
+        <v>294.8299865722656</v>
+      </c>
+      <c r="J76" t="n">
+        <v>280.7145841128819</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="M76" t="n">
+        <v>40.89457678866313</v>
+      </c>
+      <c r="N76" t="n">
+        <v>15</v>
+      </c>
+      <c r="O76" t="n">
+        <v>239.8200073242188</v>
+      </c>
+      <c r="P76" t="n">
+        <v>1718</v>
       </c>
     </row>
   </sheetData>

--- a/Excel reports/Performance_report.xlsx
+++ b/Excel reports/Performance_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P76"/>
+  <dimension ref="A1:P136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,25 +519,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>125.6999969482422</v>
+        <v>34.68999862670898</v>
       </c>
       <c r="C2" t="n">
-        <v>136.6799926757812</v>
+        <v>34.83000183105469</v>
       </c>
       <c r="D2" t="n">
-        <v>124.3099975585938</v>
+        <v>32.88999938964844</v>
       </c>
       <c r="E2" t="n">
-        <v>133.4199981689453</v>
+        <v>33.84999847412109</v>
       </c>
       <c r="F2" t="n">
-        <v>131.9904683865124</v>
+        <v>34.1002996804316</v>
       </c>
       <c r="G2" t="n">
-        <v>142.5416815361243</v>
+        <v>34.15546139072871</v>
       </c>
       <c r="H2" t="n">
-        <v>184.4357017787974</v>
+        <v>34.44141804984723</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -550,13 +550,13 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.1241</v>
+        <v>-0.09420000000000001</v>
       </c>
       <c r="L2" s="2" t="n">
         <v>44942</v>
       </c>
       <c r="M2" t="n">
-        <v>9.500978264084551</v>
+        <v>-0.1300010681152344</v>
       </c>
       <c r="N2" t="n">
         <v>1</v>
@@ -577,25 +577,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>135.8699951171875</v>
+        <v>33.81000137329102</v>
       </c>
       <c r="C3" t="n">
-        <v>180.6799926757812</v>
+        <v>35.77999877929688</v>
       </c>
       <c r="D3" t="n">
-        <v>134.2700042724609</v>
+        <v>33.75</v>
       </c>
       <c r="E3" t="n">
-        <v>177.8999938964844</v>
+        <v>35.45000076293945</v>
       </c>
       <c r="F3" t="n">
-        <v>147.2936435565031</v>
+        <v>34.55020004126756</v>
       </c>
       <c r="G3" t="n">
-        <v>150.399084282871</v>
+        <v>34.44313680677554</v>
       </c>
       <c r="H3" t="n">
-        <v>183.8415465167689</v>
+        <v>34.53310738740107</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -608,13 +608,13 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0.1436</v>
+        <v>0.0835</v>
       </c>
       <c r="L3" s="2" t="n">
         <v>44949</v>
       </c>
       <c r="M3" t="n">
-        <v>9.500978264084551</v>
+        <v>-0.1300010681152344</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
@@ -635,25 +635,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>178.0500030517578</v>
+        <v>35.20999908447266</v>
       </c>
       <c r="C4" t="n">
-        <v>199</v>
+        <v>36.7599983215332</v>
       </c>
       <c r="D4" t="n">
-        <v>162.7799987792969</v>
+        <v>35</v>
       </c>
       <c r="E4" t="n">
-        <v>189.9799957275391</v>
+        <v>36.43000030517578</v>
       </c>
       <c r="F4" t="n">
-        <v>161.5224276135151</v>
+        <v>35.17680012923697</v>
       </c>
       <c r="G4" t="n">
-        <v>159.1948423816861</v>
+        <v>34.88466202864226</v>
       </c>
       <c r="H4" t="n">
-        <v>184.3995873541116</v>
+        <v>34.70555219810786</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -666,13 +666,13 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>0.1497</v>
+        <v>0.116</v>
       </c>
       <c r="L4" s="2" t="n">
         <v>44956</v>
       </c>
       <c r="M4" t="n">
-        <v>9.500978264084551</v>
+        <v>-0.1300010681152344</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
@@ -693,25 +693,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>193.0099945068359</v>
+        <v>36.25</v>
       </c>
       <c r="C5" t="n">
-        <v>214</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
-        <v>189.5500030517578</v>
+        <v>35.02999877929688</v>
       </c>
       <c r="E5" t="n">
-        <v>196.8899993896484</v>
+        <v>35.58000183105469</v>
       </c>
       <c r="F5" t="n">
-        <v>173.3116182055595</v>
+        <v>35.31120069650954</v>
       </c>
       <c r="G5" t="n">
-        <v>167.5715439390111</v>
+        <v>35.03918198473391</v>
       </c>
       <c r="H5" t="n">
-        <v>185.5350793573423</v>
+        <v>34.78504761928484</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0.135</v>
+        <v>0.1257</v>
       </c>
       <c r="L5" s="2" t="n">
         <v>44963</v>
       </c>
       <c r="M5" t="n">
-        <v>9.500978264084551</v>
+        <v>-0.1300010681152344</v>
       </c>
       <c r="N5" t="n">
         <v>1</v>
@@ -751,31 +751,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>194.4199981689453</v>
+        <v>35.47999954223633</v>
       </c>
       <c r="C6" t="n">
-        <v>217.6499938964844</v>
+        <v>35.9900016784668</v>
       </c>
       <c r="D6" t="n">
-        <v>187.6100006103516</v>
+        <v>34.7400016784668</v>
       </c>
       <c r="E6" t="n">
-        <v>208.3099975585938</v>
+        <v>35.34999847412109</v>
       </c>
       <c r="F6" t="n">
-        <v>147.2936435565031</v>
+        <v>34.55020004126756</v>
       </c>
       <c r="G6" t="n">
-        <v>150.399084282871</v>
+        <v>34.44313680677554</v>
       </c>
       <c r="H6" t="n">
-        <v>183.8415465167689</v>
+        <v>34.53310738740107</v>
       </c>
       <c r="I6" t="n">
-        <v>217.6499938964844</v>
+        <v>35.9900016784668</v>
       </c>
       <c r="J6" t="n">
-        <v>203.9209764330299</v>
+        <v>36.43638695155187</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -784,16 +784,16 @@
         <v>44964</v>
       </c>
       <c r="M6" t="n">
-        <v>9.500978264084551</v>
+        <v>-0.1300010681152344</v>
       </c>
       <c r="N6" t="n">
         <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>194.4199981689453</v>
+        <v>35.47999954223633</v>
       </c>
       <c r="P6" t="n">
-        <v>485</v>
+        <v>-37</v>
       </c>
     </row>
     <row r="7">
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>218.3399963378906</v>
+        <v>34.7599983215332</v>
       </c>
       <c r="C7" t="n">
-        <v>253.2666625976562</v>
+        <v>37.04999923706055</v>
       </c>
       <c r="D7" t="n">
-        <v>206.8566741943359</v>
+        <v>34.65999984741211</v>
       </c>
       <c r="E7" t="n">
-        <v>253.2100067138672</v>
+        <v>37.02000045776367</v>
       </c>
       <c r="F7" t="n">
-        <v>262.7713010615848</v>
+        <v>36.30199008008466</v>
       </c>
       <c r="G7" t="n">
-        <v>275.340759994749</v>
+        <v>37.14063782781002</v>
       </c>
       <c r="H7" t="n">
-        <v>293.8544618316826</v>
+        <v>40.01481018359653</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -832,13 +832,13 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0.1228</v>
+        <v>0.1372</v>
       </c>
       <c r="L7" s="2" t="n">
         <v>44704</v>
       </c>
       <c r="M7" t="n">
-        <v>21.10333251953125</v>
+        <v>-0.5799980163574219</v>
       </c>
       <c r="N7" t="n">
         <v>2</v>
@@ -859,25 +859,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>257.9466552734375</v>
+        <v>36.81999969482422</v>
       </c>
       <c r="C8" t="n">
-        <v>264.2099914550781</v>
+        <v>37.52999877929688</v>
       </c>
       <c r="D8" t="n">
-        <v>233.4166717529297</v>
+        <v>36.06999969482422</v>
       </c>
       <c r="E8" t="n">
-        <v>234.5166625976562</v>
+        <v>36.18999862670898</v>
       </c>
       <c r="F8" t="n">
-        <v>253.3530882402753</v>
+        <v>36.26465959562611</v>
       </c>
       <c r="G8" t="n">
-        <v>266.2687383509506</v>
+        <v>36.92938467200979</v>
       </c>
       <c r="H8" t="n">
-        <v>288.4601164467711</v>
+        <v>39.66710004206129</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -890,13 +890,13 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0.1012</v>
+        <v>0.064</v>
       </c>
       <c r="L8" s="2" t="n">
         <v>44711</v>
       </c>
       <c r="M8" t="n">
-        <v>21.10333251953125</v>
+        <v>-0.5799980163574219</v>
       </c>
       <c r="N8" t="n">
         <v>2</v>
@@ -917,25 +917,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>244.3533325195312</v>
+        <v>36.70000076293945</v>
       </c>
       <c r="C9" t="n">
-        <v>255.5466613769531</v>
+        <v>37.20999908447266</v>
       </c>
       <c r="D9" t="n">
-        <v>227.913330078125</v>
+        <v>33.02000045776367</v>
       </c>
       <c r="E9" t="n">
-        <v>232.2299957275391</v>
+        <v>33.16999816894531</v>
       </c>
       <c r="F9" t="n">
-        <v>246.3120574026966</v>
+        <v>35.23310578673251</v>
       </c>
       <c r="G9" t="n">
-        <v>258.7045733235258</v>
+        <v>36.09396544910657</v>
       </c>
       <c r="H9" t="n">
-        <v>283.3482872904772</v>
+        <v>39.07645441723257</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -948,13 +948,13 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>0.1387</v>
+        <v>0.0948</v>
       </c>
       <c r="L9" s="2" t="n">
         <v>44718</v>
       </c>
       <c r="M9" t="n">
-        <v>21.10333251953125</v>
+        <v>-0.5799980163574219</v>
       </c>
       <c r="N9" t="n">
         <v>2</v>
@@ -975,25 +975,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>223.1666717529297</v>
+        <v>32.38999938964844</v>
       </c>
       <c r="C10" t="n">
-        <v>235.663330078125</v>
+        <v>32.77000045776367</v>
       </c>
       <c r="D10" t="n">
-        <v>208.6933288574219</v>
+        <v>30.86000061035156</v>
       </c>
       <c r="E10" t="n">
-        <v>216.7599945068359</v>
+        <v>31.92000007629395</v>
       </c>
       <c r="F10" t="n">
-        <v>236.461369770743</v>
+        <v>34.12873721658632</v>
       </c>
       <c r="G10" t="n">
-        <v>249.3835558087058</v>
+        <v>35.16641758848154</v>
       </c>
       <c r="H10" t="n">
-        <v>277.294806128328</v>
+        <v>38.42586765896542</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1006,13 +1006,13 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>0.1126</v>
+        <v>0.1201</v>
       </c>
       <c r="L10" s="2" t="n">
         <v>44725</v>
       </c>
       <c r="M10" t="n">
-        <v>21.10333251953125</v>
+        <v>-0.5799980163574219</v>
       </c>
       <c r="N10" t="n">
         <v>2</v>
@@ -1033,31 +1033,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>224.6033325195312</v>
+        <v>32.88999938964844</v>
       </c>
       <c r="C11" t="n">
-        <v>246.8333282470703</v>
+        <v>33.29000091552734</v>
       </c>
       <c r="D11" t="n">
-        <v>224.3333282470703</v>
+        <v>31.22999954223633</v>
       </c>
       <c r="E11" t="n">
-        <v>245.7066650390625</v>
+        <v>32.31000137329102</v>
       </c>
       <c r="F11" t="n">
-        <v>253.3530882402753</v>
+        <v>36.26465959562611</v>
       </c>
       <c r="G11" t="n">
-        <v>266.2687383509506</v>
+        <v>36.92938467200979</v>
       </c>
       <c r="H11" t="n">
-        <v>288.4601164467711</v>
+        <v>39.66710004206129</v>
       </c>
       <c r="I11" t="n">
-        <v>246.8333282470703</v>
+        <v>33.29000091552734</v>
       </c>
       <c r="J11" t="n">
-        <v>261.0280931377528</v>
+        <v>35.82628035251137</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>44726</v>
       </c>
       <c r="M11" t="n">
-        <v>21.10333251953125</v>
+        <v>-0.5799980163574219</v>
       </c>
       <c r="N11" t="n">
         <v>2</v>
       </c>
       <c r="O11" t="n">
-        <v>224.6033325195312</v>
+        <v>32.88999938964844</v>
       </c>
       <c r="P11" t="n">
-        <v>950</v>
+        <v>-176</v>
       </c>
     </row>
     <row r="12">
@@ -1083,25 +1083,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>333.836669921875</v>
+        <v>44.56000137329102</v>
       </c>
       <c r="C12" t="n">
-        <v>357.4599914550781</v>
+        <v>44.90999984741211</v>
       </c>
       <c r="D12" t="n">
-        <v>316.8333435058594</v>
+        <v>43.65000152587891</v>
       </c>
       <c r="E12" t="n">
-        <v>339.010009765625</v>
+        <v>44.52000045776367</v>
       </c>
       <c r="F12" t="n">
-        <v>346.6858445763494</v>
+        <v>45.0412612188416</v>
       </c>
       <c r="G12" t="n">
-        <v>339.9754735298422</v>
+        <v>45.09189879160785</v>
       </c>
       <c r="H12" t="n">
-        <v>301.6018398489379</v>
+        <v>43.66420664670841</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>44536</v>
       </c>
       <c r="M12" t="n">
-        <v>12.68214514118154</v>
+        <v>3.981691644240527</v>
       </c>
       <c r="N12" t="n">
         <v>3</v>
@@ -1141,25 +1141,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>333.6966552734375</v>
+        <v>44.27000045776367</v>
       </c>
       <c r="C13" t="n">
-        <v>335</v>
+        <v>45.36000061035156</v>
       </c>
       <c r="D13" t="n">
-        <v>303.0133361816406</v>
+        <v>43.38999938964844</v>
       </c>
       <c r="E13" t="n">
-        <v>310.8566589355469</v>
+        <v>43.88000106811523</v>
       </c>
       <c r="F13" t="n">
-        <v>334.7427826960819</v>
+        <v>44.65417450193281</v>
       </c>
       <c r="G13" t="n">
-        <v>333.504625842221</v>
+        <v>44.82258818638726</v>
       </c>
       <c r="H13" t="n">
-        <v>302.4431870386296</v>
+        <v>43.68382432138176</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44543</v>
       </c>
       <c r="M13" t="n">
-        <v>12.68214514118154</v>
+        <v>3.981691644240527</v>
       </c>
       <c r="N13" t="n">
         <v>3</v>
@@ -1199,25 +1199,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>303.5666809082031</v>
+        <v>43.27000045776367</v>
       </c>
       <c r="C14" t="n">
-        <v>357.6600036621094</v>
+        <v>45.06999969482422</v>
       </c>
       <c r="D14" t="n">
-        <v>295.3733215332031</v>
+        <v>42.70000076293945</v>
       </c>
       <c r="E14" t="n">
-        <v>355.6666564941406</v>
+        <v>44.41999816894531</v>
       </c>
       <c r="F14" t="n">
-        <v>341.7174072954348</v>
+        <v>44.57611572427032</v>
       </c>
       <c r="G14" t="n">
-        <v>338.4295215426476</v>
+        <v>44.73312373806683</v>
       </c>
       <c r="H14" t="n">
-        <v>307.2816842618579</v>
+        <v>43.75074921661481</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>0.14745</v>
+        <v>0.2011</v>
       </c>
       <c r="L14" s="2" t="n">
         <v>44550</v>
       </c>
       <c r="M14" t="n">
-        <v>12.68214514118154</v>
+        <v>3.981691644240527</v>
       </c>
       <c r="N14" t="n">
         <v>3</v>
@@ -1257,25 +1257,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>357.8900146484375</v>
+        <v>44.54999923706055</v>
       </c>
       <c r="C15" t="n">
-        <v>373</v>
+        <v>45.11999893188477</v>
       </c>
       <c r="D15" t="n">
-        <v>351.0499877929688</v>
+        <v>44.27999877929688</v>
       </c>
       <c r="E15" t="n">
-        <v>352.260009765625</v>
+        <v>44.4900016784668</v>
       </c>
       <c r="F15" t="n">
-        <v>345.2316081188316</v>
+        <v>44.54741104233581</v>
       </c>
       <c r="G15" t="n">
-        <v>341.5029633699759</v>
+        <v>44.67909661371127</v>
       </c>
       <c r="H15" t="n">
-        <v>311.3706229440185</v>
+        <v>43.81795398587408</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>0.1186</v>
+        <v>0.2067</v>
       </c>
       <c r="L15" s="2" t="n">
         <v>44557</v>
       </c>
       <c r="M15" t="n">
-        <v>12.68214514118154</v>
+        <v>3.981691644240527</v>
       </c>
       <c r="N15" t="n">
         <v>3</v>
@@ -1315,31 +1315,31 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>382.5833435058594</v>
+        <v>45.09000015258789</v>
       </c>
       <c r="C16" t="n">
-        <v>402.6666564941406</v>
+        <v>49.31000137329102</v>
       </c>
       <c r="D16" t="n">
-        <v>336.6666564941406</v>
+        <v>44.97999954223633</v>
       </c>
       <c r="E16" t="n">
-        <v>342.3200073242188</v>
+        <v>49.18000030517578</v>
       </c>
       <c r="F16" t="n">
-        <v>334.7427826960819</v>
+        <v>44.65417450193281</v>
       </c>
       <c r="G16" t="n">
-        <v>333.504625842221</v>
+        <v>44.82258818638726</v>
       </c>
       <c r="H16" t="n">
-        <v>302.4431870386296</v>
+        <v>43.68382432138176</v>
       </c>
       <c r="I16" t="n">
-        <v>402.6666564941406</v>
+        <v>49.31000137329102</v>
       </c>
       <c r="J16" t="n">
-        <v>395.2654886470409</v>
+        <v>49.07169179682842</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>44558</v>
       </c>
       <c r="M16" t="n">
-        <v>12.68214514118154</v>
+        <v>3.981691644240527</v>
       </c>
       <c r="N16" t="n">
         <v>3</v>
       </c>
       <c r="O16" t="n">
-        <v>382.5833435058594</v>
+        <v>45.09000015258789</v>
       </c>
       <c r="P16" t="n">
-        <v>330</v>
+        <v>884</v>
       </c>
     </row>
     <row r="17">
@@ -1365,25 +1365,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>357.8900146484375</v>
+        <v>30.71999931335449</v>
       </c>
       <c r="C17" t="n">
-        <v>373</v>
+        <v>31.06999969482422</v>
       </c>
       <c r="D17" t="n">
-        <v>351.0499877929688</v>
+        <v>28.90999984741211</v>
       </c>
       <c r="E17" t="n">
-        <v>352.260009765625</v>
+        <v>29.3799991607666</v>
       </c>
       <c r="F17" t="n">
-        <v>345.2316081188316</v>
+        <v>29.55609802721034</v>
       </c>
       <c r="G17" t="n">
-        <v>341.5029633699759</v>
+        <v>29.34047107197462</v>
       </c>
       <c r="H17" t="n">
-        <v>311.3706229440185</v>
+        <v>28.84085538374452</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>0.1186</v>
+        <v>0</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>44557</v>
+        <v>43675</v>
       </c>
       <c r="M17" t="n">
-        <v>-19.47000122070312</v>
+        <v>0.8099994659423828</v>
       </c>
       <c r="N17" t="n">
         <v>4</v>
@@ -1423,25 +1423,25 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>382.5833435058594</v>
+        <v>28.53000068664551</v>
       </c>
       <c r="C18" t="n">
-        <v>402.6666564941406</v>
+        <v>28.63999938964844</v>
       </c>
       <c r="D18" t="n">
-        <v>336.6666564941406</v>
+        <v>27.1200008392334</v>
       </c>
       <c r="E18" t="n">
-        <v>342.3200073242188</v>
+        <v>28.32999992370605</v>
       </c>
       <c r="F18" t="n">
-        <v>344.2610745206273</v>
+        <v>29.14739865937558</v>
       </c>
       <c r="G18" t="n">
-        <v>341.684528693141</v>
+        <v>29.11592192791494</v>
       </c>
       <c r="H18" t="n">
-        <v>314.1842033422186</v>
+        <v>28.79441397828648</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1454,13 +1454,13 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>0.1091</v>
+        <v>0</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>44564</v>
+        <v>43682</v>
       </c>
       <c r="M18" t="n">
-        <v>-19.47000122070312</v>
+        <v>0.8099994659423828</v>
       </c>
       <c r="N18" t="n">
         <v>4</v>
@@ -1481,25 +1481,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>333.3333435058594</v>
+        <v>27.82999992370605</v>
       </c>
       <c r="C19" t="n">
-        <v>371.8666687011719</v>
+        <v>28.25</v>
       </c>
       <c r="D19" t="n">
-        <v>326.6666564941406</v>
+        <v>26.20999908447266</v>
       </c>
       <c r="E19" t="n">
-        <v>349.8699951171875</v>
+        <v>27.03000068664551</v>
       </c>
       <c r="F19" t="n">
-        <v>346.1307147194807</v>
+        <v>28.44159933513223</v>
       </c>
       <c r="G19" t="n">
-        <v>343.503521231818</v>
+        <v>28.65238387429951</v>
       </c>
       <c r="H19" t="n">
-        <v>317.4283662308521</v>
+        <v>28.63401276995548</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>0.1062</v>
+        <v>0</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>44571</v>
+        <v>43689</v>
       </c>
       <c r="M19" t="n">
-        <v>-19.47000122070312</v>
+        <v>0.8099994659423828</v>
       </c>
       <c r="N19" t="n">
         <v>4</v>
@@ -1539,25 +1539,25 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>342.2033386230469</v>
+        <v>27.63999938964844</v>
       </c>
       <c r="C20" t="n">
-        <v>356.9299926757812</v>
+        <v>27.70000076293945</v>
       </c>
       <c r="D20" t="n">
-        <v>313.5</v>
+        <v>26.26000022888184</v>
       </c>
       <c r="E20" t="n">
-        <v>314.6333312988281</v>
+        <v>26.46999931335449</v>
       </c>
       <c r="F20" t="n">
-        <v>335.6315869125965</v>
+        <v>27.78439932787298</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0879234689314</v>
+        <v>28.16740952742284</v>
       </c>
       <c r="H20" t="n">
-        <v>317.1742721461227</v>
+        <v>28.43728427390084</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1570,13 +1570,13 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>0.1076</v>
+        <v>0</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>44578</v>
+        <v>43696</v>
       </c>
       <c r="M20" t="n">
-        <v>-19.47000122070312</v>
+        <v>0.8099994659423828</v>
       </c>
       <c r="N20" t="n">
         <v>4</v>
@@ -1597,49 +1597,49 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>301.586669921875</v>
+        <v>26.70000076293945</v>
       </c>
       <c r="C21" t="n">
-        <v>329.2300109863281</v>
+        <v>27.69000053405762</v>
       </c>
       <c r="D21" t="n">
-        <v>264.0033264160156</v>
+        <v>26.20999908447266</v>
       </c>
       <c r="E21" t="n">
-        <v>282.1166687011719</v>
+        <v>27.51000022888184</v>
       </c>
       <c r="F21" t="n">
-        <v>344.2610745206273</v>
+        <v>29.14739865937558</v>
       </c>
       <c r="G21" t="n">
-        <v>341.684528693141</v>
+        <v>29.11592192791494</v>
       </c>
       <c r="H21" t="n">
-        <v>314.1842033422186</v>
+        <v>28.79441397828648</v>
       </c>
       <c r="I21" t="n">
-        <v>329.2300109863281</v>
+        <v>27.69000053405762</v>
       </c>
       <c r="J21" t="n">
-        <v>346.8498990229855</v>
+        <v>29.61521894185444</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>44579</v>
+        <v>43697</v>
       </c>
       <c r="M21" t="n">
-        <v>-19.47000122070312</v>
+        <v>0.8099994659423828</v>
       </c>
       <c r="N21" t="n">
         <v>4</v>
       </c>
       <c r="O21" t="n">
-        <v>301.586669921875</v>
+        <v>26.70000076293945</v>
       </c>
       <c r="P21" t="n">
-        <v>-643</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22">
@@ -1647,25 +1647,25 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>333.6966552734375</v>
+        <v>44.54999923706055</v>
       </c>
       <c r="C22" t="n">
-        <v>335</v>
+        <v>45.11999893188477</v>
       </c>
       <c r="D22" t="n">
-        <v>303.0133361816406</v>
+        <v>44.27999877929688</v>
       </c>
       <c r="E22" t="n">
-        <v>310.8566589355469</v>
+        <v>44.4900016784668</v>
       </c>
       <c r="F22" t="n">
-        <v>334.7427826960819</v>
+        <v>44.54741104233581</v>
       </c>
       <c r="G22" t="n">
-        <v>333.504625842221</v>
+        <v>44.67909661371127</v>
       </c>
       <c r="H22" t="n">
-        <v>302.4431870386296</v>
+        <v>43.81795398587408</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1678,13 +1678,13 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.2067</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>44543</v>
+        <v>44557</v>
       </c>
       <c r="M22" t="n">
-        <v>16.53665161132812</v>
+        <v>1.969997406005859</v>
       </c>
       <c r="N22" t="n">
         <v>5</v>
@@ -1705,25 +1705,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>303.5666809082031</v>
+        <v>45.09000015258789</v>
       </c>
       <c r="C23" t="n">
-        <v>357.6600036621094</v>
+        <v>49.31000137329102</v>
       </c>
       <c r="D23" t="n">
-        <v>295.3733215332031</v>
+        <v>44.97999954223633</v>
       </c>
       <c r="E23" t="n">
-        <v>355.6666564941406</v>
+        <v>49.18000030517578</v>
       </c>
       <c r="F23" t="n">
-        <v>341.7174072954348</v>
+        <v>46.09160746328247</v>
       </c>
       <c r="G23" t="n">
-        <v>338.4295215426476</v>
+        <v>45.67929743403671</v>
       </c>
       <c r="H23" t="n">
-        <v>307.2816842618579</v>
+        <v>44.30541274217423</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1736,13 +1736,13 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>0.14745</v>
+        <v>0.1483</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>44550</v>
+        <v>44564</v>
       </c>
       <c r="M23" t="n">
-        <v>16.53665161132812</v>
+        <v>1.969997406005859</v>
       </c>
       <c r="N23" t="n">
         <v>5</v>
@@ -1763,25 +1763,25 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>357.8900146484375</v>
+        <v>49.90999984741211</v>
       </c>
       <c r="C24" t="n">
-        <v>373</v>
+        <v>50.08000183105469</v>
       </c>
       <c r="D24" t="n">
-        <v>351.0499877929688</v>
+        <v>47.18999862670898</v>
       </c>
       <c r="E24" t="n">
-        <v>352.260009765625</v>
+        <v>47.90999984741211</v>
       </c>
       <c r="F24" t="n">
-        <v>345.2316081188316</v>
+        <v>46.69773825799236</v>
       </c>
       <c r="G24" t="n">
-        <v>341.5029633699759</v>
+        <v>46.17500908145347</v>
       </c>
       <c r="H24" t="n">
-        <v>311.3706229440185</v>
+        <v>44.63310247901404</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1794,13 +1794,13 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>0.1186</v>
+        <v>0.1123</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>44557</v>
+        <v>44571</v>
       </c>
       <c r="M24" t="n">
-        <v>16.53665161132812</v>
+        <v>1.969997406005859</v>
       </c>
       <c r="N24" t="n">
         <v>5</v>
@@ -1821,25 +1821,25 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>382.5833435058594</v>
+        <v>47.84999847412109</v>
       </c>
       <c r="C25" t="n">
-        <v>402.6666564941406</v>
+        <v>48.58000183105469</v>
       </c>
       <c r="D25" t="n">
-        <v>336.6666564941406</v>
+        <v>44.65999984741211</v>
       </c>
       <c r="E25" t="n">
-        <v>342.3200073242188</v>
+        <v>44.91999816894531</v>
       </c>
       <c r="F25" t="n">
-        <v>344.2610745206273</v>
+        <v>46.10515822831001</v>
       </c>
       <c r="G25" t="n">
-        <v>341.684528693141</v>
+        <v>45.89611776756277</v>
       </c>
       <c r="H25" t="n">
-        <v>314.1842033422186</v>
+        <v>44.65918390537143</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1852,13 +1852,13 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>0.1091</v>
+        <v>0.1167</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>44564</v>
+        <v>44578</v>
       </c>
       <c r="M25" t="n">
-        <v>16.53665161132812</v>
+        <v>1.969997406005859</v>
       </c>
       <c r="N25" t="n">
         <v>5</v>
@@ -1879,49 +1879,49 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>333.3333435058594</v>
+        <v>43.90000152587891</v>
       </c>
       <c r="C26" t="n">
-        <v>371.8666687011719</v>
+        <v>46.75</v>
       </c>
       <c r="D26" t="n">
-        <v>326.6666564941406</v>
+        <v>42.59000015258789</v>
       </c>
       <c r="E26" t="n">
-        <v>349.8699951171875</v>
+        <v>45.86999893188477</v>
       </c>
       <c r="F26" t="n">
-        <v>341.7174072954348</v>
+        <v>46.09160746328247</v>
       </c>
       <c r="G26" t="n">
-        <v>338.4295215426476</v>
+        <v>45.67929743403671</v>
       </c>
       <c r="H26" t="n">
-        <v>307.2816842618579</v>
+        <v>44.30541274217423</v>
       </c>
       <c r="I26" t="n">
-        <v>371.8666687011719</v>
+        <v>46.75</v>
       </c>
       <c r="J26" t="n">
-        <v>393.6343209609477</v>
+        <v>48.97900718871438</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>44565</v>
+        <v>44579</v>
       </c>
       <c r="M26" t="n">
-        <v>16.53665161132812</v>
+        <v>1.969997406005859</v>
       </c>
       <c r="N26" t="n">
         <v>5</v>
       </c>
       <c r="O26" t="n">
-        <v>333.3333435058594</v>
+        <v>43.90000152587891</v>
       </c>
       <c r="P26" t="n">
-        <v>496</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27">
@@ -1929,25 +1929,25 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>95.66666412353516</v>
+        <v>24.21999931335449</v>
       </c>
       <c r="C27" t="n">
-        <v>104.3133316040039</v>
+        <v>25.29000091552734</v>
       </c>
       <c r="D27" t="n">
-        <v>94.19999694824219</v>
+        <v>23.8799991607666</v>
       </c>
       <c r="E27" t="n">
-        <v>95.38400268554688</v>
+        <v>24.8799991607666</v>
       </c>
       <c r="F27" t="n">
-        <v>91.20415984205748</v>
+        <v>24.25599827794909</v>
       </c>
       <c r="G27" t="n">
-        <v>85.02074534381603</v>
+        <v>24.18505669986624</v>
       </c>
       <c r="H27" t="n">
-        <v>66.93389357083917</v>
+        <v>24.95261365605501</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>44039</v>
       </c>
       <c r="M27" t="n">
-        <v>6.641366776813555</v>
+        <v>1.079999923706055</v>
       </c>
       <c r="N27" t="n">
         <v>6</v>
@@ -1987,25 +1987,25 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>96.61333465576172</v>
+        <v>25.03000068664551</v>
       </c>
       <c r="C28" t="n">
-        <v>101.8273315429688</v>
+        <v>26.19000053405762</v>
       </c>
       <c r="D28" t="n">
-        <v>94.33399963378906</v>
+        <v>24.69000053405762</v>
       </c>
       <c r="E28" t="n">
-        <v>96.84733581542969</v>
+        <v>26.11000061035156</v>
       </c>
       <c r="F28" t="n">
-        <v>93.08521849984822</v>
+        <v>24.87399905541658</v>
       </c>
       <c r="G28" t="n">
-        <v>87.64887655973018</v>
+        <v>24.61282201330742</v>
       </c>
       <c r="H28" t="n">
-        <v>69.65329741125649</v>
+        <v>25.05783065190015</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>44046</v>
       </c>
       <c r="M28" t="n">
-        <v>6.641366776813555</v>
+        <v>1.079999923706055</v>
       </c>
       <c r="N28" t="n">
         <v>6</v>
@@ -2045,25 +2045,25 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>96.53333282470703</v>
+        <v>26.30999946594238</v>
       </c>
       <c r="C29" t="n">
-        <v>111.2533340454102</v>
+        <v>27.75</v>
       </c>
       <c r="D29" t="n">
-        <v>91</v>
+        <v>25.92000007629395</v>
       </c>
       <c r="E29" t="n">
-        <v>110.0473327636719</v>
+        <v>26.46999931335449</v>
       </c>
       <c r="F29" t="n">
-        <v>98.73925658778944</v>
+        <v>25.40599914139589</v>
       </c>
       <c r="G29" t="n">
-        <v>92.62631127171723</v>
+        <v>25.02552807998455</v>
       </c>
       <c r="H29" t="n">
-        <v>73.32548244329425</v>
+        <v>25.18620962112328</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>44053</v>
       </c>
       <c r="M29" t="n">
-        <v>6.641366776813555</v>
+        <v>1.079999923706055</v>
       </c>
       <c r="N29" t="n">
         <v>6</v>
@@ -2103,25 +2103,25 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>111.8000030517578</v>
+        <v>26.30999946594238</v>
       </c>
       <c r="C30" t="n">
-        <v>139.6993255615234</v>
+        <v>26.40999984741211</v>
       </c>
       <c r="D30" t="n">
-        <v>111.5220031738281</v>
+        <v>24.89999961853027</v>
       </c>
       <c r="E30" t="n">
-        <v>136.6653289794922</v>
+        <v>24.97999954223633</v>
       </c>
       <c r="F30" t="n">
-        <v>111.381280718357</v>
+        <v>25.26399927500937</v>
       </c>
       <c r="G30" t="n">
-        <v>102.4127596512228</v>
+        <v>25.01541062715161</v>
       </c>
       <c r="H30" t="n">
-        <v>79.08365031022133</v>
+        <v>25.16746325031537</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>44060</v>
       </c>
       <c r="M30" t="n">
-        <v>6.641366776813555</v>
+        <v>1.079999923706055</v>
       </c>
       <c r="N30" t="n">
         <v>6</v>
@@ -2161,31 +2161,31 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>141.7519989013672</v>
+        <v>25.21999931335449</v>
       </c>
       <c r="C31" t="n">
-        <v>154.5659942626953</v>
+        <v>26.46999931335449</v>
       </c>
       <c r="D31" t="n">
-        <v>128.5013275146484</v>
+        <v>25.04000091552734</v>
       </c>
       <c r="E31" t="n">
-        <v>147.5599975585938</v>
+        <v>26.29999923706055</v>
       </c>
       <c r="F31" t="n">
-        <v>93.08521849984822</v>
+        <v>24.87399905541658</v>
       </c>
       <c r="G31" t="n">
-        <v>87.64887655973018</v>
+        <v>24.61282201330742</v>
       </c>
       <c r="H31" t="n">
-        <v>69.65329741125649</v>
+        <v>25.05783065190015</v>
       </c>
       <c r="I31" t="n">
-        <v>154.5659942626953</v>
+        <v>26.46999931335449</v>
       </c>
       <c r="J31" t="n">
-        <v>148.3933656781807</v>
+        <v>27.44070425121231</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>44061</v>
       </c>
       <c r="M31" t="n">
-        <v>6.641366776813555</v>
+        <v>1.079999923706055</v>
       </c>
       <c r="N31" t="n">
         <v>6</v>
       </c>
       <c r="O31" t="n">
-        <v>141.7519989013672</v>
+        <v>25.21999931335449</v>
       </c>
       <c r="P31" t="n">
-        <v>472</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32">
@@ -2211,25 +2211,25 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>231.3633270263672</v>
+        <v>27.11000061035156</v>
       </c>
       <c r="C32" t="n">
-        <v>237.7266693115234</v>
+        <v>29.10000038146973</v>
       </c>
       <c r="D32" t="n">
-        <v>208.2066650390625</v>
+        <v>27.05999946594238</v>
       </c>
       <c r="E32" t="n">
-        <v>218.2899932861328</v>
+        <v>28.98999977111816</v>
       </c>
       <c r="F32" t="n">
-        <v>228.736565010349</v>
+        <v>26.84202703124885</v>
       </c>
       <c r="G32" t="n">
-        <v>234.1412163157561</v>
+        <v>26.24112548801905</v>
       </c>
       <c r="H32" t="n">
-        <v>218.209094875586</v>
+        <v>25.56138953609999</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -2245,10 +2245,10 @@
         <v>0</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>44270</v>
+        <v>44158</v>
       </c>
       <c r="M32" t="n">
-        <v>22.01654980087187</v>
+        <v>0.6966624046307643</v>
       </c>
       <c r="N32" t="n">
         <v>7</v>
@@ -2269,25 +2269,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>228.1966705322266</v>
+        <v>28.71999931335449</v>
       </c>
       <c r="C33" t="n">
-        <v>233.2066650390625</v>
+        <v>29.43000030517578</v>
       </c>
       <c r="D33" t="n">
-        <v>199.9633331298828</v>
+        <v>28.10000038146973</v>
       </c>
       <c r="E33" t="n">
-        <v>206.2366638183594</v>
+        <v>29.29000091552734</v>
       </c>
       <c r="F33" t="n">
-        <v>221.2365979463524</v>
+        <v>27.65801832600835</v>
       </c>
       <c r="G33" t="n">
-        <v>227.9402046496679</v>
+        <v>26.91865336079867</v>
       </c>
       <c r="H33" t="n">
-        <v>217.1206920522017</v>
+        <v>25.90035420695702</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>44277</v>
+        <v>44165</v>
       </c>
       <c r="M33" t="n">
-        <v>22.01654980087187</v>
+        <v>0.6966624046307643</v>
       </c>
       <c r="N33" t="n">
         <v>7</v>
@@ -2327,25 +2327,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>205.2133331298828</v>
+        <v>28.89999961853027</v>
       </c>
       <c r="C34" t="n">
-        <v>230.8066711425781</v>
+        <v>29.25</v>
       </c>
       <c r="D34" t="n">
-        <v>197.0033264160156</v>
+        <v>28.29999923706055</v>
       </c>
       <c r="E34" t="n">
-        <v>220.5833282470703</v>
+        <v>28.56999969482422</v>
       </c>
       <c r="F34" t="n">
-        <v>221.0188413799251</v>
+        <v>27.96201211561364</v>
       </c>
       <c r="G34" t="n">
-        <v>226.3053432268685</v>
+        <v>27.28561921280435</v>
       </c>
       <c r="H34" t="n">
-        <v>217.4354771608261</v>
+        <v>26.14304925130858</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -2361,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>44284</v>
+        <v>44172</v>
       </c>
       <c r="M34" t="n">
-        <v>22.01654980087187</v>
+        <v>0.6966624046307643</v>
       </c>
       <c r="N34" t="n">
         <v>7</v>
@@ -2385,25 +2385,25 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>235.9033355712891</v>
+        <v>28.92000007629395</v>
       </c>
       <c r="C35" t="n">
-        <v>236.0533294677734</v>
+        <v>29.10000038146973</v>
       </c>
       <c r="D35" t="n">
-        <v>222.6133270263672</v>
+        <v>28.13999938964844</v>
       </c>
       <c r="E35" t="n">
-        <v>225.67333984375</v>
+        <v>28.67000007629395</v>
       </c>
       <c r="F35" t="n">
-        <v>222.5703408678668</v>
+        <v>28.19800810250707</v>
       </c>
       <c r="G35" t="n">
-        <v>226.1648980306199</v>
+        <v>27.59325940469093</v>
       </c>
       <c r="H35" t="n">
-        <v>218.1843737683647</v>
+        <v>26.37277205357998</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2419,10 +2419,10 @@
         <v>0</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>44291</v>
+        <v>44179</v>
       </c>
       <c r="M35" t="n">
-        <v>22.01654980087187</v>
+        <v>0.6966624046307643</v>
       </c>
       <c r="N35" t="n">
         <v>7</v>
@@ -2443,49 +2443,49 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>228.5666656494141</v>
+        <v>29.10000038146973</v>
       </c>
       <c r="C36" t="n">
-        <v>260.2633361816406</v>
+        <v>30.35000038146973</v>
       </c>
       <c r="D36" t="n">
-        <v>227.3633270263672</v>
+        <v>28.72999954223633</v>
       </c>
       <c r="E36" t="n">
-        <v>246.5933380126953</v>
+        <v>29.95999908447266</v>
       </c>
       <c r="F36" t="n">
-        <v>221.2365979463524</v>
+        <v>27.65801832600835</v>
       </c>
       <c r="G36" t="n">
-        <v>227.9402046496679</v>
+        <v>26.91865336079867</v>
       </c>
       <c r="H36" t="n">
-        <v>217.1206920522017</v>
+        <v>25.90035420695702</v>
       </c>
       <c r="I36" t="n">
-        <v>260.2633361816406</v>
+        <v>30.35000038146973</v>
       </c>
       <c r="J36" t="n">
-        <v>250.5832154502859</v>
+        <v>29.79666278610049</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>44292</v>
+        <v>44180</v>
       </c>
       <c r="M36" t="n">
-        <v>22.01654980087187</v>
+        <v>0.6966624046307643</v>
       </c>
       <c r="N36" t="n">
         <v>7</v>
       </c>
       <c r="O36" t="n">
-        <v>228.5666656494141</v>
+        <v>29.10000038146973</v>
       </c>
       <c r="P36" t="n">
-        <v>969</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37">
@@ -2493,25 +2493,25 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15.46733283996582</v>
+        <v>28.95999908447266</v>
       </c>
       <c r="C37" t="n">
-        <v>15.63333320617676</v>
+        <v>29</v>
       </c>
       <c r="D37" t="n">
-        <v>13.92800045013428</v>
+        <v>28.01000022888184</v>
       </c>
       <c r="E37" t="n">
-        <v>14.0686674118042</v>
+        <v>28.39999961853027</v>
       </c>
       <c r="F37" t="n">
-        <v>15.91857446832184</v>
+        <v>29.3827503710478</v>
       </c>
       <c r="G37" t="n">
-        <v>16.60761205901573</v>
+        <v>29.35262447333642</v>
       </c>
       <c r="H37" t="n">
-        <v>18.28862513160525</v>
+        <v>28.59101287597658</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43598</v>
       </c>
       <c r="M37" t="n">
-        <v>0.3113327026367188</v>
+        <v>0.1010758403152998</v>
       </c>
       <c r="N37" t="n">
         <v>8</v>
@@ -2551,25 +2551,25 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>13.52000045776367</v>
+        <v>28.39999961853027</v>
       </c>
       <c r="C38" t="n">
-        <v>13.82666683197021</v>
+        <v>28.75</v>
       </c>
       <c r="D38" t="n">
-        <v>12.4146671295166</v>
+        <v>27.5</v>
       </c>
       <c r="E38" t="n">
-        <v>12.70866680145264</v>
+        <v>28.18000030517578</v>
       </c>
       <c r="F38" t="n">
-        <v>14.8486052460321</v>
+        <v>28.98183368242379</v>
       </c>
       <c r="G38" t="n">
-        <v>15.74117977955726</v>
+        <v>29.09204132485628</v>
       </c>
       <c r="H38" t="n">
-        <v>17.78135619250046</v>
+        <v>28.55364809681287</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43605</v>
       </c>
       <c r="M38" t="n">
-        <v>0.3113327026367188</v>
+        <v>0.1010758403152998</v>
       </c>
       <c r="N38" t="n">
         <v>8</v>
@@ -2609,25 +2609,25 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>12.74666690826416</v>
+        <v>28.04999923706055</v>
       </c>
       <c r="C39" t="n">
-        <v>13</v>
+        <v>28.25</v>
       </c>
       <c r="D39" t="n">
-        <v>12.2733325958252</v>
+        <v>26.47999954223633</v>
       </c>
       <c r="E39" t="n">
-        <v>12.3439998626709</v>
+        <v>26.60000038146973</v>
       </c>
       <c r="F39" t="n">
-        <v>14.0137367849117</v>
+        <v>28.18788924877244</v>
       </c>
       <c r="G39" t="n">
-        <v>14.98625090913807</v>
+        <v>28.53825444854816</v>
       </c>
       <c r="H39" t="n">
-        <v>17.28705107160687</v>
+        <v>28.3760437590544</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>43612</v>
       </c>
       <c r="M39" t="n">
-        <v>0.3113327026367188</v>
+        <v>0.1010758403152998</v>
       </c>
       <c r="N39" t="n">
         <v>8</v>
@@ -2667,25 +2667,25 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>12.36733341217041</v>
+        <v>26.59000015258789</v>
       </c>
       <c r="C40" t="n">
-        <v>14.06666660308838</v>
+        <v>28.04000091552734</v>
       </c>
       <c r="D40" t="n">
-        <v>11.79933261871338</v>
+        <v>26.39999961853027</v>
       </c>
       <c r="E40" t="n">
-        <v>13.63333320617676</v>
+        <v>27.53000068664551</v>
       </c>
       <c r="F40" t="n">
-        <v>13.88693559200006</v>
+        <v>27.9685930613968</v>
       </c>
       <c r="G40" t="n">
-        <v>14.68560253070222</v>
+        <v>28.31419805701423</v>
       </c>
       <c r="H40" t="n">
-        <v>16.95489490202231</v>
+        <v>28.29913075247178</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>43619</v>
       </c>
       <c r="M40" t="n">
-        <v>0.3113327026367188</v>
+        <v>0.1010758403152998</v>
       </c>
       <c r="N40" t="n">
         <v>8</v>
@@ -2725,31 +2725,31 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>14.01666736602783</v>
+        <v>27.86000061035156</v>
       </c>
       <c r="C41" t="n">
-        <v>14.89200019836426</v>
+        <v>28.70000076293945</v>
       </c>
       <c r="D41" t="n">
-        <v>13.83399963378906</v>
+        <v>27.78000068664551</v>
       </c>
       <c r="E41" t="n">
-        <v>14.32800006866455</v>
+        <v>28.04000091552734</v>
       </c>
       <c r="F41" t="n">
-        <v>14.8486052460321</v>
+        <v>28.98183368242379</v>
       </c>
       <c r="G41" t="n">
-        <v>15.74117977955726</v>
+        <v>29.09204132485628</v>
       </c>
       <c r="H41" t="n">
-        <v>17.78135619250046</v>
+        <v>28.55364809681287</v>
       </c>
       <c r="I41" t="n">
-        <v>14.89200019836426</v>
+        <v>28.70000076293945</v>
       </c>
       <c r="J41" t="n">
-        <v>15.78194604416678</v>
+        <v>27.96107645066686</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>43620</v>
       </c>
       <c r="M41" t="n">
-        <v>0.3113327026367188</v>
+        <v>0.1010758403152998</v>
       </c>
       <c r="N41" t="n">
         <v>8</v>
       </c>
       <c r="O41" t="n">
-        <v>14.01666736602783</v>
+        <v>27.86000061035156</v>
       </c>
       <c r="P41" t="n">
-        <v>222</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42">
@@ -2775,25 +2775,25 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>40.35933303833008</v>
+        <v>30.22999954223633</v>
       </c>
       <c r="C42" t="n">
-        <v>44.53333282470703</v>
+        <v>30.54999923706055</v>
       </c>
       <c r="D42" t="n">
-        <v>33.46666717529297</v>
+        <v>29.89999961853027</v>
       </c>
       <c r="E42" t="n">
-        <v>36.44133377075195</v>
+        <v>30.30999946594238</v>
       </c>
       <c r="F42" t="n">
-        <v>43.98965779589778</v>
+        <v>29.29355877520009</v>
       </c>
       <c r="G42" t="n">
-        <v>43.34710546518744</v>
+        <v>28.6060455357955</v>
       </c>
       <c r="H42" t="n">
-        <v>35.7901043917103</v>
+        <v>27.02716686221562</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>43899</v>
+        <v>44193</v>
       </c>
       <c r="M42" t="n">
-        <v>1.666622414026278</v>
+        <v>-1.620000839233398</v>
       </c>
       <c r="N42" t="n">
         <v>9</v>
@@ -2833,25 +2833,25 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>31.29999923706055</v>
+        <v>30.45999908447266</v>
       </c>
       <c r="C43" t="n">
-        <v>32.9913330078125</v>
+        <v>33.61999893188477</v>
       </c>
       <c r="D43" t="n">
-        <v>23.36733245849609</v>
+        <v>29.75</v>
       </c>
       <c r="E43" t="n">
-        <v>28.50200080871582</v>
+        <v>32.52999877929688</v>
       </c>
       <c r="F43" t="n">
-        <v>38.82710546683713</v>
+        <v>30.37237210989902</v>
       </c>
       <c r="G43" t="n">
-        <v>40.04819331930486</v>
+        <v>29.47803514546247</v>
       </c>
       <c r="H43" t="n">
-        <v>35.12754952052899</v>
+        <v>27.52742430922301</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2867,10 +2867,10 @@
         <v>0</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>43906</v>
+        <v>44200</v>
       </c>
       <c r="M43" t="n">
-        <v>1.666622414026278</v>
+        <v>-1.620000839233398</v>
       </c>
       <c r="N43" t="n">
         <v>9</v>
@@ -2891,25 +2891,25 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>28.90666770935059</v>
+        <v>32.09000015258789</v>
       </c>
       <c r="C44" t="n">
-        <v>37.33333206176758</v>
+        <v>34.36999893188477</v>
       </c>
       <c r="D44" t="n">
-        <v>27.36666679382324</v>
+        <v>31.89999961853027</v>
       </c>
       <c r="E44" t="n">
-        <v>34.29066848754883</v>
+        <v>33.0099983215332</v>
       </c>
       <c r="F44" t="n">
-        <v>37.31495980707437</v>
+        <v>31.25158084711042</v>
       </c>
       <c r="G44" t="n">
-        <v>38.76874335669241</v>
+        <v>30.26291585125597</v>
       </c>
       <c r="H44" t="n">
-        <v>35.0514694266217</v>
+        <v>28.02584012852393</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2925,10 +2925,10 @@
         <v>0</v>
       </c>
       <c r="L44" s="2" t="n">
-        <v>43913</v>
+        <v>44207</v>
       </c>
       <c r="M44" t="n">
-        <v>1.666622414026278</v>
+        <v>-1.620000839233398</v>
       </c>
       <c r="N44" t="n">
         <v>9</v>
@@ -2949,25 +2949,25 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>34.017333984375</v>
+        <v>32.5</v>
       </c>
       <c r="C45" t="n">
-        <v>36.19733428955078</v>
+        <v>33.59999847412109</v>
       </c>
       <c r="D45" t="n">
-        <v>29.76000022888184</v>
+        <v>31.25</v>
       </c>
       <c r="E45" t="n">
-        <v>32.00066757202148</v>
+        <v>31.54999923706055</v>
       </c>
       <c r="F45" t="n">
-        <v>35.54352906205674</v>
+        <v>31.35105364376046</v>
       </c>
       <c r="G45" t="n">
-        <v>37.26472651565443</v>
+        <v>30.54893438143476</v>
       </c>
       <c r="H45" t="n">
-        <v>34.77412380347622</v>
+        <v>28.34621822929999</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2983,10 +2983,10 @@
         <v>0</v>
       </c>
       <c r="L45" s="2" t="n">
-        <v>43920</v>
+        <v>44214</v>
       </c>
       <c r="M45" t="n">
-        <v>1.666622414026278</v>
+        <v>-1.620000839233398</v>
       </c>
       <c r="N45" t="n">
         <v>9</v>
@@ -3007,49 +3007,49 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>34.08000183105469</v>
+        <v>31.27000045776367</v>
       </c>
       <c r="C46" t="n">
-        <v>38.34533309936523</v>
+        <v>31.43000030517578</v>
       </c>
       <c r="D46" t="n">
-        <v>33.19733428955078</v>
+        <v>29.59000015258789</v>
       </c>
       <c r="E46" t="n">
-        <v>38.20000076293945</v>
+        <v>29.64999961853027</v>
       </c>
       <c r="F46" t="n">
-        <v>38.82710546683713</v>
+        <v>30.37237210989902</v>
       </c>
       <c r="G46" t="n">
-        <v>40.04819331930486</v>
+        <v>29.47803514546247</v>
       </c>
       <c r="H46" t="n">
-        <v>35.12754952052899</v>
+        <v>27.52742430922301</v>
       </c>
       <c r="I46" t="n">
-        <v>38.34533309936523</v>
+        <v>31.43000030517578</v>
       </c>
       <c r="J46" t="n">
-        <v>35.74662424508097</v>
+        <v>33.48314180583354</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>43921</v>
+        <v>44215</v>
       </c>
       <c r="M46" t="n">
-        <v>1.666622414026278</v>
+        <v>-1.620000839233398</v>
       </c>
       <c r="N46" t="n">
         <v>9</v>
       </c>
       <c r="O46" t="n">
-        <v>34.08000183105469</v>
+        <v>31.27000045776367</v>
       </c>
       <c r="P46" t="n">
-        <v>488</v>
+        <v>-518</v>
       </c>
     </row>
     <row r="47">
@@ -3057,25 +3057,25 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>61.18600082397461</v>
+        <v>33.08000183105469</v>
       </c>
       <c r="C47" t="n">
-        <v>67.94667053222656</v>
+        <v>33.93999862670898</v>
       </c>
       <c r="D47" t="n">
-        <v>60.56666564941406</v>
+        <v>32.09999847412109</v>
       </c>
       <c r="E47" t="n">
-        <v>66.72666931152344</v>
+        <v>33.43000030517578</v>
       </c>
       <c r="F47" t="n">
-        <v>60.4749124882741</v>
+        <v>32.75839365335086</v>
       </c>
       <c r="G47" t="n">
-        <v>57.27547143443972</v>
+        <v>33.2132133478781</v>
       </c>
       <c r="H47" t="n">
-        <v>48.34551804511651</v>
+        <v>36.11403790911436</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -3088,13 +3088,13 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>0.1805</v>
       </c>
       <c r="L47" s="2" t="n">
-        <v>43997</v>
+        <v>44760</v>
       </c>
       <c r="M47" t="n">
-        <v>5.700738298169682</v>
+        <v>0.2103419118784586</v>
       </c>
       <c r="N47" t="n">
         <v>10</v>
@@ -3115,25 +3115,25 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>66.663330078125</v>
+        <v>33.77999877929688</v>
       </c>
       <c r="C48" t="n">
-        <v>67.46666717529297</v>
+        <v>33.97999954223633</v>
       </c>
       <c r="D48" t="n">
-        <v>62.47666549682617</v>
+        <v>32.90000152587891</v>
       </c>
       <c r="E48" t="n">
-        <v>63.982666015625</v>
+        <v>33.81000137329102</v>
       </c>
       <c r="F48" t="n">
-        <v>61.64416366405774</v>
+        <v>33.10892955999758</v>
       </c>
       <c r="G48" t="n">
-        <v>58.76595911914755</v>
+        <v>33.34583290908097</v>
       </c>
       <c r="H48" t="n">
-        <v>49.76707695152637</v>
+        <v>35.90458004222133</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -3146,13 +3146,13 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>0.1912</v>
       </c>
       <c r="L48" s="2" t="n">
-        <v>44004</v>
+        <v>44767</v>
       </c>
       <c r="M48" t="n">
-        <v>5.700738298169682</v>
+        <v>0.2103419118784586</v>
       </c>
       <c r="N48" t="n">
         <v>10</v>
@@ -3173,25 +3173,25 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>64.60066986083984</v>
+        <v>33.61999893188477</v>
       </c>
       <c r="C49" t="n">
-        <v>81.86666870117188</v>
+        <v>34.33000183105469</v>
       </c>
       <c r="D49" t="n">
-        <v>63.23466873168945</v>
+        <v>33</v>
       </c>
       <c r="E49" t="n">
-        <v>80.57733154296875</v>
+        <v>33.95999908447266</v>
       </c>
       <c r="F49" t="n">
-        <v>67.95521962369475</v>
+        <v>33.39261940148928</v>
       </c>
       <c r="G49" t="n">
-        <v>63.61293076888559</v>
+        <v>33.48231428139023</v>
       </c>
       <c r="H49" t="n">
-        <v>52.56800918711204</v>
+        <v>35.72779995515327</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -3207,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="L49" s="2" t="n">
-        <v>44011</v>
+        <v>44774</v>
       </c>
       <c r="M49" t="n">
-        <v>5.700738298169682</v>
+        <v>0.2103419118784586</v>
       </c>
       <c r="N49" t="n">
         <v>10</v>
@@ -3231,25 +3231,25 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>85.11266326904297</v>
+        <v>34.16999816894531</v>
       </c>
       <c r="C50" t="n">
-        <v>103.2613296508789</v>
+        <v>36.31000137329102</v>
       </c>
       <c r="D50" t="n">
-        <v>84.40266418457031</v>
+        <v>33.40999984741211</v>
       </c>
       <c r="E50" t="n">
-        <v>102.9766693115234</v>
+        <v>36.29999923706055</v>
       </c>
       <c r="F50" t="n">
-        <v>79.62903618630432</v>
+        <v>34.36174601334637</v>
       </c>
       <c r="G50" t="n">
-        <v>72.36042822280511</v>
+        <v>34.10846649376141</v>
       </c>
       <c r="H50" t="n">
-        <v>57.15061465296762</v>
+        <v>35.77981807169029</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -3262,13 +3262,13 @@
         </is>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>0.1785</v>
       </c>
       <c r="L50" s="2" t="n">
-        <v>44018</v>
+        <v>44781</v>
       </c>
       <c r="M50" t="n">
-        <v>5.700738298169682</v>
+        <v>0.2103419118784586</v>
       </c>
       <c r="N50" t="n">
         <v>10</v>
@@ -3289,49 +3289,49 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>110.5999984741211</v>
+        <v>35.84000015258789</v>
       </c>
       <c r="C51" t="n">
-        <v>119.6660003662109</v>
+        <v>36.93999862670898</v>
       </c>
       <c r="D51" t="n">
-        <v>95.40000152587891</v>
+        <v>35.31000137329102</v>
       </c>
       <c r="E51" t="n">
-        <v>100.0559997558594</v>
+        <v>35.47999954223633</v>
       </c>
       <c r="F51" t="n">
-        <v>61.64416366405774</v>
+        <v>33.10892955999758</v>
       </c>
       <c r="G51" t="n">
-        <v>58.76595911914755</v>
+        <v>33.34583290908097</v>
       </c>
       <c r="H51" t="n">
-        <v>49.76707695152637</v>
+        <v>35.90458004222133</v>
       </c>
       <c r="I51" t="n">
-        <v>119.6660003662109</v>
+        <v>36.93999862670898</v>
       </c>
       <c r="J51" t="n">
-        <v>116.3007367722908</v>
+        <v>36.05034206446635</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
       <c r="L51" s="2" t="n">
-        <v>44019</v>
+        <v>44782</v>
       </c>
       <c r="M51" t="n">
-        <v>5.700738298169682</v>
+        <v>0.2103419118784586</v>
       </c>
       <c r="N51" t="n">
         <v>10</v>
       </c>
       <c r="O51" t="n">
-        <v>110.5999984741211</v>
+        <v>35.84000015258789</v>
       </c>
       <c r="P51" t="n">
-        <v>513</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52">
@@ -3339,25 +3339,25 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>257.7066650390625</v>
+        <v>23.75</v>
       </c>
       <c r="C52" t="n">
-        <v>266.3333435058594</v>
+        <v>26.17000007629395</v>
       </c>
       <c r="D52" t="n">
-        <v>254.5299987792969</v>
+        <v>23.70000076293945</v>
       </c>
       <c r="E52" t="n">
-        <v>258.4066772460938</v>
+        <v>24.1200008392334</v>
       </c>
       <c r="F52" t="n">
-        <v>251.8206640955788</v>
+        <v>23.12640191024203</v>
       </c>
       <c r="G52" t="n">
-        <v>246.6416239029286</v>
+        <v>23.32432791818212</v>
       </c>
       <c r="H52" t="n">
-        <v>234.065026698132</v>
+        <v>25.69336902857469</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -3373,10 +3373,10 @@
         <v>0</v>
       </c>
       <c r="L52" s="2" t="n">
-        <v>44466</v>
+        <v>43976</v>
       </c>
       <c r="M52" t="n">
-        <v>50.7536114461451</v>
+        <v>-1.739999771118164</v>
       </c>
       <c r="N52" t="n">
         <v>11</v>
@@ -3397,25 +3397,25 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>265.5</v>
+        <v>24.28000068664551</v>
       </c>
       <c r="C53" t="n">
-        <v>268.989990234375</v>
+        <v>29.01000022888184</v>
       </c>
       <c r="D53" t="n">
-        <v>257.739990234375</v>
+        <v>24.04999923706055</v>
       </c>
       <c r="E53" t="n">
-        <v>261.8299865722656</v>
+        <v>28.11000061035156</v>
       </c>
       <c r="F53" t="n">
-        <v>255.1571049211411</v>
+        <v>24.78760147694521</v>
       </c>
       <c r="G53" t="n">
-        <v>250.0168156072257</v>
+        <v>24.38781073866422</v>
       </c>
       <c r="H53" t="n">
-        <v>236.5891139594169</v>
+        <v>25.91306280873622</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -3431,10 +3431,10 @@
         <v>0</v>
       </c>
       <c r="L53" s="2" t="n">
-        <v>44473</v>
+        <v>43983</v>
       </c>
       <c r="M53" t="n">
-        <v>50.7536114461451</v>
+        <v>-1.739999771118164</v>
       </c>
       <c r="N53" t="n">
         <v>11</v>
@@ -3455,25 +3455,25 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>262.5499877929688</v>
+        <v>28.59000015258789</v>
       </c>
       <c r="C54" t="n">
-        <v>281.0700073242188</v>
+        <v>28.89999961853027</v>
       </c>
       <c r="D54" t="n">
-        <v>261.8333435058594</v>
+        <v>23.68000030517578</v>
       </c>
       <c r="E54" t="n">
-        <v>281.010009765625</v>
+        <v>24.78000068664551</v>
       </c>
       <c r="F54" t="n">
-        <v>263.7747398693024</v>
+        <v>24.78506788017865</v>
       </c>
       <c r="G54" t="n">
-        <v>256.90419208687</v>
+        <v>24.47496406043784</v>
       </c>
       <c r="H54" t="n">
-        <v>240.6273772145267</v>
+        <v>25.81005716127343</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="L54" s="2" t="n">
-        <v>44480</v>
+        <v>43990</v>
       </c>
       <c r="M54" t="n">
-        <v>50.7536114461451</v>
+        <v>-1.739999771118164</v>
       </c>
       <c r="N54" t="n">
         <v>11</v>
@@ -3513,25 +3513,25 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>283.9299926757812</v>
+        <v>23.76000022888184</v>
       </c>
       <c r="C55" t="n">
-        <v>303.3333435058594</v>
+        <v>26.23999977111816</v>
       </c>
       <c r="D55" t="n">
-        <v>283.8233337402344</v>
+        <v>23.69000053405762</v>
       </c>
       <c r="E55" t="n">
-        <v>303.2266540527344</v>
+        <v>25.25</v>
       </c>
       <c r="F55" t="n">
-        <v>276.9253779304464</v>
+        <v>24.94004525345243</v>
       </c>
       <c r="G55" t="n">
-        <v>267.1980725237288</v>
+        <v>24.64719426922943</v>
       </c>
       <c r="H55" t="n">
-        <v>246.3182205634547</v>
+        <v>25.75914287388494</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -3547,10 +3547,10 @@
         <v>0</v>
       </c>
       <c r="L55" s="2" t="n">
-        <v>44487</v>
+        <v>43997</v>
       </c>
       <c r="M55" t="n">
-        <v>50.7536114461451</v>
+        <v>-1.739999771118164</v>
       </c>
       <c r="N55" t="n">
         <v>11</v>
@@ -3571,49 +3571,49 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>316.8433227539062</v>
+        <v>24.88999938964844</v>
       </c>
       <c r="C56" t="n">
-        <v>371.7366638183594</v>
+        <v>25.40999984741211</v>
       </c>
       <c r="D56" t="n">
-        <v>314.7333374023438</v>
+        <v>23.02000045776367</v>
       </c>
       <c r="E56" t="n">
-        <v>371.3333435058594</v>
+        <v>23.14999961853027</v>
       </c>
       <c r="F56" t="n">
-        <v>255.1571049211411</v>
+        <v>24.78760147694521</v>
       </c>
       <c r="G56" t="n">
-        <v>250.0168156072257</v>
+        <v>24.38781073866422</v>
       </c>
       <c r="H56" t="n">
-        <v>236.5891139594169</v>
+        <v>25.91306280873622</v>
       </c>
       <c r="I56" t="n">
-        <v>371.7366638183594</v>
+        <v>25.40999984741211</v>
       </c>
       <c r="J56" t="n">
-        <v>367.5969342000514</v>
+        <v>28.17892550604199</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
       </c>
       <c r="L56" s="2" t="n">
-        <v>44488</v>
+        <v>43998</v>
       </c>
       <c r="M56" t="n">
-        <v>50.7536114461451</v>
+        <v>-1.739999771118164</v>
       </c>
       <c r="N56" t="n">
         <v>11</v>
       </c>
       <c r="O56" t="n">
-        <v>316.8433227539062</v>
+        <v>24.88999938964844</v>
       </c>
       <c r="P56" t="n">
-        <v>1624</v>
+        <v>-699</v>
       </c>
     </row>
     <row r="57">
@@ -3621,25 +3621,25 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>55.18533325195312</v>
+        <v>30.45999908447266</v>
       </c>
       <c r="C57" t="n">
-        <v>55.64799880981445</v>
+        <v>33.61999893188477</v>
       </c>
       <c r="D57" t="n">
-        <v>53.06666564941406</v>
+        <v>29.75</v>
       </c>
       <c r="E57" t="n">
-        <v>54.45866775512695</v>
+        <v>32.52999877929688</v>
       </c>
       <c r="F57" t="n">
-        <v>51.29065566192057</v>
+        <v>30.37237210989902</v>
       </c>
       <c r="G57" t="n">
-        <v>48.94859383604879</v>
+        <v>29.47803514546247</v>
       </c>
       <c r="H57" t="n">
-        <v>42.29525448764684</v>
+        <v>27.52742430922301</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -3655,10 +3655,10 @@
         <v>0</v>
       </c>
       <c r="L57" s="2" t="n">
-        <v>43969</v>
+        <v>44200</v>
       </c>
       <c r="M57" t="n">
-        <v>3.339002125363947</v>
+        <v>2.499998092651367</v>
       </c>
       <c r="N57" t="n">
         <v>12</v>
@@ -3679,25 +3679,25 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>55.63333129882812</v>
+        <v>32.09000015258789</v>
       </c>
       <c r="C58" t="n">
-        <v>55.66666793823242</v>
+        <v>34.36999893188477</v>
       </c>
       <c r="D58" t="n">
-        <v>52.33333206176758</v>
+        <v>31.89999961853027</v>
       </c>
       <c r="E58" t="n">
-        <v>55.66666793823242</v>
+        <v>33.0099983215332</v>
       </c>
       <c r="F58" t="n">
-        <v>52.74932642069119</v>
+        <v>31.25158084711042</v>
       </c>
       <c r="G58" t="n">
-        <v>50.44149919208959</v>
+        <v>30.26291585125597</v>
       </c>
       <c r="H58" t="n">
-        <v>43.51083752860917</v>
+        <v>28.02584012852393</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -3713,10 +3713,10 @@
         <v>0</v>
       </c>
       <c r="L58" s="2" t="n">
-        <v>43976</v>
+        <v>44207</v>
       </c>
       <c r="M58" t="n">
-        <v>3.339002125363947</v>
+        <v>2.499998092651367</v>
       </c>
       <c r="N58" t="n">
         <v>12</v>
@@ -3737,25 +3737,25 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>57.20000076293945</v>
+        <v>32.5</v>
       </c>
       <c r="C59" t="n">
-        <v>60.57733154296875</v>
+        <v>33.59999847412109</v>
       </c>
       <c r="D59" t="n">
-        <v>56.93999862670898</v>
+        <v>31.25</v>
       </c>
       <c r="E59" t="n">
-        <v>59.04399871826172</v>
+        <v>31.54999923706055</v>
       </c>
       <c r="F59" t="n">
-        <v>54.84755051988137</v>
+        <v>31.35105364376046</v>
       </c>
       <c r="G59" t="n">
-        <v>52.35316575346118</v>
+        <v>30.54893438143476</v>
       </c>
       <c r="H59" t="n">
-        <v>44.92294309130485</v>
+        <v>28.34621822929999</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -3771,10 +3771,10 @@
         <v>0</v>
       </c>
       <c r="L59" s="2" t="n">
-        <v>43983</v>
+        <v>44214</v>
       </c>
       <c r="M59" t="n">
-        <v>3.339002125363947</v>
+        <v>2.499998092651367</v>
       </c>
       <c r="N59" t="n">
         <v>12</v>
@@ -3795,25 +3795,25 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>61.26666641235352</v>
+        <v>31.27000045776367</v>
       </c>
       <c r="C60" t="n">
-        <v>68.49866485595703</v>
+        <v>31.43000030517578</v>
       </c>
       <c r="D60" t="n">
-        <v>60.61066818237305</v>
+        <v>29.59000015258789</v>
       </c>
       <c r="E60" t="n">
-        <v>62.35200119018555</v>
+        <v>29.64999961853027</v>
       </c>
       <c r="F60" t="n">
-        <v>57.34903407664943</v>
+        <v>30.7840356353504</v>
       </c>
       <c r="G60" t="n">
-        <v>54.57512918384437</v>
+        <v>30.34917110078932</v>
       </c>
       <c r="H60" t="n">
-        <v>46.50740291847582</v>
+        <v>28.4647438101391</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -3829,10 +3829,10 @@
         <v>0</v>
       </c>
       <c r="L60" s="2" t="n">
-        <v>43990</v>
+        <v>44221</v>
       </c>
       <c r="M60" t="n">
-        <v>3.339002125363947</v>
+        <v>2.499998092651367</v>
       </c>
       <c r="N60" t="n">
         <v>12</v>
@@ -3853,49 +3853,49 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>61.18600082397461</v>
+        <v>29.8700008392334</v>
       </c>
       <c r="C61" t="n">
-        <v>67.94667053222656</v>
+        <v>32.90999984741211</v>
       </c>
       <c r="D61" t="n">
-        <v>60.56666564941406</v>
+        <v>29.56999969482422</v>
       </c>
       <c r="E61" t="n">
-        <v>66.72666931152344</v>
+        <v>32.36999893188477</v>
       </c>
       <c r="F61" t="n">
-        <v>52.74932642069119</v>
+        <v>31.25158084711042</v>
       </c>
       <c r="G61" t="n">
-        <v>50.44149919208959</v>
+        <v>30.26291585125597</v>
       </c>
       <c r="H61" t="n">
-        <v>43.51083752860917</v>
+        <v>28.02584012852393</v>
       </c>
       <c r="I61" t="n">
-        <v>67.94667053222656</v>
+        <v>32.90999984741211</v>
       </c>
       <c r="J61" t="n">
-        <v>64.52500294933856</v>
+        <v>33.25889894596661</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
       </c>
       <c r="L61" s="2" t="n">
-        <v>43991</v>
+        <v>44222</v>
       </c>
       <c r="M61" t="n">
-        <v>3.339002125363947</v>
+        <v>2.499998092651367</v>
       </c>
       <c r="N61" t="n">
         <v>12</v>
       </c>
       <c r="O61" t="n">
-        <v>61.18600082397461</v>
+        <v>29.8700008392334</v>
       </c>
       <c r="P61" t="n">
-        <v>544</v>
+        <v>837</v>
       </c>
     </row>
     <row r="62">
@@ -3903,25 +3903,25 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>228.1966705322266</v>
+        <v>28.92000007629395</v>
       </c>
       <c r="C62" t="n">
-        <v>233.2066650390625</v>
+        <v>29.10000038146973</v>
       </c>
       <c r="D62" t="n">
-        <v>199.9633331298828</v>
+        <v>28.13999938964844</v>
       </c>
       <c r="E62" t="n">
-        <v>206.2366638183594</v>
+        <v>28.67000007629395</v>
       </c>
       <c r="F62" t="n">
-        <v>221.2365979463524</v>
+        <v>28.19800810250707</v>
       </c>
       <c r="G62" t="n">
-        <v>227.9402046496679</v>
+        <v>27.59325940469093</v>
       </c>
       <c r="H62" t="n">
-        <v>217.1206920522017</v>
+        <v>26.37277205357998</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -3937,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="L62" s="2" t="n">
-        <v>44277</v>
+        <v>44179</v>
       </c>
       <c r="M62" t="n">
-        <v>3.26666259765625</v>
+        <v>1.803236344372529</v>
       </c>
       <c r="N62" t="n">
         <v>13</v>
@@ -3961,25 +3961,25 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>205.2133331298828</v>
+        <v>29.10000038146973</v>
       </c>
       <c r="C63" t="n">
-        <v>230.8066711425781</v>
+        <v>30.35000038146973</v>
       </c>
       <c r="D63" t="n">
-        <v>197.0033264160156</v>
+        <v>28.72999954223633</v>
       </c>
       <c r="E63" t="n">
-        <v>220.5833282470703</v>
+        <v>29.95999908447266</v>
       </c>
       <c r="F63" t="n">
-        <v>221.0188413799251</v>
+        <v>28.78533842982894</v>
       </c>
       <c r="G63" t="n">
-        <v>226.3053432268685</v>
+        <v>28.11920155575353</v>
       </c>
       <c r="H63" t="n">
-        <v>217.4354771608261</v>
+        <v>26.69888360184295</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -3995,10 +3995,10 @@
         <v>0</v>
       </c>
       <c r="L63" s="2" t="n">
-        <v>44284</v>
+        <v>44186</v>
       </c>
       <c r="M63" t="n">
-        <v>3.26666259765625</v>
+        <v>1.803236344372529</v>
       </c>
       <c r="N63" t="n">
         <v>13</v>
@@ -4019,25 +4019,25 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>235.9033355712891</v>
+        <v>30.22999954223633</v>
       </c>
       <c r="C64" t="n">
-        <v>236.0533294677734</v>
+        <v>30.54999923706055</v>
       </c>
       <c r="D64" t="n">
-        <v>222.6133270263672</v>
+        <v>29.89999961853027</v>
       </c>
       <c r="E64" t="n">
-        <v>225.67333984375</v>
+        <v>30.30999946594238</v>
       </c>
       <c r="F64" t="n">
-        <v>222.5703408678668</v>
+        <v>29.29355877520009</v>
       </c>
       <c r="G64" t="n">
-        <v>226.1648980306199</v>
+        <v>28.6060455357955</v>
       </c>
       <c r="H64" t="n">
-        <v>218.1843737683647</v>
+        <v>27.02716686221562</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -4053,10 +4053,10 @@
         <v>0</v>
       </c>
       <c r="L64" s="2" t="n">
-        <v>44291</v>
+        <v>44193</v>
       </c>
       <c r="M64" t="n">
-        <v>3.26666259765625</v>
+        <v>1.803236344372529</v>
       </c>
       <c r="N64" t="n">
         <v>13</v>
@@ -4077,25 +4077,25 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>228.5666656494141</v>
+        <v>30.45999908447266</v>
       </c>
       <c r="C65" t="n">
-        <v>260.2633361816406</v>
+        <v>33.61999893188477</v>
       </c>
       <c r="D65" t="n">
-        <v>227.3633270263672</v>
+        <v>29.75</v>
       </c>
       <c r="E65" t="n">
-        <v>246.5933380126953</v>
+        <v>32.52999877929688</v>
       </c>
       <c r="F65" t="n">
-        <v>230.5780065828096</v>
+        <v>30.37237210989902</v>
       </c>
       <c r="G65" t="n">
-        <v>230.70455135997</v>
+        <v>29.47803514546247</v>
       </c>
       <c r="H65" t="n">
-        <v>220.7670068814856</v>
+        <v>27.52742430922301</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -4111,10 +4111,10 @@
         <v>0</v>
       </c>
       <c r="L65" s="2" t="n">
-        <v>44298</v>
+        <v>44200</v>
       </c>
       <c r="M65" t="n">
-        <v>3.26666259765625</v>
+        <v>1.803236344372529</v>
       </c>
       <c r="N65" t="n">
         <v>13</v>
@@ -4135,49 +4135,49 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>239.8666687011719</v>
+        <v>32.09000015258789</v>
       </c>
       <c r="C66" t="n">
-        <v>251.2566680908203</v>
+        <v>34.36999893188477</v>
       </c>
       <c r="D66" t="n">
-        <v>230.6000061035156</v>
+        <v>31.89999961853027</v>
       </c>
       <c r="E66" t="n">
-        <v>243.1333312988281</v>
+        <v>33.0099983215332</v>
       </c>
       <c r="F66" t="n">
-        <v>221.0188413799251</v>
+        <v>28.78533842982894</v>
       </c>
       <c r="G66" t="n">
-        <v>226.3053432268685</v>
+        <v>28.11920155575353</v>
       </c>
       <c r="H66" t="n">
-        <v>217.4354771608261</v>
+        <v>26.69888360184295</v>
       </c>
       <c r="I66" t="n">
-        <v>251.2566680908203</v>
+        <v>34.36999893188477</v>
       </c>
       <c r="J66" t="n">
-        <v>251.9898266617674</v>
+        <v>33.89323649696042</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
       </c>
       <c r="L66" s="2" t="n">
-        <v>44299</v>
+        <v>44201</v>
       </c>
       <c r="M66" t="n">
-        <v>3.26666259765625</v>
+        <v>1.803236344372529</v>
       </c>
       <c r="N66" t="n">
         <v>13</v>
       </c>
       <c r="O66" t="n">
-        <v>239.8666687011719</v>
+        <v>32.09000015258789</v>
       </c>
       <c r="P66" t="n">
-        <v>137</v>
+        <v>563</v>
       </c>
     </row>
     <row r="67">
@@ -4185,25 +4185,25 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>23.52799987792969</v>
+        <v>28.73999977111816</v>
       </c>
       <c r="C67" t="n">
-        <v>24.07999992370605</v>
+        <v>30.71999931335449</v>
       </c>
       <c r="D67" t="n">
-        <v>22</v>
+        <v>28.72999954223633</v>
       </c>
       <c r="E67" t="n">
-        <v>22.20266723632812</v>
+        <v>30.35000038146973</v>
       </c>
       <c r="F67" t="n">
-        <v>21.60513109050684</v>
+        <v>29.34777593841804</v>
       </c>
       <c r="G67" t="n">
-        <v>20.56061210013201</v>
+        <v>29.12734245304822</v>
       </c>
       <c r="H67" t="n">
-        <v>18.35679962516998</v>
+        <v>28.79734809484855</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -4219,10 +4219,10 @@
         <v>0</v>
       </c>
       <c r="L67" s="2" t="n">
-        <v>43787</v>
+        <v>43752</v>
       </c>
       <c r="M67" t="n">
-        <v>1.922457306020661</v>
+        <v>0.2495955103029246</v>
       </c>
       <c r="N67" t="n">
         <v>14</v>
@@ -4243,25 +4243,25 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>22.95466613769531</v>
+        <v>30.67000007629395</v>
       </c>
       <c r="C68" t="n">
-        <v>22.97133255004883</v>
+        <v>31.85000038146973</v>
       </c>
       <c r="D68" t="n">
-        <v>21.80666732788086</v>
+        <v>30.6299991607666</v>
       </c>
       <c r="E68" t="n">
-        <v>21.99600028991699</v>
+        <v>31.71999931335449</v>
       </c>
       <c r="F68" t="n">
-        <v>21.73542082364356</v>
+        <v>30.13851706339686</v>
       </c>
       <c r="G68" t="n">
-        <v>20.87958725341756</v>
+        <v>29.70348842200517</v>
       </c>
       <c r="H68" t="n">
-        <v>18.68763604923789</v>
+        <v>29.06304366016727</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -4277,10 +4277,10 @@
         <v>0</v>
       </c>
       <c r="L68" s="2" t="n">
-        <v>43794</v>
+        <v>43759</v>
       </c>
       <c r="M68" t="n">
-        <v>1.922457306020661</v>
+        <v>0.2495955103029246</v>
       </c>
       <c r="N68" t="n">
         <v>14</v>
@@ -4301,25 +4301,25 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>21.95999908447266</v>
+        <v>31.96999931335449</v>
       </c>
       <c r="C69" t="n">
-        <v>22.59066772460938</v>
+        <v>32.22999954223633</v>
       </c>
       <c r="D69" t="n">
-        <v>21.8166675567627</v>
+        <v>30.81999969482422</v>
       </c>
       <c r="E69" t="n">
-        <v>22.39266777038574</v>
+        <v>31.79999923706055</v>
       </c>
       <c r="F69" t="n">
-        <v>21.95450313922429</v>
+        <v>30.69234445461809</v>
       </c>
       <c r="G69" t="n">
-        <v>21.21582736829938</v>
+        <v>30.1693797142397</v>
       </c>
       <c r="H69" t="n">
-        <v>19.02445711479679</v>
+        <v>29.3118578035212</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -4335,10 +4335,10 @@
         <v>0</v>
       </c>
       <c r="L69" s="2" t="n">
-        <v>43801</v>
+        <v>43766</v>
       </c>
       <c r="M69" t="n">
-        <v>1.922457306020661</v>
+        <v>0.2495955103029246</v>
       </c>
       <c r="N69" t="n">
         <v>14</v>
@@ -4359,25 +4359,25 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>22.43933296203613</v>
+        <v>32.2400016784668</v>
       </c>
       <c r="C70" t="n">
-        <v>24.34733390808105</v>
+        <v>33.59999847412109</v>
       </c>
       <c r="D70" t="n">
-        <v>22.33866691589355</v>
+        <v>32.09999847412109</v>
       </c>
       <c r="E70" t="n">
-        <v>23.89266777038574</v>
+        <v>33.2599983215332</v>
       </c>
       <c r="F70" t="n">
-        <v>22.60055801627811</v>
+        <v>31.54822907692313</v>
       </c>
       <c r="G70" t="n">
-        <v>21.81068079098524</v>
+        <v>30.85618384919381</v>
       </c>
       <c r="H70" t="n">
-        <v>19.46702171985033</v>
+        <v>29.67077966879502</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -4393,10 +4393,10 @@
         <v>0</v>
       </c>
       <c r="L70" s="2" t="n">
-        <v>43808</v>
+        <v>43773</v>
       </c>
       <c r="M70" t="n">
-        <v>1.922457306020661</v>
+        <v>0.2495955103029246</v>
       </c>
       <c r="N70" t="n">
         <v>14</v>
@@ -4417,49 +4417,49 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>24.17000007629395</v>
+        <v>33.02999877929688</v>
       </c>
       <c r="C71" t="n">
-        <v>27.53333282470703</v>
+        <v>33.31999969482422</v>
       </c>
       <c r="D71" t="n">
-        <v>24.16666793823242</v>
+        <v>32.47999954223633</v>
       </c>
       <c r="E71" t="n">
-        <v>27.03933334350586</v>
+        <v>32.93000030517578</v>
       </c>
       <c r="F71" t="n">
-        <v>21.73542082364356</v>
+        <v>30.13851706339686</v>
       </c>
       <c r="G71" t="n">
-        <v>20.87958725341756</v>
+        <v>29.70348842200517</v>
       </c>
       <c r="H71" t="n">
-        <v>18.68763604923789</v>
+        <v>29.06304366016727</v>
       </c>
       <c r="I71" t="n">
-        <v>27.53333282470703</v>
+        <v>33.31999969482422</v>
       </c>
       <c r="J71" t="n">
-        <v>26.09245738231461</v>
+        <v>33.2795942895998</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
       </c>
       <c r="L71" s="2" t="n">
-        <v>43809</v>
+        <v>43774</v>
       </c>
       <c r="M71" t="n">
-        <v>1.922457306020661</v>
+        <v>0.2495955103029246</v>
       </c>
       <c r="N71" t="n">
         <v>14</v>
       </c>
       <c r="O71" t="n">
-        <v>24.17000007629395</v>
+        <v>33.02999877929688</v>
       </c>
       <c r="P71" t="n">
-        <v>796</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72">
@@ -4467,25 +4467,25 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>201.6399993896484</v>
+        <v>28.70000076293945</v>
       </c>
       <c r="C72" t="n">
-        <v>218.1066741943359</v>
+        <v>29.63999938964844</v>
       </c>
       <c r="D72" t="n">
-        <v>188.7799987792969</v>
+        <v>28.70000076293945</v>
       </c>
       <c r="E72" t="n">
-        <v>203.3300018310547</v>
+        <v>29.29999923706055</v>
       </c>
       <c r="F72" t="n">
-        <v>184.4886521775411</v>
+        <v>28.96413923616053</v>
       </c>
       <c r="G72" t="n">
-        <v>173.1466522947163</v>
+        <v>28.67505739855709</v>
       </c>
       <c r="H72" t="n">
-        <v>142.7968656052235</v>
+        <v>27.56875446732661</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -4501,10 +4501,10 @@
         <v>0</v>
       </c>
       <c r="L72" s="2" t="n">
-        <v>44172</v>
+        <v>43535</v>
       </c>
       <c r="M72" t="n">
-        <v>40.89457678866313</v>
+        <v>0.6721731141319651</v>
       </c>
       <c r="N72" t="n">
         <v>15</v>
@@ -4525,25 +4525,25 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>206.3333282470703</v>
+        <v>29.3799991607666</v>
       </c>
       <c r="C73" t="n">
-        <v>231.6666717529297</v>
+        <v>30.13999938964844</v>
       </c>
       <c r="D73" t="n">
-        <v>201.6666717529297</v>
+        <v>26.70999908447266</v>
       </c>
       <c r="E73" t="n">
-        <v>231.6666717529297</v>
+        <v>27.01000022888184</v>
       </c>
       <c r="F73" t="n">
-        <v>200.2146587026706</v>
+        <v>28.31275956706763</v>
       </c>
       <c r="G73" t="n">
-        <v>186.1511010632082</v>
+        <v>28.30504469418482</v>
       </c>
       <c r="H73" t="n">
-        <v>150.8759388913786</v>
+        <v>27.51795862746799</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -4559,10 +4559,10 @@
         <v>0</v>
       </c>
       <c r="L73" s="2" t="n">
-        <v>44179</v>
+        <v>43542</v>
       </c>
       <c r="M73" t="n">
-        <v>40.89457678866313</v>
+        <v>0.6721731141319651</v>
       </c>
       <c r="N73" t="n">
         <v>15</v>
@@ -4583,25 +4583,25 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>222.0800018310547</v>
+        <v>26.90999984741211</v>
       </c>
       <c r="C74" t="n">
-        <v>222.8333282470703</v>
+        <v>27.68000030517578</v>
       </c>
       <c r="D74" t="n">
-        <v>204.7433319091797</v>
+        <v>26.61000061035156</v>
       </c>
       <c r="E74" t="n">
-        <v>220.5899963378906</v>
+        <v>27.59000015258789</v>
       </c>
       <c r="F74" t="n">
-        <v>207.0064379144106</v>
+        <v>28.07183976224105</v>
       </c>
       <c r="G74" t="n">
-        <v>193.8041889020265</v>
+        <v>28.14614590716328</v>
       </c>
       <c r="H74" t="n">
-        <v>157.2135804774252</v>
+        <v>27.52450785702435</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -4617,10 +4617,10 @@
         <v>0</v>
       </c>
       <c r="L74" s="2" t="n">
-        <v>44186</v>
+        <v>43549</v>
       </c>
       <c r="M74" t="n">
-        <v>40.89457678866313</v>
+        <v>0.6721731141319651</v>
       </c>
       <c r="N74" t="n">
         <v>15</v>
@@ -4641,25 +4641,25 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>224.836669921875</v>
+        <v>27.89999961853027</v>
       </c>
       <c r="C75" t="n">
-        <v>239.5733337402344</v>
+        <v>29.5</v>
       </c>
       <c r="D75" t="n">
-        <v>218.3333282470703</v>
+        <v>27.85000038146973</v>
       </c>
       <c r="E75" t="n">
-        <v>235.2233276367188</v>
+        <v>29.07999992370605</v>
       </c>
       <c r="F75" t="n">
-        <v>216.4120678218467</v>
+        <v>28.40789314939605</v>
       </c>
       <c r="G75" t="n">
-        <v>203.0084419541803</v>
+        <v>28.35366902195056</v>
       </c>
       <c r="H75" t="n">
-        <v>164.3053756737246</v>
+        <v>27.66591622672268</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -4675,10 +4675,10 @@
         <v>0</v>
       </c>
       <c r="L75" s="2" t="n">
-        <v>44193</v>
+        <v>43556</v>
       </c>
       <c r="M75" t="n">
-        <v>40.89457678866313</v>
+        <v>0.6721731141319651</v>
       </c>
       <c r="N75" t="n">
         <v>15</v>
@@ -4699,49 +4699,3433 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>239.8200073242188</v>
+        <v>28.88999938964844</v>
       </c>
       <c r="C76" t="n">
-        <v>294.8299865722656</v>
+        <v>30.21999931335449</v>
       </c>
       <c r="D76" t="n">
-        <v>239.0633392333984</v>
+        <v>28.73999977111816</v>
       </c>
       <c r="E76" t="n">
-        <v>293.3399963378906</v>
+        <v>30.17000007629395</v>
       </c>
       <c r="F76" t="n">
-        <v>200.2146587026706</v>
+        <v>28.31275956706763</v>
       </c>
       <c r="G76" t="n">
-        <v>186.1511010632082</v>
+        <v>28.30504469418482</v>
       </c>
       <c r="H76" t="n">
-        <v>150.8759388913786</v>
+        <v>27.51795862746799</v>
       </c>
       <c r="I76" t="n">
-        <v>294.8299865722656</v>
+        <v>30.21999931335449</v>
       </c>
       <c r="J76" t="n">
-        <v>280.7145841128819</v>
+        <v>29.5621725037804</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
       </c>
       <c r="L76" s="2" t="n">
-        <v>44194</v>
+        <v>43557</v>
       </c>
       <c r="M76" t="n">
-        <v>40.89457678866313</v>
+        <v>0.6721731141319651</v>
       </c>
       <c r="N76" t="n">
         <v>15</v>
       </c>
       <c r="O76" t="n">
-        <v>239.8200073242188</v>
+        <v>28.88999938964844</v>
       </c>
       <c r="P76" t="n">
-        <v>1718</v>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>35.84000015258789</v>
+      </c>
+      <c r="C77" t="n">
+        <v>36.93999862670898</v>
+      </c>
+      <c r="D77" t="n">
+        <v>35.31000137329102</v>
+      </c>
+      <c r="E77" t="n">
+        <v>35.47999954223633</v>
+      </c>
+      <c r="F77" t="n">
+        <v>34.73449718964302</v>
+      </c>
+      <c r="G77" t="n">
+        <v>34.41325161564473</v>
+      </c>
+      <c r="H77" t="n">
+        <v>35.75256184173993</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>0.1674</v>
+      </c>
+      <c r="L77" s="2" t="n">
+        <v>44788</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.1590290153737897</v>
+      </c>
+      <c r="N77" t="n">
+        <v>16</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="C78" t="n">
+        <v>35.47999954223633</v>
+      </c>
+      <c r="D78" t="n">
+        <v>34.02000045776367</v>
+      </c>
+      <c r="E78" t="n">
+        <v>34.02999877929688</v>
+      </c>
+      <c r="F78" t="n">
+        <v>34.49966438619431</v>
+      </c>
+      <c r="G78" t="n">
+        <v>34.32808431867853</v>
+      </c>
+      <c r="H78" t="n">
+        <v>35.59596519969965</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>0.1889</v>
+      </c>
+      <c r="L78" s="2" t="n">
+        <v>44795</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.1590290153737897</v>
+      </c>
+      <c r="N78" t="n">
+        <v>16</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>33.86000061035156</v>
+      </c>
+      <c r="C79" t="n">
+        <v>34.47999954223633</v>
+      </c>
+      <c r="D79" t="n">
+        <v>32.65999984741211</v>
+      </c>
+      <c r="E79" t="n">
+        <v>33.43000030517578</v>
+      </c>
+      <c r="F79" t="n">
+        <v>34.14310969252147</v>
+      </c>
+      <c r="G79" t="n">
+        <v>34.1285100934557</v>
+      </c>
+      <c r="H79" t="n">
+        <v>35.39905930019748</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>0.1983</v>
+      </c>
+      <c r="L79" s="2" t="n">
+        <v>44802</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.1590290153737897</v>
+      </c>
+      <c r="N79" t="n">
+        <v>16</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>33.63999938964844</v>
+      </c>
+      <c r="C80" t="n">
+        <v>35.25</v>
+      </c>
+      <c r="D80" t="n">
+        <v>32.61000061035156</v>
+      </c>
+      <c r="E80" t="n">
+        <v>34.93999862670898</v>
+      </c>
+      <c r="F80" t="n">
+        <v>34.40873933725064</v>
+      </c>
+      <c r="G80" t="n">
+        <v>34.3088408786231</v>
+      </c>
+      <c r="H80" t="n">
+        <v>35.35732651169852</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>0.1778</v>
+      </c>
+      <c r="L80" s="2" t="n">
+        <v>44809</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.1590290153737897</v>
+      </c>
+      <c r="N80" t="n">
+        <v>16</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>35.20000076293945</v>
+      </c>
+      <c r="C81" t="n">
+        <v>35.63000106811523</v>
+      </c>
+      <c r="D81" t="n">
+        <v>33.54000091552734</v>
+      </c>
+      <c r="E81" t="n">
+        <v>34.11999893188477</v>
+      </c>
+      <c r="F81" t="n">
+        <v>34.49966438619431</v>
+      </c>
+      <c r="G81" t="n">
+        <v>34.32808431867853</v>
+      </c>
+      <c r="H81" t="n">
+        <v>35.59596519969965</v>
+      </c>
+      <c r="I81" t="n">
+        <v>35.63000106811523</v>
+      </c>
+      <c r="J81" t="n">
+        <v>35.35902977831324</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" s="2" t="n">
+        <v>44810</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.1590290153737897</v>
+      </c>
+      <c r="N81" t="n">
+        <v>16</v>
+      </c>
+      <c r="O81" t="n">
+        <v>35.20000076293945</v>
+      </c>
+      <c r="P81" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>27.63999938964844</v>
+      </c>
+      <c r="C82" t="n">
+        <v>27.70000076293945</v>
+      </c>
+      <c r="D82" t="n">
+        <v>26.26000022888184</v>
+      </c>
+      <c r="E82" t="n">
+        <v>26.46999931335449</v>
+      </c>
+      <c r="F82" t="n">
+        <v>27.78439932787298</v>
+      </c>
+      <c r="G82" t="n">
+        <v>28.16740952742284</v>
+      </c>
+      <c r="H82" t="n">
+        <v>28.43728427390084</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" s="2" t="n">
+        <v>43696</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.2223694687772877</v>
+      </c>
+      <c r="N82" t="n">
+        <v>17</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>26.70000076293945</v>
+      </c>
+      <c r="C83" t="n">
+        <v>27.69000053405762</v>
+      </c>
+      <c r="D83" t="n">
+        <v>26.20999908447266</v>
+      </c>
+      <c r="E83" t="n">
+        <v>27.51000022888184</v>
+      </c>
+      <c r="F83" t="n">
+        <v>27.6929329615426</v>
+      </c>
+      <c r="G83" t="n">
+        <v>28.0213185721915</v>
+      </c>
+      <c r="H83" t="n">
+        <v>28.35298572435366</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" s="2" t="n">
+        <v>43703</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.2223694687772877</v>
+      </c>
+      <c r="N83" t="n">
+        <v>17</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>27.20999908447266</v>
+      </c>
+      <c r="C84" t="n">
+        <v>28.43000030517578</v>
+      </c>
+      <c r="D84" t="n">
+        <v>26.61000061035156</v>
+      </c>
+      <c r="E84" t="n">
+        <v>27.72999954223633</v>
+      </c>
+      <c r="F84" t="n">
+        <v>27.70528848844051</v>
+      </c>
+      <c r="G84" t="n">
+        <v>27.95658100997925</v>
+      </c>
+      <c r="H84" t="n">
+        <v>28.29635061688845</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" s="2" t="n">
+        <v>43710</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.2223694687772877</v>
+      </c>
+      <c r="N84" t="n">
+        <v>17</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>28</v>
+      </c>
+      <c r="C85" t="n">
+        <v>30.31999969482422</v>
+      </c>
+      <c r="D85" t="n">
+        <v>27.96999931335449</v>
+      </c>
+      <c r="E85" t="n">
+        <v>30.17000007629395</v>
+      </c>
+      <c r="F85" t="n">
+        <v>28.52685901772499</v>
+      </c>
+      <c r="G85" t="n">
+        <v>28.44845191360474</v>
+      </c>
+      <c r="H85" t="n">
+        <v>28.46668238592531</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" s="2" t="n">
+        <v>43717</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.2223694687772877</v>
+      </c>
+      <c r="N85" t="n">
+        <v>17</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>29.68000030517578</v>
+      </c>
+      <c r="C86" t="n">
+        <v>30.17000007629395</v>
+      </c>
+      <c r="D86" t="n">
+        <v>29.54999923706055</v>
+      </c>
+      <c r="E86" t="n">
+        <v>29.59000015258789</v>
+      </c>
+      <c r="F86" t="n">
+        <v>27.6929329615426</v>
+      </c>
+      <c r="G86" t="n">
+        <v>28.0213185721915</v>
+      </c>
+      <c r="H86" t="n">
+        <v>28.35298572435366</v>
+      </c>
+      <c r="I86" t="n">
+        <v>30.17000007629395</v>
+      </c>
+      <c r="J86" t="n">
+        <v>29.90236977395307</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" s="2" t="n">
+        <v>43718</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.2223694687772877</v>
+      </c>
+      <c r="N86" t="n">
+        <v>17</v>
+      </c>
+      <c r="O86" t="n">
+        <v>29.68000030517578</v>
+      </c>
+      <c r="P86" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>22.22999954223633</v>
+      </c>
+      <c r="C87" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="D87" t="n">
+        <v>20.14999961853027</v>
+      </c>
+      <c r="E87" t="n">
+        <v>24.15999984741211</v>
+      </c>
+      <c r="F87" t="n">
+        <v>28.16399295404354</v>
+      </c>
+      <c r="G87" t="n">
+        <v>29.75250759612868</v>
+      </c>
+      <c r="H87" t="n">
+        <v>31.37318816198489</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" s="2" t="n">
+        <v>43899</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3.829999923706055</v>
+      </c>
+      <c r="N87" t="n">
+        <v>18</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>19.85000038146973</v>
+      </c>
+      <c r="C88" t="n">
+        <v>22.69000053405762</v>
+      </c>
+      <c r="D88" t="n">
+        <v>19</v>
+      </c>
+      <c r="E88" t="n">
+        <v>19.67000007629395</v>
+      </c>
+      <c r="F88" t="n">
+        <v>25.33266199479367</v>
+      </c>
+      <c r="G88" t="n">
+        <v>27.51195036949873</v>
+      </c>
+      <c r="H88" t="n">
+        <v>30.30926197237662</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" s="2" t="n">
+        <v>43906</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3.829999923706055</v>
+      </c>
+      <c r="N88" t="n">
+        <v>18</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>19.26000022888184</v>
+      </c>
+      <c r="C89" t="n">
+        <v>22.95000076293945</v>
+      </c>
+      <c r="D89" t="n">
+        <v>17.95000076293945</v>
+      </c>
+      <c r="E89" t="n">
+        <v>21.60000038146973</v>
+      </c>
+      <c r="F89" t="n">
+        <v>24.08844145701903</v>
+      </c>
+      <c r="G89" t="n">
+        <v>26.19818370549229</v>
+      </c>
+      <c r="H89" t="n">
+        <v>29.51751091865781</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" s="2" t="n">
+        <v>43913</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3.829999923706055</v>
+      </c>
+      <c r="N89" t="n">
+        <v>18</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>21.64999961853027</v>
+      </c>
+      <c r="C90" t="n">
+        <v>22.48999977111816</v>
+      </c>
+      <c r="D90" t="n">
+        <v>19.51000022888184</v>
+      </c>
+      <c r="E90" t="n">
+        <v>20.03000068664551</v>
+      </c>
+      <c r="F90" t="n">
+        <v>22.73562786689453</v>
+      </c>
+      <c r="G90" t="n">
+        <v>24.82747636797078</v>
+      </c>
+      <c r="H90" t="n">
+        <v>28.65500998847488</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" s="2" t="n">
+        <v>43920</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3.829999923706055</v>
+      </c>
+      <c r="N90" t="n">
+        <v>18</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>21.03000068664551</v>
+      </c>
+      <c r="C91" t="n">
+        <v>25.31999969482422</v>
+      </c>
+      <c r="D91" t="n">
+        <v>20.80999946594238</v>
+      </c>
+      <c r="E91" t="n">
+        <v>24.86000061035156</v>
+      </c>
+      <c r="F91" t="n">
+        <v>25.33266199479367</v>
+      </c>
+      <c r="G91" t="n">
+        <v>27.51195036949873</v>
+      </c>
+      <c r="H91" t="n">
+        <v>30.30926197237662</v>
+      </c>
+      <c r="I91" t="n">
+        <v>25.31999969482422</v>
+      </c>
+      <c r="J91" t="n">
+        <v>27.65539876373477</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" s="2" t="n">
+        <v>43921</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3.829999923706055</v>
+      </c>
+      <c r="N91" t="n">
+        <v>18</v>
+      </c>
+      <c r="O91" t="n">
+        <v>21.03000068664551</v>
+      </c>
+      <c r="P91" t="n">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>30.10000038146973</v>
+      </c>
+      <c r="C92" t="n">
+        <v>30.15999984741211</v>
+      </c>
+      <c r="D92" t="n">
+        <v>29</v>
+      </c>
+      <c r="E92" t="n">
+        <v>30.03000068664551</v>
+      </c>
+      <c r="F92" t="n">
+        <v>29.34017497890096</v>
+      </c>
+      <c r="G92" t="n">
+        <v>29.04012093213965</v>
+      </c>
+      <c r="H92" t="n">
+        <v>28.08778207428354</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" s="2" t="n">
+        <v>43570</v>
+      </c>
+      <c r="M92" t="n">
+        <v>-0.5599994659423828</v>
+      </c>
+      <c r="N92" t="n">
+        <v>19</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>29.93000030517578</v>
+      </c>
+      <c r="C93" t="n">
+        <v>30.38999938964844</v>
+      </c>
+      <c r="D93" t="n">
+        <v>29.78000068664551</v>
+      </c>
+      <c r="E93" t="n">
+        <v>30.35000038146973</v>
+      </c>
+      <c r="F93" t="n">
+        <v>29.67678344642389</v>
+      </c>
+      <c r="G93" t="n">
+        <v>29.331205254213</v>
+      </c>
+      <c r="H93" t="n">
+        <v>28.29343828402774</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" s="2" t="n">
+        <v>43577</v>
+      </c>
+      <c r="M93" t="n">
+        <v>-0.5599994659423828</v>
+      </c>
+      <c r="N93" t="n">
+        <v>19</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>30.43000030517578</v>
+      </c>
+      <c r="C94" t="n">
+        <v>31.17000007629395</v>
+      </c>
+      <c r="D94" t="n">
+        <v>30.14999961853027</v>
+      </c>
+      <c r="E94" t="n">
+        <v>30.70999908447266</v>
+      </c>
+      <c r="F94" t="n">
+        <v>30.02118865910681</v>
+      </c>
+      <c r="G94" t="n">
+        <v>29.63760388315959</v>
+      </c>
+      <c r="H94" t="n">
+        <v>28.51312562952273</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2" t="n">
+        <v>43584</v>
+      </c>
+      <c r="M94" t="n">
+        <v>-0.5599994659423828</v>
+      </c>
+      <c r="N94" t="n">
+        <v>19</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>30.11000061035156</v>
+      </c>
+      <c r="C95" t="n">
+        <v>30.61000061035156</v>
+      </c>
+      <c r="D95" t="n">
+        <v>29.19000053405762</v>
+      </c>
+      <c r="E95" t="n">
+        <v>29.57999992370605</v>
+      </c>
+      <c r="F95" t="n">
+        <v>29.87412574730656</v>
+      </c>
+      <c r="G95" t="n">
+        <v>29.62480300328103</v>
+      </c>
+      <c r="H95" t="n">
+        <v>28.61011420172121</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" s="2" t="n">
+        <v>43591</v>
+      </c>
+      <c r="M95" t="n">
+        <v>-0.5599994659423828</v>
+      </c>
+      <c r="N95" t="n">
+        <v>19</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>28.95999908447266</v>
+      </c>
+      <c r="C96" t="n">
+        <v>29</v>
+      </c>
+      <c r="D96" t="n">
+        <v>28.01000022888184</v>
+      </c>
+      <c r="E96" t="n">
+        <v>28.39999961853027</v>
+      </c>
+      <c r="F96" t="n">
+        <v>29.67678344642389</v>
+      </c>
+      <c r="G96" t="n">
+        <v>29.331205254213</v>
+      </c>
+      <c r="H96" t="n">
+        <v>28.29343828402774</v>
+      </c>
+      <c r="I96" t="n">
+        <v>29</v>
+      </c>
+      <c r="J96" t="n">
+        <v>30.66671202228827</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" s="2" t="n">
+        <v>43592</v>
+      </c>
+      <c r="M96" t="n">
+        <v>-0.5599994659423828</v>
+      </c>
+      <c r="N96" t="n">
+        <v>19</v>
+      </c>
+      <c r="O96" t="n">
+        <v>28.95999908447266</v>
+      </c>
+      <c r="P96" t="n">
+        <v>-193</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>23.76000022888184</v>
+      </c>
+      <c r="C97" t="n">
+        <v>26.23999977111816</v>
+      </c>
+      <c r="D97" t="n">
+        <v>23.69000053405762</v>
+      </c>
+      <c r="E97" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="F97" t="n">
+        <v>24.94004525345243</v>
+      </c>
+      <c r="G97" t="n">
+        <v>24.64719426922943</v>
+      </c>
+      <c r="H97" t="n">
+        <v>25.75914287388494</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" s="2" t="n">
+        <v>43997</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.4196930640400751</v>
+      </c>
+      <c r="N97" t="n">
+        <v>20</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>24.88999938964844</v>
+      </c>
+      <c r="C98" t="n">
+        <v>25.40999984741211</v>
+      </c>
+      <c r="D98" t="n">
+        <v>23.02000045776367</v>
+      </c>
+      <c r="E98" t="n">
+        <v>23.14999961853027</v>
+      </c>
+      <c r="F98" t="n">
+        <v>24.34336337514505</v>
+      </c>
+      <c r="G98" t="n">
+        <v>24.31448434685184</v>
+      </c>
+      <c r="H98" t="n">
+        <v>25.52194803248906</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" s="2" t="n">
+        <v>44004</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.4196930640400751</v>
+      </c>
+      <c r="N98" t="n">
+        <v>20</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>23.40999984741211</v>
+      </c>
+      <c r="C99" t="n">
+        <v>24.06999969482422</v>
+      </c>
+      <c r="D99" t="n">
+        <v>23.10000038146973</v>
+      </c>
+      <c r="E99" t="n">
+        <v>23.29000091552734</v>
+      </c>
+      <c r="F99" t="n">
+        <v>23.99224255527248</v>
+      </c>
+      <c r="G99" t="n">
+        <v>24.08682136211306</v>
+      </c>
+      <c r="H99" t="n">
+        <v>25.31904374912891</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" s="2" t="n">
+        <v>44011</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.4196930640400751</v>
+      </c>
+      <c r="N99" t="n">
+        <v>20</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>23.81999969482422</v>
+      </c>
+      <c r="C100" t="n">
+        <v>24.07999992370605</v>
+      </c>
+      <c r="D100" t="n">
+        <v>22.38999938964844</v>
+      </c>
+      <c r="E100" t="n">
+        <v>24.02000045776367</v>
+      </c>
+      <c r="F100" t="n">
+        <v>24.00149518943621</v>
+      </c>
+      <c r="G100" t="n">
+        <v>24.07197227225764</v>
+      </c>
+      <c r="H100" t="n">
+        <v>25.20094890445934</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" s="2" t="n">
+        <v>44018</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.4196930640400751</v>
+      </c>
+      <c r="N100" t="n">
+        <v>20</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>24.3700008392334</v>
+      </c>
+      <c r="C101" t="n">
+        <v>24.8700008392334</v>
+      </c>
+      <c r="D101" t="n">
+        <v>23.20000076293945</v>
+      </c>
+      <c r="E101" t="n">
+        <v>23.21999931335449</v>
+      </c>
+      <c r="F101" t="n">
+        <v>24.34336337514505</v>
+      </c>
+      <c r="G101" t="n">
+        <v>24.31448434685184</v>
+      </c>
+      <c r="H101" t="n">
+        <v>25.52194803248906</v>
+      </c>
+      <c r="I101" t="n">
+        <v>24.8700008392334</v>
+      </c>
+      <c r="J101" t="n">
+        <v>24.78969390327347</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" s="2" t="n">
+        <v>44019</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.4196930640400751</v>
+      </c>
+      <c r="N101" t="n">
+        <v>20</v>
+      </c>
+      <c r="O101" t="n">
+        <v>24.3700008392334</v>
+      </c>
+      <c r="P101" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>42.68000030517578</v>
+      </c>
+      <c r="C102" t="n">
+        <v>44.04000091552734</v>
+      </c>
+      <c r="D102" t="n">
+        <v>42.22999954223633</v>
+      </c>
+      <c r="E102" t="n">
+        <v>43.08000183105469</v>
+      </c>
+      <c r="F102" t="n">
+        <v>41.79670423207946</v>
+      </c>
+      <c r="G102" t="n">
+        <v>41.41246992573231</v>
+      </c>
+      <c r="H102" t="n">
+        <v>40.31001536202195</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" s="2" t="n">
+        <v>44466</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.06448723751792329</v>
+      </c>
+      <c r="N102" t="n">
+        <v>21</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>43.11000061035156</v>
+      </c>
+      <c r="C103" t="n">
+        <v>44.86999893188477</v>
+      </c>
+      <c r="D103" t="n">
+        <v>43.06999969482422</v>
+      </c>
+      <c r="E103" t="n">
+        <v>44.34000015258789</v>
+      </c>
+      <c r="F103" t="n">
+        <v>42.6444695389156</v>
+      </c>
+      <c r="G103" t="n">
+        <v>42.06303219836688</v>
+      </c>
+      <c r="H103" t="n">
+        <v>40.67637761570976</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" s="2" t="n">
+        <v>44473</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.06448723751792329</v>
+      </c>
+      <c r="N103" t="n">
+        <v>21</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>44.59999847412109</v>
+      </c>
+      <c r="C104" t="n">
+        <v>46.66999816894531</v>
+      </c>
+      <c r="D104" t="n">
+        <v>42.33000183105469</v>
+      </c>
+      <c r="E104" t="n">
+        <v>46.36999893188477</v>
+      </c>
+      <c r="F104" t="n">
+        <v>43.88631266990532</v>
+      </c>
+      <c r="G104" t="n">
+        <v>43.02013591692641</v>
+      </c>
+      <c r="H104" t="n">
+        <v>41.19397955354385</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" s="2" t="n">
+        <v>44480</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.06448723751792329</v>
+      </c>
+      <c r="N104" t="n">
+        <v>21</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>46.29000091552734</v>
+      </c>
+      <c r="C105" t="n">
+        <v>47.61999893188477</v>
+      </c>
+      <c r="D105" t="n">
+        <v>46.02999877929688</v>
+      </c>
+      <c r="E105" t="n">
+        <v>47.56999969482422</v>
+      </c>
+      <c r="F105" t="n">
+        <v>45.11420834487829</v>
+      </c>
+      <c r="G105" t="n">
+        <v>44.03121675645926</v>
+      </c>
+      <c r="H105" t="n">
+        <v>41.77361774820571</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" s="2" t="n">
+        <v>44487</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.06448723751792329</v>
+      </c>
+      <c r="N105" t="n">
+        <v>21</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>47.79999923706055</v>
+      </c>
+      <c r="C106" t="n">
+        <v>48.43000030517578</v>
+      </c>
+      <c r="D106" t="n">
+        <v>47.02999877929688</v>
+      </c>
+      <c r="E106" t="n">
+        <v>47.77999877929688</v>
+      </c>
+      <c r="F106" t="n">
+        <v>42.6444695389156</v>
+      </c>
+      <c r="G106" t="n">
+        <v>42.06303219836688</v>
+      </c>
+      <c r="H106" t="n">
+        <v>40.67637761570976</v>
+      </c>
+      <c r="I106" t="n">
+        <v>48.43000030517578</v>
+      </c>
+      <c r="J106" t="n">
+        <v>47.86448647457847</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" s="2" t="n">
+        <v>44488</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.06448723751792329</v>
+      </c>
+      <c r="N106" t="n">
+        <v>21</v>
+      </c>
+      <c r="O106" t="n">
+        <v>47.79999923706055</v>
+      </c>
+      <c r="P106" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>36.02999877929688</v>
+      </c>
+      <c r="C107" t="n">
+        <v>38.75</v>
+      </c>
+      <c r="D107" t="n">
+        <v>35.40000152587891</v>
+      </c>
+      <c r="E107" t="n">
+        <v>37.45000076293945</v>
+      </c>
+      <c r="F107" t="n">
+        <v>37.89171646306526</v>
+      </c>
+      <c r="G107" t="n">
+        <v>38.96578718616576</v>
+      </c>
+      <c r="H107" t="n">
+        <v>41.53869241494439</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="L107" s="2" t="n">
+        <v>44683</v>
+      </c>
+      <c r="M107" t="n">
+        <v>-0.6300010681152344</v>
+      </c>
+      <c r="N107" t="n">
+        <v>22</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>36.86999893188477</v>
+      </c>
+      <c r="C108" t="n">
+        <v>37.13000106811523</v>
+      </c>
+      <c r="D108" t="n">
+        <v>34.2599983215332</v>
+      </c>
+      <c r="E108" t="n">
+        <v>35.16999816894531</v>
+      </c>
+      <c r="F108" t="n">
+        <v>36.98447703169195</v>
+      </c>
+      <c r="G108" t="n">
+        <v>38.12227851567232</v>
+      </c>
+      <c r="H108" t="n">
+        <v>40.95972021076265</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" s="2" t="n">
+        <v>44690</v>
+      </c>
+      <c r="M108" t="n">
+        <v>-0.6300010681152344</v>
+      </c>
+      <c r="N108" t="n">
+        <v>22</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>35</v>
+      </c>
+      <c r="C109" t="n">
+        <v>36.22000122070312</v>
+      </c>
+      <c r="D109" t="n">
+        <v>32.95999908447266</v>
+      </c>
+      <c r="E109" t="n">
+        <v>33.86000061035156</v>
+      </c>
+      <c r="F109" t="n">
+        <v>35.94298489124515</v>
+      </c>
+      <c r="G109" t="n">
+        <v>37.17510564782326</v>
+      </c>
+      <c r="H109" t="n">
+        <v>40.31429115617982</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>0.0707</v>
+      </c>
+      <c r="L109" s="2" t="n">
+        <v>44697</v>
+      </c>
+      <c r="M109" t="n">
+        <v>-0.6300010681152344</v>
+      </c>
+      <c r="N109" t="n">
+        <v>22</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>34.7599983215332</v>
+      </c>
+      <c r="C110" t="n">
+        <v>37.04999923706055</v>
+      </c>
+      <c r="D110" t="n">
+        <v>34.65999984741211</v>
+      </c>
+      <c r="E110" t="n">
+        <v>37.02000045776367</v>
+      </c>
+      <c r="F110" t="n">
+        <v>36.30199008008466</v>
+      </c>
+      <c r="G110" t="n">
+        <v>37.14063782781002</v>
+      </c>
+      <c r="H110" t="n">
+        <v>40.01481018359653</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>0.1372</v>
+      </c>
+      <c r="L110" s="2" t="n">
+        <v>44704</v>
+      </c>
+      <c r="M110" t="n">
+        <v>-0.6300010681152344</v>
+      </c>
+      <c r="N110" t="n">
+        <v>22</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>36.81999969482422</v>
+      </c>
+      <c r="C111" t="n">
+        <v>37.52999877929688</v>
+      </c>
+      <c r="D111" t="n">
+        <v>36.06999969482422</v>
+      </c>
+      <c r="E111" t="n">
+        <v>36.18999862670898</v>
+      </c>
+      <c r="F111" t="n">
+        <v>36.98447703169195</v>
+      </c>
+      <c r="G111" t="n">
+        <v>38.12227851567232</v>
+      </c>
+      <c r="H111" t="n">
+        <v>40.95972021076265</v>
+      </c>
+      <c r="I111" t="n">
+        <v>37.52999877929688</v>
+      </c>
+      <c r="J111" t="n">
+        <v>38.71872962530525</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" s="2" t="n">
+        <v>44705</v>
+      </c>
+      <c r="M111" t="n">
+        <v>-0.6300010681152344</v>
+      </c>
+      <c r="N111" t="n">
+        <v>22</v>
+      </c>
+      <c r="O111" t="n">
+        <v>36.81999969482422</v>
+      </c>
+      <c r="P111" t="n">
+        <v>-171</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>22.42000007629395</v>
+      </c>
+      <c r="C112" t="n">
+        <v>23.27000045776367</v>
+      </c>
+      <c r="D112" t="n">
+        <v>22.06999969482422</v>
+      </c>
+      <c r="E112" t="n">
+        <v>22.65999984741211</v>
+      </c>
+      <c r="F112" t="n">
+        <v>22.62960244574635</v>
+      </c>
+      <c r="G112" t="n">
+        <v>23.09699279788176</v>
+      </c>
+      <c r="H112" t="n">
+        <v>25.85070584750882</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" s="2" t="n">
+        <v>43969</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1.489999771118164</v>
+      </c>
+      <c r="N112" t="n">
+        <v>23</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="C113" t="n">
+        <v>26.17000007629395</v>
+      </c>
+      <c r="D113" t="n">
+        <v>23.70000076293945</v>
+      </c>
+      <c r="E113" t="n">
+        <v>24.1200008392334</v>
+      </c>
+      <c r="F113" t="n">
+        <v>23.12640191024203</v>
+      </c>
+      <c r="G113" t="n">
+        <v>23.32432791818212</v>
+      </c>
+      <c r="H113" t="n">
+        <v>25.69336902857469</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" s="2" t="n">
+        <v>43976</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1.489999771118164</v>
+      </c>
+      <c r="N113" t="n">
+        <v>23</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>24.28000068664551</v>
+      </c>
+      <c r="C114" t="n">
+        <v>29.01000022888184</v>
+      </c>
+      <c r="D114" t="n">
+        <v>24.04999923706055</v>
+      </c>
+      <c r="E114" t="n">
+        <v>28.11000061035156</v>
+      </c>
+      <c r="F114" t="n">
+        <v>24.78760147694521</v>
+      </c>
+      <c r="G114" t="n">
+        <v>24.38781073866422</v>
+      </c>
+      <c r="H114" t="n">
+        <v>25.91306280873622</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" s="2" t="n">
+        <v>43983</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1.489999771118164</v>
+      </c>
+      <c r="N114" t="n">
+        <v>23</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>28.59000015258789</v>
+      </c>
+      <c r="C115" t="n">
+        <v>28.89999961853027</v>
+      </c>
+      <c r="D115" t="n">
+        <v>23.68000030517578</v>
+      </c>
+      <c r="E115" t="n">
+        <v>24.78000068664551</v>
+      </c>
+      <c r="F115" t="n">
+        <v>24.78506788017865</v>
+      </c>
+      <c r="G115" t="n">
+        <v>24.47496406043784</v>
+      </c>
+      <c r="H115" t="n">
+        <v>25.81005716127343</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" s="2" t="n">
+        <v>43990</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1.489999771118164</v>
+      </c>
+      <c r="N115" t="n">
+        <v>23</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>23.76000022888184</v>
+      </c>
+      <c r="C116" t="n">
+        <v>26.23999977111816</v>
+      </c>
+      <c r="D116" t="n">
+        <v>23.69000053405762</v>
+      </c>
+      <c r="E116" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="F116" t="n">
+        <v>23.12640191024203</v>
+      </c>
+      <c r="G116" t="n">
+        <v>23.32432791818212</v>
+      </c>
+      <c r="H116" t="n">
+        <v>25.69336902857469</v>
+      </c>
+      <c r="I116" t="n">
+        <v>26.23999977111816</v>
+      </c>
+      <c r="J116" t="n">
+        <v>28.11896725711927</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" s="2" t="n">
+        <v>43991</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1.489999771118164</v>
+      </c>
+      <c r="N116" t="n">
+        <v>23</v>
+      </c>
+      <c r="O116" t="n">
+        <v>23.76000022888184</v>
+      </c>
+      <c r="P116" t="n">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>43.90000152587891</v>
+      </c>
+      <c r="C117" t="n">
+        <v>46.75</v>
+      </c>
+      <c r="D117" t="n">
+        <v>42.59000015258789</v>
+      </c>
+      <c r="E117" t="n">
+        <v>45.86999893188477</v>
+      </c>
+      <c r="F117" t="n">
+        <v>46.02677179616826</v>
+      </c>
+      <c r="G117" t="n">
+        <v>45.89031358185655</v>
+      </c>
+      <c r="H117" t="n">
+        <v>44.76925799869083</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" s="2" t="n">
+        <v>44585</v>
+      </c>
+      <c r="M117" t="n">
+        <v>-0.1499977111816406</v>
+      </c>
+      <c r="N117" t="n">
+        <v>24</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>45.52000045776367</v>
+      </c>
+      <c r="C118" t="n">
+        <v>48.68999862670898</v>
+      </c>
+      <c r="D118" t="n">
+        <v>45.22000122070312</v>
+      </c>
+      <c r="E118" t="n">
+        <v>48.27999877929688</v>
+      </c>
+      <c r="F118" t="n">
+        <v>46.77784745721114</v>
+      </c>
+      <c r="G118" t="n">
+        <v>46.42135473684328</v>
+      </c>
+      <c r="H118" t="n">
+        <v>45.08841625147319</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="M118" t="n">
+        <v>-0.1499977111816406</v>
+      </c>
+      <c r="N118" t="n">
+        <v>24</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>48.56000137329102</v>
+      </c>
+      <c r="C119" t="n">
+        <v>50.11000061035156</v>
+      </c>
+      <c r="D119" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="E119" t="n">
+        <v>47.91999816894531</v>
+      </c>
+      <c r="F119" t="n">
+        <v>47.15856436112253</v>
+      </c>
+      <c r="G119" t="n">
+        <v>46.75438661064373</v>
+      </c>
+      <c r="H119" t="n">
+        <v>45.3458327894252</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>0.0786</v>
+      </c>
+      <c r="L119" s="2" t="n">
+        <v>44599</v>
+      </c>
+      <c r="M119" t="n">
+        <v>-0.1499977111816406</v>
+      </c>
+      <c r="N119" t="n">
+        <v>24</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>48.02000045776367</v>
+      </c>
+      <c r="C120" t="n">
+        <v>48.36999893188477</v>
+      </c>
+      <c r="D120" t="n">
+        <v>45.72000122070312</v>
+      </c>
+      <c r="E120" t="n">
+        <v>45.95999908447266</v>
+      </c>
+      <c r="F120" t="n">
+        <v>46.75904260223924</v>
+      </c>
+      <c r="G120" t="n">
+        <v>46.57785604927238</v>
+      </c>
+      <c r="H120" t="n">
+        <v>45.40166608897497</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>0.0582</v>
+      </c>
+      <c r="L120" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="M120" t="n">
+        <v>-0.1499977111816406</v>
+      </c>
+      <c r="N120" t="n">
+        <v>24</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>45.16999816894531</v>
+      </c>
+      <c r="C121" t="n">
+        <v>46.11000061035156</v>
+      </c>
+      <c r="D121" t="n">
+        <v>42.04999923706055</v>
+      </c>
+      <c r="E121" t="n">
+        <v>45.02000045776367</v>
+      </c>
+      <c r="F121" t="n">
+        <v>46.77784745721114</v>
+      </c>
+      <c r="G121" t="n">
+        <v>46.42135473684328</v>
+      </c>
+      <c r="H121" t="n">
+        <v>45.08841625147319</v>
+      </c>
+      <c r="I121" t="n">
+        <v>46.11000061035156</v>
+      </c>
+      <c r="J121" t="n">
+        <v>48.61400876662833</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" s="2" t="n">
+        <v>44607</v>
+      </c>
+      <c r="M121" t="n">
+        <v>-0.1499977111816406</v>
+      </c>
+      <c r="N121" t="n">
+        <v>24</v>
+      </c>
+      <c r="O121" t="n">
+        <v>45.16999816894531</v>
+      </c>
+      <c r="P121" t="n">
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>28.89999961853027</v>
+      </c>
+      <c r="C122" t="n">
+        <v>29.25</v>
+      </c>
+      <c r="D122" t="n">
+        <v>28.29999923706055</v>
+      </c>
+      <c r="E122" t="n">
+        <v>28.56999969482422</v>
+      </c>
+      <c r="F122" t="n">
+        <v>27.96201211561364</v>
+      </c>
+      <c r="G122" t="n">
+        <v>27.28561921280435</v>
+      </c>
+      <c r="H122" t="n">
+        <v>26.14304925130858</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" s="2" t="n">
+        <v>44172</v>
+      </c>
+      <c r="M122" t="n">
+        <v>2.80435886021273</v>
+      </c>
+      <c r="N122" t="n">
+        <v>25</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>28.92000007629395</v>
+      </c>
+      <c r="C123" t="n">
+        <v>29.10000038146973</v>
+      </c>
+      <c r="D123" t="n">
+        <v>28.13999938964844</v>
+      </c>
+      <c r="E123" t="n">
+        <v>28.67000007629395</v>
+      </c>
+      <c r="F123" t="n">
+        <v>28.19800810250707</v>
+      </c>
+      <c r="G123" t="n">
+        <v>27.59325940469093</v>
+      </c>
+      <c r="H123" t="n">
+        <v>26.37277205357998</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="M123" t="n">
+        <v>2.80435886021273</v>
+      </c>
+      <c r="N123" t="n">
+        <v>25</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>29.10000038146973</v>
+      </c>
+      <c r="C124" t="n">
+        <v>30.35000038146973</v>
+      </c>
+      <c r="D124" t="n">
+        <v>28.72999954223633</v>
+      </c>
+      <c r="E124" t="n">
+        <v>29.95999908447266</v>
+      </c>
+      <c r="F124" t="n">
+        <v>28.78533842982894</v>
+      </c>
+      <c r="G124" t="n">
+        <v>28.11920155575353</v>
+      </c>
+      <c r="H124" t="n">
+        <v>26.69888360184295</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" s="2" t="n">
+        <v>44186</v>
+      </c>
+      <c r="M124" t="n">
+        <v>2.80435886021273</v>
+      </c>
+      <c r="N124" t="n">
+        <v>25</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>30.22999954223633</v>
+      </c>
+      <c r="C125" t="n">
+        <v>30.54999923706055</v>
+      </c>
+      <c r="D125" t="n">
+        <v>29.89999961853027</v>
+      </c>
+      <c r="E125" t="n">
+        <v>30.30999946594238</v>
+      </c>
+      <c r="F125" t="n">
+        <v>29.29355877520009</v>
+      </c>
+      <c r="G125" t="n">
+        <v>28.6060455357955</v>
+      </c>
+      <c r="H125" t="n">
+        <v>27.02716686221562</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" s="2" t="n">
+        <v>44193</v>
+      </c>
+      <c r="M125" t="n">
+        <v>2.80435886021273</v>
+      </c>
+      <c r="N125" t="n">
+        <v>25</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>30.45999908447266</v>
+      </c>
+      <c r="C126" t="n">
+        <v>33.61999893188477</v>
+      </c>
+      <c r="D126" t="n">
+        <v>29.75</v>
+      </c>
+      <c r="E126" t="n">
+        <v>32.52999877929688</v>
+      </c>
+      <c r="F126" t="n">
+        <v>28.19800810250707</v>
+      </c>
+      <c r="G126" t="n">
+        <v>27.59325940469093</v>
+      </c>
+      <c r="H126" t="n">
+        <v>26.37277205357998</v>
+      </c>
+      <c r="I126" t="n">
+        <v>33.61999893188477</v>
+      </c>
+      <c r="J126" t="n">
+        <v>33.26435794468539</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="M126" t="n">
+        <v>2.80435886021273</v>
+      </c>
+      <c r="N126" t="n">
+        <v>25</v>
+      </c>
+      <c r="O126" t="n">
+        <v>30.45999908447266</v>
+      </c>
+      <c r="P126" t="n">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>25.55999946594238</v>
+      </c>
+      <c r="C127" t="n">
+        <v>26.04000091552734</v>
+      </c>
+      <c r="D127" t="n">
+        <v>25.09000015258789</v>
+      </c>
+      <c r="E127" t="n">
+        <v>26.03000068664551</v>
+      </c>
+      <c r="F127" t="n">
+        <v>25.73000017801921</v>
+      </c>
+      <c r="G127" t="n">
+        <v>25.68000009324815</v>
+      </c>
+      <c r="H127" t="n">
+        <v>25.62090908397328</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" s="2" t="n">
+        <v>43472</v>
+      </c>
+      <c r="M127" t="n">
+        <v>-0.1799983978271484</v>
+      </c>
+      <c r="N127" t="n">
+        <v>26</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>25.77000045776367</v>
+      </c>
+      <c r="C128" t="n">
+        <v>29.45999908447266</v>
+      </c>
+      <c r="D128" t="n">
+        <v>25.61000061035156</v>
+      </c>
+      <c r="E128" t="n">
+        <v>29.29999923706055</v>
+      </c>
+      <c r="F128" t="n">
+        <v>26.91999986436632</v>
+      </c>
+      <c r="G128" t="n">
+        <v>26.48444434742868</v>
+      </c>
+      <c r="H128" t="n">
+        <v>25.95537182516303</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" s="2" t="n">
+        <v>43479</v>
+      </c>
+      <c r="M128" t="n">
+        <v>-0.1799983978271484</v>
+      </c>
+      <c r="N128" t="n">
+        <v>26</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>28.97999954223633</v>
+      </c>
+      <c r="C129" t="n">
+        <v>29.71999931335449</v>
+      </c>
+      <c r="D129" t="n">
+        <v>28.6200008392334</v>
+      </c>
+      <c r="E129" t="n">
+        <v>29.57999992370605</v>
+      </c>
+      <c r="F129" t="n">
+        <v>27.8066665508129</v>
+      </c>
+      <c r="G129" t="n">
+        <v>27.17234558660143</v>
+      </c>
+      <c r="H129" t="n">
+        <v>26.28488347048512</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" s="2" t="n">
+        <v>43486</v>
+      </c>
+      <c r="M129" t="n">
+        <v>-0.1799983978271484</v>
+      </c>
+      <c r="N129" t="n">
+        <v>26</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>29.31999969482422</v>
+      </c>
+      <c r="C130" t="n">
+        <v>29.70000076293945</v>
+      </c>
+      <c r="D130" t="n">
+        <v>27.97999954223633</v>
+      </c>
+      <c r="E130" t="n">
+        <v>28.3799991607666</v>
+      </c>
+      <c r="F130" t="n">
+        <v>27.99777742079747</v>
+      </c>
+      <c r="G130" t="n">
+        <v>27.44071304752703</v>
+      </c>
+      <c r="H130" t="n">
+        <v>26.47534853323798</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" s="2" t="n">
+        <v>43493</v>
+      </c>
+      <c r="M130" t="n">
+        <v>-0.1799983978271484</v>
+      </c>
+      <c r="N130" t="n">
+        <v>26</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>28.46999931335449</v>
+      </c>
+      <c r="C131" t="n">
+        <v>28.96999931335449</v>
+      </c>
+      <c r="D131" t="n">
+        <v>27.86000061035156</v>
+      </c>
+      <c r="E131" t="n">
+        <v>28.29000091552734</v>
+      </c>
+      <c r="F131" t="n">
+        <v>26.91999986436632</v>
+      </c>
+      <c r="G131" t="n">
+        <v>26.48444434742868</v>
+      </c>
+      <c r="H131" t="n">
+        <v>25.95537182516303</v>
+      </c>
+      <c r="I131" t="n">
+        <v>28.96999931335449</v>
+      </c>
+      <c r="J131" t="n">
+        <v>29.26532445744772</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" s="2" t="n">
+        <v>43494</v>
+      </c>
+      <c r="M131" t="n">
+        <v>-0.1799983978271484</v>
+      </c>
+      <c r="N131" t="n">
+        <v>26</v>
+      </c>
+      <c r="O131" t="n">
+        <v>28.46999931335449</v>
+      </c>
+      <c r="P131" t="n">
+        <v>-63</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>33.33000183105469</v>
+      </c>
+      <c r="C132" t="n">
+        <v>33.59999847412109</v>
+      </c>
+      <c r="D132" t="n">
+        <v>33.11999893188477</v>
+      </c>
+      <c r="E132" t="n">
+        <v>33.31999969482422</v>
+      </c>
+      <c r="F132" t="n">
+        <v>32.70614196002077</v>
+      </c>
+      <c r="G132" t="n">
+        <v>32.08413042413495</v>
+      </c>
+      <c r="H132" t="n">
+        <v>30.53741524865189</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" s="2" t="n">
+        <v>43794</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0.08137932864327269</v>
+      </c>
+      <c r="N132" t="n">
+        <v>27</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>33.45000076293945</v>
+      </c>
+      <c r="C133" t="n">
+        <v>33.79999923706055</v>
+      </c>
+      <c r="D133" t="n">
+        <v>32.54999923706055</v>
+      </c>
+      <c r="E133" t="n">
+        <v>33.66999816894531</v>
+      </c>
+      <c r="F133" t="n">
+        <v>33.02742736299562</v>
+      </c>
+      <c r="G133" t="n">
+        <v>32.43654547853725</v>
+      </c>
+      <c r="H133" t="n">
+        <v>30.82219551413311</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" s="2" t="n">
+        <v>43801</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0.08137932864327269</v>
+      </c>
+      <c r="N133" t="n">
+        <v>27</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="C134" t="n">
+        <v>34.95999908447266</v>
+      </c>
+      <c r="D134" t="n">
+        <v>33.29999923706055</v>
+      </c>
+      <c r="E134" t="n">
+        <v>34.43999862670898</v>
+      </c>
+      <c r="F134" t="n">
+        <v>33.49828445090008</v>
+      </c>
+      <c r="G134" t="n">
+        <v>32.88175728924208</v>
+      </c>
+      <c r="H134" t="n">
+        <v>31.15108670618546</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" s="2" t="n">
+        <v>43808</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0.08137932864327269</v>
+      </c>
+      <c r="N134" t="n">
+        <v>27</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>34.95000076293945</v>
+      </c>
+      <c r="C135" t="n">
+        <v>35.27000045776367</v>
+      </c>
+      <c r="D135" t="n">
+        <v>34.70000076293945</v>
+      </c>
+      <c r="E135" t="n">
+        <v>34.95999908447266</v>
+      </c>
+      <c r="F135" t="n">
+        <v>33.98552266209094</v>
+      </c>
+      <c r="G135" t="n">
+        <v>33.34358879929332</v>
+      </c>
+      <c r="H135" t="n">
+        <v>31.49735146784793</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" s="2" t="n">
+        <v>43815</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0.08137932864327269</v>
+      </c>
+      <c r="N135" t="n">
+        <v>27</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>35.04000091552734</v>
+      </c>
+      <c r="C136" t="n">
+        <v>35.72000122070312</v>
+      </c>
+      <c r="D136" t="n">
+        <v>34.95000076293945</v>
+      </c>
+      <c r="E136" t="n">
+        <v>35.34999847412109</v>
+      </c>
+      <c r="F136" t="n">
+        <v>33.02742736299562</v>
+      </c>
+      <c r="G136" t="n">
+        <v>32.43654547853725</v>
+      </c>
+      <c r="H136" t="n">
+        <v>30.82219551413311</v>
+      </c>
+      <c r="I136" t="n">
+        <v>35.72000122070312</v>
+      </c>
+      <c r="J136" t="n">
+        <v>35.12138024417062</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" s="2" t="n">
+        <v>43816</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0.08137932864327269</v>
+      </c>
+      <c r="N136" t="n">
+        <v>27</v>
+      </c>
+      <c r="O136" t="n">
+        <v>35.04000091552734</v>
+      </c>
+      <c r="P136" t="n">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Excel reports/Performance_report.xlsx
+++ b/Excel reports/Performance_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P136"/>
+  <dimension ref="A1:P106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,25 +519,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>34.68999862670898</v>
+        <v>51.02000045776367</v>
       </c>
       <c r="C2" t="n">
-        <v>34.83000183105469</v>
+        <v>51.25</v>
       </c>
       <c r="D2" t="n">
-        <v>32.88999938964844</v>
+        <v>46.13000106811523</v>
       </c>
       <c r="E2" t="n">
-        <v>33.84999847412109</v>
+        <v>46.91999816894531</v>
       </c>
       <c r="F2" t="n">
-        <v>34.1002996804316</v>
+        <v>48.11031280223163</v>
       </c>
       <c r="G2" t="n">
-        <v>34.15546139072871</v>
+        <v>48.12885380028315</v>
       </c>
       <c r="H2" t="n">
-        <v>34.44141804984723</v>
+        <v>46.90828640810565</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -550,13 +550,13 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>-0.09420000000000001</v>
+        <v>0.14635</v>
       </c>
       <c r="L2" s="2" t="n">
         <v>44942</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.1300010681152344</v>
+        <v>-2.439998626708984</v>
       </c>
       <c r="N2" t="n">
         <v>1</v>
@@ -577,25 +577,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33.81000137329102</v>
+        <v>47.13999938964844</v>
       </c>
       <c r="C3" t="n">
-        <v>35.77999877929688</v>
+        <v>50.34999847412109</v>
       </c>
       <c r="D3" t="n">
-        <v>33.75</v>
+        <v>46.09000015258789</v>
       </c>
       <c r="E3" t="n">
-        <v>35.45000076293945</v>
+        <v>49.18999862670898</v>
       </c>
       <c r="F3" t="n">
-        <v>34.55020004126756</v>
+        <v>48.47020807705742</v>
       </c>
       <c r="G3" t="n">
-        <v>34.44313680677554</v>
+        <v>48.36466376171111</v>
       </c>
       <c r="H3" t="n">
-        <v>34.53310738740107</v>
+        <v>47.11571479161504</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -608,13 +608,13 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0.0835</v>
+        <v>0.6369</v>
       </c>
       <c r="L3" s="2" t="n">
         <v>44949</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.1300010681152344</v>
+        <v>-2.439998626708984</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
@@ -635,25 +635,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35.20999908447266</v>
+        <v>48.16999816894531</v>
       </c>
       <c r="C4" t="n">
-        <v>36.7599983215332</v>
+        <v>49.77999877929688</v>
       </c>
       <c r="D4" t="n">
-        <v>35</v>
+        <v>44.90999984741211</v>
       </c>
       <c r="E4" t="n">
-        <v>36.43000030517578</v>
+        <v>45.34999847412109</v>
       </c>
       <c r="F4" t="n">
-        <v>35.17680012923697</v>
+        <v>47.43013820941198</v>
       </c>
       <c r="G4" t="n">
-        <v>34.88466202864226</v>
+        <v>47.69473814224666</v>
       </c>
       <c r="H4" t="n">
-        <v>34.70555219810786</v>
+        <v>46.95519512638832</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -666,13 +666,13 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>0.116</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2" t="n">
         <v>44956</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.1300010681152344</v>
+        <v>-2.439998626708984</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
@@ -693,25 +693,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>36.25</v>
+        <v>45.18999862670898</v>
       </c>
       <c r="C5" t="n">
-        <v>37</v>
+        <v>46.72000122070312</v>
       </c>
       <c r="D5" t="n">
-        <v>35.02999877929688</v>
+        <v>42.72999954223633</v>
       </c>
       <c r="E5" t="n">
-        <v>35.58000183105469</v>
+        <v>45.72999954223633</v>
       </c>
       <c r="F5" t="n">
-        <v>35.31120069650954</v>
+        <v>46.86342532035343</v>
       </c>
       <c r="G5" t="n">
-        <v>35.03918198473391</v>
+        <v>47.25812956446659</v>
       </c>
       <c r="H5" t="n">
-        <v>34.78504761928484</v>
+        <v>46.84381370964722</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0.1257</v>
+        <v>0.36905</v>
       </c>
       <c r="L5" s="2" t="n">
         <v>44963</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.1300010681152344</v>
+        <v>-2.439998626708984</v>
       </c>
       <c r="N5" t="n">
         <v>1</v>
@@ -751,31 +751,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>35.47999954223633</v>
+        <v>44.84999847412109</v>
       </c>
       <c r="C6" t="n">
-        <v>35.9900016784668</v>
+        <v>46.84000015258789</v>
       </c>
       <c r="D6" t="n">
-        <v>34.7400016784668</v>
+        <v>41.77000045776367</v>
       </c>
       <c r="E6" t="n">
-        <v>35.34999847412109</v>
+        <v>42.40999984741211</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55020004126756</v>
+        <v>48.47020807705742</v>
       </c>
       <c r="G6" t="n">
-        <v>34.44313680677554</v>
+        <v>48.36466376171111</v>
       </c>
       <c r="H6" t="n">
-        <v>34.53310738740107</v>
+        <v>47.11571479161504</v>
       </c>
       <c r="I6" t="n">
-        <v>35.9900016784668</v>
+        <v>46.84000015258789</v>
       </c>
       <c r="J6" t="n">
-        <v>36.43638695155187</v>
+        <v>47.58318485561517</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -784,16 +784,16 @@
         <v>44964</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.1300010681152344</v>
+        <v>-2.439998626708984</v>
       </c>
       <c r="N6" t="n">
         <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>35.47999954223633</v>
+        <v>44.84999847412109</v>
       </c>
       <c r="P6" t="n">
-        <v>-37</v>
+        <v>-544</v>
       </c>
     </row>
     <row r="7">
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>34.7599983215332</v>
+        <v>20.04000091552734</v>
       </c>
       <c r="C7" t="n">
-        <v>37.04999923706055</v>
+        <v>20.63999938964844</v>
       </c>
       <c r="D7" t="n">
-        <v>34.65999984741211</v>
+        <v>17.15999984741211</v>
       </c>
       <c r="E7" t="n">
-        <v>37.02000045776367</v>
+        <v>17.82999992370605</v>
       </c>
       <c r="F7" t="n">
-        <v>36.30199008008466</v>
+        <v>18.86113665249949</v>
       </c>
       <c r="G7" t="n">
-        <v>37.14063782781002</v>
+        <v>19.20620502585458</v>
       </c>
       <c r="H7" t="n">
-        <v>40.01481018359653</v>
+        <v>22.26744544133781</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -832,13 +832,13 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0.1372</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>44704</v>
+        <v>44039</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.5799980163574219</v>
+        <v>0.4300003051757812</v>
       </c>
       <c r="N7" t="n">
         <v>2</v>
@@ -859,25 +859,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>36.81999969482422</v>
+        <v>17.54000091552734</v>
       </c>
       <c r="C8" t="n">
-        <v>37.52999877929688</v>
+        <v>19.6299991607666</v>
       </c>
       <c r="D8" t="n">
-        <v>36.06999969482422</v>
+        <v>17.25</v>
       </c>
       <c r="E8" t="n">
-        <v>36.18999862670898</v>
+        <v>18.44000053405762</v>
       </c>
       <c r="F8" t="n">
-        <v>36.26465959562611</v>
+        <v>18.7207579463522</v>
       </c>
       <c r="G8" t="n">
-        <v>36.92938467200979</v>
+        <v>19.03593736101081</v>
       </c>
       <c r="H8" t="n">
-        <v>39.66710004206129</v>
+        <v>21.91949590431233</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -890,13 +890,13 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0.064</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>44711</v>
+        <v>44046</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.5799980163574219</v>
+        <v>0.4300003051757812</v>
       </c>
       <c r="N8" t="n">
         <v>2</v>
@@ -917,25 +917,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>36.70000076293945</v>
+        <v>18.55999946594238</v>
       </c>
       <c r="C9" t="n">
-        <v>37.20999908447266</v>
+        <v>20.52000045776367</v>
       </c>
       <c r="D9" t="n">
-        <v>33.02000045776367</v>
+        <v>17.97999954223633</v>
       </c>
       <c r="E9" t="n">
-        <v>33.16999816894531</v>
+        <v>18.80999946594238</v>
       </c>
       <c r="F9" t="n">
-        <v>35.23310578673251</v>
+        <v>18.75050511954893</v>
       </c>
       <c r="G9" t="n">
-        <v>36.09396544910657</v>
+        <v>18.9857289398845</v>
       </c>
       <c r="H9" t="n">
-        <v>39.07645441723257</v>
+        <v>21.63681440991506</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -948,13 +948,13 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>0.0948</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>44718</v>
+        <v>44053</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.5799980163574219</v>
+        <v>0.4300003051757812</v>
       </c>
       <c r="N9" t="n">
         <v>2</v>
@@ -975,25 +975,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>32.38999938964844</v>
+        <v>18.64999961853027</v>
       </c>
       <c r="C10" t="n">
-        <v>32.77000045776367</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>30.86000061035156</v>
+        <v>16.70000076293945</v>
       </c>
       <c r="E10" t="n">
-        <v>31.92000007629395</v>
+        <v>16.8799991607666</v>
       </c>
       <c r="F10" t="n">
-        <v>34.12873721658632</v>
+        <v>18.12700313328816</v>
       </c>
       <c r="G10" t="n">
-        <v>35.16641758848154</v>
+        <v>18.51778898896941</v>
       </c>
       <c r="H10" t="n">
-        <v>38.42586765896542</v>
+        <v>21.20437665999248</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1006,13 +1006,13 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>0.1201</v>
+        <v>0</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>44725</v>
+        <v>44060</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.5799980163574219</v>
+        <v>0.4300003051757812</v>
       </c>
       <c r="N10" t="n">
         <v>2</v>
@@ -1033,49 +1033,49 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>32.88999938964844</v>
+        <v>16.55999946594238</v>
       </c>
       <c r="C11" t="n">
-        <v>33.29000091552734</v>
+        <v>17.64999961853027</v>
       </c>
       <c r="D11" t="n">
-        <v>31.22999954223633</v>
+        <v>16.35000038146973</v>
       </c>
       <c r="E11" t="n">
-        <v>32.31000137329102</v>
+        <v>16.98999977111816</v>
       </c>
       <c r="F11" t="n">
-        <v>36.26465959562611</v>
+        <v>18.7207579463522</v>
       </c>
       <c r="G11" t="n">
-        <v>36.92938467200979</v>
+        <v>19.03593736101081</v>
       </c>
       <c r="H11" t="n">
-        <v>39.66710004206129</v>
+        <v>21.91949590431233</v>
       </c>
       <c r="I11" t="n">
-        <v>33.29000091552734</v>
+        <v>17.64999961853027</v>
       </c>
       <c r="J11" t="n">
-        <v>35.82628035251137</v>
+        <v>19.30169275127867</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>44726</v>
+        <v>44061</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.5799980163574219</v>
+        <v>0.4300003051757812</v>
       </c>
       <c r="N11" t="n">
         <v>2</v>
       </c>
       <c r="O11" t="n">
-        <v>32.88999938964844</v>
+        <v>16.55999946594238</v>
       </c>
       <c r="P11" t="n">
-        <v>-176</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12">
@@ -1083,25 +1083,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>44.56000137329102</v>
+        <v>28.79999923706055</v>
       </c>
       <c r="C12" t="n">
-        <v>44.90999984741211</v>
+        <v>30.22999954223633</v>
       </c>
       <c r="D12" t="n">
-        <v>43.65000152587891</v>
+        <v>28.46999931335449</v>
       </c>
       <c r="E12" t="n">
-        <v>44.52000045776367</v>
+        <v>28.67000007629395</v>
       </c>
       <c r="F12" t="n">
-        <v>45.0412612188416</v>
+        <v>29.79416326115533</v>
       </c>
       <c r="G12" t="n">
-        <v>45.09189879160785</v>
+        <v>30.15159235054529</v>
       </c>
       <c r="H12" t="n">
-        <v>43.66420664670841</v>
+        <v>29.3420298006667</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>44536</v>
+        <v>44403</v>
       </c>
       <c r="M12" t="n">
-        <v>3.981691644240527</v>
+        <v>0.5103394683021634</v>
       </c>
       <c r="N12" t="n">
         <v>3</v>
@@ -1141,25 +1141,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>44.27000045776367</v>
+        <v>28.93000030517578</v>
       </c>
       <c r="C13" t="n">
-        <v>45.36000061035156</v>
+        <v>29.96999931335449</v>
       </c>
       <c r="D13" t="n">
-        <v>43.38999938964844</v>
+        <v>26.15999984741211</v>
       </c>
       <c r="E13" t="n">
-        <v>43.88000106811523</v>
+        <v>27.67000007629395</v>
       </c>
       <c r="F13" t="n">
-        <v>44.65417450193281</v>
+        <v>29.08610886620154</v>
       </c>
       <c r="G13" t="n">
-        <v>44.82258818638726</v>
+        <v>29.60012740071165</v>
       </c>
       <c r="H13" t="n">
-        <v>43.68382432138176</v>
+        <v>29.190027098451</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>44543</v>
+        <v>44410</v>
       </c>
       <c r="M13" t="n">
-        <v>3.981691644240527</v>
+        <v>0.5103394683021634</v>
       </c>
       <c r="N13" t="n">
         <v>3</v>
@@ -1199,25 +1199,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>43.27000045776367</v>
+        <v>26.93000030517578</v>
       </c>
       <c r="C14" t="n">
-        <v>45.06999969482422</v>
+        <v>28.90999984741211</v>
       </c>
       <c r="D14" t="n">
-        <v>42.70000076293945</v>
+        <v>26.6200008392334</v>
       </c>
       <c r="E14" t="n">
-        <v>44.41999816894531</v>
+        <v>27.56999969482422</v>
       </c>
       <c r="F14" t="n">
-        <v>44.57611572427032</v>
+        <v>28.5807391424091</v>
       </c>
       <c r="G14" t="n">
-        <v>44.73312373806683</v>
+        <v>29.14898791051445</v>
       </c>
       <c r="H14" t="n">
-        <v>43.75074921661481</v>
+        <v>29.04275187993947</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>0.2011</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>44550</v>
+        <v>44417</v>
       </c>
       <c r="M14" t="n">
-        <v>3.981691644240527</v>
+        <v>0.5103394683021634</v>
       </c>
       <c r="N14" t="n">
         <v>3</v>
@@ -1257,25 +1257,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>44.54999923706055</v>
+        <v>26.73999977111816</v>
       </c>
       <c r="C15" t="n">
-        <v>45.11999893188477</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="D15" t="n">
-        <v>44.27999877929688</v>
+        <v>23.65999984741211</v>
       </c>
       <c r="E15" t="n">
-        <v>44.4900016784668</v>
+        <v>24.1299991607666</v>
       </c>
       <c r="F15" t="n">
-        <v>44.54741104233581</v>
+        <v>27.09715914852827</v>
       </c>
       <c r="G15" t="n">
-        <v>44.67909661371127</v>
+        <v>28.03365707723715</v>
       </c>
       <c r="H15" t="n">
-        <v>43.81795398587408</v>
+        <v>28.5961379963783</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>0.2067</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>44557</v>
+        <v>44424</v>
       </c>
       <c r="M15" t="n">
-        <v>3.981691644240527</v>
+        <v>0.5103394683021634</v>
       </c>
       <c r="N15" t="n">
         <v>3</v>
@@ -1315,49 +1315,49 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>45.09000015258789</v>
+        <v>25</v>
       </c>
       <c r="C16" t="n">
-        <v>49.31000137329102</v>
+        <v>28.18000030517578</v>
       </c>
       <c r="D16" t="n">
-        <v>44.97999954223633</v>
+        <v>24.76000022888184</v>
       </c>
       <c r="E16" t="n">
-        <v>49.18000030517578</v>
+        <v>27.79999923706055</v>
       </c>
       <c r="F16" t="n">
-        <v>44.65417450193281</v>
+        <v>29.08610886620154</v>
       </c>
       <c r="G16" t="n">
-        <v>44.82258818638726</v>
+        <v>29.60012740071165</v>
       </c>
       <c r="H16" t="n">
-        <v>43.68382432138176</v>
+        <v>29.190027098451</v>
       </c>
       <c r="I16" t="n">
-        <v>49.31000137329102</v>
+        <v>28.18000030517578</v>
       </c>
       <c r="J16" t="n">
-        <v>49.07169179682842</v>
+        <v>25.51033946830216</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>44558</v>
+        <v>44425</v>
       </c>
       <c r="M16" t="n">
-        <v>3.981691644240527</v>
+        <v>0.5103394683021634</v>
       </c>
       <c r="N16" t="n">
         <v>3</v>
       </c>
       <c r="O16" t="n">
-        <v>45.09000015258789</v>
+        <v>25</v>
       </c>
       <c r="P16" t="n">
-        <v>884</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17">
@@ -1365,25 +1365,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>30.71999931335449</v>
+        <v>24.43000030517578</v>
       </c>
       <c r="C17" t="n">
-        <v>31.06999969482422</v>
+        <v>25.98999977111816</v>
       </c>
       <c r="D17" t="n">
-        <v>28.90999984741211</v>
+        <v>22.65999984741211</v>
       </c>
       <c r="E17" t="n">
-        <v>29.3799991607666</v>
+        <v>23.39999961853027</v>
       </c>
       <c r="F17" t="n">
-        <v>29.55609802721034</v>
+        <v>27.76275120645895</v>
       </c>
       <c r="G17" t="n">
-        <v>29.34047107197462</v>
+        <v>28.66756430264813</v>
       </c>
       <c r="H17" t="n">
-        <v>28.84085538374452</v>
+        <v>29.03623123659949</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1399,10 +1399,10 @@
         <v>0</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>43675</v>
+        <v>44522</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8099994659423828</v>
+        <v>2.72932561832847</v>
       </c>
       <c r="N17" t="n">
         <v>4</v>
@@ -1423,25 +1423,25 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>28.53000068664551</v>
+        <v>24.23999977111816</v>
       </c>
       <c r="C18" t="n">
-        <v>28.63999938964844</v>
+        <v>24.29999923706055</v>
       </c>
       <c r="D18" t="n">
-        <v>27.1200008392334</v>
+        <v>20.93000030517578</v>
       </c>
       <c r="E18" t="n">
-        <v>28.32999992370605</v>
+        <v>21.53000068664551</v>
       </c>
       <c r="F18" t="n">
-        <v>29.14739865937558</v>
+        <v>25.68516769985447</v>
       </c>
       <c r="G18" t="n">
-        <v>29.11592192791494</v>
+        <v>27.08143905464754</v>
       </c>
       <c r="H18" t="n">
-        <v>28.79441397828648</v>
+        <v>28.35384664114913</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1457,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>43682</v>
+        <v>44529</v>
       </c>
       <c r="M18" t="n">
-        <v>0.8099994659423828</v>
+        <v>2.72932561832847</v>
       </c>
       <c r="N18" t="n">
         <v>4</v>
@@ -1481,25 +1481,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>27.82999992370605</v>
+        <v>22.04000091552734</v>
       </c>
       <c r="C19" t="n">
-        <v>28.25</v>
+        <v>25.04999923706055</v>
       </c>
       <c r="D19" t="n">
-        <v>26.20999908447266</v>
+        <v>21.45999908447266</v>
       </c>
       <c r="E19" t="n">
-        <v>27.03000068664551</v>
+        <v>24.8700008392334</v>
       </c>
       <c r="F19" t="n">
-        <v>28.44159933513223</v>
+        <v>25.41344541298078</v>
       </c>
       <c r="G19" t="n">
-        <v>28.65238387429951</v>
+        <v>26.59000834011107</v>
       </c>
       <c r="H19" t="n">
-        <v>28.63401276995548</v>
+        <v>28.03713338642952</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1515,10 +1515,10 @@
         <v>0</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>43689</v>
+        <v>44536</v>
       </c>
       <c r="M19" t="n">
-        <v>0.8099994659423828</v>
+        <v>2.72932561832847</v>
       </c>
       <c r="N19" t="n">
         <v>4</v>
@@ -1539,25 +1539,25 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>27.63999938964844</v>
+        <v>24.47999954223633</v>
       </c>
       <c r="C20" t="n">
-        <v>27.70000076293945</v>
+        <v>24.88999938964844</v>
       </c>
       <c r="D20" t="n">
-        <v>26.26000022888184</v>
+        <v>22.51000022888184</v>
       </c>
       <c r="E20" t="n">
-        <v>26.46999931335449</v>
+        <v>23.42000007629395</v>
       </c>
       <c r="F20" t="n">
-        <v>27.78439932787298</v>
+        <v>24.74896363408517</v>
       </c>
       <c r="G20" t="n">
-        <v>28.16740952742284</v>
+        <v>25.88556205926282</v>
       </c>
       <c r="H20" t="n">
-        <v>28.43728427390084</v>
+        <v>27.61739399459901</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>43696</v>
+        <v>44543</v>
       </c>
       <c r="M20" t="n">
-        <v>0.8099994659423828</v>
+        <v>2.72932561832847</v>
       </c>
       <c r="N20" t="n">
         <v>4</v>
@@ -1597,49 +1597,49 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>26.70000076293945</v>
+        <v>22.68000030517578</v>
       </c>
       <c r="C21" t="n">
-        <v>27.69000053405762</v>
+        <v>25.42000007629395</v>
       </c>
       <c r="D21" t="n">
-        <v>26.20999908447266</v>
+        <v>22.14999961853027</v>
       </c>
       <c r="E21" t="n">
-        <v>27.51000022888184</v>
+        <v>24.75</v>
       </c>
       <c r="F21" t="n">
-        <v>29.14739865937558</v>
+        <v>25.68516769985447</v>
       </c>
       <c r="G21" t="n">
-        <v>29.11592192791494</v>
+        <v>27.08143905464754</v>
       </c>
       <c r="H21" t="n">
-        <v>28.79441397828648</v>
+        <v>28.35384664114913</v>
       </c>
       <c r="I21" t="n">
-        <v>27.69000053405762</v>
+        <v>25.42000007629395</v>
       </c>
       <c r="J21" t="n">
-        <v>29.61521894185444</v>
+        <v>25.40932592350425</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>43697</v>
+        <v>44544</v>
       </c>
       <c r="M21" t="n">
-        <v>0.8099994659423828</v>
+        <v>2.72932561832847</v>
       </c>
       <c r="N21" t="n">
         <v>4</v>
       </c>
       <c r="O21" t="n">
-        <v>26.70000076293945</v>
+        <v>22.68000030517578</v>
       </c>
       <c r="P21" t="n">
-        <v>304</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="22">
@@ -1647,25 +1647,25 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>44.54999923706055</v>
+        <v>41.40000152587891</v>
       </c>
       <c r="C22" t="n">
-        <v>45.11999893188477</v>
+        <v>41.54999923706055</v>
       </c>
       <c r="D22" t="n">
-        <v>44.27999877929688</v>
+        <v>37.02999877929688</v>
       </c>
       <c r="E22" t="n">
-        <v>44.4900016784668</v>
+        <v>40.2400016784668</v>
       </c>
       <c r="F22" t="n">
-        <v>44.54741104233581</v>
+        <v>38.21937524469849</v>
       </c>
       <c r="G22" t="n">
-        <v>44.67909661371127</v>
+        <v>36.23333478544833</v>
       </c>
       <c r="H22" t="n">
-        <v>43.81795398587408</v>
+        <v>32.18577790310813</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1678,13 +1678,13 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>0.2067</v>
+        <v>0.0843</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>44557</v>
+        <v>44634</v>
       </c>
       <c r="M22" t="n">
-        <v>1.969997406005859</v>
+        <v>2.084467411440016</v>
       </c>
       <c r="N22" t="n">
         <v>5</v>
@@ -1705,25 +1705,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>45.09000015258789</v>
+        <v>41.18999862670898</v>
       </c>
       <c r="C23" t="n">
-        <v>49.31000137329102</v>
+        <v>44.40000152587891</v>
       </c>
       <c r="D23" t="n">
-        <v>44.97999954223633</v>
+        <v>40.41999816894531</v>
       </c>
       <c r="E23" t="n">
-        <v>49.18000030517578</v>
+        <v>44.2599983215332</v>
       </c>
       <c r="F23" t="n">
-        <v>46.09160746328247</v>
+        <v>40.23291627031006</v>
       </c>
       <c r="G23" t="n">
-        <v>45.67929743403671</v>
+        <v>38.0170377934672</v>
       </c>
       <c r="H23" t="n">
-        <v>44.30541274217423</v>
+        <v>33.28343430478314</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1736,13 +1736,13 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>0.1483</v>
+        <v>0.1012</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>44564</v>
+        <v>44641</v>
       </c>
       <c r="M23" t="n">
-        <v>1.969997406005859</v>
+        <v>2.084467411440016</v>
       </c>
       <c r="N23" t="n">
         <v>5</v>
@@ -1763,25 +1763,25 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>49.90999984741211</v>
+        <v>43</v>
       </c>
       <c r="C24" t="n">
-        <v>50.08000183105469</v>
+        <v>45.11999893188477</v>
       </c>
       <c r="D24" t="n">
-        <v>47.18999862670898</v>
+        <v>40.95999908447266</v>
       </c>
       <c r="E24" t="n">
-        <v>47.90999984741211</v>
+        <v>44.20000076293945</v>
       </c>
       <c r="F24" t="n">
-        <v>46.69773825799236</v>
+        <v>41.5552777678532</v>
       </c>
       <c r="G24" t="n">
-        <v>46.17500908145347</v>
+        <v>39.39102956446103</v>
       </c>
       <c r="H24" t="n">
-        <v>44.63310247901404</v>
+        <v>34.27584943734281</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1794,13 +1794,13 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>0.1123</v>
+        <v>-0.1066</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>44571</v>
+        <v>44648</v>
       </c>
       <c r="M24" t="n">
-        <v>1.969997406005859</v>
+        <v>2.084467411440016</v>
       </c>
       <c r="N24" t="n">
         <v>5</v>
@@ -1821,25 +1821,25 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>47.84999847412109</v>
+        <v>44.79999923706055</v>
       </c>
       <c r="C25" t="n">
-        <v>48.58000183105469</v>
+        <v>45.79999923706055</v>
       </c>
       <c r="D25" t="n">
-        <v>44.65999984741211</v>
+        <v>43.54000091552734</v>
       </c>
       <c r="E25" t="n">
-        <v>44.91999816894531</v>
+        <v>45.29000091552734</v>
       </c>
       <c r="F25" t="n">
-        <v>46.10515822831001</v>
+        <v>42.80018548374458</v>
       </c>
       <c r="G25" t="n">
-        <v>45.89611776756277</v>
+        <v>40.70191208692021</v>
       </c>
       <c r="H25" t="n">
-        <v>44.65918390537143</v>
+        <v>35.27713593535958</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1852,13 +1852,13 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>0.1167</v>
+        <v>0</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>44578</v>
+        <v>44655</v>
       </c>
       <c r="M25" t="n">
-        <v>1.969997406005859</v>
+        <v>2.084467411440016</v>
       </c>
       <c r="N25" t="n">
         <v>5</v>
@@ -1879,49 +1879,49 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>43.90000152587891</v>
+        <v>44.84000015258789</v>
       </c>
       <c r="C26" t="n">
-        <v>46.75</v>
+        <v>49.16999816894531</v>
       </c>
       <c r="D26" t="n">
-        <v>42.59000015258789</v>
+        <v>44.15000152587891</v>
       </c>
       <c r="E26" t="n">
-        <v>45.86999893188477</v>
+        <v>48.86999893188477</v>
       </c>
       <c r="F26" t="n">
-        <v>46.09160746328247</v>
+        <v>40.23291627031006</v>
       </c>
       <c r="G26" t="n">
-        <v>45.67929743403671</v>
+        <v>38.0170377934672</v>
       </c>
       <c r="H26" t="n">
-        <v>44.30541274217423</v>
+        <v>33.28343430478314</v>
       </c>
       <c r="I26" t="n">
-        <v>46.75</v>
+        <v>49.16999816894531</v>
       </c>
       <c r="J26" t="n">
-        <v>48.97900718871438</v>
+        <v>46.92446756402791</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>44579</v>
+        <v>44656</v>
       </c>
       <c r="M26" t="n">
-        <v>1.969997406005859</v>
+        <v>2.084467411440016</v>
       </c>
       <c r="N26" t="n">
         <v>5</v>
       </c>
       <c r="O26" t="n">
-        <v>43.90000152587891</v>
+        <v>44.84000015258789</v>
       </c>
       <c r="P26" t="n">
-        <v>449</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27">
@@ -1929,25 +1929,25 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>24.21999931335449</v>
+        <v>24.75</v>
       </c>
       <c r="C27" t="n">
-        <v>25.29000091552734</v>
+        <v>25.5</v>
       </c>
       <c r="D27" t="n">
-        <v>23.8799991607666</v>
+        <v>23.56999969482422</v>
       </c>
       <c r="E27" t="n">
-        <v>24.8799991607666</v>
+        <v>23.70000076293945</v>
       </c>
       <c r="F27" t="n">
-        <v>24.25599827794909</v>
+        <v>24.3995396472399</v>
       </c>
       <c r="G27" t="n">
-        <v>24.18505669986624</v>
+        <v>25.20361178563936</v>
       </c>
       <c r="H27" t="n">
-        <v>24.95261365605501</v>
+        <v>27.02429262687798</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>44039</v>
+        <v>44557</v>
       </c>
       <c r="M27" t="n">
-        <v>1.079999923706055</v>
+        <v>2.430000305175781</v>
       </c>
       <c r="N27" t="n">
         <v>6</v>
@@ -1987,25 +1987,25 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>25.03000068664551</v>
+        <v>23.95000076293945</v>
       </c>
       <c r="C28" t="n">
-        <v>26.19000053405762</v>
+        <v>28.5</v>
       </c>
       <c r="D28" t="n">
-        <v>24.69000053405762</v>
+        <v>23.82999992370605</v>
       </c>
       <c r="E28" t="n">
-        <v>26.11000061035156</v>
+        <v>27.78000068664551</v>
       </c>
       <c r="F28" t="n">
-        <v>24.87399905541658</v>
+        <v>25.52635999370844</v>
       </c>
       <c r="G28" t="n">
-        <v>24.61282201330742</v>
+        <v>25.77614265252962</v>
       </c>
       <c r="H28" t="n">
-        <v>25.05783065190015</v>
+        <v>27.09299335958411</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -2021,10 +2021,10 @@
         <v>0</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>44046</v>
+        <v>44564</v>
       </c>
       <c r="M28" t="n">
-        <v>1.079999923706055</v>
+        <v>2.430000305175781</v>
       </c>
       <c r="N28" t="n">
         <v>6</v>
@@ -2045,25 +2045,25 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>26.30999946594238</v>
+        <v>27.93000030517578</v>
       </c>
       <c r="C29" t="n">
-        <v>27.75</v>
+        <v>30.6299991607666</v>
       </c>
       <c r="D29" t="n">
-        <v>25.92000007629395</v>
+        <v>27.36000061035156</v>
       </c>
       <c r="E29" t="n">
-        <v>26.46999931335449</v>
+        <v>30.39999961853027</v>
       </c>
       <c r="F29" t="n">
-        <v>25.40599914139589</v>
+        <v>27.15090653531572</v>
       </c>
       <c r="G29" t="n">
-        <v>25.02552807998455</v>
+        <v>26.80366642275198</v>
       </c>
       <c r="H29" t="n">
-        <v>25.18620962112328</v>
+        <v>27.39363029221558</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -2076,13 +2076,13 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>0.1012</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>44053</v>
+        <v>44571</v>
       </c>
       <c r="M29" t="n">
-        <v>1.079999923706055</v>
+        <v>2.430000305175781</v>
       </c>
       <c r="N29" t="n">
         <v>6</v>
@@ -2103,25 +2103,25 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>26.30999946594238</v>
+        <v>31.11000061035156</v>
       </c>
       <c r="C30" t="n">
-        <v>26.40999984741211</v>
+        <v>31.23999977111816</v>
       </c>
       <c r="D30" t="n">
-        <v>24.89999961853027</v>
+        <v>26.70999908447266</v>
       </c>
       <c r="E30" t="n">
-        <v>24.97999954223633</v>
+        <v>26.96999931335449</v>
       </c>
       <c r="F30" t="n">
-        <v>25.26399927500937</v>
+        <v>27.09060412799531</v>
       </c>
       <c r="G30" t="n">
-        <v>25.01541062715161</v>
+        <v>26.84062928733032</v>
       </c>
       <c r="H30" t="n">
-        <v>25.16746325031537</v>
+        <v>27.35511838504639</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -2134,13 +2134,13 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>0.2385</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>44060</v>
+        <v>44578</v>
       </c>
       <c r="M30" t="n">
-        <v>1.079999923706055</v>
+        <v>2.430000305175781</v>
       </c>
       <c r="N30" t="n">
         <v>6</v>
@@ -2161,49 +2161,49 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>25.21999931335449</v>
+        <v>26.01000022888184</v>
       </c>
       <c r="C31" t="n">
-        <v>26.46999931335449</v>
+        <v>29.8700008392334</v>
       </c>
       <c r="D31" t="n">
-        <v>25.04000091552734</v>
+        <v>25.55999946594238</v>
       </c>
       <c r="E31" t="n">
-        <v>26.29999923706055</v>
+        <v>28.44000053405762</v>
       </c>
       <c r="F31" t="n">
-        <v>24.87399905541658</v>
+        <v>25.52635999370844</v>
       </c>
       <c r="G31" t="n">
-        <v>24.61282201330742</v>
+        <v>25.77614265252962</v>
       </c>
       <c r="H31" t="n">
-        <v>25.05783065190015</v>
+        <v>27.09299335958411</v>
       </c>
       <c r="I31" t="n">
-        <v>26.46999931335449</v>
+        <v>29.8700008392334</v>
       </c>
       <c r="J31" t="n">
-        <v>27.44070425121231</v>
+        <v>30.15324648252954</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>44061</v>
+        <v>44579</v>
       </c>
       <c r="M31" t="n">
-        <v>1.079999923706055</v>
+        <v>2.430000305175781</v>
       </c>
       <c r="N31" t="n">
         <v>6</v>
       </c>
       <c r="O31" t="n">
-        <v>25.21999931335449</v>
+        <v>26.01000022888184</v>
       </c>
       <c r="P31" t="n">
-        <v>429</v>
+        <v>933</v>
       </c>
     </row>
     <row r="32">
@@ -2211,25 +2211,25 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>27.11000061035156</v>
+        <v>29.09000015258789</v>
       </c>
       <c r="C32" t="n">
-        <v>29.10000038146973</v>
+        <v>29.20000076293945</v>
       </c>
       <c r="D32" t="n">
-        <v>27.05999946594238</v>
+        <v>27.21999931335449</v>
       </c>
       <c r="E32" t="n">
-        <v>28.98999977111816</v>
+        <v>28.25</v>
       </c>
       <c r="F32" t="n">
-        <v>26.84202703124885</v>
+        <v>28.39312492824711</v>
       </c>
       <c r="G32" t="n">
-        <v>26.24112548801905</v>
+        <v>28.22580091796569</v>
       </c>
       <c r="H32" t="n">
-        <v>25.56138953609999</v>
+        <v>27.02700838015848</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -2245,10 +2245,10 @@
         <v>0</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>44158</v>
+        <v>44340</v>
       </c>
       <c r="M32" t="n">
-        <v>0.6966624046307643</v>
+        <v>3.328127622424915</v>
       </c>
       <c r="N32" t="n">
         <v>7</v>
@@ -2269,25 +2269,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>28.71999931335449</v>
+        <v>29.04999923706055</v>
       </c>
       <c r="C33" t="n">
-        <v>29.43000030517578</v>
+        <v>33.65000152587891</v>
       </c>
       <c r="D33" t="n">
-        <v>28.10000038146973</v>
+        <v>28.96999931335449</v>
       </c>
       <c r="E33" t="n">
-        <v>29.29000091552734</v>
+        <v>33.4900016784668</v>
       </c>
       <c r="F33" t="n">
-        <v>27.65801832600835</v>
+        <v>30.09208384498701</v>
       </c>
       <c r="G33" t="n">
-        <v>26.91865336079867</v>
+        <v>29.39562330918816</v>
       </c>
       <c r="H33" t="n">
-        <v>25.90035420695702</v>
+        <v>27.61455322545923</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>44165</v>
+        <v>44347</v>
       </c>
       <c r="M33" t="n">
-        <v>0.6966624046307643</v>
+        <v>3.328127622424915</v>
       </c>
       <c r="N33" t="n">
         <v>7</v>
@@ -2327,25 +2327,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>28.89999961853027</v>
+        <v>33.59000015258789</v>
       </c>
       <c r="C34" t="n">
-        <v>29.25</v>
+        <v>33.77999877929688</v>
       </c>
       <c r="D34" t="n">
-        <v>28.29999923706055</v>
+        <v>32.02999877929688</v>
       </c>
       <c r="E34" t="n">
-        <v>28.56999969482422</v>
+        <v>32.97999954223633</v>
       </c>
       <c r="F34" t="n">
-        <v>27.96201211561364</v>
+        <v>31.05472241073678</v>
       </c>
       <c r="G34" t="n">
-        <v>27.28561921280435</v>
+        <v>30.19215136097664</v>
       </c>
       <c r="H34" t="n">
-        <v>26.14304925130858</v>
+        <v>28.10232107243896</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -2361,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>44172</v>
+        <v>44354</v>
       </c>
       <c r="M34" t="n">
-        <v>0.6966624046307643</v>
+        <v>3.328127622424915</v>
       </c>
       <c r="N34" t="n">
         <v>7</v>
@@ -2385,25 +2385,25 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>28.92000007629395</v>
+        <v>33.0099983215332</v>
       </c>
       <c r="C35" t="n">
-        <v>29.10000038146973</v>
+        <v>36.2599983215332</v>
       </c>
       <c r="D35" t="n">
-        <v>28.13999938964844</v>
+        <v>31.07999992370605</v>
       </c>
       <c r="E35" t="n">
-        <v>28.67000007629395</v>
+        <v>31.80999946594238</v>
       </c>
       <c r="F35" t="n">
-        <v>28.19800810250707</v>
+        <v>31.30648142913865</v>
       </c>
       <c r="G35" t="n">
-        <v>27.59325940469093</v>
+        <v>30.55167316208014</v>
       </c>
       <c r="H35" t="n">
-        <v>26.37277205357998</v>
+        <v>28.43938274457564</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2419,10 +2419,10 @@
         <v>0</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>44179</v>
+        <v>44361</v>
       </c>
       <c r="M35" t="n">
-        <v>0.6966624046307643</v>
+        <v>3.328127622424915</v>
       </c>
       <c r="N35" t="n">
         <v>7</v>
@@ -2443,49 +2443,49 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>29.10000038146973</v>
+        <v>32.20999908447266</v>
       </c>
       <c r="C36" t="n">
-        <v>30.35000038146973</v>
+        <v>35.77999877929688</v>
       </c>
       <c r="D36" t="n">
-        <v>28.72999954223633</v>
+        <v>32.16999816894531</v>
       </c>
       <c r="E36" t="n">
-        <v>29.95999908447266</v>
+        <v>33.45000076293945</v>
       </c>
       <c r="F36" t="n">
-        <v>27.65801832600835</v>
+        <v>30.09208384498701</v>
       </c>
       <c r="G36" t="n">
-        <v>26.91865336079867</v>
+        <v>29.39562330918816</v>
       </c>
       <c r="H36" t="n">
-        <v>25.90035420695702</v>
+        <v>27.61455322545923</v>
       </c>
       <c r="I36" t="n">
-        <v>30.35000038146973</v>
+        <v>35.77999877929688</v>
       </c>
       <c r="J36" t="n">
-        <v>29.79666278610049</v>
+        <v>35.53812670689757</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>44180</v>
+        <v>44362</v>
       </c>
       <c r="M36" t="n">
-        <v>0.6966624046307643</v>
+        <v>3.328127622424915</v>
       </c>
       <c r="N36" t="n">
         <v>7</v>
       </c>
       <c r="O36" t="n">
-        <v>29.10000038146973</v>
+        <v>32.20999908447266</v>
       </c>
       <c r="P36" t="n">
-        <v>240</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="37">
@@ -2493,25 +2493,25 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>28.95999908447266</v>
+        <v>23.95000076293945</v>
       </c>
       <c r="C37" t="n">
-        <v>29</v>
+        <v>28.5</v>
       </c>
       <c r="D37" t="n">
-        <v>28.01000022888184</v>
+        <v>23.82999992370605</v>
       </c>
       <c r="E37" t="n">
-        <v>28.39999961853027</v>
+        <v>27.78000068664551</v>
       </c>
       <c r="F37" t="n">
-        <v>29.3827503710478</v>
+        <v>25.52635999370844</v>
       </c>
       <c r="G37" t="n">
-        <v>29.35262447333642</v>
+        <v>25.77614265252962</v>
       </c>
       <c r="H37" t="n">
-        <v>28.59101287597658</v>
+        <v>27.09299335958411</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2527,10 +2527,10 @@
         <v>0</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>43598</v>
+        <v>44564</v>
       </c>
       <c r="M37" t="n">
-        <v>0.1010758403152998</v>
+        <v>3.162642265084401</v>
       </c>
       <c r="N37" t="n">
         <v>8</v>
@@ -2551,25 +2551,25 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>28.39999961853027</v>
+        <v>27.93000030517578</v>
       </c>
       <c r="C38" t="n">
-        <v>28.75</v>
+        <v>30.6299991607666</v>
       </c>
       <c r="D38" t="n">
-        <v>27.5</v>
+        <v>27.36000061035156</v>
       </c>
       <c r="E38" t="n">
-        <v>28.18000030517578</v>
+        <v>30.39999961853027</v>
       </c>
       <c r="F38" t="n">
-        <v>28.98183368242379</v>
+        <v>27.15090653531572</v>
       </c>
       <c r="G38" t="n">
-        <v>29.09204132485628</v>
+        <v>26.80366642275198</v>
       </c>
       <c r="H38" t="n">
-        <v>28.55364809681287</v>
+        <v>27.39363029221558</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2582,13 +2582,13 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>0.1012</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>43605</v>
+        <v>44571</v>
       </c>
       <c r="M38" t="n">
-        <v>0.1010758403152998</v>
+        <v>3.162642265084401</v>
       </c>
       <c r="N38" t="n">
         <v>8</v>
@@ -2609,25 +2609,25 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>28.04999923706055</v>
+        <v>31.11000061035156</v>
       </c>
       <c r="C39" t="n">
-        <v>28.25</v>
+        <v>31.23999977111816</v>
       </c>
       <c r="D39" t="n">
-        <v>26.47999954223633</v>
+        <v>26.70999908447266</v>
       </c>
       <c r="E39" t="n">
-        <v>26.60000038146973</v>
+        <v>26.96999931335449</v>
       </c>
       <c r="F39" t="n">
-        <v>28.18788924877244</v>
+        <v>27.09060412799531</v>
       </c>
       <c r="G39" t="n">
-        <v>28.53825444854816</v>
+        <v>26.84062928733032</v>
       </c>
       <c r="H39" t="n">
-        <v>28.3760437590544</v>
+        <v>27.35511838504639</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2640,13 +2640,13 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>0.2385</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>43612</v>
+        <v>44578</v>
       </c>
       <c r="M39" t="n">
-        <v>0.1010758403152998</v>
+        <v>3.162642265084401</v>
       </c>
       <c r="N39" t="n">
         <v>8</v>
@@ -2667,25 +2667,25 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>26.59000015258789</v>
+        <v>26.01000022888184</v>
       </c>
       <c r="C40" t="n">
-        <v>28.04000091552734</v>
+        <v>29.8700008392334</v>
       </c>
       <c r="D40" t="n">
-        <v>26.39999961853027</v>
+        <v>25.55999946594238</v>
       </c>
       <c r="E40" t="n">
-        <v>27.53000068664551</v>
+        <v>28.44000053405762</v>
       </c>
       <c r="F40" t="n">
-        <v>27.9685930613968</v>
+        <v>27.54040293001608</v>
       </c>
       <c r="G40" t="n">
-        <v>28.31419805701423</v>
+        <v>27.19604511993639</v>
       </c>
       <c r="H40" t="n">
-        <v>28.29913075247178</v>
+        <v>27.4537440349565</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2698,13 +2698,13 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>0.2023</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>43619</v>
+        <v>44585</v>
       </c>
       <c r="M40" t="n">
-        <v>0.1010758403152998</v>
+        <v>3.162642265084401</v>
       </c>
       <c r="N40" t="n">
         <v>8</v>
@@ -2725,49 +2725,49 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>27.86000061035156</v>
+        <v>28.04000091552734</v>
       </c>
       <c r="C41" t="n">
-        <v>28.70000076293945</v>
+        <v>32.79000091552734</v>
       </c>
       <c r="D41" t="n">
-        <v>27.78000068664551</v>
+        <v>27.70999908447266</v>
       </c>
       <c r="E41" t="n">
-        <v>28.04000091552734</v>
+        <v>32.47999954223633</v>
       </c>
       <c r="F41" t="n">
-        <v>28.98183368242379</v>
+        <v>27.15090653531572</v>
       </c>
       <c r="G41" t="n">
-        <v>29.09204132485628</v>
+        <v>26.80366642275198</v>
       </c>
       <c r="H41" t="n">
-        <v>28.55364809681287</v>
+        <v>27.39363029221558</v>
       </c>
       <c r="I41" t="n">
-        <v>28.70000076293945</v>
+        <v>32.79000091552734</v>
       </c>
       <c r="J41" t="n">
-        <v>27.96107645066686</v>
+        <v>31.20264318061174</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>43620</v>
+        <v>44586</v>
       </c>
       <c r="M41" t="n">
-        <v>0.1010758403152998</v>
+        <v>3.162642265084401</v>
       </c>
       <c r="N41" t="n">
         <v>8</v>
       </c>
       <c r="O41" t="n">
-        <v>27.86000061035156</v>
+        <v>28.04000091552734</v>
       </c>
       <c r="P41" t="n">
-        <v>36</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="42">
@@ -2775,25 +2775,25 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>30.22999954223633</v>
+        <v>24.47999954223633</v>
       </c>
       <c r="C42" t="n">
-        <v>30.54999923706055</v>
+        <v>24.88999938964844</v>
       </c>
       <c r="D42" t="n">
-        <v>29.89999961853027</v>
+        <v>22.51000022888184</v>
       </c>
       <c r="E42" t="n">
-        <v>30.30999946594238</v>
+        <v>23.42000007629395</v>
       </c>
       <c r="F42" t="n">
-        <v>29.29355877520009</v>
+        <v>24.74896363408517</v>
       </c>
       <c r="G42" t="n">
-        <v>28.6060455357955</v>
+        <v>25.88556205926282</v>
       </c>
       <c r="H42" t="n">
-        <v>27.02716686221562</v>
+        <v>27.61739399459901</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>44193</v>
+        <v>44543</v>
       </c>
       <c r="M42" t="n">
-        <v>-1.620000839233398</v>
+        <v>0.5456320876553491</v>
       </c>
       <c r="N42" t="n">
         <v>9</v>
@@ -2833,25 +2833,25 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>30.45999908447266</v>
+        <v>22.68000030517578</v>
       </c>
       <c r="C43" t="n">
-        <v>33.61999893188477</v>
+        <v>25.42000007629395</v>
       </c>
       <c r="D43" t="n">
-        <v>29.75</v>
+        <v>22.14999961853027</v>
       </c>
       <c r="E43" t="n">
-        <v>32.52999877929688</v>
+        <v>24.75</v>
       </c>
       <c r="F43" t="n">
-        <v>30.37237210989902</v>
+        <v>24.74930908939012</v>
       </c>
       <c r="G43" t="n">
-        <v>29.47803514546247</v>
+        <v>25.6332149349822</v>
       </c>
       <c r="H43" t="n">
-        <v>27.52742430922301</v>
+        <v>27.35672181327183</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2867,10 +2867,10 @@
         <v>0</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>44200</v>
+        <v>44550</v>
       </c>
       <c r="M43" t="n">
-        <v>-1.620000839233398</v>
+        <v>0.5456320876553491</v>
       </c>
       <c r="N43" t="n">
         <v>9</v>
@@ -2891,25 +2891,25 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>32.09000015258789</v>
+        <v>24.75</v>
       </c>
       <c r="C44" t="n">
-        <v>34.36999893188477</v>
+        <v>25.5</v>
       </c>
       <c r="D44" t="n">
-        <v>31.89999961853027</v>
+        <v>23.56999969482422</v>
       </c>
       <c r="E44" t="n">
-        <v>33.0099983215332</v>
+        <v>23.70000076293945</v>
       </c>
       <c r="F44" t="n">
-        <v>31.25158084711042</v>
+        <v>24.3995396472399</v>
       </c>
       <c r="G44" t="n">
-        <v>30.26291585125597</v>
+        <v>25.20361178563936</v>
       </c>
       <c r="H44" t="n">
-        <v>28.02584012852393</v>
+        <v>27.02429262687798</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2925,10 +2925,10 @@
         <v>0</v>
       </c>
       <c r="L44" s="2" t="n">
-        <v>44207</v>
+        <v>44557</v>
       </c>
       <c r="M44" t="n">
-        <v>-1.620000839233398</v>
+        <v>0.5456320876553491</v>
       </c>
       <c r="N44" t="n">
         <v>9</v>
@@ -2949,25 +2949,25 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>32.5</v>
+        <v>23.95000076293945</v>
       </c>
       <c r="C45" t="n">
-        <v>33.59999847412109</v>
+        <v>28.5</v>
       </c>
       <c r="D45" t="n">
-        <v>31.25</v>
+        <v>23.82999992370605</v>
       </c>
       <c r="E45" t="n">
-        <v>31.54999923706055</v>
+        <v>27.78000068664551</v>
       </c>
       <c r="F45" t="n">
-        <v>31.35105364376046</v>
+        <v>25.52635999370844</v>
       </c>
       <c r="G45" t="n">
-        <v>30.54893438143476</v>
+        <v>25.77614265252962</v>
       </c>
       <c r="H45" t="n">
-        <v>28.34621822929999</v>
+        <v>27.09299335958411</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2983,10 +2983,10 @@
         <v>0</v>
       </c>
       <c r="L45" s="2" t="n">
-        <v>44214</v>
+        <v>44564</v>
       </c>
       <c r="M45" t="n">
-        <v>-1.620000839233398</v>
+        <v>0.5456320876553491</v>
       </c>
       <c r="N45" t="n">
         <v>9</v>
@@ -3007,49 +3007,49 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>31.27000045776367</v>
+        <v>27.93000030517578</v>
       </c>
       <c r="C46" t="n">
-        <v>31.43000030517578</v>
+        <v>30.6299991607666</v>
       </c>
       <c r="D46" t="n">
-        <v>29.59000015258789</v>
+        <v>27.36000061035156</v>
       </c>
       <c r="E46" t="n">
-        <v>29.64999961853027</v>
+        <v>30.39999961853027</v>
       </c>
       <c r="F46" t="n">
-        <v>30.37237210989902</v>
+        <v>24.74930908939012</v>
       </c>
       <c r="G46" t="n">
-        <v>29.47803514546247</v>
+        <v>25.6332149349822</v>
       </c>
       <c r="H46" t="n">
-        <v>27.52742430922301</v>
+        <v>27.35672181327183</v>
       </c>
       <c r="I46" t="n">
-        <v>31.43000030517578</v>
+        <v>30.6299991607666</v>
       </c>
       <c r="J46" t="n">
-        <v>33.48314180583354</v>
+        <v>28.47563239283113</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>44215</v>
+        <v>44565</v>
       </c>
       <c r="M46" t="n">
-        <v>-1.620000839233398</v>
+        <v>0.5456320876553491</v>
       </c>
       <c r="N46" t="n">
         <v>9</v>
       </c>
       <c r="O46" t="n">
-        <v>31.27000045776367</v>
+        <v>27.93000030517578</v>
       </c>
       <c r="P46" t="n">
-        <v>-518</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47">
@@ -3057,25 +3057,25 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>33.08000183105469</v>
+        <v>15.36999988555908</v>
       </c>
       <c r="C47" t="n">
-        <v>33.93999862670898</v>
+        <v>15.36999988555908</v>
       </c>
       <c r="D47" t="n">
-        <v>32.09999847412109</v>
+        <v>13.69999980926514</v>
       </c>
       <c r="E47" t="n">
-        <v>33.43000030517578</v>
+        <v>14.86999988555908</v>
       </c>
       <c r="F47" t="n">
-        <v>32.75839365335086</v>
+        <v>15.02235074742497</v>
       </c>
       <c r="G47" t="n">
-        <v>33.2132133478781</v>
+        <v>15.28262992931183</v>
       </c>
       <c r="H47" t="n">
-        <v>36.11403790911436</v>
+        <v>17.45713535107871</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -3088,13 +3088,13 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>0.1805</v>
+        <v>0</v>
       </c>
       <c r="L47" s="2" t="n">
-        <v>44760</v>
+        <v>44130</v>
       </c>
       <c r="M47" t="n">
-        <v>0.2103419118784586</v>
+        <v>2.477832903285901</v>
       </c>
       <c r="N47" t="n">
         <v>10</v>
@@ -3115,25 +3115,25 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>33.77999877929688</v>
+        <v>15.0600004196167</v>
       </c>
       <c r="C48" t="n">
-        <v>33.97999954223633</v>
+        <v>16.21999931335449</v>
       </c>
       <c r="D48" t="n">
-        <v>32.90000152587891</v>
+        <v>14.60999965667725</v>
       </c>
       <c r="E48" t="n">
-        <v>33.81000137329102</v>
+        <v>15.14999961853027</v>
       </c>
       <c r="F48" t="n">
-        <v>33.10892955999758</v>
+        <v>15.06490037112674</v>
       </c>
       <c r="G48" t="n">
-        <v>33.34583290908097</v>
+        <v>15.25315652691593</v>
       </c>
       <c r="H48" t="n">
-        <v>35.90458004222133</v>
+        <v>17.24739573902885</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -3146,13 +3146,13 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>0.1912</v>
+        <v>0</v>
       </c>
       <c r="L48" s="2" t="n">
-        <v>44767</v>
+        <v>44137</v>
       </c>
       <c r="M48" t="n">
-        <v>0.2103419118784586</v>
+        <v>2.477832903285901</v>
       </c>
       <c r="N48" t="n">
         <v>10</v>
@@ -3173,25 +3173,25 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>33.61999893188477</v>
+        <v>16.89999961853027</v>
       </c>
       <c r="C49" t="n">
-        <v>34.33000183105469</v>
+        <v>17.95999908447266</v>
       </c>
       <c r="D49" t="n">
-        <v>33</v>
+        <v>16.42000007629395</v>
       </c>
       <c r="E49" t="n">
-        <v>33.95999908447266</v>
+        <v>17.27000045776367</v>
       </c>
       <c r="F49" t="n">
-        <v>33.39261940148928</v>
+        <v>15.79993373333905</v>
       </c>
       <c r="G49" t="n">
-        <v>33.48231428139023</v>
+        <v>15.70134406710432</v>
       </c>
       <c r="H49" t="n">
-        <v>35.72779995515327</v>
+        <v>17.24945071345929</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -3207,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="L49" s="2" t="n">
-        <v>44774</v>
+        <v>44144</v>
       </c>
       <c r="M49" t="n">
-        <v>0.2103419118784586</v>
+        <v>2.477832903285901</v>
       </c>
       <c r="N49" t="n">
         <v>10</v>
@@ -3231,25 +3231,25 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>34.16999816894531</v>
+        <v>17.97999954223633</v>
       </c>
       <c r="C50" t="n">
-        <v>36.31000137329102</v>
+        <v>21</v>
       </c>
       <c r="D50" t="n">
-        <v>33.40999984741211</v>
+        <v>17.77000045776367</v>
       </c>
       <c r="E50" t="n">
-        <v>36.29999923706055</v>
+        <v>20.15999984741211</v>
       </c>
       <c r="F50" t="n">
-        <v>34.36174601334637</v>
+        <v>17.25328910469674</v>
       </c>
       <c r="G50" t="n">
-        <v>34.10846649376141</v>
+        <v>16.69215646272827</v>
       </c>
       <c r="H50" t="n">
-        <v>35.77981807169029</v>
+        <v>17.51404608927318</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -3262,13 +3262,13 @@
         </is>
       </c>
       <c r="K50" t="n">
-        <v>0.1785</v>
+        <v>0</v>
       </c>
       <c r="L50" s="2" t="n">
-        <v>44781</v>
+        <v>44151</v>
       </c>
       <c r="M50" t="n">
-        <v>0.2103419118784586</v>
+        <v>2.477832903285901</v>
       </c>
       <c r="N50" t="n">
         <v>10</v>
@@ -3289,49 +3289,49 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>35.84000015258789</v>
+        <v>20.65999984741211</v>
       </c>
       <c r="C51" t="n">
-        <v>36.93999862670898</v>
+        <v>24.8700008392334</v>
       </c>
       <c r="D51" t="n">
-        <v>35.31000137329102</v>
+        <v>20.65999984741211</v>
       </c>
       <c r="E51" t="n">
-        <v>35.47999954223633</v>
+        <v>23.75</v>
       </c>
       <c r="F51" t="n">
-        <v>33.10892955999758</v>
+        <v>15.06490037112674</v>
       </c>
       <c r="G51" t="n">
-        <v>33.34583290908097</v>
+        <v>15.25315652691593</v>
       </c>
       <c r="H51" t="n">
-        <v>35.90458004222133</v>
+        <v>17.24739573902885</v>
       </c>
       <c r="I51" t="n">
-        <v>36.93999862670898</v>
+        <v>24.8700008392334</v>
       </c>
       <c r="J51" t="n">
-        <v>36.05034206446635</v>
+        <v>23.13783275069801</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
       <c r="L51" s="2" t="n">
-        <v>44782</v>
+        <v>44152</v>
       </c>
       <c r="M51" t="n">
-        <v>0.2103419118784586</v>
+        <v>2.477832903285901</v>
       </c>
       <c r="N51" t="n">
         <v>10</v>
       </c>
       <c r="O51" t="n">
-        <v>35.84000015258789</v>
+        <v>20.65999984741211</v>
       </c>
       <c r="P51" t="n">
-        <v>59</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="52">
@@ -3339,25 +3339,25 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>23.75</v>
+        <v>20.01000022888184</v>
       </c>
       <c r="C52" t="n">
-        <v>26.17000007629395</v>
+        <v>23.03000068664551</v>
       </c>
       <c r="D52" t="n">
-        <v>23.70000076293945</v>
+        <v>15.5</v>
       </c>
       <c r="E52" t="n">
-        <v>24.1200008392334</v>
+        <v>17.51000022888184</v>
       </c>
       <c r="F52" t="n">
-        <v>23.12640191024203</v>
+        <v>30.52124489849474</v>
       </c>
       <c r="G52" t="n">
-        <v>23.32432791818212</v>
+        <v>34.44259322931516</v>
       </c>
       <c r="H52" t="n">
-        <v>25.69336902857469</v>
+        <v>40.36759274571563</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -3373,10 +3373,10 @@
         <v>0</v>
       </c>
       <c r="L52" s="2" t="n">
-        <v>43976</v>
+        <v>43899</v>
       </c>
       <c r="M52" t="n">
-        <v>-1.739999771118164</v>
+        <v>2.790000915527344</v>
       </c>
       <c r="N52" t="n">
         <v>11</v>
@@ -3397,25 +3397,25 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>24.28000068664551</v>
+        <v>15.06999969482422</v>
       </c>
       <c r="C53" t="n">
-        <v>29.01000022888184</v>
+        <v>17.81999969482422</v>
       </c>
       <c r="D53" t="n">
-        <v>24.04999923706055</v>
+        <v>12.39999961853027</v>
       </c>
       <c r="E53" t="n">
-        <v>28.11000061035156</v>
+        <v>13.15999984741211</v>
       </c>
       <c r="F53" t="n">
-        <v>24.78760147694521</v>
+        <v>24.73416321480053</v>
       </c>
       <c r="G53" t="n">
-        <v>24.38781073866422</v>
+        <v>29.71312803333671</v>
       </c>
       <c r="H53" t="n">
-        <v>25.91306280873622</v>
+        <v>37.89417520950622</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -3431,10 +3431,10 @@
         <v>0</v>
       </c>
       <c r="L53" s="2" t="n">
-        <v>43983</v>
+        <v>43906</v>
       </c>
       <c r="M53" t="n">
-        <v>-1.739999771118164</v>
+        <v>2.790000915527344</v>
       </c>
       <c r="N53" t="n">
         <v>11</v>
@@ -3455,25 +3455,25 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>28.59000015258789</v>
+        <v>13.3100004196167</v>
       </c>
       <c r="C54" t="n">
-        <v>28.89999961853027</v>
+        <v>19.21999931335449</v>
       </c>
       <c r="D54" t="n">
-        <v>23.68000030517578</v>
+        <v>12.88000011444092</v>
       </c>
       <c r="E54" t="n">
-        <v>24.78000068664551</v>
+        <v>16.84000015258789</v>
       </c>
       <c r="F54" t="n">
-        <v>24.78506788017865</v>
+        <v>22.10277552739632</v>
       </c>
       <c r="G54" t="n">
-        <v>24.47496406043784</v>
+        <v>26.85243294872586</v>
       </c>
       <c r="H54" t="n">
-        <v>25.81005716127343</v>
+        <v>35.98015929524092</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="L54" s="2" t="n">
-        <v>43990</v>
+        <v>43913</v>
       </c>
       <c r="M54" t="n">
-        <v>-1.739999771118164</v>
+        <v>2.790000915527344</v>
       </c>
       <c r="N54" t="n">
         <v>11</v>
@@ -3513,25 +3513,25 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>23.76000022888184</v>
+        <v>16.04000091552734</v>
       </c>
       <c r="C55" t="n">
-        <v>26.23999977111816</v>
+        <v>17.8700008392334</v>
       </c>
       <c r="D55" t="n">
-        <v>23.69000053405762</v>
+        <v>13.4399995803833</v>
       </c>
       <c r="E55" t="n">
-        <v>25.25</v>
+        <v>15.46000003814697</v>
       </c>
       <c r="F55" t="n">
-        <v>24.94004525345243</v>
+        <v>19.88851703097987</v>
       </c>
       <c r="G55" t="n">
-        <v>24.64719426922943</v>
+        <v>24.32078119081944</v>
       </c>
       <c r="H55" t="n">
-        <v>25.75914287388494</v>
+        <v>34.11469027186874</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -3547,10 +3547,10 @@
         <v>0</v>
       </c>
       <c r="L55" s="2" t="n">
-        <v>43997</v>
+        <v>43920</v>
       </c>
       <c r="M55" t="n">
-        <v>-1.739999771118164</v>
+        <v>2.790000915527344</v>
       </c>
       <c r="N55" t="n">
         <v>11</v>
@@ -3571,49 +3571,49 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>24.88999938964844</v>
+        <v>16.38999938964844</v>
       </c>
       <c r="C56" t="n">
-        <v>25.40999984741211</v>
+        <v>21.32999992370605</v>
       </c>
       <c r="D56" t="n">
-        <v>23.02000045776367</v>
+        <v>15.67000007629395</v>
       </c>
       <c r="E56" t="n">
-        <v>23.14999961853027</v>
+        <v>19.18000030517578</v>
       </c>
       <c r="F56" t="n">
-        <v>24.78760147694521</v>
+        <v>24.73416321480053</v>
       </c>
       <c r="G56" t="n">
-        <v>24.38781073866422</v>
+        <v>29.71312803333671</v>
       </c>
       <c r="H56" t="n">
-        <v>25.91306280873622</v>
+        <v>37.89417520950622</v>
       </c>
       <c r="I56" t="n">
-        <v>25.40999984741211</v>
+        <v>21.32999992370605</v>
       </c>
       <c r="J56" t="n">
-        <v>28.17892550604199</v>
+        <v>24.0830624279543</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
       </c>
       <c r="L56" s="2" t="n">
-        <v>43998</v>
+        <v>43921</v>
       </c>
       <c r="M56" t="n">
-        <v>-1.739999771118164</v>
+        <v>2.790000915527344</v>
       </c>
       <c r="N56" t="n">
         <v>11</v>
       </c>
       <c r="O56" t="n">
-        <v>24.88999938964844</v>
+        <v>16.38999938964844</v>
       </c>
       <c r="P56" t="n">
-        <v>-699</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="57">
@@ -3621,25 +3621,25 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>30.45999908447266</v>
+        <v>18.64999961853027</v>
       </c>
       <c r="C57" t="n">
-        <v>33.61999893188477</v>
+        <v>19</v>
       </c>
       <c r="D57" t="n">
-        <v>29.75</v>
+        <v>16.70000076293945</v>
       </c>
       <c r="E57" t="n">
-        <v>32.52999877929688</v>
+        <v>16.8799991607666</v>
       </c>
       <c r="F57" t="n">
-        <v>30.37237210989902</v>
+        <v>18.12700313328816</v>
       </c>
       <c r="G57" t="n">
-        <v>29.47803514546247</v>
+        <v>18.51778898896941</v>
       </c>
       <c r="H57" t="n">
-        <v>27.52742430922301</v>
+        <v>21.20437665999248</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -3655,10 +3655,10 @@
         <v>0</v>
       </c>
       <c r="L57" s="2" t="n">
-        <v>44200</v>
+        <v>44060</v>
       </c>
       <c r="M57" t="n">
-        <v>2.499998092651367</v>
+        <v>1.139999389648438</v>
       </c>
       <c r="N57" t="n">
         <v>12</v>
@@ -3679,25 +3679,25 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>32.09000015258789</v>
+        <v>16.55999946594238</v>
       </c>
       <c r="C58" t="n">
-        <v>34.36999893188477</v>
+        <v>17.64999961853027</v>
       </c>
       <c r="D58" t="n">
-        <v>31.89999961853027</v>
+        <v>16.35000038146973</v>
       </c>
       <c r="E58" t="n">
-        <v>33.0099983215332</v>
+        <v>16.98999977111816</v>
       </c>
       <c r="F58" t="n">
-        <v>31.25158084711042</v>
+        <v>17.74800201256483</v>
       </c>
       <c r="G58" t="n">
-        <v>30.26291585125597</v>
+        <v>18.17828027389135</v>
       </c>
       <c r="H58" t="n">
-        <v>28.02584012852393</v>
+        <v>20.82125148827663</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -3713,10 +3713,10 @@
         <v>0</v>
       </c>
       <c r="L58" s="2" t="n">
-        <v>44207</v>
+        <v>44067</v>
       </c>
       <c r="M58" t="n">
-        <v>2.499998092651367</v>
+        <v>1.139999389648438</v>
       </c>
       <c r="N58" t="n">
         <v>12</v>
@@ -3737,25 +3737,25 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>32.5</v>
+        <v>17.09000015258789</v>
       </c>
       <c r="C59" t="n">
-        <v>33.59999847412109</v>
+        <v>17.19000053405762</v>
       </c>
       <c r="D59" t="n">
-        <v>31.25</v>
+        <v>15.47999954223633</v>
       </c>
       <c r="E59" t="n">
-        <v>31.54999923706055</v>
+        <v>16.02000045776367</v>
       </c>
       <c r="F59" t="n">
-        <v>31.35105364376046</v>
+        <v>17.17200149429777</v>
       </c>
       <c r="G59" t="n">
-        <v>30.54893438143476</v>
+        <v>17.69866253697409</v>
       </c>
       <c r="H59" t="n">
-        <v>28.34621822929999</v>
+        <v>20.38477412186636</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -3771,10 +3771,10 @@
         <v>0</v>
       </c>
       <c r="L59" s="2" t="n">
-        <v>44214</v>
+        <v>44074</v>
       </c>
       <c r="M59" t="n">
-        <v>2.499998092651367</v>
+        <v>1.139999389648438</v>
       </c>
       <c r="N59" t="n">
         <v>12</v>
@@ -3795,25 +3795,25 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>31.27000045776367</v>
+        <v>15.57999992370605</v>
       </c>
       <c r="C60" t="n">
-        <v>31.43000030517578</v>
+        <v>15.65999984741211</v>
       </c>
       <c r="D60" t="n">
-        <v>29.59000015258789</v>
+        <v>14.38000011444092</v>
       </c>
       <c r="E60" t="n">
-        <v>29.64999961853027</v>
+        <v>14.94999980926514</v>
       </c>
       <c r="F60" t="n">
-        <v>30.7840356353504</v>
+        <v>16.43133426595356</v>
       </c>
       <c r="G60" t="n">
-        <v>30.34917110078932</v>
+        <v>17.08784859748321</v>
       </c>
       <c r="H60" t="n">
-        <v>28.4647438101391</v>
+        <v>19.8907037298117</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -3829,10 +3829,10 @@
         <v>0</v>
       </c>
       <c r="L60" s="2" t="n">
-        <v>44221</v>
+        <v>44081</v>
       </c>
       <c r="M60" t="n">
-        <v>2.499998092651367</v>
+        <v>1.139999389648438</v>
       </c>
       <c r="N60" t="n">
         <v>12</v>
@@ -3853,49 +3853,49 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>29.8700008392334</v>
+        <v>15.06999969482422</v>
       </c>
       <c r="C61" t="n">
-        <v>32.90999984741211</v>
+        <v>16.89999961853027</v>
       </c>
       <c r="D61" t="n">
-        <v>29.56999969482422</v>
+        <v>14.81999969482422</v>
       </c>
       <c r="E61" t="n">
-        <v>32.36999893188477</v>
+        <v>16.20999908447266</v>
       </c>
       <c r="F61" t="n">
-        <v>31.25158084711042</v>
+        <v>17.74800201256483</v>
       </c>
       <c r="G61" t="n">
-        <v>30.26291585125597</v>
+        <v>18.17828027389135</v>
       </c>
       <c r="H61" t="n">
-        <v>28.02584012852393</v>
+        <v>20.82125148827663</v>
       </c>
       <c r="I61" t="n">
-        <v>32.90999984741211</v>
+        <v>16.89999961853027</v>
       </c>
       <c r="J61" t="n">
-        <v>33.25889894596661</v>
+        <v>17.10222034141247</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
       </c>
       <c r="L61" s="2" t="n">
-        <v>44222</v>
+        <v>44082</v>
       </c>
       <c r="M61" t="n">
-        <v>2.499998092651367</v>
+        <v>1.139999389648438</v>
       </c>
       <c r="N61" t="n">
         <v>12</v>
       </c>
       <c r="O61" t="n">
-        <v>29.8700008392334</v>
+        <v>15.06999969482422</v>
       </c>
       <c r="P61" t="n">
-        <v>837</v>
+        <v>757</v>
       </c>
     </row>
     <row r="62">
@@ -3903,25 +3903,25 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>28.92000007629395</v>
+        <v>32.70000076293945</v>
       </c>
       <c r="C62" t="n">
-        <v>29.10000038146973</v>
+        <v>33.70000076293945</v>
       </c>
       <c r="D62" t="n">
-        <v>28.13999938964844</v>
+        <v>31.80999946594238</v>
       </c>
       <c r="E62" t="n">
-        <v>28.67000007629395</v>
+        <v>32.40999984741211</v>
       </c>
       <c r="F62" t="n">
-        <v>28.19800810250707</v>
+        <v>30.04142540480469</v>
       </c>
       <c r="G62" t="n">
-        <v>27.59325940469093</v>
+        <v>28.71429674669672</v>
       </c>
       <c r="H62" t="n">
-        <v>26.37277205357998</v>
+        <v>25.2028479776577</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -3937,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="L62" s="2" t="n">
-        <v>44179</v>
+        <v>44263</v>
       </c>
       <c r="M62" t="n">
-        <v>1.803236344372529</v>
+        <v>-2.530000686645508</v>
       </c>
       <c r="N62" t="n">
         <v>13</v>
@@ -3961,25 +3961,25 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>29.10000038146973</v>
+        <v>32.40000152587891</v>
       </c>
       <c r="C63" t="n">
-        <v>30.35000038146973</v>
+        <v>32.75</v>
       </c>
       <c r="D63" t="n">
-        <v>28.72999954223633</v>
+        <v>29.59000015258789</v>
       </c>
       <c r="E63" t="n">
-        <v>29.95999908447266</v>
+        <v>30.67000007629395</v>
       </c>
       <c r="F63" t="n">
-        <v>28.78533842982894</v>
+        <v>30.25095029530111</v>
       </c>
       <c r="G63" t="n">
-        <v>28.11920155575353</v>
+        <v>29.14889748660722</v>
       </c>
       <c r="H63" t="n">
-        <v>26.69888360184295</v>
+        <v>25.69986180480645</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -3995,10 +3995,10 @@
         <v>0</v>
       </c>
       <c r="L63" s="2" t="n">
-        <v>44186</v>
+        <v>44270</v>
       </c>
       <c r="M63" t="n">
-        <v>1.803236344372529</v>
+        <v>-2.530000686645508</v>
       </c>
       <c r="N63" t="n">
         <v>13</v>
@@ -4019,25 +4019,25 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>30.22999954223633</v>
+        <v>30.71999931335449</v>
       </c>
       <c r="C64" t="n">
-        <v>30.54999923706055</v>
+        <v>30.77000045776367</v>
       </c>
       <c r="D64" t="n">
-        <v>29.89999961853027</v>
+        <v>26.07999992370605</v>
       </c>
       <c r="E64" t="n">
-        <v>30.30999946594238</v>
+        <v>28.45999908447266</v>
       </c>
       <c r="F64" t="n">
-        <v>29.29355877520009</v>
+        <v>29.65396655835829</v>
       </c>
       <c r="G64" t="n">
-        <v>28.6060455357955</v>
+        <v>28.99580895279954</v>
       </c>
       <c r="H64" t="n">
-        <v>27.02716686221562</v>
+        <v>25.95078337568519</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -4053,10 +4053,10 @@
         <v>0</v>
       </c>
       <c r="L64" s="2" t="n">
-        <v>44193</v>
+        <v>44277</v>
       </c>
       <c r="M64" t="n">
-        <v>1.803236344372529</v>
+        <v>-2.530000686645508</v>
       </c>
       <c r="N64" t="n">
         <v>13</v>
@@ -4077,25 +4077,25 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>30.45999908447266</v>
+        <v>28.02000045776367</v>
       </c>
       <c r="C65" t="n">
-        <v>33.61999893188477</v>
+        <v>28.45000076293945</v>
       </c>
       <c r="D65" t="n">
-        <v>29.75</v>
+        <v>26.76000022888184</v>
       </c>
       <c r="E65" t="n">
-        <v>32.52999877929688</v>
+        <v>28.44000053405762</v>
       </c>
       <c r="F65" t="n">
-        <v>30.37237210989902</v>
+        <v>29.24931121692474</v>
       </c>
       <c r="G65" t="n">
-        <v>29.47803514546247</v>
+        <v>28.87229597085689</v>
       </c>
       <c r="H65" t="n">
-        <v>27.52742430922301</v>
+        <v>26.17707584462814</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -4111,10 +4111,10 @@
         <v>0</v>
       </c>
       <c r="L65" s="2" t="n">
-        <v>44200</v>
+        <v>44284</v>
       </c>
       <c r="M65" t="n">
-        <v>1.803236344372529</v>
+        <v>-2.530000686645508</v>
       </c>
       <c r="N65" t="n">
         <v>13</v>
@@ -4135,49 +4135,49 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>32.09000015258789</v>
+        <v>28.35000038146973</v>
       </c>
       <c r="C66" t="n">
-        <v>34.36999893188477</v>
+        <v>28.35000038146973</v>
       </c>
       <c r="D66" t="n">
-        <v>31.89999961853027</v>
+        <v>25.79999923706055</v>
       </c>
       <c r="E66" t="n">
-        <v>33.0099983215332</v>
+        <v>25.81999969482422</v>
       </c>
       <c r="F66" t="n">
-        <v>28.78533842982894</v>
+        <v>30.25095029530111</v>
       </c>
       <c r="G66" t="n">
-        <v>28.11920155575353</v>
+        <v>29.14889748660722</v>
       </c>
       <c r="H66" t="n">
-        <v>26.69888360184295</v>
+        <v>25.69986180480645</v>
       </c>
       <c r="I66" t="n">
-        <v>34.36999893188477</v>
+        <v>28.35000038146973</v>
       </c>
       <c r="J66" t="n">
-        <v>33.89323649696042</v>
+        <v>30.93930290819454</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
       </c>
       <c r="L66" s="2" t="n">
-        <v>44201</v>
+        <v>44285</v>
       </c>
       <c r="M66" t="n">
-        <v>1.803236344372529</v>
+        <v>-2.530000686645508</v>
       </c>
       <c r="N66" t="n">
         <v>13</v>
       </c>
       <c r="O66" t="n">
-        <v>32.09000015258789</v>
+        <v>28.35000038146973</v>
       </c>
       <c r="P66" t="n">
-        <v>563</v>
+        <v>-893</v>
       </c>
     </row>
     <row r="67">
@@ -4185,25 +4185,25 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>28.73999977111816</v>
+        <v>19.78000068664551</v>
       </c>
       <c r="C67" t="n">
-        <v>30.71999931335449</v>
+        <v>20.04999923706055</v>
       </c>
       <c r="D67" t="n">
-        <v>28.72999954223633</v>
+        <v>15.5</v>
       </c>
       <c r="E67" t="n">
-        <v>30.35000038146973</v>
+        <v>17.73999977111816</v>
       </c>
       <c r="F67" t="n">
-        <v>29.34777593841804</v>
+        <v>19.01489644973617</v>
       </c>
       <c r="G67" t="n">
-        <v>29.12734245304822</v>
+        <v>21.96985529015729</v>
       </c>
       <c r="H67" t="n">
-        <v>28.79734809484855</v>
+        <v>31.39181014645397</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -4219,10 +4219,10 @@
         <v>0</v>
       </c>
       <c r="L67" s="2" t="n">
-        <v>43752</v>
+        <v>43934</v>
       </c>
       <c r="M67" t="n">
-        <v>0.2495955103029246</v>
+        <v>0.2399997711181641</v>
       </c>
       <c r="N67" t="n">
         <v>14</v>
@@ -4243,25 +4243,25 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>30.67000007629395</v>
+        <v>16.02000045776367</v>
       </c>
       <c r="C68" t="n">
-        <v>31.85000038146973</v>
+        <v>19.98999977111816</v>
       </c>
       <c r="D68" t="n">
-        <v>30.6299991607666</v>
+        <v>15.72000026702881</v>
       </c>
       <c r="E68" t="n">
-        <v>31.71999931335449</v>
+        <v>17.77000045776367</v>
       </c>
       <c r="F68" t="n">
-        <v>30.13851706339686</v>
+        <v>18.59993111907867</v>
       </c>
       <c r="G68" t="n">
-        <v>29.70348842200517</v>
+        <v>21.03655421629204</v>
       </c>
       <c r="H68" t="n">
-        <v>29.06304366016727</v>
+        <v>30.15346381111849</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -4277,10 +4277,10 @@
         <v>0</v>
       </c>
       <c r="L68" s="2" t="n">
-        <v>43759</v>
+        <v>43941</v>
       </c>
       <c r="M68" t="n">
-        <v>0.2495955103029246</v>
+        <v>0.2399997711181641</v>
       </c>
       <c r="N68" t="n">
         <v>14</v>
@@ -4301,25 +4301,25 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>31.96999931335449</v>
+        <v>17.14999961853027</v>
       </c>
       <c r="C69" t="n">
-        <v>32.22999954223633</v>
+        <v>21.60000038146973</v>
       </c>
       <c r="D69" t="n">
-        <v>30.81999969482422</v>
+        <v>16.56999969482422</v>
       </c>
       <c r="E69" t="n">
-        <v>31.79999923706055</v>
+        <v>16.80999946594238</v>
       </c>
       <c r="F69" t="n">
-        <v>30.69234445461809</v>
+        <v>18.00328723469991</v>
       </c>
       <c r="G69" t="n">
-        <v>30.1693797142397</v>
+        <v>20.09731982732545</v>
       </c>
       <c r="H69" t="n">
-        <v>29.3118578035212</v>
+        <v>28.94042159792066</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -4335,10 +4335,10 @@
         <v>0</v>
       </c>
       <c r="L69" s="2" t="n">
-        <v>43766</v>
+        <v>43948</v>
       </c>
       <c r="M69" t="n">
-        <v>0.2495955103029246</v>
+        <v>0.2399997711181641</v>
       </c>
       <c r="N69" t="n">
         <v>14</v>
@@ -4359,25 +4359,25 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>32.2400016784668</v>
+        <v>16.48999977111816</v>
       </c>
       <c r="C70" t="n">
-        <v>33.59999847412109</v>
+        <v>19.47999954223633</v>
       </c>
       <c r="D70" t="n">
-        <v>32.09999847412109</v>
+        <v>15.9399995803833</v>
       </c>
       <c r="E70" t="n">
-        <v>33.2599983215332</v>
+        <v>17.72999954223633</v>
       </c>
       <c r="F70" t="n">
-        <v>31.54822907692313</v>
+        <v>17.91219133721205</v>
       </c>
       <c r="G70" t="n">
-        <v>30.85618384919381</v>
+        <v>19.5712486528612</v>
       </c>
       <c r="H70" t="n">
-        <v>29.67077966879502</v>
+        <v>27.92129232013117</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -4393,10 +4393,10 @@
         <v>0</v>
       </c>
       <c r="L70" s="2" t="n">
-        <v>43773</v>
+        <v>43955</v>
       </c>
       <c r="M70" t="n">
-        <v>0.2495955103029246</v>
+        <v>0.2399997711181641</v>
       </c>
       <c r="N70" t="n">
         <v>14</v>
@@ -4417,49 +4417,49 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>33.02999877929688</v>
+        <v>17.30999946594238</v>
       </c>
       <c r="C71" t="n">
-        <v>33.31999969482422</v>
+        <v>18.81999969482422</v>
       </c>
       <c r="D71" t="n">
-        <v>32.47999954223633</v>
+        <v>16.53000068664551</v>
       </c>
       <c r="E71" t="n">
-        <v>32.93000030517578</v>
+        <v>17.54999923706055</v>
       </c>
       <c r="F71" t="n">
-        <v>30.13851706339686</v>
+        <v>18.59993111907867</v>
       </c>
       <c r="G71" t="n">
-        <v>29.70348842200517</v>
+        <v>21.03655421629204</v>
       </c>
       <c r="H71" t="n">
-        <v>29.06304366016727</v>
+        <v>30.15346381111849</v>
       </c>
       <c r="I71" t="n">
-        <v>33.31999969482422</v>
+        <v>18.81999969482422</v>
       </c>
       <c r="J71" t="n">
-        <v>33.2795942895998</v>
+        <v>21.43035797461683</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
       </c>
       <c r="L71" s="2" t="n">
-        <v>43774</v>
+        <v>43956</v>
       </c>
       <c r="M71" t="n">
-        <v>0.2495955103029246</v>
+        <v>0.2399997711181641</v>
       </c>
       <c r="N71" t="n">
         <v>14</v>
       </c>
       <c r="O71" t="n">
-        <v>33.02999877929688</v>
+        <v>17.30999946594238</v>
       </c>
       <c r="P71" t="n">
-        <v>76</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72">
@@ -4467,25 +4467,25 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>28.70000076293945</v>
+        <v>33.0099983215332</v>
       </c>
       <c r="C72" t="n">
-        <v>29.63999938964844</v>
+        <v>36.2599983215332</v>
       </c>
       <c r="D72" t="n">
-        <v>28.70000076293945</v>
+        <v>31.07999992370605</v>
       </c>
       <c r="E72" t="n">
-        <v>29.29999923706055</v>
+        <v>31.80999946594238</v>
       </c>
       <c r="F72" t="n">
-        <v>28.96413923616053</v>
+        <v>31.30648142913865</v>
       </c>
       <c r="G72" t="n">
-        <v>28.67505739855709</v>
+        <v>30.55167316208014</v>
       </c>
       <c r="H72" t="n">
-        <v>27.56875446732661</v>
+        <v>28.43938274457564</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -4501,10 +4501,10 @@
         <v>0</v>
       </c>
       <c r="L72" s="2" t="n">
-        <v>43535</v>
+        <v>44361</v>
       </c>
       <c r="M72" t="n">
-        <v>0.6721731141319651</v>
+        <v>-2.619998931884766</v>
       </c>
       <c r="N72" t="n">
         <v>15</v>
@@ -4525,25 +4525,25 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>29.3799991607666</v>
+        <v>32.20999908447266</v>
       </c>
       <c r="C73" t="n">
-        <v>30.13999938964844</v>
+        <v>35.77999877929688</v>
       </c>
       <c r="D73" t="n">
-        <v>26.70999908447266</v>
+        <v>32.16999816894531</v>
       </c>
       <c r="E73" t="n">
-        <v>27.01000022888184</v>
+        <v>33.45000076293945</v>
       </c>
       <c r="F73" t="n">
-        <v>28.31275956706763</v>
+        <v>32.02098787373892</v>
       </c>
       <c r="G73" t="n">
-        <v>28.30504469418482</v>
+        <v>31.1957459622711</v>
       </c>
       <c r="H73" t="n">
-        <v>27.51795862746799</v>
+        <v>28.8948934735178</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -4559,10 +4559,10 @@
         <v>0</v>
       </c>
       <c r="L73" s="2" t="n">
-        <v>43542</v>
+        <v>44368</v>
       </c>
       <c r="M73" t="n">
-        <v>0.6721731141319651</v>
+        <v>-2.619998931884766</v>
       </c>
       <c r="N73" t="n">
         <v>15</v>
@@ -4583,25 +4583,25 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>26.90999984741211</v>
+        <v>33.27999877929688</v>
       </c>
       <c r="C74" t="n">
-        <v>27.68000030517578</v>
+        <v>34.18999862670898</v>
       </c>
       <c r="D74" t="n">
-        <v>26.61000061035156</v>
+        <v>31.78000068664551</v>
       </c>
       <c r="E74" t="n">
-        <v>27.59000015258789</v>
+        <v>33.18000030517578</v>
       </c>
       <c r="F74" t="n">
-        <v>28.07183976224105</v>
+        <v>32.40732535088454</v>
       </c>
       <c r="G74" t="n">
-        <v>28.14614590716328</v>
+        <v>31.63669137180547</v>
       </c>
       <c r="H74" t="n">
-        <v>27.52450785702435</v>
+        <v>29.28444864003216</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -4617,10 +4617,10 @@
         <v>0</v>
       </c>
       <c r="L74" s="2" t="n">
-        <v>43549</v>
+        <v>44375</v>
       </c>
       <c r="M74" t="n">
-        <v>0.6721731141319651</v>
+        <v>-2.619998931884766</v>
       </c>
       <c r="N74" t="n">
         <v>15</v>
@@ -4641,25 +4641,25 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>27.89999961853027</v>
+        <v>33.15000152587891</v>
       </c>
       <c r="C75" t="n">
-        <v>29.5</v>
+        <v>33.15000152587891</v>
       </c>
       <c r="D75" t="n">
-        <v>27.85000038146973</v>
+        <v>30.14999961853027</v>
       </c>
       <c r="E75" t="n">
-        <v>29.07999992370605</v>
+        <v>32.06000137329102</v>
       </c>
       <c r="F75" t="n">
-        <v>28.40789314939605</v>
+        <v>32.2915506916867</v>
       </c>
       <c r="G75" t="n">
-        <v>28.35366902195056</v>
+        <v>31.73076026102448</v>
       </c>
       <c r="H75" t="n">
-        <v>27.66591622672268</v>
+        <v>29.53677161578297</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -4675,10 +4675,10 @@
         <v>0</v>
       </c>
       <c r="L75" s="2" t="n">
-        <v>43556</v>
+        <v>44382</v>
       </c>
       <c r="M75" t="n">
-        <v>0.6721731141319651</v>
+        <v>-2.619998931884766</v>
       </c>
       <c r="N75" t="n">
         <v>15</v>
@@ -4699,49 +4699,49 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>28.88999938964844</v>
+        <v>31.3799991607666</v>
       </c>
       <c r="C76" t="n">
-        <v>30.21999931335449</v>
+        <v>32.13999938964844</v>
       </c>
       <c r="D76" t="n">
-        <v>28.73999977111816</v>
+        <v>28.53000068664551</v>
       </c>
       <c r="E76" t="n">
-        <v>30.17000007629395</v>
+        <v>28.76000022888184</v>
       </c>
       <c r="F76" t="n">
-        <v>28.31275956706763</v>
+        <v>32.02098787373892</v>
       </c>
       <c r="G76" t="n">
-        <v>28.30504469418482</v>
+        <v>31.1957459622711</v>
       </c>
       <c r="H76" t="n">
-        <v>27.51795862746799</v>
+        <v>28.8948934735178</v>
       </c>
       <c r="I76" t="n">
-        <v>30.21999931335449</v>
+        <v>32.13999938964844</v>
       </c>
       <c r="J76" t="n">
-        <v>29.5621725037804</v>
+        <v>34.91949671591895</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
       </c>
       <c r="L76" s="2" t="n">
-        <v>43557</v>
+        <v>44383</v>
       </c>
       <c r="M76" t="n">
-        <v>0.6721731141319651</v>
+        <v>-2.619998931884766</v>
       </c>
       <c r="N76" t="n">
         <v>15</v>
       </c>
       <c r="O76" t="n">
-        <v>28.88999938964844</v>
+        <v>31.3799991607666</v>
       </c>
       <c r="P76" t="n">
-        <v>233</v>
+        <v>-836</v>
       </c>
     </row>
     <row r="77">
@@ -4749,25 +4749,25 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>35.84000015258789</v>
+        <v>15.0600004196167</v>
       </c>
       <c r="C77" t="n">
-        <v>36.93999862670898</v>
+        <v>16.21999931335449</v>
       </c>
       <c r="D77" t="n">
-        <v>35.31000137329102</v>
+        <v>14.60999965667725</v>
       </c>
       <c r="E77" t="n">
-        <v>35.47999954223633</v>
+        <v>15.14999961853027</v>
       </c>
       <c r="F77" t="n">
-        <v>34.73449718964302</v>
+        <v>15.06490037112674</v>
       </c>
       <c r="G77" t="n">
-        <v>34.41325161564473</v>
+        <v>15.25315652691593</v>
       </c>
       <c r="H77" t="n">
-        <v>35.75256184173993</v>
+        <v>17.24739573902885</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="K77" t="n">
-        <v>0.1674</v>
+        <v>0</v>
       </c>
       <c r="L77" s="2" t="n">
-        <v>44788</v>
+        <v>44137</v>
       </c>
       <c r="M77" t="n">
-        <v>0.1590290153737897</v>
+        <v>0.6034592823563685</v>
       </c>
       <c r="N77" t="n">
         <v>16</v>
@@ -4807,25 +4807,25 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>34.75</v>
+        <v>16.89999961853027</v>
       </c>
       <c r="C78" t="n">
-        <v>35.47999954223633</v>
+        <v>17.95999908447266</v>
       </c>
       <c r="D78" t="n">
-        <v>34.02000045776367</v>
+        <v>16.42000007629395</v>
       </c>
       <c r="E78" t="n">
-        <v>34.02999877929688</v>
+        <v>17.27000045776367</v>
       </c>
       <c r="F78" t="n">
-        <v>34.49966438619431</v>
+        <v>15.79993373333905</v>
       </c>
       <c r="G78" t="n">
-        <v>34.32808431867853</v>
+        <v>15.70134406710432</v>
       </c>
       <c r="H78" t="n">
-        <v>35.59596519969965</v>
+        <v>17.24945071345929</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -4838,13 +4838,13 @@
         </is>
       </c>
       <c r="K78" t="n">
-        <v>0.1889</v>
+        <v>0</v>
       </c>
       <c r="L78" s="2" t="n">
-        <v>44795</v>
+        <v>44144</v>
       </c>
       <c r="M78" t="n">
-        <v>0.1590290153737897</v>
+        <v>0.6034592823563685</v>
       </c>
       <c r="N78" t="n">
         <v>16</v>
@@ -4865,25 +4865,25 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>33.86000061035156</v>
+        <v>17.97999954223633</v>
       </c>
       <c r="C79" t="n">
-        <v>34.47999954223633</v>
+        <v>21</v>
       </c>
       <c r="D79" t="n">
-        <v>32.65999984741211</v>
+        <v>17.77000045776367</v>
       </c>
       <c r="E79" t="n">
-        <v>33.43000030517578</v>
+        <v>20.15999984741211</v>
       </c>
       <c r="F79" t="n">
-        <v>34.14310969252147</v>
+        <v>17.25328910469674</v>
       </c>
       <c r="G79" t="n">
-        <v>34.1285100934557</v>
+        <v>16.69215646272827</v>
       </c>
       <c r="H79" t="n">
-        <v>35.39905930019748</v>
+        <v>17.51404608927318</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -4896,13 +4896,13 @@
         </is>
       </c>
       <c r="K79" t="n">
-        <v>0.1983</v>
+        <v>0</v>
       </c>
       <c r="L79" s="2" t="n">
-        <v>44802</v>
+        <v>44151</v>
       </c>
       <c r="M79" t="n">
-        <v>0.1590290153737897</v>
+        <v>0.6034592823563685</v>
       </c>
       <c r="N79" t="n">
         <v>16</v>
@@ -4923,25 +4923,25 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>33.63999938964844</v>
+        <v>20.65999984741211</v>
       </c>
       <c r="C80" t="n">
-        <v>35.25</v>
+        <v>24.8700008392334</v>
       </c>
       <c r="D80" t="n">
-        <v>32.61000061035156</v>
+        <v>20.65999984741211</v>
       </c>
       <c r="E80" t="n">
-        <v>34.93999862670898</v>
+        <v>23.75</v>
       </c>
       <c r="F80" t="n">
-        <v>34.40873933725064</v>
+        <v>19.41885940313116</v>
       </c>
       <c r="G80" t="n">
-        <v>34.3088408786231</v>
+        <v>18.26056613767754</v>
       </c>
       <c r="H80" t="n">
-        <v>35.35732651169852</v>
+        <v>18.08095099024834</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -4954,13 +4954,13 @@
         </is>
       </c>
       <c r="K80" t="n">
-        <v>0.1778</v>
+        <v>0</v>
       </c>
       <c r="L80" s="2" t="n">
-        <v>44809</v>
+        <v>44158</v>
       </c>
       <c r="M80" t="n">
-        <v>0.1590290153737897</v>
+        <v>0.6034592823563685</v>
       </c>
       <c r="N80" t="n">
         <v>16</v>
@@ -4981,49 +4981,49 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>35.20000076293945</v>
+        <v>23.38999938964844</v>
       </c>
       <c r="C81" t="n">
-        <v>35.63000106811523</v>
+        <v>25.10000038146973</v>
       </c>
       <c r="D81" t="n">
-        <v>33.54000091552734</v>
+        <v>22.63999938964844</v>
       </c>
       <c r="E81" t="n">
-        <v>34.11999893188477</v>
+        <v>24.92000007629395</v>
       </c>
       <c r="F81" t="n">
-        <v>34.49966438619431</v>
+        <v>15.79993373333905</v>
       </c>
       <c r="G81" t="n">
-        <v>34.32808431867853</v>
+        <v>15.70134406710432</v>
       </c>
       <c r="H81" t="n">
-        <v>35.59596519969965</v>
+        <v>17.24945071345929</v>
       </c>
       <c r="I81" t="n">
-        <v>35.63000106811523</v>
+        <v>25.10000038146973</v>
       </c>
       <c r="J81" t="n">
-        <v>35.35902977831324</v>
+        <v>23.99345867200481</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
       </c>
       <c r="L81" s="2" t="n">
-        <v>44810</v>
+        <v>44159</v>
       </c>
       <c r="M81" t="n">
-        <v>0.1590290153737897</v>
+        <v>0.6034592823563685</v>
       </c>
       <c r="N81" t="n">
         <v>16</v>
       </c>
       <c r="O81" t="n">
-        <v>35.20000076293945</v>
+        <v>23.38999938964844</v>
       </c>
       <c r="P81" t="n">
-        <v>45</v>
+        <v>258</v>
       </c>
     </row>
     <row r="82">
@@ -5031,25 +5031,25 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>27.63999938964844</v>
+        <v>35.88000106811523</v>
       </c>
       <c r="C82" t="n">
-        <v>27.70000076293945</v>
+        <v>38.81999969482422</v>
       </c>
       <c r="D82" t="n">
-        <v>26.26000022888184</v>
+        <v>35.09000015258789</v>
       </c>
       <c r="E82" t="n">
-        <v>26.46999931335449</v>
+        <v>36.97000122070312</v>
       </c>
       <c r="F82" t="n">
-        <v>27.78439932787298</v>
+        <v>39.66322833692239</v>
       </c>
       <c r="G82" t="n">
-        <v>28.16740952742284</v>
+        <v>40.8038133713961</v>
       </c>
       <c r="H82" t="n">
-        <v>28.43728427390084</v>
+        <v>41.89543672770944</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -5062,13 +5062,13 @@
         </is>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>0.156</v>
       </c>
       <c r="L82" s="2" t="n">
-        <v>43696</v>
+        <v>44830</v>
       </c>
       <c r="M82" t="n">
-        <v>0.2223694687772877</v>
+        <v>4.786176106326366</v>
       </c>
       <c r="N82" t="n">
         <v>17</v>
@@ -5089,25 +5089,25 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>26.70000076293945</v>
+        <v>38.63999938964844</v>
       </c>
       <c r="C83" t="n">
-        <v>27.69000053405762</v>
+        <v>44.06000137329102</v>
       </c>
       <c r="D83" t="n">
-        <v>26.20999908447266</v>
+        <v>38.22999954223633</v>
       </c>
       <c r="E83" t="n">
-        <v>27.51000022888184</v>
+        <v>43.29999923706055</v>
       </c>
       <c r="F83" t="n">
-        <v>27.6929329615426</v>
+        <v>40.87548530363511</v>
       </c>
       <c r="G83" t="n">
-        <v>28.0213185721915</v>
+        <v>41.35852134154375</v>
       </c>
       <c r="H83" t="n">
-        <v>28.35298572435366</v>
+        <v>42.02312422855955</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -5120,13 +5120,13 @@
         </is>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>0.2023</v>
       </c>
       <c r="L83" s="2" t="n">
-        <v>43703</v>
+        <v>44837</v>
       </c>
       <c r="M83" t="n">
-        <v>0.2223694687772877</v>
+        <v>4.786176106326366</v>
       </c>
       <c r="N83" t="n">
         <v>17</v>
@@ -5147,25 +5147,25 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>27.20999908447266</v>
+        <v>43</v>
       </c>
       <c r="C84" t="n">
-        <v>28.43000030517578</v>
+        <v>43.86000061035156</v>
       </c>
       <c r="D84" t="n">
-        <v>26.61000061035156</v>
+        <v>39.84000015258789</v>
       </c>
       <c r="E84" t="n">
-        <v>27.72999954223633</v>
+        <v>40.43999862670898</v>
       </c>
       <c r="F84" t="n">
-        <v>27.70528848844051</v>
+        <v>40.73032307799307</v>
       </c>
       <c r="G84" t="n">
-        <v>27.95658100997925</v>
+        <v>41.15440518269158</v>
       </c>
       <c r="H84" t="n">
-        <v>28.29635061688845</v>
+        <v>41.87920371930041</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -5178,13 +5178,13 @@
         </is>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>-0.064</v>
       </c>
       <c r="L84" s="2" t="n">
-        <v>43710</v>
+        <v>44844</v>
       </c>
       <c r="M84" t="n">
-        <v>0.2223694687772877</v>
+        <v>4.786176106326366</v>
       </c>
       <c r="N84" t="n">
         <v>17</v>
@@ -5205,25 +5205,25 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>28</v>
+        <v>41.65000152587891</v>
       </c>
       <c r="C85" t="n">
-        <v>30.31999969482422</v>
+        <v>45.63999938964844</v>
       </c>
       <c r="D85" t="n">
-        <v>27.96999931335449</v>
+        <v>41.18000030517578</v>
       </c>
       <c r="E85" t="n">
-        <v>30.17000007629395</v>
+        <v>44.90999984741211</v>
       </c>
       <c r="F85" t="n">
-        <v>28.52685901772499</v>
+        <v>42.12354866779942</v>
       </c>
       <c r="G85" t="n">
-        <v>28.44845191360474</v>
+        <v>41.98898177485169</v>
       </c>
       <c r="H85" t="n">
-        <v>28.46668238592531</v>
+        <v>42.15473064003783</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -5239,10 +5239,10 @@
         <v>0</v>
       </c>
       <c r="L85" s="2" t="n">
-        <v>43717</v>
+        <v>44851</v>
       </c>
       <c r="M85" t="n">
-        <v>0.2223694687772877</v>
+        <v>4.786176106326366</v>
       </c>
       <c r="N85" t="n">
         <v>17</v>
@@ -5263,49 +5263,49 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>29.68000030517578</v>
+        <v>44.63999938964844</v>
       </c>
       <c r="C86" t="n">
-        <v>30.17000007629395</v>
+        <v>52.31999969482422</v>
       </c>
       <c r="D86" t="n">
-        <v>29.54999923706055</v>
+        <v>43.68000030517578</v>
       </c>
       <c r="E86" t="n">
-        <v>29.59000015258789</v>
+        <v>49.27999877929688</v>
       </c>
       <c r="F86" t="n">
-        <v>27.6929329615426</v>
+        <v>40.87548530363511</v>
       </c>
       <c r="G86" t="n">
-        <v>28.0213185721915</v>
+        <v>41.35852134154375</v>
       </c>
       <c r="H86" t="n">
-        <v>28.35298572435366</v>
+        <v>42.02312422855955</v>
       </c>
       <c r="I86" t="n">
-        <v>30.17000007629395</v>
+        <v>52.31999969482422</v>
       </c>
       <c r="J86" t="n">
-        <v>29.90236977395307</v>
+        <v>49.4261754959748</v>
       </c>
       <c r="K86" t="n">
         <v>0</v>
       </c>
       <c r="L86" s="2" t="n">
-        <v>43718</v>
+        <v>44852</v>
       </c>
       <c r="M86" t="n">
-        <v>0.2223694687772877</v>
+        <v>4.786176106326366</v>
       </c>
       <c r="N86" t="n">
         <v>17</v>
       </c>
       <c r="O86" t="n">
-        <v>29.68000030517578</v>
+        <v>44.63999938964844</v>
       </c>
       <c r="P86" t="n">
-        <v>75</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="87">
@@ -5313,25 +5313,25 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>22.22999954223633</v>
+        <v>29.04000091552734</v>
       </c>
       <c r="C87" t="n">
-        <v>24.25</v>
+        <v>30.94000053405762</v>
       </c>
       <c r="D87" t="n">
-        <v>20.14999961853027</v>
+        <v>27.73999977111816</v>
       </c>
       <c r="E87" t="n">
-        <v>24.15999984741211</v>
+        <v>28.89999961853027</v>
       </c>
       <c r="F87" t="n">
-        <v>28.16399295404354</v>
+        <v>28.46468739237067</v>
       </c>
       <c r="G87" t="n">
-        <v>29.75250759612868</v>
+        <v>28.21888689452732</v>
       </c>
       <c r="H87" t="n">
-        <v>31.37318816198489</v>
+        <v>26.90470921817433</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -5347,10 +5347,10 @@
         <v>0</v>
       </c>
       <c r="L87" s="2" t="n">
-        <v>43899</v>
+        <v>44333</v>
       </c>
       <c r="M87" t="n">
-        <v>3.829999923706055</v>
+        <v>2.859676958492557</v>
       </c>
       <c r="N87" t="n">
         <v>18</v>
@@ -5371,25 +5371,25 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>19.85000038146973</v>
+        <v>29.09000015258789</v>
       </c>
       <c r="C88" t="n">
-        <v>22.69000053405762</v>
+        <v>29.20000076293945</v>
       </c>
       <c r="D88" t="n">
-        <v>19</v>
+        <v>27.21999931335449</v>
       </c>
       <c r="E88" t="n">
-        <v>19.67000007629395</v>
+        <v>28.25</v>
       </c>
       <c r="F88" t="n">
-        <v>25.33266199479367</v>
+        <v>28.39312492824711</v>
       </c>
       <c r="G88" t="n">
-        <v>27.51195036949873</v>
+        <v>28.22580091796569</v>
       </c>
       <c r="H88" t="n">
-        <v>30.30926197237662</v>
+        <v>27.02700838015848</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -5405,10 +5405,10 @@
         <v>0</v>
       </c>
       <c r="L88" s="2" t="n">
-        <v>43906</v>
+        <v>44340</v>
       </c>
       <c r="M88" t="n">
-        <v>3.829999923706055</v>
+        <v>2.859676958492557</v>
       </c>
       <c r="N88" t="n">
         <v>18</v>
@@ -5429,25 +5429,25 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>19.26000022888184</v>
+        <v>29.04999923706055</v>
       </c>
       <c r="C89" t="n">
-        <v>22.95000076293945</v>
+        <v>33.65000152587891</v>
       </c>
       <c r="D89" t="n">
-        <v>17.95000076293945</v>
+        <v>28.96999931335449</v>
       </c>
       <c r="E89" t="n">
-        <v>21.60000038146973</v>
+        <v>33.4900016784668</v>
       </c>
       <c r="F89" t="n">
-        <v>24.08844145701903</v>
+        <v>30.09208384498701</v>
       </c>
       <c r="G89" t="n">
-        <v>26.19818370549229</v>
+        <v>29.39562330918816</v>
       </c>
       <c r="H89" t="n">
-        <v>29.51751091865781</v>
+        <v>27.61455322545923</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -5463,10 +5463,10 @@
         <v>0</v>
       </c>
       <c r="L89" s="2" t="n">
-        <v>43913</v>
+        <v>44347</v>
       </c>
       <c r="M89" t="n">
-        <v>3.829999923706055</v>
+        <v>2.859676958492557</v>
       </c>
       <c r="N89" t="n">
         <v>18</v>
@@ -5487,25 +5487,25 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>21.64999961853027</v>
+        <v>33.59000015258789</v>
       </c>
       <c r="C90" t="n">
-        <v>22.48999977111816</v>
+        <v>33.77999877929688</v>
       </c>
       <c r="D90" t="n">
-        <v>19.51000022888184</v>
+        <v>32.02999877929688</v>
       </c>
       <c r="E90" t="n">
-        <v>20.03000068664551</v>
+        <v>32.97999954223633</v>
       </c>
       <c r="F90" t="n">
-        <v>22.73562786689453</v>
+        <v>31.05472241073678</v>
       </c>
       <c r="G90" t="n">
-        <v>24.82747636797078</v>
+        <v>30.19215136097664</v>
       </c>
       <c r="H90" t="n">
-        <v>28.65500998847488</v>
+        <v>28.10232107243896</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -5521,10 +5521,10 @@
         <v>0</v>
       </c>
       <c r="L90" s="2" t="n">
-        <v>43920</v>
+        <v>44354</v>
       </c>
       <c r="M90" t="n">
-        <v>3.829999923706055</v>
+        <v>2.859676958492557</v>
       </c>
       <c r="N90" t="n">
         <v>18</v>
@@ -5545,49 +5545,49 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>21.03000068664551</v>
+        <v>33.0099983215332</v>
       </c>
       <c r="C91" t="n">
-        <v>25.31999969482422</v>
+        <v>36.2599983215332</v>
       </c>
       <c r="D91" t="n">
-        <v>20.80999946594238</v>
+        <v>31.07999992370605</v>
       </c>
       <c r="E91" t="n">
-        <v>24.86000061035156</v>
+        <v>31.80999946594238</v>
       </c>
       <c r="F91" t="n">
-        <v>25.33266199479367</v>
+        <v>28.39312492824711</v>
       </c>
       <c r="G91" t="n">
-        <v>27.51195036949873</v>
+        <v>28.22580091796569</v>
       </c>
       <c r="H91" t="n">
-        <v>30.30926197237662</v>
+        <v>27.02700838015848</v>
       </c>
       <c r="I91" t="n">
-        <v>25.31999969482422</v>
+        <v>36.2599983215332</v>
       </c>
       <c r="J91" t="n">
-        <v>27.65539876373477</v>
+        <v>35.86967528002576</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
       </c>
       <c r="L91" s="2" t="n">
-        <v>43921</v>
+        <v>44355</v>
       </c>
       <c r="M91" t="n">
-        <v>3.829999923706055</v>
+        <v>2.859676958492557</v>
       </c>
       <c r="N91" t="n">
         <v>18</v>
       </c>
       <c r="O91" t="n">
-        <v>21.03000068664551</v>
+        <v>33.0099983215332</v>
       </c>
       <c r="P91" t="n">
-        <v>1823</v>
+        <v>866</v>
       </c>
     </row>
     <row r="92">
@@ -5595,25 +5595,25 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>30.10000038146973</v>
+        <v>22.04000091552734</v>
       </c>
       <c r="C92" t="n">
-        <v>30.15999984741211</v>
+        <v>25.04999923706055</v>
       </c>
       <c r="D92" t="n">
-        <v>29</v>
+        <v>21.45999908447266</v>
       </c>
       <c r="E92" t="n">
-        <v>30.03000068664551</v>
+        <v>24.8700008392334</v>
       </c>
       <c r="F92" t="n">
-        <v>29.34017497890096</v>
+        <v>25.41344541298078</v>
       </c>
       <c r="G92" t="n">
-        <v>29.04012093213965</v>
+        <v>26.59000834011107</v>
       </c>
       <c r="H92" t="n">
-        <v>28.08778207428354</v>
+        <v>28.03713338642952</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -5629,10 +5629,10 @@
         <v>0</v>
       </c>
       <c r="L92" s="2" t="n">
-        <v>43570</v>
+        <v>44536</v>
       </c>
       <c r="M92" t="n">
-        <v>-0.5599994659423828</v>
+        <v>1.291531634963576</v>
       </c>
       <c r="N92" t="n">
         <v>19</v>
@@ -5653,25 +5653,25 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>29.93000030517578</v>
+        <v>24.47999954223633</v>
       </c>
       <c r="C93" t="n">
-        <v>30.38999938964844</v>
+        <v>24.88999938964844</v>
       </c>
       <c r="D93" t="n">
-        <v>29.78000068664551</v>
+        <v>22.51000022888184</v>
       </c>
       <c r="E93" t="n">
-        <v>30.35000038146973</v>
+        <v>23.42000007629395</v>
       </c>
       <c r="F93" t="n">
-        <v>29.67678344642389</v>
+        <v>24.74896363408517</v>
       </c>
       <c r="G93" t="n">
-        <v>29.331205254213</v>
+        <v>25.88556205926282</v>
       </c>
       <c r="H93" t="n">
-        <v>28.29343828402774</v>
+        <v>27.61739399459901</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -5687,10 +5687,10 @@
         <v>0</v>
       </c>
       <c r="L93" s="2" t="n">
-        <v>43577</v>
+        <v>44543</v>
       </c>
       <c r="M93" t="n">
-        <v>-0.5599994659423828</v>
+        <v>1.291531634963576</v>
       </c>
       <c r="N93" t="n">
         <v>19</v>
@@ -5711,25 +5711,25 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>30.43000030517578</v>
+        <v>22.68000030517578</v>
       </c>
       <c r="C94" t="n">
-        <v>31.17000007629395</v>
+        <v>25.42000007629395</v>
       </c>
       <c r="D94" t="n">
-        <v>30.14999961853027</v>
+        <v>22.14999961853027</v>
       </c>
       <c r="E94" t="n">
-        <v>30.70999908447266</v>
+        <v>24.75</v>
       </c>
       <c r="F94" t="n">
-        <v>30.02118865910681</v>
+        <v>24.74930908939012</v>
       </c>
       <c r="G94" t="n">
-        <v>29.63760388315959</v>
+        <v>25.6332149349822</v>
       </c>
       <c r="H94" t="n">
-        <v>28.51312562952273</v>
+        <v>27.35672181327183</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -5745,10 +5745,10 @@
         <v>0</v>
       </c>
       <c r="L94" s="2" t="n">
-        <v>43584</v>
+        <v>44550</v>
       </c>
       <c r="M94" t="n">
-        <v>-0.5599994659423828</v>
+        <v>1.291531634963576</v>
       </c>
       <c r="N94" t="n">
         <v>19</v>
@@ -5769,25 +5769,25 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>30.11000061035156</v>
+        <v>24.75</v>
       </c>
       <c r="C95" t="n">
-        <v>30.61000061035156</v>
+        <v>25.5</v>
       </c>
       <c r="D95" t="n">
-        <v>29.19000053405762</v>
+        <v>23.56999969482422</v>
       </c>
       <c r="E95" t="n">
-        <v>29.57999992370605</v>
+        <v>23.70000076293945</v>
       </c>
       <c r="F95" t="n">
-        <v>29.87412574730656</v>
+        <v>24.3995396472399</v>
       </c>
       <c r="G95" t="n">
-        <v>29.62480300328103</v>
+        <v>25.20361178563936</v>
       </c>
       <c r="H95" t="n">
-        <v>28.61011420172121</v>
+        <v>27.02429262687798</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -5803,10 +5803,10 @@
         <v>0</v>
       </c>
       <c r="L95" s="2" t="n">
-        <v>43591</v>
+        <v>44557</v>
       </c>
       <c r="M95" t="n">
-        <v>-0.5599994659423828</v>
+        <v>1.291531634963576</v>
       </c>
       <c r="N95" t="n">
         <v>19</v>
@@ -5827,49 +5827,49 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>28.95999908447266</v>
+        <v>23.95000076293945</v>
       </c>
       <c r="C96" t="n">
-        <v>29</v>
+        <v>28.5</v>
       </c>
       <c r="D96" t="n">
-        <v>28.01000022888184</v>
+        <v>23.82999992370605</v>
       </c>
       <c r="E96" t="n">
-        <v>28.39999961853027</v>
+        <v>27.78000068664551</v>
       </c>
       <c r="F96" t="n">
-        <v>29.67678344642389</v>
+        <v>24.74896363408517</v>
       </c>
       <c r="G96" t="n">
-        <v>29.331205254213</v>
+        <v>25.88556205926282</v>
       </c>
       <c r="H96" t="n">
-        <v>28.29343828402774</v>
+        <v>27.61739399459901</v>
       </c>
       <c r="I96" t="n">
-        <v>29</v>
+        <v>28.5</v>
       </c>
       <c r="J96" t="n">
-        <v>30.66671202228827</v>
+        <v>25.24153239790303</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
       </c>
       <c r="L96" s="2" t="n">
-        <v>43592</v>
+        <v>44558</v>
       </c>
       <c r="M96" t="n">
-        <v>-0.5599994659423828</v>
+        <v>1.291531634963576</v>
       </c>
       <c r="N96" t="n">
         <v>19</v>
       </c>
       <c r="O96" t="n">
-        <v>28.95999908447266</v>
+        <v>23.95000076293945</v>
       </c>
       <c r="P96" t="n">
-        <v>-193</v>
+        <v>540</v>
       </c>
     </row>
     <row r="97">
@@ -5877,25 +5877,25 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>23.76000022888184</v>
+        <v>46.20000076293945</v>
       </c>
       <c r="C97" t="n">
-        <v>26.23999977111816</v>
+        <v>47.33000183105469</v>
       </c>
       <c r="D97" t="n">
-        <v>23.69000053405762</v>
+        <v>44.72999954223633</v>
       </c>
       <c r="E97" t="n">
-        <v>25.25</v>
+        <v>46.52000045776367</v>
       </c>
       <c r="F97" t="n">
-        <v>24.94004525345243</v>
+        <v>46.07333246866862</v>
       </c>
       <c r="G97" t="n">
-        <v>24.64719426922943</v>
+        <v>45.99888780381944</v>
       </c>
       <c r="H97" t="n">
-        <v>25.75914287388494</v>
+        <v>45.91090774536133</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
@@ -5911,10 +5911,10 @@
         <v>0</v>
       </c>
       <c r="L97" s="2" t="n">
-        <v>43997</v>
+        <v>43836</v>
       </c>
       <c r="M97" t="n">
-        <v>0.4196930640400751</v>
+        <v>0.8776758484405036</v>
       </c>
       <c r="N97" t="n">
         <v>20</v>
@@ -5935,25 +5935,25 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>24.88999938964844</v>
+        <v>46.2599983215332</v>
       </c>
       <c r="C98" t="n">
-        <v>25.40999984741211</v>
+        <v>46.77999877929688</v>
       </c>
       <c r="D98" t="n">
-        <v>23.02000045776367</v>
+        <v>45.08000183105469</v>
       </c>
       <c r="E98" t="n">
-        <v>23.14999961853027</v>
+        <v>45.13000106811523</v>
       </c>
       <c r="F98" t="n">
-        <v>24.34336337514505</v>
+        <v>45.75888866848416</v>
       </c>
       <c r="G98" t="n">
-        <v>24.31448434685184</v>
+        <v>45.80580186255185</v>
       </c>
       <c r="H98" t="n">
-        <v>25.52194803248906</v>
+        <v>45.83991622924805</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -5969,10 +5969,10 @@
         <v>0</v>
       </c>
       <c r="L98" s="2" t="n">
-        <v>44004</v>
+        <v>43843</v>
       </c>
       <c r="M98" t="n">
-        <v>0.4196930640400751</v>
+        <v>0.8776758484405036</v>
       </c>
       <c r="N98" t="n">
         <v>20</v>
@@ -5993,25 +5993,25 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>23.40999984741211</v>
+        <v>44.72000122070312</v>
       </c>
       <c r="C99" t="n">
-        <v>24.06999969482422</v>
+        <v>45.02000045776367</v>
       </c>
       <c r="D99" t="n">
-        <v>23.10000038146973</v>
+        <v>41.59999847412109</v>
       </c>
       <c r="E99" t="n">
-        <v>23.29000091552734</v>
+        <v>42.22999954223633</v>
       </c>
       <c r="F99" t="n">
-        <v>23.99224255527248</v>
+        <v>44.58259229306822</v>
       </c>
       <c r="G99" t="n">
-        <v>24.08682136211306</v>
+        <v>45.01117912470396</v>
       </c>
       <c r="H99" t="n">
-        <v>25.31904374912891</v>
+        <v>45.51174198497426</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -6027,10 +6027,10 @@
         <v>0</v>
       </c>
       <c r="L99" s="2" t="n">
-        <v>44011</v>
+        <v>43850</v>
       </c>
       <c r="M99" t="n">
-        <v>0.4196930640400751</v>
+        <v>0.8776758484405036</v>
       </c>
       <c r="N99" t="n">
         <v>20</v>
@@ -6051,25 +6051,25 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>23.81999969482422</v>
+        <v>41.22999954223633</v>
       </c>
       <c r="C100" t="n">
-        <v>24.07999992370605</v>
+        <v>41.45000076293945</v>
       </c>
       <c r="D100" t="n">
-        <v>22.38999938964844</v>
+        <v>39</v>
       </c>
       <c r="E100" t="n">
-        <v>24.02000045776367</v>
+        <v>40.54999923706055</v>
       </c>
       <c r="F100" t="n">
-        <v>24.00149518943621</v>
+        <v>43.23839460773233</v>
       </c>
       <c r="G100" t="n">
-        <v>24.07197227225764</v>
+        <v>44.01980581633875</v>
       </c>
       <c r="H100" t="n">
-        <v>25.20094890445934</v>
+        <v>45.06067446243665</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -6085,10 +6085,10 @@
         <v>0</v>
       </c>
       <c r="L100" s="2" t="n">
-        <v>44018</v>
+        <v>43857</v>
       </c>
       <c r="M100" t="n">
-        <v>0.4196930640400751</v>
+        <v>0.8776758484405036</v>
       </c>
       <c r="N100" t="n">
         <v>20</v>
@@ -6109,49 +6109,49 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>24.3700008392334</v>
+        <v>40.36000061035156</v>
       </c>
       <c r="C101" t="n">
-        <v>24.8700008392334</v>
+        <v>44.40000152587891</v>
       </c>
       <c r="D101" t="n">
-        <v>23.20000076293945</v>
+        <v>40.04999923706055</v>
       </c>
       <c r="E101" t="n">
-        <v>23.21999931335449</v>
+        <v>42.65000152587891</v>
       </c>
       <c r="F101" t="n">
-        <v>24.34336337514505</v>
+        <v>45.75888866848416</v>
       </c>
       <c r="G101" t="n">
-        <v>24.31448434685184</v>
+        <v>45.80580186255185</v>
       </c>
       <c r="H101" t="n">
-        <v>25.52194803248906</v>
+        <v>45.83991622924805</v>
       </c>
       <c r="I101" t="n">
-        <v>24.8700008392334</v>
+        <v>44.40000152587891</v>
       </c>
       <c r="J101" t="n">
-        <v>24.78969390327347</v>
+        <v>41.23767645879207</v>
       </c>
       <c r="K101" t="n">
         <v>0</v>
       </c>
       <c r="L101" s="2" t="n">
-        <v>44019</v>
+        <v>43858</v>
       </c>
       <c r="M101" t="n">
-        <v>0.4196930640400751</v>
+        <v>0.8776758484405036</v>
       </c>
       <c r="N101" t="n">
         <v>20</v>
       </c>
       <c r="O101" t="n">
-        <v>24.3700008392334</v>
+        <v>40.36000061035156</v>
       </c>
       <c r="P101" t="n">
-        <v>172</v>
+        <v>218</v>
       </c>
     </row>
     <row r="102">
@@ -6159,25 +6159,25 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>42.68000030517578</v>
+        <v>20.65999984741211</v>
       </c>
       <c r="C102" t="n">
-        <v>44.04000091552734</v>
+        <v>24.8700008392334</v>
       </c>
       <c r="D102" t="n">
-        <v>42.22999954223633</v>
+        <v>20.65999984741211</v>
       </c>
       <c r="E102" t="n">
-        <v>43.08000183105469</v>
+        <v>23.75</v>
       </c>
       <c r="F102" t="n">
-        <v>41.79670423207946</v>
+        <v>19.41885940313116</v>
       </c>
       <c r="G102" t="n">
-        <v>41.41246992573231</v>
+        <v>18.26056613767754</v>
       </c>
       <c r="H102" t="n">
-        <v>40.31001536202195</v>
+        <v>18.08095099024834</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
@@ -6193,10 +6193,10 @@
         <v>0</v>
       </c>
       <c r="L102" s="2" t="n">
-        <v>44466</v>
+        <v>44158</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06448723751792329</v>
+        <v>1.00957829966848</v>
       </c>
       <c r="N102" t="n">
         <v>21</v>
@@ -6217,25 +6217,25 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>43.11000061035156</v>
+        <v>23.38999938964844</v>
       </c>
       <c r="C103" t="n">
-        <v>44.86999893188477</v>
+        <v>25.10000038146973</v>
       </c>
       <c r="D103" t="n">
-        <v>43.06999969482422</v>
+        <v>22.63999938964844</v>
       </c>
       <c r="E103" t="n">
-        <v>44.34000015258789</v>
+        <v>24.92000007629395</v>
       </c>
       <c r="F103" t="n">
-        <v>42.6444695389156</v>
+        <v>21.25257296085208</v>
       </c>
       <c r="G103" t="n">
-        <v>42.06303219836688</v>
+        <v>19.74044034625897</v>
       </c>
       <c r="H103" t="n">
-        <v>40.67637761570976</v>
+        <v>18.7026827253434</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
@@ -6251,10 +6251,10 @@
         <v>0</v>
       </c>
       <c r="L103" s="2" t="n">
-        <v>44473</v>
+        <v>44165</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06448723751792329</v>
+        <v>1.00957829966848</v>
       </c>
       <c r="N103" t="n">
         <v>21</v>
@@ -6275,25 +6275,25 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>44.59999847412109</v>
+        <v>24.03000068664551</v>
       </c>
       <c r="C104" t="n">
-        <v>46.66999816894531</v>
+        <v>26.25</v>
       </c>
       <c r="D104" t="n">
-        <v>42.33000183105469</v>
+        <v>24.01000022888184</v>
       </c>
       <c r="E104" t="n">
-        <v>46.36999893188477</v>
+        <v>25.30999946594238</v>
       </c>
       <c r="F104" t="n">
-        <v>43.88631266990532</v>
+        <v>22.60504846254885</v>
       </c>
       <c r="G104" t="n">
-        <v>43.02013591692641</v>
+        <v>20.97812015063306</v>
       </c>
       <c r="H104" t="n">
-        <v>41.19397955354385</v>
+        <v>19.30334788357967</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -6309,10 +6309,10 @@
         <v>0</v>
       </c>
       <c r="L104" s="2" t="n">
-        <v>44480</v>
+        <v>44172</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06448723751792329</v>
+        <v>1.00957829966848</v>
       </c>
       <c r="N104" t="n">
         <v>21</v>
@@ -6333,25 +6333,25 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>46.29000091552734</v>
+        <v>25.5</v>
       </c>
       <c r="C105" t="n">
-        <v>47.61999893188477</v>
+        <v>25.8700008392334</v>
       </c>
       <c r="D105" t="n">
-        <v>46.02999877929688</v>
+        <v>23.86000061035156</v>
       </c>
       <c r="E105" t="n">
-        <v>47.56999969482422</v>
+        <v>24.93000030517578</v>
       </c>
       <c r="F105" t="n">
-        <v>45.11420834487829</v>
+        <v>23.38003241009116</v>
       </c>
       <c r="G105" t="n">
-        <v>44.03121675645926</v>
+        <v>21.85631574053144</v>
       </c>
       <c r="H105" t="n">
-        <v>41.77361774820571</v>
+        <v>19.81486174008841</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -6367,10 +6367,10 @@
         <v>0</v>
       </c>
       <c r="L105" s="2" t="n">
-        <v>44487</v>
+        <v>44179</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06448723751792329</v>
+        <v>1.00957829966848</v>
       </c>
       <c r="N105" t="n">
         <v>21</v>
@@ -6391,1741 +6391,49 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>47.79999923706055</v>
+        <v>23.94000053405762</v>
       </c>
       <c r="C106" t="n">
-        <v>48.43000030517578</v>
+        <v>24.95999908447266</v>
       </c>
       <c r="D106" t="n">
-        <v>47.02999877929688</v>
+        <v>23.23999977111816</v>
       </c>
       <c r="E106" t="n">
-        <v>47.77999877929688</v>
+        <v>24.20000076293945</v>
       </c>
       <c r="F106" t="n">
-        <v>42.6444695389156</v>
+        <v>21.25257296085208</v>
       </c>
       <c r="G106" t="n">
-        <v>42.06303219836688</v>
+        <v>19.74044034625897</v>
       </c>
       <c r="H106" t="n">
-        <v>40.67637761570976</v>
+        <v>18.7026827253434</v>
       </c>
       <c r="I106" t="n">
-        <v>48.43000030517578</v>
+        <v>24.95999908447266</v>
       </c>
       <c r="J106" t="n">
-        <v>47.86448647457847</v>
+        <v>24.9495788337261</v>
       </c>
       <c r="K106" t="n">
         <v>0</v>
       </c>
       <c r="L106" s="2" t="n">
-        <v>44488</v>
+        <v>44180</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06448723751792329</v>
+        <v>1.00957829966848</v>
       </c>
       <c r="N106" t="n">
         <v>21</v>
       </c>
       <c r="O106" t="n">
-        <v>47.79999923706055</v>
+        <v>23.94000053405762</v>
       </c>
       <c r="P106" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>36.02999877929688</v>
-      </c>
-      <c r="C107" t="n">
-        <v>38.75</v>
-      </c>
-      <c r="D107" t="n">
-        <v>35.40000152587891</v>
-      </c>
-      <c r="E107" t="n">
-        <v>37.45000076293945</v>
-      </c>
-      <c r="F107" t="n">
-        <v>37.89171646306526</v>
-      </c>
-      <c r="G107" t="n">
-        <v>38.96578718616576</v>
-      </c>
-      <c r="H107" t="n">
-        <v>41.53869241494439</v>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K107" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="L107" s="2" t="n">
-        <v>44683</v>
-      </c>
-      <c r="M107" t="n">
-        <v>-0.6300010681152344</v>
-      </c>
-      <c r="N107" t="n">
-        <v>22</v>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P107" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>36.86999893188477</v>
-      </c>
-      <c r="C108" t="n">
-        <v>37.13000106811523</v>
-      </c>
-      <c r="D108" t="n">
-        <v>34.2599983215332</v>
-      </c>
-      <c r="E108" t="n">
-        <v>35.16999816894531</v>
-      </c>
-      <c r="F108" t="n">
-        <v>36.98447703169195</v>
-      </c>
-      <c r="G108" t="n">
-        <v>38.12227851567232</v>
-      </c>
-      <c r="H108" t="n">
-        <v>40.95972021076265</v>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K108" t="n">
-        <v>0</v>
-      </c>
-      <c r="L108" s="2" t="n">
-        <v>44690</v>
-      </c>
-      <c r="M108" t="n">
-        <v>-0.6300010681152344</v>
-      </c>
-      <c r="N108" t="n">
-        <v>22</v>
-      </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P108" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>35</v>
-      </c>
-      <c r="C109" t="n">
-        <v>36.22000122070312</v>
-      </c>
-      <c r="D109" t="n">
-        <v>32.95999908447266</v>
-      </c>
-      <c r="E109" t="n">
-        <v>33.86000061035156</v>
-      </c>
-      <c r="F109" t="n">
-        <v>35.94298489124515</v>
-      </c>
-      <c r="G109" t="n">
-        <v>37.17510564782326</v>
-      </c>
-      <c r="H109" t="n">
-        <v>40.31429115617982</v>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K109" t="n">
-        <v>0.0707</v>
-      </c>
-      <c r="L109" s="2" t="n">
-        <v>44697</v>
-      </c>
-      <c r="M109" t="n">
-        <v>-0.6300010681152344</v>
-      </c>
-      <c r="N109" t="n">
-        <v>22</v>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P109" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>34.7599983215332</v>
-      </c>
-      <c r="C110" t="n">
-        <v>37.04999923706055</v>
-      </c>
-      <c r="D110" t="n">
-        <v>34.65999984741211</v>
-      </c>
-      <c r="E110" t="n">
-        <v>37.02000045776367</v>
-      </c>
-      <c r="F110" t="n">
-        <v>36.30199008008466</v>
-      </c>
-      <c r="G110" t="n">
-        <v>37.14063782781002</v>
-      </c>
-      <c r="H110" t="n">
-        <v>40.01481018359653</v>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K110" t="n">
-        <v>0.1372</v>
-      </c>
-      <c r="L110" s="2" t="n">
-        <v>44704</v>
-      </c>
-      <c r="M110" t="n">
-        <v>-0.6300010681152344</v>
-      </c>
-      <c r="N110" t="n">
-        <v>22</v>
-      </c>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P110" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>36.81999969482422</v>
-      </c>
-      <c r="C111" t="n">
-        <v>37.52999877929688</v>
-      </c>
-      <c r="D111" t="n">
-        <v>36.06999969482422</v>
-      </c>
-      <c r="E111" t="n">
-        <v>36.18999862670898</v>
-      </c>
-      <c r="F111" t="n">
-        <v>36.98447703169195</v>
-      </c>
-      <c r="G111" t="n">
-        <v>38.12227851567232</v>
-      </c>
-      <c r="H111" t="n">
-        <v>40.95972021076265</v>
-      </c>
-      <c r="I111" t="n">
-        <v>37.52999877929688</v>
-      </c>
-      <c r="J111" t="n">
-        <v>38.71872962530525</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0</v>
-      </c>
-      <c r="L111" s="2" t="n">
-        <v>44705</v>
-      </c>
-      <c r="M111" t="n">
-        <v>-0.6300010681152344</v>
-      </c>
-      <c r="N111" t="n">
-        <v>22</v>
-      </c>
-      <c r="O111" t="n">
-        <v>36.81999969482422</v>
-      </c>
-      <c r="P111" t="n">
-        <v>-171</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>22.42000007629395</v>
-      </c>
-      <c r="C112" t="n">
-        <v>23.27000045776367</v>
-      </c>
-      <c r="D112" t="n">
-        <v>22.06999969482422</v>
-      </c>
-      <c r="E112" t="n">
-        <v>22.65999984741211</v>
-      </c>
-      <c r="F112" t="n">
-        <v>22.62960244574635</v>
-      </c>
-      <c r="G112" t="n">
-        <v>23.09699279788176</v>
-      </c>
-      <c r="H112" t="n">
-        <v>25.85070584750882</v>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K112" t="n">
-        <v>0</v>
-      </c>
-      <c r="L112" s="2" t="n">
-        <v>43969</v>
-      </c>
-      <c r="M112" t="n">
-        <v>1.489999771118164</v>
-      </c>
-      <c r="N112" t="n">
-        <v>23</v>
-      </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P112" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>23.75</v>
-      </c>
-      <c r="C113" t="n">
-        <v>26.17000007629395</v>
-      </c>
-      <c r="D113" t="n">
-        <v>23.70000076293945</v>
-      </c>
-      <c r="E113" t="n">
-        <v>24.1200008392334</v>
-      </c>
-      <c r="F113" t="n">
-        <v>23.12640191024203</v>
-      </c>
-      <c r="G113" t="n">
-        <v>23.32432791818212</v>
-      </c>
-      <c r="H113" t="n">
-        <v>25.69336902857469</v>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K113" t="n">
-        <v>0</v>
-      </c>
-      <c r="L113" s="2" t="n">
-        <v>43976</v>
-      </c>
-      <c r="M113" t="n">
-        <v>1.489999771118164</v>
-      </c>
-      <c r="N113" t="n">
-        <v>23</v>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P113" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>24.28000068664551</v>
-      </c>
-      <c r="C114" t="n">
-        <v>29.01000022888184</v>
-      </c>
-      <c r="D114" t="n">
-        <v>24.04999923706055</v>
-      </c>
-      <c r="E114" t="n">
-        <v>28.11000061035156</v>
-      </c>
-      <c r="F114" t="n">
-        <v>24.78760147694521</v>
-      </c>
-      <c r="G114" t="n">
-        <v>24.38781073866422</v>
-      </c>
-      <c r="H114" t="n">
-        <v>25.91306280873622</v>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K114" t="n">
-        <v>0</v>
-      </c>
-      <c r="L114" s="2" t="n">
-        <v>43983</v>
-      </c>
-      <c r="M114" t="n">
-        <v>1.489999771118164</v>
-      </c>
-      <c r="N114" t="n">
-        <v>23</v>
-      </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P114" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>28.59000015258789</v>
-      </c>
-      <c r="C115" t="n">
-        <v>28.89999961853027</v>
-      </c>
-      <c r="D115" t="n">
-        <v>23.68000030517578</v>
-      </c>
-      <c r="E115" t="n">
-        <v>24.78000068664551</v>
-      </c>
-      <c r="F115" t="n">
-        <v>24.78506788017865</v>
-      </c>
-      <c r="G115" t="n">
-        <v>24.47496406043784</v>
-      </c>
-      <c r="H115" t="n">
-        <v>25.81005716127343</v>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K115" t="n">
-        <v>0</v>
-      </c>
-      <c r="L115" s="2" t="n">
-        <v>43990</v>
-      </c>
-      <c r="M115" t="n">
-        <v>1.489999771118164</v>
-      </c>
-      <c r="N115" t="n">
-        <v>23</v>
-      </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P115" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>23.76000022888184</v>
-      </c>
-      <c r="C116" t="n">
-        <v>26.23999977111816</v>
-      </c>
-      <c r="D116" t="n">
-        <v>23.69000053405762</v>
-      </c>
-      <c r="E116" t="n">
-        <v>25.25</v>
-      </c>
-      <c r="F116" t="n">
-        <v>23.12640191024203</v>
-      </c>
-      <c r="G116" t="n">
-        <v>23.32432791818212</v>
-      </c>
-      <c r="H116" t="n">
-        <v>25.69336902857469</v>
-      </c>
-      <c r="I116" t="n">
-        <v>26.23999977111816</v>
-      </c>
-      <c r="J116" t="n">
-        <v>28.11896725711927</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0</v>
-      </c>
-      <c r="L116" s="2" t="n">
-        <v>43991</v>
-      </c>
-      <c r="M116" t="n">
-        <v>1.489999771118164</v>
-      </c>
-      <c r="N116" t="n">
-        <v>23</v>
-      </c>
-      <c r="O116" t="n">
-        <v>23.76000022888184</v>
-      </c>
-      <c r="P116" t="n">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>43.90000152587891</v>
-      </c>
-      <c r="C117" t="n">
-        <v>46.75</v>
-      </c>
-      <c r="D117" t="n">
-        <v>42.59000015258789</v>
-      </c>
-      <c r="E117" t="n">
-        <v>45.86999893188477</v>
-      </c>
-      <c r="F117" t="n">
-        <v>46.02677179616826</v>
-      </c>
-      <c r="G117" t="n">
-        <v>45.89031358185655</v>
-      </c>
-      <c r="H117" t="n">
-        <v>44.76925799869083</v>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K117" t="n">
-        <v>0</v>
-      </c>
-      <c r="L117" s="2" t="n">
-        <v>44585</v>
-      </c>
-      <c r="M117" t="n">
-        <v>-0.1499977111816406</v>
-      </c>
-      <c r="N117" t="n">
-        <v>24</v>
-      </c>
-      <c r="O117" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P117" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>45.52000045776367</v>
-      </c>
-      <c r="C118" t="n">
-        <v>48.68999862670898</v>
-      </c>
-      <c r="D118" t="n">
-        <v>45.22000122070312</v>
-      </c>
-      <c r="E118" t="n">
-        <v>48.27999877929688</v>
-      </c>
-      <c r="F118" t="n">
-        <v>46.77784745721114</v>
-      </c>
-      <c r="G118" t="n">
-        <v>46.42135473684328</v>
-      </c>
-      <c r="H118" t="n">
-        <v>45.08841625147319</v>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K118" t="n">
-        <v>0</v>
-      </c>
-      <c r="L118" s="2" t="n">
-        <v>44592</v>
-      </c>
-      <c r="M118" t="n">
-        <v>-0.1499977111816406</v>
-      </c>
-      <c r="N118" t="n">
-        <v>24</v>
-      </c>
-      <c r="O118" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P118" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>48.56000137329102</v>
-      </c>
-      <c r="C119" t="n">
-        <v>50.11000061035156</v>
-      </c>
-      <c r="D119" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="E119" t="n">
-        <v>47.91999816894531</v>
-      </c>
-      <c r="F119" t="n">
-        <v>47.15856436112253</v>
-      </c>
-      <c r="G119" t="n">
-        <v>46.75438661064373</v>
-      </c>
-      <c r="H119" t="n">
-        <v>45.3458327894252</v>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K119" t="n">
-        <v>0.0786</v>
-      </c>
-      <c r="L119" s="2" t="n">
-        <v>44599</v>
-      </c>
-      <c r="M119" t="n">
-        <v>-0.1499977111816406</v>
-      </c>
-      <c r="N119" t="n">
-        <v>24</v>
-      </c>
-      <c r="O119" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P119" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>48.02000045776367</v>
-      </c>
-      <c r="C120" t="n">
-        <v>48.36999893188477</v>
-      </c>
-      <c r="D120" t="n">
-        <v>45.72000122070312</v>
-      </c>
-      <c r="E120" t="n">
-        <v>45.95999908447266</v>
-      </c>
-      <c r="F120" t="n">
-        <v>46.75904260223924</v>
-      </c>
-      <c r="G120" t="n">
-        <v>46.57785604927238</v>
-      </c>
-      <c r="H120" t="n">
-        <v>45.40166608897497</v>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K120" t="n">
-        <v>0.0582</v>
-      </c>
-      <c r="L120" s="2" t="n">
-        <v>44606</v>
-      </c>
-      <c r="M120" t="n">
-        <v>-0.1499977111816406</v>
-      </c>
-      <c r="N120" t="n">
-        <v>24</v>
-      </c>
-      <c r="O120" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P120" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>45.16999816894531</v>
-      </c>
-      <c r="C121" t="n">
-        <v>46.11000061035156</v>
-      </c>
-      <c r="D121" t="n">
-        <v>42.04999923706055</v>
-      </c>
-      <c r="E121" t="n">
-        <v>45.02000045776367</v>
-      </c>
-      <c r="F121" t="n">
-        <v>46.77784745721114</v>
-      </c>
-      <c r="G121" t="n">
-        <v>46.42135473684328</v>
-      </c>
-      <c r="H121" t="n">
-        <v>45.08841625147319</v>
-      </c>
-      <c r="I121" t="n">
-        <v>46.11000061035156</v>
-      </c>
-      <c r="J121" t="n">
-        <v>48.61400876662833</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0</v>
-      </c>
-      <c r="L121" s="2" t="n">
-        <v>44607</v>
-      </c>
-      <c r="M121" t="n">
-        <v>-0.1499977111816406</v>
-      </c>
-      <c r="N121" t="n">
-        <v>24</v>
-      </c>
-      <c r="O121" t="n">
-        <v>45.16999816894531</v>
-      </c>
-      <c r="P121" t="n">
-        <v>-33</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>28.89999961853027</v>
-      </c>
-      <c r="C122" t="n">
-        <v>29.25</v>
-      </c>
-      <c r="D122" t="n">
-        <v>28.29999923706055</v>
-      </c>
-      <c r="E122" t="n">
-        <v>28.56999969482422</v>
-      </c>
-      <c r="F122" t="n">
-        <v>27.96201211561364</v>
-      </c>
-      <c r="G122" t="n">
-        <v>27.28561921280435</v>
-      </c>
-      <c r="H122" t="n">
-        <v>26.14304925130858</v>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K122" t="n">
-        <v>0</v>
-      </c>
-      <c r="L122" s="2" t="n">
-        <v>44172</v>
-      </c>
-      <c r="M122" t="n">
-        <v>2.80435886021273</v>
-      </c>
-      <c r="N122" t="n">
-        <v>25</v>
-      </c>
-      <c r="O122" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P122" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>28.92000007629395</v>
-      </c>
-      <c r="C123" t="n">
-        <v>29.10000038146973</v>
-      </c>
-      <c r="D123" t="n">
-        <v>28.13999938964844</v>
-      </c>
-      <c r="E123" t="n">
-        <v>28.67000007629395</v>
-      </c>
-      <c r="F123" t="n">
-        <v>28.19800810250707</v>
-      </c>
-      <c r="G123" t="n">
-        <v>27.59325940469093</v>
-      </c>
-      <c r="H123" t="n">
-        <v>26.37277205357998</v>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K123" t="n">
-        <v>0</v>
-      </c>
-      <c r="L123" s="2" t="n">
-        <v>44179</v>
-      </c>
-      <c r="M123" t="n">
-        <v>2.80435886021273</v>
-      </c>
-      <c r="N123" t="n">
-        <v>25</v>
-      </c>
-      <c r="O123" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P123" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>29.10000038146973</v>
-      </c>
-      <c r="C124" t="n">
-        <v>30.35000038146973</v>
-      </c>
-      <c r="D124" t="n">
-        <v>28.72999954223633</v>
-      </c>
-      <c r="E124" t="n">
-        <v>29.95999908447266</v>
-      </c>
-      <c r="F124" t="n">
-        <v>28.78533842982894</v>
-      </c>
-      <c r="G124" t="n">
-        <v>28.11920155575353</v>
-      </c>
-      <c r="H124" t="n">
-        <v>26.69888360184295</v>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K124" t="n">
-        <v>0</v>
-      </c>
-      <c r="L124" s="2" t="n">
-        <v>44186</v>
-      </c>
-      <c r="M124" t="n">
-        <v>2.80435886021273</v>
-      </c>
-      <c r="N124" t="n">
-        <v>25</v>
-      </c>
-      <c r="O124" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P124" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>30.22999954223633</v>
-      </c>
-      <c r="C125" t="n">
-        <v>30.54999923706055</v>
-      </c>
-      <c r="D125" t="n">
-        <v>29.89999961853027</v>
-      </c>
-      <c r="E125" t="n">
-        <v>30.30999946594238</v>
-      </c>
-      <c r="F125" t="n">
-        <v>29.29355877520009</v>
-      </c>
-      <c r="G125" t="n">
-        <v>28.6060455357955</v>
-      </c>
-      <c r="H125" t="n">
-        <v>27.02716686221562</v>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K125" t="n">
-        <v>0</v>
-      </c>
-      <c r="L125" s="2" t="n">
-        <v>44193</v>
-      </c>
-      <c r="M125" t="n">
-        <v>2.80435886021273</v>
-      </c>
-      <c r="N125" t="n">
-        <v>25</v>
-      </c>
-      <c r="O125" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P125" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>30.45999908447266</v>
-      </c>
-      <c r="C126" t="n">
-        <v>33.61999893188477</v>
-      </c>
-      <c r="D126" t="n">
-        <v>29.75</v>
-      </c>
-      <c r="E126" t="n">
-        <v>32.52999877929688</v>
-      </c>
-      <c r="F126" t="n">
-        <v>28.19800810250707</v>
-      </c>
-      <c r="G126" t="n">
-        <v>27.59325940469093</v>
-      </c>
-      <c r="H126" t="n">
-        <v>26.37277205357998</v>
-      </c>
-      <c r="I126" t="n">
-        <v>33.61999893188477</v>
-      </c>
-      <c r="J126" t="n">
-        <v>33.26435794468539</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0</v>
-      </c>
-      <c r="L126" s="2" t="n">
-        <v>44194</v>
-      </c>
-      <c r="M126" t="n">
-        <v>2.80435886021273</v>
-      </c>
-      <c r="N126" t="n">
-        <v>25</v>
-      </c>
-      <c r="O126" t="n">
-        <v>30.45999908447266</v>
-      </c>
-      <c r="P126" t="n">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>25.55999946594238</v>
-      </c>
-      <c r="C127" t="n">
-        <v>26.04000091552734</v>
-      </c>
-      <c r="D127" t="n">
-        <v>25.09000015258789</v>
-      </c>
-      <c r="E127" t="n">
-        <v>26.03000068664551</v>
-      </c>
-      <c r="F127" t="n">
-        <v>25.73000017801921</v>
-      </c>
-      <c r="G127" t="n">
-        <v>25.68000009324815</v>
-      </c>
-      <c r="H127" t="n">
-        <v>25.62090908397328</v>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K127" t="n">
-        <v>0</v>
-      </c>
-      <c r="L127" s="2" t="n">
-        <v>43472</v>
-      </c>
-      <c r="M127" t="n">
-        <v>-0.1799983978271484</v>
-      </c>
-      <c r="N127" t="n">
-        <v>26</v>
-      </c>
-      <c r="O127" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P127" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>25.77000045776367</v>
-      </c>
-      <c r="C128" t="n">
-        <v>29.45999908447266</v>
-      </c>
-      <c r="D128" t="n">
-        <v>25.61000061035156</v>
-      </c>
-      <c r="E128" t="n">
-        <v>29.29999923706055</v>
-      </c>
-      <c r="F128" t="n">
-        <v>26.91999986436632</v>
-      </c>
-      <c r="G128" t="n">
-        <v>26.48444434742868</v>
-      </c>
-      <c r="H128" t="n">
-        <v>25.95537182516303</v>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K128" t="n">
-        <v>0</v>
-      </c>
-      <c r="L128" s="2" t="n">
-        <v>43479</v>
-      </c>
-      <c r="M128" t="n">
-        <v>-0.1799983978271484</v>
-      </c>
-      <c r="N128" t="n">
-        <v>26</v>
-      </c>
-      <c r="O128" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P128" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>28.97999954223633</v>
-      </c>
-      <c r="C129" t="n">
-        <v>29.71999931335449</v>
-      </c>
-      <c r="D129" t="n">
-        <v>28.6200008392334</v>
-      </c>
-      <c r="E129" t="n">
-        <v>29.57999992370605</v>
-      </c>
-      <c r="F129" t="n">
-        <v>27.8066665508129</v>
-      </c>
-      <c r="G129" t="n">
-        <v>27.17234558660143</v>
-      </c>
-      <c r="H129" t="n">
-        <v>26.28488347048512</v>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K129" t="n">
-        <v>0</v>
-      </c>
-      <c r="L129" s="2" t="n">
-        <v>43486</v>
-      </c>
-      <c r="M129" t="n">
-        <v>-0.1799983978271484</v>
-      </c>
-      <c r="N129" t="n">
-        <v>26</v>
-      </c>
-      <c r="O129" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P129" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>29.31999969482422</v>
-      </c>
-      <c r="C130" t="n">
-        <v>29.70000076293945</v>
-      </c>
-      <c r="D130" t="n">
-        <v>27.97999954223633</v>
-      </c>
-      <c r="E130" t="n">
-        <v>28.3799991607666</v>
-      </c>
-      <c r="F130" t="n">
-        <v>27.99777742079747</v>
-      </c>
-      <c r="G130" t="n">
-        <v>27.44071304752703</v>
-      </c>
-      <c r="H130" t="n">
-        <v>26.47534853323798</v>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K130" t="n">
-        <v>0</v>
-      </c>
-      <c r="L130" s="2" t="n">
-        <v>43493</v>
-      </c>
-      <c r="M130" t="n">
-        <v>-0.1799983978271484</v>
-      </c>
-      <c r="N130" t="n">
-        <v>26</v>
-      </c>
-      <c r="O130" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P130" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>28.46999931335449</v>
-      </c>
-      <c r="C131" t="n">
-        <v>28.96999931335449</v>
-      </c>
-      <c r="D131" t="n">
-        <v>27.86000061035156</v>
-      </c>
-      <c r="E131" t="n">
-        <v>28.29000091552734</v>
-      </c>
-      <c r="F131" t="n">
-        <v>26.91999986436632</v>
-      </c>
-      <c r="G131" t="n">
-        <v>26.48444434742868</v>
-      </c>
-      <c r="H131" t="n">
-        <v>25.95537182516303</v>
-      </c>
-      <c r="I131" t="n">
-        <v>28.96999931335449</v>
-      </c>
-      <c r="J131" t="n">
-        <v>29.26532445744772</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0</v>
-      </c>
-      <c r="L131" s="2" t="n">
-        <v>43494</v>
-      </c>
-      <c r="M131" t="n">
-        <v>-0.1799983978271484</v>
-      </c>
-      <c r="N131" t="n">
-        <v>26</v>
-      </c>
-      <c r="O131" t="n">
-        <v>28.46999931335449</v>
-      </c>
-      <c r="P131" t="n">
-        <v>-63</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>33.33000183105469</v>
-      </c>
-      <c r="C132" t="n">
-        <v>33.59999847412109</v>
-      </c>
-      <c r="D132" t="n">
-        <v>33.11999893188477</v>
-      </c>
-      <c r="E132" t="n">
-        <v>33.31999969482422</v>
-      </c>
-      <c r="F132" t="n">
-        <v>32.70614196002077</v>
-      </c>
-      <c r="G132" t="n">
-        <v>32.08413042413495</v>
-      </c>
-      <c r="H132" t="n">
-        <v>30.53741524865189</v>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K132" t="n">
-        <v>0</v>
-      </c>
-      <c r="L132" s="2" t="n">
-        <v>43794</v>
-      </c>
-      <c r="M132" t="n">
-        <v>0.08137932864327269</v>
-      </c>
-      <c r="N132" t="n">
-        <v>27</v>
-      </c>
-      <c r="O132" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P132" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>33.45000076293945</v>
-      </c>
-      <c r="C133" t="n">
-        <v>33.79999923706055</v>
-      </c>
-      <c r="D133" t="n">
-        <v>32.54999923706055</v>
-      </c>
-      <c r="E133" t="n">
-        <v>33.66999816894531</v>
-      </c>
-      <c r="F133" t="n">
-        <v>33.02742736299562</v>
-      </c>
-      <c r="G133" t="n">
-        <v>32.43654547853725</v>
-      </c>
-      <c r="H133" t="n">
-        <v>30.82219551413311</v>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K133" t="n">
-        <v>0</v>
-      </c>
-      <c r="L133" s="2" t="n">
-        <v>43801</v>
-      </c>
-      <c r="M133" t="n">
-        <v>0.08137932864327269</v>
-      </c>
-      <c r="N133" t="n">
-        <v>27</v>
-      </c>
-      <c r="O133" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P133" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="C134" t="n">
-        <v>34.95999908447266</v>
-      </c>
-      <c r="D134" t="n">
-        <v>33.29999923706055</v>
-      </c>
-      <c r="E134" t="n">
-        <v>34.43999862670898</v>
-      </c>
-      <c r="F134" t="n">
-        <v>33.49828445090008</v>
-      </c>
-      <c r="G134" t="n">
-        <v>32.88175728924208</v>
-      </c>
-      <c r="H134" t="n">
-        <v>31.15108670618546</v>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K134" t="n">
-        <v>0</v>
-      </c>
-      <c r="L134" s="2" t="n">
-        <v>43808</v>
-      </c>
-      <c r="M134" t="n">
-        <v>0.08137932864327269</v>
-      </c>
-      <c r="N134" t="n">
-        <v>27</v>
-      </c>
-      <c r="O134" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P134" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>34.95000076293945</v>
-      </c>
-      <c r="C135" t="n">
-        <v>35.27000045776367</v>
-      </c>
-      <c r="D135" t="n">
-        <v>34.70000076293945</v>
-      </c>
-      <c r="E135" t="n">
-        <v>34.95999908447266</v>
-      </c>
-      <c r="F135" t="n">
-        <v>33.98552266209094</v>
-      </c>
-      <c r="G135" t="n">
-        <v>33.34358879929332</v>
-      </c>
-      <c r="H135" t="n">
-        <v>31.49735146784793</v>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K135" t="n">
-        <v>0</v>
-      </c>
-      <c r="L135" s="2" t="n">
-        <v>43815</v>
-      </c>
-      <c r="M135" t="n">
-        <v>0.08137932864327269</v>
-      </c>
-      <c r="N135" t="n">
-        <v>27</v>
-      </c>
-      <c r="O135" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P135" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>35.04000091552734</v>
-      </c>
-      <c r="C136" t="n">
-        <v>35.72000122070312</v>
-      </c>
-      <c r="D136" t="n">
-        <v>34.95000076293945</v>
-      </c>
-      <c r="E136" t="n">
-        <v>35.34999847412109</v>
-      </c>
-      <c r="F136" t="n">
-        <v>33.02742736299562</v>
-      </c>
-      <c r="G136" t="n">
-        <v>32.43654547853725</v>
-      </c>
-      <c r="H136" t="n">
-        <v>30.82219551413311</v>
-      </c>
-      <c r="I136" t="n">
-        <v>35.72000122070312</v>
-      </c>
-      <c r="J136" t="n">
-        <v>35.12138024417062</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0</v>
-      </c>
-      <c r="L136" s="2" t="n">
-        <v>43816</v>
-      </c>
-      <c r="M136" t="n">
-        <v>0.08137932864327269</v>
-      </c>
-      <c r="N136" t="n">
-        <v>27</v>
-      </c>
-      <c r="O136" t="n">
-        <v>35.04000091552734</v>
-      </c>
-      <c r="P136" t="n">
-        <v>23</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>

--- a/Excel reports/Performance_report.xlsx
+++ b/Excel reports/Performance_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P106"/>
+  <dimension ref="A1:P96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,25 +519,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>51.02000045776367</v>
+        <v>95.66666412353516</v>
       </c>
       <c r="C2" t="n">
-        <v>51.25</v>
+        <v>104.3133316040039</v>
       </c>
       <c r="D2" t="n">
-        <v>46.13000106811523</v>
+        <v>94.19999694824219</v>
       </c>
       <c r="E2" t="n">
-        <v>46.91999816894531</v>
+        <v>95.38400268554688</v>
       </c>
       <c r="F2" t="n">
-        <v>48.11031280223163</v>
+        <v>91.20417345890496</v>
       </c>
       <c r="G2" t="n">
-        <v>48.12885380028315</v>
+        <v>85.0229331638558</v>
       </c>
       <c r="H2" t="n">
-        <v>46.90828640810565</v>
+        <v>67.38207425027659</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -550,13 +550,13 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.14635</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>44942</v>
+        <v>44039</v>
       </c>
       <c r="M2" t="n">
-        <v>-2.439998626708984</v>
+        <v>7.87979303247738</v>
       </c>
       <c r="N2" t="n">
         <v>1</v>
@@ -577,25 +577,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>47.13999938964844</v>
+        <v>96.61333465576172</v>
       </c>
       <c r="C3" t="n">
-        <v>50.34999847412109</v>
+        <v>101.8273315429688</v>
       </c>
       <c r="D3" t="n">
-        <v>46.09000015258789</v>
+        <v>94.33399963378906</v>
       </c>
       <c r="E3" t="n">
-        <v>49.18999862670898</v>
+        <v>96.84733581542969</v>
       </c>
       <c r="F3" t="n">
-        <v>48.47020807705742</v>
+        <v>93.08522757774654</v>
       </c>
       <c r="G3" t="n">
-        <v>48.36466376171111</v>
+        <v>87.65057819753889</v>
       </c>
       <c r="H3" t="n">
-        <v>47.11571479161504</v>
+        <v>70.06073439256323</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -608,13 +608,13 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0.6369</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>44949</v>
+        <v>44046</v>
       </c>
       <c r="M3" t="n">
-        <v>-2.439998626708984</v>
+        <v>7.87979303247738</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
@@ -635,25 +635,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>48.16999816894531</v>
+        <v>96.53333282470703</v>
       </c>
       <c r="C4" t="n">
-        <v>49.77999877929688</v>
+        <v>111.2533340454102</v>
       </c>
       <c r="D4" t="n">
-        <v>44.90999984741211</v>
+        <v>91</v>
       </c>
       <c r="E4" t="n">
-        <v>45.34999847412109</v>
+        <v>110.0473327636719</v>
       </c>
       <c r="F4" t="n">
-        <v>47.43013820941198</v>
+        <v>98.73926263972166</v>
       </c>
       <c r="G4" t="n">
-        <v>47.69473814224666</v>
+        <v>92.62763476779067</v>
       </c>
       <c r="H4" t="n">
-        <v>46.95519512638832</v>
+        <v>73.69587969902766</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>44956</v>
+        <v>44053</v>
       </c>
       <c r="M4" t="n">
-        <v>-2.439998626708984</v>
+        <v>7.87979303247738</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
@@ -693,25 +693,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45.18999862670898</v>
+        <v>111.8000030517578</v>
       </c>
       <c r="C5" t="n">
-        <v>46.72000122070312</v>
+        <v>139.6993255615234</v>
       </c>
       <c r="D5" t="n">
-        <v>42.72999954223633</v>
+        <v>111.5220031738281</v>
       </c>
       <c r="E5" t="n">
-        <v>45.72999954223633</v>
+        <v>136.6653289794922</v>
       </c>
       <c r="F5" t="n">
-        <v>46.86342532035343</v>
+        <v>111.3812847529785</v>
       </c>
       <c r="G5" t="n">
-        <v>47.25812956446659</v>
+        <v>102.4137890370577</v>
       </c>
       <c r="H5" t="n">
-        <v>46.84381370964722</v>
+        <v>79.4203750881608</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0.36905</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>44963</v>
+        <v>44060</v>
       </c>
       <c r="M5" t="n">
-        <v>-2.439998626708984</v>
+        <v>7.87979303247738</v>
       </c>
       <c r="N5" t="n">
         <v>1</v>
@@ -751,49 +751,49 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44.84999847412109</v>
+        <v>141.7519989013672</v>
       </c>
       <c r="C6" t="n">
-        <v>46.84000015258789</v>
+        <v>154.5659942626953</v>
       </c>
       <c r="D6" t="n">
-        <v>41.77000045776367</v>
+        <v>128.5013275146484</v>
       </c>
       <c r="E6" t="n">
-        <v>42.40999984741211</v>
+        <v>147.5599975585938</v>
       </c>
       <c r="F6" t="n">
-        <v>48.47020807705742</v>
+        <v>93.08522757774654</v>
       </c>
       <c r="G6" t="n">
-        <v>48.36466376171111</v>
+        <v>87.65057819753889</v>
       </c>
       <c r="H6" t="n">
-        <v>47.11571479161504</v>
+        <v>70.06073439256323</v>
       </c>
       <c r="I6" t="n">
-        <v>46.84000015258789</v>
+        <v>154.5659942626953</v>
       </c>
       <c r="J6" t="n">
-        <v>47.58318485561517</v>
+        <v>149.6317919338446</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>44964</v>
+        <v>44061</v>
       </c>
       <c r="M6" t="n">
-        <v>-2.439998626708984</v>
+        <v>7.87979303247738</v>
       </c>
       <c r="N6" t="n">
         <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>44.84999847412109</v>
+        <v>141.7519989013672</v>
       </c>
       <c r="P6" t="n">
-        <v>-544</v>
+        <v>559</v>
       </c>
     </row>
     <row r="7">
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20.04000091552734</v>
+        <v>216.9900054931641</v>
       </c>
       <c r="C7" t="n">
-        <v>20.63999938964844</v>
+        <v>232.5099945068359</v>
       </c>
       <c r="D7" t="n">
-        <v>17.15999984741211</v>
+        <v>209.0800018310547</v>
       </c>
       <c r="E7" t="n">
-        <v>17.82999992370605</v>
+        <v>229.0666656494141</v>
       </c>
       <c r="F7" t="n">
-        <v>18.86113665249949</v>
+        <v>220.2980940040874</v>
       </c>
       <c r="G7" t="n">
-        <v>19.20620502585458</v>
+        <v>218.6737424913935</v>
       </c>
       <c r="H7" t="n">
-        <v>22.26744544133781</v>
+        <v>217.4242411960699</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>44039</v>
+        <v>44403</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4300003051757812</v>
+        <v>6.758148479171723</v>
       </c>
       <c r="N7" t="n">
         <v>2</v>
@@ -859,25 +859,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>17.54000091552734</v>
+        <v>233.3333282470703</v>
       </c>
       <c r="C8" t="n">
-        <v>19.6299991607666</v>
+        <v>242.3133392333984</v>
       </c>
       <c r="D8" t="n">
-        <v>17.25</v>
+        <v>232.5433349609375</v>
       </c>
       <c r="E8" t="n">
-        <v>18.44000053405762</v>
+        <v>233.0333404541016</v>
       </c>
       <c r="F8" t="n">
-        <v>18.7207579463522</v>
+        <v>224.5431761540922</v>
       </c>
       <c r="G8" t="n">
-        <v>19.03593736101081</v>
+        <v>221.8647642608842</v>
       </c>
       <c r="H8" t="n">
-        <v>21.91949590431233</v>
+        <v>218.8432502195273</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -893,10 +893,10 @@
         <v>0</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>44046</v>
+        <v>44410</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4300003051757812</v>
+        <v>6.758148479171723</v>
       </c>
       <c r="N8" t="n">
         <v>2</v>
@@ -917,25 +917,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>18.55999946594238</v>
+        <v>236.7233276367188</v>
       </c>
       <c r="C9" t="n">
-        <v>20.52000045776367</v>
+        <v>243.3000030517578</v>
       </c>
       <c r="D9" t="n">
-        <v>17.97999954223633</v>
+        <v>233.1333312988281</v>
       </c>
       <c r="E9" t="n">
-        <v>18.80999946594238</v>
+        <v>239.0566711425781</v>
       </c>
       <c r="F9" t="n">
-        <v>18.75050511954893</v>
+        <v>229.3810078169208</v>
       </c>
       <c r="G9" t="n">
-        <v>18.9857289398845</v>
+        <v>225.6851880123717</v>
       </c>
       <c r="H9" t="n">
-        <v>21.63681440991506</v>
+        <v>220.6808339398046</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -951,10 +951,10 @@
         <v>0</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>44053</v>
+        <v>44417</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4300003051757812</v>
+        <v>6.758148479171723</v>
       </c>
       <c r="N9" t="n">
         <v>2</v>
@@ -975,25 +975,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>18.64999961853027</v>
+        <v>235.0233306884766</v>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>236.5</v>
       </c>
       <c r="D10" t="n">
-        <v>16.70000076293945</v>
+        <v>216.2799987792969</v>
       </c>
       <c r="E10" t="n">
-        <v>16.8799991607666</v>
+        <v>226.7533264160156</v>
       </c>
       <c r="F10" t="n">
-        <v>18.12700313328816</v>
+        <v>228.5051140166191</v>
       </c>
       <c r="G10" t="n">
-        <v>18.51778898896941</v>
+        <v>225.9225521020704</v>
       </c>
       <c r="H10" t="n">
-        <v>21.20437665999248</v>
+        <v>221.2328787103692</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>44060</v>
+        <v>44424</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4300003051757812</v>
+        <v>6.758148479171723</v>
       </c>
       <c r="N10" t="n">
         <v>2</v>
@@ -1033,49 +1033,49 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>16.55999946594238</v>
+        <v>228.4799957275391</v>
       </c>
       <c r="C11" t="n">
-        <v>17.64999961853027</v>
+        <v>238.9900054931641</v>
       </c>
       <c r="D11" t="n">
-        <v>16.35000038146973</v>
+        <v>226.9166717529297</v>
       </c>
       <c r="E11" t="n">
-        <v>16.98999977111816</v>
+        <v>237.3066711425781</v>
       </c>
       <c r="F11" t="n">
-        <v>18.7207579463522</v>
+        <v>224.5431761540922</v>
       </c>
       <c r="G11" t="n">
-        <v>19.03593736101081</v>
+        <v>221.8647642608842</v>
       </c>
       <c r="H11" t="n">
-        <v>21.91949590431233</v>
+        <v>218.8432502195273</v>
       </c>
       <c r="I11" t="n">
-        <v>17.64999961853027</v>
+        <v>238.9900054931641</v>
       </c>
       <c r="J11" t="n">
-        <v>19.30169275127867</v>
+        <v>235.2381442067108</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>44061</v>
+        <v>44425</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4300003051757812</v>
+        <v>6.758148479171723</v>
       </c>
       <c r="N11" t="n">
         <v>2</v>
       </c>
       <c r="O11" t="n">
-        <v>16.55999946594238</v>
+        <v>228.4799957275391</v>
       </c>
       <c r="P11" t="n">
-        <v>260</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12">
@@ -1083,25 +1083,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>28.79999923706055</v>
+        <v>387.4433288574219</v>
       </c>
       <c r="C12" t="n">
-        <v>30.22999954223633</v>
+        <v>400.6499938964844</v>
       </c>
       <c r="D12" t="n">
-        <v>28.46999931335449</v>
+        <v>354</v>
       </c>
       <c r="E12" t="n">
-        <v>28.67000007629395</v>
+        <v>360.6400146484375</v>
       </c>
       <c r="F12" t="n">
-        <v>29.79416326115533</v>
+        <v>356.6239761024502</v>
       </c>
       <c r="G12" t="n">
-        <v>30.15159235054529</v>
+        <v>340.8021736280785</v>
       </c>
       <c r="H12" t="n">
-        <v>29.3420298006667</v>
+        <v>293.8154160179719</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>44403</v>
+        <v>44522</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5103394683021634</v>
+        <v>52.0999755859375</v>
       </c>
       <c r="N12" t="n">
         <v>3</v>
@@ -1141,25 +1141,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>28.93000030517578</v>
+        <v>366.9966735839844</v>
       </c>
       <c r="C13" t="n">
-        <v>29.96999931335449</v>
+        <v>390.9466552734375</v>
       </c>
       <c r="D13" t="n">
-        <v>26.15999984741211</v>
+        <v>333.4033203125</v>
       </c>
       <c r="E13" t="n">
-        <v>27.67000007629395</v>
+        <v>338.3233337402344</v>
       </c>
       <c r="F13" t="n">
-        <v>29.08610886620154</v>
+        <v>350.5237619817116</v>
       </c>
       <c r="G13" t="n">
-        <v>29.60012740071165</v>
+        <v>340.2513203196687</v>
       </c>
       <c r="H13" t="n">
-        <v>29.190027098451</v>
+        <v>297.8615903563594</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>44410</v>
+        <v>44529</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5103394683021634</v>
+        <v>52.0999755859375</v>
       </c>
       <c r="N13" t="n">
         <v>3</v>
@@ -1199,25 +1199,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>26.93000030517578</v>
+        <v>333.836669921875</v>
       </c>
       <c r="C14" t="n">
-        <v>28.90999984741211</v>
+        <v>357.4599914550781</v>
       </c>
       <c r="D14" t="n">
-        <v>26.6200008392334</v>
+        <v>316.8333435058594</v>
       </c>
       <c r="E14" t="n">
-        <v>27.56999969482422</v>
+        <v>339.010009765625</v>
       </c>
       <c r="F14" t="n">
-        <v>28.5807391424091</v>
+        <v>346.6858445763494</v>
       </c>
       <c r="G14" t="n">
-        <v>29.14898791051445</v>
+        <v>339.9754735298812</v>
       </c>
       <c r="H14" t="n">
-        <v>29.04275187993947</v>
+        <v>301.6023557572017</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1233,10 +1233,10 @@
         <v>0</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>44417</v>
+        <v>44536</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5103394683021634</v>
+        <v>52.0999755859375</v>
       </c>
       <c r="N14" t="n">
         <v>3</v>
@@ -1257,25 +1257,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>26.73999977111816</v>
+        <v>333.6966552734375</v>
       </c>
       <c r="C15" t="n">
-        <v>26.88999938964844</v>
+        <v>335</v>
       </c>
       <c r="D15" t="n">
-        <v>23.65999984741211</v>
+        <v>303.0133361816406</v>
       </c>
       <c r="E15" t="n">
-        <v>24.1299991607666</v>
+        <v>310.8566589355469</v>
       </c>
       <c r="F15" t="n">
-        <v>27.09715914852827</v>
+        <v>334.7427826960819</v>
       </c>
       <c r="G15" t="n">
-        <v>28.03365707723715</v>
+        <v>333.5046258422514</v>
       </c>
       <c r="H15" t="n">
-        <v>28.5961379963783</v>
+        <v>302.4436560461421</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>44424</v>
+        <v>44543</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5103394683021634</v>
+        <v>52.0999755859375</v>
       </c>
       <c r="N15" t="n">
         <v>3</v>
@@ -1315,49 +1315,49 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>25</v>
+        <v>303.5666809082031</v>
       </c>
       <c r="C16" t="n">
-        <v>28.18000030517578</v>
+        <v>357.6600036621094</v>
       </c>
       <c r="D16" t="n">
-        <v>24.76000022888184</v>
+        <v>295.3733215332031</v>
       </c>
       <c r="E16" t="n">
-        <v>27.79999923706055</v>
+        <v>355.6666564941406</v>
       </c>
       <c r="F16" t="n">
-        <v>29.08610886620154</v>
+        <v>350.5237619817116</v>
       </c>
       <c r="G16" t="n">
-        <v>29.60012740071165</v>
+        <v>340.2513203196687</v>
       </c>
       <c r="H16" t="n">
-        <v>29.190027098451</v>
+        <v>297.8615903563594</v>
       </c>
       <c r="I16" t="n">
-        <v>28.18000030517578</v>
+        <v>357.6600036621094</v>
       </c>
       <c r="J16" t="n">
-        <v>25.51033946830216</v>
+        <v>377.354860324294</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>44425</v>
+        <v>44544</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5103394683021634</v>
+        <v>52.0999755859375</v>
       </c>
       <c r="N16" t="n">
         <v>3</v>
       </c>
       <c r="O16" t="n">
-        <v>25</v>
+        <v>303.5666809082031</v>
       </c>
       <c r="P16" t="n">
-        <v>204</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="17">
@@ -1365,25 +1365,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>24.43000030517578</v>
+        <v>260.2033386230469</v>
       </c>
       <c r="C17" t="n">
-        <v>25.98999977111816</v>
+        <v>302.6166687011719</v>
       </c>
       <c r="D17" t="n">
-        <v>22.65999984741211</v>
+        <v>252.0133361816406</v>
       </c>
       <c r="E17" t="n">
-        <v>23.39999961853027</v>
+        <v>301.7966613769531</v>
       </c>
       <c r="F17" t="n">
-        <v>27.76275120645895</v>
+        <v>286.5717869442876</v>
       </c>
       <c r="G17" t="n">
-        <v>28.66756430264813</v>
+        <v>291.1189921097036</v>
       </c>
       <c r="H17" t="n">
-        <v>29.03623123659949</v>
+        <v>299.6166096967672</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>0.1089</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>44522</v>
+        <v>44634</v>
       </c>
       <c r="M17" t="n">
-        <v>2.72932561832847</v>
+        <v>1.533355712890625</v>
       </c>
       <c r="N17" t="n">
         <v>4</v>
@@ -1423,25 +1423,25 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>24.23999977111816</v>
+        <v>304.9933471679688</v>
       </c>
       <c r="C18" t="n">
-        <v>24.29999923706055</v>
+        <v>346.8999938964844</v>
       </c>
       <c r="D18" t="n">
-        <v>20.93000030517578</v>
+        <v>302.3633422851562</v>
       </c>
       <c r="E18" t="n">
-        <v>21.53000068664551</v>
+        <v>336.8800048828125</v>
       </c>
       <c r="F18" t="n">
-        <v>25.68516769985447</v>
+        <v>303.3411929237959</v>
       </c>
       <c r="G18" t="n">
-        <v>27.08143905464754</v>
+        <v>301.2881060592834</v>
       </c>
       <c r="H18" t="n">
-        <v>28.35384664114913</v>
+        <v>303.0041910773168</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1454,13 +1454,13 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.1141</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>44529</v>
+        <v>44641</v>
       </c>
       <c r="M18" t="n">
-        <v>2.72932561832847</v>
+        <v>1.533355712890625</v>
       </c>
       <c r="N18" t="n">
         <v>4</v>
@@ -1481,25 +1481,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>22.04000091552734</v>
+        <v>355.0333251953125</v>
       </c>
       <c r="C19" t="n">
-        <v>25.04999923706055</v>
+        <v>371.5899963378906</v>
       </c>
       <c r="D19" t="n">
-        <v>21.45999908447266</v>
+        <v>351.2000122070312</v>
       </c>
       <c r="E19" t="n">
-        <v>24.8700008392334</v>
+        <v>361.5299987792969</v>
       </c>
       <c r="F19" t="n">
-        <v>25.41344541298078</v>
+        <v>322.7374615422963</v>
       </c>
       <c r="G19" t="n">
-        <v>26.59000834011107</v>
+        <v>314.6751933303975</v>
       </c>
       <c r="H19" t="n">
-        <v>28.03713338642952</v>
+        <v>308.3247190502241</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.1009</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>44536</v>
+        <v>44648</v>
       </c>
       <c r="M19" t="n">
-        <v>2.72932561832847</v>
+        <v>1.533355712890625</v>
       </c>
       <c r="N19" t="n">
         <v>4</v>
@@ -1539,25 +1539,25 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>24.47999954223633</v>
+        <v>363.1266784667969</v>
       </c>
       <c r="C20" t="n">
-        <v>24.88999938964844</v>
+        <v>384.2900085449219</v>
       </c>
       <c r="D20" t="n">
-        <v>22.51000022888184</v>
+        <v>340.5133361816406</v>
       </c>
       <c r="E20" t="n">
-        <v>23.42000007629395</v>
+        <v>341.8299865722656</v>
       </c>
       <c r="F20" t="n">
-        <v>24.74896363408517</v>
+        <v>329.1016365522861</v>
       </c>
       <c r="G20" t="n">
-        <v>25.88556205926282</v>
+        <v>320.7095918285904</v>
       </c>
       <c r="H20" t="n">
-        <v>27.61739399459901</v>
+        <v>311.3706524613187</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1570,13 +1570,13 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.1123</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>44543</v>
+        <v>44655</v>
       </c>
       <c r="M20" t="n">
-        <v>2.72932561832847</v>
+        <v>1.533355712890625</v>
       </c>
       <c r="N20" t="n">
         <v>4</v>
@@ -1597,49 +1597,49 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>22.68000030517578</v>
+        <v>326.7999877929688</v>
       </c>
       <c r="C21" t="n">
-        <v>25.42000007629395</v>
+        <v>342.0799865722656</v>
       </c>
       <c r="D21" t="n">
-        <v>22.14999961853027</v>
+        <v>324.3666687011719</v>
       </c>
       <c r="E21" t="n">
-        <v>24.75</v>
+        <v>328.3333435058594</v>
       </c>
       <c r="F21" t="n">
-        <v>25.68516769985447</v>
+        <v>303.3411929237959</v>
       </c>
       <c r="G21" t="n">
-        <v>27.08143905464754</v>
+        <v>301.2881060592834</v>
       </c>
       <c r="H21" t="n">
-        <v>28.35384664114913</v>
+        <v>303.0041910773168</v>
       </c>
       <c r="I21" t="n">
-        <v>25.42000007629395</v>
+        <v>342.0799865722656</v>
       </c>
       <c r="J21" t="n">
-        <v>25.40932592350425</v>
+        <v>360.2872382313435</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>44544</v>
+        <v>44656</v>
       </c>
       <c r="M21" t="n">
-        <v>2.72932561832847</v>
+        <v>1.533355712890625</v>
       </c>
       <c r="N21" t="n">
         <v>4</v>
       </c>
       <c r="O21" t="n">
-        <v>22.68000030517578</v>
+        <v>326.7999877929688</v>
       </c>
       <c r="P21" t="n">
-        <v>1204</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
@@ -1647,25 +1647,25 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>41.40000152587891</v>
+        <v>52.70066833496094</v>
       </c>
       <c r="C22" t="n">
-        <v>41.54999923706055</v>
+        <v>56.21933364868164</v>
       </c>
       <c r="D22" t="n">
-        <v>37.02999877929688</v>
+        <v>50.88666534423828</v>
       </c>
       <c r="E22" t="n">
-        <v>40.2400016784668</v>
+        <v>53.27799987792969</v>
       </c>
       <c r="F22" t="n">
-        <v>38.21937524469849</v>
+        <v>49.70782743937973</v>
       </c>
       <c r="G22" t="n">
-        <v>36.23333478544833</v>
+        <v>47.40900868438122</v>
       </c>
       <c r="H22" t="n">
-        <v>32.18577790310813</v>
+        <v>42.35762494475741</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1678,13 +1678,13 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>0.0843</v>
+        <v>0</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>44634</v>
+        <v>43962</v>
       </c>
       <c r="M22" t="n">
-        <v>2.084467411440016</v>
+        <v>5.217593692798886</v>
       </c>
       <c r="N22" t="n">
         <v>5</v>
@@ -1705,25 +1705,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>41.18999862670898</v>
+        <v>55.18533325195312</v>
       </c>
       <c r="C23" t="n">
-        <v>44.40000152587891</v>
+        <v>55.64799880981445</v>
       </c>
       <c r="D23" t="n">
-        <v>40.41999816894531</v>
+        <v>53.06666564941406</v>
       </c>
       <c r="E23" t="n">
-        <v>44.2599983215332</v>
+        <v>54.45866775512695</v>
       </c>
       <c r="F23" t="n">
-        <v>40.23291627031006</v>
+        <v>51.29144087796215</v>
       </c>
       <c r="G23" t="n">
-        <v>38.0170377934672</v>
+        <v>48.97559958899139</v>
       </c>
       <c r="H23" t="n">
-        <v>33.28343430478314</v>
+        <v>43.4577197457001</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1736,13 +1736,13 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>0.1012</v>
+        <v>0</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>44641</v>
+        <v>43969</v>
       </c>
       <c r="M23" t="n">
-        <v>2.084467411440016</v>
+        <v>5.217593692798886</v>
       </c>
       <c r="N23" t="n">
         <v>5</v>
@@ -1763,25 +1763,25 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>43</v>
+        <v>55.63333129882812</v>
       </c>
       <c r="C24" t="n">
-        <v>45.11999893188477</v>
+        <v>55.66666793823242</v>
       </c>
       <c r="D24" t="n">
-        <v>40.95999908447266</v>
+        <v>52.33333206176758</v>
       </c>
       <c r="E24" t="n">
-        <v>44.20000076293945</v>
+        <v>55.66666793823242</v>
       </c>
       <c r="F24" t="n">
-        <v>41.5552777678532</v>
+        <v>52.74984989805224</v>
       </c>
       <c r="G24" t="n">
-        <v>39.39102956446103</v>
+        <v>50.4625036666005</v>
       </c>
       <c r="H24" t="n">
-        <v>34.27584943734281</v>
+        <v>44.5676241268394</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1794,13 +1794,13 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>-0.1066</v>
+        <v>0</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>44648</v>
+        <v>43976</v>
       </c>
       <c r="M24" t="n">
-        <v>2.084467411440016</v>
+        <v>5.217593692798886</v>
       </c>
       <c r="N24" t="n">
         <v>5</v>
@@ -1821,25 +1821,25 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>44.79999923706055</v>
+        <v>57.20000076293945</v>
       </c>
       <c r="C25" t="n">
-        <v>45.79999923706055</v>
+        <v>60.57733154296875</v>
       </c>
       <c r="D25" t="n">
-        <v>43.54000091552734</v>
+        <v>56.93999862670898</v>
       </c>
       <c r="E25" t="n">
-        <v>45.29000091552734</v>
+        <v>59.04399871826172</v>
       </c>
       <c r="F25" t="n">
-        <v>42.80018548374458</v>
+        <v>54.84789950478874</v>
       </c>
       <c r="G25" t="n">
-        <v>40.70191208692021</v>
+        <v>52.36950256696966</v>
       </c>
       <c r="H25" t="n">
-        <v>35.27713593535958</v>
+        <v>45.88365818060506</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>44655</v>
+        <v>43983</v>
       </c>
       <c r="M25" t="n">
-        <v>2.084467411440016</v>
+        <v>5.217593692798886</v>
       </c>
       <c r="N25" t="n">
         <v>5</v>
@@ -1879,49 +1879,49 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>44.84000015258789</v>
+        <v>61.26666641235352</v>
       </c>
       <c r="C26" t="n">
-        <v>49.16999816894531</v>
+        <v>68.49866485595703</v>
       </c>
       <c r="D26" t="n">
-        <v>44.15000152587891</v>
+        <v>60.61066818237305</v>
       </c>
       <c r="E26" t="n">
-        <v>48.86999893188477</v>
+        <v>62.35200119018555</v>
       </c>
       <c r="F26" t="n">
-        <v>40.23291627031006</v>
+        <v>51.29144087796215</v>
       </c>
       <c r="G26" t="n">
-        <v>38.0170377934672</v>
+        <v>48.97559958899139</v>
       </c>
       <c r="H26" t="n">
-        <v>33.28343430478314</v>
+        <v>43.4577197457001</v>
       </c>
       <c r="I26" t="n">
-        <v>49.16999816894531</v>
+        <v>68.49866485595703</v>
       </c>
       <c r="J26" t="n">
-        <v>46.92446756402791</v>
+        <v>66.4842601051524</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>44656</v>
+        <v>43984</v>
       </c>
       <c r="M26" t="n">
-        <v>2.084467411440016</v>
+        <v>5.217593692798886</v>
       </c>
       <c r="N26" t="n">
         <v>5</v>
       </c>
       <c r="O26" t="n">
-        <v>44.84000015258789</v>
+        <v>61.26666641235352</v>
       </c>
       <c r="P26" t="n">
-        <v>465</v>
+        <v>850</v>
       </c>
     </row>
     <row r="27">
@@ -1929,25 +1929,25 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>24.75</v>
+        <v>357.8900146484375</v>
       </c>
       <c r="C27" t="n">
-        <v>25.5</v>
+        <v>373</v>
       </c>
       <c r="D27" t="n">
-        <v>23.56999969482422</v>
+        <v>351.0499877929688</v>
       </c>
       <c r="E27" t="n">
-        <v>23.70000076293945</v>
+        <v>352.260009765625</v>
       </c>
       <c r="F27" t="n">
-        <v>24.3995396472399</v>
+        <v>345.2316081188316</v>
       </c>
       <c r="G27" t="n">
-        <v>25.20361178563936</v>
+        <v>341.5029633699943</v>
       </c>
       <c r="H27" t="n">
-        <v>27.02429262687798</v>
+        <v>311.371010553533</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1960,13 +1960,13 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.1186</v>
       </c>
       <c r="L27" s="2" t="n">
         <v>44557</v>
       </c>
       <c r="M27" t="n">
-        <v>2.430000305175781</v>
+        <v>-19.47000122070312</v>
       </c>
       <c r="N27" t="n">
         <v>6</v>
@@ -1987,25 +1987,25 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>23.95000076293945</v>
+        <v>382.5833435058594</v>
       </c>
       <c r="C28" t="n">
-        <v>28.5</v>
+        <v>402.6666564941406</v>
       </c>
       <c r="D28" t="n">
-        <v>23.82999992370605</v>
+        <v>336.6666564941406</v>
       </c>
       <c r="E28" t="n">
-        <v>27.78000068664551</v>
+        <v>342.3200073242188</v>
       </c>
       <c r="F28" t="n">
-        <v>25.52635999370844</v>
+        <v>344.2610745206273</v>
       </c>
       <c r="G28" t="n">
-        <v>25.77614265252962</v>
+        <v>341.6845286931553</v>
       </c>
       <c r="H28" t="n">
-        <v>27.09299335958411</v>
+        <v>314.1845557145044</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -2018,13 +2018,13 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.1091</v>
       </c>
       <c r="L28" s="2" t="n">
         <v>44564</v>
       </c>
       <c r="M28" t="n">
-        <v>2.430000305175781</v>
+        <v>-19.47000122070312</v>
       </c>
       <c r="N28" t="n">
         <v>6</v>
@@ -2045,25 +2045,25 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>27.93000030517578</v>
+        <v>333.3333435058594</v>
       </c>
       <c r="C29" t="n">
-        <v>30.6299991607666</v>
+        <v>371.8666687011719</v>
       </c>
       <c r="D29" t="n">
-        <v>27.36000061035156</v>
+        <v>326.6666564941406</v>
       </c>
       <c r="E29" t="n">
-        <v>30.39999961853027</v>
+        <v>349.8699951171875</v>
       </c>
       <c r="F29" t="n">
-        <v>27.15090653531572</v>
+        <v>346.1307147194807</v>
       </c>
       <c r="G29" t="n">
-        <v>26.80366642275198</v>
+        <v>343.5035212318292</v>
       </c>
       <c r="H29" t="n">
-        <v>27.39363029221558</v>
+        <v>317.4286865692937</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -2076,13 +2076,13 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>0.1012</v>
+        <v>0.1062</v>
       </c>
       <c r="L29" s="2" t="n">
         <v>44571</v>
       </c>
       <c r="M29" t="n">
-        <v>2.430000305175781</v>
+        <v>-19.47000122070312</v>
       </c>
       <c r="N29" t="n">
         <v>6</v>
@@ -2103,25 +2103,25 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>31.11000061035156</v>
+        <v>342.2033386230469</v>
       </c>
       <c r="C30" t="n">
-        <v>31.23999977111816</v>
+        <v>356.9299926757812</v>
       </c>
       <c r="D30" t="n">
-        <v>26.70999908447266</v>
+        <v>313.5</v>
       </c>
       <c r="E30" t="n">
-        <v>26.96999931335449</v>
+        <v>314.6333312988281</v>
       </c>
       <c r="F30" t="n">
-        <v>27.09060412799531</v>
+        <v>335.6315869125965</v>
       </c>
       <c r="G30" t="n">
-        <v>26.84062928733032</v>
+        <v>337.0879234689401</v>
       </c>
       <c r="H30" t="n">
-        <v>27.35511838504639</v>
+        <v>317.1745633628878</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -2134,13 +2134,13 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>0.2385</v>
+        <v>0.1076</v>
       </c>
       <c r="L30" s="2" t="n">
         <v>44578</v>
       </c>
       <c r="M30" t="n">
-        <v>2.430000305175781</v>
+        <v>-19.47000122070312</v>
       </c>
       <c r="N30" t="n">
         <v>6</v>
@@ -2161,31 +2161,31 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>26.01000022888184</v>
+        <v>301.586669921875</v>
       </c>
       <c r="C31" t="n">
-        <v>29.8700008392334</v>
+        <v>329.2300109863281</v>
       </c>
       <c r="D31" t="n">
-        <v>25.55999946594238</v>
+        <v>264.0033264160156</v>
       </c>
       <c r="E31" t="n">
-        <v>28.44000053405762</v>
+        <v>282.1166687011719</v>
       </c>
       <c r="F31" t="n">
-        <v>25.52635999370844</v>
+        <v>344.2610745206273</v>
       </c>
       <c r="G31" t="n">
-        <v>25.77614265252962</v>
+        <v>341.6845286931553</v>
       </c>
       <c r="H31" t="n">
-        <v>27.09299335958411</v>
+        <v>314.1845557145044</v>
       </c>
       <c r="I31" t="n">
-        <v>29.8700008392334</v>
+        <v>329.2300109863281</v>
       </c>
       <c r="J31" t="n">
-        <v>30.15324648252954</v>
+        <v>347.4704685298202</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>44579</v>
       </c>
       <c r="M31" t="n">
-        <v>2.430000305175781</v>
+        <v>-19.47000122070312</v>
       </c>
       <c r="N31" t="n">
         <v>6</v>
       </c>
       <c r="O31" t="n">
-        <v>26.01000022888184</v>
+        <v>301.586669921875</v>
       </c>
       <c r="P31" t="n">
-        <v>933</v>
+        <v>-643</v>
       </c>
     </row>
     <row r="32">
@@ -2211,25 +2211,25 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>29.09000015258789</v>
+        <v>193.8666687011719</v>
       </c>
       <c r="C32" t="n">
-        <v>29.20000076293945</v>
+        <v>211.8633270263672</v>
       </c>
       <c r="D32" t="n">
-        <v>27.21999931335449</v>
+        <v>191.2166595458984</v>
       </c>
       <c r="E32" t="n">
-        <v>28.25</v>
+        <v>208.4066619873047</v>
       </c>
       <c r="F32" t="n">
-        <v>28.39312492824711</v>
+        <v>210.2416427533253</v>
       </c>
       <c r="G32" t="n">
-        <v>28.22580091796569</v>
+        <v>215.32124046287</v>
       </c>
       <c r="H32" t="n">
-        <v>27.02700838015848</v>
+        <v>218.0579855116171</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>44340</v>
       </c>
       <c r="M32" t="n">
-        <v>3.328127622424915</v>
+        <v>17.88176348593151</v>
       </c>
       <c r="N32" t="n">
         <v>7</v>
@@ -2269,25 +2269,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>29.04999923706055</v>
+        <v>209.2666625976562</v>
       </c>
       <c r="C33" t="n">
-        <v>33.65000152587891</v>
+        <v>211.2666625976562</v>
       </c>
       <c r="D33" t="n">
-        <v>28.96999931335449</v>
+        <v>190.4066619873047</v>
       </c>
       <c r="E33" t="n">
-        <v>33.4900016784668</v>
+        <v>199.6833343505859</v>
       </c>
       <c r="F33" t="n">
-        <v>30.09208384498701</v>
+        <v>206.7222066190789</v>
       </c>
       <c r="G33" t="n">
-        <v>29.39562330918816</v>
+        <v>211.8461502156958</v>
       </c>
       <c r="H33" t="n">
-        <v>27.61455322545923</v>
+        <v>216.3875626787961</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44347</v>
       </c>
       <c r="M33" t="n">
-        <v>3.328127622424915</v>
+        <v>17.88176348593151</v>
       </c>
       <c r="N33" t="n">
         <v>7</v>
@@ -2327,25 +2327,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>33.59000015258789</v>
+        <v>197.2766723632812</v>
       </c>
       <c r="C34" t="n">
-        <v>33.77999877929688</v>
+        <v>207.6966705322266</v>
       </c>
       <c r="D34" t="n">
-        <v>32.02999877929688</v>
+        <v>194.2933349609375</v>
       </c>
       <c r="E34" t="n">
-        <v>32.97999954223633</v>
+        <v>203.2966613769531</v>
       </c>
       <c r="F34" t="n">
-        <v>31.05472241073678</v>
+        <v>205.580358205037</v>
       </c>
       <c r="G34" t="n">
-        <v>30.19215136097664</v>
+        <v>209.9462638070863</v>
       </c>
       <c r="H34" t="n">
-        <v>28.10232107243896</v>
+        <v>215.1974807422649</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         <v>44354</v>
       </c>
       <c r="M34" t="n">
-        <v>3.328127622424915</v>
+        <v>17.88176348593151</v>
       </c>
       <c r="N34" t="n">
         <v>7</v>
@@ -2385,25 +2385,25 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>33.0099983215332</v>
+        <v>204.07666015625</v>
       </c>
       <c r="C35" t="n">
-        <v>36.2599983215332</v>
+        <v>209.4499969482422</v>
       </c>
       <c r="D35" t="n">
-        <v>31.07999992370605</v>
+        <v>197.8333282470703</v>
       </c>
       <c r="E35" t="n">
-        <v>31.80999946594238</v>
+        <v>207.7700042724609</v>
       </c>
       <c r="F35" t="n">
-        <v>31.30648142913865</v>
+        <v>206.3102402275117</v>
       </c>
       <c r="G35" t="n">
-        <v>30.55167316208014</v>
+        <v>209.4626505771695</v>
       </c>
       <c r="H35" t="n">
-        <v>28.43938274457564</v>
+        <v>214.5222556086464</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>44361</v>
       </c>
       <c r="M35" t="n">
-        <v>3.328127622424915</v>
+        <v>17.88176348593151</v>
       </c>
       <c r="N35" t="n">
         <v>7</v>
@@ -2443,31 +2443,31 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>32.20999908447266</v>
+        <v>208.1600036621094</v>
       </c>
       <c r="C36" t="n">
-        <v>35.77999877929688</v>
+        <v>232.5399932861328</v>
       </c>
       <c r="D36" t="n">
-        <v>32.16999816894531</v>
+        <v>202.9600067138672</v>
       </c>
       <c r="E36" t="n">
-        <v>33.45000076293945</v>
+        <v>223.9566650390625</v>
       </c>
       <c r="F36" t="n">
-        <v>30.09208384498701</v>
+        <v>206.7222066190789</v>
       </c>
       <c r="G36" t="n">
-        <v>29.39562330918816</v>
+        <v>211.8461502156958</v>
       </c>
       <c r="H36" t="n">
-        <v>27.61455322545923</v>
+        <v>216.3875626787961</v>
       </c>
       <c r="I36" t="n">
-        <v>35.77999877929688</v>
+        <v>232.5399932861328</v>
       </c>
       <c r="J36" t="n">
-        <v>35.53812670689757</v>
+        <v>226.0417671480409</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -2476,16 +2476,16 @@
         <v>44362</v>
       </c>
       <c r="M36" t="n">
-        <v>3.328127622424915</v>
+        <v>17.88176348593151</v>
       </c>
       <c r="N36" t="n">
         <v>7</v>
       </c>
       <c r="O36" t="n">
-        <v>32.20999908447266</v>
+        <v>208.1600036621094</v>
       </c>
       <c r="P36" t="n">
-        <v>1032</v>
+        <v>858</v>
       </c>
     </row>
     <row r="37">
@@ -2493,25 +2493,25 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>23.95000076293945</v>
+        <v>382.5833435058594</v>
       </c>
       <c r="C37" t="n">
-        <v>28.5</v>
+        <v>402.6666564941406</v>
       </c>
       <c r="D37" t="n">
-        <v>23.82999992370605</v>
+        <v>336.6666564941406</v>
       </c>
       <c r="E37" t="n">
-        <v>27.78000068664551</v>
+        <v>342.3200073242188</v>
       </c>
       <c r="F37" t="n">
-        <v>25.52635999370844</v>
+        <v>344.2610745206273</v>
       </c>
       <c r="G37" t="n">
-        <v>25.77614265252962</v>
+        <v>341.6845286931553</v>
       </c>
       <c r="H37" t="n">
-        <v>27.09299335958411</v>
+        <v>314.1845557145044</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2524,13 +2524,13 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>0.1091</v>
       </c>
       <c r="L37" s="2" t="n">
         <v>44564</v>
       </c>
       <c r="M37" t="n">
-        <v>3.162642265084401</v>
+        <v>16.87002563476562</v>
       </c>
       <c r="N37" t="n">
         <v>8</v>
@@ -2551,25 +2551,25 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>27.93000030517578</v>
+        <v>333.3333435058594</v>
       </c>
       <c r="C38" t="n">
-        <v>30.6299991607666</v>
+        <v>371.8666687011719</v>
       </c>
       <c r="D38" t="n">
-        <v>27.36000061035156</v>
+        <v>326.6666564941406</v>
       </c>
       <c r="E38" t="n">
-        <v>30.39999961853027</v>
+        <v>349.8699951171875</v>
       </c>
       <c r="F38" t="n">
-        <v>27.15090653531572</v>
+        <v>346.1307147194807</v>
       </c>
       <c r="G38" t="n">
-        <v>26.80366642275198</v>
+        <v>343.5035212318292</v>
       </c>
       <c r="H38" t="n">
-        <v>27.39363029221558</v>
+        <v>317.4286865692937</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2582,13 +2582,13 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>0.1012</v>
+        <v>0.1062</v>
       </c>
       <c r="L38" s="2" t="n">
         <v>44571</v>
       </c>
       <c r="M38" t="n">
-        <v>3.162642265084401</v>
+        <v>16.87002563476562</v>
       </c>
       <c r="N38" t="n">
         <v>8</v>
@@ -2609,25 +2609,25 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>31.11000061035156</v>
+        <v>342.2033386230469</v>
       </c>
       <c r="C39" t="n">
-        <v>31.23999977111816</v>
+        <v>356.9299926757812</v>
       </c>
       <c r="D39" t="n">
-        <v>26.70999908447266</v>
+        <v>313.5</v>
       </c>
       <c r="E39" t="n">
-        <v>26.96999931335449</v>
+        <v>314.6333312988281</v>
       </c>
       <c r="F39" t="n">
-        <v>27.09060412799531</v>
+        <v>335.6315869125965</v>
       </c>
       <c r="G39" t="n">
-        <v>26.84062928733032</v>
+        <v>337.0879234689401</v>
       </c>
       <c r="H39" t="n">
-        <v>27.35511838504639</v>
+        <v>317.1745633628878</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2640,13 +2640,13 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>0.2385</v>
+        <v>0.1076</v>
       </c>
       <c r="L39" s="2" t="n">
         <v>44578</v>
       </c>
       <c r="M39" t="n">
-        <v>3.162642265084401</v>
+        <v>16.87002563476562</v>
       </c>
       <c r="N39" t="n">
         <v>8</v>
@@ -2667,25 +2667,25 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>26.01000022888184</v>
+        <v>301.586669921875</v>
       </c>
       <c r="C40" t="n">
-        <v>29.8700008392334</v>
+        <v>329.2300109863281</v>
       </c>
       <c r="D40" t="n">
-        <v>25.55999946594238</v>
+        <v>264.0033264160156</v>
       </c>
       <c r="E40" t="n">
-        <v>28.44000053405762</v>
+        <v>282.1166687011719</v>
       </c>
       <c r="F40" t="n">
-        <v>27.54040293001608</v>
+        <v>317.7932808421216</v>
       </c>
       <c r="G40" t="n">
-        <v>27.19604511993639</v>
+        <v>324.8720890761027</v>
       </c>
       <c r="H40" t="n">
-        <v>27.4537440349565</v>
+        <v>313.9874820300045</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2698,13 +2698,13 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>0.2023</v>
+        <v>0.05165</v>
       </c>
       <c r="L40" s="2" t="n">
         <v>44585</v>
       </c>
       <c r="M40" t="n">
-        <v>3.162642265084401</v>
+        <v>16.87002563476562</v>
       </c>
       <c r="N40" t="n">
         <v>8</v>
@@ -2725,31 +2725,31 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>28.04000091552734</v>
+        <v>290.9033203125</v>
       </c>
       <c r="C41" t="n">
-        <v>32.79000091552734</v>
+        <v>314.5666809082031</v>
       </c>
       <c r="D41" t="n">
-        <v>27.70999908447266</v>
+        <v>287.3500061035156</v>
       </c>
       <c r="E41" t="n">
-        <v>32.47999954223633</v>
+        <v>307.7733459472656</v>
       </c>
       <c r="F41" t="n">
-        <v>27.15090653531572</v>
+        <v>346.1307147194807</v>
       </c>
       <c r="G41" t="n">
-        <v>26.80366642275198</v>
+        <v>343.5035212318292</v>
       </c>
       <c r="H41" t="n">
-        <v>27.39363029221558</v>
+        <v>317.4286865692937</v>
       </c>
       <c r="I41" t="n">
-        <v>32.79000091552734</v>
+        <v>314.5666809082031</v>
       </c>
       <c r="J41" t="n">
-        <v>31.20264318061174</v>
+        <v>351.3585210560559</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>44586</v>
       </c>
       <c r="M41" t="n">
-        <v>3.162642265084401</v>
+        <v>16.87002563476562</v>
       </c>
       <c r="N41" t="n">
         <v>8</v>
       </c>
       <c r="O41" t="n">
-        <v>28.04000091552734</v>
+        <v>290.9033203125</v>
       </c>
       <c r="P41" t="n">
-        <v>1129</v>
+        <v>574</v>
       </c>
     </row>
     <row r="42">
@@ -2775,25 +2775,25 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>24.47999954223633</v>
+        <v>333.6966552734375</v>
       </c>
       <c r="C42" t="n">
-        <v>24.88999938964844</v>
+        <v>335</v>
       </c>
       <c r="D42" t="n">
-        <v>22.51000022888184</v>
+        <v>303.0133361816406</v>
       </c>
       <c r="E42" t="n">
-        <v>23.42000007629395</v>
+        <v>310.8566589355469</v>
       </c>
       <c r="F42" t="n">
-        <v>24.74896363408517</v>
+        <v>334.7427826960819</v>
       </c>
       <c r="G42" t="n">
-        <v>25.88556205926282</v>
+        <v>333.5046258422514</v>
       </c>
       <c r="H42" t="n">
-        <v>27.61739399459901</v>
+        <v>302.4436560461421</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>44543</v>
       </c>
       <c r="M42" t="n">
-        <v>0.5456320876553491</v>
+        <v>16.53665161132812</v>
       </c>
       <c r="N42" t="n">
         <v>9</v>
@@ -2833,25 +2833,25 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>22.68000030517578</v>
+        <v>303.5666809082031</v>
       </c>
       <c r="C43" t="n">
-        <v>25.42000007629395</v>
+        <v>357.6600036621094</v>
       </c>
       <c r="D43" t="n">
-        <v>22.14999961853027</v>
+        <v>295.3733215332031</v>
       </c>
       <c r="E43" t="n">
-        <v>24.75</v>
+        <v>355.6666564941406</v>
       </c>
       <c r="F43" t="n">
-        <v>24.74930908939012</v>
+        <v>341.7174072954348</v>
       </c>
       <c r="G43" t="n">
-        <v>25.6332149349822</v>
+        <v>338.4295215426712</v>
       </c>
       <c r="H43" t="n">
-        <v>27.35672181327183</v>
+        <v>307.2821106323238</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2864,13 +2864,13 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>0.14745</v>
       </c>
       <c r="L43" s="2" t="n">
         <v>44550</v>
       </c>
       <c r="M43" t="n">
-        <v>0.5456320876553491</v>
+        <v>16.53665161132812</v>
       </c>
       <c r="N43" t="n">
         <v>9</v>
@@ -2891,25 +2891,25 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>24.75</v>
+        <v>357.8900146484375</v>
       </c>
       <c r="C44" t="n">
-        <v>25.5</v>
+        <v>373</v>
       </c>
       <c r="D44" t="n">
-        <v>23.56999969482422</v>
+        <v>351.0499877929688</v>
       </c>
       <c r="E44" t="n">
-        <v>23.70000076293945</v>
+        <v>352.260009765625</v>
       </c>
       <c r="F44" t="n">
-        <v>24.3995396472399</v>
+        <v>345.2316081188316</v>
       </c>
       <c r="G44" t="n">
-        <v>25.20361178563936</v>
+        <v>341.5029633699943</v>
       </c>
       <c r="H44" t="n">
-        <v>27.02429262687798</v>
+        <v>311.371010553533</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2922,13 +2922,13 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>0.1186</v>
       </c>
       <c r="L44" s="2" t="n">
         <v>44557</v>
       </c>
       <c r="M44" t="n">
-        <v>0.5456320876553491</v>
+        <v>16.53665161132812</v>
       </c>
       <c r="N44" t="n">
         <v>9</v>
@@ -2949,25 +2949,25 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>23.95000076293945</v>
+        <v>382.5833435058594</v>
       </c>
       <c r="C45" t="n">
-        <v>28.5</v>
+        <v>402.6666564941406</v>
       </c>
       <c r="D45" t="n">
-        <v>23.82999992370605</v>
+        <v>336.6666564941406</v>
       </c>
       <c r="E45" t="n">
-        <v>27.78000068664551</v>
+        <v>342.3200073242188</v>
       </c>
       <c r="F45" t="n">
-        <v>25.52635999370844</v>
+        <v>344.2610745206273</v>
       </c>
       <c r="G45" t="n">
-        <v>25.77614265252962</v>
+        <v>341.6845286931553</v>
       </c>
       <c r="H45" t="n">
-        <v>27.09299335958411</v>
+        <v>314.1845557145044</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2980,13 +2980,13 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>0.1091</v>
       </c>
       <c r="L45" s="2" t="n">
         <v>44564</v>
       </c>
       <c r="M45" t="n">
-        <v>0.5456320876553491</v>
+        <v>16.53665161132812</v>
       </c>
       <c r="N45" t="n">
         <v>9</v>
@@ -3007,31 +3007,31 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>27.93000030517578</v>
+        <v>333.3333435058594</v>
       </c>
       <c r="C46" t="n">
-        <v>30.6299991607666</v>
+        <v>371.8666687011719</v>
       </c>
       <c r="D46" t="n">
-        <v>27.36000061035156</v>
+        <v>326.6666564941406</v>
       </c>
       <c r="E46" t="n">
-        <v>30.39999961853027</v>
+        <v>349.8699951171875</v>
       </c>
       <c r="F46" t="n">
-        <v>24.74930908939012</v>
+        <v>341.7174072954348</v>
       </c>
       <c r="G46" t="n">
-        <v>25.6332149349822</v>
+        <v>338.4295215426712</v>
       </c>
       <c r="H46" t="n">
-        <v>27.35672181327183</v>
+        <v>307.2821106323238</v>
       </c>
       <c r="I46" t="n">
-        <v>30.6299991607666</v>
+        <v>371.8666687011719</v>
       </c>
       <c r="J46" t="n">
-        <v>28.47563239283113</v>
+        <v>394.8653285337205</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -3040,16 +3040,16 @@
         <v>44565</v>
       </c>
       <c r="M46" t="n">
-        <v>0.5456320876553491</v>
+        <v>16.53665161132812</v>
       </c>
       <c r="N46" t="n">
         <v>9</v>
       </c>
       <c r="O46" t="n">
-        <v>27.93000030517578</v>
+        <v>333.3333435058594</v>
       </c>
       <c r="P46" t="n">
-        <v>195</v>
+        <v>496</v>
       </c>
     </row>
     <row r="47">
@@ -3057,25 +3057,25 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>15.36999988555908</v>
+        <v>137.2100067138672</v>
       </c>
       <c r="C47" t="n">
-        <v>15.36999988555908</v>
+        <v>143.5</v>
       </c>
       <c r="D47" t="n">
-        <v>13.69999980926514</v>
+        <v>126.370002746582</v>
       </c>
       <c r="E47" t="n">
-        <v>14.86999988555908</v>
+        <v>129.3466644287109</v>
       </c>
       <c r="F47" t="n">
-        <v>15.02235074742497</v>
+        <v>137.1053906995543</v>
       </c>
       <c r="G47" t="n">
-        <v>15.28262992931183</v>
+        <v>135.5117746106091</v>
       </c>
       <c r="H47" t="n">
-        <v>17.45713535107871</v>
+        <v>116.0757099772963</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>44130</v>
       </c>
       <c r="M47" t="n">
-        <v>2.477832903285901</v>
+        <v>29.31853075802556</v>
       </c>
       <c r="N47" t="n">
         <v>10</v>
@@ -3115,25 +3115,25 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>15.0600004196167</v>
+        <v>131.3333282470703</v>
       </c>
       <c r="C48" t="n">
-        <v>16.21999931335449</v>
+        <v>146.6666717529297</v>
       </c>
       <c r="D48" t="n">
-        <v>14.60999965667725</v>
+        <v>130.7666625976562</v>
       </c>
       <c r="E48" t="n">
-        <v>15.14999961853027</v>
+        <v>143.3166656494141</v>
       </c>
       <c r="F48" t="n">
-        <v>15.06490037112674</v>
+        <v>139.1758156828409</v>
       </c>
       <c r="G48" t="n">
-        <v>15.25315652691593</v>
+        <v>137.2461948414547</v>
       </c>
       <c r="H48" t="n">
-        <v>17.24739573902885</v>
+        <v>118.5521604929433</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>44137</v>
       </c>
       <c r="M48" t="n">
-        <v>2.477832903285901</v>
+        <v>29.31853075802556</v>
       </c>
       <c r="N48" t="n">
         <v>10</v>
@@ -3173,25 +3173,25 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>16.89999961853027</v>
+        <v>146.5</v>
       </c>
       <c r="C49" t="n">
-        <v>17.95999908447266</v>
+        <v>150.8333282470703</v>
       </c>
       <c r="D49" t="n">
-        <v>16.42000007629395</v>
+        <v>132.0099945068359</v>
       </c>
       <c r="E49" t="n">
-        <v>17.27000045776367</v>
+        <v>136.1666717529297</v>
       </c>
       <c r="F49" t="n">
-        <v>15.79993373333905</v>
+        <v>138.1727677062038</v>
       </c>
       <c r="G49" t="n">
-        <v>15.70134406710432</v>
+        <v>137.0063008217824</v>
       </c>
       <c r="H49" t="n">
-        <v>17.24945071345929</v>
+        <v>120.1534796983966</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>44144</v>
       </c>
       <c r="M49" t="n">
-        <v>2.477832903285901</v>
+        <v>29.31853075802556</v>
       </c>
       <c r="N49" t="n">
         <v>10</v>
@@ -3231,25 +3231,25 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>17.97999954223633</v>
+        <v>136.3099975585938</v>
       </c>
       <c r="C50" t="n">
-        <v>21</v>
+        <v>169.5366668701172</v>
       </c>
       <c r="D50" t="n">
-        <v>17.77000045776367</v>
+        <v>134.6966705322266</v>
       </c>
       <c r="E50" t="n">
-        <v>20.15999984741211</v>
+        <v>163.2033386230469</v>
       </c>
       <c r="F50" t="n">
-        <v>17.25328910469674</v>
+        <v>146.5162913451515</v>
       </c>
       <c r="G50" t="n">
-        <v>16.69215646272827</v>
+        <v>142.827864777619</v>
       </c>
       <c r="H50" t="n">
-        <v>17.51404608927318</v>
+        <v>124.0671032370012</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>44151</v>
       </c>
       <c r="M50" t="n">
-        <v>2.477832903285901</v>
+        <v>29.31853075802556</v>
       </c>
       <c r="N50" t="n">
         <v>10</v>
@@ -3289,31 +3289,31 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20.65999984741211</v>
+        <v>167.8333282470703</v>
       </c>
       <c r="C51" t="n">
-        <v>24.8700008392334</v>
+        <v>199.5933380126953</v>
       </c>
       <c r="D51" t="n">
-        <v>20.65999984741211</v>
+        <v>167.2633361816406</v>
       </c>
       <c r="E51" t="n">
-        <v>23.75</v>
+        <v>195.2533264160156</v>
       </c>
       <c r="F51" t="n">
-        <v>15.06490037112674</v>
+        <v>139.1758156828409</v>
       </c>
       <c r="G51" t="n">
-        <v>15.25315652691593</v>
+        <v>137.2461948414547</v>
       </c>
       <c r="H51" t="n">
-        <v>17.24739573902885</v>
+        <v>118.5521604929433</v>
       </c>
       <c r="I51" t="n">
-        <v>24.8700008392334</v>
+        <v>199.5933380126953</v>
       </c>
       <c r="J51" t="n">
-        <v>23.13783275069801</v>
+        <v>197.1518590050959</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -3322,16 +3322,16 @@
         <v>44152</v>
       </c>
       <c r="M51" t="n">
-        <v>2.477832903285901</v>
+        <v>29.31853075802556</v>
       </c>
       <c r="N51" t="n">
         <v>10</v>
       </c>
       <c r="O51" t="n">
-        <v>20.65999984741211</v>
+        <v>167.8333282470703</v>
       </c>
       <c r="P51" t="n">
-        <v>1199</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="52">
@@ -3339,25 +3339,25 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>20.01000022888184</v>
+        <v>40.35933303833008</v>
       </c>
       <c r="C52" t="n">
-        <v>23.03000068664551</v>
+        <v>44.53333282470703</v>
       </c>
       <c r="D52" t="n">
-        <v>15.5</v>
+        <v>33.46666717529297</v>
       </c>
       <c r="E52" t="n">
-        <v>17.51000022888184</v>
+        <v>36.44133377075195</v>
       </c>
       <c r="F52" t="n">
-        <v>30.52124489849474</v>
+        <v>44.03493730960793</v>
       </c>
       <c r="G52" t="n">
-        <v>34.44259322931516</v>
+        <v>43.68045586820813</v>
       </c>
       <c r="H52" t="n">
-        <v>40.36759274571563</v>
+        <v>38.80523988991412</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43899</v>
       </c>
       <c r="M52" t="n">
-        <v>2.790000915527344</v>
+        <v>0.7913635708900983</v>
       </c>
       <c r="N52" t="n">
         <v>11</v>
@@ -3397,25 +3397,25 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>15.06999969482422</v>
+        <v>31.29999923706055</v>
       </c>
       <c r="C53" t="n">
-        <v>17.81999969482422</v>
+        <v>32.9913330078125</v>
       </c>
       <c r="D53" t="n">
-        <v>12.39999961853027</v>
+        <v>23.36733245849609</v>
       </c>
       <c r="E53" t="n">
-        <v>13.15999984741211</v>
+        <v>28.50200080871582</v>
       </c>
       <c r="F53" t="n">
-        <v>24.73416321480053</v>
+        <v>38.85729180931056</v>
       </c>
       <c r="G53" t="n">
-        <v>29.71312803333671</v>
+        <v>40.30746585498761</v>
       </c>
       <c r="H53" t="n">
-        <v>37.89417520950622</v>
+        <v>37.86858179162336</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43906</v>
       </c>
       <c r="M53" t="n">
-        <v>2.790000915527344</v>
+        <v>0.7913635708900983</v>
       </c>
       <c r="N53" t="n">
         <v>11</v>
@@ -3455,25 +3455,25 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>13.3100004196167</v>
+        <v>28.90666770935059</v>
       </c>
       <c r="C54" t="n">
-        <v>19.21999931335449</v>
+        <v>37.33333206176758</v>
       </c>
       <c r="D54" t="n">
-        <v>12.88000011444092</v>
+        <v>27.36666679382324</v>
       </c>
       <c r="E54" t="n">
-        <v>16.84000015258789</v>
+        <v>34.29066848754883</v>
       </c>
       <c r="F54" t="n">
-        <v>22.10277552739632</v>
+        <v>37.33508403538998</v>
       </c>
       <c r="G54" t="n">
-        <v>26.85243294872586</v>
+        <v>38.97039977333455</v>
       </c>
       <c r="H54" t="n">
-        <v>35.98015929524092</v>
+        <v>37.54331694579841</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>43913</v>
       </c>
       <c r="M54" t="n">
-        <v>2.790000915527344</v>
+        <v>0.7913635708900983</v>
       </c>
       <c r="N54" t="n">
         <v>11</v>
@@ -3513,25 +3513,25 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>16.04000091552734</v>
+        <v>34.017333984375</v>
       </c>
       <c r="C55" t="n">
-        <v>17.8700008392334</v>
+        <v>36.19733428955078</v>
       </c>
       <c r="D55" t="n">
-        <v>13.4399995803833</v>
+        <v>29.76000022888184</v>
       </c>
       <c r="E55" t="n">
-        <v>15.46000003814697</v>
+        <v>32.00066757202148</v>
       </c>
       <c r="F55" t="n">
-        <v>19.88851703097987</v>
+        <v>35.55694521426715</v>
       </c>
       <c r="G55" t="n">
-        <v>24.32078119081944</v>
+        <v>37.42157039526498</v>
       </c>
       <c r="H55" t="n">
-        <v>34.11469027186874</v>
+        <v>37.03943973000051</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         <v>43920</v>
       </c>
       <c r="M55" t="n">
-        <v>2.790000915527344</v>
+        <v>0.7913635708900983</v>
       </c>
       <c r="N55" t="n">
         <v>11</v>
@@ -3571,31 +3571,31 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>16.38999938964844</v>
+        <v>34.08000183105469</v>
       </c>
       <c r="C56" t="n">
-        <v>21.32999992370605</v>
+        <v>38.34533309936523</v>
       </c>
       <c r="D56" t="n">
-        <v>15.67000007629395</v>
+        <v>33.19733428955078</v>
       </c>
       <c r="E56" t="n">
-        <v>19.18000030517578</v>
+        <v>38.20000076293945</v>
       </c>
       <c r="F56" t="n">
-        <v>24.73416321480053</v>
+        <v>38.85729180931056</v>
       </c>
       <c r="G56" t="n">
-        <v>29.71312803333671</v>
+        <v>40.30746585498761</v>
       </c>
       <c r="H56" t="n">
-        <v>37.89417520950622</v>
+        <v>37.86858179162336</v>
       </c>
       <c r="I56" t="n">
-        <v>21.32999992370605</v>
+        <v>38.34533309936523</v>
       </c>
       <c r="J56" t="n">
-        <v>24.0830624279543</v>
+        <v>34.87136540194479</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
@@ -3604,16 +3604,16 @@
         <v>43921</v>
       </c>
       <c r="M56" t="n">
-        <v>2.790000915527344</v>
+        <v>0.7913635708900983</v>
       </c>
       <c r="N56" t="n">
         <v>11</v>
       </c>
       <c r="O56" t="n">
-        <v>16.38999938964844</v>
+        <v>34.08000183105469</v>
       </c>
       <c r="P56" t="n">
-        <v>1702</v>
+        <v>232</v>
       </c>
     </row>
     <row r="57">
@@ -3621,25 +3621,25 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>18.64999961853027</v>
+        <v>111.8000030517578</v>
       </c>
       <c r="C57" t="n">
-        <v>19</v>
+        <v>139.6993255615234</v>
       </c>
       <c r="D57" t="n">
-        <v>16.70000076293945</v>
+        <v>111.5220031738281</v>
       </c>
       <c r="E57" t="n">
-        <v>16.8799991607666</v>
+        <v>136.6653289794922</v>
       </c>
       <c r="F57" t="n">
-        <v>18.12700313328816</v>
+        <v>111.3812847529785</v>
       </c>
       <c r="G57" t="n">
-        <v>18.51778898896941</v>
+        <v>102.4137890370577</v>
       </c>
       <c r="H57" t="n">
-        <v>21.20437665999248</v>
+        <v>79.4203750881608</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>44060</v>
       </c>
       <c r="M57" t="n">
-        <v>1.139999389648438</v>
+        <v>24.68666669673968</v>
       </c>
       <c r="N57" t="n">
         <v>12</v>
@@ -3679,25 +3679,25 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>16.55999946594238</v>
+        <v>141.7519989013672</v>
       </c>
       <c r="C58" t="n">
-        <v>17.64999961853027</v>
+        <v>154.5659942626953</v>
       </c>
       <c r="D58" t="n">
-        <v>16.35000038146973</v>
+        <v>128.5013275146484</v>
       </c>
       <c r="E58" t="n">
-        <v>16.98999977111816</v>
+        <v>147.5599975585938</v>
       </c>
       <c r="F58" t="n">
-        <v>17.74800201256483</v>
+        <v>123.4408556881836</v>
       </c>
       <c r="G58" t="n">
-        <v>18.17828027389135</v>
+        <v>112.4462798196212</v>
       </c>
       <c r="H58" t="n">
-        <v>20.82125148827663</v>
+        <v>85.61488622183653</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>44067</v>
       </c>
       <c r="M58" t="n">
-        <v>1.139999389648438</v>
+        <v>24.68666669673968</v>
       </c>
       <c r="N58" t="n">
         <v>12</v>
@@ -3737,25 +3737,25 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>17.09000015258789</v>
+        <v>148.2033386230469</v>
       </c>
       <c r="C59" t="n">
-        <v>17.19000053405762</v>
+        <v>167.4966735839844</v>
       </c>
       <c r="D59" t="n">
-        <v>15.47999954223633</v>
+        <v>124.0066680908203</v>
       </c>
       <c r="E59" t="n">
-        <v>16.02000045776367</v>
+        <v>139.4400024414062</v>
       </c>
       <c r="F59" t="n">
-        <v>17.17200149429777</v>
+        <v>128.7739046059245</v>
       </c>
       <c r="G59" t="n">
-        <v>17.69866253697409</v>
+        <v>118.4448848466846</v>
       </c>
       <c r="H59" t="n">
-        <v>20.38477412186636</v>
+        <v>90.50807860543377</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>44074</v>
       </c>
       <c r="M59" t="n">
-        <v>1.139999389648438</v>
+        <v>24.68666669673968</v>
       </c>
       <c r="N59" t="n">
         <v>12</v>
@@ -3795,25 +3795,25 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>15.57999992370605</v>
+        <v>118.6666641235352</v>
       </c>
       <c r="C60" t="n">
-        <v>15.65999984741211</v>
+        <v>132.9966735839844</v>
       </c>
       <c r="D60" t="n">
-        <v>14.38000011444092</v>
+        <v>109.9599990844727</v>
       </c>
       <c r="E60" t="n">
-        <v>14.94999980926514</v>
+        <v>124.2399978637695</v>
       </c>
       <c r="F60" t="n">
-        <v>16.43133426595356</v>
+        <v>127.2626023585395</v>
       </c>
       <c r="G60" t="n">
-        <v>17.08784859748321</v>
+        <v>119.7326877393701</v>
       </c>
       <c r="H60" t="n">
-        <v>19.8907037298117</v>
+        <v>93.57461671982793</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>44081</v>
       </c>
       <c r="M60" t="n">
-        <v>1.139999389648438</v>
+        <v>24.68666669673968</v>
       </c>
       <c r="N60" t="n">
         <v>12</v>
@@ -3853,31 +3853,31 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>15.06999969482422</v>
+        <v>126.9833297729492</v>
       </c>
       <c r="C61" t="n">
-        <v>16.89999961853027</v>
+        <v>153.9799957275391</v>
       </c>
       <c r="D61" t="n">
-        <v>14.81999969482422</v>
+        <v>124.4333343505859</v>
       </c>
       <c r="E61" t="n">
-        <v>16.20999908447266</v>
+        <v>147.3833312988281</v>
       </c>
       <c r="F61" t="n">
-        <v>17.74800201256483</v>
+        <v>123.4408556881836</v>
       </c>
       <c r="G61" t="n">
-        <v>18.17828027389135</v>
+        <v>112.4462798196212</v>
       </c>
       <c r="H61" t="n">
-        <v>20.82125148827663</v>
+        <v>85.61488622183653</v>
       </c>
       <c r="I61" t="n">
-        <v>16.89999961853027</v>
+        <v>153.9799957275391</v>
       </c>
       <c r="J61" t="n">
-        <v>17.10222034141247</v>
+        <v>151.6699964696889</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
@@ -3886,16 +3886,16 @@
         <v>44082</v>
       </c>
       <c r="M61" t="n">
-        <v>1.139999389648438</v>
+        <v>24.68666669673968</v>
       </c>
       <c r="N61" t="n">
         <v>12</v>
       </c>
       <c r="O61" t="n">
-        <v>15.06999969482422</v>
+        <v>126.9833297729492</v>
       </c>
       <c r="P61" t="n">
-        <v>757</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="62">
@@ -3903,25 +3903,25 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>32.70000076293945</v>
+        <v>39.34400177001953</v>
       </c>
       <c r="C62" t="n">
-        <v>33.70000076293945</v>
+        <v>51.66333389282227</v>
       </c>
       <c r="D62" t="n">
-        <v>31.80999946594238</v>
+        <v>38.70199966430664</v>
       </c>
       <c r="E62" t="n">
-        <v>32.40999984741211</v>
+        <v>50.25933456420898</v>
       </c>
       <c r="F62" t="n">
-        <v>30.04142540480469</v>
+        <v>41.04508734173049</v>
       </c>
       <c r="G62" t="n">
-        <v>28.71429674669672</v>
+        <v>40.40895039759133</v>
       </c>
       <c r="H62" t="n">
-        <v>25.2028479776577</v>
+        <v>38.33716248624582</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -3937,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="L62" s="2" t="n">
-        <v>44263</v>
+        <v>43934</v>
       </c>
       <c r="M62" t="n">
-        <v>-2.530000686645508</v>
+        <v>0.57733154296875</v>
       </c>
       <c r="N62" t="n">
         <v>13</v>
@@ -3961,25 +3961,25 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>32.40000152587891</v>
+        <v>48.8466682434082</v>
       </c>
       <c r="C63" t="n">
-        <v>32.75</v>
+        <v>51.03799819946289</v>
       </c>
       <c r="D63" t="n">
-        <v>29.59000015258789</v>
+        <v>44.91933441162109</v>
       </c>
       <c r="E63" t="n">
-        <v>30.67000007629395</v>
+        <v>48.34333419799805</v>
       </c>
       <c r="F63" t="n">
-        <v>30.25095029530111</v>
+        <v>43.47783629381968</v>
       </c>
       <c r="G63" t="n">
-        <v>29.14889748660722</v>
+        <v>42.17214679768171</v>
       </c>
       <c r="H63" t="n">
-        <v>25.69986180480645</v>
+        <v>39.24681446004147</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -3995,10 +3995,10 @@
         <v>0</v>
       </c>
       <c r="L63" s="2" t="n">
-        <v>44270</v>
+        <v>43941</v>
       </c>
       <c r="M63" t="n">
-        <v>-2.530000686645508</v>
+        <v>0.57733154296875</v>
       </c>
       <c r="N63" t="n">
         <v>13</v>
@@ -4019,25 +4019,25 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>30.71999931335449</v>
+        <v>49.17399978637695</v>
       </c>
       <c r="C64" t="n">
-        <v>30.77000045776367</v>
+        <v>57.98799896240234</v>
       </c>
       <c r="D64" t="n">
-        <v>26.07999992370605</v>
+        <v>45.5359992980957</v>
       </c>
       <c r="E64" t="n">
-        <v>28.45999908447266</v>
+        <v>46.75466537475586</v>
       </c>
       <c r="F64" t="n">
-        <v>29.65396655835829</v>
+        <v>44.57011265413174</v>
       </c>
       <c r="G64" t="n">
-        <v>28.99580895279954</v>
+        <v>43.19048425925374</v>
       </c>
       <c r="H64" t="n">
-        <v>25.95078337568519</v>
+        <v>39.92934636137914</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -4053,10 +4053,10 @@
         <v>0</v>
       </c>
       <c r="L64" s="2" t="n">
-        <v>44277</v>
+        <v>43948</v>
       </c>
       <c r="M64" t="n">
-        <v>-2.530000686645508</v>
+        <v>0.57733154296875</v>
       </c>
       <c r="N64" t="n">
         <v>13</v>
@@ -4077,25 +4077,25 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>28.02000045776367</v>
+        <v>46.73333358764648</v>
       </c>
       <c r="C65" t="n">
-        <v>28.45000076293945</v>
+        <v>54.93333435058594</v>
       </c>
       <c r="D65" t="n">
-        <v>26.76000022888184</v>
+        <v>46.53333282470703</v>
       </c>
       <c r="E65" t="n">
-        <v>28.44000053405762</v>
+        <v>54.62799835205078</v>
       </c>
       <c r="F65" t="n">
-        <v>29.24931121692474</v>
+        <v>47.92274122010475</v>
       </c>
       <c r="G65" t="n">
-        <v>28.87229597085689</v>
+        <v>45.73215405765309</v>
       </c>
       <c r="H65" t="n">
-        <v>26.17707584462814</v>
+        <v>41.26558745144019</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -4111,10 +4111,10 @@
         <v>0</v>
       </c>
       <c r="L65" s="2" t="n">
-        <v>44284</v>
+        <v>43955</v>
       </c>
       <c r="M65" t="n">
-        <v>-2.530000686645508</v>
+        <v>0.57733154296875</v>
       </c>
       <c r="N65" t="n">
         <v>13</v>
@@ -4135,49 +4135,49 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>28.35000038146973</v>
+        <v>52.70066833496094</v>
       </c>
       <c r="C66" t="n">
-        <v>28.35000038146973</v>
+        <v>56.21933364868164</v>
       </c>
       <c r="D66" t="n">
-        <v>25.79999923706055</v>
+        <v>50.88666534423828</v>
       </c>
       <c r="E66" t="n">
-        <v>25.81999969482422</v>
+        <v>53.27799987792969</v>
       </c>
       <c r="F66" t="n">
-        <v>30.25095029530111</v>
+        <v>43.47783629381968</v>
       </c>
       <c r="G66" t="n">
-        <v>29.14889748660722</v>
+        <v>42.17214679768171</v>
       </c>
       <c r="H66" t="n">
-        <v>25.69986180480645</v>
+        <v>39.24681446004147</v>
       </c>
       <c r="I66" t="n">
-        <v>28.35000038146973</v>
+        <v>56.21933364868164</v>
       </c>
       <c r="J66" t="n">
-        <v>30.93930290819454</v>
+        <v>56.53909726797077</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
       </c>
       <c r="L66" s="2" t="n">
-        <v>44285</v>
+        <v>43956</v>
       </c>
       <c r="M66" t="n">
-        <v>-2.530000686645508</v>
+        <v>0.57733154296875</v>
       </c>
       <c r="N66" t="n">
         <v>13</v>
       </c>
       <c r="O66" t="n">
-        <v>28.35000038146973</v>
+        <v>52.70066833496094</v>
       </c>
       <c r="P66" t="n">
-        <v>-893</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67">
@@ -4185,25 +4185,25 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>19.78000068664551</v>
+        <v>204.07666015625</v>
       </c>
       <c r="C67" t="n">
-        <v>20.04999923706055</v>
+        <v>209.4499969482422</v>
       </c>
       <c r="D67" t="n">
-        <v>15.5</v>
+        <v>197.8333282470703</v>
       </c>
       <c r="E67" t="n">
-        <v>17.73999977111816</v>
+        <v>207.7700042724609</v>
       </c>
       <c r="F67" t="n">
-        <v>19.01489644973617</v>
+        <v>206.3102402275117</v>
       </c>
       <c r="G67" t="n">
-        <v>21.96985529015729</v>
+        <v>209.4626505771695</v>
       </c>
       <c r="H67" t="n">
-        <v>31.39181014645397</v>
+        <v>214.5222556086464</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -4219,10 +4219,10 @@
         <v>0</v>
       </c>
       <c r="L67" s="2" t="n">
-        <v>43934</v>
+        <v>44361</v>
       </c>
       <c r="M67" t="n">
-        <v>0.2399997711181641</v>
+        <v>5.584913402795792</v>
       </c>
       <c r="N67" t="n">
         <v>14</v>
@@ -4243,25 +4243,25 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>16.02000045776367</v>
+        <v>208.1600036621094</v>
       </c>
       <c r="C68" t="n">
-        <v>19.98999977111816</v>
+        <v>232.5399932861328</v>
       </c>
       <c r="D68" t="n">
-        <v>15.72000026702881</v>
+        <v>202.9600067138672</v>
       </c>
       <c r="E68" t="n">
-        <v>17.77000045776367</v>
+        <v>223.9566650390625</v>
       </c>
       <c r="F68" t="n">
-        <v>18.59993111907867</v>
+        <v>212.192381831362</v>
       </c>
       <c r="G68" t="n">
-        <v>21.03655421629204</v>
+        <v>212.6835426798124</v>
       </c>
       <c r="H68" t="n">
-        <v>30.15346381111849</v>
+        <v>215.3799291932297</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -4277,10 +4277,10 @@
         <v>0</v>
       </c>
       <c r="L68" s="2" t="n">
-        <v>43941</v>
+        <v>44368</v>
       </c>
       <c r="M68" t="n">
-        <v>0.2399997711181641</v>
+        <v>5.584913402795792</v>
       </c>
       <c r="N68" t="n">
         <v>14</v>
@@ -4301,25 +4301,25 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>17.14999961853027</v>
+        <v>223.8800048828125</v>
       </c>
       <c r="C69" t="n">
-        <v>21.60000038146973</v>
+        <v>233.3333282470703</v>
       </c>
       <c r="D69" t="n">
-        <v>16.56999969482422</v>
+        <v>223.4400024414062</v>
       </c>
       <c r="E69" t="n">
-        <v>16.80999946594238</v>
+        <v>226.3000030517578</v>
       </c>
       <c r="F69" t="n">
-        <v>18.00328723469991</v>
+        <v>216.8949222381606</v>
       </c>
       <c r="G69" t="n">
-        <v>20.09731982732545</v>
+        <v>215.7094227624669</v>
       </c>
       <c r="H69" t="n">
-        <v>28.94042159792066</v>
+        <v>216.3726631803686</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -4335,10 +4335,10 @@
         <v>0</v>
       </c>
       <c r="L69" s="2" t="n">
-        <v>43948</v>
+        <v>44375</v>
       </c>
       <c r="M69" t="n">
-        <v>0.2399997711181641</v>
+        <v>5.584913402795792</v>
       </c>
       <c r="N69" t="n">
         <v>14</v>
@@ -4359,25 +4359,25 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>16.48999977111816</v>
+        <v>227.2366638183594</v>
       </c>
       <c r="C70" t="n">
-        <v>19.47999954223633</v>
+        <v>228</v>
       </c>
       <c r="D70" t="n">
-        <v>15.9399995803833</v>
+        <v>206.8200073242188</v>
       </c>
       <c r="E70" t="n">
-        <v>17.72999954223633</v>
+        <v>218.9833374023438</v>
       </c>
       <c r="F70" t="n">
-        <v>17.91219133721205</v>
+        <v>217.5910606262217</v>
       </c>
       <c r="G70" t="n">
-        <v>19.5712486528612</v>
+        <v>216.4369593491062</v>
       </c>
       <c r="H70" t="n">
-        <v>27.92129232013117</v>
+        <v>216.6099972005482</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -4393,10 +4393,10 @@
         <v>0</v>
       </c>
       <c r="L70" s="2" t="n">
-        <v>43955</v>
+        <v>44382</v>
       </c>
       <c r="M70" t="n">
-        <v>0.2399997711181641</v>
+        <v>5.584913402795792</v>
       </c>
       <c r="N70" t="n">
         <v>14</v>
@@ -4417,49 +4417,49 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>17.30999946594238</v>
+        <v>220.7333374023438</v>
       </c>
       <c r="C71" t="n">
-        <v>18.81999969482422</v>
+        <v>231.0933380126953</v>
       </c>
       <c r="D71" t="n">
-        <v>16.53000068664551</v>
+        <v>212.6266632080078</v>
       </c>
       <c r="E71" t="n">
-        <v>17.54999923706055</v>
+        <v>214.7400054931641</v>
       </c>
       <c r="F71" t="n">
-        <v>18.59993111907867</v>
+        <v>212.192381831362</v>
       </c>
       <c r="G71" t="n">
-        <v>21.03655421629204</v>
+        <v>212.6835426798124</v>
       </c>
       <c r="H71" t="n">
-        <v>30.15346381111849</v>
+        <v>215.3799291932297</v>
       </c>
       <c r="I71" t="n">
-        <v>18.81999969482422</v>
+        <v>231.0933380126953</v>
       </c>
       <c r="J71" t="n">
-        <v>21.43035797461683</v>
+        <v>226.3182508051395</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
       </c>
       <c r="L71" s="2" t="n">
-        <v>43956</v>
+        <v>44383</v>
       </c>
       <c r="M71" t="n">
-        <v>0.2399997711181641</v>
+        <v>5.584913402795792</v>
       </c>
       <c r="N71" t="n">
         <v>14</v>
       </c>
       <c r="O71" t="n">
-        <v>17.30999946594238</v>
+        <v>220.7333374023438</v>
       </c>
       <c r="P71" t="n">
-        <v>139</v>
+        <v>251</v>
       </c>
     </row>
     <row r="72">
@@ -4467,25 +4467,25 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>33.0099983215332</v>
+        <v>271.8299865722656</v>
       </c>
       <c r="C72" t="n">
-        <v>36.2599983215332</v>
+        <v>289</v>
       </c>
       <c r="D72" t="n">
-        <v>31.07999992370605</v>
+        <v>262.4700012207031</v>
       </c>
       <c r="E72" t="n">
-        <v>31.80999946594238</v>
+        <v>265.25</v>
       </c>
       <c r="F72" t="n">
-        <v>31.30648142913865</v>
+        <v>279.7897377377375</v>
       </c>
       <c r="G72" t="n">
-        <v>30.55167316208014</v>
+        <v>280.6578616994344</v>
       </c>
       <c r="H72" t="n">
-        <v>28.43938274457564</v>
+        <v>278.7693627476485</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -4498,13 +4498,13 @@
         </is>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>0.1153</v>
       </c>
       <c r="L72" s="2" t="n">
-        <v>44361</v>
+        <v>44830</v>
       </c>
       <c r="M72" t="n">
-        <v>-2.619998931884766</v>
+        <v>27.3717804798107</v>
       </c>
       <c r="N72" t="n">
         <v>15</v>
@@ -4525,25 +4525,25 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>32.20999908447266</v>
+        <v>254.5</v>
       </c>
       <c r="C73" t="n">
-        <v>35.77999877929688</v>
+        <v>257.5</v>
       </c>
       <c r="D73" t="n">
-        <v>32.16999816894531</v>
+        <v>222.0200042724609</v>
       </c>
       <c r="E73" t="n">
-        <v>33.45000076293945</v>
+        <v>223.0700073242188</v>
       </c>
       <c r="F73" t="n">
-        <v>32.02098787373892</v>
+        <v>260.8831609332313</v>
       </c>
       <c r="G73" t="n">
-        <v>31.1957459622711</v>
+        <v>267.8605607271643</v>
       </c>
       <c r="H73" t="n">
-        <v>28.8948934735178</v>
+        <v>273.7057849818822</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -4556,13 +4556,13 @@
         </is>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>0.1266</v>
       </c>
       <c r="L73" s="2" t="n">
-        <v>44368</v>
+        <v>44837</v>
       </c>
       <c r="M73" t="n">
-        <v>-2.619998931884766</v>
+        <v>27.3717804798107</v>
       </c>
       <c r="N73" t="n">
         <v>15</v>
@@ -4583,25 +4583,25 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>33.27999877929688</v>
+        <v>223.9299926757812</v>
       </c>
       <c r="C74" t="n">
-        <v>34.18999862670898</v>
+        <v>226.9900054931641</v>
       </c>
       <c r="D74" t="n">
-        <v>31.78000068664551</v>
+        <v>204.1600036621094</v>
       </c>
       <c r="E74" t="n">
-        <v>33.18000030517578</v>
+        <v>204.9900054931641</v>
       </c>
       <c r="F74" t="n">
-        <v>32.40732535088454</v>
+        <v>242.2521091198756</v>
       </c>
       <c r="G74" t="n">
-        <v>31.63669137180547</v>
+        <v>253.8893262307198</v>
       </c>
       <c r="H74" t="n">
-        <v>29.28444864003216</v>
+        <v>267.4588959374532</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -4614,13 +4614,13 @@
         </is>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>0.1054</v>
       </c>
       <c r="L74" s="2" t="n">
-        <v>44375</v>
+        <v>44844</v>
       </c>
       <c r="M74" t="n">
-        <v>-2.619998931884766</v>
+        <v>27.3717804798107</v>
       </c>
       <c r="N74" t="n">
         <v>15</v>
@@ -4641,25 +4641,25 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>33.15000152587891</v>
+        <v>210.0399932861328</v>
       </c>
       <c r="C75" t="n">
-        <v>33.15000152587891</v>
+        <v>229.8200073242188</v>
       </c>
       <c r="D75" t="n">
-        <v>30.14999961853027</v>
+        <v>202</v>
       </c>
       <c r="E75" t="n">
-        <v>32.06000137329102</v>
+        <v>214.4400024414062</v>
       </c>
       <c r="F75" t="n">
-        <v>32.2915506916867</v>
+        <v>232.9814068937192</v>
       </c>
       <c r="G75" t="n">
-        <v>31.73076026102448</v>
+        <v>245.1228098330945</v>
       </c>
       <c r="H75" t="n">
-        <v>29.53677161578297</v>
+        <v>262.6389965287217</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -4672,13 +4672,13 @@
         </is>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>0.1281</v>
       </c>
       <c r="L75" s="2" t="n">
-        <v>44382</v>
+        <v>44851</v>
       </c>
       <c r="M75" t="n">
-        <v>-2.619998931884766</v>
+        <v>27.3717804798107</v>
       </c>
       <c r="N75" t="n">
         <v>15</v>
@@ -4699,49 +4699,49 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>31.3799991607666</v>
+        <v>205.8200073242188</v>
       </c>
       <c r="C76" t="n">
-        <v>32.13999938964844</v>
+        <v>233.8099975585938</v>
       </c>
       <c r="D76" t="n">
-        <v>28.53000068664551</v>
+        <v>198.5899963378906</v>
       </c>
       <c r="E76" t="n">
-        <v>28.76000022888184</v>
+        <v>228.5200042724609</v>
       </c>
       <c r="F76" t="n">
-        <v>32.02098787373892</v>
+        <v>260.8831609332313</v>
       </c>
       <c r="G76" t="n">
-        <v>31.1957459622711</v>
+        <v>267.8605607271643</v>
       </c>
       <c r="H76" t="n">
-        <v>28.8948934735178</v>
+        <v>273.7057849818822</v>
       </c>
       <c r="I76" t="n">
-        <v>32.13999938964844</v>
+        <v>233.8099975585938</v>
       </c>
       <c r="J76" t="n">
-        <v>34.91949671591895</v>
+        <v>233.1917878040294</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
       </c>
       <c r="L76" s="2" t="n">
-        <v>44383</v>
+        <v>44852</v>
       </c>
       <c r="M76" t="n">
-        <v>-2.619998931884766</v>
+        <v>27.3717804798107</v>
       </c>
       <c r="N76" t="n">
         <v>15</v>
       </c>
       <c r="O76" t="n">
-        <v>31.3799991607666</v>
+        <v>205.8200073242188</v>
       </c>
       <c r="P76" t="n">
-        <v>-836</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="77">
@@ -4749,25 +4749,25 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>15.0600004196167</v>
+        <v>304.9933471679688</v>
       </c>
       <c r="C77" t="n">
-        <v>16.21999931335449</v>
+        <v>346.8999938964844</v>
       </c>
       <c r="D77" t="n">
-        <v>14.60999965667725</v>
+        <v>302.3633422851562</v>
       </c>
       <c r="E77" t="n">
-        <v>15.14999961853027</v>
+        <v>336.8800048828125</v>
       </c>
       <c r="F77" t="n">
-        <v>15.06490037112674</v>
+        <v>303.3411929237959</v>
       </c>
       <c r="G77" t="n">
-        <v>15.25315652691593</v>
+        <v>301.2881060592834</v>
       </c>
       <c r="H77" t="n">
-        <v>17.24739573902885</v>
+        <v>303.0041910773168</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>0.1141</v>
       </c>
       <c r="L77" s="2" t="n">
-        <v>44137</v>
+        <v>44641</v>
       </c>
       <c r="M77" t="n">
-        <v>0.6034592823563685</v>
+        <v>5.339996337890625</v>
       </c>
       <c r="N77" t="n">
         <v>16</v>
@@ -4807,25 +4807,25 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>16.89999961853027</v>
+        <v>355.0333251953125</v>
       </c>
       <c r="C78" t="n">
-        <v>17.95999908447266</v>
+        <v>371.5899963378906</v>
       </c>
       <c r="D78" t="n">
-        <v>16.42000007629395</v>
+        <v>351.2000122070312</v>
       </c>
       <c r="E78" t="n">
-        <v>17.27000045776367</v>
+        <v>361.5299987792969</v>
       </c>
       <c r="F78" t="n">
-        <v>15.79993373333905</v>
+        <v>322.7374615422963</v>
       </c>
       <c r="G78" t="n">
-        <v>15.70134406710432</v>
+        <v>314.6751933303975</v>
       </c>
       <c r="H78" t="n">
-        <v>17.24945071345929</v>
+        <v>308.3247190502241</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -4838,13 +4838,13 @@
         </is>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>0.1009</v>
       </c>
       <c r="L78" s="2" t="n">
-        <v>44144</v>
+        <v>44648</v>
       </c>
       <c r="M78" t="n">
-        <v>0.6034592823563685</v>
+        <v>5.339996337890625</v>
       </c>
       <c r="N78" t="n">
         <v>16</v>
@@ -4865,25 +4865,25 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>17.97999954223633</v>
+        <v>363.1266784667969</v>
       </c>
       <c r="C79" t="n">
-        <v>21</v>
+        <v>384.2900085449219</v>
       </c>
       <c r="D79" t="n">
-        <v>17.77000045776367</v>
+        <v>340.5133361816406</v>
       </c>
       <c r="E79" t="n">
-        <v>20.15999984741211</v>
+        <v>341.8299865722656</v>
       </c>
       <c r="F79" t="n">
-        <v>17.25328910469674</v>
+        <v>329.1016365522861</v>
       </c>
       <c r="G79" t="n">
-        <v>16.69215646272827</v>
+        <v>320.7095918285904</v>
       </c>
       <c r="H79" t="n">
-        <v>17.51404608927318</v>
+        <v>311.3706524613187</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -4896,13 +4896,13 @@
         </is>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>0.1123</v>
       </c>
       <c r="L79" s="2" t="n">
-        <v>44151</v>
+        <v>44655</v>
       </c>
       <c r="M79" t="n">
-        <v>0.6034592823563685</v>
+        <v>5.339996337890625</v>
       </c>
       <c r="N79" t="n">
         <v>16</v>
@@ -4923,25 +4923,25 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>20.65999984741211</v>
+        <v>326.7999877929688</v>
       </c>
       <c r="C80" t="n">
-        <v>24.8700008392334</v>
+        <v>342.0799865722656</v>
       </c>
       <c r="D80" t="n">
-        <v>20.65999984741211</v>
+        <v>324.3666687011719</v>
       </c>
       <c r="E80" t="n">
-        <v>23.75</v>
+        <v>328.3333435058594</v>
       </c>
       <c r="F80" t="n">
-        <v>19.41885940313116</v>
+        <v>328.8455388701439</v>
       </c>
       <c r="G80" t="n">
-        <v>18.26056613767754</v>
+        <v>322.4037588679835</v>
       </c>
       <c r="H80" t="n">
-        <v>18.08095099024834</v>
+        <v>312.9127152835497</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -4954,13 +4954,13 @@
         </is>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>0.0849</v>
       </c>
       <c r="L80" s="2" t="n">
-        <v>44158</v>
+        <v>44662</v>
       </c>
       <c r="M80" t="n">
-        <v>0.6034592823563685</v>
+        <v>5.339996337890625</v>
       </c>
       <c r="N80" t="n">
         <v>16</v>
@@ -4981,49 +4981,49 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>23.38999938964844</v>
+        <v>329.6766662597656</v>
       </c>
       <c r="C81" t="n">
-        <v>25.10000038146973</v>
+        <v>364.0733337402344</v>
       </c>
       <c r="D81" t="n">
-        <v>22.63999938964844</v>
+        <v>324.4700012207031</v>
       </c>
       <c r="E81" t="n">
-        <v>24.92000007629395</v>
+        <v>335.0166625976562</v>
       </c>
       <c r="F81" t="n">
-        <v>15.79993373333905</v>
+        <v>322.7374615422963</v>
       </c>
       <c r="G81" t="n">
-        <v>15.70134406710432</v>
+        <v>314.6751933303975</v>
       </c>
       <c r="H81" t="n">
-        <v>17.24945071345929</v>
+        <v>308.3247190502241</v>
       </c>
       <c r="I81" t="n">
-        <v>25.10000038146973</v>
+        <v>364.0733337402344</v>
       </c>
       <c r="J81" t="n">
-        <v>23.99345867200481</v>
+        <v>376.7076891789595</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
       </c>
       <c r="L81" s="2" t="n">
-        <v>44159</v>
+        <v>44663</v>
       </c>
       <c r="M81" t="n">
-        <v>0.6034592823563685</v>
+        <v>5.339996337890625</v>
       </c>
       <c r="N81" t="n">
         <v>16</v>
       </c>
       <c r="O81" t="n">
-        <v>23.38999938964844</v>
+        <v>329.6766662597656</v>
       </c>
       <c r="P81" t="n">
-        <v>258</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82">
@@ -5031,25 +5031,25 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>35.88000106811523</v>
+        <v>136.3099975585938</v>
       </c>
       <c r="C82" t="n">
-        <v>38.81999969482422</v>
+        <v>169.5366668701172</v>
       </c>
       <c r="D82" t="n">
-        <v>35.09000015258789</v>
+        <v>134.6966705322266</v>
       </c>
       <c r="E82" t="n">
-        <v>36.97000122070312</v>
+        <v>163.2033386230469</v>
       </c>
       <c r="F82" t="n">
-        <v>39.66322833692239</v>
+        <v>146.5162913451515</v>
       </c>
       <c r="G82" t="n">
-        <v>40.8038133713961</v>
+        <v>142.827864777619</v>
       </c>
       <c r="H82" t="n">
-        <v>41.89543672770944</v>
+        <v>124.0671032370012</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -5062,13 +5062,13 @@
         </is>
       </c>
       <c r="K82" t="n">
-        <v>0.156</v>
+        <v>0</v>
       </c>
       <c r="L82" s="2" t="n">
-        <v>44830</v>
+        <v>44151</v>
       </c>
       <c r="M82" t="n">
-        <v>4.786176106326366</v>
+        <v>16.82320393005432</v>
       </c>
       <c r="N82" t="n">
         <v>17</v>
@@ -5089,25 +5089,25 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>38.63999938964844</v>
+        <v>167.8333282470703</v>
       </c>
       <c r="C83" t="n">
-        <v>44.06000137329102</v>
+        <v>199.5933380126953</v>
       </c>
       <c r="D83" t="n">
-        <v>38.22999954223633</v>
+        <v>167.2633361816406</v>
       </c>
       <c r="E83" t="n">
-        <v>43.29999923706055</v>
+        <v>195.2533264160156</v>
       </c>
       <c r="F83" t="n">
-        <v>40.87548530363511</v>
+        <v>162.7619697021062</v>
       </c>
       <c r="G83" t="n">
-        <v>41.35852134154375</v>
+        <v>154.4779673639293</v>
       </c>
       <c r="H83" t="n">
-        <v>42.02312422855955</v>
+        <v>130.538578071457</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -5120,13 +5120,13 @@
         </is>
       </c>
       <c r="K83" t="n">
-        <v>0.2023</v>
+        <v>0</v>
       </c>
       <c r="L83" s="2" t="n">
-        <v>44837</v>
+        <v>44158</v>
       </c>
       <c r="M83" t="n">
-        <v>4.786176106326366</v>
+        <v>16.82320393005432</v>
       </c>
       <c r="N83" t="n">
         <v>17</v>
@@ -5147,25 +5147,25 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>43</v>
+        <v>200.7366638183594</v>
       </c>
       <c r="C84" t="n">
-        <v>43.86000061035156</v>
+        <v>202.6000061035156</v>
       </c>
       <c r="D84" t="n">
-        <v>39.84000015258789</v>
+        <v>180.4033355712891</v>
       </c>
       <c r="E84" t="n">
-        <v>40.43999862670898</v>
+        <v>199.6799926757812</v>
       </c>
       <c r="F84" t="n">
-        <v>40.73032307799307</v>
+        <v>175.0679773599979</v>
       </c>
       <c r="G84" t="n">
-        <v>41.15440518269158</v>
+        <v>164.5228618776742</v>
       </c>
       <c r="H84" t="n">
-        <v>41.87920371930041</v>
+        <v>136.8241612173047</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -5178,13 +5178,13 @@
         </is>
       </c>
       <c r="K84" t="n">
-        <v>-0.064</v>
+        <v>0</v>
       </c>
       <c r="L84" s="2" t="n">
-        <v>44844</v>
+        <v>44165</v>
       </c>
       <c r="M84" t="n">
-        <v>4.786176106326366</v>
+        <v>16.82320393005432</v>
       </c>
       <c r="N84" t="n">
         <v>17</v>
@@ -5205,25 +5205,25 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>41.65000152587891</v>
+        <v>201.6399993896484</v>
       </c>
       <c r="C85" t="n">
-        <v>45.63999938964844</v>
+        <v>218.1066741943359</v>
       </c>
       <c r="D85" t="n">
-        <v>41.18000030517578</v>
+        <v>188.7799987792969</v>
       </c>
       <c r="E85" t="n">
-        <v>44.90999984741211</v>
+        <v>203.3300018310547</v>
       </c>
       <c r="F85" t="n">
-        <v>42.12354866779942</v>
+        <v>184.4886521836835</v>
       </c>
       <c r="G85" t="n">
-        <v>41.98898177485169</v>
+        <v>173.1466707562032</v>
       </c>
       <c r="H85" t="n">
-        <v>42.15473064003783</v>
+        <v>142.8701467276456</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -5239,10 +5239,10 @@
         <v>0</v>
       </c>
       <c r="L85" s="2" t="n">
-        <v>44851</v>
+        <v>44172</v>
       </c>
       <c r="M85" t="n">
-        <v>4.786176106326366</v>
+        <v>16.82320393005432</v>
       </c>
       <c r="N85" t="n">
         <v>17</v>
@@ -5263,49 +5263,49 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>44.63999938964844</v>
+        <v>206.3333282470703</v>
       </c>
       <c r="C86" t="n">
-        <v>52.31999969482422</v>
+        <v>231.6666717529297</v>
       </c>
       <c r="D86" t="n">
-        <v>43.68000030517578</v>
+        <v>201.6666717529297</v>
       </c>
       <c r="E86" t="n">
-        <v>49.27999877929688</v>
+        <v>231.6666717529297</v>
       </c>
       <c r="F86" t="n">
-        <v>40.87548530363511</v>
+        <v>162.7619697021062</v>
       </c>
       <c r="G86" t="n">
-        <v>41.35852134154375</v>
+        <v>154.4779673639293</v>
       </c>
       <c r="H86" t="n">
-        <v>42.02312422855955</v>
+        <v>130.538578071457</v>
       </c>
       <c r="I86" t="n">
-        <v>52.31999969482422</v>
+        <v>231.6666717529297</v>
       </c>
       <c r="J86" t="n">
-        <v>49.4261754959748</v>
+        <v>223.1565321771246</v>
       </c>
       <c r="K86" t="n">
         <v>0</v>
       </c>
       <c r="L86" s="2" t="n">
-        <v>44852</v>
+        <v>44173</v>
       </c>
       <c r="M86" t="n">
-        <v>4.786176106326366</v>
+        <v>16.82320393005432</v>
       </c>
       <c r="N86" t="n">
         <v>17</v>
       </c>
       <c r="O86" t="n">
-        <v>44.63999938964844</v>
+        <v>206.3333282470703</v>
       </c>
       <c r="P86" t="n">
-        <v>1072</v>
+        <v>808</v>
       </c>
     </row>
     <row r="87">
@@ -5313,25 +5313,25 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>29.04000091552734</v>
+        <v>333.836669921875</v>
       </c>
       <c r="C87" t="n">
-        <v>30.94000053405762</v>
+        <v>357.4599914550781</v>
       </c>
       <c r="D87" t="n">
-        <v>27.73999977111816</v>
+        <v>316.8333435058594</v>
       </c>
       <c r="E87" t="n">
-        <v>28.89999961853027</v>
+        <v>339.010009765625</v>
       </c>
       <c r="F87" t="n">
-        <v>28.46468739237067</v>
+        <v>346.6858445763494</v>
       </c>
       <c r="G87" t="n">
-        <v>28.21888689452732</v>
+        <v>339.9754735298812</v>
       </c>
       <c r="H87" t="n">
-        <v>26.90470921817433</v>
+        <v>301.6023557572017</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -5347,10 +5347,10 @@
         <v>0</v>
       </c>
       <c r="L87" s="2" t="n">
-        <v>44333</v>
+        <v>44536</v>
       </c>
       <c r="M87" t="n">
-        <v>2.859676958492557</v>
+        <v>13.89367938745272</v>
       </c>
       <c r="N87" t="n">
         <v>18</v>
@@ -5371,25 +5371,25 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>29.09000015258789</v>
+        <v>333.6966552734375</v>
       </c>
       <c r="C88" t="n">
-        <v>29.20000076293945</v>
+        <v>335</v>
       </c>
       <c r="D88" t="n">
-        <v>27.21999931335449</v>
+        <v>303.0133361816406</v>
       </c>
       <c r="E88" t="n">
-        <v>28.25</v>
+        <v>310.8566589355469</v>
       </c>
       <c r="F88" t="n">
-        <v>28.39312492824711</v>
+        <v>334.7427826960819</v>
       </c>
       <c r="G88" t="n">
-        <v>28.22580091796569</v>
+        <v>333.5046258422514</v>
       </c>
       <c r="H88" t="n">
-        <v>27.02700838015848</v>
+        <v>302.4436560461421</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -5405,10 +5405,10 @@
         <v>0</v>
       </c>
       <c r="L88" s="2" t="n">
-        <v>44340</v>
+        <v>44543</v>
       </c>
       <c r="M88" t="n">
-        <v>2.859676958492557</v>
+        <v>13.89367938745272</v>
       </c>
       <c r="N88" t="n">
         <v>18</v>
@@ -5429,25 +5429,25 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>29.04999923706055</v>
+        <v>303.5666809082031</v>
       </c>
       <c r="C89" t="n">
-        <v>33.65000152587891</v>
+        <v>357.6600036621094</v>
       </c>
       <c r="D89" t="n">
-        <v>28.96999931335449</v>
+        <v>295.3733215332031</v>
       </c>
       <c r="E89" t="n">
-        <v>33.4900016784668</v>
+        <v>355.6666564941406</v>
       </c>
       <c r="F89" t="n">
-        <v>30.09208384498701</v>
+        <v>341.7174072954348</v>
       </c>
       <c r="G89" t="n">
-        <v>29.39562330918816</v>
+        <v>338.4295215426712</v>
       </c>
       <c r="H89" t="n">
-        <v>27.61455322545923</v>
+        <v>307.2821106323238</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -5460,13 +5460,13 @@
         </is>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>0.14745</v>
       </c>
       <c r="L89" s="2" t="n">
-        <v>44347</v>
+        <v>44550</v>
       </c>
       <c r="M89" t="n">
-        <v>2.859676958492557</v>
+        <v>13.89367938745272</v>
       </c>
       <c r="N89" t="n">
         <v>18</v>
@@ -5487,25 +5487,25 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>33.59000015258789</v>
+        <v>357.8900146484375</v>
       </c>
       <c r="C90" t="n">
-        <v>33.77999877929688</v>
+        <v>373</v>
       </c>
       <c r="D90" t="n">
-        <v>32.02999877929688</v>
+        <v>351.0499877929688</v>
       </c>
       <c r="E90" t="n">
-        <v>32.97999954223633</v>
+        <v>352.260009765625</v>
       </c>
       <c r="F90" t="n">
-        <v>31.05472241073678</v>
+        <v>345.2316081188316</v>
       </c>
       <c r="G90" t="n">
-        <v>30.19215136097664</v>
+        <v>341.5029633699943</v>
       </c>
       <c r="H90" t="n">
-        <v>28.10232107243896</v>
+        <v>311.371010553533</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -5518,13 +5518,13 @@
         </is>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>0.1186</v>
       </c>
       <c r="L90" s="2" t="n">
-        <v>44354</v>
+        <v>44557</v>
       </c>
       <c r="M90" t="n">
-        <v>2.859676958492557</v>
+        <v>13.89367938745272</v>
       </c>
       <c r="N90" t="n">
         <v>18</v>
@@ -5545,49 +5545,49 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>33.0099983215332</v>
+        <v>382.5833435058594</v>
       </c>
       <c r="C91" t="n">
-        <v>36.2599983215332</v>
+        <v>402.6666564941406</v>
       </c>
       <c r="D91" t="n">
-        <v>31.07999992370605</v>
+        <v>336.6666564941406</v>
       </c>
       <c r="E91" t="n">
-        <v>31.80999946594238</v>
+        <v>342.3200073242188</v>
       </c>
       <c r="F91" t="n">
-        <v>28.39312492824711</v>
+        <v>334.7427826960819</v>
       </c>
       <c r="G91" t="n">
-        <v>28.22580091796569</v>
+        <v>333.5046258422514</v>
       </c>
       <c r="H91" t="n">
-        <v>27.02700838015848</v>
+        <v>302.4436560461421</v>
       </c>
       <c r="I91" t="n">
-        <v>36.2599983215332</v>
+        <v>402.6666564941406</v>
       </c>
       <c r="J91" t="n">
-        <v>35.86967528002576</v>
+        <v>396.4770228933121</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
       </c>
       <c r="L91" s="2" t="n">
-        <v>44355</v>
+        <v>44558</v>
       </c>
       <c r="M91" t="n">
-        <v>2.859676958492557</v>
+        <v>13.89367938745272</v>
       </c>
       <c r="N91" t="n">
         <v>18</v>
       </c>
       <c r="O91" t="n">
-        <v>33.0099983215332</v>
+        <v>382.5833435058594</v>
       </c>
       <c r="P91" t="n">
-        <v>866</v>
+        <v>361</v>
       </c>
     </row>
     <row r="92">
@@ -5595,25 +5595,25 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>22.04000091552734</v>
+        <v>29.36466789245605</v>
       </c>
       <c r="C92" t="n">
-        <v>25.04999923706055</v>
+        <v>33.25333404541016</v>
       </c>
       <c r="D92" t="n">
-        <v>21.45999908447266</v>
+        <v>29.33333206176758</v>
       </c>
       <c r="E92" t="n">
-        <v>24.8700008392334</v>
+        <v>31.87666702270508</v>
       </c>
       <c r="F92" t="n">
-        <v>25.41344541298078</v>
+        <v>30.31488927205404</v>
       </c>
       <c r="G92" t="n">
-        <v>26.59000834011107</v>
+        <v>30.05459298027886</v>
       </c>
       <c r="H92" t="n">
-        <v>28.03713338642952</v>
+        <v>29.74697008999911</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -5629,10 +5629,10 @@
         <v>0</v>
       </c>
       <c r="L92" s="2" t="n">
-        <v>44536</v>
+        <v>43836</v>
       </c>
       <c r="M92" t="n">
-        <v>1.291531634963576</v>
+        <v>18.34183749886529</v>
       </c>
       <c r="N92" t="n">
         <v>19</v>
@@ -5653,25 +5653,25 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>24.47999954223633</v>
+        <v>32.90000152587891</v>
       </c>
       <c r="C93" t="n">
-        <v>24.88999938964844</v>
+        <v>36.49399948120117</v>
       </c>
       <c r="D93" t="n">
-        <v>22.51000022888184</v>
+        <v>32.79999923706055</v>
       </c>
       <c r="E93" t="n">
-        <v>23.42000007629395</v>
+        <v>34.03333282470703</v>
       </c>
       <c r="F93" t="n">
-        <v>24.74896363408517</v>
+        <v>31.55437045627171</v>
       </c>
       <c r="G93" t="n">
-        <v>25.88556205926282</v>
+        <v>30.93875739015179</v>
       </c>
       <c r="H93" t="n">
-        <v>27.61739399459901</v>
+        <v>30.13663942951802</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -5687,10 +5687,10 @@
         <v>0</v>
       </c>
       <c r="L93" s="2" t="n">
-        <v>44543</v>
+        <v>43843</v>
       </c>
       <c r="M93" t="n">
-        <v>1.291531634963576</v>
+        <v>18.34183749886529</v>
       </c>
       <c r="N93" t="n">
         <v>19</v>
@@ -5711,25 +5711,25 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>22.68000030517578</v>
+        <v>35.34999847412109</v>
       </c>
       <c r="C94" t="n">
-        <v>25.42000007629395</v>
+        <v>39.63333129882812</v>
       </c>
       <c r="D94" t="n">
-        <v>22.14999961853027</v>
+        <v>35.22733306884766</v>
       </c>
       <c r="E94" t="n">
-        <v>24.75</v>
+        <v>37.65466690063477</v>
       </c>
       <c r="F94" t="n">
-        <v>24.74930908939012</v>
+        <v>33.58780260439273</v>
       </c>
       <c r="G94" t="n">
-        <v>25.6332149349822</v>
+        <v>32.43118172581467</v>
       </c>
       <c r="H94" t="n">
-        <v>27.35672181327183</v>
+        <v>30.82009647234681</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -5745,10 +5745,10 @@
         <v>0</v>
       </c>
       <c r="L94" s="2" t="n">
-        <v>44550</v>
+        <v>43850</v>
       </c>
       <c r="M94" t="n">
-        <v>1.291531634963576</v>
+        <v>18.34183749886529</v>
       </c>
       <c r="N94" t="n">
         <v>19</v>
@@ -5769,25 +5769,25 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>24.75</v>
+        <v>36.13266754150391</v>
       </c>
       <c r="C95" t="n">
-        <v>25.5</v>
+        <v>43.53333282470703</v>
       </c>
       <c r="D95" t="n">
-        <v>23.56999969482422</v>
+        <v>35.95199966430664</v>
       </c>
       <c r="E95" t="n">
-        <v>23.70000076293945</v>
+        <v>43.37133407592773</v>
       </c>
       <c r="F95" t="n">
-        <v>24.3995396472399</v>
+        <v>36.84897976157107</v>
       </c>
       <c r="G95" t="n">
-        <v>25.20361178563936</v>
+        <v>34.86232669250646</v>
       </c>
       <c r="H95" t="n">
-        <v>27.02429262687798</v>
+        <v>31.96111807267235</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -5803,10 +5803,10 @@
         <v>0</v>
       </c>
       <c r="L95" s="2" t="n">
-        <v>44557</v>
+        <v>43857</v>
       </c>
       <c r="M95" t="n">
-        <v>1.291531634963576</v>
+        <v>18.34183749886529</v>
       </c>
       <c r="N95" t="n">
         <v>19</v>
@@ -5827,613 +5827,49 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>23.95000076293945</v>
+        <v>44.91266632080078</v>
       </c>
       <c r="C96" t="n">
-        <v>28.5</v>
+        <v>64.59933471679688</v>
       </c>
       <c r="D96" t="n">
-        <v>23.82999992370605</v>
+        <v>44.90133285522461</v>
       </c>
       <c r="E96" t="n">
-        <v>27.78000068664551</v>
+        <v>49.87133407592773</v>
       </c>
       <c r="F96" t="n">
-        <v>24.74896363408517</v>
+        <v>31.55437045627171</v>
       </c>
       <c r="G96" t="n">
-        <v>25.88556205926282</v>
+        <v>30.93875739015179</v>
       </c>
       <c r="H96" t="n">
-        <v>27.61739399459901</v>
+        <v>30.13663942951802</v>
       </c>
       <c r="I96" t="n">
-        <v>28.5</v>
+        <v>64.59933471679688</v>
       </c>
       <c r="J96" t="n">
-        <v>25.24153239790303</v>
+        <v>63.25450381966607</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
       </c>
       <c r="L96" s="2" t="n">
-        <v>44558</v>
+        <v>43858</v>
       </c>
       <c r="M96" t="n">
-        <v>1.291531634963576</v>
+        <v>18.34183749886529</v>
       </c>
       <c r="N96" t="n">
         <v>19</v>
       </c>
       <c r="O96" t="n">
-        <v>23.95000076293945</v>
+        <v>44.91266632080078</v>
       </c>
       <c r="P96" t="n">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>46.20000076293945</v>
-      </c>
-      <c r="C97" t="n">
-        <v>47.33000183105469</v>
-      </c>
-      <c r="D97" t="n">
-        <v>44.72999954223633</v>
-      </c>
-      <c r="E97" t="n">
-        <v>46.52000045776367</v>
-      </c>
-      <c r="F97" t="n">
-        <v>46.07333246866862</v>
-      </c>
-      <c r="G97" t="n">
-        <v>45.99888780381944</v>
-      </c>
-      <c r="H97" t="n">
-        <v>45.91090774536133</v>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K97" t="n">
-        <v>0</v>
-      </c>
-      <c r="L97" s="2" t="n">
-        <v>43836</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8776758484405036</v>
-      </c>
-      <c r="N97" t="n">
-        <v>20</v>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>46.2599983215332</v>
-      </c>
-      <c r="C98" t="n">
-        <v>46.77999877929688</v>
-      </c>
-      <c r="D98" t="n">
-        <v>45.08000183105469</v>
-      </c>
-      <c r="E98" t="n">
-        <v>45.13000106811523</v>
-      </c>
-      <c r="F98" t="n">
-        <v>45.75888866848416</v>
-      </c>
-      <c r="G98" t="n">
-        <v>45.80580186255185</v>
-      </c>
-      <c r="H98" t="n">
-        <v>45.83991622924805</v>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" s="2" t="n">
-        <v>43843</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8776758484405036</v>
-      </c>
-      <c r="N98" t="n">
-        <v>20</v>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>44.72000122070312</v>
-      </c>
-      <c r="C99" t="n">
-        <v>45.02000045776367</v>
-      </c>
-      <c r="D99" t="n">
-        <v>41.59999847412109</v>
-      </c>
-      <c r="E99" t="n">
-        <v>42.22999954223633</v>
-      </c>
-      <c r="F99" t="n">
-        <v>44.58259229306822</v>
-      </c>
-      <c r="G99" t="n">
-        <v>45.01117912470396</v>
-      </c>
-      <c r="H99" t="n">
-        <v>45.51174198497426</v>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" s="2" t="n">
-        <v>43850</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8776758484405036</v>
-      </c>
-      <c r="N99" t="n">
-        <v>20</v>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>41.22999954223633</v>
-      </c>
-      <c r="C100" t="n">
-        <v>41.45000076293945</v>
-      </c>
-      <c r="D100" t="n">
-        <v>39</v>
-      </c>
-      <c r="E100" t="n">
-        <v>40.54999923706055</v>
-      </c>
-      <c r="F100" t="n">
-        <v>43.23839460773233</v>
-      </c>
-      <c r="G100" t="n">
-        <v>44.01980581633875</v>
-      </c>
-      <c r="H100" t="n">
-        <v>45.06067446243665</v>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K100" t="n">
-        <v>0</v>
-      </c>
-      <c r="L100" s="2" t="n">
-        <v>43857</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8776758484405036</v>
-      </c>
-      <c r="N100" t="n">
-        <v>20</v>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>40.36000061035156</v>
-      </c>
-      <c r="C101" t="n">
-        <v>44.40000152587891</v>
-      </c>
-      <c r="D101" t="n">
-        <v>40.04999923706055</v>
-      </c>
-      <c r="E101" t="n">
-        <v>42.65000152587891</v>
-      </c>
-      <c r="F101" t="n">
-        <v>45.75888866848416</v>
-      </c>
-      <c r="G101" t="n">
-        <v>45.80580186255185</v>
-      </c>
-      <c r="H101" t="n">
-        <v>45.83991622924805</v>
-      </c>
-      <c r="I101" t="n">
-        <v>44.40000152587891</v>
-      </c>
-      <c r="J101" t="n">
-        <v>41.23767645879207</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0</v>
-      </c>
-      <c r="L101" s="2" t="n">
-        <v>43858</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8776758484405036</v>
-      </c>
-      <c r="N101" t="n">
-        <v>20</v>
-      </c>
-      <c r="O101" t="n">
-        <v>40.36000061035156</v>
-      </c>
-      <c r="P101" t="n">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>20.65999984741211</v>
-      </c>
-      <c r="C102" t="n">
-        <v>24.8700008392334</v>
-      </c>
-      <c r="D102" t="n">
-        <v>20.65999984741211</v>
-      </c>
-      <c r="E102" t="n">
-        <v>23.75</v>
-      </c>
-      <c r="F102" t="n">
-        <v>19.41885940313116</v>
-      </c>
-      <c r="G102" t="n">
-        <v>18.26056613767754</v>
-      </c>
-      <c r="H102" t="n">
-        <v>18.08095099024834</v>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K102" t="n">
-        <v>0</v>
-      </c>
-      <c r="L102" s="2" t="n">
-        <v>44158</v>
-      </c>
-      <c r="M102" t="n">
-        <v>1.00957829966848</v>
-      </c>
-      <c r="N102" t="n">
-        <v>21</v>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P102" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>23.38999938964844</v>
-      </c>
-      <c r="C103" t="n">
-        <v>25.10000038146973</v>
-      </c>
-      <c r="D103" t="n">
-        <v>22.63999938964844</v>
-      </c>
-      <c r="E103" t="n">
-        <v>24.92000007629395</v>
-      </c>
-      <c r="F103" t="n">
-        <v>21.25257296085208</v>
-      </c>
-      <c r="G103" t="n">
-        <v>19.74044034625897</v>
-      </c>
-      <c r="H103" t="n">
-        <v>18.7026827253434</v>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K103" t="n">
-        <v>0</v>
-      </c>
-      <c r="L103" s="2" t="n">
-        <v>44165</v>
-      </c>
-      <c r="M103" t="n">
-        <v>1.00957829966848</v>
-      </c>
-      <c r="N103" t="n">
-        <v>21</v>
-      </c>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P103" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>24.03000068664551</v>
-      </c>
-      <c r="C104" t="n">
-        <v>26.25</v>
-      </c>
-      <c r="D104" t="n">
-        <v>24.01000022888184</v>
-      </c>
-      <c r="E104" t="n">
-        <v>25.30999946594238</v>
-      </c>
-      <c r="F104" t="n">
-        <v>22.60504846254885</v>
-      </c>
-      <c r="G104" t="n">
-        <v>20.97812015063306</v>
-      </c>
-      <c r="H104" t="n">
-        <v>19.30334788357967</v>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K104" t="n">
-        <v>0</v>
-      </c>
-      <c r="L104" s="2" t="n">
-        <v>44172</v>
-      </c>
-      <c r="M104" t="n">
-        <v>1.00957829966848</v>
-      </c>
-      <c r="N104" t="n">
-        <v>21</v>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P104" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="C105" t="n">
-        <v>25.8700008392334</v>
-      </c>
-      <c r="D105" t="n">
-        <v>23.86000061035156</v>
-      </c>
-      <c r="E105" t="n">
-        <v>24.93000030517578</v>
-      </c>
-      <c r="F105" t="n">
-        <v>23.38003241009116</v>
-      </c>
-      <c r="G105" t="n">
-        <v>21.85631574053144</v>
-      </c>
-      <c r="H105" t="n">
-        <v>19.81486174008841</v>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K105" t="n">
-        <v>0</v>
-      </c>
-      <c r="L105" s="2" t="n">
-        <v>44179</v>
-      </c>
-      <c r="M105" t="n">
-        <v>1.00957829966848</v>
-      </c>
-      <c r="N105" t="n">
-        <v>21</v>
-      </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P105" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>23.94000053405762</v>
-      </c>
-      <c r="C106" t="n">
-        <v>24.95999908447266</v>
-      </c>
-      <c r="D106" t="n">
-        <v>23.23999977111816</v>
-      </c>
-      <c r="E106" t="n">
-        <v>24.20000076293945</v>
-      </c>
-      <c r="F106" t="n">
-        <v>21.25257296085208</v>
-      </c>
-      <c r="G106" t="n">
-        <v>19.74044034625897</v>
-      </c>
-      <c r="H106" t="n">
-        <v>18.7026827253434</v>
-      </c>
-      <c r="I106" t="n">
-        <v>24.95999908447266</v>
-      </c>
-      <c r="J106" t="n">
-        <v>24.9495788337261</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0</v>
-      </c>
-      <c r="L106" s="2" t="n">
-        <v>44180</v>
-      </c>
-      <c r="M106" t="n">
-        <v>1.00957829966848</v>
-      </c>
-      <c r="N106" t="n">
-        <v>21</v>
-      </c>
-      <c r="O106" t="n">
-        <v>23.94000053405762</v>
-      </c>
-      <c r="P106" t="n">
-        <v>422</v>
+        <v>4090</v>
       </c>
     </row>
   </sheetData>

--- a/Excel reports/Performance_report.xlsx
+++ b/Excel reports/Performance_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P96"/>
+  <dimension ref="A1:P91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,25 +519,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>95.66666412353516</v>
+        <v>23.75</v>
       </c>
       <c r="C2" t="n">
-        <v>104.3133316040039</v>
+        <v>24.59000015258789</v>
       </c>
       <c r="D2" t="n">
-        <v>94.19999694824219</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
-        <v>95.38400268554688</v>
+        <v>21.32999992370605</v>
       </c>
       <c r="F2" t="n">
-        <v>91.20417345890496</v>
+        <v>21.57731718263062</v>
       </c>
       <c r="G2" t="n">
-        <v>85.0229331638558</v>
+        <v>21.27049776832534</v>
       </c>
       <c r="H2" t="n">
-        <v>67.38207425027659</v>
+        <v>21.84927524627672</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -556,7 +556,7 @@
         <v>44039</v>
       </c>
       <c r="M2" t="n">
-        <v>7.87979303247738</v>
+        <v>-0.6400012969970703</v>
       </c>
       <c r="N2" t="n">
         <v>1</v>
@@ -577,25 +577,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>96.61333465576172</v>
+        <v>21.53000068664551</v>
       </c>
       <c r="C3" t="n">
-        <v>101.8273315429688</v>
+        <v>25.10000038146973</v>
       </c>
       <c r="D3" t="n">
-        <v>94.33399963378906</v>
+        <v>21.35000038146973</v>
       </c>
       <c r="E3" t="n">
-        <v>96.84733581542969</v>
+        <v>23.51000022888184</v>
       </c>
       <c r="F3" t="n">
-        <v>93.08522757774654</v>
+        <v>22.22154486471436</v>
       </c>
       <c r="G3" t="n">
-        <v>87.65057819753889</v>
+        <v>21.76816498178234</v>
       </c>
       <c r="H3" t="n">
-        <v>70.06073439256323</v>
+        <v>22.00025024469537</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         <v>44046</v>
       </c>
       <c r="M3" t="n">
-        <v>7.87979303247738</v>
+        <v>-0.6400012969970703</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
@@ -635,25 +635,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>96.53333282470703</v>
+        <v>23.65999984741211</v>
       </c>
       <c r="C4" t="n">
-        <v>111.2533340454102</v>
+        <v>25.55999946594238</v>
       </c>
       <c r="D4" t="n">
-        <v>91</v>
+        <v>23.54000091552734</v>
       </c>
       <c r="E4" t="n">
-        <v>110.0473327636719</v>
+        <v>24.52000045776367</v>
       </c>
       <c r="F4" t="n">
-        <v>98.73926263972166</v>
+        <v>22.98769672906413</v>
       </c>
       <c r="G4" t="n">
-        <v>92.62763476779067</v>
+        <v>22.37968397644486</v>
       </c>
       <c r="H4" t="n">
-        <v>73.69587969902766</v>
+        <v>22.2293184458834</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44053</v>
       </c>
       <c r="M4" t="n">
-        <v>7.87979303247738</v>
+        <v>-0.6400012969970703</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
@@ -693,25 +693,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>111.8000030517578</v>
+        <v>24.70000076293945</v>
       </c>
       <c r="C5" t="n">
-        <v>139.6993255615234</v>
+        <v>24.85000038146973</v>
       </c>
       <c r="D5" t="n">
-        <v>111.5220031738281</v>
+        <v>21.94000053405762</v>
       </c>
       <c r="E5" t="n">
-        <v>136.6653289794922</v>
+        <v>22.3799991607666</v>
       </c>
       <c r="F5" t="n">
-        <v>111.3812847529785</v>
+        <v>22.78513087296496</v>
       </c>
       <c r="G5" t="n">
-        <v>102.4137890370577</v>
+        <v>22.37975401740524</v>
       </c>
       <c r="H5" t="n">
-        <v>79.4203750881608</v>
+        <v>22.24301669269096</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
         <v>44060</v>
       </c>
       <c r="M5" t="n">
-        <v>7.87979303247738</v>
+        <v>-0.6400012969970703</v>
       </c>
       <c r="N5" t="n">
         <v>1</v>
@@ -751,31 +751,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>141.7519989013672</v>
+        <v>22.54000091552734</v>
       </c>
       <c r="C6" t="n">
-        <v>154.5659942626953</v>
+        <v>23.59000015258789</v>
       </c>
       <c r="D6" t="n">
-        <v>128.5013275146484</v>
+        <v>21.04999923706055</v>
       </c>
       <c r="E6" t="n">
-        <v>147.5599975585938</v>
+        <v>21.89999961853027</v>
       </c>
       <c r="F6" t="n">
-        <v>93.08522757774654</v>
+        <v>22.22154486471436</v>
       </c>
       <c r="G6" t="n">
-        <v>87.65057819753889</v>
+        <v>21.76816498178234</v>
       </c>
       <c r="H6" t="n">
-        <v>70.06073439256323</v>
+        <v>22.00025024469537</v>
       </c>
       <c r="I6" t="n">
-        <v>154.5659942626953</v>
+        <v>23.59000015258789</v>
       </c>
       <c r="J6" t="n">
-        <v>149.6317919338446</v>
+        <v>24.24337590111122</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -784,16 +784,16 @@
         <v>44061</v>
       </c>
       <c r="M6" t="n">
-        <v>7.87979303247738</v>
+        <v>-0.6400012969970703</v>
       </c>
       <c r="N6" t="n">
         <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>141.7519989013672</v>
+        <v>22.54000091552734</v>
       </c>
       <c r="P6" t="n">
-        <v>559</v>
+        <v>-284</v>
       </c>
     </row>
     <row r="7">
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>216.9900054931641</v>
+        <v>33.31000137329102</v>
       </c>
       <c r="C7" t="n">
-        <v>232.5099945068359</v>
+        <v>35.97000122070312</v>
       </c>
       <c r="D7" t="n">
-        <v>209.0800018310547</v>
+        <v>32.93999862670898</v>
       </c>
       <c r="E7" t="n">
-        <v>229.0666656494141</v>
+        <v>33.36000061035156</v>
       </c>
       <c r="F7" t="n">
-        <v>220.2980940040874</v>
+        <v>35.15779430514044</v>
       </c>
       <c r="G7" t="n">
-        <v>218.6737424913935</v>
+        <v>36.16499456462748</v>
       </c>
       <c r="H7" t="n">
-        <v>217.4242411960699</v>
+        <v>35.45306817614916</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44403</v>
       </c>
       <c r="M7" t="n">
-        <v>6.758148479171723</v>
+        <v>1.622059496990321</v>
       </c>
       <c r="N7" t="n">
         <v>2</v>
@@ -859,25 +859,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>233.3333282470703</v>
+        <v>33.0099983215332</v>
       </c>
       <c r="C8" t="n">
-        <v>242.3133392333984</v>
+        <v>35</v>
       </c>
       <c r="D8" t="n">
-        <v>232.5433349609375</v>
+        <v>30.19000053405762</v>
       </c>
       <c r="E8" t="n">
-        <v>233.0333404541016</v>
+        <v>30.34000015258789</v>
       </c>
       <c r="F8" t="n">
-        <v>224.5431761540922</v>
+        <v>33.55186292095626</v>
       </c>
       <c r="G8" t="n">
-        <v>221.8647642608842</v>
+        <v>34.87055136195201</v>
       </c>
       <c r="H8" t="n">
-        <v>218.8432502195273</v>
+        <v>34.98824381037086</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>44410</v>
       </c>
       <c r="M8" t="n">
-        <v>6.758148479171723</v>
+        <v>1.622059496990321</v>
       </c>
       <c r="N8" t="n">
         <v>2</v>
@@ -917,25 +917,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>236.7233276367188</v>
+        <v>29.81999969482422</v>
       </c>
       <c r="C9" t="n">
-        <v>243.3000030517578</v>
+        <v>30.56999969482422</v>
       </c>
       <c r="D9" t="n">
-        <v>233.1333312988281</v>
+        <v>28.42000007629395</v>
       </c>
       <c r="E9" t="n">
-        <v>239.0566711425781</v>
+        <v>28.53000068664551</v>
       </c>
       <c r="F9" t="n">
-        <v>229.3810078169208</v>
+        <v>31.87790884285268</v>
       </c>
       <c r="G9" t="n">
-        <v>225.6851880123717</v>
+        <v>33.46154010077279</v>
       </c>
       <c r="H9" t="n">
-        <v>220.6808339398046</v>
+        <v>34.4011307991231</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -954,7 +954,7 @@
         <v>44417</v>
       </c>
       <c r="M9" t="n">
-        <v>6.758148479171723</v>
+        <v>1.622059496990321</v>
       </c>
       <c r="N9" t="n">
         <v>2</v>
@@ -975,25 +975,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>235.0233306884766</v>
+        <v>28.10000038146973</v>
       </c>
       <c r="C10" t="n">
-        <v>236.5</v>
+        <v>28.1299991607666</v>
       </c>
       <c r="D10" t="n">
-        <v>216.2799987792969</v>
+        <v>23.73999977111816</v>
       </c>
       <c r="E10" t="n">
-        <v>226.7533264160156</v>
+        <v>24.5</v>
       </c>
       <c r="F10" t="n">
-        <v>228.5051140166191</v>
+        <v>29.41860589523512</v>
       </c>
       <c r="G10" t="n">
-        <v>225.9225521020704</v>
+        <v>31.4700867450455</v>
       </c>
       <c r="H10" t="n">
-        <v>221.2328787103692</v>
+        <v>33.50102799920282</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>44424</v>
       </c>
       <c r="M10" t="n">
-        <v>6.758148479171723</v>
+        <v>1.622059496990321</v>
       </c>
       <c r="N10" t="n">
         <v>2</v>
@@ -1033,31 +1033,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>228.4799957275391</v>
+        <v>25.07999992370605</v>
       </c>
       <c r="C11" t="n">
-        <v>238.9900054931641</v>
+        <v>29.11000061035156</v>
       </c>
       <c r="D11" t="n">
-        <v>226.9166717529297</v>
+        <v>25.07999992370605</v>
       </c>
       <c r="E11" t="n">
-        <v>237.3066711425781</v>
+        <v>28.93000030517578</v>
       </c>
       <c r="F11" t="n">
-        <v>224.5431761540922</v>
+        <v>33.55186292095626</v>
       </c>
       <c r="G11" t="n">
-        <v>221.8647642608842</v>
+        <v>34.87055136195201</v>
       </c>
       <c r="H11" t="n">
-        <v>218.8432502195273</v>
+        <v>34.98824381037086</v>
       </c>
       <c r="I11" t="n">
-        <v>238.9900054931641</v>
+        <v>29.11000061035156</v>
       </c>
       <c r="J11" t="n">
-        <v>235.2381442067108</v>
+        <v>26.70205942069638</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>44425</v>
       </c>
       <c r="M11" t="n">
-        <v>6.758148479171723</v>
+        <v>1.622059496990321</v>
       </c>
       <c r="N11" t="n">
         <v>2</v>
       </c>
       <c r="O11" t="n">
-        <v>228.4799957275391</v>
+        <v>25.07999992370605</v>
       </c>
       <c r="P11" t="n">
-        <v>297</v>
+        <v>647</v>
       </c>
     </row>
     <row r="12">
@@ -1083,25 +1083,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>387.4433288574219</v>
+        <v>24.29000091552734</v>
       </c>
       <c r="C12" t="n">
-        <v>400.6499938964844</v>
+        <v>26.36000061035156</v>
       </c>
       <c r="D12" t="n">
-        <v>354</v>
+        <v>23.92000007629395</v>
       </c>
       <c r="E12" t="n">
-        <v>360.6400146484375</v>
+        <v>24.13999938964844</v>
       </c>
       <c r="F12" t="n">
-        <v>356.6239761024502</v>
+        <v>25.63981686813359</v>
       </c>
       <c r="G12" t="n">
-        <v>340.8021736280785</v>
+        <v>26.46007548451282</v>
       </c>
       <c r="H12" t="n">
-        <v>293.8154160179719</v>
+        <v>28.82803825221075</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>44522</v>
       </c>
       <c r="M12" t="n">
-        <v>52.0999755859375</v>
+        <v>1.350000381469727</v>
       </c>
       <c r="N12" t="n">
         <v>3</v>
@@ -1141,25 +1141,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>366.9966735839844</v>
+        <v>25</v>
       </c>
       <c r="C13" t="n">
-        <v>390.9466552734375</v>
+        <v>25.31999969482422</v>
       </c>
       <c r="D13" t="n">
-        <v>333.4033203125</v>
+        <v>21.8700008392334</v>
       </c>
       <c r="E13" t="n">
-        <v>338.3233337402344</v>
+        <v>23.48999977111816</v>
       </c>
       <c r="F13" t="n">
-        <v>350.5237619817116</v>
+        <v>24.92321116912845</v>
       </c>
       <c r="G13" t="n">
-        <v>340.2513203196687</v>
+        <v>25.80005865931401</v>
       </c>
       <c r="H13" t="n">
-        <v>297.8615903563594</v>
+        <v>28.34276202665688</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44529</v>
       </c>
       <c r="M13" t="n">
-        <v>52.0999755859375</v>
+        <v>1.350000381469727</v>
       </c>
       <c r="N13" t="n">
         <v>3</v>
@@ -1199,25 +1199,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>333.836669921875</v>
+        <v>24.03000068664551</v>
       </c>
       <c r="C14" t="n">
-        <v>357.4599914550781</v>
+        <v>25.81999969482422</v>
       </c>
       <c r="D14" t="n">
-        <v>316.8333435058594</v>
+        <v>23.65999984741211</v>
       </c>
       <c r="E14" t="n">
-        <v>339.010009765625</v>
+        <v>24.64999961853027</v>
       </c>
       <c r="F14" t="n">
-        <v>346.6858445763494</v>
+        <v>24.83214065226239</v>
       </c>
       <c r="G14" t="n">
-        <v>339.9754735298812</v>
+        <v>25.54448998358429</v>
       </c>
       <c r="H14" t="n">
-        <v>301.6023557572017</v>
+        <v>28.00705635319082</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>44536</v>
       </c>
       <c r="M14" t="n">
-        <v>52.0999755859375</v>
+        <v>1.350000381469727</v>
       </c>
       <c r="N14" t="n">
         <v>3</v>
@@ -1257,25 +1257,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>333.6966552734375</v>
+        <v>24.29000091552734</v>
       </c>
       <c r="C15" t="n">
-        <v>335</v>
+        <v>24.35000038146973</v>
       </c>
       <c r="D15" t="n">
-        <v>303.0133361816406</v>
+        <v>21.07999992370605</v>
       </c>
       <c r="E15" t="n">
-        <v>310.8566589355469</v>
+        <v>22.43000030517578</v>
       </c>
       <c r="F15" t="n">
-        <v>334.7427826960819</v>
+        <v>24.03142720323352</v>
       </c>
       <c r="G15" t="n">
-        <v>333.5046258422514</v>
+        <v>24.85238116616018</v>
       </c>
       <c r="H15" t="n">
-        <v>302.4436560461421</v>
+        <v>27.50005125791672</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>44543</v>
       </c>
       <c r="M15" t="n">
-        <v>52.0999755859375</v>
+        <v>1.350000381469727</v>
       </c>
       <c r="N15" t="n">
         <v>3</v>
@@ -1315,31 +1315,31 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>303.5666809082031</v>
+        <v>21.89999961853027</v>
       </c>
       <c r="C16" t="n">
-        <v>357.6600036621094</v>
+        <v>23.42000007629395</v>
       </c>
       <c r="D16" t="n">
-        <v>295.3733215332031</v>
+        <v>21.26000022888184</v>
       </c>
       <c r="E16" t="n">
-        <v>355.6666564941406</v>
+        <v>23.25</v>
       </c>
       <c r="F16" t="n">
-        <v>350.5237619817116</v>
+        <v>24.92321116912845</v>
       </c>
       <c r="G16" t="n">
-        <v>340.2513203196687</v>
+        <v>25.80005865931401</v>
       </c>
       <c r="H16" t="n">
-        <v>297.8615903563594</v>
+        <v>28.34276202665688</v>
       </c>
       <c r="I16" t="n">
-        <v>357.6600036621094</v>
+        <v>23.42000007629395</v>
       </c>
       <c r="J16" t="n">
-        <v>377.354860324294</v>
+        <v>23.92993245242474</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>44544</v>
       </c>
       <c r="M16" t="n">
-        <v>52.0999755859375</v>
+        <v>1.350000381469727</v>
       </c>
       <c r="N16" t="n">
         <v>3</v>
       </c>
       <c r="O16" t="n">
-        <v>303.5666809082031</v>
+        <v>21.89999961853027</v>
       </c>
       <c r="P16" t="n">
-        <v>1719</v>
+        <v>617</v>
       </c>
     </row>
     <row r="17">
@@ -1365,25 +1365,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>260.2033386230469</v>
+        <v>23.36000061035156</v>
       </c>
       <c r="C17" t="n">
-        <v>302.6166687011719</v>
+        <v>23.75</v>
       </c>
       <c r="D17" t="n">
-        <v>252.0133361816406</v>
+        <v>21.96999931335449</v>
       </c>
       <c r="E17" t="n">
-        <v>301.7966613769531</v>
+        <v>22.30999946594238</v>
       </c>
       <c r="F17" t="n">
-        <v>286.5717869442876</v>
+        <v>23.28396746786236</v>
       </c>
       <c r="G17" t="n">
-        <v>291.1189921097036</v>
+        <v>24.01045268554088</v>
       </c>
       <c r="H17" t="n">
-        <v>299.6166096967672</v>
+        <v>26.67698446212428</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>0.1089</v>
+        <v>0.20095</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>44634</v>
+        <v>44557</v>
       </c>
       <c r="M17" t="n">
-        <v>1.533355712890625</v>
+        <v>1.893203231534244</v>
       </c>
       <c r="N17" t="n">
         <v>4</v>
@@ -1423,25 +1423,25 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>304.9933471679688</v>
+        <v>22.57999992370605</v>
       </c>
       <c r="C18" t="n">
-        <v>346.8999938964844</v>
+        <v>26.45999908447266</v>
       </c>
       <c r="D18" t="n">
-        <v>302.3633422851562</v>
+        <v>22.3700008392334</v>
       </c>
       <c r="E18" t="n">
-        <v>336.8800048828125</v>
+        <v>26.18000030517578</v>
       </c>
       <c r="F18" t="n">
-        <v>303.3411929237959</v>
+        <v>24.24931174696684</v>
       </c>
       <c r="G18" t="n">
-        <v>301.2881060592834</v>
+        <v>24.49257437879308</v>
       </c>
       <c r="H18" t="n">
-        <v>303.0041910773168</v>
+        <v>26.63180408421987</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1454,13 +1454,13 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>0.1141</v>
+        <v>0</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>44641</v>
+        <v>44564</v>
       </c>
       <c r="M18" t="n">
-        <v>1.533355712890625</v>
+        <v>1.893203231534244</v>
       </c>
       <c r="N18" t="n">
         <v>4</v>
@@ -1481,25 +1481,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>355.0333251953125</v>
+        <v>26.13999938964844</v>
       </c>
       <c r="C19" t="n">
-        <v>371.5899963378906</v>
+        <v>27.3799991607666</v>
       </c>
       <c r="D19" t="n">
-        <v>351.2000122070312</v>
+        <v>25.5</v>
       </c>
       <c r="E19" t="n">
-        <v>361.5299987792969</v>
+        <v>27.35000038146973</v>
       </c>
       <c r="F19" t="n">
-        <v>322.7374615422963</v>
+        <v>25.28287462513447</v>
       </c>
       <c r="G19" t="n">
-        <v>314.6751933303975</v>
+        <v>25.12755793494345</v>
       </c>
       <c r="H19" t="n">
-        <v>308.3247190502241</v>
+        <v>26.69709465669713</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>0.1009</v>
+        <v>0</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>44648</v>
+        <v>44571</v>
       </c>
       <c r="M19" t="n">
-        <v>1.533355712890625</v>
+        <v>1.893203231534244</v>
       </c>
       <c r="N19" t="n">
         <v>4</v>
@@ -1539,25 +1539,25 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>363.1266784667969</v>
+        <v>27.78000068664551</v>
       </c>
       <c r="C20" t="n">
-        <v>384.2900085449219</v>
+        <v>28.09000015258789</v>
       </c>
       <c r="D20" t="n">
-        <v>340.5133361816406</v>
+        <v>25.14999961853027</v>
       </c>
       <c r="E20" t="n">
-        <v>341.8299865722656</v>
+        <v>25.90999984741211</v>
       </c>
       <c r="F20" t="n">
-        <v>329.1016365522861</v>
+        <v>25.49191636589368</v>
       </c>
       <c r="G20" t="n">
-        <v>320.7095918285904</v>
+        <v>25.30143391549204</v>
       </c>
       <c r="H20" t="n">
-        <v>311.3706524613187</v>
+        <v>26.62554058312577</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1570,13 +1570,13 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>0.1123</v>
+        <v>0</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>44655</v>
+        <v>44578</v>
       </c>
       <c r="M20" t="n">
-        <v>1.533355712890625</v>
+        <v>1.893203231534244</v>
       </c>
       <c r="N20" t="n">
         <v>4</v>
@@ -1597,49 +1597,49 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>326.7999877929688</v>
+        <v>25.20999908447266</v>
       </c>
       <c r="C21" t="n">
-        <v>342.0799865722656</v>
+        <v>28.56999969482422</v>
       </c>
       <c r="D21" t="n">
-        <v>324.3666687011719</v>
+        <v>24.65999984741211</v>
       </c>
       <c r="E21" t="n">
-        <v>328.3333435058594</v>
+        <v>26.45000076293945</v>
       </c>
       <c r="F21" t="n">
-        <v>303.3411929237959</v>
+        <v>24.24931174696684</v>
       </c>
       <c r="G21" t="n">
-        <v>301.2881060592834</v>
+        <v>24.49257437879308</v>
       </c>
       <c r="H21" t="n">
-        <v>303.0041910773168</v>
+        <v>26.63180408421987</v>
       </c>
       <c r="I21" t="n">
-        <v>342.0799865722656</v>
+        <v>28.56999969482422</v>
       </c>
       <c r="J21" t="n">
-        <v>360.2872382313435</v>
+        <v>27.1032023160069</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>44656</v>
+        <v>44579</v>
       </c>
       <c r="M21" t="n">
-        <v>1.533355712890625</v>
+        <v>1.893203231534244</v>
       </c>
       <c r="N21" t="n">
         <v>4</v>
       </c>
       <c r="O21" t="n">
-        <v>326.7999877929688</v>
+        <v>25.20999908447266</v>
       </c>
       <c r="P21" t="n">
-        <v>48</v>
+        <v>752</v>
       </c>
     </row>
     <row r="22">
@@ -1647,25 +1647,25 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>52.70066833496094</v>
+        <v>37.66999816894531</v>
       </c>
       <c r="C22" t="n">
-        <v>56.21933364868164</v>
+        <v>41.81000137329102</v>
       </c>
       <c r="D22" t="n">
-        <v>50.88666534423828</v>
+        <v>36.59999847412109</v>
       </c>
       <c r="E22" t="n">
-        <v>53.27799987792969</v>
+        <v>41.79999923706055</v>
       </c>
       <c r="F22" t="n">
-        <v>49.70782743937973</v>
+        <v>36.30102182418928</v>
       </c>
       <c r="G22" t="n">
-        <v>47.40900868438122</v>
+        <v>34.69363512044183</v>
       </c>
       <c r="H22" t="n">
-        <v>42.35762494475741</v>
+        <v>31.88770123463585</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1681,10 +1681,10 @@
         <v>0</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>43962</v>
+        <v>44340</v>
       </c>
       <c r="M22" t="n">
-        <v>5.217593692798886</v>
+        <v>0.4200019836425781</v>
       </c>
       <c r="N22" t="n">
         <v>5</v>
@@ -1705,25 +1705,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>55.18533325195312</v>
+        <v>42.43999862670898</v>
       </c>
       <c r="C23" t="n">
-        <v>55.64799880981445</v>
+        <v>48.59999847412109</v>
       </c>
       <c r="D23" t="n">
-        <v>53.06666564941406</v>
+        <v>41.11000061035156</v>
       </c>
       <c r="E23" t="n">
-        <v>54.45866775512695</v>
+        <v>47.56000137329102</v>
       </c>
       <c r="F23" t="n">
-        <v>51.29144087796215</v>
+        <v>40.0540150072232</v>
       </c>
       <c r="G23" t="n">
-        <v>48.97559958899139</v>
+        <v>37.55282762107498</v>
       </c>
       <c r="H23" t="n">
-        <v>43.4577197457001</v>
+        <v>33.31245579269541</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>43969</v>
+        <v>44347</v>
       </c>
       <c r="M23" t="n">
-        <v>5.217593692798886</v>
+        <v>0.4200019836425781</v>
       </c>
       <c r="N23" t="n">
         <v>5</v>
@@ -1763,25 +1763,25 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>55.63333129882812</v>
+        <v>47.40000152587891</v>
       </c>
       <c r="C24" t="n">
-        <v>55.66666793823242</v>
+        <v>49.86999893188477</v>
       </c>
       <c r="D24" t="n">
-        <v>52.33333206176758</v>
+        <v>46.65000152587891</v>
       </c>
       <c r="E24" t="n">
-        <v>55.66666793823242</v>
+        <v>47.81000137329102</v>
       </c>
       <c r="F24" t="n">
-        <v>52.74984989805224</v>
+        <v>42.63934379591247</v>
       </c>
       <c r="G24" t="n">
-        <v>50.4625036666005</v>
+        <v>39.83219956601187</v>
       </c>
       <c r="H24" t="n">
-        <v>44.5676241268394</v>
+        <v>34.63041448184047</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1797,10 +1797,10 @@
         <v>0</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>43976</v>
+        <v>44354</v>
       </c>
       <c r="M24" t="n">
-        <v>5.217593692798886</v>
+        <v>0.4200019836425781</v>
       </c>
       <c r="N24" t="n">
         <v>5</v>
@@ -1821,25 +1821,25 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>57.20000076293945</v>
+        <v>46.68999862670898</v>
       </c>
       <c r="C25" t="n">
-        <v>60.57733154296875</v>
+        <v>48.11999893188477</v>
       </c>
       <c r="D25" t="n">
-        <v>56.93999862670898</v>
+        <v>40.45000076293945</v>
       </c>
       <c r="E25" t="n">
-        <v>59.04399871826172</v>
+        <v>41.34999847412109</v>
       </c>
       <c r="F25" t="n">
-        <v>54.84789950478874</v>
+        <v>42.20956202198202</v>
       </c>
       <c r="G25" t="n">
-        <v>52.36950256696966</v>
+        <v>40.16948821225837</v>
       </c>
       <c r="H25" t="n">
-        <v>45.88365818060506</v>
+        <v>35.24128575386598</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>43983</v>
+        <v>44361</v>
       </c>
       <c r="M25" t="n">
-        <v>5.217593692798886</v>
+        <v>0.4200019836425781</v>
       </c>
       <c r="N25" t="n">
         <v>5</v>
@@ -1879,49 +1879,49 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>61.26666641235352</v>
+        <v>41.68999862670898</v>
       </c>
       <c r="C26" t="n">
-        <v>68.49866485595703</v>
+        <v>44.34999847412109</v>
       </c>
       <c r="D26" t="n">
-        <v>60.61066818237305</v>
+        <v>41.34999847412109</v>
       </c>
       <c r="E26" t="n">
-        <v>62.35200119018555</v>
+        <v>42.11000061035156</v>
       </c>
       <c r="F26" t="n">
-        <v>51.29144087796215</v>
+        <v>40.0540150072232</v>
       </c>
       <c r="G26" t="n">
-        <v>48.97559958899139</v>
+        <v>37.55282762107498</v>
       </c>
       <c r="H26" t="n">
-        <v>43.4577197457001</v>
+        <v>33.31245579269541</v>
       </c>
       <c r="I26" t="n">
-        <v>68.49866485595703</v>
+        <v>44.34999847412109</v>
       </c>
       <c r="J26" t="n">
-        <v>66.4842601051524</v>
+        <v>46.39619525099994</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>43984</v>
+        <v>44362</v>
       </c>
       <c r="M26" t="n">
-        <v>5.217593692798886</v>
+        <v>0.4200019836425781</v>
       </c>
       <c r="N26" t="n">
         <v>5</v>
       </c>
       <c r="O26" t="n">
-        <v>61.26666641235352</v>
+        <v>41.68999862670898</v>
       </c>
       <c r="P26" t="n">
-        <v>850</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27">
@@ -1929,25 +1929,25 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>357.8900146484375</v>
+        <v>22.57999992370605</v>
       </c>
       <c r="C27" t="n">
-        <v>373</v>
+        <v>26.45999908447266</v>
       </c>
       <c r="D27" t="n">
-        <v>351.0499877929688</v>
+        <v>22.3700008392334</v>
       </c>
       <c r="E27" t="n">
-        <v>352.260009765625</v>
+        <v>26.18000030517578</v>
       </c>
       <c r="F27" t="n">
-        <v>345.2316081188316</v>
+        <v>24.24931174696684</v>
       </c>
       <c r="G27" t="n">
-        <v>341.5029633699943</v>
+        <v>24.49257437879308</v>
       </c>
       <c r="H27" t="n">
-        <v>311.371010553533</v>
+        <v>26.63180408421987</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1960,13 +1960,13 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>0.1186</v>
+        <v>0</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>44557</v>
+        <v>44564</v>
       </c>
       <c r="M27" t="n">
-        <v>-19.47000122070312</v>
+        <v>0.4325715107941051</v>
       </c>
       <c r="N27" t="n">
         <v>6</v>
@@ -1987,25 +1987,25 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>382.5833435058594</v>
+        <v>26.13999938964844</v>
       </c>
       <c r="C28" t="n">
-        <v>402.6666564941406</v>
+        <v>27.3799991607666</v>
       </c>
       <c r="D28" t="n">
-        <v>336.6666564941406</v>
+        <v>25.5</v>
       </c>
       <c r="E28" t="n">
-        <v>342.3200073242188</v>
+        <v>27.35000038146973</v>
       </c>
       <c r="F28" t="n">
-        <v>344.2610745206273</v>
+        <v>25.28287462513447</v>
       </c>
       <c r="G28" t="n">
-        <v>341.6845286931553</v>
+        <v>25.12755793494345</v>
       </c>
       <c r="H28" t="n">
-        <v>314.1845557145044</v>
+        <v>26.69709465669713</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -2018,13 +2018,13 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>0.1091</v>
+        <v>0</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>44564</v>
+        <v>44571</v>
       </c>
       <c r="M28" t="n">
-        <v>-19.47000122070312</v>
+        <v>0.4325715107941051</v>
       </c>
       <c r="N28" t="n">
         <v>6</v>
@@ -2045,25 +2045,25 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>333.3333435058594</v>
+        <v>27.78000068664551</v>
       </c>
       <c r="C29" t="n">
-        <v>371.8666687011719</v>
+        <v>28.09000015258789</v>
       </c>
       <c r="D29" t="n">
-        <v>326.6666564941406</v>
+        <v>25.14999961853027</v>
       </c>
       <c r="E29" t="n">
-        <v>349.8699951171875</v>
+        <v>25.90999984741211</v>
       </c>
       <c r="F29" t="n">
-        <v>346.1307147194807</v>
+        <v>25.49191636589368</v>
       </c>
       <c r="G29" t="n">
-        <v>343.5035212318292</v>
+        <v>25.30143391549204</v>
       </c>
       <c r="H29" t="n">
-        <v>317.4286865692937</v>
+        <v>26.62554058312577</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -2076,13 +2076,13 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>0.1062</v>
+        <v>0</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>44571</v>
+        <v>44578</v>
       </c>
       <c r="M29" t="n">
-        <v>-19.47000122070312</v>
+        <v>0.4325715107941051</v>
       </c>
       <c r="N29" t="n">
         <v>6</v>
@@ -2103,25 +2103,25 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>342.2033386230469</v>
+        <v>25.20999908447266</v>
       </c>
       <c r="C30" t="n">
-        <v>356.9299926757812</v>
+        <v>28.56999969482422</v>
       </c>
       <c r="D30" t="n">
-        <v>313.5</v>
+        <v>24.65999984741211</v>
       </c>
       <c r="E30" t="n">
-        <v>314.6333312988281</v>
+        <v>26.45000076293945</v>
       </c>
       <c r="F30" t="n">
-        <v>335.6315869125965</v>
+        <v>25.81127783157561</v>
       </c>
       <c r="G30" t="n">
-        <v>337.0879234689401</v>
+        <v>25.55667099270257</v>
       </c>
       <c r="H30" t="n">
-        <v>317.1745633628878</v>
+        <v>26.60958241765428</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -2134,13 +2134,13 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>0.1076</v>
+        <v>0</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>44578</v>
+        <v>44585</v>
       </c>
       <c r="M30" t="n">
-        <v>-19.47000122070312</v>
+        <v>0.4325715107941051</v>
       </c>
       <c r="N30" t="n">
         <v>6</v>
@@ -2161,49 +2161,49 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>301.586669921875</v>
+        <v>26.20999908447266</v>
       </c>
       <c r="C31" t="n">
-        <v>329.2300109863281</v>
+        <v>28.34000015258789</v>
       </c>
       <c r="D31" t="n">
-        <v>264.0033264160156</v>
+        <v>24.45000076293945</v>
       </c>
       <c r="E31" t="n">
-        <v>282.1166687011719</v>
+        <v>27.02000045776367</v>
       </c>
       <c r="F31" t="n">
-        <v>344.2610745206273</v>
+        <v>25.28287462513447</v>
       </c>
       <c r="G31" t="n">
-        <v>341.6845286931553</v>
+        <v>25.12755793494345</v>
       </c>
       <c r="H31" t="n">
-        <v>314.1845557145044</v>
+        <v>26.69709465669713</v>
       </c>
       <c r="I31" t="n">
-        <v>329.2300109863281</v>
+        <v>28.34000015258789</v>
       </c>
       <c r="J31" t="n">
-        <v>347.4704685298202</v>
+        <v>26.64257059526676</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>44579</v>
+        <v>44586</v>
       </c>
       <c r="M31" t="n">
-        <v>-19.47000122070312</v>
+        <v>0.4325715107941051</v>
       </c>
       <c r="N31" t="n">
         <v>6</v>
       </c>
       <c r="O31" t="n">
-        <v>301.586669921875</v>
+        <v>26.20999908447266</v>
       </c>
       <c r="P31" t="n">
-        <v>-643</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32">
@@ -2211,25 +2211,25 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>193.8666687011719</v>
+        <v>15.05000019073486</v>
       </c>
       <c r="C32" t="n">
-        <v>211.8633270263672</v>
+        <v>15.3100004196167</v>
       </c>
       <c r="D32" t="n">
-        <v>191.2166595458984</v>
+        <v>13.43000030517578</v>
       </c>
       <c r="E32" t="n">
-        <v>208.4066619873047</v>
+        <v>14.44999980926514</v>
       </c>
       <c r="F32" t="n">
-        <v>210.2416427533253</v>
+        <v>15.42580274117026</v>
       </c>
       <c r="G32" t="n">
-        <v>215.32124046287</v>
+        <v>16.25669943117394</v>
       </c>
       <c r="H32" t="n">
-        <v>218.0579855116171</v>
+        <v>18.66076369049623</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -2245,10 +2245,10 @@
         <v>0</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>44340</v>
+        <v>44130</v>
       </c>
       <c r="M32" t="n">
-        <v>17.88176348593151</v>
+        <v>3.438126482610642</v>
       </c>
       <c r="N32" t="n">
         <v>7</v>
@@ -2269,25 +2269,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>209.2666625976562</v>
+        <v>14.72000026702881</v>
       </c>
       <c r="C33" t="n">
-        <v>211.2666625976562</v>
+        <v>16.13999938964844</v>
       </c>
       <c r="D33" t="n">
-        <v>190.4066619873047</v>
+        <v>14.36999988555908</v>
       </c>
       <c r="E33" t="n">
-        <v>199.6833343505859</v>
+        <v>15.21000003814697</v>
       </c>
       <c r="F33" t="n">
-        <v>206.7222066190789</v>
+        <v>15.35386850682916</v>
       </c>
       <c r="G33" t="n">
-        <v>211.8461502156958</v>
+        <v>16.02409956605684</v>
       </c>
       <c r="H33" t="n">
-        <v>216.3875626787961</v>
+        <v>18.34705790391902</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>44347</v>
+        <v>44137</v>
       </c>
       <c r="M33" t="n">
-        <v>17.88176348593151</v>
+        <v>3.438126482610642</v>
       </c>
       <c r="N33" t="n">
         <v>7</v>
@@ -2327,25 +2327,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>197.2766723632812</v>
+        <v>17.25</v>
       </c>
       <c r="C34" t="n">
-        <v>207.6966705322266</v>
+        <v>19.77000045776367</v>
       </c>
       <c r="D34" t="n">
-        <v>194.2933349609375</v>
+        <v>17.25</v>
       </c>
       <c r="E34" t="n">
-        <v>203.2966613769531</v>
+        <v>18.3799991607666</v>
       </c>
       <c r="F34" t="n">
-        <v>205.580358205037</v>
+        <v>16.36257872480831</v>
       </c>
       <c r="G34" t="n">
-        <v>209.9462638070863</v>
+        <v>16.54763280932567</v>
       </c>
       <c r="H34" t="n">
-        <v>215.1974807422649</v>
+        <v>18.35005256363244</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -2361,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>44354</v>
+        <v>44144</v>
       </c>
       <c r="M34" t="n">
-        <v>17.88176348593151</v>
+        <v>3.438126482610642</v>
       </c>
       <c r="N34" t="n">
         <v>7</v>
@@ -2385,25 +2385,25 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>204.07666015625</v>
+        <v>19.45999908447266</v>
       </c>
       <c r="C35" t="n">
-        <v>209.4499969482422</v>
+        <v>21.8799991607666</v>
       </c>
       <c r="D35" t="n">
-        <v>197.8333282470703</v>
+        <v>19.15999984741211</v>
       </c>
       <c r="E35" t="n">
-        <v>207.7700042724609</v>
+        <v>20.19000053405762</v>
       </c>
       <c r="F35" t="n">
-        <v>206.3102402275117</v>
+        <v>17.63838599455808</v>
       </c>
       <c r="G35" t="n">
-        <v>209.4626505771695</v>
+        <v>17.35704785926611</v>
       </c>
       <c r="H35" t="n">
-        <v>214.5222556086464</v>
+        <v>18.51732056094382</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2419,10 +2419,10 @@
         <v>0</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>44361</v>
+        <v>44151</v>
       </c>
       <c r="M35" t="n">
-        <v>17.88176348593151</v>
+        <v>3.438126482610642</v>
       </c>
       <c r="N35" t="n">
         <v>7</v>
@@ -2443,49 +2443,49 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>208.1600036621094</v>
+        <v>20.51000022888184</v>
       </c>
       <c r="C36" t="n">
-        <v>232.5399932861328</v>
+        <v>25.79999923706055</v>
       </c>
       <c r="D36" t="n">
-        <v>202.9600067138672</v>
+        <v>20.51000022888184</v>
       </c>
       <c r="E36" t="n">
-        <v>223.9566650390625</v>
+        <v>24.09000015258789</v>
       </c>
       <c r="F36" t="n">
-        <v>206.7222066190789</v>
+        <v>15.35386850682916</v>
       </c>
       <c r="G36" t="n">
-        <v>211.8461502156958</v>
+        <v>16.02409956605684</v>
       </c>
       <c r="H36" t="n">
-        <v>216.3875626787961</v>
+        <v>18.34705790391902</v>
       </c>
       <c r="I36" t="n">
-        <v>232.5399932861328</v>
+        <v>25.79999923706055</v>
       </c>
       <c r="J36" t="n">
-        <v>226.0417671480409</v>
+        <v>23.94812671149248</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>44362</v>
+        <v>44152</v>
       </c>
       <c r="M36" t="n">
-        <v>17.88176348593151</v>
+        <v>3.438126482610642</v>
       </c>
       <c r="N36" t="n">
         <v>7</v>
       </c>
       <c r="O36" t="n">
-        <v>208.1600036621094</v>
+        <v>20.51000022888184</v>
       </c>
       <c r="P36" t="n">
-        <v>858</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="37">
@@ -2493,25 +2493,25 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>382.5833435058594</v>
+        <v>16.77000045776367</v>
       </c>
       <c r="C37" t="n">
-        <v>402.6666564941406</v>
+        <v>16.78000068664551</v>
       </c>
       <c r="D37" t="n">
-        <v>336.6666564941406</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="E37" t="n">
-        <v>342.3200073242188</v>
+        <v>8.489999771118164</v>
       </c>
       <c r="F37" t="n">
-        <v>344.2610745206273</v>
+        <v>22.25813874628412</v>
       </c>
       <c r="G37" t="n">
-        <v>341.6845286931553</v>
+        <v>26.35593313833609</v>
       </c>
       <c r="H37" t="n">
-        <v>314.1845557145044</v>
+        <v>33.20771315831541</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2524,13 +2524,13 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>0.1091</v>
+        <v>0</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>44564</v>
+        <v>43899</v>
       </c>
       <c r="M37" t="n">
-        <v>16.87002563476562</v>
+        <v>1.630000114440918</v>
       </c>
       <c r="N37" t="n">
         <v>8</v>
@@ -2551,25 +2551,25 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>333.3333435058594</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="C38" t="n">
-        <v>371.8666687011719</v>
+        <v>10.80000019073486</v>
       </c>
       <c r="D38" t="n">
-        <v>326.6666564941406</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="E38" t="n">
-        <v>349.8699951171875</v>
+        <v>9.949999809265137</v>
       </c>
       <c r="F38" t="n">
-        <v>346.1307147194807</v>
+        <v>18.15542576727779</v>
       </c>
       <c r="G38" t="n">
-        <v>343.5035212318292</v>
+        <v>22.71017017632033</v>
       </c>
       <c r="H38" t="n">
-        <v>317.4286865692937</v>
+        <v>31.09337558112902</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2582,13 +2582,13 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>0.1062</v>
+        <v>0</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>44571</v>
+        <v>43906</v>
       </c>
       <c r="M38" t="n">
-        <v>16.87002563476562</v>
+        <v>1.630000114440918</v>
       </c>
       <c r="N38" t="n">
         <v>8</v>
@@ -2609,25 +2609,25 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>342.2033386230469</v>
+        <v>10.14000034332275</v>
       </c>
       <c r="C39" t="n">
-        <v>356.9299926757812</v>
+        <v>11.57999992370605</v>
       </c>
       <c r="D39" t="n">
-        <v>313.5</v>
+        <v>9.239999771118164</v>
       </c>
       <c r="E39" t="n">
-        <v>314.6333312988281</v>
+        <v>9.75</v>
       </c>
       <c r="F39" t="n">
-        <v>335.6315869125965</v>
+        <v>15.35361717818519</v>
       </c>
       <c r="G39" t="n">
-        <v>337.0879234689401</v>
+        <v>19.83013235936026</v>
       </c>
       <c r="H39" t="n">
-        <v>317.1745633628878</v>
+        <v>29.15306871011729</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2640,13 +2640,13 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>0.1076</v>
+        <v>0</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>44578</v>
+        <v>43913</v>
       </c>
       <c r="M39" t="n">
-        <v>16.87002563476562</v>
+        <v>1.630000114440918</v>
       </c>
       <c r="N39" t="n">
         <v>8</v>
@@ -2667,25 +2667,25 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>301.586669921875</v>
+        <v>9.550000190734863</v>
       </c>
       <c r="C40" t="n">
-        <v>329.2300109863281</v>
+        <v>10.77000045776367</v>
       </c>
       <c r="D40" t="n">
-        <v>264.0033264160156</v>
+        <v>8.899999618530273</v>
       </c>
       <c r="E40" t="n">
-        <v>282.1166687011719</v>
+        <v>9.899999618530273</v>
       </c>
       <c r="F40" t="n">
-        <v>317.7932808421216</v>
+        <v>13.53574465830022</v>
       </c>
       <c r="G40" t="n">
-        <v>324.8720890761027</v>
+        <v>17.62343619473137</v>
       </c>
       <c r="H40" t="n">
-        <v>313.9874820300045</v>
+        <v>27.4027897017912</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2698,13 +2698,13 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>0.05165</v>
+        <v>0</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>44585</v>
+        <v>43920</v>
       </c>
       <c r="M40" t="n">
-        <v>16.87002563476562</v>
+        <v>1.630000114440918</v>
       </c>
       <c r="N40" t="n">
         <v>8</v>
@@ -2725,49 +2725,49 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>290.9033203125</v>
+        <v>10.03999996185303</v>
       </c>
       <c r="C41" t="n">
-        <v>314.5666809082031</v>
+        <v>12.63000011444092</v>
       </c>
       <c r="D41" t="n">
-        <v>287.3500061035156</v>
+        <v>9.609999656677246</v>
       </c>
       <c r="E41" t="n">
-        <v>307.7733459472656</v>
+        <v>11.67000007629395</v>
       </c>
       <c r="F41" t="n">
-        <v>346.1307147194807</v>
+        <v>18.15542576727779</v>
       </c>
       <c r="G41" t="n">
-        <v>343.5035212318292</v>
+        <v>22.71017017632033</v>
       </c>
       <c r="H41" t="n">
-        <v>317.4286865692937</v>
+        <v>31.09337558112902</v>
       </c>
       <c r="I41" t="n">
-        <v>314.5666809082031</v>
+        <v>12.63000011444092</v>
       </c>
       <c r="J41" t="n">
-        <v>351.3585210560559</v>
+        <v>14.0271045035148</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>44586</v>
+        <v>43921</v>
       </c>
       <c r="M41" t="n">
-        <v>16.87002563476562</v>
+        <v>1.630000114440918</v>
       </c>
       <c r="N41" t="n">
         <v>8</v>
       </c>
       <c r="O41" t="n">
-        <v>290.9033203125</v>
+        <v>10.03999996185303</v>
       </c>
       <c r="P41" t="n">
-        <v>574</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="42">
@@ -2775,25 +2775,25 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>333.6966552734375</v>
+        <v>24.70000076293945</v>
       </c>
       <c r="C42" t="n">
-        <v>335</v>
+        <v>24.85000038146973</v>
       </c>
       <c r="D42" t="n">
-        <v>303.0133361816406</v>
+        <v>21.94000053405762</v>
       </c>
       <c r="E42" t="n">
-        <v>310.8566589355469</v>
+        <v>22.3799991607666</v>
       </c>
       <c r="F42" t="n">
-        <v>334.7427826960819</v>
+        <v>22.78513087296496</v>
       </c>
       <c r="G42" t="n">
-        <v>333.5046258422514</v>
+        <v>22.37975401740524</v>
       </c>
       <c r="H42" t="n">
-        <v>302.4436560461421</v>
+        <v>22.24301669269096</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>44543</v>
+        <v>44060</v>
       </c>
       <c r="M42" t="n">
-        <v>16.53665161132812</v>
+        <v>1.861488155920142</v>
       </c>
       <c r="N42" t="n">
         <v>9</v>
@@ -2833,25 +2833,25 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>303.5666809082031</v>
+        <v>22.54000091552734</v>
       </c>
       <c r="C43" t="n">
-        <v>357.6600036621094</v>
+        <v>23.59000015258789</v>
       </c>
       <c r="D43" t="n">
-        <v>295.3733215332031</v>
+        <v>21.04999923706055</v>
       </c>
       <c r="E43" t="n">
-        <v>355.6666564941406</v>
+        <v>21.89999961853027</v>
       </c>
       <c r="F43" t="n">
-        <v>341.7174072954348</v>
+        <v>22.49008712148673</v>
       </c>
       <c r="G43" t="n">
-        <v>338.4295215426712</v>
+        <v>22.27314192876636</v>
       </c>
       <c r="H43" t="n">
-        <v>307.2821106323238</v>
+        <v>22.21183332231271</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2864,13 +2864,13 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>0.14745</v>
+        <v>0</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>44550</v>
+        <v>44067</v>
       </c>
       <c r="M43" t="n">
-        <v>16.53665161132812</v>
+        <v>1.861488155920142</v>
       </c>
       <c r="N43" t="n">
         <v>9</v>
@@ -2891,25 +2891,25 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>357.8900146484375</v>
+        <v>22.04000091552734</v>
       </c>
       <c r="C44" t="n">
-        <v>373</v>
+        <v>22.32999992370605</v>
       </c>
       <c r="D44" t="n">
-        <v>351.0499877929688</v>
+        <v>19.98999977111816</v>
       </c>
       <c r="E44" t="n">
-        <v>352.260009765625</v>
+        <v>20.86000061035156</v>
       </c>
       <c r="F44" t="n">
-        <v>345.2316081188316</v>
+        <v>21.94672495110834</v>
       </c>
       <c r="G44" t="n">
-        <v>341.5029633699943</v>
+        <v>21.95911052467418</v>
       </c>
       <c r="H44" t="n">
-        <v>311.371010553533</v>
+        <v>22.08893943940715</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2922,13 +2922,13 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>0.1186</v>
+        <v>0</v>
       </c>
       <c r="L44" s="2" t="n">
-        <v>44557</v>
+        <v>44074</v>
       </c>
       <c r="M44" t="n">
-        <v>16.53665161132812</v>
+        <v>1.861488155920142</v>
       </c>
       <c r="N44" t="n">
         <v>9</v>
@@ -2949,25 +2949,25 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>382.5833435058594</v>
+        <v>20.29999923706055</v>
       </c>
       <c r="C45" t="n">
-        <v>402.6666564941406</v>
+        <v>20.35000038146973</v>
       </c>
       <c r="D45" t="n">
-        <v>336.6666564941406</v>
+        <v>17.25</v>
       </c>
       <c r="E45" t="n">
-        <v>342.3200073242188</v>
+        <v>17.6299991607666</v>
       </c>
       <c r="F45" t="n">
-        <v>344.2610745206273</v>
+        <v>20.50781635432777</v>
       </c>
       <c r="G45" t="n">
-        <v>341.6845286931553</v>
+        <v>20.99708577713917</v>
       </c>
       <c r="H45" t="n">
-        <v>314.1845557145044</v>
+        <v>21.68358123225801</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2980,13 +2980,13 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>0.1091</v>
+        <v>0</v>
       </c>
       <c r="L45" s="2" t="n">
-        <v>44564</v>
+        <v>44081</v>
       </c>
       <c r="M45" t="n">
-        <v>16.53665161132812</v>
+        <v>1.861488155920142</v>
       </c>
       <c r="N45" t="n">
         <v>9</v>
@@ -3007,49 +3007,49 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>333.3333435058594</v>
+        <v>17.61000061035156</v>
       </c>
       <c r="C46" t="n">
-        <v>371.8666687011719</v>
+        <v>19.77000045776367</v>
       </c>
       <c r="D46" t="n">
-        <v>326.6666564941406</v>
+        <v>17.09000015258789</v>
       </c>
       <c r="E46" t="n">
-        <v>349.8699951171875</v>
+        <v>17.94000053405762</v>
       </c>
       <c r="F46" t="n">
-        <v>341.7174072954348</v>
+        <v>22.49008712148673</v>
       </c>
       <c r="G46" t="n">
-        <v>338.4295215426712</v>
+        <v>22.27314192876636</v>
       </c>
       <c r="H46" t="n">
-        <v>307.2821106323238</v>
+        <v>22.21183332231271</v>
       </c>
       <c r="I46" t="n">
-        <v>371.8666687011719</v>
+        <v>19.77000045776367</v>
       </c>
       <c r="J46" t="n">
-        <v>394.8653285337205</v>
+        <v>19.4714887662717</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>44565</v>
+        <v>44082</v>
       </c>
       <c r="M46" t="n">
-        <v>16.53665161132812</v>
+        <v>1.861488155920142</v>
       </c>
       <c r="N46" t="n">
         <v>9</v>
       </c>
       <c r="O46" t="n">
-        <v>333.3333435058594</v>
+        <v>17.61000061035156</v>
       </c>
       <c r="P46" t="n">
-        <v>496</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="47">
@@ -3057,25 +3057,25 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>137.2100067138672</v>
+        <v>35.97000122070312</v>
       </c>
       <c r="C47" t="n">
-        <v>143.5</v>
+        <v>41.9900016784668</v>
       </c>
       <c r="D47" t="n">
-        <v>126.370002746582</v>
+        <v>35.09000015258789</v>
       </c>
       <c r="E47" t="n">
-        <v>129.3466644287109</v>
+        <v>37.45999908447266</v>
       </c>
       <c r="F47" t="n">
-        <v>137.1053906995543</v>
+        <v>35.83866397435857</v>
       </c>
       <c r="G47" t="n">
-        <v>135.5117746106091</v>
+        <v>34.71413634665078</v>
       </c>
       <c r="H47" t="n">
-        <v>116.0757099772963</v>
+        <v>30.01302626689852</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="L47" s="2" t="n">
-        <v>44130</v>
+        <v>44263</v>
       </c>
       <c r="M47" t="n">
-        <v>29.31853075802556</v>
+        <v>-2.889999389648438</v>
       </c>
       <c r="N47" t="n">
         <v>10</v>
@@ -3115,25 +3115,25 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>131.3333282470703</v>
+        <v>37.0099983215332</v>
       </c>
       <c r="C48" t="n">
-        <v>146.6666717529297</v>
+        <v>37.56000137329102</v>
       </c>
       <c r="D48" t="n">
-        <v>130.7666625976562</v>
+        <v>32.15999984741211</v>
       </c>
       <c r="E48" t="n">
-        <v>143.3166656494141</v>
+        <v>32.81999969482422</v>
       </c>
       <c r="F48" t="n">
-        <v>139.1758156828409</v>
+        <v>34.83244254784712</v>
       </c>
       <c r="G48" t="n">
-        <v>137.2461948414547</v>
+        <v>34.29321709068932</v>
       </c>
       <c r="H48" t="n">
-        <v>118.5521604929433</v>
+        <v>30.26820566943722</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -3149,10 +3149,10 @@
         <v>0</v>
       </c>
       <c r="L48" s="2" t="n">
-        <v>44137</v>
+        <v>44270</v>
       </c>
       <c r="M48" t="n">
-        <v>29.31853075802556</v>
+        <v>-2.889999389648438</v>
       </c>
       <c r="N48" t="n">
         <v>10</v>
@@ -3173,25 +3173,25 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>146.5</v>
+        <v>32.97999954223633</v>
       </c>
       <c r="C49" t="n">
-        <v>150.8333282470703</v>
+        <v>33.20000076293945</v>
       </c>
       <c r="D49" t="n">
-        <v>132.0099945068359</v>
+        <v>28.20999908447266</v>
       </c>
       <c r="E49" t="n">
-        <v>136.1666717529297</v>
+        <v>30.65999984741211</v>
       </c>
       <c r="F49" t="n">
-        <v>138.1727677062038</v>
+        <v>33.44162831436878</v>
       </c>
       <c r="G49" t="n">
-        <v>137.0063008217824</v>
+        <v>33.48583548107216</v>
       </c>
       <c r="H49" t="n">
-        <v>120.1534796983966</v>
+        <v>30.30382332198039</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -3207,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="L49" s="2" t="n">
-        <v>44144</v>
+        <v>44277</v>
       </c>
       <c r="M49" t="n">
-        <v>29.31853075802556</v>
+        <v>-2.889999389648438</v>
       </c>
       <c r="N49" t="n">
         <v>10</v>
@@ -3231,25 +3231,25 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>136.3099975585938</v>
+        <v>30.25</v>
       </c>
       <c r="C50" t="n">
-        <v>169.5366668701172</v>
+        <v>30.6299991607666</v>
       </c>
       <c r="D50" t="n">
-        <v>134.6966705322266</v>
+        <v>27.92000007629395</v>
       </c>
       <c r="E50" t="n">
-        <v>163.2033386230469</v>
+        <v>30.10000038146973</v>
       </c>
       <c r="F50" t="n">
-        <v>146.5162913451515</v>
+        <v>32.32775233673577</v>
       </c>
       <c r="G50" t="n">
-        <v>142.827864777619</v>
+        <v>32.73342768116051</v>
       </c>
       <c r="H50" t="n">
-        <v>124.0671032370012</v>
+        <v>30.28529396375215</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -3265,10 +3265,10 @@
         <v>0</v>
       </c>
       <c r="L50" s="2" t="n">
-        <v>44151</v>
+        <v>44284</v>
       </c>
       <c r="M50" t="n">
-        <v>29.31853075802556</v>
+        <v>-2.889999389648438</v>
       </c>
       <c r="N50" t="n">
         <v>10</v>
@@ -3289,49 +3289,49 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>167.8333282470703</v>
+        <v>30.1299991607666</v>
       </c>
       <c r="C51" t="n">
-        <v>199.5933380126953</v>
+        <v>30.30999946594238</v>
       </c>
       <c r="D51" t="n">
-        <v>167.2633361816406</v>
+        <v>27.20000076293945</v>
       </c>
       <c r="E51" t="n">
-        <v>195.2533264160156</v>
+        <v>27.23999977111816</v>
       </c>
       <c r="F51" t="n">
-        <v>139.1758156828409</v>
+        <v>34.83244254784712</v>
       </c>
       <c r="G51" t="n">
-        <v>137.2461948414547</v>
+        <v>34.29321709068932</v>
       </c>
       <c r="H51" t="n">
-        <v>118.5521604929433</v>
+        <v>30.26820566943722</v>
       </c>
       <c r="I51" t="n">
-        <v>199.5933380126953</v>
+        <v>30.30999946594238</v>
       </c>
       <c r="J51" t="n">
-        <v>197.1518590050959</v>
+        <v>33.51239620174238</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
       <c r="L51" s="2" t="n">
-        <v>44152</v>
+        <v>44285</v>
       </c>
       <c r="M51" t="n">
-        <v>29.31853075802556</v>
+        <v>-2.889999389648438</v>
       </c>
       <c r="N51" t="n">
         <v>10</v>
       </c>
       <c r="O51" t="n">
-        <v>167.8333282470703</v>
+        <v>30.1299991607666</v>
       </c>
       <c r="P51" t="n">
-        <v>1759</v>
+        <v>-959</v>
       </c>
     </row>
     <row r="52">
@@ -3339,25 +3339,25 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>40.35933303833008</v>
+        <v>12.39999961853027</v>
       </c>
       <c r="C52" t="n">
-        <v>44.53333282470703</v>
+        <v>12.77999973297119</v>
       </c>
       <c r="D52" t="n">
-        <v>33.46666717529297</v>
+        <v>10.60000038146973</v>
       </c>
       <c r="E52" t="n">
-        <v>36.44133377075195</v>
+        <v>11.75</v>
       </c>
       <c r="F52" t="n">
-        <v>44.03493730960793</v>
+        <v>12.52588653175431</v>
       </c>
       <c r="G52" t="n">
-        <v>43.68045586820813</v>
+        <v>15.28923919271546</v>
       </c>
       <c r="H52" t="n">
-        <v>38.80523988991412</v>
+        <v>24.67957827224842</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -3373,10 +3373,10 @@
         <v>0</v>
       </c>
       <c r="L52" s="2" t="n">
-        <v>43899</v>
+        <v>43934</v>
       </c>
       <c r="M52" t="n">
-        <v>0.7913635708900983</v>
+        <v>-0.4300003051757812</v>
       </c>
       <c r="N52" t="n">
         <v>11</v>
@@ -3397,25 +3397,25 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>31.29999923706055</v>
+        <v>11.47000026702881</v>
       </c>
       <c r="C53" t="n">
-        <v>32.9913330078125</v>
+        <v>16.15999984741211</v>
       </c>
       <c r="D53" t="n">
-        <v>23.36733245849609</v>
+        <v>10.97000026702881</v>
       </c>
       <c r="E53" t="n">
-        <v>28.50200080871582</v>
+        <v>14.96000003814697</v>
       </c>
       <c r="F53" t="n">
-        <v>38.85729180931056</v>
+        <v>13.33725770055186</v>
       </c>
       <c r="G53" t="n">
-        <v>40.30746585498761</v>
+        <v>15.21607493614469</v>
       </c>
       <c r="H53" t="n">
-        <v>37.86858179162336</v>
+        <v>23.79598025096647</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -3431,10 +3431,10 @@
         <v>0</v>
       </c>
       <c r="L53" s="2" t="n">
-        <v>43906</v>
+        <v>43941</v>
       </c>
       <c r="M53" t="n">
-        <v>0.7913635708900983</v>
+        <v>-0.4300003051757812</v>
       </c>
       <c r="N53" t="n">
         <v>11</v>
@@ -3455,25 +3455,25 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>28.90666770935059</v>
+        <v>14.75</v>
       </c>
       <c r="C54" t="n">
-        <v>37.33333206176758</v>
+        <v>20.42000007629395</v>
       </c>
       <c r="D54" t="n">
-        <v>27.36666679382324</v>
+        <v>13.80000019073486</v>
       </c>
       <c r="E54" t="n">
-        <v>34.29066848754883</v>
+        <v>17.51000022888184</v>
       </c>
       <c r="F54" t="n">
-        <v>37.33508403538998</v>
+        <v>14.72817187666186</v>
       </c>
       <c r="G54" t="n">
-        <v>38.97039977333455</v>
+        <v>15.7258361123085</v>
       </c>
       <c r="H54" t="n">
-        <v>37.54331694579841</v>
+        <v>23.22452752168605</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="L54" s="2" t="n">
-        <v>43913</v>
+        <v>43948</v>
       </c>
       <c r="M54" t="n">
-        <v>0.7913635708900983</v>
+        <v>-0.4300003051757812</v>
       </c>
       <c r="N54" t="n">
         <v>11</v>
@@ -3513,25 +3513,25 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>34.017333984375</v>
+        <v>16.76000022888184</v>
       </c>
       <c r="C55" t="n">
-        <v>36.19733428955078</v>
+        <v>19.95999908447266</v>
       </c>
       <c r="D55" t="n">
-        <v>29.76000022888184</v>
+        <v>16.01000022888184</v>
       </c>
       <c r="E55" t="n">
-        <v>32.00066757202148</v>
+        <v>18.95000076293945</v>
       </c>
       <c r="F55" t="n">
-        <v>35.55694521426715</v>
+        <v>16.13544817208772</v>
       </c>
       <c r="G55" t="n">
-        <v>37.42157039526498</v>
+        <v>16.44231714578204</v>
       </c>
       <c r="H55" t="n">
-        <v>37.03943973000051</v>
+        <v>22.83593417998181</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -3547,10 +3547,10 @@
         <v>0</v>
       </c>
       <c r="L55" s="2" t="n">
-        <v>43920</v>
+        <v>43955</v>
       </c>
       <c r="M55" t="n">
-        <v>0.7913635708900983</v>
+        <v>-0.4300003051757812</v>
       </c>
       <c r="N55" t="n">
         <v>11</v>
@@ -3571,49 +3571,49 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>34.08000183105469</v>
+        <v>18.5</v>
       </c>
       <c r="C56" t="n">
-        <v>38.34533309936523</v>
+        <v>19.43000030517578</v>
       </c>
       <c r="D56" t="n">
-        <v>33.19733428955078</v>
+        <v>16.29000091552734</v>
       </c>
       <c r="E56" t="n">
-        <v>38.20000076293945</v>
+        <v>18.06999969482422</v>
       </c>
       <c r="F56" t="n">
-        <v>38.85729180931056</v>
+        <v>13.33725770055186</v>
       </c>
       <c r="G56" t="n">
-        <v>40.30746585498761</v>
+        <v>15.21607493614469</v>
       </c>
       <c r="H56" t="n">
-        <v>37.86858179162336</v>
+        <v>23.79598025096647</v>
       </c>
       <c r="I56" t="n">
-        <v>38.34533309936523</v>
+        <v>19.43000030517578</v>
       </c>
       <c r="J56" t="n">
-        <v>34.87136540194479</v>
+        <v>22.41106634527379</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
       </c>
       <c r="L56" s="2" t="n">
-        <v>43921</v>
+        <v>43956</v>
       </c>
       <c r="M56" t="n">
-        <v>0.7913635708900983</v>
+        <v>-0.4300003051757812</v>
       </c>
       <c r="N56" t="n">
         <v>11</v>
       </c>
       <c r="O56" t="n">
-        <v>34.08000183105469</v>
+        <v>18.5</v>
       </c>
       <c r="P56" t="n">
-        <v>232</v>
+        <v>-233</v>
       </c>
     </row>
     <row r="57">
@@ -3621,25 +3621,25 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>111.8000030517578</v>
+        <v>46.68999862670898</v>
       </c>
       <c r="C57" t="n">
-        <v>139.6993255615234</v>
+        <v>48.11999893188477</v>
       </c>
       <c r="D57" t="n">
-        <v>111.5220031738281</v>
+        <v>40.45000076293945</v>
       </c>
       <c r="E57" t="n">
-        <v>136.6653289794922</v>
+        <v>41.34999847412109</v>
       </c>
       <c r="F57" t="n">
-        <v>111.3812847529785</v>
+        <v>42.20956202198202</v>
       </c>
       <c r="G57" t="n">
-        <v>102.4137890370577</v>
+        <v>40.16948821225837</v>
       </c>
       <c r="H57" t="n">
-        <v>79.4203750881608</v>
+        <v>35.24128575386598</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -3655,10 +3655,10 @@
         <v>0</v>
       </c>
       <c r="L57" s="2" t="n">
-        <v>44060</v>
+        <v>44361</v>
       </c>
       <c r="M57" t="n">
-        <v>24.68666669673968</v>
+        <v>-2.379997253417969</v>
       </c>
       <c r="N57" t="n">
         <v>12</v>
@@ -3679,25 +3679,25 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>141.7519989013672</v>
+        <v>41.68999862670898</v>
       </c>
       <c r="C58" t="n">
-        <v>154.5659942626953</v>
+        <v>44.34999847412109</v>
       </c>
       <c r="D58" t="n">
-        <v>128.5013275146484</v>
+        <v>41.34999847412109</v>
       </c>
       <c r="E58" t="n">
-        <v>147.5599975585938</v>
+        <v>42.11000061035156</v>
       </c>
       <c r="F58" t="n">
-        <v>123.4408556881836</v>
+        <v>42.17637488477187</v>
       </c>
       <c r="G58" t="n">
-        <v>112.4462798196212</v>
+        <v>40.60071318961241</v>
       </c>
       <c r="H58" t="n">
-        <v>85.61488622183653</v>
+        <v>35.86571437718285</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -3713,10 +3713,10 @@
         <v>0</v>
       </c>
       <c r="L58" s="2" t="n">
-        <v>44067</v>
+        <v>44368</v>
       </c>
       <c r="M58" t="n">
-        <v>24.68666669673968</v>
+        <v>-2.379997253417969</v>
       </c>
       <c r="N58" t="n">
         <v>12</v>
@@ -3737,25 +3737,25 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>148.2033386230469</v>
+        <v>41.75</v>
       </c>
       <c r="C59" t="n">
-        <v>167.4966735839844</v>
+        <v>42.2400016784668</v>
       </c>
       <c r="D59" t="n">
-        <v>124.0066680908203</v>
+        <v>38.18999862670898</v>
       </c>
       <c r="E59" t="n">
-        <v>139.4400024414062</v>
+        <v>38.7599983215332</v>
       </c>
       <c r="F59" t="n">
-        <v>128.7739046059245</v>
+        <v>41.03758269702565</v>
       </c>
       <c r="G59" t="n">
-        <v>118.4448848466846</v>
+        <v>40.19166544115037</v>
       </c>
       <c r="H59" t="n">
-        <v>90.50807860543377</v>
+        <v>36.12883109939652</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -3771,10 +3771,10 @@
         <v>0</v>
       </c>
       <c r="L59" s="2" t="n">
-        <v>44074</v>
+        <v>44375</v>
       </c>
       <c r="M59" t="n">
-        <v>24.68666669673968</v>
+        <v>-2.379997253417969</v>
       </c>
       <c r="N59" t="n">
         <v>12</v>
@@ -3795,25 +3795,25 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>118.6666641235352</v>
+        <v>39</v>
       </c>
       <c r="C60" t="n">
-        <v>132.9966735839844</v>
+        <v>39</v>
       </c>
       <c r="D60" t="n">
-        <v>109.9599990844727</v>
+        <v>34.95000076293945</v>
       </c>
       <c r="E60" t="n">
-        <v>124.2399978637695</v>
+        <v>36.16999816894531</v>
       </c>
       <c r="F60" t="n">
-        <v>127.2626023585395</v>
+        <v>39.41505452099887</v>
       </c>
       <c r="G60" t="n">
-        <v>119.7326877393701</v>
+        <v>39.29796160288258</v>
       </c>
       <c r="H60" t="n">
-        <v>93.57461671982793</v>
+        <v>36.1325735602646</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -3829,10 +3829,10 @@
         <v>0</v>
       </c>
       <c r="L60" s="2" t="n">
-        <v>44081</v>
+        <v>44382</v>
       </c>
       <c r="M60" t="n">
-        <v>24.68666669673968</v>
+        <v>-2.379997253417969</v>
       </c>
       <c r="N60" t="n">
         <v>12</v>
@@ -3853,49 +3853,49 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>126.9833297729492</v>
+        <v>36.16999816894531</v>
       </c>
       <c r="C61" t="n">
-        <v>153.9799957275391</v>
+        <v>38.15999984741211</v>
       </c>
       <c r="D61" t="n">
-        <v>124.4333343505859</v>
+        <v>33.38000106811523</v>
       </c>
       <c r="E61" t="n">
-        <v>147.3833312988281</v>
+        <v>33.79000091552734</v>
       </c>
       <c r="F61" t="n">
-        <v>123.4408556881836</v>
+        <v>42.17637488477187</v>
       </c>
       <c r="G61" t="n">
-        <v>112.4462798196212</v>
+        <v>40.60071318961241</v>
       </c>
       <c r="H61" t="n">
-        <v>85.61488622183653</v>
+        <v>35.86571437718285</v>
       </c>
       <c r="I61" t="n">
-        <v>153.9799957275391</v>
+        <v>38.15999984741211</v>
       </c>
       <c r="J61" t="n">
-        <v>151.6699964696889</v>
+        <v>40.8098683740468</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
       </c>
       <c r="L61" s="2" t="n">
-        <v>44082</v>
+        <v>44383</v>
       </c>
       <c r="M61" t="n">
-        <v>24.68666669673968</v>
+        <v>-2.379997253417969</v>
       </c>
       <c r="N61" t="n">
         <v>12</v>
       </c>
       <c r="O61" t="n">
-        <v>126.9833297729492</v>
+        <v>36.16999816894531</v>
       </c>
       <c r="P61" t="n">
-        <v>1950</v>
+        <v>-657</v>
       </c>
     </row>
     <row r="62">
@@ -3903,25 +3903,25 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>39.34400177001953</v>
+        <v>14.72000026702881</v>
       </c>
       <c r="C62" t="n">
-        <v>51.66333389282227</v>
+        <v>16.13999938964844</v>
       </c>
       <c r="D62" t="n">
-        <v>38.70199966430664</v>
+        <v>14.36999988555908</v>
       </c>
       <c r="E62" t="n">
-        <v>50.25933456420898</v>
+        <v>15.21000003814697</v>
       </c>
       <c r="F62" t="n">
-        <v>41.04508734173049</v>
+        <v>15.35386850682916</v>
       </c>
       <c r="G62" t="n">
-        <v>40.40895039759133</v>
+        <v>16.02409956605684</v>
       </c>
       <c r="H62" t="n">
-        <v>38.33716248624582</v>
+        <v>18.34705790391902</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -3937,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="L62" s="2" t="n">
-        <v>43934</v>
+        <v>44137</v>
       </c>
       <c r="M62" t="n">
-        <v>0.57733154296875</v>
+        <v>1.151454116348646</v>
       </c>
       <c r="N62" t="n">
         <v>13</v>
@@ -3961,25 +3961,25 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>48.8466682434082</v>
+        <v>17.25</v>
       </c>
       <c r="C63" t="n">
-        <v>51.03799819946289</v>
+        <v>19.77000045776367</v>
       </c>
       <c r="D63" t="n">
-        <v>44.91933441162109</v>
+        <v>17.25</v>
       </c>
       <c r="E63" t="n">
-        <v>48.34333419799805</v>
+        <v>18.3799991607666</v>
       </c>
       <c r="F63" t="n">
-        <v>43.47783629381968</v>
+        <v>16.36257872480831</v>
       </c>
       <c r="G63" t="n">
-        <v>42.17214679768171</v>
+        <v>16.54763280932567</v>
       </c>
       <c r="H63" t="n">
-        <v>39.24681446004147</v>
+        <v>18.35005256363244</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -3995,10 +3995,10 @@
         <v>0</v>
       </c>
       <c r="L63" s="2" t="n">
-        <v>43941</v>
+        <v>44144</v>
       </c>
       <c r="M63" t="n">
-        <v>0.57733154296875</v>
+        <v>1.151454116348646</v>
       </c>
       <c r="N63" t="n">
         <v>13</v>
@@ -4019,25 +4019,25 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>49.17399978637695</v>
+        <v>19.45999908447266</v>
       </c>
       <c r="C64" t="n">
-        <v>57.98799896240234</v>
+        <v>21.8799991607666</v>
       </c>
       <c r="D64" t="n">
-        <v>45.5359992980957</v>
+        <v>19.15999984741211</v>
       </c>
       <c r="E64" t="n">
-        <v>46.75466537475586</v>
+        <v>20.19000053405762</v>
       </c>
       <c r="F64" t="n">
-        <v>44.57011265413174</v>
+        <v>17.63838599455808</v>
       </c>
       <c r="G64" t="n">
-        <v>43.19048425925374</v>
+        <v>17.35704785926611</v>
       </c>
       <c r="H64" t="n">
-        <v>39.92934636137914</v>
+        <v>18.51732056094382</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -4053,10 +4053,10 @@
         <v>0</v>
       </c>
       <c r="L64" s="2" t="n">
-        <v>43948</v>
+        <v>44151</v>
       </c>
       <c r="M64" t="n">
-        <v>0.57733154296875</v>
+        <v>1.151454116348646</v>
       </c>
       <c r="N64" t="n">
         <v>13</v>
@@ -4077,25 +4077,25 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>46.73333358764648</v>
+        <v>20.51000022888184</v>
       </c>
       <c r="C65" t="n">
-        <v>54.93333435058594</v>
+        <v>25.79999923706055</v>
       </c>
       <c r="D65" t="n">
-        <v>46.53333282470703</v>
+        <v>20.51000022888184</v>
       </c>
       <c r="E65" t="n">
-        <v>54.62799835205078</v>
+        <v>24.09000015258789</v>
       </c>
       <c r="F65" t="n">
-        <v>47.92274122010475</v>
+        <v>19.78892404723468</v>
       </c>
       <c r="G65" t="n">
-        <v>45.73215405765309</v>
+        <v>18.85325948000428</v>
       </c>
       <c r="H65" t="n">
-        <v>41.26558745144019</v>
+        <v>19.02392779654782</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -4111,10 +4111,10 @@
         <v>0</v>
       </c>
       <c r="L65" s="2" t="n">
-        <v>43955</v>
+        <v>44158</v>
       </c>
       <c r="M65" t="n">
-        <v>0.57733154296875</v>
+        <v>1.151454116348646</v>
       </c>
       <c r="N65" t="n">
         <v>13</v>
@@ -4135,49 +4135,49 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>52.70066833496094</v>
+        <v>23.97999954223633</v>
       </c>
       <c r="C66" t="n">
-        <v>56.21933364868164</v>
+        <v>26.75</v>
       </c>
       <c r="D66" t="n">
-        <v>50.88666534423828</v>
+        <v>21.88999938964844</v>
       </c>
       <c r="E66" t="n">
-        <v>53.27799987792969</v>
+        <v>26.67000007629395</v>
       </c>
       <c r="F66" t="n">
-        <v>43.47783629381968</v>
+        <v>16.36257872480831</v>
       </c>
       <c r="G66" t="n">
-        <v>42.17214679768171</v>
+        <v>16.54763280932567</v>
       </c>
       <c r="H66" t="n">
-        <v>39.24681446004147</v>
+        <v>18.35005256363244</v>
       </c>
       <c r="I66" t="n">
-        <v>56.21933364868164</v>
+        <v>26.75</v>
       </c>
       <c r="J66" t="n">
-        <v>56.53909726797077</v>
+        <v>25.13145365858497</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
       </c>
       <c r="L66" s="2" t="n">
-        <v>43956</v>
+        <v>44159</v>
       </c>
       <c r="M66" t="n">
-        <v>0.57733154296875</v>
+        <v>1.151454116348646</v>
       </c>
       <c r="N66" t="n">
         <v>13</v>
       </c>
       <c r="O66" t="n">
-        <v>52.70066833496094</v>
+        <v>23.97999954223633</v>
       </c>
       <c r="P66" t="n">
-        <v>110</v>
+        <v>480</v>
       </c>
     </row>
     <row r="67">
@@ -4185,25 +4185,25 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>204.07666015625</v>
+        <v>13.65999984741211</v>
       </c>
       <c r="C67" t="n">
-        <v>209.4499969482422</v>
+        <v>14.52999973297119</v>
       </c>
       <c r="D67" t="n">
-        <v>197.8333282470703</v>
+        <v>13.1899995803833</v>
       </c>
       <c r="E67" t="n">
-        <v>207.7700042724609</v>
+        <v>13.47999954223633</v>
       </c>
       <c r="F67" t="n">
-        <v>206.3102402275117</v>
+        <v>15.19578135845277</v>
       </c>
       <c r="G67" t="n">
-        <v>209.4626505771695</v>
+        <v>15.97769005386091</v>
       </c>
       <c r="H67" t="n">
-        <v>214.5222556086464</v>
+        <v>19.06310552353555</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -4219,10 +4219,10 @@
         <v>0</v>
       </c>
       <c r="L67" s="2" t="n">
-        <v>44361</v>
+        <v>44830</v>
       </c>
       <c r="M67" t="n">
-        <v>5.584913402795792</v>
+        <v>0.8049230325412964</v>
       </c>
       <c r="N67" t="n">
         <v>14</v>
@@ -4243,25 +4243,25 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>208.1600036621094</v>
+        <v>14.27000045776367</v>
       </c>
       <c r="C68" t="n">
-        <v>232.5399932861328</v>
+        <v>16.72999954223633</v>
       </c>
       <c r="D68" t="n">
-        <v>202.9600067138672</v>
+        <v>14.1899995803833</v>
       </c>
       <c r="E68" t="n">
-        <v>223.9566650390625</v>
+        <v>16.61000061035156</v>
       </c>
       <c r="F68" t="n">
-        <v>212.192381831362</v>
+        <v>15.66718777575237</v>
       </c>
       <c r="G68" t="n">
-        <v>212.6835426798124</v>
+        <v>16.11820351085883</v>
       </c>
       <c r="H68" t="n">
-        <v>215.3799291932297</v>
+        <v>18.84009598597337</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -4274,13 +4274,13 @@
         </is>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>-0.008</v>
       </c>
       <c r="L68" s="2" t="n">
-        <v>44368</v>
+        <v>44837</v>
       </c>
       <c r="M68" t="n">
-        <v>5.584913402795792</v>
+        <v>0.8049230325412964</v>
       </c>
       <c r="N68" t="n">
         <v>14</v>
@@ -4301,25 +4301,25 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>223.8800048828125</v>
+        <v>16.59000015258789</v>
       </c>
       <c r="C69" t="n">
-        <v>233.3333282470703</v>
+        <v>16.95000076293945</v>
       </c>
       <c r="D69" t="n">
-        <v>223.4400024414062</v>
+        <v>15.25</v>
       </c>
       <c r="E69" t="n">
-        <v>226.3000030517578</v>
+        <v>16.28000068664551</v>
       </c>
       <c r="F69" t="n">
-        <v>216.8949222381606</v>
+        <v>15.87145874605008</v>
       </c>
       <c r="G69" t="n">
-        <v>215.7094227624669</v>
+        <v>16.15415843881143</v>
       </c>
       <c r="H69" t="n">
-        <v>216.3726631803686</v>
+        <v>18.60736004967083</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -4335,10 +4335,10 @@
         <v>0</v>
       </c>
       <c r="L69" s="2" t="n">
-        <v>44375</v>
+        <v>44844</v>
       </c>
       <c r="M69" t="n">
-        <v>5.584913402795792</v>
+        <v>0.8049230325412964</v>
       </c>
       <c r="N69" t="n">
         <v>14</v>
@@ -4359,25 +4359,25 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>227.2366638183594</v>
+        <v>16.70999908447266</v>
       </c>
       <c r="C70" t="n">
-        <v>228</v>
+        <v>19.36000061035156</v>
       </c>
       <c r="D70" t="n">
-        <v>206.8200073242188</v>
+        <v>16.65999984741211</v>
       </c>
       <c r="E70" t="n">
-        <v>218.9833374023438</v>
+        <v>19.05999946594238</v>
       </c>
       <c r="F70" t="n">
-        <v>217.5910606262217</v>
+        <v>16.93430565268085</v>
       </c>
       <c r="G70" t="n">
-        <v>216.4369593491062</v>
+        <v>16.79990088928497</v>
       </c>
       <c r="H70" t="n">
-        <v>216.6099972005482</v>
+        <v>18.6485090875137</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -4390,13 +4390,13 @@
         </is>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>0.2202</v>
       </c>
       <c r="L70" s="2" t="n">
-        <v>44382</v>
+        <v>44851</v>
       </c>
       <c r="M70" t="n">
-        <v>5.584913402795792</v>
+        <v>0.8049230325412964</v>
       </c>
       <c r="N70" t="n">
         <v>14</v>
@@ -4417,49 +4417,49 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>220.7333374023438</v>
+        <v>18.94000053405762</v>
       </c>
       <c r="C71" t="n">
-        <v>231.0933380126953</v>
+        <v>21.5</v>
       </c>
       <c r="D71" t="n">
-        <v>212.6266632080078</v>
+        <v>18.48999977111816</v>
       </c>
       <c r="E71" t="n">
-        <v>214.7400054931641</v>
+        <v>19.32999992370605</v>
       </c>
       <c r="F71" t="n">
-        <v>212.192381831362</v>
+        <v>15.66718777575237</v>
       </c>
       <c r="G71" t="n">
-        <v>212.6835426798124</v>
+        <v>16.11820351085883</v>
       </c>
       <c r="H71" t="n">
-        <v>215.3799291932297</v>
+        <v>18.84009598597337</v>
       </c>
       <c r="I71" t="n">
-        <v>231.0933380126953</v>
+        <v>21.5</v>
       </c>
       <c r="J71" t="n">
-        <v>226.3182508051395</v>
+        <v>19.74492356659891</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
       </c>
       <c r="L71" s="2" t="n">
-        <v>44383</v>
+        <v>44852</v>
       </c>
       <c r="M71" t="n">
-        <v>5.584913402795792</v>
+        <v>0.8049230325412964</v>
       </c>
       <c r="N71" t="n">
         <v>14</v>
       </c>
       <c r="O71" t="n">
-        <v>220.7333374023438</v>
+        <v>18.94000053405762</v>
       </c>
       <c r="P71" t="n">
-        <v>251</v>
+        <v>425</v>
       </c>
     </row>
     <row r="72">
@@ -4467,25 +4467,25 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>271.8299865722656</v>
+        <v>34</v>
       </c>
       <c r="C72" t="n">
-        <v>289</v>
+        <v>37.90000152587891</v>
       </c>
       <c r="D72" t="n">
-        <v>262.4700012207031</v>
+        <v>33.61000061035156</v>
       </c>
       <c r="E72" t="n">
-        <v>265.25</v>
+        <v>37.45000076293945</v>
       </c>
       <c r="F72" t="n">
-        <v>279.7897377377375</v>
+        <v>33.55153311775365</v>
       </c>
       <c r="G72" t="n">
-        <v>280.6578616994344</v>
+        <v>32.66324537283648</v>
       </c>
       <c r="H72" t="n">
-        <v>278.7693627476485</v>
+        <v>30.89647143439338</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -4498,13 +4498,13 @@
         </is>
       </c>
       <c r="K72" t="n">
-        <v>0.1153</v>
+        <v>0</v>
       </c>
       <c r="L72" s="2" t="n">
-        <v>44830</v>
+        <v>44333</v>
       </c>
       <c r="M72" t="n">
-        <v>27.3717804798107</v>
+        <v>1.026401614776489</v>
       </c>
       <c r="N72" t="n">
         <v>15</v>
@@ -4525,25 +4525,25 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>254.5</v>
+        <v>37.66999816894531</v>
       </c>
       <c r="C73" t="n">
-        <v>257.5</v>
+        <v>41.81000137329102</v>
       </c>
       <c r="D73" t="n">
-        <v>222.0200042724609</v>
+        <v>36.59999847412109</v>
       </c>
       <c r="E73" t="n">
-        <v>223.0700073242188</v>
+        <v>41.79999923706055</v>
       </c>
       <c r="F73" t="n">
-        <v>260.8831609332313</v>
+        <v>36.30102182418928</v>
       </c>
       <c r="G73" t="n">
-        <v>267.8605607271643</v>
+        <v>34.69363512044183</v>
       </c>
       <c r="H73" t="n">
-        <v>273.7057849818822</v>
+        <v>31.88770123463585</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -4556,13 +4556,13 @@
         </is>
       </c>
       <c r="K73" t="n">
-        <v>0.1266</v>
+        <v>0</v>
       </c>
       <c r="L73" s="2" t="n">
-        <v>44837</v>
+        <v>44340</v>
       </c>
       <c r="M73" t="n">
-        <v>27.3717804798107</v>
+        <v>1.026401614776489</v>
       </c>
       <c r="N73" t="n">
         <v>15</v>
@@ -4583,25 +4583,25 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>223.9299926757812</v>
+        <v>42.43999862670898</v>
       </c>
       <c r="C74" t="n">
-        <v>226.9900054931641</v>
+        <v>48.59999847412109</v>
       </c>
       <c r="D74" t="n">
-        <v>204.1600036621094</v>
+        <v>41.11000061035156</v>
       </c>
       <c r="E74" t="n">
-        <v>204.9900054931641</v>
+        <v>47.56000137329102</v>
       </c>
       <c r="F74" t="n">
-        <v>242.2521091198756</v>
+        <v>40.0540150072232</v>
       </c>
       <c r="G74" t="n">
-        <v>253.8893262307198</v>
+        <v>37.55282762107498</v>
       </c>
       <c r="H74" t="n">
-        <v>267.4588959374532</v>
+        <v>33.31245579269541</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -4614,13 +4614,13 @@
         </is>
       </c>
       <c r="K74" t="n">
-        <v>0.1054</v>
+        <v>0</v>
       </c>
       <c r="L74" s="2" t="n">
-        <v>44844</v>
+        <v>44347</v>
       </c>
       <c r="M74" t="n">
-        <v>27.3717804798107</v>
+        <v>1.026401614776489</v>
       </c>
       <c r="N74" t="n">
         <v>15</v>
@@ -4641,25 +4641,25 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>210.0399932861328</v>
+        <v>47.40000152587891</v>
       </c>
       <c r="C75" t="n">
-        <v>229.8200073242188</v>
+        <v>49.86999893188477</v>
       </c>
       <c r="D75" t="n">
-        <v>202</v>
+        <v>46.65000152587891</v>
       </c>
       <c r="E75" t="n">
-        <v>214.4400024414062</v>
+        <v>47.81000137329102</v>
       </c>
       <c r="F75" t="n">
-        <v>232.9814068937192</v>
+        <v>42.63934379591247</v>
       </c>
       <c r="G75" t="n">
-        <v>245.1228098330945</v>
+        <v>39.83219956601187</v>
       </c>
       <c r="H75" t="n">
-        <v>262.6389965287217</v>
+        <v>34.63041448184047</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -4672,13 +4672,13 @@
         </is>
       </c>
       <c r="K75" t="n">
-        <v>0.1281</v>
+        <v>0</v>
       </c>
       <c r="L75" s="2" t="n">
-        <v>44851</v>
+        <v>44354</v>
       </c>
       <c r="M75" t="n">
-        <v>27.3717804798107</v>
+        <v>1.026401614776489</v>
       </c>
       <c r="N75" t="n">
         <v>15</v>
@@ -4699,49 +4699,49 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>205.8200073242188</v>
+        <v>46.68999862670898</v>
       </c>
       <c r="C76" t="n">
-        <v>233.8099975585938</v>
+        <v>48.11999893188477</v>
       </c>
       <c r="D76" t="n">
-        <v>198.5899963378906</v>
+        <v>40.45000076293945</v>
       </c>
       <c r="E76" t="n">
-        <v>228.5200042724609</v>
+        <v>41.34999847412109</v>
       </c>
       <c r="F76" t="n">
-        <v>260.8831609332313</v>
+        <v>36.30102182418928</v>
       </c>
       <c r="G76" t="n">
-        <v>267.8605607271643</v>
+        <v>34.69363512044183</v>
       </c>
       <c r="H76" t="n">
-        <v>273.7057849818822</v>
+        <v>31.88770123463585</v>
       </c>
       <c r="I76" t="n">
-        <v>233.8099975585938</v>
+        <v>48.11999893188477</v>
       </c>
       <c r="J76" t="n">
-        <v>233.1917878040294</v>
+        <v>47.71640024148547</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
       </c>
       <c r="L76" s="2" t="n">
-        <v>44852</v>
+        <v>44355</v>
       </c>
       <c r="M76" t="n">
-        <v>27.3717804798107</v>
+        <v>1.026401614776489</v>
       </c>
       <c r="N76" t="n">
         <v>15</v>
       </c>
       <c r="O76" t="n">
-        <v>205.8200073242188</v>
+        <v>46.68999862670898</v>
       </c>
       <c r="P76" t="n">
-        <v>1341</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77">
@@ -4749,25 +4749,25 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>304.9933471679688</v>
+        <v>24.03000068664551</v>
       </c>
       <c r="C77" t="n">
-        <v>346.8999938964844</v>
+        <v>25.81999969482422</v>
       </c>
       <c r="D77" t="n">
-        <v>302.3633422851562</v>
+        <v>23.65999984741211</v>
       </c>
       <c r="E77" t="n">
-        <v>336.8800048828125</v>
+        <v>24.64999961853027</v>
       </c>
       <c r="F77" t="n">
-        <v>303.3411929237959</v>
+        <v>24.83214065226239</v>
       </c>
       <c r="G77" t="n">
-        <v>301.2881060592834</v>
+        <v>25.54448998358429</v>
       </c>
       <c r="H77" t="n">
-        <v>303.0041910773168</v>
+        <v>28.00705635319082</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="K77" t="n">
-        <v>0.1141</v>
+        <v>0</v>
       </c>
       <c r="L77" s="2" t="n">
-        <v>44641</v>
+        <v>44536</v>
       </c>
       <c r="M77" t="n">
-        <v>5.339996337890625</v>
+        <v>0.404924892175039</v>
       </c>
       <c r="N77" t="n">
         <v>16</v>
@@ -4807,25 +4807,25 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>355.0333251953125</v>
+        <v>24.29000091552734</v>
       </c>
       <c r="C78" t="n">
-        <v>371.5899963378906</v>
+        <v>24.35000038146973</v>
       </c>
       <c r="D78" t="n">
-        <v>351.2000122070312</v>
+        <v>21.07999992370605</v>
       </c>
       <c r="E78" t="n">
-        <v>361.5299987792969</v>
+        <v>22.43000030517578</v>
       </c>
       <c r="F78" t="n">
-        <v>322.7374615422963</v>
+        <v>24.03142720323352</v>
       </c>
       <c r="G78" t="n">
-        <v>314.6751933303975</v>
+        <v>24.85238116616018</v>
       </c>
       <c r="H78" t="n">
-        <v>308.3247190502241</v>
+        <v>27.50005125791672</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -4838,13 +4838,13 @@
         </is>
       </c>
       <c r="K78" t="n">
-        <v>0.1009</v>
+        <v>0</v>
       </c>
       <c r="L78" s="2" t="n">
-        <v>44648</v>
+        <v>44543</v>
       </c>
       <c r="M78" t="n">
-        <v>5.339996337890625</v>
+        <v>0.404924892175039</v>
       </c>
       <c r="N78" t="n">
         <v>16</v>
@@ -4865,25 +4865,25 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>363.1266784667969</v>
+        <v>21.89999961853027</v>
       </c>
       <c r="C79" t="n">
-        <v>384.2900085449219</v>
+        <v>23.42000007629395</v>
       </c>
       <c r="D79" t="n">
-        <v>340.5133361816406</v>
+        <v>21.26000022888184</v>
       </c>
       <c r="E79" t="n">
-        <v>341.8299865722656</v>
+        <v>23.25</v>
       </c>
       <c r="F79" t="n">
-        <v>329.1016365522861</v>
+        <v>23.77095146882235</v>
       </c>
       <c r="G79" t="n">
-        <v>320.7095918285904</v>
+        <v>24.49629646256903</v>
       </c>
       <c r="H79" t="n">
-        <v>311.3706524613187</v>
+        <v>27.11368296174247</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -4896,13 +4896,13 @@
         </is>
       </c>
       <c r="K79" t="n">
-        <v>0.1123</v>
+        <v>0</v>
       </c>
       <c r="L79" s="2" t="n">
-        <v>44655</v>
+        <v>44550</v>
       </c>
       <c r="M79" t="n">
-        <v>5.339996337890625</v>
+        <v>0.404924892175039</v>
       </c>
       <c r="N79" t="n">
         <v>16</v>
@@ -4923,25 +4923,25 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>326.7999877929688</v>
+        <v>23.36000061035156</v>
       </c>
       <c r="C80" t="n">
-        <v>342.0799865722656</v>
+        <v>23.75</v>
       </c>
       <c r="D80" t="n">
-        <v>324.3666687011719</v>
+        <v>21.96999931335449</v>
       </c>
       <c r="E80" t="n">
-        <v>328.3333435058594</v>
+        <v>22.30999946594238</v>
       </c>
       <c r="F80" t="n">
-        <v>328.8455388701439</v>
+        <v>23.28396746786236</v>
       </c>
       <c r="G80" t="n">
-        <v>322.4037588679835</v>
+        <v>24.01045268554088</v>
       </c>
       <c r="H80" t="n">
-        <v>312.9127152835497</v>
+        <v>26.67698446212428</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -4954,13 +4954,13 @@
         </is>
       </c>
       <c r="K80" t="n">
-        <v>0.0849</v>
+        <v>0.20095</v>
       </c>
       <c r="L80" s="2" t="n">
-        <v>44662</v>
+        <v>44557</v>
       </c>
       <c r="M80" t="n">
-        <v>5.339996337890625</v>
+        <v>0.404924892175039</v>
       </c>
       <c r="N80" t="n">
         <v>16</v>
@@ -4981,49 +4981,49 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>329.6766662597656</v>
+        <v>22.57999992370605</v>
       </c>
       <c r="C81" t="n">
-        <v>364.0733337402344</v>
+        <v>26.45999908447266</v>
       </c>
       <c r="D81" t="n">
-        <v>324.4700012207031</v>
+        <v>22.3700008392334</v>
       </c>
       <c r="E81" t="n">
-        <v>335.0166625976562</v>
+        <v>26.18000030517578</v>
       </c>
       <c r="F81" t="n">
-        <v>322.7374615422963</v>
+        <v>24.03142720323352</v>
       </c>
       <c r="G81" t="n">
-        <v>314.6751933303975</v>
+        <v>24.85238116616018</v>
       </c>
       <c r="H81" t="n">
-        <v>308.3247190502241</v>
+        <v>27.50005125791672</v>
       </c>
       <c r="I81" t="n">
-        <v>364.0733337402344</v>
+        <v>26.45999908447266</v>
       </c>
       <c r="J81" t="n">
-        <v>376.7076891789595</v>
+        <v>22.98492481588109</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
       </c>
       <c r="L81" s="2" t="n">
-        <v>44663</v>
+        <v>44558</v>
       </c>
       <c r="M81" t="n">
-        <v>5.339996337890625</v>
+        <v>0.404924892175039</v>
       </c>
       <c r="N81" t="n">
         <v>16</v>
       </c>
       <c r="O81" t="n">
-        <v>329.6766662597656</v>
+        <v>22.57999992370605</v>
       </c>
       <c r="P81" t="n">
-        <v>160</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82">
@@ -5031,25 +5031,25 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>136.3099975585938</v>
+        <v>40</v>
       </c>
       <c r="C82" t="n">
-        <v>169.5366668701172</v>
+        <v>41.61000061035156</v>
       </c>
       <c r="D82" t="n">
-        <v>134.6966705322266</v>
+        <v>39.47000122070312</v>
       </c>
       <c r="E82" t="n">
-        <v>163.2033386230469</v>
+        <v>40.22999954223633</v>
       </c>
       <c r="F82" t="n">
-        <v>146.5162913451515</v>
+        <v>40.13666661580404</v>
       </c>
       <c r="G82" t="n">
-        <v>142.827864777619</v>
+        <v>40.12111112806532</v>
       </c>
       <c r="H82" t="n">
-        <v>124.0671032370012</v>
+        <v>40.10272736982866</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -5065,10 +5065,10 @@
         <v>0</v>
       </c>
       <c r="L82" s="2" t="n">
-        <v>44151</v>
+        <v>43836</v>
       </c>
       <c r="M82" t="n">
-        <v>16.82320393005432</v>
+        <v>1.308851896917076</v>
       </c>
       <c r="N82" t="n">
         <v>17</v>
@@ -5089,25 +5089,25 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>167.8333282470703</v>
+        <v>40.38000106811523</v>
       </c>
       <c r="C83" t="n">
-        <v>199.5933380126953</v>
+        <v>40.97000122070312</v>
       </c>
       <c r="D83" t="n">
-        <v>167.2633361816406</v>
+        <v>39.36999893188477</v>
       </c>
       <c r="E83" t="n">
-        <v>195.2533264160156</v>
+        <v>39.83000183105469</v>
       </c>
       <c r="F83" t="n">
-        <v>162.7619697021062</v>
+        <v>40.03444502088759</v>
       </c>
       <c r="G83" t="n">
-        <v>154.4779673639293</v>
+        <v>40.05642017317407</v>
       </c>
       <c r="H83" t="n">
-        <v>130.538578071457</v>
+        <v>40.07793413903102</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -5123,10 +5123,10 @@
         <v>0</v>
       </c>
       <c r="L83" s="2" t="n">
-        <v>44158</v>
+        <v>43843</v>
       </c>
       <c r="M83" t="n">
-        <v>16.82320393005432</v>
+        <v>1.308851896917076</v>
       </c>
       <c r="N83" t="n">
         <v>17</v>
@@ -5147,25 +5147,25 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>200.7366638183594</v>
+        <v>39.54999923706055</v>
       </c>
       <c r="C84" t="n">
-        <v>202.6000061035156</v>
+        <v>39.97999954223633</v>
       </c>
       <c r="D84" t="n">
-        <v>180.4033355712891</v>
+        <v>37.41999816894531</v>
       </c>
       <c r="E84" t="n">
-        <v>199.6799926757812</v>
+        <v>37.86999893188477</v>
       </c>
       <c r="F84" t="n">
-        <v>175.0679773599979</v>
+        <v>39.31296299121998</v>
       </c>
       <c r="G84" t="n">
-        <v>164.5228618776742</v>
+        <v>39.57054878622089</v>
       </c>
       <c r="H84" t="n">
-        <v>136.8241612173047</v>
+        <v>39.87721275656318</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -5181,10 +5181,10 @@
         <v>0</v>
       </c>
       <c r="L84" s="2" t="n">
-        <v>44165</v>
+        <v>43850</v>
       </c>
       <c r="M84" t="n">
-        <v>16.82320393005432</v>
+        <v>1.308851896917076</v>
       </c>
       <c r="N84" t="n">
         <v>17</v>
@@ -5205,25 +5205,25 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>201.6399993896484</v>
+        <v>36.81000137329102</v>
       </c>
       <c r="C85" t="n">
-        <v>218.1066741943359</v>
+        <v>37.13000106811523</v>
       </c>
       <c r="D85" t="n">
-        <v>188.7799987792969</v>
+        <v>34.59999847412109</v>
       </c>
       <c r="E85" t="n">
-        <v>203.3300018310547</v>
+        <v>35.13000106811523</v>
       </c>
       <c r="F85" t="n">
-        <v>184.4886521836835</v>
+        <v>37.91864235018507</v>
       </c>
       <c r="G85" t="n">
-        <v>173.1466707562032</v>
+        <v>38.58376040441964</v>
       </c>
       <c r="H85" t="n">
-        <v>142.8701467276456</v>
+        <v>39.44564805761337</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -5239,10 +5239,10 @@
         <v>0</v>
       </c>
       <c r="L85" s="2" t="n">
-        <v>44172</v>
+        <v>43857</v>
       </c>
       <c r="M85" t="n">
-        <v>16.82320393005432</v>
+        <v>1.308851896917076</v>
       </c>
       <c r="N85" t="n">
         <v>17</v>
@@ -5263,49 +5263,49 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>206.3333282470703</v>
+        <v>34.95000076293945</v>
       </c>
       <c r="C86" t="n">
-        <v>231.6666717529297</v>
+        <v>37.61999893188477</v>
       </c>
       <c r="D86" t="n">
-        <v>201.6666717529297</v>
+        <v>34.56999969482422</v>
       </c>
       <c r="E86" t="n">
-        <v>231.6666717529297</v>
+        <v>34.65999984741211</v>
       </c>
       <c r="F86" t="n">
-        <v>162.7619697021062</v>
+        <v>40.03444502088759</v>
       </c>
       <c r="G86" t="n">
-        <v>154.4779673639293</v>
+        <v>40.05642017317407</v>
       </c>
       <c r="H86" t="n">
-        <v>130.538578071457</v>
+        <v>40.07793413903102</v>
       </c>
       <c r="I86" t="n">
-        <v>231.6666717529297</v>
+        <v>37.61999893188477</v>
       </c>
       <c r="J86" t="n">
-        <v>223.1565321771246</v>
+        <v>36.25885265985653</v>
       </c>
       <c r="K86" t="n">
         <v>0</v>
       </c>
       <c r="L86" s="2" t="n">
-        <v>44173</v>
+        <v>43858</v>
       </c>
       <c r="M86" t="n">
-        <v>16.82320393005432</v>
+        <v>1.308851896917076</v>
       </c>
       <c r="N86" t="n">
         <v>17</v>
       </c>
       <c r="O86" t="n">
-        <v>206.3333282470703</v>
+        <v>34.95000076293945</v>
       </c>
       <c r="P86" t="n">
-        <v>808</v>
+        <v>374</v>
       </c>
     </row>
     <row r="87">
@@ -5313,25 +5313,25 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>333.836669921875</v>
+        <v>20.51000022888184</v>
       </c>
       <c r="C87" t="n">
-        <v>357.4599914550781</v>
+        <v>25.79999923706055</v>
       </c>
       <c r="D87" t="n">
-        <v>316.8333435058594</v>
+        <v>20.51000022888184</v>
       </c>
       <c r="E87" t="n">
-        <v>339.010009765625</v>
+        <v>24.09000015258789</v>
       </c>
       <c r="F87" t="n">
-        <v>346.6858445763494</v>
+        <v>19.78892404723468</v>
       </c>
       <c r="G87" t="n">
-        <v>339.9754735298812</v>
+        <v>18.85325948000428</v>
       </c>
       <c r="H87" t="n">
-        <v>301.6023557572017</v>
+        <v>19.02392779654782</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -5347,10 +5347,10 @@
         <v>0</v>
       </c>
       <c r="L87" s="2" t="n">
-        <v>44536</v>
+        <v>44158</v>
       </c>
       <c r="M87" t="n">
-        <v>13.89367938745272</v>
+        <v>2.319999694824219</v>
       </c>
       <c r="N87" t="n">
         <v>18</v>
@@ -5371,25 +5371,25 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>333.6966552734375</v>
+        <v>23.97999954223633</v>
       </c>
       <c r="C88" t="n">
-        <v>335</v>
+        <v>26.75</v>
       </c>
       <c r="D88" t="n">
-        <v>303.0133361816406</v>
+        <v>21.88999938964844</v>
       </c>
       <c r="E88" t="n">
-        <v>310.8566589355469</v>
+        <v>26.67000007629395</v>
       </c>
       <c r="F88" t="n">
-        <v>334.7427826960819</v>
+        <v>22.0826160569211</v>
       </c>
       <c r="G88" t="n">
-        <v>333.5046258422514</v>
+        <v>20.59031294584643</v>
       </c>
       <c r="H88" t="n">
-        <v>302.4436560461421</v>
+        <v>19.71902527652475</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -5405,10 +5405,10 @@
         <v>0</v>
       </c>
       <c r="L88" s="2" t="n">
-        <v>44543</v>
+        <v>44165</v>
       </c>
       <c r="M88" t="n">
-        <v>13.89367938745272</v>
+        <v>2.319999694824219</v>
       </c>
       <c r="N88" t="n">
         <v>18</v>
@@ -5429,25 +5429,25 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>303.5666809082031</v>
+        <v>26.67000007629395</v>
       </c>
       <c r="C89" t="n">
-        <v>357.6600036621094</v>
+        <v>29.85000038146973</v>
       </c>
       <c r="D89" t="n">
-        <v>295.3733215332031</v>
+        <v>25.5</v>
       </c>
       <c r="E89" t="n">
-        <v>355.6666564941406</v>
+        <v>29.04999923706055</v>
       </c>
       <c r="F89" t="n">
-        <v>341.7174072954348</v>
+        <v>24.40507711696759</v>
       </c>
       <c r="G89" t="n">
-        <v>338.4295215426712</v>
+        <v>22.4702432327829</v>
       </c>
       <c r="H89" t="n">
-        <v>307.2821106323238</v>
+        <v>20.56729563657345</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -5460,13 +5460,13 @@
         </is>
       </c>
       <c r="K89" t="n">
-        <v>0.14745</v>
+        <v>0</v>
       </c>
       <c r="L89" s="2" t="n">
-        <v>44550</v>
+        <v>44172</v>
       </c>
       <c r="M89" t="n">
-        <v>13.89367938745272</v>
+        <v>2.319999694824219</v>
       </c>
       <c r="N89" t="n">
         <v>18</v>
@@ -5487,25 +5487,25 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>357.8900146484375</v>
+        <v>28.96999931335449</v>
       </c>
       <c r="C90" t="n">
-        <v>373</v>
+        <v>29.23999977111816</v>
       </c>
       <c r="D90" t="n">
-        <v>351.0499877929688</v>
+        <v>23.85000038146973</v>
       </c>
       <c r="E90" t="n">
-        <v>352.260009765625</v>
+        <v>24.80999946594238</v>
       </c>
       <c r="F90" t="n">
-        <v>345.2316081188316</v>
+        <v>24.54005123329252</v>
       </c>
       <c r="G90" t="n">
-        <v>341.5029633699943</v>
+        <v>22.99018906237389</v>
       </c>
       <c r="H90" t="n">
-        <v>311.371010553533</v>
+        <v>20.9529959846979</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -5518,13 +5518,13 @@
         </is>
       </c>
       <c r="K90" t="n">
-        <v>0.1186</v>
+        <v>0</v>
       </c>
       <c r="L90" s="2" t="n">
-        <v>44557</v>
+        <v>44179</v>
       </c>
       <c r="M90" t="n">
-        <v>13.89367938745272</v>
+        <v>2.319999694824219</v>
       </c>
       <c r="N90" t="n">
         <v>18</v>
@@ -5545,331 +5545,49 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>382.5833435058594</v>
+        <v>23.81999969482422</v>
       </c>
       <c r="C91" t="n">
-        <v>402.6666564941406</v>
+        <v>27</v>
       </c>
       <c r="D91" t="n">
-        <v>336.6666564941406</v>
+        <v>23.67000007629395</v>
       </c>
       <c r="E91" t="n">
-        <v>342.3200073242188</v>
+        <v>26.13999938964844</v>
       </c>
       <c r="F91" t="n">
-        <v>334.7427826960819</v>
+        <v>22.0826160569211</v>
       </c>
       <c r="G91" t="n">
-        <v>333.5046258422514</v>
+        <v>20.59031294584643</v>
       </c>
       <c r="H91" t="n">
-        <v>302.4436560461421</v>
+        <v>19.71902527652475</v>
       </c>
       <c r="I91" t="n">
-        <v>402.6666564941406</v>
+        <v>27</v>
       </c>
       <c r="J91" t="n">
-        <v>396.4770228933121</v>
+        <v>28.04075764186794</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
       </c>
       <c r="L91" s="2" t="n">
-        <v>44558</v>
+        <v>44180</v>
       </c>
       <c r="M91" t="n">
-        <v>13.89367938745272</v>
+        <v>2.319999694824219</v>
       </c>
       <c r="N91" t="n">
         <v>18</v>
       </c>
       <c r="O91" t="n">
-        <v>382.5833435058594</v>
+        <v>23.81999969482422</v>
       </c>
       <c r="P91" t="n">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>29.36466789245605</v>
-      </c>
-      <c r="C92" t="n">
-        <v>33.25333404541016</v>
-      </c>
-      <c r="D92" t="n">
-        <v>29.33333206176758</v>
-      </c>
-      <c r="E92" t="n">
-        <v>31.87666702270508</v>
-      </c>
-      <c r="F92" t="n">
-        <v>30.31488927205404</v>
-      </c>
-      <c r="G92" t="n">
-        <v>30.05459298027886</v>
-      </c>
-      <c r="H92" t="n">
-        <v>29.74697008999911</v>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L92" s="2" t="n">
-        <v>43836</v>
-      </c>
-      <c r="M92" t="n">
-        <v>18.34183749886529</v>
-      </c>
-      <c r="N92" t="n">
-        <v>19</v>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>32.90000152587891</v>
-      </c>
-      <c r="C93" t="n">
-        <v>36.49399948120117</v>
-      </c>
-      <c r="D93" t="n">
-        <v>32.79999923706055</v>
-      </c>
-      <c r="E93" t="n">
-        <v>34.03333282470703</v>
-      </c>
-      <c r="F93" t="n">
-        <v>31.55437045627171</v>
-      </c>
-      <c r="G93" t="n">
-        <v>30.93875739015179</v>
-      </c>
-      <c r="H93" t="n">
-        <v>30.13663942951802</v>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K93" t="n">
-        <v>0</v>
-      </c>
-      <c r="L93" s="2" t="n">
-        <v>43843</v>
-      </c>
-      <c r="M93" t="n">
-        <v>18.34183749886529</v>
-      </c>
-      <c r="N93" t="n">
-        <v>19</v>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>35.34999847412109</v>
-      </c>
-      <c r="C94" t="n">
-        <v>39.63333129882812</v>
-      </c>
-      <c r="D94" t="n">
-        <v>35.22733306884766</v>
-      </c>
-      <c r="E94" t="n">
-        <v>37.65466690063477</v>
-      </c>
-      <c r="F94" t="n">
-        <v>33.58780260439273</v>
-      </c>
-      <c r="G94" t="n">
-        <v>32.43118172581467</v>
-      </c>
-      <c r="H94" t="n">
-        <v>30.82009647234681</v>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K94" t="n">
-        <v>0</v>
-      </c>
-      <c r="L94" s="2" t="n">
-        <v>43850</v>
-      </c>
-      <c r="M94" t="n">
-        <v>18.34183749886529</v>
-      </c>
-      <c r="N94" t="n">
-        <v>19</v>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>36.13266754150391</v>
-      </c>
-      <c r="C95" t="n">
-        <v>43.53333282470703</v>
-      </c>
-      <c r="D95" t="n">
-        <v>35.95199966430664</v>
-      </c>
-      <c r="E95" t="n">
-        <v>43.37133407592773</v>
-      </c>
-      <c r="F95" t="n">
-        <v>36.84897976157107</v>
-      </c>
-      <c r="G95" t="n">
-        <v>34.86232669250646</v>
-      </c>
-      <c r="H95" t="n">
-        <v>31.96111807267235</v>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K95" t="n">
-        <v>0</v>
-      </c>
-      <c r="L95" s="2" t="n">
-        <v>43857</v>
-      </c>
-      <c r="M95" t="n">
-        <v>18.34183749886529</v>
-      </c>
-      <c r="N95" t="n">
-        <v>19</v>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>44.91266632080078</v>
-      </c>
-      <c r="C96" t="n">
-        <v>64.59933471679688</v>
-      </c>
-      <c r="D96" t="n">
-        <v>44.90133285522461</v>
-      </c>
-      <c r="E96" t="n">
-        <v>49.87133407592773</v>
-      </c>
-      <c r="F96" t="n">
-        <v>31.55437045627171</v>
-      </c>
-      <c r="G96" t="n">
-        <v>30.93875739015179</v>
-      </c>
-      <c r="H96" t="n">
-        <v>30.13663942951802</v>
-      </c>
-      <c r="I96" t="n">
-        <v>64.59933471679688</v>
-      </c>
-      <c r="J96" t="n">
-        <v>63.25450381966607</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0</v>
-      </c>
-      <c r="L96" s="2" t="n">
-        <v>43858</v>
-      </c>
-      <c r="M96" t="n">
-        <v>18.34183749886529</v>
-      </c>
-      <c r="N96" t="n">
-        <v>19</v>
-      </c>
-      <c r="O96" t="n">
-        <v>44.91266632080078</v>
-      </c>
-      <c r="P96" t="n">
-        <v>4090</v>
+        <v>974</v>
       </c>
     </row>
   </sheetData>

--- a/Excel reports/Performance_report.xlsx
+++ b/Excel reports/Performance_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P91"/>
+  <dimension ref="A1:P111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,17 +460,17 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>EMA5</t>
+          <t>EMA1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>EMA8</t>
+          <t>EMA2</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>EMA21</t>
+          <t>EMA3</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -519,25 +519,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>23.75</v>
+        <v>205.8200073242188</v>
       </c>
       <c r="C2" t="n">
-        <v>24.59000015258789</v>
+        <v>233.8099975585938</v>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>198.5899963378906</v>
       </c>
       <c r="E2" t="n">
-        <v>21.32999992370605</v>
+        <v>228.5200042724609</v>
       </c>
       <c r="F2" t="n">
-        <v>21.57731718263062</v>
+        <v>228.5200042724609</v>
       </c>
       <c r="G2" t="n">
-        <v>21.27049776832534</v>
+        <v>224.0418374764387</v>
       </c>
       <c r="H2" t="n">
-        <v>21.84927524627672</v>
+        <v>224.6634344168422</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -550,13 +550,13 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.1291571428571429</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>44039</v>
+        <v>44858</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.6400012969970703</v>
+        <v>7.009994506835938</v>
       </c>
       <c r="N2" t="n">
         <v>1</v>
@@ -577,25 +577,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21.53000068664551</v>
+        <v>226.1900024414062</v>
       </c>
       <c r="C3" t="n">
-        <v>25.10000038146973</v>
+        <v>237.3999938964844</v>
       </c>
       <c r="D3" t="n">
-        <v>21.35000038146973</v>
+        <v>203.0800018310547</v>
       </c>
       <c r="E3" t="n">
-        <v>23.51000022888184</v>
+        <v>207.4700012207031</v>
       </c>
       <c r="F3" t="n">
-        <v>22.22154486471436</v>
+        <v>207.4700012207031</v>
       </c>
       <c r="G3" t="n">
-        <v>21.76816498178234</v>
+        <v>212.9939466392817</v>
       </c>
       <c r="H3" t="n">
-        <v>22.00025024469537</v>
+        <v>216.0667178187727</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -608,13 +608,13 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.1308428571428571</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>44046</v>
+        <v>44865</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.6400012969970703</v>
+        <v>7.009994506835938</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
@@ -635,25 +635,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23.65999984741211</v>
+        <v>208.6499938964844</v>
       </c>
       <c r="C4" t="n">
-        <v>25.55999946594238</v>
+        <v>208.8999938964844</v>
       </c>
       <c r="D4" t="n">
-        <v>23.54000091552734</v>
+        <v>177.1199951171875</v>
       </c>
       <c r="E4" t="n">
-        <v>24.52000045776367</v>
+        <v>195.9700012207031</v>
       </c>
       <c r="F4" t="n">
-        <v>22.98769672906413</v>
+        <v>195.9700012207031</v>
       </c>
       <c r="G4" t="n">
-        <v>22.37968397644486</v>
+        <v>201.6446496935627</v>
       </c>
       <c r="H4" t="n">
-        <v>22.2293184458834</v>
+        <v>206.0183595197379</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -666,13 +666,13 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.08381428571428572</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>44053</v>
+        <v>44872</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.6400012969970703</v>
+        <v>7.009994506835938</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
@@ -693,25 +693,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>24.70000076293945</v>
+        <v>192.7700042724609</v>
       </c>
       <c r="C5" t="n">
-        <v>24.85000038146973</v>
+        <v>200.8200073242188</v>
       </c>
       <c r="D5" t="n">
-        <v>21.94000053405762</v>
+        <v>176.5500030517578</v>
       </c>
       <c r="E5" t="n">
-        <v>22.3799991607666</v>
+        <v>180.1900024414062</v>
       </c>
       <c r="F5" t="n">
-        <v>22.78513087296496</v>
+        <v>180.1900024414062</v>
       </c>
       <c r="G5" t="n">
-        <v>22.37975401740524</v>
+        <v>187.3415515254584</v>
       </c>
       <c r="H5" t="n">
-        <v>22.24301669269096</v>
+        <v>193.1041809805721</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.1097</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>44060</v>
+        <v>44879</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.6400012969970703</v>
+        <v>7.009994506835938</v>
       </c>
       <c r="N5" t="n">
         <v>1</v>
@@ -751,49 +751,49 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22.54000091552734</v>
+        <v>175.8500061035156</v>
       </c>
       <c r="C6" t="n">
-        <v>23.59000015258789</v>
+        <v>185.1999969482422</v>
       </c>
       <c r="D6" t="n">
-        <v>21.04999923706055</v>
+        <v>166.1900024414062</v>
       </c>
       <c r="E6" t="n">
-        <v>21.89999961853027</v>
+        <v>182.8600006103516</v>
       </c>
       <c r="F6" t="n">
-        <v>22.22154486471436</v>
+        <v>207.4700012207031</v>
       </c>
       <c r="G6" t="n">
-        <v>21.76816498178234</v>
+        <v>212.9939466392817</v>
       </c>
       <c r="H6" t="n">
-        <v>22.00025024469537</v>
+        <v>216.0667178187727</v>
       </c>
       <c r="I6" t="n">
-        <v>23.59000015258789</v>
+        <v>185.1999969482422</v>
       </c>
       <c r="J6" t="n">
-        <v>24.24337590111122</v>
+        <v>202.5927851437696</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>44061</v>
+        <v>44880</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.6400012969970703</v>
+        <v>7.009994506835938</v>
       </c>
       <c r="N6" t="n">
         <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>22.54000091552734</v>
+        <v>175.8500061035156</v>
       </c>
       <c r="P6" t="n">
-        <v>-284</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7">
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>33.31000137329102</v>
+        <v>226.1900024414062</v>
       </c>
       <c r="C7" t="n">
-        <v>35.97000122070312</v>
+        <v>237.3999938964844</v>
       </c>
       <c r="D7" t="n">
-        <v>32.93999862670898</v>
+        <v>203.0800018310547</v>
       </c>
       <c r="E7" t="n">
-        <v>33.36000061035156</v>
+        <v>207.4700012207031</v>
       </c>
       <c r="F7" t="n">
-        <v>35.15779430514044</v>
+        <v>207.4700012207031</v>
       </c>
       <c r="G7" t="n">
-        <v>36.16499456462748</v>
+        <v>212.9939466392817</v>
       </c>
       <c r="H7" t="n">
-        <v>35.45306817614916</v>
+        <v>216.0667178187727</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -832,13 +832,13 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.1308428571428571</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>44403</v>
+        <v>44865</v>
       </c>
       <c r="M7" t="n">
-        <v>1.622059496990321</v>
+        <v>14.89999389648438</v>
       </c>
       <c r="N7" t="n">
         <v>2</v>
@@ -859,25 +859,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>33.0099983215332</v>
+        <v>208.6499938964844</v>
       </c>
       <c r="C8" t="n">
-        <v>35</v>
+        <v>208.8999938964844</v>
       </c>
       <c r="D8" t="n">
-        <v>30.19000053405762</v>
+        <v>177.1199951171875</v>
       </c>
       <c r="E8" t="n">
-        <v>30.34000015258789</v>
+        <v>195.9700012207031</v>
       </c>
       <c r="F8" t="n">
-        <v>33.55186292095626</v>
+        <v>195.9700012207031</v>
       </c>
       <c r="G8" t="n">
-        <v>34.87055136195201</v>
+        <v>201.6446496935627</v>
       </c>
       <c r="H8" t="n">
-        <v>34.98824381037086</v>
+        <v>206.0183595197379</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -890,13 +890,13 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.08381428571428572</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>44410</v>
+        <v>44872</v>
       </c>
       <c r="M8" t="n">
-        <v>1.622059496990321</v>
+        <v>14.89999389648438</v>
       </c>
       <c r="N8" t="n">
         <v>2</v>
@@ -917,25 +917,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>29.81999969482422</v>
+        <v>192.7700042724609</v>
       </c>
       <c r="C9" t="n">
-        <v>30.56999969482422</v>
+        <v>200.8200073242188</v>
       </c>
       <c r="D9" t="n">
-        <v>28.42000007629395</v>
+        <v>176.5500030517578</v>
       </c>
       <c r="E9" t="n">
-        <v>28.53000068664551</v>
+        <v>180.1900024414062</v>
       </c>
       <c r="F9" t="n">
-        <v>31.87790884285268</v>
+        <v>180.1900024414062</v>
       </c>
       <c r="G9" t="n">
-        <v>33.46154010077279</v>
+        <v>187.3415515254584</v>
       </c>
       <c r="H9" t="n">
-        <v>34.4011307991231</v>
+        <v>193.1041809805721</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -948,13 +948,13 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.1097</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>44417</v>
+        <v>44879</v>
       </c>
       <c r="M9" t="n">
-        <v>1.622059496990321</v>
+        <v>14.89999389648438</v>
       </c>
       <c r="N9" t="n">
         <v>2</v>
@@ -975,25 +975,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>28.10000038146973</v>
+        <v>175.8500061035156</v>
       </c>
       <c r="C10" t="n">
-        <v>28.1299991607666</v>
+        <v>185.1999969482422</v>
       </c>
       <c r="D10" t="n">
-        <v>23.73999977111816</v>
+        <v>166.1900024414062</v>
       </c>
       <c r="E10" t="n">
-        <v>24.5</v>
+        <v>182.8600006103516</v>
       </c>
       <c r="F10" t="n">
-        <v>29.41860589523512</v>
+        <v>182.8600006103516</v>
       </c>
       <c r="G10" t="n">
-        <v>31.4700867450455</v>
+        <v>184.3538509153872</v>
       </c>
       <c r="H10" t="n">
-        <v>33.50102799920282</v>
+        <v>187.9820907954618</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1006,13 +1006,13 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.1190857142857143</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>44424</v>
+        <v>44886</v>
       </c>
       <c r="M10" t="n">
-        <v>1.622059496990321</v>
+        <v>14.89999389648438</v>
       </c>
       <c r="N10" t="n">
         <v>2</v>
@@ -1033,49 +1033,49 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>25.07999992370605</v>
+        <v>179.9600067138672</v>
       </c>
       <c r="C11" t="n">
-        <v>29.11000061035156</v>
+        <v>198.9199981689453</v>
       </c>
       <c r="D11" t="n">
-        <v>25.07999992370605</v>
+        <v>178.75</v>
       </c>
       <c r="E11" t="n">
-        <v>28.93000030517578</v>
+        <v>194.8600006103516</v>
       </c>
       <c r="F11" t="n">
-        <v>33.55186292095626</v>
+        <v>195.9700012207031</v>
       </c>
       <c r="G11" t="n">
-        <v>34.87055136195201</v>
+        <v>201.6446496935627</v>
       </c>
       <c r="H11" t="n">
-        <v>34.98824381037086</v>
+        <v>206.0183595197379</v>
       </c>
       <c r="I11" t="n">
-        <v>29.11000061035156</v>
+        <v>198.9199981689453</v>
       </c>
       <c r="J11" t="n">
-        <v>26.70205942069638</v>
+        <v>215.3441712646196</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>44425</v>
+        <v>44887</v>
       </c>
       <c r="M11" t="n">
-        <v>1.622059496990321</v>
+        <v>14.89999389648438</v>
       </c>
       <c r="N11" t="n">
         <v>2</v>
       </c>
       <c r="O11" t="n">
-        <v>25.07999992370605</v>
+        <v>179.9600067138672</v>
       </c>
       <c r="P11" t="n">
-        <v>647</v>
+        <v>834</v>
       </c>
     </row>
     <row r="12">
@@ -1083,25 +1083,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>24.29000091552734</v>
+        <v>208.6499938964844</v>
       </c>
       <c r="C12" t="n">
-        <v>26.36000061035156</v>
+        <v>208.8999938964844</v>
       </c>
       <c r="D12" t="n">
-        <v>23.92000007629395</v>
+        <v>177.1199951171875</v>
       </c>
       <c r="E12" t="n">
-        <v>24.13999938964844</v>
+        <v>195.9700012207031</v>
       </c>
       <c r="F12" t="n">
-        <v>25.63981686813359</v>
+        <v>195.9700012207031</v>
       </c>
       <c r="G12" t="n">
-        <v>26.46007548451282</v>
+        <v>201.6446496935627</v>
       </c>
       <c r="H12" t="n">
-        <v>28.82803825221075</v>
+        <v>206.0183595197379</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1114,13 +1114,13 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.08381428571428572</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>44522</v>
+        <v>44872</v>
       </c>
       <c r="M12" t="n">
-        <v>1.350000381469727</v>
+        <v>1.757632192787781</v>
       </c>
       <c r="N12" t="n">
         <v>3</v>
@@ -1141,25 +1141,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>25</v>
+        <v>192.7700042724609</v>
       </c>
       <c r="C13" t="n">
-        <v>25.31999969482422</v>
+        <v>200.8200073242188</v>
       </c>
       <c r="D13" t="n">
-        <v>21.8700008392334</v>
+        <v>176.5500030517578</v>
       </c>
       <c r="E13" t="n">
-        <v>23.48999977111816</v>
+        <v>180.1900024414062</v>
       </c>
       <c r="F13" t="n">
-        <v>24.92321116912845</v>
+        <v>180.1900024414062</v>
       </c>
       <c r="G13" t="n">
-        <v>25.80005865931401</v>
+        <v>187.3415515254584</v>
       </c>
       <c r="H13" t="n">
-        <v>28.34276202665688</v>
+        <v>193.1041809805721</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1172,13 +1172,13 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.1097</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>44529</v>
+        <v>44879</v>
       </c>
       <c r="M13" t="n">
-        <v>1.350000381469727</v>
+        <v>1.757632192787781</v>
       </c>
       <c r="N13" t="n">
         <v>3</v>
@@ -1199,25 +1199,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>24.03000068664551</v>
+        <v>175.8500061035156</v>
       </c>
       <c r="C14" t="n">
-        <v>25.81999969482422</v>
+        <v>185.1999969482422</v>
       </c>
       <c r="D14" t="n">
-        <v>23.65999984741211</v>
+        <v>166.1900024414062</v>
       </c>
       <c r="E14" t="n">
-        <v>24.64999961853027</v>
+        <v>182.8600006103516</v>
       </c>
       <c r="F14" t="n">
-        <v>24.83214065226239</v>
+        <v>182.8600006103516</v>
       </c>
       <c r="G14" t="n">
-        <v>25.54448998358429</v>
+        <v>184.3538509153872</v>
       </c>
       <c r="H14" t="n">
-        <v>28.00705635319082</v>
+        <v>187.9820907954618</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.1190857142857143</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>44536</v>
+        <v>44886</v>
       </c>
       <c r="M14" t="n">
-        <v>1.350000381469727</v>
+        <v>1.757632192787781</v>
       </c>
       <c r="N14" t="n">
         <v>3</v>
@@ -1257,25 +1257,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>24.29000091552734</v>
+        <v>179.9600067138672</v>
       </c>
       <c r="C15" t="n">
-        <v>24.35000038146973</v>
+        <v>198.9199981689453</v>
       </c>
       <c r="D15" t="n">
-        <v>21.07999992370605</v>
+        <v>178.75</v>
       </c>
       <c r="E15" t="n">
-        <v>22.43000030517578</v>
+        <v>194.8600006103516</v>
       </c>
       <c r="F15" t="n">
-        <v>24.03142720323352</v>
+        <v>194.8600006103516</v>
       </c>
       <c r="G15" t="n">
-        <v>24.85238116616018</v>
+        <v>191.3579507120301</v>
       </c>
       <c r="H15" t="n">
-        <v>27.50005125791672</v>
+        <v>191.4210457029067</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.1229714285714286</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>44543</v>
+        <v>44893</v>
       </c>
       <c r="M15" t="n">
-        <v>1.350000381469727</v>
+        <v>1.757632192787781</v>
       </c>
       <c r="N15" t="n">
         <v>3</v>
@@ -1315,49 +1315,49 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>21.89999961853027</v>
+        <v>189.4400024414062</v>
       </c>
       <c r="C16" t="n">
-        <v>23.42000007629395</v>
+        <v>191.2700042724609</v>
       </c>
       <c r="D16" t="n">
-        <v>21.26000022888184</v>
+        <v>169.0599975585938</v>
       </c>
       <c r="E16" t="n">
-        <v>23.25</v>
+        <v>179.0500030517578</v>
       </c>
       <c r="F16" t="n">
-        <v>24.92321116912845</v>
+        <v>180.1900024414062</v>
       </c>
       <c r="G16" t="n">
-        <v>25.80005865931401</v>
+        <v>187.3415515254584</v>
       </c>
       <c r="H16" t="n">
-        <v>28.34276202665688</v>
+        <v>193.1041809805721</v>
       </c>
       <c r="I16" t="n">
-        <v>23.42000007629395</v>
+        <v>191.2700042724609</v>
       </c>
       <c r="J16" t="n">
-        <v>23.92993245242474</v>
+        <v>191.197634634194</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>44544</v>
+        <v>44894</v>
       </c>
       <c r="M16" t="n">
-        <v>1.350000381469727</v>
+        <v>1.757632192787781</v>
       </c>
       <c r="N16" t="n">
         <v>3</v>
       </c>
       <c r="O16" t="n">
-        <v>21.89999961853027</v>
+        <v>189.4400024414062</v>
       </c>
       <c r="P16" t="n">
-        <v>617</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17">
@@ -1365,25 +1365,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>23.36000061035156</v>
+        <v>192.7700042724609</v>
       </c>
       <c r="C17" t="n">
-        <v>23.75</v>
+        <v>200.8200073242188</v>
       </c>
       <c r="D17" t="n">
-        <v>21.96999931335449</v>
+        <v>176.5500030517578</v>
       </c>
       <c r="E17" t="n">
-        <v>22.30999946594238</v>
+        <v>180.1900024414062</v>
       </c>
       <c r="F17" t="n">
-        <v>23.28396746786236</v>
+        <v>180.1900024414062</v>
       </c>
       <c r="G17" t="n">
-        <v>24.01045268554088</v>
+        <v>187.3415515254584</v>
       </c>
       <c r="H17" t="n">
-        <v>26.67698446212428</v>
+        <v>193.1041809805721</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>0.20095</v>
+        <v>0.1097</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>44557</v>
+        <v>44879</v>
       </c>
       <c r="M17" t="n">
-        <v>1.893203231534244</v>
+        <v>0.3000895639994212</v>
       </c>
       <c r="N17" t="n">
         <v>4</v>
@@ -1423,25 +1423,25 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>22.57999992370605</v>
+        <v>175.8500061035156</v>
       </c>
       <c r="C18" t="n">
-        <v>26.45999908447266</v>
+        <v>185.1999969482422</v>
       </c>
       <c r="D18" t="n">
-        <v>22.3700008392334</v>
+        <v>166.1900024414062</v>
       </c>
       <c r="E18" t="n">
-        <v>26.18000030517578</v>
+        <v>182.8600006103516</v>
       </c>
       <c r="F18" t="n">
-        <v>24.24931174696684</v>
+        <v>182.8600006103516</v>
       </c>
       <c r="G18" t="n">
-        <v>24.49257437879308</v>
+        <v>184.3538509153872</v>
       </c>
       <c r="H18" t="n">
-        <v>26.63180408421987</v>
+        <v>187.9820907954618</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1454,13 +1454,13 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.1190857142857143</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>44564</v>
+        <v>44886</v>
       </c>
       <c r="M18" t="n">
-        <v>1.893203231534244</v>
+        <v>0.3000895639994212</v>
       </c>
       <c r="N18" t="n">
         <v>4</v>
@@ -1481,25 +1481,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>26.13999938964844</v>
+        <v>179.9600067138672</v>
       </c>
       <c r="C19" t="n">
-        <v>27.3799991607666</v>
+        <v>198.9199981689453</v>
       </c>
       <c r="D19" t="n">
-        <v>25.5</v>
+        <v>178.75</v>
       </c>
       <c r="E19" t="n">
-        <v>27.35000038146973</v>
+        <v>194.8600006103516</v>
       </c>
       <c r="F19" t="n">
-        <v>25.28287462513447</v>
+        <v>194.8600006103516</v>
       </c>
       <c r="G19" t="n">
-        <v>25.12755793494345</v>
+        <v>191.3579507120301</v>
       </c>
       <c r="H19" t="n">
-        <v>26.69709465669713</v>
+        <v>191.4210457029067</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.1229714285714286</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>44571</v>
+        <v>44893</v>
       </c>
       <c r="M19" t="n">
-        <v>1.893203231534244</v>
+        <v>0.3000895639994212</v>
       </c>
       <c r="N19" t="n">
         <v>4</v>
@@ -1539,25 +1539,25 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>27.78000068664551</v>
+        <v>189.4400024414062</v>
       </c>
       <c r="C20" t="n">
-        <v>28.09000015258789</v>
+        <v>191.2700042724609</v>
       </c>
       <c r="D20" t="n">
-        <v>25.14999961853027</v>
+        <v>169.0599975585938</v>
       </c>
       <c r="E20" t="n">
-        <v>25.90999984741211</v>
+        <v>179.0500030517578</v>
       </c>
       <c r="F20" t="n">
-        <v>25.49191636589368</v>
+        <v>179.0500030517578</v>
       </c>
       <c r="G20" t="n">
-        <v>25.30143391549204</v>
+        <v>183.1526522718486</v>
       </c>
       <c r="H20" t="n">
-        <v>26.62554058312577</v>
+        <v>185.2355243773322</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1570,13 +1570,13 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.07528571428571429</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>44578</v>
+        <v>44900</v>
       </c>
       <c r="M20" t="n">
-        <v>1.893203231534244</v>
+        <v>0.3000895639994212</v>
       </c>
       <c r="N20" t="n">
         <v>4</v>
@@ -1597,49 +1597,49 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>25.20999908447266</v>
+        <v>176.1000061035156</v>
       </c>
       <c r="C21" t="n">
-        <v>28.56999969482422</v>
+        <v>177.3699951171875</v>
       </c>
       <c r="D21" t="n">
-        <v>24.65999984741211</v>
+        <v>150.0399932861328</v>
       </c>
       <c r="E21" t="n">
-        <v>26.45000076293945</v>
+        <v>150.2299957275391</v>
       </c>
       <c r="F21" t="n">
-        <v>24.24931174696684</v>
+        <v>182.8600006103516</v>
       </c>
       <c r="G21" t="n">
-        <v>24.49257437879308</v>
+        <v>184.3538509153872</v>
       </c>
       <c r="H21" t="n">
-        <v>26.63180408421987</v>
+        <v>187.9820907954618</v>
       </c>
       <c r="I21" t="n">
-        <v>28.56999969482422</v>
+        <v>177.3699951171875</v>
       </c>
       <c r="J21" t="n">
-        <v>27.1032023160069</v>
+        <v>176.400095667515</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>44579</v>
+        <v>44901</v>
       </c>
       <c r="M21" t="n">
-        <v>1.893203231534244</v>
+        <v>0.3000895639994212</v>
       </c>
       <c r="N21" t="n">
         <v>4</v>
       </c>
       <c r="O21" t="n">
-        <v>25.20999908447266</v>
+        <v>176.1000061035156</v>
       </c>
       <c r="P21" t="n">
-        <v>752</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
@@ -1647,25 +1647,25 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>37.66999816894531</v>
+        <v>179.9600067138672</v>
       </c>
       <c r="C22" t="n">
-        <v>41.81000137329102</v>
+        <v>198.9199981689453</v>
       </c>
       <c r="D22" t="n">
-        <v>36.59999847412109</v>
+        <v>178.75</v>
       </c>
       <c r="E22" t="n">
-        <v>41.79999923706055</v>
+        <v>194.8600006103516</v>
       </c>
       <c r="F22" t="n">
-        <v>36.30102182418928</v>
+        <v>194.8600006103516</v>
       </c>
       <c r="G22" t="n">
-        <v>34.69363512044183</v>
+        <v>191.3579507120301</v>
       </c>
       <c r="H22" t="n">
-        <v>31.88770123463585</v>
+        <v>191.4210457029067</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1678,13 +1678,13 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.1229714285714286</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>44340</v>
+        <v>44893</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4200019836425781</v>
+        <v>5.680000305175781</v>
       </c>
       <c r="N22" t="n">
         <v>5</v>
@@ -1705,25 +1705,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>42.43999862670898</v>
+        <v>189.4400024414062</v>
       </c>
       <c r="C23" t="n">
-        <v>48.59999847412109</v>
+        <v>191.2700042724609</v>
       </c>
       <c r="D23" t="n">
-        <v>41.11000061035156</v>
+        <v>169.0599975585938</v>
       </c>
       <c r="E23" t="n">
-        <v>47.56000137329102</v>
+        <v>179.0500030517578</v>
       </c>
       <c r="F23" t="n">
-        <v>40.0540150072232</v>
+        <v>179.0500030517578</v>
       </c>
       <c r="G23" t="n">
-        <v>37.55282762107498</v>
+        <v>183.1526522718486</v>
       </c>
       <c r="H23" t="n">
-        <v>33.31245579269541</v>
+        <v>185.2355243773322</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1736,13 +1736,13 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>0.07528571428571429</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>44347</v>
+        <v>44900</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4200019836425781</v>
+        <v>5.680000305175781</v>
       </c>
       <c r="N23" t="n">
         <v>5</v>
@@ -1763,25 +1763,25 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>47.40000152587891</v>
+        <v>176.1000061035156</v>
       </c>
       <c r="C24" t="n">
-        <v>49.86999893188477</v>
+        <v>177.3699951171875</v>
       </c>
       <c r="D24" t="n">
-        <v>46.65000152587891</v>
+        <v>150.0399932861328</v>
       </c>
       <c r="E24" t="n">
-        <v>47.81000137329102</v>
+        <v>150.2299957275391</v>
       </c>
       <c r="F24" t="n">
-        <v>42.63934379591247</v>
+        <v>150.2299957275391</v>
       </c>
       <c r="G24" t="n">
-        <v>39.83219956601187</v>
+        <v>161.2042145756422</v>
       </c>
       <c r="H24" t="n">
-        <v>34.63041448184047</v>
+        <v>167.7327600524357</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1794,13 +1794,13 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.09244285714285715</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>44354</v>
+        <v>44907</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4200019836425781</v>
+        <v>5.680000305175781</v>
       </c>
       <c r="N24" t="n">
         <v>5</v>
@@ -1821,25 +1821,25 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>46.68999862670898</v>
+        <v>154</v>
       </c>
       <c r="C25" t="n">
-        <v>48.11999893188477</v>
+        <v>155.25</v>
       </c>
       <c r="D25" t="n">
-        <v>40.45000076293945</v>
+        <v>121.0199966430664</v>
       </c>
       <c r="E25" t="n">
-        <v>41.34999847412109</v>
+        <v>123.1500015258789</v>
       </c>
       <c r="F25" t="n">
-        <v>42.20956202198202</v>
+        <v>123.1500015258789</v>
       </c>
       <c r="G25" t="n">
-        <v>40.16948821225837</v>
+        <v>135.8347392091333</v>
       </c>
       <c r="H25" t="n">
-        <v>35.24128575386598</v>
+        <v>145.4413807891573</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1852,13 +1852,13 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>0.1012</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>44361</v>
+        <v>44914</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4200019836425781</v>
+        <v>5.680000305175781</v>
       </c>
       <c r="N25" t="n">
         <v>5</v>
@@ -1879,49 +1879,49 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>41.68999862670898</v>
+        <v>117.5</v>
       </c>
       <c r="C26" t="n">
-        <v>44.34999847412109</v>
+        <v>124.4800033569336</v>
       </c>
       <c r="D26" t="n">
-        <v>41.34999847412109</v>
+        <v>108.2399978637695</v>
       </c>
       <c r="E26" t="n">
-        <v>42.11000061035156</v>
+        <v>123.1800003051758</v>
       </c>
       <c r="F26" t="n">
-        <v>40.0540150072232</v>
+        <v>179.0500030517578</v>
       </c>
       <c r="G26" t="n">
-        <v>37.55282762107498</v>
+        <v>183.1526522718486</v>
       </c>
       <c r="H26" t="n">
-        <v>33.31245579269541</v>
+        <v>185.2355243773322</v>
       </c>
       <c r="I26" t="n">
-        <v>44.34999847412109</v>
+        <v>124.4800033569336</v>
       </c>
       <c r="J26" t="n">
-        <v>46.39619525099994</v>
+        <v>139.4438817229526</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>44362</v>
+        <v>44915</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4200019836425781</v>
+        <v>5.680000305175781</v>
       </c>
       <c r="N26" t="n">
         <v>5</v>
       </c>
       <c r="O26" t="n">
-        <v>41.68999862670898</v>
+        <v>117.5</v>
       </c>
       <c r="P26" t="n">
-        <v>101</v>
+        <v>483</v>
       </c>
     </row>
     <row r="27">
@@ -1929,25 +1929,25 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>22.57999992370605</v>
+        <v>189.4400024414062</v>
       </c>
       <c r="C27" t="n">
-        <v>26.45999908447266</v>
+        <v>191.2700042724609</v>
       </c>
       <c r="D27" t="n">
-        <v>22.3700008392334</v>
+        <v>169.0599975585938</v>
       </c>
       <c r="E27" t="n">
-        <v>26.18000030517578</v>
+        <v>179.0500030517578</v>
       </c>
       <c r="F27" t="n">
-        <v>24.24931174696684</v>
+        <v>179.0500030517578</v>
       </c>
       <c r="G27" t="n">
-        <v>24.49257437879308</v>
+        <v>183.1526522718486</v>
       </c>
       <c r="H27" t="n">
-        <v>26.63180408421987</v>
+        <v>185.2355243773322</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1960,13 +1960,13 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.07528571428571429</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>44564</v>
+        <v>44900</v>
       </c>
       <c r="M27" t="n">
-        <v>0.4325715107941051</v>
+        <v>-5.410003662109375</v>
       </c>
       <c r="N27" t="n">
         <v>6</v>
@@ -1987,25 +1987,25 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>26.13999938964844</v>
+        <v>176.1000061035156</v>
       </c>
       <c r="C28" t="n">
-        <v>27.3799991607666</v>
+        <v>177.3699951171875</v>
       </c>
       <c r="D28" t="n">
-        <v>25.5</v>
+        <v>150.0399932861328</v>
       </c>
       <c r="E28" t="n">
-        <v>27.35000038146973</v>
+        <v>150.2299957275391</v>
       </c>
       <c r="F28" t="n">
-        <v>25.28287462513447</v>
+        <v>150.2299957275391</v>
       </c>
       <c r="G28" t="n">
-        <v>25.12755793494345</v>
+        <v>161.2042145756422</v>
       </c>
       <c r="H28" t="n">
-        <v>26.69709465669713</v>
+        <v>167.7327600524357</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -2018,13 +2018,13 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.09244285714285715</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>44571</v>
+        <v>44907</v>
       </c>
       <c r="M28" t="n">
-        <v>0.4325715107941051</v>
+        <v>-5.410003662109375</v>
       </c>
       <c r="N28" t="n">
         <v>6</v>
@@ -2045,25 +2045,25 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>27.78000068664551</v>
+        <v>154</v>
       </c>
       <c r="C29" t="n">
-        <v>28.09000015258789</v>
+        <v>155.25</v>
       </c>
       <c r="D29" t="n">
-        <v>25.14999961853027</v>
+        <v>121.0199966430664</v>
       </c>
       <c r="E29" t="n">
-        <v>25.90999984741211</v>
+        <v>123.1500015258789</v>
       </c>
       <c r="F29" t="n">
-        <v>25.49191636589368</v>
+        <v>123.1500015258789</v>
       </c>
       <c r="G29" t="n">
-        <v>25.30143391549204</v>
+        <v>135.8347392091333</v>
       </c>
       <c r="H29" t="n">
-        <v>26.62554058312577</v>
+        <v>145.4413807891573</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -2076,13 +2076,13 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>0.1012</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>44578</v>
+        <v>44914</v>
       </c>
       <c r="M29" t="n">
-        <v>0.4325715107941051</v>
+        <v>-5.410003662109375</v>
       </c>
       <c r="N29" t="n">
         <v>6</v>
@@ -2103,25 +2103,25 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>25.20999908447266</v>
+        <v>117.5</v>
       </c>
       <c r="C30" t="n">
-        <v>28.56999969482422</v>
+        <v>124.4800033569336</v>
       </c>
       <c r="D30" t="n">
-        <v>24.65999984741211</v>
+        <v>108.2399978637695</v>
       </c>
       <c r="E30" t="n">
-        <v>26.45000076293945</v>
+        <v>123.1800003051758</v>
       </c>
       <c r="F30" t="n">
-        <v>25.81127783157561</v>
+        <v>123.1800003051758</v>
       </c>
       <c r="G30" t="n">
-        <v>25.55667099270257</v>
+        <v>127.398246606495</v>
       </c>
       <c r="H30" t="n">
-        <v>26.60958241765428</v>
+        <v>134.3106905471665</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -2134,13 +2134,13 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>0.08324285714285715</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>44585</v>
+        <v>44921</v>
       </c>
       <c r="M30" t="n">
-        <v>0.4325715107941051</v>
+        <v>-5.410003662109375</v>
       </c>
       <c r="N30" t="n">
         <v>6</v>
@@ -2161,49 +2161,49 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>26.20999908447266</v>
+        <v>118.4700012207031</v>
       </c>
       <c r="C31" t="n">
-        <v>28.34000015258789</v>
+        <v>118.8000030517578</v>
       </c>
       <c r="D31" t="n">
-        <v>24.45000076293945</v>
+        <v>101.8099975585938</v>
       </c>
       <c r="E31" t="n">
-        <v>27.02000045776367</v>
+        <v>113.0599975585938</v>
       </c>
       <c r="F31" t="n">
-        <v>25.28287462513447</v>
+        <v>150.2299957275391</v>
       </c>
       <c r="G31" t="n">
-        <v>25.12755793494345</v>
+        <v>161.2042145756422</v>
       </c>
       <c r="H31" t="n">
-        <v>26.69709465669713</v>
+        <v>167.7327600524357</v>
       </c>
       <c r="I31" t="n">
-        <v>28.34000015258789</v>
+        <v>118.8000030517578</v>
       </c>
       <c r="J31" t="n">
-        <v>26.64257059526676</v>
+        <v>140.7141350011967</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>44586</v>
+        <v>44922</v>
       </c>
       <c r="M31" t="n">
-        <v>0.4325715107941051</v>
+        <v>-5.410003662109375</v>
       </c>
       <c r="N31" t="n">
         <v>6</v>
       </c>
       <c r="O31" t="n">
-        <v>26.20999908447266</v>
+        <v>118.4700012207031</v>
       </c>
       <c r="P31" t="n">
-        <v>165</v>
+        <v>-454</v>
       </c>
     </row>
     <row r="32">
@@ -2211,25 +2211,25 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>15.05000019073486</v>
+        <v>176.1000061035156</v>
       </c>
       <c r="C32" t="n">
-        <v>15.3100004196167</v>
+        <v>177.3699951171875</v>
       </c>
       <c r="D32" t="n">
-        <v>13.43000030517578</v>
+        <v>150.0399932861328</v>
       </c>
       <c r="E32" t="n">
-        <v>14.44999980926514</v>
+        <v>150.2299957275391</v>
       </c>
       <c r="F32" t="n">
-        <v>15.42580274117026</v>
+        <v>150.2299957275391</v>
       </c>
       <c r="G32" t="n">
-        <v>16.25669943117394</v>
+        <v>161.2042145756422</v>
       </c>
       <c r="H32" t="n">
-        <v>18.66076369049623</v>
+        <v>167.7327600524357</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -2242,13 +2242,13 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.09244285714285715</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>44130</v>
+        <v>44907</v>
       </c>
       <c r="M32" t="n">
-        <v>3.438126482610642</v>
+        <v>3.44000244140625</v>
       </c>
       <c r="N32" t="n">
         <v>7</v>
@@ -2269,25 +2269,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>14.72000026702881</v>
+        <v>154</v>
       </c>
       <c r="C33" t="n">
-        <v>16.13999938964844</v>
+        <v>155.25</v>
       </c>
       <c r="D33" t="n">
-        <v>14.36999988555908</v>
+        <v>121.0199966430664</v>
       </c>
       <c r="E33" t="n">
-        <v>15.21000003814697</v>
+        <v>123.1500015258789</v>
       </c>
       <c r="F33" t="n">
-        <v>15.35386850682916</v>
+        <v>123.1500015258789</v>
       </c>
       <c r="G33" t="n">
-        <v>16.02409956605684</v>
+        <v>135.8347392091333</v>
       </c>
       <c r="H33" t="n">
-        <v>18.34705790391902</v>
+        <v>145.4413807891573</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -2300,13 +2300,13 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.1012</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>44137</v>
+        <v>44914</v>
       </c>
       <c r="M33" t="n">
-        <v>3.438126482610642</v>
+        <v>3.44000244140625</v>
       </c>
       <c r="N33" t="n">
         <v>7</v>
@@ -2327,25 +2327,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>17.25</v>
+        <v>117.5</v>
       </c>
       <c r="C34" t="n">
-        <v>19.77000045776367</v>
+        <v>124.4800033569336</v>
       </c>
       <c r="D34" t="n">
-        <v>17.25</v>
+        <v>108.2399978637695</v>
       </c>
       <c r="E34" t="n">
-        <v>18.3799991607666</v>
+        <v>123.1800003051758</v>
       </c>
       <c r="F34" t="n">
-        <v>16.36257872480831</v>
+        <v>123.1800003051758</v>
       </c>
       <c r="G34" t="n">
-        <v>16.54763280932567</v>
+        <v>127.398246606495</v>
       </c>
       <c r="H34" t="n">
-        <v>18.35005256363244</v>
+        <v>134.3106905471665</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -2358,13 +2358,13 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>0.08324285714285715</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>44144</v>
+        <v>44921</v>
       </c>
       <c r="M34" t="n">
-        <v>3.438126482610642</v>
+        <v>3.44000244140625</v>
       </c>
       <c r="N34" t="n">
         <v>7</v>
@@ -2385,25 +2385,25 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>19.45999908447266</v>
+        <v>118.4700012207031</v>
       </c>
       <c r="C35" t="n">
-        <v>21.8799991607666</v>
+        <v>118.8000030517578</v>
       </c>
       <c r="D35" t="n">
-        <v>19.15999984741211</v>
+        <v>101.8099975585938</v>
       </c>
       <c r="E35" t="n">
-        <v>20.19000053405762</v>
+        <v>113.0599975585938</v>
       </c>
       <c r="F35" t="n">
-        <v>17.63838599455808</v>
+        <v>113.0599975585938</v>
       </c>
       <c r="G35" t="n">
-        <v>17.35704785926611</v>
+        <v>117.8394139078942</v>
       </c>
       <c r="H35" t="n">
-        <v>18.51732056094382</v>
+        <v>123.6853440528801</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2416,13 +2416,13 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>0.07425714285714287</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>44151</v>
+        <v>44928</v>
       </c>
       <c r="M35" t="n">
-        <v>3.438126482610642</v>
+        <v>3.44000244140625</v>
       </c>
       <c r="N35" t="n">
         <v>7</v>
@@ -2443,49 +2443,49 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>20.51000022888184</v>
+        <v>118.9599990844727</v>
       </c>
       <c r="C36" t="n">
-        <v>25.79999923706055</v>
+        <v>125.9499969482422</v>
       </c>
       <c r="D36" t="n">
-        <v>20.51000022888184</v>
+        <v>114.9199981689453</v>
       </c>
       <c r="E36" t="n">
-        <v>24.09000015258789</v>
+        <v>122.4000015258789</v>
       </c>
       <c r="F36" t="n">
-        <v>15.35386850682916</v>
+        <v>123.1500015258789</v>
       </c>
       <c r="G36" t="n">
-        <v>16.02409956605684</v>
+        <v>135.8347392091333</v>
       </c>
       <c r="H36" t="n">
-        <v>18.34705790391902</v>
+        <v>145.4413807891573</v>
       </c>
       <c r="I36" t="n">
-        <v>25.79999923706055</v>
+        <v>125.9499969482422</v>
       </c>
       <c r="J36" t="n">
-        <v>23.94812671149248</v>
+        <v>149.3513768346107</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>44152</v>
+        <v>44929</v>
       </c>
       <c r="M36" t="n">
-        <v>3.438126482610642</v>
+        <v>3.44000244140625</v>
       </c>
       <c r="N36" t="n">
         <v>7</v>
       </c>
       <c r="O36" t="n">
-        <v>20.51000022888184</v>
+        <v>118.9599990844727</v>
       </c>
       <c r="P36" t="n">
-        <v>1678</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37">
@@ -2493,25 +2493,25 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>16.77000045776367</v>
+        <v>154</v>
       </c>
       <c r="C37" t="n">
-        <v>16.78000068664551</v>
+        <v>155.25</v>
       </c>
       <c r="D37" t="n">
-        <v>7.900000095367432</v>
+        <v>121.0199966430664</v>
       </c>
       <c r="E37" t="n">
-        <v>8.489999771118164</v>
+        <v>123.1500015258789</v>
       </c>
       <c r="F37" t="n">
-        <v>22.25813874628412</v>
+        <v>123.1500015258789</v>
       </c>
       <c r="G37" t="n">
-        <v>26.35593313833609</v>
+        <v>135.8347392091333</v>
       </c>
       <c r="H37" t="n">
-        <v>33.20771315831541</v>
+        <v>145.4413807891573</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2524,13 +2524,13 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>0.1012</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>43899</v>
+        <v>44914</v>
       </c>
       <c r="M37" t="n">
-        <v>1.630000114440918</v>
+        <v>7.720001220703125</v>
       </c>
       <c r="N37" t="n">
         <v>8</v>
@@ -2551,25 +2551,25 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>7.199999809265137</v>
+        <v>117.5</v>
       </c>
       <c r="C38" t="n">
-        <v>10.80000019073486</v>
+        <v>124.4800033569336</v>
       </c>
       <c r="D38" t="n">
-        <v>6.679999828338623</v>
+        <v>108.2399978637695</v>
       </c>
       <c r="E38" t="n">
-        <v>9.949999809265137</v>
+        <v>123.1800003051758</v>
       </c>
       <c r="F38" t="n">
-        <v>18.15542576727779</v>
+        <v>123.1800003051758</v>
       </c>
       <c r="G38" t="n">
-        <v>22.71017017632033</v>
+        <v>127.398246606495</v>
       </c>
       <c r="H38" t="n">
-        <v>31.09337558112902</v>
+        <v>134.3106905471665</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2582,13 +2582,13 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>0.08324285714285715</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>43906</v>
+        <v>44921</v>
       </c>
       <c r="M38" t="n">
-        <v>1.630000114440918</v>
+        <v>7.720001220703125</v>
       </c>
       <c r="N38" t="n">
         <v>8</v>
@@ -2609,25 +2609,25 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>10.14000034332275</v>
+        <v>118.4700012207031</v>
       </c>
       <c r="C39" t="n">
-        <v>11.57999992370605</v>
+        <v>118.8000030517578</v>
       </c>
       <c r="D39" t="n">
-        <v>9.239999771118164</v>
+        <v>101.8099975585938</v>
       </c>
       <c r="E39" t="n">
-        <v>9.75</v>
+        <v>113.0599975585938</v>
       </c>
       <c r="F39" t="n">
-        <v>15.35361717818519</v>
+        <v>113.0599975585938</v>
       </c>
       <c r="G39" t="n">
-        <v>19.83013235936026</v>
+        <v>117.8394139078942</v>
       </c>
       <c r="H39" t="n">
-        <v>29.15306871011729</v>
+        <v>123.6853440528801</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2640,13 +2640,13 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>0.07425714285714287</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>43913</v>
+        <v>44928</v>
       </c>
       <c r="M39" t="n">
-        <v>1.630000114440918</v>
+        <v>7.720001220703125</v>
       </c>
       <c r="N39" t="n">
         <v>8</v>
@@ -2667,25 +2667,25 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9.550000190734863</v>
+        <v>118.9599990844727</v>
       </c>
       <c r="C40" t="n">
-        <v>10.77000045776367</v>
+        <v>125.9499969482422</v>
       </c>
       <c r="D40" t="n">
-        <v>8.899999618530273</v>
+        <v>114.9199981689453</v>
       </c>
       <c r="E40" t="n">
-        <v>9.899999618530273</v>
+        <v>122.4000015258789</v>
       </c>
       <c r="F40" t="n">
-        <v>13.53574465830022</v>
+        <v>122.4000015258789</v>
       </c>
       <c r="G40" t="n">
-        <v>17.62343619473137</v>
+        <v>120.8798056532173</v>
       </c>
       <c r="H40" t="n">
-        <v>27.4027897017912</v>
+        <v>123.0426727893795</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2698,13 +2698,13 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>0.06008571428571428</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>43920</v>
+        <v>44935</v>
       </c>
       <c r="M40" t="n">
-        <v>1.630000114440918</v>
+        <v>7.720001220703125</v>
       </c>
       <c r="N40" t="n">
         <v>8</v>
@@ -2725,49 +2725,49 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>10.03999996185303</v>
+        <v>125.6999969482422</v>
       </c>
       <c r="C41" t="n">
-        <v>12.63000011444092</v>
+        <v>136.6799926757812</v>
       </c>
       <c r="D41" t="n">
-        <v>9.609999656677246</v>
+        <v>124.3099975585938</v>
       </c>
       <c r="E41" t="n">
-        <v>11.67000007629395</v>
+        <v>133.4199981689453</v>
       </c>
       <c r="F41" t="n">
-        <v>18.15542576727779</v>
+        <v>123.1800003051758</v>
       </c>
       <c r="G41" t="n">
-        <v>22.71017017632033</v>
+        <v>127.398246606495</v>
       </c>
       <c r="H41" t="n">
-        <v>31.09337558112902</v>
+        <v>134.3106905471665</v>
       </c>
       <c r="I41" t="n">
-        <v>12.63000011444092</v>
+        <v>136.6799926757812</v>
       </c>
       <c r="J41" t="n">
-        <v>14.0271045035148</v>
+        <v>140.9870448836387</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>43921</v>
+        <v>44936</v>
       </c>
       <c r="M41" t="n">
-        <v>1.630000114440918</v>
+        <v>7.720001220703125</v>
       </c>
       <c r="N41" t="n">
         <v>8</v>
       </c>
       <c r="O41" t="n">
-        <v>10.03999996185303</v>
+        <v>125.6999969482422</v>
       </c>
       <c r="P41" t="n">
-        <v>1623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="42">
@@ -2775,25 +2775,25 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>24.70000076293945</v>
+        <v>117.5</v>
       </c>
       <c r="C42" t="n">
-        <v>24.85000038146973</v>
+        <v>124.4800033569336</v>
       </c>
       <c r="D42" t="n">
-        <v>21.94000053405762</v>
+        <v>108.2399978637695</v>
       </c>
       <c r="E42" t="n">
-        <v>22.3799991607666</v>
+        <v>123.1800003051758</v>
       </c>
       <c r="F42" t="n">
-        <v>22.78513087296496</v>
+        <v>123.1800003051758</v>
       </c>
       <c r="G42" t="n">
-        <v>22.37975401740524</v>
+        <v>127.398246606495</v>
       </c>
       <c r="H42" t="n">
-        <v>22.24301669269096</v>
+        <v>134.3106905471665</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2806,13 +2806,13 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>0.08324285714285715</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>44060</v>
+        <v>44921</v>
       </c>
       <c r="M42" t="n">
-        <v>1.861488155920142</v>
+        <v>41.84972441132558</v>
       </c>
       <c r="N42" t="n">
         <v>9</v>
@@ -2833,25 +2833,25 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>22.54000091552734</v>
+        <v>118.4700012207031</v>
       </c>
       <c r="C43" t="n">
-        <v>23.59000015258789</v>
+        <v>118.8000030517578</v>
       </c>
       <c r="D43" t="n">
-        <v>21.04999923706055</v>
+        <v>101.8099975585938</v>
       </c>
       <c r="E43" t="n">
-        <v>21.89999961853027</v>
+        <v>113.0599975585938</v>
       </c>
       <c r="F43" t="n">
-        <v>22.49008712148673</v>
+        <v>113.0599975585938</v>
       </c>
       <c r="G43" t="n">
-        <v>22.27314192876636</v>
+        <v>117.8394139078942</v>
       </c>
       <c r="H43" t="n">
-        <v>22.21183332231271</v>
+        <v>123.6853440528801</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2864,13 +2864,13 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>0.07425714285714287</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>44067</v>
+        <v>44928</v>
       </c>
       <c r="M43" t="n">
-        <v>1.861488155920142</v>
+        <v>41.84972441132558</v>
       </c>
       <c r="N43" t="n">
         <v>9</v>
@@ -2891,25 +2891,25 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>22.04000091552734</v>
+        <v>118.9599990844727</v>
       </c>
       <c r="C44" t="n">
-        <v>22.32999992370605</v>
+        <v>125.9499969482422</v>
       </c>
       <c r="D44" t="n">
-        <v>19.98999977111816</v>
+        <v>114.9199981689453</v>
       </c>
       <c r="E44" t="n">
-        <v>20.86000061035156</v>
+        <v>122.4000015258789</v>
       </c>
       <c r="F44" t="n">
-        <v>21.94672495110834</v>
+        <v>122.4000015258789</v>
       </c>
       <c r="G44" t="n">
-        <v>21.95911052467418</v>
+        <v>120.8798056532173</v>
       </c>
       <c r="H44" t="n">
-        <v>22.08893943940715</v>
+        <v>123.0426727893795</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2922,13 +2922,13 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>0.06008571428571428</v>
       </c>
       <c r="L44" s="2" t="n">
-        <v>44074</v>
+        <v>44935</v>
       </c>
       <c r="M44" t="n">
-        <v>1.861488155920142</v>
+        <v>41.84972441132558</v>
       </c>
       <c r="N44" t="n">
         <v>9</v>
@@ -2949,25 +2949,25 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20.29999923706055</v>
+        <v>125.6999969482422</v>
       </c>
       <c r="C45" t="n">
-        <v>20.35000038146973</v>
+        <v>136.6799926757812</v>
       </c>
       <c r="D45" t="n">
-        <v>17.25</v>
+        <v>124.3099975585938</v>
       </c>
       <c r="E45" t="n">
-        <v>17.6299991607666</v>
+        <v>133.4199981689453</v>
       </c>
       <c r="F45" t="n">
-        <v>20.50781635432777</v>
+        <v>133.4199981689453</v>
       </c>
       <c r="G45" t="n">
-        <v>20.99708577713917</v>
+        <v>129.239933997036</v>
       </c>
       <c r="H45" t="n">
-        <v>21.68358123225801</v>
+        <v>128.2313354791624</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2980,13 +2980,13 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>0.1234571428571428</v>
       </c>
       <c r="L45" s="2" t="n">
-        <v>44081</v>
+        <v>44942</v>
       </c>
       <c r="M45" t="n">
-        <v>1.861488155920142</v>
+        <v>41.84972441132558</v>
       </c>
       <c r="N45" t="n">
         <v>9</v>
@@ -3007,49 +3007,49 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>17.61000061035156</v>
+        <v>135.8699951171875</v>
       </c>
       <c r="C46" t="n">
-        <v>19.77000045776367</v>
+        <v>180.6799926757812</v>
       </c>
       <c r="D46" t="n">
-        <v>17.09000015258789</v>
+        <v>134.2700042724609</v>
       </c>
       <c r="E46" t="n">
-        <v>17.94000053405762</v>
+        <v>177.8999938964844</v>
       </c>
       <c r="F46" t="n">
-        <v>22.49008712148673</v>
+        <v>113.0599975585938</v>
       </c>
       <c r="G46" t="n">
-        <v>22.27314192876636</v>
+        <v>117.8394139078942</v>
       </c>
       <c r="H46" t="n">
-        <v>22.21183332231271</v>
+        <v>123.6853440528801</v>
       </c>
       <c r="I46" t="n">
-        <v>19.77000045776367</v>
+        <v>180.6799926757812</v>
       </c>
       <c r="J46" t="n">
-        <v>19.4714887662717</v>
+        <v>177.7197195285131</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>44082</v>
+        <v>44943</v>
       </c>
       <c r="M46" t="n">
-        <v>1.861488155920142</v>
+        <v>41.84972441132558</v>
       </c>
       <c r="N46" t="n">
         <v>9</v>
       </c>
       <c r="O46" t="n">
-        <v>17.61000061035156</v>
+        <v>135.8699951171875</v>
       </c>
       <c r="P46" t="n">
-        <v>1057</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="47">
@@ -3057,25 +3057,25 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>35.97000122070312</v>
+        <v>118.4700012207031</v>
       </c>
       <c r="C47" t="n">
-        <v>41.9900016784668</v>
+        <v>118.8000030517578</v>
       </c>
       <c r="D47" t="n">
-        <v>35.09000015258789</v>
+        <v>101.8099975585938</v>
       </c>
       <c r="E47" t="n">
-        <v>37.45999908447266</v>
+        <v>113.0599975585938</v>
       </c>
       <c r="F47" t="n">
-        <v>35.83866397435857</v>
+        <v>113.0599975585938</v>
       </c>
       <c r="G47" t="n">
-        <v>34.71413634665078</v>
+        <v>117.8394139078942</v>
       </c>
       <c r="H47" t="n">
-        <v>30.01302626689852</v>
+        <v>123.6853440528801</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -3088,13 +3088,13 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>0.07425714285714287</v>
       </c>
       <c r="L47" s="2" t="n">
-        <v>44263</v>
+        <v>44928</v>
       </c>
       <c r="M47" t="n">
-        <v>-2.889999389648438</v>
+        <v>16.09557527737124</v>
       </c>
       <c r="N47" t="n">
         <v>10</v>
@@ -3115,25 +3115,25 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>37.0099983215332</v>
+        <v>118.9599990844727</v>
       </c>
       <c r="C48" t="n">
-        <v>37.56000137329102</v>
+        <v>125.9499969482422</v>
       </c>
       <c r="D48" t="n">
-        <v>32.15999984741211</v>
+        <v>114.9199981689453</v>
       </c>
       <c r="E48" t="n">
-        <v>32.81999969482422</v>
+        <v>122.4000015258789</v>
       </c>
       <c r="F48" t="n">
-        <v>34.83244254784712</v>
+        <v>122.4000015258789</v>
       </c>
       <c r="G48" t="n">
-        <v>34.29321709068932</v>
+        <v>120.8798056532173</v>
       </c>
       <c r="H48" t="n">
-        <v>30.26820566943722</v>
+        <v>123.0426727893795</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -3146,13 +3146,13 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>0.06008571428571428</v>
       </c>
       <c r="L48" s="2" t="n">
-        <v>44270</v>
+        <v>44935</v>
       </c>
       <c r="M48" t="n">
-        <v>-2.889999389648438</v>
+        <v>16.09557527737124</v>
       </c>
       <c r="N48" t="n">
         <v>10</v>
@@ -3173,25 +3173,25 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>32.97999954223633</v>
+        <v>125.6999969482422</v>
       </c>
       <c r="C49" t="n">
-        <v>33.20000076293945</v>
+        <v>136.6799926757812</v>
       </c>
       <c r="D49" t="n">
-        <v>28.20999908447266</v>
+        <v>124.3099975585938</v>
       </c>
       <c r="E49" t="n">
-        <v>30.65999984741211</v>
+        <v>133.4199981689453</v>
       </c>
       <c r="F49" t="n">
-        <v>33.44162831436878</v>
+        <v>133.4199981689453</v>
       </c>
       <c r="G49" t="n">
-        <v>33.48583548107216</v>
+        <v>129.239933997036</v>
       </c>
       <c r="H49" t="n">
-        <v>30.30382332198039</v>
+        <v>128.2313354791624</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -3204,13 +3204,13 @@
         </is>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>0.1234571428571428</v>
       </c>
       <c r="L49" s="2" t="n">
-        <v>44277</v>
+        <v>44942</v>
       </c>
       <c r="M49" t="n">
-        <v>-2.889999389648438</v>
+        <v>16.09557527737124</v>
       </c>
       <c r="N49" t="n">
         <v>10</v>
@@ -3231,25 +3231,25 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>30.25</v>
+        <v>135.8699951171875</v>
       </c>
       <c r="C50" t="n">
-        <v>30.6299991607666</v>
+        <v>180.6799926757812</v>
       </c>
       <c r="D50" t="n">
-        <v>27.92000007629395</v>
+        <v>134.2700042724609</v>
       </c>
       <c r="E50" t="n">
-        <v>30.10000038146973</v>
+        <v>177.8999938964844</v>
       </c>
       <c r="F50" t="n">
-        <v>32.32775233673577</v>
+        <v>177.8999938964844</v>
       </c>
       <c r="G50" t="n">
-        <v>32.73342768116051</v>
+        <v>161.6799739300016</v>
       </c>
       <c r="H50" t="n">
-        <v>30.28529396375215</v>
+        <v>153.0656646878234</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -3262,13 +3262,13 @@
         </is>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>0.1348</v>
       </c>
       <c r="L50" s="2" t="n">
-        <v>44284</v>
+        <v>44949</v>
       </c>
       <c r="M50" t="n">
-        <v>-2.889999389648438</v>
+        <v>16.09557527737124</v>
       </c>
       <c r="N50" t="n">
         <v>10</v>
@@ -3289,49 +3289,49 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>30.1299991607666</v>
+        <v>178.0500030517578</v>
       </c>
       <c r="C51" t="n">
-        <v>30.30999946594238</v>
+        <v>199</v>
       </c>
       <c r="D51" t="n">
-        <v>27.20000076293945</v>
+        <v>162.7799987792969</v>
       </c>
       <c r="E51" t="n">
-        <v>27.23999977111816</v>
+        <v>189.9799957275391</v>
       </c>
       <c r="F51" t="n">
-        <v>34.83244254784712</v>
+        <v>122.4000015258789</v>
       </c>
       <c r="G51" t="n">
-        <v>34.29321709068932</v>
+        <v>120.8798056532173</v>
       </c>
       <c r="H51" t="n">
-        <v>30.26820566943722</v>
+        <v>123.0426727893795</v>
       </c>
       <c r="I51" t="n">
-        <v>30.30999946594238</v>
+        <v>199</v>
       </c>
       <c r="J51" t="n">
-        <v>33.51239620174238</v>
+        <v>194.1455783291291</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
       <c r="L51" s="2" t="n">
-        <v>44285</v>
+        <v>44950</v>
       </c>
       <c r="M51" t="n">
-        <v>-2.889999389648438</v>
+        <v>16.09557527737124</v>
       </c>
       <c r="N51" t="n">
         <v>10</v>
       </c>
       <c r="O51" t="n">
-        <v>30.1299991607666</v>
+        <v>178.0500030517578</v>
       </c>
       <c r="P51" t="n">
-        <v>-959</v>
+        <v>901</v>
       </c>
     </row>
     <row r="52">
@@ -3339,25 +3339,25 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>12.39999961853027</v>
+        <v>118.9599990844727</v>
       </c>
       <c r="C52" t="n">
-        <v>12.77999973297119</v>
+        <v>125.9499969482422</v>
       </c>
       <c r="D52" t="n">
-        <v>10.60000038146973</v>
+        <v>114.9199981689453</v>
       </c>
       <c r="E52" t="n">
-        <v>11.75</v>
+        <v>122.4000015258789</v>
       </c>
       <c r="F52" t="n">
-        <v>12.52588653175431</v>
+        <v>122.4000015258789</v>
       </c>
       <c r="G52" t="n">
-        <v>15.28923919271546</v>
+        <v>120.8798056532173</v>
       </c>
       <c r="H52" t="n">
-        <v>24.67957827224842</v>
+        <v>123.0426727893795</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -3370,13 +3370,13 @@
         </is>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>0.06008571428571428</v>
       </c>
       <c r="L52" s="2" t="n">
-        <v>43934</v>
+        <v>44935</v>
       </c>
       <c r="M52" t="n">
-        <v>-0.4300003051757812</v>
+        <v>15.79022970389232</v>
       </c>
       <c r="N52" t="n">
         <v>11</v>
@@ -3397,25 +3397,25 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>11.47000026702881</v>
+        <v>125.6999969482422</v>
       </c>
       <c r="C53" t="n">
-        <v>16.15999984741211</v>
+        <v>136.6799926757812</v>
       </c>
       <c r="D53" t="n">
-        <v>10.97000026702881</v>
+        <v>124.3099975585938</v>
       </c>
       <c r="E53" t="n">
-        <v>14.96000003814697</v>
+        <v>133.4199981689453</v>
       </c>
       <c r="F53" t="n">
-        <v>13.33725770055186</v>
+        <v>133.4199981689453</v>
       </c>
       <c r="G53" t="n">
-        <v>15.21607493614469</v>
+        <v>129.239933997036</v>
       </c>
       <c r="H53" t="n">
-        <v>23.79598025096647</v>
+        <v>128.2313354791624</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -3428,13 +3428,13 @@
         </is>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>0.1234571428571428</v>
       </c>
       <c r="L53" s="2" t="n">
-        <v>43941</v>
+        <v>44942</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.4300003051757812</v>
+        <v>15.79022970389232</v>
       </c>
       <c r="N53" t="n">
         <v>11</v>
@@ -3455,25 +3455,25 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>14.75</v>
+        <v>135.8699951171875</v>
       </c>
       <c r="C54" t="n">
-        <v>20.42000007629395</v>
+        <v>180.6799926757812</v>
       </c>
       <c r="D54" t="n">
-        <v>13.80000019073486</v>
+        <v>134.2700042724609</v>
       </c>
       <c r="E54" t="n">
-        <v>17.51000022888184</v>
+        <v>177.8999938964844</v>
       </c>
       <c r="F54" t="n">
-        <v>14.72817187666186</v>
+        <v>177.8999938964844</v>
       </c>
       <c r="G54" t="n">
-        <v>15.7258361123085</v>
+        <v>161.6799739300016</v>
       </c>
       <c r="H54" t="n">
-        <v>23.22452752168605</v>
+        <v>153.0656646878234</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -3486,13 +3486,13 @@
         </is>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>0.1348</v>
       </c>
       <c r="L54" s="2" t="n">
-        <v>43948</v>
+        <v>44949</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.4300003051757812</v>
+        <v>15.79022970389232</v>
       </c>
       <c r="N54" t="n">
         <v>11</v>
@@ -3513,25 +3513,25 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>16.76000022888184</v>
+        <v>178.0500030517578</v>
       </c>
       <c r="C55" t="n">
-        <v>19.95999908447266</v>
+        <v>199</v>
       </c>
       <c r="D55" t="n">
-        <v>16.01000022888184</v>
+        <v>162.7799987792969</v>
       </c>
       <c r="E55" t="n">
-        <v>18.95000076293945</v>
+        <v>189.9799957275391</v>
       </c>
       <c r="F55" t="n">
-        <v>16.13544817208772</v>
+        <v>189.9799957275391</v>
       </c>
       <c r="G55" t="n">
-        <v>16.44231714578204</v>
+        <v>180.5466551283599</v>
       </c>
       <c r="H55" t="n">
-        <v>22.83593417998181</v>
+        <v>171.5228302076812</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -3544,13 +3544,13 @@
         </is>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>0.146</v>
       </c>
       <c r="L55" s="2" t="n">
-        <v>43955</v>
+        <v>44956</v>
       </c>
       <c r="M55" t="n">
-        <v>-0.4300003051757812</v>
+        <v>15.79022970389232</v>
       </c>
       <c r="N55" t="n">
         <v>11</v>
@@ -3571,49 +3571,49 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>18.5</v>
+        <v>193.0099945068359</v>
       </c>
       <c r="C56" t="n">
-        <v>19.43000030517578</v>
+        <v>214</v>
       </c>
       <c r="D56" t="n">
-        <v>16.29000091552734</v>
+        <v>189.5500030517578</v>
       </c>
       <c r="E56" t="n">
-        <v>18.06999969482422</v>
+        <v>196.8899993896484</v>
       </c>
       <c r="F56" t="n">
-        <v>13.33725770055186</v>
+        <v>133.4199981689453</v>
       </c>
       <c r="G56" t="n">
-        <v>15.21607493614469</v>
+        <v>129.239933997036</v>
       </c>
       <c r="H56" t="n">
-        <v>23.79598025096647</v>
+        <v>128.2313354791624</v>
       </c>
       <c r="I56" t="n">
-        <v>19.43000030517578</v>
+        <v>214</v>
       </c>
       <c r="J56" t="n">
-        <v>22.41106634527379</v>
+        <v>208.8002242107283</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
       </c>
       <c r="L56" s="2" t="n">
-        <v>43956</v>
+        <v>44957</v>
       </c>
       <c r="M56" t="n">
-        <v>-0.4300003051757812</v>
+        <v>15.79022970389232</v>
       </c>
       <c r="N56" t="n">
         <v>11</v>
       </c>
       <c r="O56" t="n">
-        <v>18.5</v>
+        <v>193.0099945068359</v>
       </c>
       <c r="P56" t="n">
-        <v>-233</v>
+        <v>821</v>
       </c>
     </row>
     <row r="57">
@@ -3621,25 +3621,25 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>46.68999862670898</v>
+        <v>125.6999969482422</v>
       </c>
       <c r="C57" t="n">
-        <v>48.11999893188477</v>
+        <v>136.6799926757812</v>
       </c>
       <c r="D57" t="n">
-        <v>40.45000076293945</v>
+        <v>124.3099975585938</v>
       </c>
       <c r="E57" t="n">
-        <v>41.34999847412109</v>
+        <v>133.4199981689453</v>
       </c>
       <c r="F57" t="n">
-        <v>42.20956202198202</v>
+        <v>133.4199981689453</v>
       </c>
       <c r="G57" t="n">
-        <v>40.16948821225837</v>
+        <v>129.239933997036</v>
       </c>
       <c r="H57" t="n">
-        <v>35.24128575386598</v>
+        <v>128.2313354791624</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -3652,13 +3652,13 @@
         </is>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>0.1234571428571428</v>
       </c>
       <c r="L57" s="2" t="n">
-        <v>44361</v>
+        <v>44942</v>
       </c>
       <c r="M57" t="n">
-        <v>-2.379997253417969</v>
+        <v>15.60855950912409</v>
       </c>
       <c r="N57" t="n">
         <v>12</v>
@@ -3679,25 +3679,25 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>41.68999862670898</v>
+        <v>135.8699951171875</v>
       </c>
       <c r="C58" t="n">
-        <v>44.34999847412109</v>
+        <v>180.6799926757812</v>
       </c>
       <c r="D58" t="n">
-        <v>41.34999847412109</v>
+        <v>134.2700042724609</v>
       </c>
       <c r="E58" t="n">
-        <v>42.11000061035156</v>
+        <v>177.8999938964844</v>
       </c>
       <c r="F58" t="n">
-        <v>42.17637488477187</v>
+        <v>177.8999938964844</v>
       </c>
       <c r="G58" t="n">
-        <v>40.60071318961241</v>
+        <v>161.6799739300016</v>
       </c>
       <c r="H58" t="n">
-        <v>35.86571437718285</v>
+        <v>153.0656646878234</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -3710,13 +3710,13 @@
         </is>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>0.1348</v>
       </c>
       <c r="L58" s="2" t="n">
-        <v>44368</v>
+        <v>44949</v>
       </c>
       <c r="M58" t="n">
-        <v>-2.379997253417969</v>
+        <v>15.60855950912409</v>
       </c>
       <c r="N58" t="n">
         <v>12</v>
@@ -3737,25 +3737,25 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>41.75</v>
+        <v>178.0500030517578</v>
       </c>
       <c r="C59" t="n">
-        <v>42.2400016784668</v>
+        <v>199</v>
       </c>
       <c r="D59" t="n">
-        <v>38.18999862670898</v>
+        <v>162.7799987792969</v>
       </c>
       <c r="E59" t="n">
-        <v>38.7599983215332</v>
+        <v>189.9799957275391</v>
       </c>
       <c r="F59" t="n">
-        <v>41.03758269702565</v>
+        <v>189.9799957275391</v>
       </c>
       <c r="G59" t="n">
-        <v>40.19166544115037</v>
+        <v>180.5466551283599</v>
       </c>
       <c r="H59" t="n">
-        <v>36.12883109939652</v>
+        <v>171.5228302076812</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -3768,13 +3768,13 @@
         </is>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>0.146</v>
       </c>
       <c r="L59" s="2" t="n">
-        <v>44375</v>
+        <v>44956</v>
       </c>
       <c r="M59" t="n">
-        <v>-2.379997253417969</v>
+        <v>15.60855950912409</v>
       </c>
       <c r="N59" t="n">
         <v>12</v>
@@ -3795,25 +3795,25 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>39</v>
+        <v>193.0099945068359</v>
       </c>
       <c r="C60" t="n">
-        <v>39</v>
+        <v>214</v>
       </c>
       <c r="D60" t="n">
-        <v>34.95000076293945</v>
+        <v>189.5500030517578</v>
       </c>
       <c r="E60" t="n">
-        <v>36.16999816894531</v>
+        <v>196.8899993896484</v>
       </c>
       <c r="F60" t="n">
-        <v>39.41505452099887</v>
+        <v>196.8899993896484</v>
       </c>
       <c r="G60" t="n">
-        <v>39.29796160288258</v>
+        <v>191.4422179692189</v>
       </c>
       <c r="H60" t="n">
-        <v>36.1325735602646</v>
+        <v>184.2064147986648</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -3826,13 +3826,13 @@
         </is>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>0.1262714285714286</v>
       </c>
       <c r="L60" s="2" t="n">
-        <v>44382</v>
+        <v>44963</v>
       </c>
       <c r="M60" t="n">
-        <v>-2.379997253417969</v>
+        <v>15.60855950912409</v>
       </c>
       <c r="N60" t="n">
         <v>12</v>
@@ -3853,49 +3853,49 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>36.16999816894531</v>
+        <v>194.4199981689453</v>
       </c>
       <c r="C61" t="n">
-        <v>38.15999984741211</v>
+        <v>217.6499938964844</v>
       </c>
       <c r="D61" t="n">
-        <v>33.38000106811523</v>
+        <v>187.6100006103516</v>
       </c>
       <c r="E61" t="n">
-        <v>33.79000091552734</v>
+        <v>208.3099975585938</v>
       </c>
       <c r="F61" t="n">
-        <v>42.17637488477187</v>
+        <v>177.8999938964844</v>
       </c>
       <c r="G61" t="n">
-        <v>40.60071318961241</v>
+        <v>161.6799739300016</v>
       </c>
       <c r="H61" t="n">
-        <v>35.86571437718285</v>
+        <v>153.0656646878234</v>
       </c>
       <c r="I61" t="n">
-        <v>38.15999984741211</v>
+        <v>217.6499938964844</v>
       </c>
       <c r="J61" t="n">
-        <v>40.8098683740468</v>
+        <v>210.0285576780694</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
       </c>
       <c r="L61" s="2" t="n">
-        <v>44383</v>
+        <v>44964</v>
       </c>
       <c r="M61" t="n">
-        <v>-2.379997253417969</v>
+        <v>15.60855950912409</v>
       </c>
       <c r="N61" t="n">
         <v>12</v>
       </c>
       <c r="O61" t="n">
-        <v>36.16999816894531</v>
+        <v>194.4199981689453</v>
       </c>
       <c r="P61" t="n">
-        <v>-657</v>
+        <v>796</v>
       </c>
     </row>
     <row r="62">
@@ -3903,25 +3903,25 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>14.72000026702881</v>
+        <v>178.0500030517578</v>
       </c>
       <c r="C62" t="n">
-        <v>16.13999938964844</v>
+        <v>199</v>
       </c>
       <c r="D62" t="n">
-        <v>14.36999988555908</v>
+        <v>162.7799987792969</v>
       </c>
       <c r="E62" t="n">
-        <v>15.21000003814697</v>
+        <v>189.9799957275391</v>
       </c>
       <c r="F62" t="n">
-        <v>15.35386850682916</v>
+        <v>189.9799957275391</v>
       </c>
       <c r="G62" t="n">
-        <v>16.02409956605684</v>
+        <v>180.5466551283599</v>
       </c>
       <c r="H62" t="n">
-        <v>18.34705790391902</v>
+        <v>171.5228302076812</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -3934,13 +3934,13 @@
         </is>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>0.146</v>
       </c>
       <c r="L62" s="2" t="n">
-        <v>44137</v>
+        <v>44956</v>
       </c>
       <c r="M62" t="n">
-        <v>1.151454116348646</v>
+        <v>1.371908281145437</v>
       </c>
       <c r="N62" t="n">
         <v>13</v>
@@ -3961,25 +3961,25 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>17.25</v>
+        <v>193.0099945068359</v>
       </c>
       <c r="C63" t="n">
-        <v>19.77000045776367</v>
+        <v>214</v>
       </c>
       <c r="D63" t="n">
-        <v>17.25</v>
+        <v>189.5500030517578</v>
       </c>
       <c r="E63" t="n">
-        <v>18.3799991607666</v>
+        <v>196.8899993896484</v>
       </c>
       <c r="F63" t="n">
-        <v>16.36257872480831</v>
+        <v>196.8899993896484</v>
       </c>
       <c r="G63" t="n">
-        <v>16.54763280932567</v>
+        <v>191.4422179692189</v>
       </c>
       <c r="H63" t="n">
-        <v>18.35005256363244</v>
+        <v>184.2064147986648</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -3992,13 +3992,13 @@
         </is>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>0.1262714285714286</v>
       </c>
       <c r="L63" s="2" t="n">
-        <v>44144</v>
+        <v>44963</v>
       </c>
       <c r="M63" t="n">
-        <v>1.151454116348646</v>
+        <v>1.371908281145437</v>
       </c>
       <c r="N63" t="n">
         <v>13</v>
@@ -4019,25 +4019,25 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>19.45999908447266</v>
+        <v>194.4199981689453</v>
       </c>
       <c r="C64" t="n">
-        <v>21.8799991607666</v>
+        <v>217.6499938964844</v>
       </c>
       <c r="D64" t="n">
-        <v>19.15999984741211</v>
+        <v>187.6100006103516</v>
       </c>
       <c r="E64" t="n">
-        <v>20.19000053405762</v>
+        <v>208.3099975585938</v>
       </c>
       <c r="F64" t="n">
-        <v>17.63838599455808</v>
+        <v>208.3099975585938</v>
       </c>
       <c r="G64" t="n">
-        <v>17.35704785926611</v>
+        <v>202.6874043621355</v>
       </c>
       <c r="H64" t="n">
-        <v>18.51732056094382</v>
+        <v>196.2582061786293</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -4050,13 +4050,13 @@
         </is>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>0.1032714285714286</v>
       </c>
       <c r="L64" s="2" t="n">
-        <v>44151</v>
+        <v>44970</v>
       </c>
       <c r="M64" t="n">
-        <v>1.151454116348646</v>
+        <v>1.371908281145437</v>
       </c>
       <c r="N64" t="n">
         <v>13</v>
@@ -4077,25 +4077,25 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20.51000022888184</v>
+        <v>204.9900054931641</v>
       </c>
       <c r="C65" t="n">
-        <v>25.79999923706055</v>
+        <v>209.7100067138672</v>
       </c>
       <c r="D65" t="n">
-        <v>20.51000022888184</v>
+        <v>191.7799987792969</v>
       </c>
       <c r="E65" t="n">
-        <v>24.09000015258789</v>
+        <v>196.8800048828125</v>
       </c>
       <c r="F65" t="n">
-        <v>19.78892404723468</v>
+        <v>196.8800048828125</v>
       </c>
       <c r="G65" t="n">
-        <v>18.85325948000428</v>
+        <v>198.8158047092535</v>
       </c>
       <c r="H65" t="n">
-        <v>19.02392779654782</v>
+        <v>196.5691055307209</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -4108,13 +4108,13 @@
         </is>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>0.09942857142857142</v>
       </c>
       <c r="L65" s="2" t="n">
-        <v>44158</v>
+        <v>44977</v>
       </c>
       <c r="M65" t="n">
-        <v>1.151454116348646</v>
+        <v>1.371908281145437</v>
       </c>
       <c r="N65" t="n">
         <v>13</v>
@@ -4135,49 +4135,49 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>23.97999954223633</v>
+        <v>202.0299987792969</v>
       </c>
       <c r="C66" t="n">
-        <v>26.75</v>
+        <v>211.2299957275391</v>
       </c>
       <c r="D66" t="n">
-        <v>21.88999938964844</v>
+        <v>186.0099945068359</v>
       </c>
       <c r="E66" t="n">
-        <v>26.67000007629395</v>
+        <v>197.7899932861328</v>
       </c>
       <c r="F66" t="n">
-        <v>16.36257872480831</v>
+        <v>196.8899993896484</v>
       </c>
       <c r="G66" t="n">
-        <v>16.54763280932567</v>
+        <v>191.4422179692189</v>
       </c>
       <c r="H66" t="n">
-        <v>18.35005256363244</v>
+        <v>184.2064147986648</v>
       </c>
       <c r="I66" t="n">
-        <v>26.75</v>
+        <v>211.2299957275391</v>
       </c>
       <c r="J66" t="n">
-        <v>25.13145365858497</v>
+        <v>203.4019070604423</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
       </c>
       <c r="L66" s="2" t="n">
-        <v>44159</v>
+        <v>44978</v>
       </c>
       <c r="M66" t="n">
-        <v>1.151454116348646</v>
+        <v>1.371908281145437</v>
       </c>
       <c r="N66" t="n">
         <v>13</v>
       </c>
       <c r="O66" t="n">
-        <v>23.97999954223633</v>
+        <v>202.0299987792969</v>
       </c>
       <c r="P66" t="n">
-        <v>480</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67">
@@ -4185,25 +4185,25 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>13.65999984741211</v>
+        <v>194.4199981689453</v>
       </c>
       <c r="C67" t="n">
-        <v>14.52999973297119</v>
+        <v>217.6499938964844</v>
       </c>
       <c r="D67" t="n">
-        <v>13.1899995803833</v>
+        <v>187.6100006103516</v>
       </c>
       <c r="E67" t="n">
-        <v>13.47999954223633</v>
+        <v>208.3099975585938</v>
       </c>
       <c r="F67" t="n">
-        <v>15.19578135845277</v>
+        <v>208.3099975585938</v>
       </c>
       <c r="G67" t="n">
-        <v>15.97769005386091</v>
+        <v>202.6874043621355</v>
       </c>
       <c r="H67" t="n">
-        <v>19.06310552353555</v>
+        <v>196.2582061786293</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -4216,13 +4216,13 @@
         </is>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>0.1032714285714286</v>
       </c>
       <c r="L67" s="2" t="n">
-        <v>44830</v>
+        <v>44970</v>
       </c>
       <c r="M67" t="n">
-        <v>0.8049230325412964</v>
+        <v>12.66999816894531</v>
       </c>
       <c r="N67" t="n">
         <v>14</v>
@@ -4243,25 +4243,25 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>14.27000045776367</v>
+        <v>204.9900054931641</v>
       </c>
       <c r="C68" t="n">
-        <v>16.72999954223633</v>
+        <v>209.7100067138672</v>
       </c>
       <c r="D68" t="n">
-        <v>14.1899995803833</v>
+        <v>191.7799987792969</v>
       </c>
       <c r="E68" t="n">
-        <v>16.61000061035156</v>
+        <v>196.8800048828125</v>
       </c>
       <c r="F68" t="n">
-        <v>15.66718777575237</v>
+        <v>196.8800048828125</v>
       </c>
       <c r="G68" t="n">
-        <v>16.11820351085883</v>
+        <v>198.8158047092535</v>
       </c>
       <c r="H68" t="n">
-        <v>18.84009598597337</v>
+        <v>196.5691055307209</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -4274,13 +4274,13 @@
         </is>
       </c>
       <c r="K68" t="n">
-        <v>-0.008</v>
+        <v>0.09942857142857142</v>
       </c>
       <c r="L68" s="2" t="n">
-        <v>44837</v>
+        <v>44977</v>
       </c>
       <c r="M68" t="n">
-        <v>0.8049230325412964</v>
+        <v>12.66999816894531</v>
       </c>
       <c r="N68" t="n">
         <v>14</v>
@@ -4301,25 +4301,25 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>16.59000015258789</v>
+        <v>202.0299987792969</v>
       </c>
       <c r="C69" t="n">
-        <v>16.95000076293945</v>
+        <v>211.2299957275391</v>
       </c>
       <c r="D69" t="n">
-        <v>15.25</v>
+        <v>186.0099945068359</v>
       </c>
       <c r="E69" t="n">
-        <v>16.28000068664551</v>
+        <v>197.7899932861328</v>
       </c>
       <c r="F69" t="n">
-        <v>15.87145874605008</v>
+        <v>197.7899932861328</v>
       </c>
       <c r="G69" t="n">
-        <v>16.15415843881143</v>
+        <v>198.131930427173</v>
       </c>
       <c r="H69" t="n">
-        <v>18.60736004967083</v>
+        <v>197.1795494084269</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -4332,13 +4332,13 @@
         </is>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>0.1969571428571429</v>
       </c>
       <c r="L69" s="2" t="n">
-        <v>44844</v>
+        <v>44984</v>
       </c>
       <c r="M69" t="n">
-        <v>0.8049230325412964</v>
+        <v>12.66999816894531</v>
       </c>
       <c r="N69" t="n">
         <v>14</v>
@@ -4359,25 +4359,25 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>16.70999908447266</v>
+        <v>198.5399932861328</v>
       </c>
       <c r="C70" t="n">
-        <v>19.36000061035156</v>
+        <v>198.6000061035156</v>
       </c>
       <c r="D70" t="n">
-        <v>16.65999984741211</v>
+        <v>168.4400024414062</v>
       </c>
       <c r="E70" t="n">
-        <v>19.05999946594238</v>
+        <v>173.4400024414062</v>
       </c>
       <c r="F70" t="n">
-        <v>16.93430565268085</v>
+        <v>173.4400024414062</v>
       </c>
       <c r="G70" t="n">
-        <v>16.79990088928497</v>
+        <v>181.6706451033285</v>
       </c>
       <c r="H70" t="n">
-        <v>18.6485090875137</v>
+        <v>185.3097759249166</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -4390,13 +4390,13 @@
         </is>
       </c>
       <c r="K70" t="n">
-        <v>0.2202</v>
+        <v>0.1341</v>
       </c>
       <c r="L70" s="2" t="n">
-        <v>44851</v>
+        <v>44991</v>
       </c>
       <c r="M70" t="n">
-        <v>0.8049230325412964</v>
+        <v>12.66999816894531</v>
       </c>
       <c r="N70" t="n">
         <v>14</v>
@@ -4417,49 +4417,49 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>18.94000053405762</v>
+        <v>167.4600067138672</v>
       </c>
       <c r="C71" t="n">
-        <v>21.5</v>
+        <v>186.2200012207031</v>
       </c>
       <c r="D71" t="n">
-        <v>18.48999977111816</v>
+        <v>163.9100036621094</v>
       </c>
       <c r="E71" t="n">
-        <v>19.32999992370605</v>
+        <v>180.1300048828125</v>
       </c>
       <c r="F71" t="n">
-        <v>15.66718777575237</v>
+        <v>196.8800048828125</v>
       </c>
       <c r="G71" t="n">
-        <v>16.11820351085883</v>
+        <v>198.8158047092535</v>
       </c>
       <c r="H71" t="n">
-        <v>18.84009598597337</v>
+        <v>196.5691055307209</v>
       </c>
       <c r="I71" t="n">
-        <v>21.5</v>
+        <v>186.2200012207031</v>
       </c>
       <c r="J71" t="n">
-        <v>19.74492356659891</v>
+        <v>192.5404966684087</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
       </c>
       <c r="L71" s="2" t="n">
-        <v>44852</v>
+        <v>44992</v>
       </c>
       <c r="M71" t="n">
-        <v>0.8049230325412964</v>
+        <v>12.66999816894531</v>
       </c>
       <c r="N71" t="n">
         <v>14</v>
       </c>
       <c r="O71" t="n">
-        <v>18.94000053405762</v>
+        <v>167.4600067138672</v>
       </c>
       <c r="P71" t="n">
-        <v>425</v>
+        <v>760</v>
       </c>
     </row>
     <row r="72">
@@ -4467,25 +4467,25 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>34</v>
+        <v>204.9900054931641</v>
       </c>
       <c r="C72" t="n">
-        <v>37.90000152587891</v>
+        <v>209.7100067138672</v>
       </c>
       <c r="D72" t="n">
-        <v>33.61000061035156</v>
+        <v>191.7799987792969</v>
       </c>
       <c r="E72" t="n">
-        <v>37.45000076293945</v>
+        <v>196.8800048828125</v>
       </c>
       <c r="F72" t="n">
-        <v>33.55153311775365</v>
+        <v>196.8800048828125</v>
       </c>
       <c r="G72" t="n">
-        <v>32.66324537283648</v>
+        <v>198.8158047092535</v>
       </c>
       <c r="H72" t="n">
-        <v>30.89647143439338</v>
+        <v>196.5691055307209</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -4498,13 +4498,13 @@
         </is>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>0.09942857142857142</v>
       </c>
       <c r="L72" s="2" t="n">
-        <v>44333</v>
+        <v>44977</v>
       </c>
       <c r="M72" t="n">
-        <v>1.026401614776489</v>
+        <v>8.990073497361294</v>
       </c>
       <c r="N72" t="n">
         <v>15</v>
@@ -4525,25 +4525,25 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>37.66999816894531</v>
+        <v>202.0299987792969</v>
       </c>
       <c r="C73" t="n">
-        <v>41.81000137329102</v>
+        <v>211.2299957275391</v>
       </c>
       <c r="D73" t="n">
-        <v>36.59999847412109</v>
+        <v>186.0099945068359</v>
       </c>
       <c r="E73" t="n">
-        <v>41.79999923706055</v>
+        <v>197.7899932861328</v>
       </c>
       <c r="F73" t="n">
-        <v>36.30102182418928</v>
+        <v>197.7899932861328</v>
       </c>
       <c r="G73" t="n">
-        <v>34.69363512044183</v>
+        <v>198.131930427173</v>
       </c>
       <c r="H73" t="n">
-        <v>31.88770123463585</v>
+        <v>197.1795494084269</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -4556,13 +4556,13 @@
         </is>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>0.1969571428571429</v>
       </c>
       <c r="L73" s="2" t="n">
-        <v>44340</v>
+        <v>44984</v>
       </c>
       <c r="M73" t="n">
-        <v>1.026401614776489</v>
+        <v>8.990073497361294</v>
       </c>
       <c r="N73" t="n">
         <v>15</v>
@@ -4583,25 +4583,25 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>42.43999862670898</v>
+        <v>198.5399932861328</v>
       </c>
       <c r="C74" t="n">
-        <v>48.59999847412109</v>
+        <v>198.6000061035156</v>
       </c>
       <c r="D74" t="n">
-        <v>41.11000061035156</v>
+        <v>168.4400024414062</v>
       </c>
       <c r="E74" t="n">
-        <v>47.56000137329102</v>
+        <v>173.4400024414062</v>
       </c>
       <c r="F74" t="n">
-        <v>40.0540150072232</v>
+        <v>173.4400024414062</v>
       </c>
       <c r="G74" t="n">
-        <v>37.55282762107498</v>
+        <v>181.6706451033285</v>
       </c>
       <c r="H74" t="n">
-        <v>33.31245579269541</v>
+        <v>185.3097759249166</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -4614,13 +4614,13 @@
         </is>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>0.1341</v>
       </c>
       <c r="L74" s="2" t="n">
-        <v>44347</v>
+        <v>44991</v>
       </c>
       <c r="M74" t="n">
-        <v>1.026401614776489</v>
+        <v>8.990073497361294</v>
       </c>
       <c r="N74" t="n">
         <v>15</v>
@@ -4641,25 +4641,25 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>47.40000152587891</v>
+        <v>167.4600067138672</v>
       </c>
       <c r="C75" t="n">
-        <v>49.86999893188477</v>
+        <v>186.2200012207031</v>
       </c>
       <c r="D75" t="n">
-        <v>46.65000152587891</v>
+        <v>163.9100036621094</v>
       </c>
       <c r="E75" t="n">
-        <v>47.81000137329102</v>
+        <v>180.1300048828125</v>
       </c>
       <c r="F75" t="n">
-        <v>42.63934379591247</v>
+        <v>180.1300048828125</v>
       </c>
       <c r="G75" t="n">
-        <v>39.83219956601187</v>
+        <v>180.6435516229845</v>
       </c>
       <c r="H75" t="n">
-        <v>34.63041448184047</v>
+        <v>182.7198904038645</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -4672,13 +4672,13 @@
         </is>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>0.1004</v>
       </c>
       <c r="L75" s="2" t="n">
-        <v>44354</v>
+        <v>44998</v>
       </c>
       <c r="M75" t="n">
-        <v>1.026401614776489</v>
+        <v>8.990073497361294</v>
       </c>
       <c r="N75" t="n">
         <v>15</v>
@@ -4699,49 +4699,49 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>46.68999862670898</v>
+        <v>178.0800018310547</v>
       </c>
       <c r="C76" t="n">
-        <v>48.11999893188477</v>
+        <v>200.6600036621094</v>
       </c>
       <c r="D76" t="n">
-        <v>40.45000076293945</v>
+        <v>176.3500061035156</v>
       </c>
       <c r="E76" t="n">
-        <v>41.34999847412109</v>
+        <v>190.4100036621094</v>
       </c>
       <c r="F76" t="n">
-        <v>36.30102182418928</v>
+        <v>197.7899932861328</v>
       </c>
       <c r="G76" t="n">
-        <v>34.69363512044183</v>
+        <v>198.131930427173</v>
       </c>
       <c r="H76" t="n">
-        <v>31.88770123463585</v>
+        <v>197.1795494084269</v>
       </c>
       <c r="I76" t="n">
-        <v>48.11999893188477</v>
+        <v>200.6600036621094</v>
       </c>
       <c r="J76" t="n">
-        <v>47.71640024148547</v>
+        <v>187.070075328416</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
       </c>
       <c r="L76" s="2" t="n">
-        <v>44355</v>
+        <v>44999</v>
       </c>
       <c r="M76" t="n">
-        <v>1.026401614776489</v>
+        <v>8.990073497361294</v>
       </c>
       <c r="N76" t="n">
         <v>15</v>
       </c>
       <c r="O76" t="n">
-        <v>46.68999862670898</v>
+        <v>178.0800018310547</v>
       </c>
       <c r="P76" t="n">
-        <v>220</v>
+        <v>503</v>
       </c>
     </row>
     <row r="77">
@@ -4749,25 +4749,25 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>24.03000068664551</v>
+        <v>202.0299987792969</v>
       </c>
       <c r="C77" t="n">
-        <v>25.81999969482422</v>
+        <v>211.2299957275391</v>
       </c>
       <c r="D77" t="n">
-        <v>23.65999984741211</v>
+        <v>186.0099945068359</v>
       </c>
       <c r="E77" t="n">
-        <v>24.64999961853027</v>
+        <v>197.7899932861328</v>
       </c>
       <c r="F77" t="n">
-        <v>24.83214065226239</v>
+        <v>197.7899932861328</v>
       </c>
       <c r="G77" t="n">
-        <v>25.54448998358429</v>
+        <v>198.131930427173</v>
       </c>
       <c r="H77" t="n">
-        <v>28.00705635319082</v>
+        <v>197.1795494084269</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>0.1969571428571429</v>
       </c>
       <c r="L77" s="2" t="n">
-        <v>44536</v>
+        <v>44984</v>
       </c>
       <c r="M77" t="n">
-        <v>0.404924892175039</v>
+        <v>1.462812281205146</v>
       </c>
       <c r="N77" t="n">
         <v>16</v>
@@ -4807,25 +4807,25 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>24.29000091552734</v>
+        <v>198.5399932861328</v>
       </c>
       <c r="C78" t="n">
-        <v>24.35000038146973</v>
+        <v>198.6000061035156</v>
       </c>
       <c r="D78" t="n">
-        <v>21.07999992370605</v>
+        <v>168.4400024414062</v>
       </c>
       <c r="E78" t="n">
-        <v>22.43000030517578</v>
+        <v>173.4400024414062</v>
       </c>
       <c r="F78" t="n">
-        <v>24.03142720323352</v>
+        <v>173.4400024414062</v>
       </c>
       <c r="G78" t="n">
-        <v>24.85238116616018</v>
+        <v>181.6706451033285</v>
       </c>
       <c r="H78" t="n">
-        <v>27.50005125791672</v>
+        <v>185.3097759249166</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -4838,13 +4838,13 @@
         </is>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>0.1341</v>
       </c>
       <c r="L78" s="2" t="n">
-        <v>44543</v>
+        <v>44991</v>
       </c>
       <c r="M78" t="n">
-        <v>0.404924892175039</v>
+        <v>1.462812281205146</v>
       </c>
       <c r="N78" t="n">
         <v>16</v>
@@ -4865,25 +4865,25 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>21.89999961853027</v>
+        <v>167.4600067138672</v>
       </c>
       <c r="C79" t="n">
-        <v>23.42000007629395</v>
+        <v>186.2200012207031</v>
       </c>
       <c r="D79" t="n">
-        <v>21.26000022888184</v>
+        <v>163.9100036621094</v>
       </c>
       <c r="E79" t="n">
-        <v>23.25</v>
+        <v>180.1300048828125</v>
       </c>
       <c r="F79" t="n">
-        <v>23.77095146882235</v>
+        <v>180.1300048828125</v>
       </c>
       <c r="G79" t="n">
-        <v>24.49629646256903</v>
+        <v>180.6435516229845</v>
       </c>
       <c r="H79" t="n">
-        <v>27.11368296174247</v>
+        <v>182.7198904038645</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -4896,13 +4896,13 @@
         </is>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>0.1004</v>
       </c>
       <c r="L79" s="2" t="n">
-        <v>44550</v>
+        <v>44998</v>
       </c>
       <c r="M79" t="n">
-        <v>0.404924892175039</v>
+        <v>1.462812281205146</v>
       </c>
       <c r="N79" t="n">
         <v>16</v>
@@ -4923,25 +4923,25 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>23.36000061035156</v>
+        <v>178.0800018310547</v>
       </c>
       <c r="C80" t="n">
-        <v>23.75</v>
+        <v>200.6600036621094</v>
       </c>
       <c r="D80" t="n">
-        <v>21.96999931335449</v>
+        <v>176.3500061035156</v>
       </c>
       <c r="E80" t="n">
-        <v>22.30999946594238</v>
+        <v>190.4100036621094</v>
       </c>
       <c r="F80" t="n">
-        <v>23.28396746786236</v>
+        <v>190.4100036621094</v>
       </c>
       <c r="G80" t="n">
-        <v>24.01045268554088</v>
+        <v>187.1545196490678</v>
       </c>
       <c r="H80" t="n">
-        <v>26.67698446212428</v>
+        <v>186.5649470329869</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -4954,13 +4954,13 @@
         </is>
       </c>
       <c r="K80" t="n">
-        <v>0.20095</v>
+        <v>0</v>
       </c>
       <c r="L80" s="2" t="n">
-        <v>44557</v>
+        <v>45005</v>
       </c>
       <c r="M80" t="n">
-        <v>0.404924892175039</v>
+        <v>1.462812281205146</v>
       </c>
       <c r="N80" t="n">
         <v>16</v>
@@ -4981,49 +4981,49 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>22.57999992370605</v>
+        <v>194.4199981689453</v>
       </c>
       <c r="C81" t="n">
-        <v>26.45999908447266</v>
+        <v>207.7899932861328</v>
       </c>
       <c r="D81" t="n">
-        <v>22.3700008392334</v>
+        <v>185.4299926757812</v>
       </c>
       <c r="E81" t="n">
-        <v>26.18000030517578</v>
+        <v>207.4600067138672</v>
       </c>
       <c r="F81" t="n">
-        <v>24.03142720323352</v>
+        <v>173.4400024414062</v>
       </c>
       <c r="G81" t="n">
-        <v>24.85238116616018</v>
+        <v>181.6706451033285</v>
       </c>
       <c r="H81" t="n">
-        <v>27.50005125791672</v>
+        <v>185.3097759249166</v>
       </c>
       <c r="I81" t="n">
-        <v>26.45999908447266</v>
+        <v>207.7899932861328</v>
       </c>
       <c r="J81" t="n">
-        <v>22.98492481588109</v>
+        <v>195.8828104501505</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
       </c>
       <c r="L81" s="2" t="n">
-        <v>44558</v>
+        <v>45006</v>
       </c>
       <c r="M81" t="n">
-        <v>0.404924892175039</v>
+        <v>1.462812281205146</v>
       </c>
       <c r="N81" t="n">
         <v>16</v>
       </c>
       <c r="O81" t="n">
-        <v>22.57999992370605</v>
+        <v>194.4199981689453</v>
       </c>
       <c r="P81" t="n">
-        <v>179</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82">
@@ -5031,25 +5031,25 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>40</v>
+        <v>167.4600067138672</v>
       </c>
       <c r="C82" t="n">
-        <v>41.61000061035156</v>
+        <v>186.2200012207031</v>
       </c>
       <c r="D82" t="n">
-        <v>39.47000122070312</v>
+        <v>163.9100036621094</v>
       </c>
       <c r="E82" t="n">
-        <v>40.22999954223633</v>
+        <v>180.1300048828125</v>
       </c>
       <c r="F82" t="n">
-        <v>40.13666661580404</v>
+        <v>180.1300048828125</v>
       </c>
       <c r="G82" t="n">
-        <v>40.12111112806532</v>
+        <v>180.6435516229845</v>
       </c>
       <c r="H82" t="n">
-        <v>40.10272736982866</v>
+        <v>182.7198904038645</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -5062,13 +5062,13 @@
         </is>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>0.1004</v>
       </c>
       <c r="L82" s="2" t="n">
-        <v>43836</v>
+        <v>44998</v>
       </c>
       <c r="M82" t="n">
-        <v>1.308851896917076</v>
+        <v>5.05999755859375</v>
       </c>
       <c r="N82" t="n">
         <v>17</v>
@@ -5089,25 +5089,25 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>40.38000106811523</v>
+        <v>178.0800018310547</v>
       </c>
       <c r="C83" t="n">
-        <v>40.97000122070312</v>
+        <v>200.6600036621094</v>
       </c>
       <c r="D83" t="n">
-        <v>39.36999893188477</v>
+        <v>176.3500061035156</v>
       </c>
       <c r="E83" t="n">
-        <v>39.83000183105469</v>
+        <v>190.4100036621094</v>
       </c>
       <c r="F83" t="n">
-        <v>40.03444502088759</v>
+        <v>190.4100036621094</v>
       </c>
       <c r="G83" t="n">
-        <v>40.05642017317407</v>
+        <v>187.1545196490678</v>
       </c>
       <c r="H83" t="n">
-        <v>40.07793413903102</v>
+        <v>186.5649470329869</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -5123,10 +5123,10 @@
         <v>0</v>
       </c>
       <c r="L83" s="2" t="n">
-        <v>43843</v>
+        <v>45005</v>
       </c>
       <c r="M83" t="n">
-        <v>1.308851896917076</v>
+        <v>5.05999755859375</v>
       </c>
       <c r="N83" t="n">
         <v>17</v>
@@ -5147,25 +5147,25 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>39.54999923706055</v>
+        <v>194.4199981689453</v>
       </c>
       <c r="C84" t="n">
-        <v>39.97999954223633</v>
+        <v>207.7899932861328</v>
       </c>
       <c r="D84" t="n">
-        <v>37.41999816894531</v>
+        <v>185.4299926757812</v>
       </c>
       <c r="E84" t="n">
-        <v>37.86999893188477</v>
+        <v>207.4600067138672</v>
       </c>
       <c r="F84" t="n">
-        <v>39.31296299121998</v>
+        <v>207.4600067138672</v>
       </c>
       <c r="G84" t="n">
-        <v>39.57054878622089</v>
+        <v>200.6915110256007</v>
       </c>
       <c r="H84" t="n">
-        <v>39.87721275656318</v>
+        <v>197.0124768734271</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -5181,10 +5181,10 @@
         <v>0</v>
       </c>
       <c r="L84" s="2" t="n">
-        <v>43850</v>
+        <v>45012</v>
       </c>
       <c r="M84" t="n">
-        <v>1.308851896917076</v>
+        <v>5.05999755859375</v>
       </c>
       <c r="N84" t="n">
         <v>17</v>
@@ -5205,25 +5205,25 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>36.81000137329102</v>
+        <v>199.9100036621094</v>
       </c>
       <c r="C85" t="n">
-        <v>37.13000106811523</v>
+        <v>202.6900024414062</v>
       </c>
       <c r="D85" t="n">
-        <v>34.59999847412109</v>
+        <v>179.7400054931641</v>
       </c>
       <c r="E85" t="n">
-        <v>35.13000106811523</v>
+        <v>185.0599975585938</v>
       </c>
       <c r="F85" t="n">
-        <v>37.91864235018507</v>
+        <v>185.0599975585938</v>
       </c>
       <c r="G85" t="n">
-        <v>38.58376040441964</v>
+        <v>190.2705020475961</v>
       </c>
       <c r="H85" t="n">
-        <v>39.44564805761337</v>
+        <v>191.0362372160104</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -5239,10 +5239,10 @@
         <v>0</v>
       </c>
       <c r="L85" s="2" t="n">
-        <v>43857</v>
+        <v>45019</v>
       </c>
       <c r="M85" t="n">
-        <v>1.308851896917076</v>
+        <v>5.05999755859375</v>
       </c>
       <c r="N85" t="n">
         <v>17</v>
@@ -5263,49 +5263,49 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>34.95000076293945</v>
+        <v>179.9400024414062</v>
       </c>
       <c r="C86" t="n">
-        <v>37.61999893188477</v>
+        <v>191.5800018310547</v>
       </c>
       <c r="D86" t="n">
-        <v>34.56999969482422</v>
+        <v>176.1100006103516</v>
       </c>
       <c r="E86" t="n">
-        <v>34.65999984741211</v>
+        <v>185</v>
       </c>
       <c r="F86" t="n">
-        <v>40.03444502088759</v>
+        <v>190.4100036621094</v>
       </c>
       <c r="G86" t="n">
-        <v>40.05642017317407</v>
+        <v>187.1545196490678</v>
       </c>
       <c r="H86" t="n">
-        <v>40.07793413903102</v>
+        <v>186.5649470329869</v>
       </c>
       <c r="I86" t="n">
-        <v>37.61999893188477</v>
+        <v>191.5800018310547</v>
       </c>
       <c r="J86" t="n">
-        <v>36.25885265985653</v>
+        <v>198.0959586972682</v>
       </c>
       <c r="K86" t="n">
         <v>0</v>
       </c>
       <c r="L86" s="2" t="n">
-        <v>43858</v>
+        <v>45020</v>
       </c>
       <c r="M86" t="n">
-        <v>1.308851896917076</v>
+        <v>5.05999755859375</v>
       </c>
       <c r="N86" t="n">
         <v>17</v>
       </c>
       <c r="O86" t="n">
-        <v>34.95000076293945</v>
+        <v>179.9400024414062</v>
       </c>
       <c r="P86" t="n">
-        <v>374</v>
+        <v>283</v>
       </c>
     </row>
     <row r="87">
@@ -5313,25 +5313,25 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>20.51000022888184</v>
+        <v>178.0800018310547</v>
       </c>
       <c r="C87" t="n">
-        <v>25.79999923706055</v>
+        <v>200.6600036621094</v>
       </c>
       <c r="D87" t="n">
-        <v>20.51000022888184</v>
+        <v>176.3500061035156</v>
       </c>
       <c r="E87" t="n">
-        <v>24.09000015258789</v>
+        <v>190.4100036621094</v>
       </c>
       <c r="F87" t="n">
-        <v>19.78892404723468</v>
+        <v>190.4100036621094</v>
       </c>
       <c r="G87" t="n">
-        <v>18.85325948000428</v>
+        <v>187.1545196490678</v>
       </c>
       <c r="H87" t="n">
-        <v>19.02392779654782</v>
+        <v>186.5649470329869</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -5347,10 +5347,10 @@
         <v>0</v>
       </c>
       <c r="L87" s="2" t="n">
-        <v>44158</v>
+        <v>45005</v>
       </c>
       <c r="M87" t="n">
-        <v>2.319999694824219</v>
+        <v>0.6352259429346248</v>
       </c>
       <c r="N87" t="n">
         <v>18</v>
@@ -5371,25 +5371,25 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>23.97999954223633</v>
+        <v>194.4199981689453</v>
       </c>
       <c r="C88" t="n">
-        <v>26.75</v>
+        <v>207.7899932861328</v>
       </c>
       <c r="D88" t="n">
-        <v>21.88999938964844</v>
+        <v>185.4299926757812</v>
       </c>
       <c r="E88" t="n">
-        <v>26.67000007629395</v>
+        <v>207.4600067138672</v>
       </c>
       <c r="F88" t="n">
-        <v>22.0826160569211</v>
+        <v>207.4600067138672</v>
       </c>
       <c r="G88" t="n">
-        <v>20.59031294584643</v>
+        <v>200.6915110256007</v>
       </c>
       <c r="H88" t="n">
-        <v>19.71902527652475</v>
+        <v>197.0124768734271</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -5405,10 +5405,10 @@
         <v>0</v>
       </c>
       <c r="L88" s="2" t="n">
-        <v>44165</v>
+        <v>45012</v>
       </c>
       <c r="M88" t="n">
-        <v>2.319999694824219</v>
+        <v>0.6352259429346248</v>
       </c>
       <c r="N88" t="n">
         <v>18</v>
@@ -5429,25 +5429,25 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>26.67000007629395</v>
+        <v>199.9100036621094</v>
       </c>
       <c r="C89" t="n">
-        <v>29.85000038146973</v>
+        <v>202.6900024414062</v>
       </c>
       <c r="D89" t="n">
-        <v>25.5</v>
+        <v>179.7400054931641</v>
       </c>
       <c r="E89" t="n">
-        <v>29.04999923706055</v>
+        <v>185.0599975585938</v>
       </c>
       <c r="F89" t="n">
-        <v>24.40507711696759</v>
+        <v>185.0599975585938</v>
       </c>
       <c r="G89" t="n">
-        <v>22.4702432327829</v>
+        <v>190.2705020475961</v>
       </c>
       <c r="H89" t="n">
-        <v>20.56729563657345</v>
+        <v>191.0362372160104</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -5463,10 +5463,10 @@
         <v>0</v>
       </c>
       <c r="L89" s="2" t="n">
-        <v>44172</v>
+        <v>45019</v>
       </c>
       <c r="M89" t="n">
-        <v>2.319999694824219</v>
+        <v>0.6352259429346248</v>
       </c>
       <c r="N89" t="n">
         <v>18</v>
@@ -5487,25 +5487,25 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>28.96999931335449</v>
+        <v>179.9400024414062</v>
       </c>
       <c r="C90" t="n">
-        <v>29.23999977111816</v>
+        <v>191.5800018310547</v>
       </c>
       <c r="D90" t="n">
-        <v>23.85000038146973</v>
+        <v>176.1100006103516</v>
       </c>
       <c r="E90" t="n">
-        <v>24.80999946594238</v>
+        <v>185</v>
       </c>
       <c r="F90" t="n">
-        <v>24.54005123329252</v>
+        <v>185</v>
       </c>
       <c r="G90" t="n">
-        <v>22.99018906237389</v>
+        <v>186.7568340158654</v>
       </c>
       <c r="H90" t="n">
-        <v>20.9529959846979</v>
+        <v>188.0181186080052</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -5521,10 +5521,10 @@
         <v>0</v>
       </c>
       <c r="L90" s="2" t="n">
-        <v>44179</v>
+        <v>45026</v>
       </c>
       <c r="M90" t="n">
-        <v>2.319999694824219</v>
+        <v>0.6352259429346248</v>
       </c>
       <c r="N90" t="n">
         <v>18</v>
@@ -5545,49 +5545,1177 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>23.81999969482422</v>
+        <v>186.3200073242188</v>
       </c>
       <c r="C91" t="n">
-        <v>27</v>
+        <v>189.6900024414062</v>
       </c>
       <c r="D91" t="n">
-        <v>23.67000007629395</v>
+        <v>160.5599975585938</v>
       </c>
       <c r="E91" t="n">
-        <v>26.13999938964844</v>
+        <v>165.0800018310547</v>
       </c>
       <c r="F91" t="n">
-        <v>22.0826160569211</v>
+        <v>207.4600067138672</v>
       </c>
       <c r="G91" t="n">
-        <v>20.59031294584643</v>
+        <v>200.6915110256007</v>
       </c>
       <c r="H91" t="n">
-        <v>19.71902527652475</v>
+        <v>197.0124768734271</v>
       </c>
       <c r="I91" t="n">
-        <v>27</v>
+        <v>189.6900024414062</v>
       </c>
       <c r="J91" t="n">
-        <v>28.04075764186794</v>
+        <v>186.9552332671534</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
       </c>
       <c r="L91" s="2" t="n">
-        <v>44180</v>
+        <v>45027</v>
       </c>
       <c r="M91" t="n">
-        <v>2.319999694824219</v>
+        <v>0.6352259429346248</v>
       </c>
       <c r="N91" t="n">
         <v>18</v>
       </c>
       <c r="O91" t="n">
-        <v>23.81999969482422</v>
+        <v>186.3200073242188</v>
       </c>
       <c r="P91" t="n">
-        <v>974</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>194.4199981689453</v>
+      </c>
+      <c r="C92" t="n">
+        <v>207.7899932861328</v>
+      </c>
+      <c r="D92" t="n">
+        <v>185.4299926757812</v>
+      </c>
+      <c r="E92" t="n">
+        <v>207.4600067138672</v>
+      </c>
+      <c r="F92" t="n">
+        <v>207.4600067138672</v>
+      </c>
+      <c r="G92" t="n">
+        <v>200.6915110256007</v>
+      </c>
+      <c r="H92" t="n">
+        <v>197.0124768734271</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="M92" t="n">
+        <v>-0.339996337890625</v>
+      </c>
+      <c r="N92" t="n">
+        <v>19</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>199.9100036621094</v>
+      </c>
+      <c r="C93" t="n">
+        <v>202.6900024414062</v>
+      </c>
+      <c r="D93" t="n">
+        <v>179.7400054931641</v>
+      </c>
+      <c r="E93" t="n">
+        <v>185.0599975585938</v>
+      </c>
+      <c r="F93" t="n">
+        <v>185.0599975585938</v>
+      </c>
+      <c r="G93" t="n">
+        <v>190.2705020475961</v>
+      </c>
+      <c r="H93" t="n">
+        <v>191.0362372160104</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" s="2" t="n">
+        <v>45019</v>
+      </c>
+      <c r="M93" t="n">
+        <v>-0.339996337890625</v>
+      </c>
+      <c r="N93" t="n">
+        <v>19</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>179.9400024414062</v>
+      </c>
+      <c r="C94" t="n">
+        <v>191.5800018310547</v>
+      </c>
+      <c r="D94" t="n">
+        <v>176.1100006103516</v>
+      </c>
+      <c r="E94" t="n">
+        <v>185</v>
+      </c>
+      <c r="F94" t="n">
+        <v>185</v>
+      </c>
+      <c r="G94" t="n">
+        <v>186.7568340158654</v>
+      </c>
+      <c r="H94" t="n">
+        <v>188.0181186080052</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2" t="n">
+        <v>45026</v>
+      </c>
+      <c r="M94" t="n">
+        <v>-0.339996337890625</v>
+      </c>
+      <c r="N94" t="n">
+        <v>19</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>186.3200073242188</v>
+      </c>
+      <c r="C95" t="n">
+        <v>189.6900024414062</v>
+      </c>
+      <c r="D95" t="n">
+        <v>160.5599975585938</v>
+      </c>
+      <c r="E95" t="n">
+        <v>165.0800018310547</v>
+      </c>
+      <c r="F95" t="n">
+        <v>165.0800018310547</v>
+      </c>
+      <c r="G95" t="n">
+        <v>172.3056125593249</v>
+      </c>
+      <c r="H95" t="n">
+        <v>176.54906021953</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="M95" t="n">
+        <v>-0.339996337890625</v>
+      </c>
+      <c r="N95" t="n">
+        <v>19</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>164.6499938964844</v>
+      </c>
+      <c r="C96" t="n">
+        <v>165.6499938964844</v>
+      </c>
+      <c r="D96" t="n">
+        <v>152.3699951171875</v>
+      </c>
+      <c r="E96" t="n">
+        <v>164.3099975585938</v>
+      </c>
+      <c r="F96" t="n">
+        <v>185.0599975585938</v>
+      </c>
+      <c r="G96" t="n">
+        <v>190.2705020475961</v>
+      </c>
+      <c r="H96" t="n">
+        <v>191.0362372160104</v>
+      </c>
+      <c r="I96" t="n">
+        <v>165.6499938964844</v>
+      </c>
+      <c r="J96" t="n">
+        <v>177.4368989028559</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" s="2" t="n">
+        <v>45034</v>
+      </c>
+      <c r="M96" t="n">
+        <v>-0.339996337890625</v>
+      </c>
+      <c r="N96" t="n">
+        <v>19</v>
+      </c>
+      <c r="O96" t="n">
+        <v>164.6499938964844</v>
+      </c>
+      <c r="P96" t="n">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>199.9100036621094</v>
+      </c>
+      <c r="C97" t="n">
+        <v>202.6900024414062</v>
+      </c>
+      <c r="D97" t="n">
+        <v>179.7400054931641</v>
+      </c>
+      <c r="E97" t="n">
+        <v>185.0599975585938</v>
+      </c>
+      <c r="F97" t="n">
+        <v>185.0599975585938</v>
+      </c>
+      <c r="G97" t="n">
+        <v>190.2705020475961</v>
+      </c>
+      <c r="H97" t="n">
+        <v>191.0362372160104</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" s="2" t="n">
+        <v>45019</v>
+      </c>
+      <c r="M97" t="n">
+        <v>6.889999389648438</v>
+      </c>
+      <c r="N97" t="n">
+        <v>20</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>179.9400024414062</v>
+      </c>
+      <c r="C98" t="n">
+        <v>191.5800018310547</v>
+      </c>
+      <c r="D98" t="n">
+        <v>176.1100006103516</v>
+      </c>
+      <c r="E98" t="n">
+        <v>185</v>
+      </c>
+      <c r="F98" t="n">
+        <v>185</v>
+      </c>
+      <c r="G98" t="n">
+        <v>186.7568340158654</v>
+      </c>
+      <c r="H98" t="n">
+        <v>188.0181186080052</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" s="2" t="n">
+        <v>45026</v>
+      </c>
+      <c r="M98" t="n">
+        <v>6.889999389648438</v>
+      </c>
+      <c r="N98" t="n">
+        <v>20</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>186.3200073242188</v>
+      </c>
+      <c r="C99" t="n">
+        <v>189.6900024414062</v>
+      </c>
+      <c r="D99" t="n">
+        <v>160.5599975585938</v>
+      </c>
+      <c r="E99" t="n">
+        <v>165.0800018310547</v>
+      </c>
+      <c r="F99" t="n">
+        <v>165.0800018310547</v>
+      </c>
+      <c r="G99" t="n">
+        <v>172.3056125593249</v>
+      </c>
+      <c r="H99" t="n">
+        <v>176.54906021953</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="M99" t="n">
+        <v>6.889999389648438</v>
+      </c>
+      <c r="N99" t="n">
+        <v>20</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>164.6499938964844</v>
+      </c>
+      <c r="C100" t="n">
+        <v>165.6499938964844</v>
+      </c>
+      <c r="D100" t="n">
+        <v>152.3699951171875</v>
+      </c>
+      <c r="E100" t="n">
+        <v>164.3099975585938</v>
+      </c>
+      <c r="F100" t="n">
+        <v>164.3099975585938</v>
+      </c>
+      <c r="G100" t="n">
+        <v>166.9752025588375</v>
+      </c>
+      <c r="H100" t="n">
+        <v>170.4295288890619</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="M100" t="n">
+        <v>6.889999389648438</v>
+      </c>
+      <c r="N100" t="n">
+        <v>20</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>163.1699981689453</v>
+      </c>
+      <c r="C101" t="n">
+        <v>170.7899932861328</v>
+      </c>
+      <c r="D101" t="n">
+        <v>158.8300018310547</v>
+      </c>
+      <c r="E101" t="n">
+        <v>170.0599975585938</v>
+      </c>
+      <c r="F101" t="n">
+        <v>185</v>
+      </c>
+      <c r="G101" t="n">
+        <v>186.7568340158654</v>
+      </c>
+      <c r="H101" t="n">
+        <v>188.0181186080052</v>
+      </c>
+      <c r="I101" t="n">
+        <v>170.7899932861328</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179.0530999026392</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" s="2" t="n">
+        <v>45041</v>
+      </c>
+      <c r="M101" t="n">
+        <v>6.889999389648438</v>
+      </c>
+      <c r="N101" t="n">
+        <v>20</v>
+      </c>
+      <c r="O101" t="n">
+        <v>163.1699981689453</v>
+      </c>
+      <c r="P101" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>179.9400024414062</v>
+      </c>
+      <c r="C102" t="n">
+        <v>191.5800018310547</v>
+      </c>
+      <c r="D102" t="n">
+        <v>176.1100006103516</v>
+      </c>
+      <c r="E102" t="n">
+        <v>185</v>
+      </c>
+      <c r="F102" t="n">
+        <v>185</v>
+      </c>
+      <c r="G102" t="n">
+        <v>186.7568340158654</v>
+      </c>
+      <c r="H102" t="n">
+        <v>188.0181186080052</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" s="2" t="n">
+        <v>45026</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.9050300164186353</v>
+      </c>
+      <c r="N102" t="n">
+        <v>21</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>186.3200073242188</v>
+      </c>
+      <c r="C103" t="n">
+        <v>189.6900024414062</v>
+      </c>
+      <c r="D103" t="n">
+        <v>160.5599975585938</v>
+      </c>
+      <c r="E103" t="n">
+        <v>165.0800018310547</v>
+      </c>
+      <c r="F103" t="n">
+        <v>165.0800018310547</v>
+      </c>
+      <c r="G103" t="n">
+        <v>172.3056125593249</v>
+      </c>
+      <c r="H103" t="n">
+        <v>176.54906021953</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.9050300164186353</v>
+      </c>
+      <c r="N103" t="n">
+        <v>21</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>164.6499938964844</v>
+      </c>
+      <c r="C104" t="n">
+        <v>165.6499938964844</v>
+      </c>
+      <c r="D104" t="n">
+        <v>152.3699951171875</v>
+      </c>
+      <c r="E104" t="n">
+        <v>164.3099975585938</v>
+      </c>
+      <c r="F104" t="n">
+        <v>164.3099975585938</v>
+      </c>
+      <c r="G104" t="n">
+        <v>166.9752025588375</v>
+      </c>
+      <c r="H104" t="n">
+        <v>170.4295288890619</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.9050300164186353</v>
+      </c>
+      <c r="N104" t="n">
+        <v>21</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>163.1699981689453</v>
+      </c>
+      <c r="C105" t="n">
+        <v>170.7899932861328</v>
+      </c>
+      <c r="D105" t="n">
+        <v>158.8300018310547</v>
+      </c>
+      <c r="E105" t="n">
+        <v>170.0599975585938</v>
+      </c>
+      <c r="F105" t="n">
+        <v>170.0599975585938</v>
+      </c>
+      <c r="G105" t="n">
+        <v>169.031732558675</v>
+      </c>
+      <c r="H105" t="n">
+        <v>170.2447632238278</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.9050300164186353</v>
+      </c>
+      <c r="N105" t="n">
+        <v>21</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>173.7200012207031</v>
+      </c>
+      <c r="C106" t="n">
+        <v>177.3800048828125</v>
+      </c>
+      <c r="D106" t="n">
+        <v>166.5599975585938</v>
+      </c>
+      <c r="E106" t="n">
+        <v>167.9799957275391</v>
+      </c>
+      <c r="F106" t="n">
+        <v>165.0800018310547</v>
+      </c>
+      <c r="G106" t="n">
+        <v>172.3056125593249</v>
+      </c>
+      <c r="H106" t="n">
+        <v>176.54906021953</v>
+      </c>
+      <c r="I106" t="n">
+        <v>177.3800048828125</v>
+      </c>
+      <c r="J106" t="n">
+        <v>174.6250312371218</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" s="2" t="n">
+        <v>45048</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.9050300164186353</v>
+      </c>
+      <c r="N106" t="n">
+        <v>21</v>
+      </c>
+      <c r="O106" t="n">
+        <v>173.7200012207031</v>
+      </c>
+      <c r="P106" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>186.3200073242188</v>
+      </c>
+      <c r="C107" t="n">
+        <v>189.6900024414062</v>
+      </c>
+      <c r="D107" t="n">
+        <v>160.5599975585938</v>
+      </c>
+      <c r="E107" t="n">
+        <v>165.0800018310547</v>
+      </c>
+      <c r="F107" t="n">
+        <v>165.0800018310547</v>
+      </c>
+      <c r="G107" t="n">
+        <v>172.3056125593249</v>
+      </c>
+      <c r="H107" t="n">
+        <v>176.54906021953</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="M107" t="n">
+        <v>14.12950127743679</v>
+      </c>
+      <c r="N107" t="n">
+        <v>22</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>164.6499938964844</v>
+      </c>
+      <c r="C108" t="n">
+        <v>165.6499938964844</v>
+      </c>
+      <c r="D108" t="n">
+        <v>152.3699951171875</v>
+      </c>
+      <c r="E108" t="n">
+        <v>164.3099975585938</v>
+      </c>
+      <c r="F108" t="n">
+        <v>164.3099975585938</v>
+      </c>
+      <c r="G108" t="n">
+        <v>166.9752025588375</v>
+      </c>
+      <c r="H108" t="n">
+        <v>170.4295288890619</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="M108" t="n">
+        <v>14.12950127743679</v>
+      </c>
+      <c r="N108" t="n">
+        <v>22</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>163.1699981689453</v>
+      </c>
+      <c r="C109" t="n">
+        <v>170.7899932861328</v>
+      </c>
+      <c r="D109" t="n">
+        <v>158.8300018310547</v>
+      </c>
+      <c r="E109" t="n">
+        <v>170.0599975585938</v>
+      </c>
+      <c r="F109" t="n">
+        <v>170.0599975585938</v>
+      </c>
+      <c r="G109" t="n">
+        <v>169.031732558675</v>
+      </c>
+      <c r="H109" t="n">
+        <v>170.2447632238278</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="M109" t="n">
+        <v>14.12950127743679</v>
+      </c>
+      <c r="N109" t="n">
+        <v>22</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>173.7200012207031</v>
+      </c>
+      <c r="C110" t="n">
+        <v>177.3800048828125</v>
+      </c>
+      <c r="D110" t="n">
+        <v>166.5599975585938</v>
+      </c>
+      <c r="E110" t="n">
+        <v>167.9799957275391</v>
+      </c>
+      <c r="F110" t="n">
+        <v>167.9799957275391</v>
+      </c>
+      <c r="G110" t="n">
+        <v>168.330574671251</v>
+      </c>
+      <c r="H110" t="n">
+        <v>169.1123794756834</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" s="2" t="n">
+        <v>45054</v>
+      </c>
+      <c r="M110" t="n">
+        <v>14.12950127743679</v>
+      </c>
+      <c r="N110" t="n">
+        <v>22</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>167.6600036621094</v>
+      </c>
+      <c r="C111" t="n">
+        <v>181.9499969482422</v>
+      </c>
+      <c r="D111" t="n">
+        <v>164.3500061035156</v>
+      </c>
+      <c r="E111" t="n">
+        <v>180.1399993896484</v>
+      </c>
+      <c r="F111" t="n">
+        <v>164.3099975585938</v>
+      </c>
+      <c r="G111" t="n">
+        <v>166.9752025588375</v>
+      </c>
+      <c r="H111" t="n">
+        <v>170.4295288890619</v>
+      </c>
+      <c r="I111" t="n">
+        <v>181.9499969482422</v>
+      </c>
+      <c r="J111" t="n">
+        <v>181.7895049395462</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="M111" t="n">
+        <v>14.12950127743679</v>
+      </c>
+      <c r="N111" t="n">
+        <v>22</v>
+      </c>
+      <c r="O111" t="n">
+        <v>167.6600036621094</v>
+      </c>
+      <c r="P111" t="n">
+        <v>848</v>
       </c>
     </row>
   </sheetData>

--- a/Excel reports/Performance_report.xlsx
+++ b/Excel reports/Performance_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,17 +460,17 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>EMA4</t>
+          <t>EMA5</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>EMA14</t>
+          <t>EMA8</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>EMA32</t>
+          <t>EMA16</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -519,25 +519,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>110.4100036621094</v>
+        <v>33.22999954223633</v>
       </c>
       <c r="C2" t="n">
-        <v>115.4899978637695</v>
+        <v>34.81999969482422</v>
       </c>
       <c r="D2" t="n">
-        <v>109.4899978637695</v>
+        <v>33.20999908447266</v>
       </c>
       <c r="E2" t="n">
-        <v>114.8399963378906</v>
+        <v>34.40999984741211</v>
       </c>
       <c r="F2" t="n">
-        <v>111.9766166648152</v>
+        <v>33.72317565426211</v>
       </c>
       <c r="G2" t="n">
-        <v>104.9399818827511</v>
+        <v>33.9606613576232</v>
       </c>
       <c r="H2" t="n">
-        <v>97.75981359220917</v>
+        <v>34.24654799731636</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -550,13 +550,13 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.1013</v>
+        <v>0.1346</v>
       </c>
       <c r="L2" s="2" t="n">
         <v>44928</v>
       </c>
       <c r="M2" t="n">
-        <v>1.481608971858407</v>
+        <v>0.4603739265039621</v>
       </c>
       <c r="N2" t="n">
         <v>1</v>
@@ -577,25 +577,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>114.879997253418</v>
+        <v>34.75</v>
       </c>
       <c r="C3" t="n">
-        <v>114.9300003051758</v>
+        <v>35.38999938964844</v>
       </c>
       <c r="D3" t="n">
-        <v>108.75</v>
+        <v>33.09000015258789</v>
       </c>
       <c r="E3" t="n">
-        <v>112.25</v>
+        <v>35.22999954223633</v>
       </c>
       <c r="F3" t="n">
-        <v>112.0859699988891</v>
+        <v>34.22545028358685</v>
       </c>
       <c r="G3" t="n">
-        <v>105.914650965051</v>
+        <v>34.24273650975945</v>
       </c>
       <c r="H3" t="n">
-        <v>98.63800670783286</v>
+        <v>34.36224817907166</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -608,13 +608,13 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0.1597</v>
+        <v>0.1304</v>
       </c>
       <c r="L3" s="2" t="n">
         <v>44935</v>
       </c>
       <c r="M3" t="n">
-        <v>1.481608971858407</v>
+        <v>0.4603739265039621</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
@@ -635,25 +635,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>112.0299987792969</v>
+        <v>34.68999862670898</v>
       </c>
       <c r="C4" t="n">
-        <v>112.4899978637695</v>
+        <v>34.83000183105469</v>
       </c>
       <c r="D4" t="n">
-        <v>108.0999984741211</v>
+        <v>32.88999938964844</v>
       </c>
       <c r="E4" t="n">
-        <v>109.9400024414062</v>
+        <v>33.84999847412109</v>
       </c>
       <c r="F4" t="n">
-        <v>111.227582975896</v>
+        <v>34.1002996804316</v>
       </c>
       <c r="G4" t="n">
-        <v>106.4513644952317</v>
+        <v>34.15546139072871</v>
       </c>
       <c r="H4" t="n">
-        <v>99.32297614623124</v>
+        <v>34.301983507901</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -666,13 +666,13 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>0.1402</v>
+        <v>-0.09420000000000001</v>
       </c>
       <c r="L4" s="2" t="n">
         <v>44942</v>
       </c>
       <c r="M4" t="n">
-        <v>1.481608971858407</v>
+        <v>0.4603739265039621</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
@@ -693,57 +693,49 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>109.9300003051758</v>
+        <v>33.81000137329102</v>
       </c>
       <c r="C5" t="n">
-        <v>110.3600006103516</v>
+        <v>35.77999877929688</v>
       </c>
       <c r="D5" t="n">
-        <v>105.1100006103516</v>
+        <v>33.75</v>
       </c>
       <c r="E5" t="n">
-        <v>105.379997253418</v>
+        <v>35.45000076293945</v>
       </c>
       <c r="F5" t="n">
-        <v>108.8885486869048</v>
+        <v>34.22545028358685</v>
       </c>
       <c r="G5" t="n">
-        <v>106.3085155296565</v>
+        <v>34.24273650975945</v>
       </c>
       <c r="H5" t="n">
-        <v>99.6900683345456</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
+        <v>34.36224817907166</v>
+      </c>
+      <c r="I5" t="n">
+        <v>35.77999877929688</v>
+      </c>
+      <c r="J5" t="n">
+        <v>34.27037529979498</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1138</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>44949</v>
+        <v>44943</v>
       </c>
       <c r="M5" t="n">
-        <v>1.481608971858407</v>
+        <v>0.4603739265039621</v>
       </c>
       <c r="N5" t="n">
         <v>1</v>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
+      <c r="O5" t="n">
+        <v>33.81000137329102</v>
+      </c>
+      <c r="P5" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="6">
@@ -751,49 +743,57 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>105.5699996948242</v>
+        <v>33.81000137329102</v>
       </c>
       <c r="C6" t="n">
-        <v>107.4400024414062</v>
+        <v>35.77999877929688</v>
       </c>
       <c r="D6" t="n">
-        <v>101.75</v>
+        <v>33.75</v>
       </c>
       <c r="E6" t="n">
-        <v>102.9400024414062</v>
+        <v>35.45000076293945</v>
       </c>
       <c r="F6" t="n">
-        <v>112.0859699988891</v>
+        <v>34.55020004126756</v>
       </c>
       <c r="G6" t="n">
-        <v>105.914650965051</v>
+        <v>34.44313680677554</v>
       </c>
       <c r="H6" t="n">
-        <v>98.63800670783286</v>
-      </c>
-      <c r="I6" t="n">
-        <v>107.4400024414062</v>
-      </c>
-      <c r="J6" t="n">
-        <v>107.0516086666826</v>
+        <v>34.43704436143494</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.0835</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>44950</v>
+        <v>44949</v>
       </c>
       <c r="M6" t="n">
-        <v>1.481608971858407</v>
+        <v>0.09704388678073883</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>105.5699996948242</v>
-      </c>
-      <c r="P6" t="n">
-        <v>141</v>
+        <v>2</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>114.879997253418</v>
+        <v>35.20999908447266</v>
       </c>
       <c r="C7" t="n">
-        <v>114.9300003051758</v>
+        <v>36.7599983215332</v>
       </c>
       <c r="D7" t="n">
-        <v>108.75</v>
+        <v>35</v>
       </c>
       <c r="E7" t="n">
-        <v>112.25</v>
+        <v>36.43000030517578</v>
       </c>
       <c r="F7" t="n">
-        <v>112.0859699988891</v>
+        <v>35.17680012923697</v>
       </c>
       <c r="G7" t="n">
-        <v>105.914650965051</v>
+        <v>34.88466202864226</v>
       </c>
       <c r="H7" t="n">
-        <v>98.63800670783286</v>
+        <v>34.67150976658092</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -832,13 +832,13 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0.1597</v>
+        <v>0.116</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>44935</v>
+        <v>44956</v>
       </c>
       <c r="M7" t="n">
-        <v>4.170568660028863</v>
+        <v>0.09704388678073883</v>
       </c>
       <c r="N7" t="n">
         <v>2</v>
@@ -859,25 +859,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>112.0299987792969</v>
+        <v>36.25</v>
       </c>
       <c r="C8" t="n">
-        <v>112.4899978637695</v>
+        <v>37</v>
       </c>
       <c r="D8" t="n">
-        <v>108.0999984741211</v>
+        <v>35.02999877929688</v>
       </c>
       <c r="E8" t="n">
-        <v>109.9400024414062</v>
+        <v>35.58000183105469</v>
       </c>
       <c r="F8" t="n">
-        <v>111.227582975896</v>
+        <v>35.31120069650954</v>
       </c>
       <c r="G8" t="n">
-        <v>106.4513644952317</v>
+        <v>35.03918198473391</v>
       </c>
       <c r="H8" t="n">
-        <v>99.32297614623124</v>
+        <v>34.77839118593077</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -890,13 +890,13 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0.1402</v>
+        <v>0.1257</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>44942</v>
+        <v>44963</v>
       </c>
       <c r="M8" t="n">
-        <v>4.170568660028863</v>
+        <v>0.09704388678073883</v>
       </c>
       <c r="N8" t="n">
         <v>2</v>
@@ -917,57 +917,49 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>109.9300003051758</v>
+        <v>35.47999954223633</v>
       </c>
       <c r="C9" t="n">
-        <v>110.3600006103516</v>
+        <v>35.9900016784668</v>
       </c>
       <c r="D9" t="n">
-        <v>105.1100006103516</v>
+        <v>34.7400016784668</v>
       </c>
       <c r="E9" t="n">
-        <v>105.379997253418</v>
+        <v>35.34999847412109</v>
       </c>
       <c r="F9" t="n">
-        <v>108.8885486869048</v>
+        <v>35.17680012923697</v>
       </c>
       <c r="G9" t="n">
-        <v>106.3085155296565</v>
+        <v>34.88466202864226</v>
       </c>
       <c r="H9" t="n">
-        <v>99.6900683345456</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
+        <v>34.67150976658092</v>
+      </c>
+      <c r="I9" t="n">
+        <v>35.9900016784668</v>
+      </c>
+      <c r="J9" t="n">
+        <v>35.57704342901707</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1138</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>44949</v>
+        <v>44964</v>
       </c>
       <c r="M9" t="n">
-        <v>4.170568660028863</v>
+        <v>0.09704388678073883</v>
       </c>
       <c r="N9" t="n">
         <v>2</v>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
+      <c r="O9" t="n">
+        <v>35.47999954223633</v>
+      </c>
+      <c r="P9" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="10">
@@ -975,25 +967,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>105.5699996948242</v>
+        <v>35.20999908447266</v>
       </c>
       <c r="C10" t="n">
-        <v>107.4400024414062</v>
+        <v>36.7599983215332</v>
       </c>
       <c r="D10" t="n">
-        <v>101.75</v>
+        <v>35</v>
       </c>
       <c r="E10" t="n">
-        <v>102.9400024414062</v>
+        <v>36.43000030517578</v>
       </c>
       <c r="F10" t="n">
-        <v>106.5091301887054</v>
+        <v>35.17680012923697</v>
       </c>
       <c r="G10" t="n">
-        <v>105.8593804512232</v>
+        <v>34.88466202864226</v>
       </c>
       <c r="H10" t="n">
-        <v>99.8870340379917</v>
+        <v>34.67150976658092</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1006,16 +998,16 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>0.1219</v>
+        <v>0.116</v>
       </c>
       <c r="L10" s="2" t="n">
         <v>44956</v>
       </c>
       <c r="M10" t="n">
-        <v>4.170568660028863</v>
+        <v>-0.7000007629394531</v>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1033,49 +1025,57 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>103.4300003051758</v>
+        <v>36.25</v>
       </c>
       <c r="C11" t="n">
-        <v>108.7699966430664</v>
+        <v>37</v>
       </c>
       <c r="D11" t="n">
-        <v>102.8399963378906</v>
+        <v>35.02999877929688</v>
       </c>
       <c r="E11" t="n">
-        <v>108.5699996948242</v>
+        <v>35.58000183105469</v>
       </c>
       <c r="F11" t="n">
-        <v>111.227582975896</v>
+        <v>35.31120069650954</v>
       </c>
       <c r="G11" t="n">
-        <v>106.4513644952317</v>
+        <v>35.03918198473391</v>
       </c>
       <c r="H11" t="n">
-        <v>99.32297614623124</v>
-      </c>
-      <c r="I11" t="n">
-        <v>108.7699966430664</v>
-      </c>
-      <c r="J11" t="n">
-        <v>107.6005689652046</v>
+        <v>34.77839118593077</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.1257</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>44957</v>
+        <v>44963</v>
       </c>
       <c r="M11" t="n">
-        <v>4.170568660028863</v>
+        <v>-0.7000007629394531</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
-      </c>
-      <c r="O11" t="n">
-        <v>103.4300003051758</v>
-      </c>
-      <c r="P11" t="n">
-        <v>405</v>
+        <v>3</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1083,25 +1083,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>103.4300003051758</v>
+        <v>35.47999954223633</v>
       </c>
       <c r="C12" t="n">
-        <v>108.7699966430664</v>
+        <v>35.9900016784668</v>
       </c>
       <c r="D12" t="n">
-        <v>102.8399963378906</v>
+        <v>34.7400016784668</v>
       </c>
       <c r="E12" t="n">
-        <v>108.5699996948242</v>
+        <v>35.34999847412109</v>
       </c>
       <c r="F12" t="n">
-        <v>107.3334779911529</v>
+        <v>35.32413328904673</v>
       </c>
       <c r="G12" t="n">
-        <v>106.22079635037</v>
+        <v>35.10825231570885</v>
       </c>
       <c r="H12" t="n">
-        <v>100.41327438083</v>
+        <v>34.84563910218846</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1114,13 +1114,13 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>0.1516</v>
+        <v>0.1317</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>44963</v>
+        <v>44970</v>
       </c>
       <c r="M12" t="n">
-        <v>1.020712971713891</v>
+        <v>-0.7000007629394531</v>
       </c>
       <c r="N12" t="n">
         <v>3</v>
@@ -1141,57 +1141,49 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>108.7099990844727</v>
+        <v>34.90999984741211</v>
       </c>
       <c r="C13" t="n">
-        <v>110</v>
+        <v>35.04999923706055</v>
       </c>
       <c r="D13" t="n">
-        <v>105.5199966430664</v>
+        <v>33.84000015258789</v>
       </c>
       <c r="E13" t="n">
-        <v>109.5199966430664</v>
+        <v>34.20999908447266</v>
       </c>
       <c r="F13" t="n">
-        <v>108.2080854519183</v>
+        <v>35.31120069650954</v>
       </c>
       <c r="G13" t="n">
-        <v>106.6606897227295</v>
+        <v>35.03918198473391</v>
       </c>
       <c r="H13" t="n">
-        <v>100.9651969421777</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
+        <v>34.77839118593077</v>
+      </c>
+      <c r="I13" t="n">
+        <v>35.04999923706055</v>
+      </c>
+      <c r="J13" t="n">
+        <v>35.43613366227169</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1313</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>44970</v>
+        <v>44971</v>
       </c>
       <c r="M13" t="n">
-        <v>1.020712971713891</v>
+        <v>-0.7000007629394531</v>
       </c>
       <c r="N13" t="n">
         <v>3</v>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
+      <c r="O13" t="n">
+        <v>34.90999984741211</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-200</v>
       </c>
     </row>
     <row r="14">
@@ -1199,25 +1191,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>108.9000015258789</v>
+        <v>36.25</v>
       </c>
       <c r="C14" t="n">
-        <v>111.2399978637695</v>
+        <v>37</v>
       </c>
       <c r="D14" t="n">
-        <v>108.629997253418</v>
+        <v>35.02999877929688</v>
       </c>
       <c r="E14" t="n">
-        <v>109.8899993896484</v>
+        <v>35.58000183105469</v>
       </c>
       <c r="F14" t="n">
-        <v>108.8808510270104</v>
+        <v>35.31120069650954</v>
       </c>
       <c r="G14" t="n">
-        <v>107.0912643449853</v>
+        <v>35.03918198473391</v>
       </c>
       <c r="H14" t="n">
-        <v>101.5060940602062</v>
+        <v>34.77839118593077</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1230,16 +1222,16 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>0.1184</v>
+        <v>0.1257</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>44977</v>
+        <v>44963</v>
       </c>
       <c r="M14" t="n">
-        <v>1.020712971713891</v>
+        <v>0.18564772605896</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1257,25 +1249,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>110.0299987792969</v>
+        <v>35.47999954223633</v>
       </c>
       <c r="C15" t="n">
-        <v>110.129997253418</v>
+        <v>35.9900016784668</v>
       </c>
       <c r="D15" t="n">
-        <v>105.9599990844727</v>
+        <v>34.7400016784668</v>
       </c>
       <c r="E15" t="n">
-        <v>106.879997253418</v>
+        <v>35.34999847412109</v>
       </c>
       <c r="F15" t="n">
-        <v>108.0805095175734</v>
+        <v>35.32413328904673</v>
       </c>
       <c r="G15" t="n">
-        <v>107.063095399443</v>
+        <v>35.10825231570885</v>
       </c>
       <c r="H15" t="n">
-        <v>101.8317851628251</v>
+        <v>34.84563910218846</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1288,16 +1280,16 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>0.1096</v>
+        <v>0.1317</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>44984</v>
+        <v>44970</v>
       </c>
       <c r="M15" t="n">
-        <v>1.020712971713891</v>
+        <v>0.18564772605896</v>
       </c>
       <c r="N15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1315,49 +1307,57 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>107.6600036621094</v>
+        <v>34.90999984741211</v>
       </c>
       <c r="C16" t="n">
-        <v>112.1800003051758</v>
+        <v>35.04999923706055</v>
       </c>
       <c r="D16" t="n">
-        <v>107.1100006103516</v>
+        <v>33.84000015258789</v>
       </c>
       <c r="E16" t="n">
-        <v>107.6900024414062</v>
+        <v>34.20999908447266</v>
       </c>
       <c r="F16" t="n">
-        <v>108.2080854519183</v>
+        <v>34.95275522085537</v>
       </c>
       <c r="G16" t="n">
-        <v>106.6606897227295</v>
+        <v>34.90864048654525</v>
       </c>
       <c r="H16" t="n">
-        <v>100.9651969421777</v>
-      </c>
-      <c r="I16" t="n">
-        <v>112.1800003051758</v>
-      </c>
-      <c r="J16" t="n">
-        <v>108.6807166338233</v>
+        <v>34.77085792363366</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.1771</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>44985</v>
+        <v>44977</v>
       </c>
       <c r="M16" t="n">
-        <v>1.020712971713891</v>
+        <v>0.18564772605896</v>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
-      </c>
-      <c r="O16" t="n">
-        <v>107.6600036621094</v>
-      </c>
-      <c r="P16" t="n">
-        <v>95</v>
+        <v>4</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1365,57 +1365,49 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>108.7099990844727</v>
+        <v>34.45000076293945</v>
       </c>
       <c r="C17" t="n">
-        <v>110</v>
+        <v>34.68999862670898</v>
       </c>
       <c r="D17" t="n">
-        <v>105.5199966430664</v>
+        <v>33</v>
       </c>
       <c r="E17" t="n">
-        <v>109.5199966430664</v>
+        <v>34.15999984741211</v>
       </c>
       <c r="F17" t="n">
-        <v>108.2080854519183</v>
+        <v>35.32413328904673</v>
       </c>
       <c r="G17" t="n">
-        <v>106.6606897227295</v>
+        <v>35.10825231570885</v>
       </c>
       <c r="H17" t="n">
-        <v>100.9651969421777</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
+        <v>34.84563910218846</v>
+      </c>
+      <c r="I17" t="n">
+        <v>34.68999862670898</v>
+      </c>
+      <c r="J17" t="n">
+        <v>34.63564848899841</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1313</v>
+        <v>0</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>44970</v>
+        <v>44978</v>
       </c>
       <c r="M17" t="n">
-        <v>3.186675696333538</v>
+        <v>0.18564772605896</v>
       </c>
       <c r="N17" t="n">
         <v>4</v>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
+      <c r="O17" t="n">
+        <v>34.45000076293945</v>
+      </c>
+      <c r="P17" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="18">
@@ -1423,25 +1415,25 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>108.9000015258789</v>
+        <v>34.45000076293945</v>
       </c>
       <c r="C18" t="n">
-        <v>111.2399978637695</v>
+        <v>34.68999862670898</v>
       </c>
       <c r="D18" t="n">
-        <v>108.629997253418</v>
+        <v>33</v>
       </c>
       <c r="E18" t="n">
-        <v>109.8899993896484</v>
+        <v>34.15999984741211</v>
       </c>
       <c r="F18" t="n">
-        <v>108.8808510270104</v>
+        <v>34.68850342970762</v>
       </c>
       <c r="G18" t="n">
-        <v>107.0912643449853</v>
+        <v>34.74227590007121</v>
       </c>
       <c r="H18" t="n">
-        <v>101.5060940602062</v>
+        <v>34.69899226760759</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1454,16 +1446,16 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>0.1184</v>
+        <v>0.1383</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>44977</v>
+        <v>44984</v>
       </c>
       <c r="M18" t="n">
-        <v>3.186675696333538</v>
+        <v>0.04120564848017239</v>
       </c>
       <c r="N18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1481,25 +1473,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>110.0299987792969</v>
+        <v>34.2400016784668</v>
       </c>
       <c r="C19" t="n">
-        <v>110.129997253418</v>
+        <v>34.56000137329102</v>
       </c>
       <c r="D19" t="n">
-        <v>105.9599990844727</v>
+        <v>28.92000007629395</v>
       </c>
       <c r="E19" t="n">
-        <v>106.879997253418</v>
+        <v>30.27000045776367</v>
       </c>
       <c r="F19" t="n">
-        <v>108.0805095175734</v>
+        <v>33.21566910572631</v>
       </c>
       <c r="G19" t="n">
-        <v>107.063095399443</v>
+        <v>33.74843691289176</v>
       </c>
       <c r="H19" t="n">
-        <v>101.8317851628251</v>
+        <v>34.17793440762595</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1512,16 +1504,16 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>0.1096</v>
+        <v>0.0876</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>44984</v>
+        <v>44991</v>
       </c>
       <c r="M19" t="n">
-        <v>3.186675696333538</v>
+        <v>0.04120564848017239</v>
       </c>
       <c r="N19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1539,25 +1531,25 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>107.6600036621094</v>
+        <v>28.92000007629395</v>
       </c>
       <c r="C20" t="n">
-        <v>112.1800003051758</v>
+        <v>30.09000015258789</v>
       </c>
       <c r="D20" t="n">
-        <v>107.1100006103516</v>
+        <v>27.6200008392334</v>
       </c>
       <c r="E20" t="n">
-        <v>107.6900024414062</v>
+        <v>27.81999969482422</v>
       </c>
       <c r="F20" t="n">
-        <v>107.9243066871065</v>
+        <v>31.41711263542561</v>
       </c>
       <c r="G20" t="n">
-        <v>107.1466830050381</v>
+        <v>32.43100641998787</v>
       </c>
       <c r="H20" t="n">
-        <v>102.1868286342543</v>
+        <v>33.42994208847281</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1570,16 +1562,16 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>0.1398</v>
+        <v>0.02895</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>44991</v>
+        <v>44998</v>
       </c>
       <c r="M20" t="n">
-        <v>3.186675696333538</v>
+        <v>0.04120564848017239</v>
       </c>
       <c r="N20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1597,49 +1589,49 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>104.4700012207031</v>
+        <v>28.23999977111816</v>
       </c>
       <c r="C21" t="n">
-        <v>108.8399963378906</v>
+        <v>28.97999954223633</v>
       </c>
       <c r="D21" t="n">
-        <v>103.4899978637695</v>
+        <v>26.31999969482422</v>
       </c>
       <c r="E21" t="n">
-        <v>104.0999984741211</v>
+        <v>27.13999938964844</v>
       </c>
       <c r="F21" t="n">
-        <v>108.8808510270104</v>
+        <v>33.21566910572631</v>
       </c>
       <c r="G21" t="n">
-        <v>107.0912643449853</v>
+        <v>33.74843691289176</v>
       </c>
       <c r="H21" t="n">
-        <v>101.5060940602062</v>
+        <v>34.17793440762595</v>
       </c>
       <c r="I21" t="n">
-        <v>108.8399963378906</v>
+        <v>28.97999954223633</v>
       </c>
       <c r="J21" t="n">
-        <v>107.6566769170367</v>
+        <v>28.28120541959834</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>44992</v>
+        <v>44999</v>
       </c>
       <c r="M21" t="n">
-        <v>3.186675696333538</v>
+        <v>0.04120564848017239</v>
       </c>
       <c r="N21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O21" t="n">
-        <v>104.4700012207031</v>
+        <v>28.23999977111816</v>
       </c>
       <c r="P21" t="n">
-        <v>306</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -1647,25 +1639,25 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>108.9000015258789</v>
+        <v>34.2400016784668</v>
       </c>
       <c r="C22" t="n">
-        <v>111.2399978637695</v>
+        <v>34.56000137329102</v>
       </c>
       <c r="D22" t="n">
-        <v>108.629997253418</v>
+        <v>28.92000007629395</v>
       </c>
       <c r="E22" t="n">
-        <v>109.8899993896484</v>
+        <v>30.27000045776367</v>
       </c>
       <c r="F22" t="n">
-        <v>108.8808510270104</v>
+        <v>33.21566910572631</v>
       </c>
       <c r="G22" t="n">
-        <v>107.0912643449853</v>
+        <v>33.74843691289176</v>
       </c>
       <c r="H22" t="n">
-        <v>101.5060940602062</v>
+        <v>34.17793440762595</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1678,16 +1670,16 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>0.1184</v>
+        <v>0.0876</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>44977</v>
+        <v>44991</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.01999664306640625</v>
+        <v>0.2693384957354965</v>
       </c>
       <c r="N22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -1705,25 +1697,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>110.0299987792969</v>
+        <v>28.92000007629395</v>
       </c>
       <c r="C23" t="n">
-        <v>110.129997253418</v>
+        <v>30.09000015258789</v>
       </c>
       <c r="D23" t="n">
-        <v>105.9599990844727</v>
+        <v>27.6200008392334</v>
       </c>
       <c r="E23" t="n">
-        <v>106.879997253418</v>
+        <v>27.81999969482422</v>
       </c>
       <c r="F23" t="n">
-        <v>108.0805095175734</v>
+        <v>31.41711263542561</v>
       </c>
       <c r="G23" t="n">
-        <v>107.063095399443</v>
+        <v>32.43100641998787</v>
       </c>
       <c r="H23" t="n">
-        <v>101.8317851628251</v>
+        <v>33.42994208847281</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1736,16 +1728,16 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>0.1096</v>
+        <v>0.02895</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>44984</v>
+        <v>44998</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.01999664306640625</v>
+        <v>0.2693384957354965</v>
       </c>
       <c r="N23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -1763,25 +1755,25 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>107.6600036621094</v>
+        <v>28.23999977111816</v>
       </c>
       <c r="C24" t="n">
-        <v>112.1800003051758</v>
+        <v>28.97999954223633</v>
       </c>
       <c r="D24" t="n">
-        <v>107.1100006103516</v>
+        <v>26.31999969482422</v>
       </c>
       <c r="E24" t="n">
-        <v>107.6900024414062</v>
+        <v>27.13999938964844</v>
       </c>
       <c r="F24" t="n">
-        <v>107.9243066871065</v>
+        <v>29.99140822016656</v>
       </c>
       <c r="G24" t="n">
-        <v>107.1466830050381</v>
+        <v>31.25522707991244</v>
       </c>
       <c r="H24" t="n">
-        <v>102.1868286342543</v>
+        <v>32.68994882978758</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1794,16 +1786,16 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>0.1398</v>
+        <v>0</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>44991</v>
+        <v>45005</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.01999664306640625</v>
+        <v>0.2693384957354965</v>
       </c>
       <c r="N24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -1821,57 +1813,49 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>104.4700012207031</v>
+        <v>27.93000030517578</v>
       </c>
       <c r="C25" t="n">
-        <v>108.8399963378906</v>
+        <v>29.05999946594238</v>
       </c>
       <c r="D25" t="n">
-        <v>103.4899978637695</v>
+        <v>27.90999984741211</v>
       </c>
       <c r="E25" t="n">
-        <v>104.0999984741211</v>
+        <v>28.60000038146973</v>
       </c>
       <c r="F25" t="n">
-        <v>106.3945834019124</v>
+        <v>31.41711263542561</v>
       </c>
       <c r="G25" t="n">
-        <v>106.7404584009159</v>
+        <v>32.43100641998787</v>
       </c>
       <c r="H25" t="n">
-        <v>102.302778321519</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
+        <v>33.42994208847281</v>
+      </c>
+      <c r="I25" t="n">
+        <v>29.05999946594238</v>
+      </c>
+      <c r="J25" t="n">
+        <v>28.19933880091128</v>
       </c>
       <c r="K25" t="n">
-        <v>0.14365</v>
+        <v>0</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>44998</v>
+        <v>45006</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.01999664306640625</v>
+        <v>0.2693384957354965</v>
       </c>
       <c r="N25" t="n">
-        <v>5</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="O25" t="n">
+        <v>27.93000030517578</v>
+      </c>
+      <c r="P25" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="26">
@@ -1879,49 +1863,57 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>104.8199996948242</v>
+        <v>28.92000007629395</v>
       </c>
       <c r="C26" t="n">
-        <v>106.9100036621094</v>
+        <v>30.09000015258789</v>
       </c>
       <c r="D26" t="n">
-        <v>102.4400024414062</v>
+        <v>27.6200008392334</v>
       </c>
       <c r="E26" t="n">
-        <v>104.8000030517578</v>
+        <v>27.81999969482422</v>
       </c>
       <c r="F26" t="n">
-        <v>108.0805095175734</v>
+        <v>31.41711263542561</v>
       </c>
       <c r="G26" t="n">
-        <v>107.063095399443</v>
+        <v>32.43100641998787</v>
       </c>
       <c r="H26" t="n">
-        <v>101.8317851628251</v>
-      </c>
-      <c r="I26" t="n">
-        <v>106.9100036621094</v>
-      </c>
-      <c r="J26" t="n">
-        <v>108.1150031253053</v>
+        <v>33.42994208847281</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>0.02895</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>44999</v>
+        <v>44998</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.01999664306640625</v>
+        <v>-0.7999992370605469</v>
       </c>
       <c r="N26" t="n">
-        <v>5</v>
-      </c>
-      <c r="O26" t="n">
-        <v>104.8199996948242</v>
-      </c>
-      <c r="P26" t="n">
-        <v>-2</v>
+        <v>7</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1929,25 +1921,25 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>110.0299987792969</v>
+        <v>28.23999977111816</v>
       </c>
       <c r="C27" t="n">
-        <v>110.129997253418</v>
+        <v>28.97999954223633</v>
       </c>
       <c r="D27" t="n">
-        <v>105.9599990844727</v>
+        <v>26.31999969482422</v>
       </c>
       <c r="E27" t="n">
-        <v>106.879997253418</v>
+        <v>27.13999938964844</v>
       </c>
       <c r="F27" t="n">
-        <v>108.0805095175734</v>
+        <v>29.99140822016656</v>
       </c>
       <c r="G27" t="n">
-        <v>107.063095399443</v>
+        <v>31.25522707991244</v>
       </c>
       <c r="H27" t="n">
-        <v>101.8317851628251</v>
+        <v>32.68994882978758</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1960,16 +1952,16 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>0.1096</v>
+        <v>0</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>44984</v>
+        <v>45005</v>
       </c>
       <c r="M27" t="n">
-        <v>0.30999755859375</v>
+        <v>-0.7999992370605469</v>
       </c>
       <c r="N27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -1987,25 +1979,25 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>107.6600036621094</v>
+        <v>27.93000030517578</v>
       </c>
       <c r="C28" t="n">
-        <v>112.1800003051758</v>
+        <v>29.05999946594238</v>
       </c>
       <c r="D28" t="n">
-        <v>107.1100006103516</v>
+        <v>27.90999984741211</v>
       </c>
       <c r="E28" t="n">
-        <v>107.6900024414062</v>
+        <v>28.60000038146973</v>
       </c>
       <c r="F28" t="n">
-        <v>107.9243066871065</v>
+        <v>29.52760560726762</v>
       </c>
       <c r="G28" t="n">
-        <v>107.1466830050381</v>
+        <v>30.66517670248072</v>
       </c>
       <c r="H28" t="n">
-        <v>102.1868286342543</v>
+        <v>32.20877842410313</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -2018,16 +2010,16 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>0.1398</v>
+        <v>0</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>44991</v>
+        <v>45012</v>
       </c>
       <c r="M28" t="n">
-        <v>0.30999755859375</v>
+        <v>-0.7999992370605469</v>
       </c>
       <c r="N28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2045,57 +2037,49 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>104.4700012207031</v>
+        <v>28.63999938964844</v>
       </c>
       <c r="C29" t="n">
-        <v>108.8399963378906</v>
+        <v>28.97999954223633</v>
       </c>
       <c r="D29" t="n">
-        <v>103.4899978637695</v>
+        <v>27.45999908447266</v>
       </c>
       <c r="E29" t="n">
-        <v>104.0999984741211</v>
+        <v>27.84000015258789</v>
       </c>
       <c r="F29" t="n">
-        <v>106.3945834019124</v>
+        <v>29.99140822016656</v>
       </c>
       <c r="G29" t="n">
-        <v>106.7404584009159</v>
+        <v>31.25522707991244</v>
       </c>
       <c r="H29" t="n">
-        <v>102.302778321519</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
+        <v>32.68994882978758</v>
+      </c>
+      <c r="I29" t="n">
+        <v>28.97999954223633</v>
+      </c>
+      <c r="J29" t="n">
+        <v>29.62713607066867</v>
       </c>
       <c r="K29" t="n">
-        <v>0.14365</v>
+        <v>0</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>44998</v>
+        <v>45013</v>
       </c>
       <c r="M29" t="n">
-        <v>0.30999755859375</v>
+        <v>-0.7999992370605469</v>
       </c>
       <c r="N29" t="n">
-        <v>6</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="O29" t="n">
+        <v>28.63999938964844</v>
+      </c>
+      <c r="P29" t="n">
+        <v>-279</v>
       </c>
     </row>
     <row r="30">
@@ -2103,25 +2087,25 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>104.8199996948242</v>
+        <v>28.23999977111816</v>
       </c>
       <c r="C30" t="n">
-        <v>106.9100036621094</v>
+        <v>28.97999954223633</v>
       </c>
       <c r="D30" t="n">
-        <v>102.4400024414062</v>
+        <v>26.31999969482422</v>
       </c>
       <c r="E30" t="n">
-        <v>104.8000030517578</v>
+        <v>27.13999938964844</v>
       </c>
       <c r="F30" t="n">
-        <v>105.7567512618505</v>
+        <v>29.99140822016656</v>
       </c>
       <c r="G30" t="n">
-        <v>106.4817310210281</v>
+        <v>31.25522707991244</v>
       </c>
       <c r="H30" t="n">
-        <v>102.4541252748668</v>
+        <v>32.68994882978758</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -2140,10 +2124,10 @@
         <v>45005</v>
       </c>
       <c r="M30" t="n">
-        <v>0.30999755859375</v>
+        <v>1.559943430421992</v>
       </c>
       <c r="N30" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2161,49 +2145,57 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>106.0800018310547</v>
+        <v>27.93000030517578</v>
       </c>
       <c r="C31" t="n">
-        <v>107.6100006103516</v>
+        <v>29.05999946594238</v>
       </c>
       <c r="D31" t="n">
-        <v>104.5299987792969</v>
+        <v>27.90999984741211</v>
       </c>
       <c r="E31" t="n">
-        <v>106.3899993896484</v>
+        <v>28.60000038146973</v>
       </c>
       <c r="F31" t="n">
-        <v>107.9243066871065</v>
+        <v>29.52760560726762</v>
       </c>
       <c r="G31" t="n">
-        <v>107.1466830050381</v>
+        <v>30.66517670248072</v>
       </c>
       <c r="H31" t="n">
-        <v>102.1868286342543</v>
-      </c>
-      <c r="I31" t="n">
-        <v>107.6100006103516</v>
-      </c>
-      <c r="J31" t="n">
-        <v>108.9426786276833</v>
+        <v>32.20877842410313</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>45006</v>
+        <v>45012</v>
       </c>
       <c r="M31" t="n">
-        <v>0.30999755859375</v>
+        <v>1.559943430421992</v>
       </c>
       <c r="N31" t="n">
-        <v>6</v>
-      </c>
-      <c r="O31" t="n">
-        <v>106.0800018310547</v>
-      </c>
-      <c r="P31" t="n">
-        <v>29</v>
+        <v>8</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -2211,25 +2203,25 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>107.6600036621094</v>
+        <v>28.63999938964844</v>
       </c>
       <c r="C32" t="n">
-        <v>112.1800003051758</v>
+        <v>28.97999954223633</v>
       </c>
       <c r="D32" t="n">
-        <v>107.1100006103516</v>
+        <v>27.45999908447266</v>
       </c>
       <c r="E32" t="n">
-        <v>107.6900024414062</v>
+        <v>27.84000015258789</v>
       </c>
       <c r="F32" t="n">
-        <v>107.9243066871065</v>
+        <v>28.96507045570771</v>
       </c>
       <c r="G32" t="n">
-        <v>107.1466830050381</v>
+        <v>30.03735969139343</v>
       </c>
       <c r="H32" t="n">
-        <v>102.1868286342543</v>
+        <v>31.69480450980722</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -2242,16 +2234,16 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>0.1398</v>
+        <v>0</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>44991</v>
+        <v>45019</v>
       </c>
       <c r="M32" t="n">
-        <v>6.31088698721075</v>
+        <v>1.559943430421992</v>
       </c>
       <c r="N32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2269,57 +2261,49 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>104.4700012207031</v>
+        <v>27.67000007629395</v>
       </c>
       <c r="C33" t="n">
-        <v>108.8399963378906</v>
+        <v>29.8700008392334</v>
       </c>
       <c r="D33" t="n">
-        <v>103.4899978637695</v>
+        <v>27.64999961853027</v>
       </c>
       <c r="E33" t="n">
-        <v>104.0999984741211</v>
+        <v>29.52000045776367</v>
       </c>
       <c r="F33" t="n">
-        <v>106.3945834019124</v>
+        <v>29.52760560726762</v>
       </c>
       <c r="G33" t="n">
-        <v>106.7404584009159</v>
+        <v>30.66517670248072</v>
       </c>
       <c r="H33" t="n">
-        <v>102.302778321519</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
+        <v>32.20877842410313</v>
+      </c>
+      <c r="I33" t="n">
+        <v>29.8700008392334</v>
+      </c>
+      <c r="J33" t="n">
+        <v>29.22994350671594</v>
       </c>
       <c r="K33" t="n">
-        <v>0.14365</v>
+        <v>0</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>44998</v>
+        <v>45020</v>
       </c>
       <c r="M33" t="n">
-        <v>6.31088698721075</v>
+        <v>1.559943430421992</v>
       </c>
       <c r="N33" t="n">
-        <v>7</v>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="O33" t="n">
+        <v>27.67000007629395</v>
+      </c>
+      <c r="P33" t="n">
+        <v>563</v>
       </c>
     </row>
     <row r="34">
@@ -2327,25 +2311,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>104.8199996948242</v>
+        <v>29.79000091552734</v>
       </c>
       <c r="C34" t="n">
-        <v>106.9100036621094</v>
+        <v>29.89999961853027</v>
       </c>
       <c r="D34" t="n">
-        <v>102.4400024414062</v>
+        <v>28.29999923706055</v>
       </c>
       <c r="E34" t="n">
-        <v>104.8000030517578</v>
+        <v>29.28000068664551</v>
       </c>
       <c r="F34" t="n">
-        <v>105.7567512618505</v>
+        <v>29.35335469229357</v>
       </c>
       <c r="G34" t="n">
-        <v>106.4817310210281</v>
+        <v>29.77058249106826</v>
       </c>
       <c r="H34" t="n">
-        <v>102.4541252748668</v>
+        <v>31.02208553866947</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -2361,13 +2345,13 @@
         <v>0</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>45005</v>
+        <v>45040</v>
       </c>
       <c r="M34" t="n">
-        <v>6.31088698721075</v>
+        <v>1.025143738429634</v>
       </c>
       <c r="N34" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2385,25 +2369,25 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>106.0800018310547</v>
+        <v>29.5</v>
       </c>
       <c r="C35" t="n">
-        <v>107.6100006103516</v>
+        <v>29.54000091552734</v>
       </c>
       <c r="D35" t="n">
-        <v>104.5299987792969</v>
+        <v>26.82999992370605</v>
       </c>
       <c r="E35" t="n">
-        <v>106.3899993896484</v>
+        <v>27.70999908447266</v>
       </c>
       <c r="F35" t="n">
-        <v>106.0100505129697</v>
+        <v>28.8055694896866</v>
       </c>
       <c r="G35" t="n">
-        <v>106.4695001368442</v>
+        <v>29.31267506738035</v>
       </c>
       <c r="H35" t="n">
-        <v>102.692663100005</v>
+        <v>30.63242830876396</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2419,13 +2403,13 @@
         <v>0</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>45012</v>
+        <v>45047</v>
       </c>
       <c r="M35" t="n">
-        <v>6.31088698721075</v>
+        <v>1.025143738429634</v>
       </c>
       <c r="N35" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2443,49 +2427,57 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>105.9499969482422</v>
+        <v>28.07999992370605</v>
       </c>
       <c r="C36" t="n">
-        <v>114.1699981689453</v>
+        <v>28.14999961853027</v>
       </c>
       <c r="D36" t="n">
-        <v>105.5699996948242</v>
+        <v>26.8799991607666</v>
       </c>
       <c r="E36" t="n">
-        <v>112.3300018310547</v>
+        <v>27.09000015258789</v>
       </c>
       <c r="F36" t="n">
-        <v>106.3945834019124</v>
+        <v>28.23371304398703</v>
       </c>
       <c r="G36" t="n">
-        <v>106.7404584009159</v>
+        <v>28.81874730853758</v>
       </c>
       <c r="H36" t="n">
-        <v>102.302778321519</v>
-      </c>
-      <c r="I36" t="n">
-        <v>114.1699981689453</v>
-      </c>
-      <c r="J36" t="n">
-        <v>112.2608839354529</v>
+        <v>30.21567205509619</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>45013</v>
+        <v>45054</v>
       </c>
       <c r="M36" t="n">
-        <v>6.31088698721075</v>
+        <v>1.025143738429634</v>
       </c>
       <c r="N36" t="n">
-        <v>7</v>
-      </c>
-      <c r="O36" t="n">
-        <v>105.9499969482422</v>
-      </c>
-      <c r="P36" t="n">
-        <v>593</v>
+        <v>9</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -2493,57 +2485,49 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>104.4700012207031</v>
+        <v>27.10000038146973</v>
       </c>
       <c r="C37" t="n">
-        <v>108.8399963378906</v>
+        <v>28.67000007629395</v>
       </c>
       <c r="D37" t="n">
-        <v>103.4899978637695</v>
+        <v>27.03000068664551</v>
       </c>
       <c r="E37" t="n">
-        <v>104.0999984741211</v>
+        <v>28.11000061035156</v>
       </c>
       <c r="F37" t="n">
-        <v>106.3945834019124</v>
+        <v>28.8055694896866</v>
       </c>
       <c r="G37" t="n">
-        <v>106.7404584009159</v>
+        <v>29.31267506738035</v>
       </c>
       <c r="H37" t="n">
-        <v>102.302778321519</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
+        <v>30.63242830876396</v>
+      </c>
+      <c r="I37" t="n">
+        <v>28.67000007629395</v>
+      </c>
+      <c r="J37" t="n">
+        <v>28.12514411989936</v>
       </c>
       <c r="K37" t="n">
-        <v>0.14365</v>
+        <v>0</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>44998</v>
+        <v>45055</v>
       </c>
       <c r="M37" t="n">
-        <v>1.717192191800336</v>
+        <v>1.025143738429634</v>
       </c>
       <c r="N37" t="n">
-        <v>8</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="O37" t="n">
+        <v>27.10000038146973</v>
+      </c>
+      <c r="P37" t="n">
+        <v>378</v>
       </c>
     </row>
     <row r="38">
@@ -2551,25 +2535,25 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>104.8199996948242</v>
+        <v>28.81999969482422</v>
       </c>
       <c r="C38" t="n">
-        <v>106.9100036621094</v>
+        <v>29.64999961853027</v>
       </c>
       <c r="D38" t="n">
-        <v>102.4400024414062</v>
+        <v>28.29999923706055</v>
       </c>
       <c r="E38" t="n">
-        <v>104.8000030517578</v>
+        <v>29.27000045776367</v>
       </c>
       <c r="F38" t="n">
-        <v>105.7567512618505</v>
+        <v>28.68406670442026</v>
       </c>
       <c r="G38" t="n">
-        <v>106.4817310210281</v>
+        <v>28.75773386140413</v>
       </c>
       <c r="H38" t="n">
-        <v>102.4541252748668</v>
+        <v>29.60339452812994</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2585,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>45005</v>
+        <v>45082</v>
       </c>
       <c r="M38" t="n">
-        <v>1.717192191800336</v>
+        <v>0.02879213512642309</v>
       </c>
       <c r="N38" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -2609,25 +2593,25 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>106.0800018310547</v>
+        <v>29.29999923706055</v>
       </c>
       <c r="C39" t="n">
-        <v>107.6100006103516</v>
+        <v>29.79999923706055</v>
       </c>
       <c r="D39" t="n">
-        <v>104.5299987792969</v>
+        <v>28.69000053405762</v>
       </c>
       <c r="E39" t="n">
-        <v>106.3899993896484</v>
+        <v>29.19000053405762</v>
       </c>
       <c r="F39" t="n">
-        <v>106.0100505129697</v>
+        <v>28.85271131429938</v>
       </c>
       <c r="G39" t="n">
-        <v>106.4695001368442</v>
+        <v>28.8537931219938</v>
       </c>
       <c r="H39" t="n">
-        <v>102.692663100005</v>
+        <v>29.55475994059202</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2643,13 +2627,13 @@
         <v>0</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>45012</v>
+        <v>45089</v>
       </c>
       <c r="M39" t="n">
-        <v>1.717192191800336</v>
+        <v>0.02879213512642309</v>
       </c>
       <c r="N39" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -2667,25 +2651,25 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>105.9499969482422</v>
+        <v>29.01000022888184</v>
       </c>
       <c r="C40" t="n">
-        <v>114.1699981689453</v>
+        <v>29.04000091552734</v>
       </c>
       <c r="D40" t="n">
-        <v>105.5699996948242</v>
+        <v>27.59000015258789</v>
       </c>
       <c r="E40" t="n">
-        <v>112.3300018310547</v>
+        <v>27.75</v>
       </c>
       <c r="F40" t="n">
-        <v>108.5380310402037</v>
+        <v>28.48514087619959</v>
       </c>
       <c r="G40" t="n">
-        <v>107.2509003627389</v>
+        <v>28.60850576155073</v>
       </c>
       <c r="H40" t="n">
-        <v>103.2767442352202</v>
+        <v>29.34243524169884</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2701,13 +2685,13 @@
         <v>0</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>45019</v>
+        <v>45096</v>
       </c>
       <c r="M40" t="n">
-        <v>1.717192191800336</v>
+        <v>0.02879213512642309</v>
       </c>
       <c r="N40" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -2725,49 +2709,49 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>112.9599990844727</v>
+        <v>27.79999923706055</v>
       </c>
       <c r="C41" t="n">
-        <v>116.1699981689453</v>
+        <v>29.11000061035156</v>
       </c>
       <c r="D41" t="n">
-        <v>111.1699981689453</v>
+        <v>27.79000091552734</v>
       </c>
       <c r="E41" t="n">
-        <v>115.3099975585938</v>
+        <v>28.69000053405762</v>
       </c>
       <c r="F41" t="n">
-        <v>105.7567512618505</v>
+        <v>28.85271131429938</v>
       </c>
       <c r="G41" t="n">
-        <v>106.4817310210281</v>
+        <v>28.8537931219938</v>
       </c>
       <c r="H41" t="n">
-        <v>102.4541252748668</v>
+        <v>29.55475994059202</v>
       </c>
       <c r="I41" t="n">
-        <v>116.1699981689453</v>
+        <v>29.11000061035156</v>
       </c>
       <c r="J41" t="n">
-        <v>114.677191276273</v>
+        <v>27.82879137218697</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>45020</v>
+        <v>45097</v>
       </c>
       <c r="M41" t="n">
-        <v>1.717192191800336</v>
+        <v>0.02879213512642309</v>
       </c>
       <c r="N41" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O41" t="n">
-        <v>112.9599990844727</v>
+        <v>27.79999923706055</v>
       </c>
       <c r="P41" t="n">
-        <v>153</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -2775,25 +2759,25 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>105.9499969482422</v>
+        <v>27.79999923706055</v>
       </c>
       <c r="C42" t="n">
-        <v>114.1699981689453</v>
+        <v>29.11000061035156</v>
       </c>
       <c r="D42" t="n">
-        <v>105.5699996948242</v>
+        <v>27.79000091552734</v>
       </c>
       <c r="E42" t="n">
-        <v>112.3300018310547</v>
+        <v>28.69000053405762</v>
       </c>
       <c r="F42" t="n">
-        <v>108.5380310402037</v>
+        <v>28.55342742881894</v>
       </c>
       <c r="G42" t="n">
-        <v>107.2509003627389</v>
+        <v>28.6266157109967</v>
       </c>
       <c r="H42" t="n">
-        <v>103.2767442352202</v>
+        <v>29.26567821727046</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2809,13 +2793,13 @@
         <v>0</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>45019</v>
+        <v>45103</v>
       </c>
       <c r="M42" t="n">
-        <v>0.18507216261807</v>
+        <v>1.261733543132323</v>
       </c>
       <c r="N42" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -2833,25 +2817,25 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>112.9599990844727</v>
+        <v>28.70000076293945</v>
       </c>
       <c r="C43" t="n">
-        <v>116.1699981689453</v>
+        <v>29.42000007629395</v>
       </c>
       <c r="D43" t="n">
-        <v>111.1699981689453</v>
+        <v>28.10000038146973</v>
       </c>
       <c r="E43" t="n">
-        <v>115.3099975585938</v>
+        <v>28.53000068664551</v>
       </c>
       <c r="F43" t="n">
-        <v>111.2468176475597</v>
+        <v>28.54561851476113</v>
       </c>
       <c r="G43" t="n">
-        <v>108.3254466555196</v>
+        <v>28.60514570558533</v>
       </c>
       <c r="H43" t="n">
-        <v>104.0060323154246</v>
+        <v>29.17912791954988</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2867,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>45026</v>
+        <v>45110</v>
       </c>
       <c r="M43" t="n">
-        <v>0.18507216261807</v>
+        <v>1.261733543132323</v>
       </c>
       <c r="N43" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -2891,25 +2875,25 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>115.6900024414062</v>
+        <v>28.59000015258789</v>
       </c>
       <c r="C44" t="n">
-        <v>116.4499969482422</v>
+        <v>30.10000038146973</v>
       </c>
       <c r="D44" t="n">
-        <v>113</v>
+        <v>28.42000007629395</v>
       </c>
       <c r="E44" t="n">
-        <v>115.370002746582</v>
+        <v>29.11000061035156</v>
       </c>
       <c r="F44" t="n">
-        <v>112.8960916871686</v>
+        <v>28.73374587995794</v>
       </c>
       <c r="G44" t="n">
-        <v>109.2647208009946</v>
+        <v>28.71733568442227</v>
       </c>
       <c r="H44" t="n">
-        <v>104.6947577961008</v>
+        <v>29.17099529493831</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2925,13 +2909,13 @@
         <v>0</v>
       </c>
       <c r="L44" s="2" t="n">
-        <v>45033</v>
+        <v>45117</v>
       </c>
       <c r="M44" t="n">
-        <v>0.18507216261807</v>
+        <v>1.261733543132323</v>
       </c>
       <c r="N44" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -2949,671 +2933,49 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>115.6399993896484</v>
+        <v>29.14999961853027</v>
       </c>
       <c r="C45" t="n">
-        <v>116.8600006103516</v>
+        <v>32.11000061035156</v>
       </c>
       <c r="D45" t="n">
-        <v>110.6600036621094</v>
+        <v>29.1200008392334</v>
       </c>
       <c r="E45" t="n">
-        <v>115.4700012207031</v>
+        <v>31.97999954223633</v>
       </c>
       <c r="F45" t="n">
-        <v>113.9256555005825</v>
+        <v>28.54561851476113</v>
       </c>
       <c r="G45" t="n">
-        <v>110.0920915236224</v>
+        <v>28.60514570558533</v>
       </c>
       <c r="H45" t="n">
-        <v>105.3478028521373</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
+        <v>29.17912791954988</v>
+      </c>
+      <c r="I45" t="n">
+        <v>32.11000061035156</v>
+      </c>
+      <c r="J45" t="n">
+        <v>30.4117331616626</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" s="2" t="n">
-        <v>45040</v>
+        <v>45118</v>
       </c>
       <c r="M45" t="n">
-        <v>0.18507216261807</v>
+        <v>1.261733543132323</v>
       </c>
       <c r="N45" t="n">
-        <v>9</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>115.8000030517578</v>
-      </c>
-      <c r="C46" t="n">
-        <v>119.6500015258789</v>
-      </c>
-      <c r="D46" t="n">
-        <v>115.2699966430664</v>
-      </c>
-      <c r="E46" t="n">
-        <v>117.6800003051758</v>
-      </c>
-      <c r="F46" t="n">
-        <v>111.2468176475597</v>
-      </c>
-      <c r="G46" t="n">
-        <v>108.3254466555196</v>
-      </c>
-      <c r="H46" t="n">
-        <v>104.0060323154246</v>
-      </c>
-      <c r="I46" t="n">
-        <v>119.6500015258789</v>
-      </c>
-      <c r="J46" t="n">
-        <v>115.9850752143759</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2" t="n">
-        <v>45041</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.18507216261807</v>
-      </c>
-      <c r="N46" t="n">
-        <v>9</v>
-      </c>
-      <c r="O46" t="n">
-        <v>115.8000030517578</v>
-      </c>
-      <c r="P46" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>115.8000030517578</v>
-      </c>
-      <c r="C47" t="n">
-        <v>119.6500015258789</v>
-      </c>
-      <c r="D47" t="n">
-        <v>115.2699966430664</v>
-      </c>
-      <c r="E47" t="n">
-        <v>117.6800003051758</v>
-      </c>
-      <c r="F47" t="n">
-        <v>115.4273934224198</v>
-      </c>
-      <c r="G47" t="n">
-        <v>111.1038126944961</v>
-      </c>
-      <c r="H47" t="n">
-        <v>106.0952087583821</v>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" s="2" t="n">
-        <v>45047</v>
-      </c>
-      <c r="M47" t="n">
-        <v>2.389999389648438</v>
-      </c>
-      <c r="N47" t="n">
-        <v>10</v>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>117.0800018310547</v>
-      </c>
-      <c r="C48" t="n">
-        <v>118.629997253418</v>
-      </c>
-      <c r="D48" t="n">
-        <v>116.379997253418</v>
-      </c>
-      <c r="E48" t="n">
-        <v>117.1399993896484</v>
-      </c>
-      <c r="F48" t="n">
-        <v>116.1124358093113</v>
-      </c>
-      <c r="G48" t="n">
-        <v>111.9086375871831</v>
-      </c>
-      <c r="H48" t="n">
-        <v>106.7645900087619</v>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2" t="n">
-        <v>45054</v>
-      </c>
-      <c r="M48" t="n">
-        <v>2.389999389648438</v>
-      </c>
-      <c r="N48" t="n">
-        <v>10</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>117.1399993896484</v>
-      </c>
-      <c r="C49" t="n">
-        <v>117.7399978637695</v>
-      </c>
-      <c r="D49" t="n">
-        <v>113.3300018310547</v>
-      </c>
-      <c r="E49" t="n">
-        <v>115.4899978637695</v>
-      </c>
-      <c r="F49" t="n">
-        <v>115.8634606310946</v>
-      </c>
-      <c r="G49" t="n">
-        <v>112.386152290728</v>
-      </c>
-      <c r="H49" t="n">
-        <v>107.2934026060351</v>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2" t="n">
-        <v>45061</v>
-      </c>
-      <c r="M49" t="n">
-        <v>2.389999389648438</v>
-      </c>
-      <c r="N49" t="n">
-        <v>10</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>115.4800033569336</v>
-      </c>
-      <c r="C50" t="n">
-        <v>117.0800018310547</v>
-      </c>
-      <c r="D50" t="n">
-        <v>110.6500015258789</v>
-      </c>
-      <c r="E50" t="n">
-        <v>111.0699996948242</v>
-      </c>
-      <c r="F50" t="n">
-        <v>113.9460762565864</v>
-      </c>
-      <c r="G50" t="n">
-        <v>112.2106652779408</v>
-      </c>
-      <c r="H50" t="n">
-        <v>107.5222872780829</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2" t="n">
-        <v>45068</v>
-      </c>
-      <c r="M50" t="n">
-        <v>2.389999389648438</v>
-      </c>
-      <c r="N50" t="n">
-        <v>10</v>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>110.129997253418</v>
-      </c>
-      <c r="C51" t="n">
-        <v>112.7300033569336</v>
-      </c>
-      <c r="D51" t="n">
-        <v>108.4700012207031</v>
-      </c>
-      <c r="E51" t="n">
-        <v>112.5199966430664</v>
-      </c>
-      <c r="F51" t="n">
-        <v>116.1124358093113</v>
-      </c>
-      <c r="G51" t="n">
-        <v>111.9086375871831</v>
-      </c>
-      <c r="H51" t="n">
-        <v>106.7645900087619</v>
-      </c>
-      <c r="I51" t="n">
-        <v>112.7300033569336</v>
-      </c>
-      <c r="J51" t="n">
-        <v>112.9537469277353</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2" t="n">
-        <v>45069</v>
-      </c>
-      <c r="M51" t="n">
-        <v>2.389999389648438</v>
-      </c>
-      <c r="N51" t="n">
-        <v>10</v>
-      </c>
-      <c r="O51" t="n">
-        <v>110.129997253418</v>
-      </c>
-      <c r="P51" t="n">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>117.1399993896484</v>
-      </c>
-      <c r="C52" t="n">
-        <v>117.7399978637695</v>
-      </c>
-      <c r="D52" t="n">
-        <v>113.3300018310547</v>
-      </c>
-      <c r="E52" t="n">
-        <v>115.4899978637695</v>
-      </c>
-      <c r="F52" t="n">
-        <v>115.8634606310946</v>
-      </c>
-      <c r="G52" t="n">
-        <v>112.386152290728</v>
-      </c>
-      <c r="H52" t="n">
-        <v>107.2934026060351</v>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2" t="n">
-        <v>45061</v>
-      </c>
-      <c r="M52" t="n">
-        <v>-0.8700027465820312</v>
-      </c>
-      <c r="N52" t="n">
         <v>11</v>
       </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>115.4800033569336</v>
-      </c>
-      <c r="C53" t="n">
-        <v>117.0800018310547</v>
-      </c>
-      <c r="D53" t="n">
-        <v>110.6500015258789</v>
-      </c>
-      <c r="E53" t="n">
-        <v>111.0699996948242</v>
-      </c>
-      <c r="F53" t="n">
-        <v>113.9460762565864</v>
-      </c>
-      <c r="G53" t="n">
-        <v>112.2106652779408</v>
-      </c>
-      <c r="H53" t="n">
-        <v>107.5222872780829</v>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2" t="n">
-        <v>45068</v>
-      </c>
-      <c r="M53" t="n">
-        <v>-0.8700027465820312</v>
-      </c>
-      <c r="N53" t="n">
-        <v>11</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>110.129997253418</v>
-      </c>
-      <c r="C54" t="n">
-        <v>112.7300033569336</v>
-      </c>
-      <c r="D54" t="n">
-        <v>108.4700012207031</v>
-      </c>
-      <c r="E54" t="n">
-        <v>112.5199966430664</v>
-      </c>
-      <c r="F54" t="n">
-        <v>113.3756444111784</v>
-      </c>
-      <c r="G54" t="n">
-        <v>112.2519094599576</v>
-      </c>
-      <c r="H54" t="n">
-        <v>107.8251787547486</v>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2" t="n">
-        <v>45075</v>
-      </c>
-      <c r="M54" t="n">
-        <v>-0.8700027465820312</v>
-      </c>
-      <c r="N54" t="n">
-        <v>11</v>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>113</v>
-      </c>
-      <c r="C55" t="n">
-        <v>114.4800033569336</v>
-      </c>
-      <c r="D55" t="n">
-        <v>106.870002746582</v>
-      </c>
-      <c r="E55" t="n">
-        <v>110.7099990844727</v>
-      </c>
-      <c r="F55" t="n">
-        <v>112.3093862804961</v>
-      </c>
-      <c r="G55" t="n">
-        <v>112.0463214098929</v>
-      </c>
-      <c r="H55" t="n">
-        <v>108.0000163504895</v>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2" t="n">
-        <v>45082</v>
-      </c>
-      <c r="M55" t="n">
-        <v>-0.8700027465820312</v>
-      </c>
-      <c r="N55" t="n">
-        <v>11</v>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>110.1900024414062</v>
-      </c>
-      <c r="C56" t="n">
-        <v>110.9899978637695</v>
-      </c>
-      <c r="D56" t="n">
-        <v>108.0500030517578</v>
-      </c>
-      <c r="E56" t="n">
-        <v>109.3199996948242</v>
-      </c>
-      <c r="F56" t="n">
-        <v>113.9460762565864</v>
-      </c>
-      <c r="G56" t="n">
-        <v>112.2106652779408</v>
-      </c>
-      <c r="H56" t="n">
-        <v>107.5222872780829</v>
-      </c>
-      <c r="I56" t="n">
-        <v>110.9899978637695</v>
-      </c>
-      <c r="J56" t="n">
-        <v>113.0036100321231</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" s="2" t="n">
-        <v>45083</v>
-      </c>
-      <c r="M56" t="n">
-        <v>-0.8700027465820312</v>
-      </c>
-      <c r="N56" t="n">
-        <v>11</v>
-      </c>
-      <c r="O56" t="n">
-        <v>110.1900024414062</v>
-      </c>
-      <c r="P56" t="n">
-        <v>-79</v>
+      <c r="O45" t="n">
+        <v>29.14999961853027</v>
+      </c>
+      <c r="P45" t="n">
+        <v>433</v>
       </c>
     </row>
   </sheetData>
